--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>TotalScore</t>
+          <t>TotalRiskScore</t>
         </is>
       </c>
     </row>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -858,13 +858,13 @@
         <v>-2.069303704895304</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.565800960080199</v>
+        <v>7.566724743300953</v>
       </c>
       <c r="AL3" t="n">
         <v>1.943376229480157</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.553121025704738</v>
+        <v>3.554044808925492</v>
       </c>
     </row>
     <row r="4">
@@ -1463,13 +1463,13 @@
         <v>-2.694470250495795</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.29492642426511</v>
+        <v>13.29608581276644</v>
       </c>
       <c r="AL8" t="n">
         <v>2.466377417990771</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.134078755778546</v>
+        <v>8.135238144279878</v>
       </c>
     </row>
     <row r="9">
@@ -1705,13 +1705,13 @@
         <v>-5.828112964809321</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.959165764563393</v>
+        <v>8.959119085391755</v>
       </c>
       <c r="AL10" t="n">
         <v>2.921626792037109</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2094260077169623</v>
+        <v>0.2093793285453249</v>
       </c>
     </row>
     <row r="11">
@@ -1947,13 +1947,13 @@
         <v>2.982709325674302</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.752292224286146</v>
+        <v>8.659770178042942</v>
       </c>
       <c r="AL12" t="n">
         <v>1.20650060678588</v>
       </c>
       <c r="AM12" t="n">
-        <v>10.52850094317457</v>
+        <v>10.43597889693136</v>
       </c>
     </row>
     <row r="13">
@@ -2310,13 +2310,13 @@
         <v>-1.566688040239498</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.370779851928386</v>
+        <v>7.371025177774848</v>
       </c>
       <c r="AL15" t="n">
         <v>3.25792022508047</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.546171586608418</v>
+        <v>2.546416912454879</v>
       </c>
     </row>
     <row r="16">
@@ -2431,13 +2431,13 @@
         <v>-3.671417817874186</v>
       </c>
       <c r="AK16" t="n">
-        <v>10.48583263473358</v>
+        <v>10.48614932616124</v>
       </c>
       <c r="AL16" t="n">
         <v>2.353966381743893</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.460448435115504</v>
+        <v>4.460765126543162</v>
       </c>
     </row>
     <row r="17">
@@ -2552,13 +2552,13 @@
         <v>-0.07414505637994247</v>
       </c>
       <c r="AK17" t="n">
-        <v>10.38353858003946</v>
+        <v>10.38340618139177</v>
       </c>
       <c r="AL17" t="n">
         <v>2.448334961485563</v>
       </c>
       <c r="AM17" t="n">
-        <v>7.861058562173951</v>
+        <v>7.860926163526263</v>
       </c>
     </row>
     <row r="18">
@@ -3520,13 +3520,13 @@
         <v>-4.853747711805565</v>
       </c>
       <c r="AK25" t="n">
-        <v>9.316701209644037</v>
+        <v>9.316789570635473</v>
       </c>
       <c r="AL25" t="n">
         <v>2.69592875790635</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.767024739932122</v>
+        <v>1.767113100923558</v>
       </c>
     </row>
     <row r="26">
@@ -3641,13 +3641,13 @@
         <v>-0.8094468542068634</v>
       </c>
       <c r="AK26" t="n">
-        <v>11.95137014387923</v>
+        <v>11.95162095170882</v>
       </c>
       <c r="AL26" t="n">
         <v>1.321288630557237</v>
       </c>
       <c r="AM26" t="n">
-        <v>9.820634659115125</v>
+        <v>9.82088546694472</v>
       </c>
     </row>
     <row r="27">
@@ -3762,13 +3762,13 @@
         <v>-4.126016039226357</v>
       </c>
       <c r="AK27" t="n">
-        <v>12.91704153002054</v>
+        <v>12.91732193173242</v>
       </c>
       <c r="AL27" t="n">
         <v>2.63080341085498</v>
       </c>
       <c r="AM27" t="n">
-        <v>6.160222079939198</v>
+        <v>6.160502481651077</v>
       </c>
     </row>
     <row r="28">
@@ -4125,13 +4125,13 @@
         <v>-2.152169018543387</v>
       </c>
       <c r="AK30" t="n">
-        <v>10.91827627198042</v>
+        <v>10.91848008369316</v>
       </c>
       <c r="AL30" t="n">
         <v>3.258304687144962</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.507802566292066</v>
+        <v>5.508006378004813</v>
       </c>
     </row>
     <row r="31">
@@ -5093,13 +5093,13 @@
         <v>-5.882090956034646</v>
       </c>
       <c r="AK38" t="n">
-        <v>9.791257017173983</v>
+        <v>9.791283855774291</v>
       </c>
       <c r="AL38" t="n">
         <v>2.844241268734032</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.064924792405305</v>
+        <v>1.064951631005612</v>
       </c>
     </row>
     <row r="39">
@@ -5335,13 +5335,13 @@
         <v>-0.9839453289403881</v>
       </c>
       <c r="AK40" t="n">
-        <v>9.432452009433513</v>
+        <v>9.432661815350977</v>
       </c>
       <c r="AL40" t="n">
         <v>1.87250846798494</v>
       </c>
       <c r="AM40" t="n">
-        <v>6.575998212508186</v>
+        <v>6.57620801842565</v>
       </c>
     </row>
     <row r="41">
@@ -7634,13 +7634,13 @@
         <v>-4.778643052285567</v>
       </c>
       <c r="AK59" t="n">
-        <v>10.78550850790196</v>
+        <v>10.78562108124832</v>
       </c>
       <c r="AL59" t="n">
         <v>2.824992738297468</v>
       </c>
       <c r="AM59" t="n">
-        <v>3.181872717318921</v>
+        <v>3.181985290665283</v>
       </c>
     </row>
     <row r="60">
@@ -7755,13 +7755,13 @@
         <v>-4.493063386433525</v>
       </c>
       <c r="AK60" t="n">
-        <v>11.06132603482776</v>
+        <v>11.0614854021074</v>
       </c>
       <c r="AL60" t="n">
         <v>2.325179694425028</v>
       </c>
       <c r="AM60" t="n">
-        <v>4.243082953969211</v>
+        <v>4.243242321248847</v>
       </c>
     </row>
     <row r="61">
@@ -7876,13 +7876,13 @@
         <v>-5.945214913978574</v>
       </c>
       <c r="AK61" t="n">
-        <v>9.081285009875153</v>
+        <v>9.081287322300794</v>
       </c>
       <c r="AL61" t="n">
         <v>2.850968133067187</v>
       </c>
       <c r="AM61" t="n">
-        <v>0.2851019628293918</v>
+        <v>0.285104275255033</v>
       </c>
     </row>
     <row r="62">
@@ -7997,13 +7997,13 @@
         <v>-1.106430430453641</v>
       </c>
       <c r="AK62" t="n">
-        <v>11.3491366871229</v>
+        <v>11.39511404331832</v>
       </c>
       <c r="AL62" t="n">
         <v>1.982485564443892</v>
       </c>
       <c r="AM62" t="n">
-        <v>8.260220692225365</v>
+        <v>8.306198048420791</v>
       </c>
     </row>
     <row r="63">
@@ -8360,13 +8360,13 @@
         <v>-5.375873056756035</v>
       </c>
       <c r="AK65" t="n">
-        <v>11.10925272503597</v>
+        <v>11.10943158934868</v>
       </c>
       <c r="AL65" t="n">
         <v>3.229072804533929</v>
       </c>
       <c r="AM65" t="n">
-        <v>2.504306863746006</v>
+        <v>2.504485728058713</v>
       </c>
     </row>
     <row r="66">
@@ -8602,13 +8602,13 @@
         <v>-4.700289978526146</v>
       </c>
       <c r="AK67" t="n">
-        <v>9.557076536849433</v>
+        <v>9.557016881066625</v>
       </c>
       <c r="AL67" t="n">
         <v>2.988979749536568</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.867806808786719</v>
+        <v>1.867747153003911</v>
       </c>
     </row>
     <row r="68">
@@ -8723,13 +8723,13 @@
         <v>-6.039568501862479</v>
       </c>
       <c r="AK68" t="n">
-        <v>9.981171891272425</v>
+        <v>9.981727725265163</v>
       </c>
       <c r="AL68" t="n">
         <v>3.157101240805398</v>
       </c>
       <c r="AM68" t="n">
-        <v>0.784502148604548</v>
+        <v>0.7850579825972863</v>
       </c>
     </row>
     <row r="69">
@@ -8844,13 +8844,13 @@
         <v>-2.250384075530675</v>
       </c>
       <c r="AK69" t="n">
-        <v>10.76904969471649</v>
+        <v>10.76943308418791</v>
       </c>
       <c r="AL69" t="n">
         <v>2.287494107006678</v>
       </c>
       <c r="AM69" t="n">
-        <v>6.231171512179133</v>
+        <v>6.231554901650561</v>
       </c>
     </row>
     <row r="70">
@@ -8965,13 +8965,13 @@
         <v>-5.524917825354797</v>
       </c>
       <c r="AK70" t="n">
-        <v>7.939771581918579</v>
+        <v>7.939705727123222</v>
       </c>
       <c r="AL70" t="n">
         <v>2.079037696280881</v>
       </c>
       <c r="AM70" t="n">
-        <v>0.3358160602829003</v>
+        <v>0.3357502054875439</v>
       </c>
     </row>
     <row r="71">
@@ -9086,13 +9086,13 @@
         <v>-5.223523689924362</v>
       </c>
       <c r="AK71" t="n">
-        <v>7.157736156070591</v>
+        <v>7.157723775418602</v>
       </c>
       <c r="AL71" t="n">
         <v>2.711267782049019</v>
       </c>
       <c r="AM71" t="n">
-        <v>-0.7770553159027904</v>
+        <v>-0.7770676965547794</v>
       </c>
     </row>
     <row r="72">
@@ -9328,13 +9328,13 @@
         <v>-2.312283518777592</v>
       </c>
       <c r="AK73" t="n">
-        <v>11.98199298197197</v>
+        <v>11.98205063492302</v>
       </c>
       <c r="AL73" t="n">
         <v>3.022534412543458</v>
       </c>
       <c r="AM73" t="n">
-        <v>6.647175050650917</v>
+        <v>6.647232703601972</v>
       </c>
     </row>
     <row r="74">
@@ -9570,13 +9570,13 @@
         <v>-2.655620234195657</v>
       </c>
       <c r="AK75" t="n">
-        <v>11.40914197841572</v>
+        <v>11.40932506604161</v>
       </c>
       <c r="AL75" t="n">
         <v>2.315864572906233</v>
       </c>
       <c r="AM75" t="n">
-        <v>6.43765717131383</v>
+        <v>6.437840258939718</v>
       </c>
     </row>
     <row r="76">
@@ -9812,13 +9812,13 @@
         <v>-6.503778596431688</v>
       </c>
       <c r="AK77" t="n">
-        <v>7.90581551773643</v>
+        <v>7.90361339744452</v>
       </c>
       <c r="AL77" t="n">
         <v>1.85321162898101</v>
       </c>
       <c r="AM77" t="n">
-        <v>-0.4511747076762676</v>
+        <v>-0.4533768279681778</v>
       </c>
     </row>
     <row r="78">
@@ -10780,13 +10780,13 @@
         <v>-5.90734043926941</v>
       </c>
       <c r="AK85" t="n">
-        <v>6.1700645985762</v>
+        <v>6.170200355607149</v>
       </c>
       <c r="AL85" t="n">
         <v>3.047668085045672</v>
       </c>
       <c r="AM85" t="n">
-        <v>-2.784943925738882</v>
+        <v>-2.784808168707932</v>
       </c>
     </row>
     <row r="86">
@@ -10901,13 +10901,13 @@
         <v>-1.663020070932059</v>
       </c>
       <c r="AK86" t="n">
-        <v>9.511949446420639</v>
+        <v>9.512600881405731</v>
       </c>
       <c r="AL86" t="n">
         <v>1.959814633997636</v>
       </c>
       <c r="AM86" t="n">
-        <v>5.889114741490944</v>
+        <v>5.889766176476037</v>
       </c>
     </row>
     <row r="87">
@@ -11385,13 +11385,13 @@
         <v>-5.265809220387614</v>
       </c>
       <c r="AK90" t="n">
-        <v>8.608824589073309</v>
+        <v>8.608584070451485</v>
       </c>
       <c r="AL90" t="n">
         <v>2.433918121628596</v>
       </c>
       <c r="AM90" t="n">
-        <v>0.9090972470570997</v>
+        <v>0.9088567284352753</v>
       </c>
     </row>
     <row r="91">
@@ -11990,13 +11990,13 @@
         <v>-4.408474429903369</v>
       </c>
       <c r="AK95" t="n">
-        <v>11.38134156099391</v>
+        <v>11.38144294400707</v>
       </c>
       <c r="AL95" t="n">
         <v>2.013415045137802</v>
       </c>
       <c r="AM95" t="n">
-        <v>4.959452085952737</v>
+        <v>4.959553468965899</v>
       </c>
     </row>
     <row r="96">

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM103"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,20 +606,25 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>Pruritus</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>Dysbiosis</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>HealthyDistance</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Diversity</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>TotalRiskScore</t>
         </is>
@@ -683,16 +688,16 @@
         <v>0.1295957016827537</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01905408695418286</v>
+        <v>0.0207862766772904</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.07181190215008788</v>
+        <v>-0.002812615762220474</v>
       </c>
       <c r="U2" t="n">
         <v>0.02656452013946703</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.01450287017642404</v>
+        <v>-0.01351510233578261</v>
       </c>
       <c r="W2" t="n">
         <v>-0.2434324360729583</v>
@@ -710,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.2837989100423027</v>
+        <v>0.01128228155996626</v>
       </c>
       <c r="AC2" t="n">
         <v>0.005725080141041975</v>
@@ -734,16 +739,19 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.991744638508745</v>
+        <v>-0.2837989100423026</v>
       </c>
       <c r="AK2" t="n">
+        <v>-3.772888992856371</v>
+      </c>
+      <c r="AL2" t="n">
         <v>8.56975260709641</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>2.801788565973822</v>
       </c>
-      <c r="AM2" t="n">
-        <v>1.776219402613842</v>
+      <c r="AN2" t="n">
+        <v>1.995075048266217</v>
       </c>
     </row>
     <row r="3">
@@ -804,16 +812,16 @@
         <v>0.2481661401895269</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004630633242035207</v>
+        <v>0.005051599900402045</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001057328709124672</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0.3992594954655597</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.09634195463525495</v>
+        <v>-0.09797490147184415</v>
       </c>
       <c r="W3" t="n">
         <v>-0.1435650984120834</v>
@@ -831,7 +839,7 @@
         <v>0.01273215352227149</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.07839512731399524</v>
+        <v>0.02147129898693729</v>
       </c>
       <c r="AC3" t="n">
         <v>0.001354352641305313</v>
@@ -855,16 +863,19 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-2.069303704895304</v>
+        <v>-0.07839512731399524</v>
       </c>
       <c r="AK3" t="n">
+        <v>-1.339279539339436</v>
+      </c>
+      <c r="AL3" t="n">
         <v>7.566724743300953</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>1.943376229480157</v>
       </c>
-      <c r="AM3" t="n">
-        <v>3.554044808925492</v>
+      <c r="AN3" t="n">
+        <v>4.28406897448136</v>
       </c>
     </row>
     <row r="4">
@@ -925,16 +936,16 @@
         <v>0.1955384169876597</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08646721214690495</v>
+        <v>0.09432786779662358</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09903680265756473</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0.3033346899709494</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.08911571261896013</v>
+        <v>-0.0943578133612519</v>
       </c>
       <c r="W4" t="n">
         <v>-0.06798225276375904</v>
@@ -952,7 +963,7 @@
         <v>0.737347104536007</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1228790364151159</v>
+        <v>0.01833107072538664</v>
       </c>
       <c r="AC4" t="n">
         <v>0.09204826889600501</v>
@@ -976,16 +987,19 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.795529475485164</v>
+        <v>0.1228790364151159</v>
       </c>
       <c r="AK4" t="n">
+        <v>-1.172273070822017</v>
+      </c>
+      <c r="AL4" t="n">
         <v>11.24906966166723</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>2.572732680729677</v>
       </c>
-      <c r="AM4" t="n">
-        <v>6.880807505452385</v>
+      <c r="AN4" t="n">
+        <v>7.504063910115532</v>
       </c>
     </row>
     <row r="5">
@@ -1046,16 +1060,16 @@
         <v>-0.1828563705893259</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.04386758411451763</v>
+        <v>-0.04785554630674651</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1914847205411694</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0.002932597672253779</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.05439284545047487</v>
+        <v>-0.05720477767122416</v>
       </c>
       <c r="W5" t="n">
         <v>-0.1830408394328811</v>
@@ -1073,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1422986865441846</v>
+        <v>0.01172759329187711</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0004707141212669298</v>
@@ -1097,16 +1111,19 @@
         <v>0.002207795319024319</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-5.032523932010959</v>
+        <v>-0.1422986865441846</v>
       </c>
       <c r="AK5" t="n">
+        <v>-4.649009698158522</v>
+      </c>
+      <c r="AL5" t="n">
         <v>10.02259369868193</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>1.958763450397016</v>
       </c>
-      <c r="AM5" t="n">
-        <v>3.031306316273957</v>
+      <c r="AN5" t="n">
+        <v>3.414820550126394</v>
       </c>
     </row>
     <row r="6">
@@ -1167,16 +1184,16 @@
         <v>-0.05356645368571278</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.002335000934373085</v>
+        <v>-0.00254727374658882</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1688883152387997</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0825395020583824</v>
+        <v>-0.06860564410296247</v>
       </c>
       <c r="W6" t="n">
         <v>-0.1800830517414604</v>
@@ -1194,7 +1211,7 @@
         <v>0.4025210581330265</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.2797693085251196</v>
+        <v>0.02455796953567477</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1218,16 +1235,19 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-6.290706970213919</v>
+        <v>-0.2797693085251196</v>
       </c>
       <c r="AK6" t="n">
+        <v>-5.455736006000977</v>
+      </c>
+      <c r="AL6" t="n">
         <v>8.031932749077432</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>2.839958685856766</v>
       </c>
-      <c r="AM6" t="n">
-        <v>-1.098732906993253</v>
+      <c r="AN6" t="n">
+        <v>-0.26376194278031</v>
       </c>
     </row>
     <row r="7">
@@ -1288,16 +1308,16 @@
         <v>0.2193382153018284</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005381707721316862</v>
+        <v>0.005870953877800214</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01225544213595531</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0009931764209507303</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0828877463428196</v>
+        <v>-0.08706953157127979</v>
       </c>
       <c r="W7" t="n">
         <v>-0.2649894950804623</v>
@@ -1315,7 +1335,7 @@
         <v>0.002979529262852191</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1702032922743236</v>
+        <v>0.01904797011363681</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1339,16 +1359,19 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-4.11962018611577</v>
+        <v>-0.1702032922743236</v>
       </c>
       <c r="AK7" t="n">
+        <v>-3.471989202252119</v>
+      </c>
+      <c r="AL7" t="n">
         <v>7.226611442252423</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>2.7530387857707</v>
       </c>
-      <c r="AM7" t="n">
-        <v>0.3539524703659529</v>
+      <c r="AN7" t="n">
+        <v>1.001583454229604</v>
       </c>
     </row>
     <row r="8">
@@ -1409,16 +1432,16 @@
         <v>0.2336763343531353</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0499663639427389</v>
+        <v>-0.05450876066480607</v>
       </c>
       <c r="T8" t="n">
-        <v>0.006533250470206771</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0004656618377661555</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.06996018297416261</v>
+        <v>-0.07407548785499571</v>
       </c>
       <c r="W8" t="n">
         <v>-0.2449763618736198</v>
@@ -1436,7 +1459,7 @@
         <v>0.002789491778454054</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.1851099426811437</v>
+        <v>0.01000148366751533</v>
       </c>
       <c r="AC8" t="n">
         <v>-0.0005920601070521951</v>
@@ -1460,16 +1483,19 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-2.694470250495795</v>
+        <v>-0.1851099426811437</v>
       </c>
       <c r="AK8" t="n">
+        <v>-2.354419805800274</v>
+      </c>
+      <c r="AL8" t="n">
         <v>13.29608581276644</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>2.466377417990771</v>
       </c>
-      <c r="AM8" t="n">
-        <v>8.135238144279878</v>
+      <c r="AN8" t="n">
+        <v>8.475288588975399</v>
       </c>
     </row>
     <row r="9">
@@ -1530,10 +1556,10 @@
         <v>0.004641501613162685</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0003673271281284228</v>
+        <v>0.0004007205034128249</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001627047951673656</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0.003436707198891531</v>
@@ -1557,7 +1583,7 @@
         <v>1.342780866300779</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0002666945870196709</v>
+        <v>-0.006704729410531703</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0003148518241100766</v>
@@ -1581,16 +1607,19 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9754533913873109</v>
+        <v>0.0002666945870196709</v>
       </c>
       <c r="AK9" t="n">
+        <v>0.7460132845901837</v>
+      </c>
+      <c r="AL9" t="n">
         <v>9.356007155952678</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>1.305223223231338</v>
       </c>
-      <c r="AM9" t="n">
-        <v>9.026237324108653</v>
+      <c r="AN9" t="n">
+        <v>8.796797217311525</v>
       </c>
     </row>
     <row r="10">
@@ -1651,16 +1680,16 @@
         <v>0.0008648295878110256</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005207829594144953</v>
+        <v>0.005681268648158131</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.1116607655241353</v>
+        <v>-0.005773358293573149</v>
       </c>
       <c r="U10" t="n">
         <v>0.0004835169067488139</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.03489833843185378</v>
+        <v>-0.03669605257585614</v>
       </c>
       <c r="W10" t="n">
         <v>-0.318101656447822</v>
@@ -1678,7 +1707,7 @@
         <v>0.001450550720246442</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.3488921036616278</v>
+        <v>0.01260901254510259</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0001036107657318887</v>
@@ -1702,16 +1731,19 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-5.828112964809321</v>
+        <v>-0.3488921036616279</v>
       </c>
       <c r="AK10" t="n">
+        <v>-5.520367756973094</v>
+      </c>
+      <c r="AL10" t="n">
         <v>8.959119085391755</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>2.921626792037109</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0.2093793285453249</v>
+      <c r="AN10" t="n">
+        <v>0.517124536381552</v>
       </c>
     </row>
     <row r="11">
@@ -1772,16 +1804,16 @@
         <v>0.1451955880942274</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.08763635773137229</v>
+        <v>-0.09560329934331523</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.04843669032988154</v>
+        <v>-0.001440495141011464</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.03789207021336727</v>
+        <v>-0.04012101552003593</v>
       </c>
       <c r="W11" t="n">
         <v>-0.2288649596026519</v>
@@ -1799,7 +1831,7 @@
         <v>0.001440495141011464</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.1210206071648134</v>
+        <v>0.006150959527534438</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1823,16 +1855,19 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-3.163195242529983</v>
+        <v>-0.1210206071648134</v>
       </c>
       <c r="AK11" t="n">
+        <v>-2.954062618593812</v>
+      </c>
+      <c r="AL11" t="n">
         <v>9.546078664666423</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>2.200553715420134</v>
       </c>
-      <c r="AM11" t="n">
-        <v>4.182329706716306</v>
+      <c r="AN11" t="n">
+        <v>4.391462330652477</v>
       </c>
     </row>
     <row r="12">
@@ -1893,16 +1928,16 @@
         <v>0.002480257996631916</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05850450491432551</v>
+        <v>0.06382309627017328</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08672170664841208</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0.2619933869414571</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.01906230520758505</v>
+        <v>-0.02018361727861947</v>
       </c>
       <c r="W12" t="n">
         <v>0.2146456497412755</v>
@@ -1920,7 +1955,7 @@
         <v>1.878104377384056</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1015215479687227</v>
+        <v>-0.01816759208929049</v>
       </c>
       <c r="AC12" t="n">
         <v>0.05638791263449378</v>
@@ -1944,16 +1979,19 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.982709325674302</v>
+        <v>0.1015215479687227</v>
       </c>
       <c r="AK12" t="n">
+        <v>2.363633486786664</v>
+      </c>
+      <c r="AL12" t="n">
         <v>8.659770178042942</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>1.20650060678588</v>
       </c>
-      <c r="AM12" t="n">
-        <v>10.43597889693136</v>
+      <c r="AN12" t="n">
+        <v>9.816903058043726</v>
       </c>
     </row>
     <row r="13">
@@ -2014,16 +2052,16 @@
         <v>0.001354557381422464</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.004075160153289801</v>
+        <v>-0.004445629258134329</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01349444030688347</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0.15032122960881</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1329059883574158</v>
+        <v>-0.1407239876725579</v>
       </c>
       <c r="W13" t="n">
         <v>-0.160935845152708</v>
@@ -2041,7 +2079,7 @@
         <v>0.191821536273208</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09412395573830512</v>
+        <v>0.007093882535637006</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2065,16 +2103,19 @@
         <v>0.1228215789792931</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.5243312523776924</v>
+        <v>0.09412395573830512</v>
       </c>
       <c r="AK13" t="n">
+        <v>-0.2831392461660344</v>
+      </c>
+      <c r="AL13" t="n">
         <v>10.22854955803782</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>2.18710745456344</v>
       </c>
-      <c r="AM13" t="n">
-        <v>7.517110851096685</v>
+      <c r="AN13" t="n">
+        <v>7.758302857308344</v>
       </c>
     </row>
     <row r="14">
@@ -2135,16 +2176,16 @@
         <v>0.1789056120621836</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.04977808341498319</v>
+        <v>-0.05430336372543621</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00610176789066045</v>
+        <v>-0.001298922702696898</v>
       </c>
       <c r="U14" t="n">
         <v>0.001297631589302335</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.05542850307487677</v>
+        <v>-0.05868900325575187</v>
       </c>
       <c r="W14" t="n">
         <v>-0.2870070483577616</v>
@@ -2162,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.09263953195417346</v>
+        <v>0.002469945818687772</v>
       </c>
       <c r="AC14" t="n">
         <v>9.278019304977844e-05</v>
@@ -2186,16 +2227,19 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-1.547312062053029</v>
+        <v>-0.09263953195417346</v>
       </c>
       <c r="AK14" t="n">
+        <v>-1.463333904217645</v>
+      </c>
+      <c r="AL14" t="n">
         <v>6.73570546722786</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>2.295332708068656</v>
       </c>
-      <c r="AM14" t="n">
-        <v>2.893060697106176</v>
+      <c r="AN14" t="n">
+        <v>2.97703885494156</v>
       </c>
     </row>
     <row r="15">
@@ -2256,16 +2300,16 @@
         <v>0.1432687117117093</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05049740900720515</v>
+        <v>0.05508808255331472</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.04754149774661251</v>
+        <v>-0.9779106650934735</v>
       </c>
       <c r="U15" t="n">
         <v>0.3554708419725181</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.03612364244262706</v>
+        <v>-0.03824856258631101</v>
       </c>
       <c r="W15" t="n">
         <v>-0.1364222336010455</v>
@@ -2283,7 +2327,7 @@
         <v>0.9192738021445584</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.05306878459793926</v>
+        <v>0.0008171784821526904</v>
       </c>
       <c r="AC15" t="n">
         <v>0.07022243393846633</v>
@@ -2307,16 +2351,19 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-1.566688040239498</v>
+        <v>-0.05306878459793927</v>
       </c>
       <c r="AK15" t="n">
+        <v>-1.625172661687158</v>
+      </c>
+      <c r="AL15" t="n">
         <v>7.371025177774848</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>3.25792022508047</v>
       </c>
-      <c r="AM15" t="n">
-        <v>2.546416912454879</v>
+      <c r="AN15" t="n">
+        <v>2.48793229100722</v>
       </c>
     </row>
     <row r="16">
@@ -2377,16 +2424,16 @@
         <v>-0.02801904639600896</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.04681484531169502</v>
+        <v>-0.05107074034003092</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1703320396976151</v>
+        <v>-0.001280350225397671</v>
       </c>
       <c r="U16" t="n">
         <v>0.001276594051377515</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.04481823485641521</v>
+        <v>-0.04745460161267493</v>
       </c>
       <c r="W16" t="n">
         <v>-0.2166352104373153</v>
@@ -2404,7 +2451,7 @@
         <v>0.003829782154132546</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.1245367664366711</v>
+        <v>0.005751550409471506</v>
       </c>
       <c r="AC16" t="n">
         <v>9.145358752840507e-05</v>
@@ -2428,16 +2475,19 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-3.671417817874186</v>
+        <v>-0.1245367664366711</v>
       </c>
       <c r="AK16" t="n">
+        <v>-3.475865103952154</v>
+      </c>
+      <c r="AL16" t="n">
         <v>10.48614932616124</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>2.353966381743893</v>
       </c>
-      <c r="AM16" t="n">
-        <v>4.460765126543162</v>
+      <c r="AN16" t="n">
+        <v>4.656317840465194</v>
       </c>
     </row>
     <row r="17">
@@ -2498,16 +2548,16 @@
         <v>0.1350152193844156</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03993342994465744</v>
+        <v>0.04356374175780811</v>
       </c>
       <c r="T17" t="n">
-        <v>0.08631180040316366</v>
+        <v>-0.001390054900834992</v>
       </c>
       <c r="U17" t="n">
         <v>0.3246960849890989</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02129324084151506</v>
+        <v>0.02254578442042771</v>
       </c>
       <c r="W17" t="n">
         <v>0.1333137241032973</v>
@@ -2525,7 +2575,7 @@
         <v>0.9577185479033479</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.09002268137020789</v>
+        <v>-0.03201684570093066</v>
       </c>
       <c r="AC17" t="n">
         <v>0.05071741690249625</v>
@@ -2549,16 +2599,19 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.07414505637994247</v>
+        <v>-0.09002268137020791</v>
       </c>
       <c r="AK17" t="n">
+        <v>-1.162717810211585</v>
+      </c>
+      <c r="AL17" t="n">
         <v>10.38340618139177</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>2.448334961485563</v>
       </c>
-      <c r="AM17" t="n">
-        <v>7.860926163526263</v>
+      <c r="AN17" t="n">
+        <v>6.77235340969462</v>
       </c>
     </row>
     <row r="18">
@@ -2619,16 +2672,16 @@
         <v>0.001321982508317971</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002776842638014585</v>
+        <v>0.003029282877834093</v>
       </c>
       <c r="T18" t="n">
-        <v>0.00385069197611493</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0.03341968207347889</v>
       </c>
       <c r="V18" t="n">
-        <v>0.001777110862628648</v>
+        <v>0.001881646795724451</v>
       </c>
       <c r="W18" t="n">
         <v>-0.07117808710065314</v>
@@ -2646,7 +2699,7 @@
         <v>1.214643213657027</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.0007221732890485396</v>
+        <v>-0.04154752411916478</v>
       </c>
       <c r="AC18" t="n">
         <v>0.00247544484178817</v>
@@ -2670,16 +2723,19 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.047706294601888</v>
+        <v>-0.0007221732890485396</v>
       </c>
       <c r="AK18" t="n">
+        <v>-0.3649095254497141</v>
+      </c>
+      <c r="AL18" t="n">
         <v>13.1147081323068</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>1.595355954196678</v>
       </c>
-      <c r="AM18" t="n">
-        <v>12.56705847271201</v>
+      <c r="AN18" t="n">
+        <v>11.15444265266041</v>
       </c>
     </row>
     <row r="19">
@@ -2740,16 +2796,16 @@
         <v>0.2520662849072046</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.05164285086120485</v>
+        <v>-0.05633765548495075</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03199012959922706</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0.04995569193718919</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.06131070175615218</v>
+        <v>-0.06491721362416113</v>
       </c>
       <c r="W19" t="n">
         <v>-0.1697367328331278</v>
@@ -2767,7 +2823,7 @@
         <v>0.06796047733856009</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.03506494125532367</v>
+        <v>0.002919525260275581</v>
       </c>
       <c r="AC19" t="n">
         <v>-0.03625926015825379</v>
@@ -2791,16 +2847,19 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-1.690181039420555</v>
+        <v>-0.03506494125532367</v>
       </c>
       <c r="AK19" t="n">
+        <v>-1.592013801313695</v>
+      </c>
+      <c r="AL19" t="n">
         <v>10.0018869250583</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>2.254064771989529</v>
       </c>
-      <c r="AM19" t="n">
-        <v>6.057641113648217</v>
+      <c r="AN19" t="n">
+        <v>6.155808351755077</v>
       </c>
     </row>
     <row r="20">
@@ -2861,16 +2920,16 @@
         <v>0.2038730371581451</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09096737822994272</v>
+        <v>0.09923713988721024</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.02682471812947883</v>
+        <v>-1.426786059667215</v>
       </c>
       <c r="U20" t="n">
         <v>0.4162631187549066</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.04340685566093258</v>
+        <v>-0.04596020011157568</v>
       </c>
       <c r="W20" t="n">
         <v>0.1147493329066404</v>
@@ -2888,7 +2947,7 @@
         <v>1.293791362406958</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.09093580994840726</v>
+        <v>-0.005177989554059266</v>
       </c>
       <c r="AC20" t="n">
         <v>0.09230298033280848</v>
@@ -2912,16 +2971,19 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0003229333811309298</v>
+        <v>0.09093580994840726</v>
       </c>
       <c r="AK20" t="n">
+        <v>-0.176968597193278</v>
+      </c>
+      <c r="AL20" t="n">
         <v>11.03360754517704</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>2.525216607984509</v>
       </c>
-      <c r="AM20" t="n">
-        <v>8.508713870573663</v>
+      <c r="AN20" t="n">
+        <v>8.331422339999254</v>
       </c>
     </row>
     <row r="21">
@@ -2982,16 +3044,16 @@
         <v>-0.003232835043413334</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0138824032645904</v>
+        <v>0.01514443992500771</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1603589998841694</v>
+        <v>-0.003087999940558481</v>
       </c>
       <c r="U21" t="n">
         <v>0.003066299906787898</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.03203650072943057</v>
+        <v>-0.03392100077233826</v>
       </c>
       <c r="W21" t="n">
         <v>-0.1435552280410768</v>
@@ -3009,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.02234759951019036</v>
+        <v>-0.0003576166053486231</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0006570642657402637</v>
@@ -3033,16 +3095,19 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.42303781329697</v>
+        <v>-0.02234759951019036</v>
       </c>
       <c r="AK21" t="n">
+        <v>-1.436228552767574</v>
+      </c>
+      <c r="AL21" t="n">
         <v>12.59092126182111</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>2.159781837538</v>
       </c>
-      <c r="AM21" t="n">
-        <v>9.008101610986138</v>
+      <c r="AN21" t="n">
+        <v>8.994910871515534</v>
       </c>
     </row>
     <row r="22">
@@ -3103,16 +3168,16 @@
         <v>0.235456038795476</v>
       </c>
       <c r="S22" t="n">
-        <v>0.002037879086745288</v>
+        <v>0.00222314082190395</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03118709271450702</v>
+        <v>-0.001111154455195557</v>
       </c>
       <c r="U22" t="n">
         <v>0.01071895601749116</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.1126310636308698</v>
+        <v>-0.1192564203150386</v>
       </c>
       <c r="W22" t="n">
         <v>-0.05720350732901627</v>
@@ -3130,7 +3195,7 @@
         <v>0.9169879942271594</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.06909199035061322</v>
+        <v>0.01403843743693635</v>
       </c>
       <c r="AC22" t="n">
         <v>0.002296919146605248</v>
@@ -3154,16 +3219,19 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.9121357825296674</v>
+        <v>-0.06909199035061322</v>
       </c>
       <c r="AK22" t="n">
+        <v>-0.4348289096738315</v>
+      </c>
+      <c r="AL22" t="n">
         <v>13.13308936767439</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>2.105224658176807</v>
       </c>
-      <c r="AM22" t="n">
-        <v>10.11572892696791</v>
+      <c r="AN22" t="n">
+        <v>10.59303579982375</v>
       </c>
     </row>
     <row r="23">
@@ -3224,16 +3292,16 @@
         <v>0.04137341290831864</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.01250083004486867</v>
+        <v>-0.01363726913985673</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.1109448715584602</v>
+        <v>-0.02452503428248968</v>
       </c>
       <c r="U23" t="n">
         <v>0.006187947396698704</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.03386684952022307</v>
+        <v>-0.03585901713905972</v>
       </c>
       <c r="W23" t="n">
         <v>-0.1885848107555803</v>
@@ -3251,7 +3319,7 @@
         <v>0.00729731138965969</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.1715814565692731</v>
+        <v>0.01108857358524507</v>
       </c>
       <c r="AC23" t="n">
         <v>0.001178780540094149</v>
@@ -3275,16 +3343,19 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-4.724868044245754</v>
+        <v>-0.1715814565692732</v>
       </c>
       <c r="AK23" t="n">
+        <v>-4.614946717823615</v>
+      </c>
+      <c r="AL23" t="n">
         <v>6.848403118712048</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>2.839902601579024</v>
       </c>
-      <c r="AM23" t="n">
-        <v>-0.7163675271127308</v>
+      <c r="AN23" t="n">
+        <v>-0.6064462006905917</v>
       </c>
     </row>
     <row r="24">
@@ -3345,16 +3416,16 @@
         <v>0.2431612979877681</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.04295808852300238</v>
+        <v>-0.04686336929782078</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02377902430450669</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0.03088277840258098</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.1037846058195031</v>
+        <v>-0.1098895826324151</v>
       </c>
       <c r="W24" t="n">
         <v>-0.1752624909520754</v>
@@ -3372,7 +3443,7 @@
         <v>0.02825457028672268</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.03091123067155703</v>
+        <v>0.01499935362676518</v>
       </c>
       <c r="AC24" t="n">
         <v>-0.02403668115063034</v>
@@ -3396,16 +3467,19 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-2.299445011102454</v>
+        <v>-0.03091123067155705</v>
       </c>
       <c r="AK24" t="n">
+        <v>-1.789466987792439</v>
+      </c>
+      <c r="AL24" t="n">
         <v>11.69128025543198</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
         <v>2.662041804378848</v>
       </c>
-      <c r="AM24" t="n">
-        <v>6.729793439950674</v>
+      <c r="AN24" t="n">
+        <v>7.23977146326069</v>
       </c>
     </row>
     <row r="25">
@@ -3466,16 +3540,16 @@
         <v>0.01791461642814954</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01825213049171207</v>
+        <v>-0.01991141508186771</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.1433494742113502</v>
+        <v>-0.005123470532285596</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.071711044355579</v>
+        <v>-0.07493826512488405</v>
       </c>
       <c r="W25" t="n">
         <v>-0.2539708863901027</v>
@@ -3493,7 +3567,7 @@
         <v>0.001714548148338529</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.1401552258474265</v>
+        <v>0.02379974512924092</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.0002444538609261025</v>
@@ -3517,16 +3591,19 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-4.853747711805565</v>
+        <v>-0.1401552258474265</v>
       </c>
       <c r="AK25" t="n">
+        <v>-4.312766910811058</v>
+      </c>
+      <c r="AL25" t="n">
         <v>9.316789570635473</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>2.69592875790635</v>
       </c>
-      <c r="AM25" t="n">
-        <v>1.767113100923558</v>
+      <c r="AN25" t="n">
+        <v>2.308093901918066</v>
       </c>
     </row>
     <row r="26">
@@ -3587,16 +3664,16 @@
         <v>0.2634232242298099</v>
       </c>
       <c r="S26" t="n">
-        <v>0.005357968652413629</v>
+        <v>0.005845056711723959</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01005575596253829</v>
+        <v>-0.002984033190237546</v>
       </c>
       <c r="U26" t="n">
         <v>0.00345187616404157</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.07123877590859767</v>
+        <v>-0.07542929213851518</v>
       </c>
       <c r="W26" t="n">
         <v>0.08461805758482378</v>
@@ -3614,7 +3691,7 @@
         <v>0.524065861758873</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04445006173401439</v>
+        <v>0.01295652184121765</v>
       </c>
       <c r="AC26" t="n">
         <v>-0.0004661563182820192</v>
@@ -3638,16 +3715,19 @@
         <v>0.02189595096524102</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-0.8094468542068634</v>
+        <v>0.04445006173401439</v>
       </c>
       <c r="AK26" t="n">
+        <v>-0.3689251116054634</v>
+      </c>
+      <c r="AL26" t="n">
         <v>11.95162095170882</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
         <v>1.321288630557237</v>
       </c>
-      <c r="AM26" t="n">
-        <v>9.82088546694472</v>
+      <c r="AN26" t="n">
+        <v>10.26140720954612</v>
       </c>
     </row>
     <row r="27">
@@ -3708,16 +3788,16 @@
         <v>0.2305118033590843</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.01429102262420754</v>
+        <v>-0.0155902064991355</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02851995338295369</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.05727582202353793</v>
+        <v>-0.06064498802492252</v>
       </c>
       <c r="W27" t="n">
         <v>-0.1324390321346666</v>
@@ -3735,7 +3815,7 @@
         <v>0.03480133185864867</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.2337376841302362</v>
+        <v>0.00838731426062086</v>
       </c>
       <c r="AC27" t="n">
         <v>-0.0001911227438131067</v>
@@ -3759,16 +3839,19 @@
         <v>0.001339919864264656</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-4.126016039226357</v>
+        <v>-0.2337376841302361</v>
       </c>
       <c r="AK27" t="n">
+        <v>-3.840847354365247</v>
+      </c>
+      <c r="AL27" t="n">
         <v>12.91732193173242</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AM27" t="n">
         <v>2.63080341085498</v>
       </c>
-      <c r="AM27" t="n">
-        <v>6.160502481651077</v>
+      <c r="AN27" t="n">
+        <v>6.445671166512188</v>
       </c>
     </row>
     <row r="28">
@@ -3787,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.442566879498164</v>
+        <v>0.4421626688766291</v>
       </c>
       <c r="F28" t="n">
         <v>-0.03914967265336367</v>
@@ -3811,7 +3894,7 @@
         <v>-0.06418142348244466</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.07630342365636231</v>
+        <v>-0.0766571079502054</v>
       </c>
       <c r="N28" t="n">
         <v>-0.1416917446804168</v>
@@ -3829,16 +3912,16 @@
         <v>0.004857405548908729</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04102013586801639</v>
+        <v>0.04474923912874516</v>
       </c>
       <c r="T28" t="n">
-        <v>0.173669909018722</v>
+        <v>-0.009823545920025314</v>
       </c>
       <c r="U28" t="n">
         <v>0.4570115473453769</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01071579187720326</v>
+        <v>0.01134613257586227</v>
       </c>
       <c r="W28" t="n">
         <v>-0.3766018100963446</v>
@@ -3856,7 +3939,7 @@
         <v>0.004237328546231514</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.1577120024793179</v>
+        <v>0.00380253992890558</v>
       </c>
       <c r="AC28" t="n">
         <v>0.09888836957446424</v>
@@ -3880,16 +3963,19 @@
         <v>0.001417041461771349</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.0798375550261263</v>
+        <v>-0.1579692274202947</v>
       </c>
       <c r="AK28" t="n">
+        <v>0.206294438258171</v>
+      </c>
+      <c r="AL28" t="n">
         <v>12.03933309482989</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>1.882496340225403</v>
       </c>
-      <c r="AM28" t="n">
-        <v>10.23667430963061</v>
+      <c r="AN28" t="n">
+        <v>10.36313119286265</v>
       </c>
     </row>
     <row r="29">
@@ -3950,16 +4036,16 @@
         <v>0.1928255974158438</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.106566170989947</v>
+        <v>-0.1162540047163058</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05839731397345563</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0.22006282240038</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.09985132853165676</v>
+        <v>-0.1057249360923425</v>
       </c>
       <c r="W29" t="n">
         <v>-0.0602301247574613</v>
@@ -3977,7 +4063,7 @@
         <v>0.002313897966131599</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.007481135876674377</v>
+        <v>0.0160970601312161</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0001652784261522571</v>
@@ -4001,16 +4087,19 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-2.299917452172743</v>
+        <v>0.007481135876674387</v>
       </c>
       <c r="AK29" t="n">
+        <v>-1.753775897733343</v>
+      </c>
+      <c r="AL29" t="n">
         <v>12.74373185084925</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AM29" t="n">
         <v>2.353577778082971</v>
       </c>
-      <c r="AM29" t="n">
-        <v>8.090236620593537</v>
+      <c r="AN29" t="n">
+        <v>8.636378175032934</v>
       </c>
     </row>
     <row r="30">
@@ -4029,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2090887126042175</v>
+        <v>0.2088927612416469</v>
       </c>
       <c r="F30" t="n">
         <v>-0.05460604972603642</v>
@@ -4053,7 +4142,7 @@
         <v>-0.0648548493209098</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.08978007067265831</v>
+        <v>-0.08995152811490759</v>
       </c>
       <c r="N30" t="n">
         <v>-0.1656514407340747</v>
@@ -4071,16 +4160,16 @@
         <v>0.2358659403114424</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.06042686254567477</v>
+        <v>-0.06592021368619067</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.01456712206627573</v>
+        <v>-0.4963935474671212</v>
       </c>
       <c r="U30" t="n">
         <v>0.1487327837904298</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.02866850832914862</v>
+        <v>-0.03019275090810429</v>
       </c>
       <c r="W30" t="n">
         <v>-0.2669335715169701</v>
@@ -4098,7 +4187,7 @@
         <v>0.08623923525426318</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.1076307292515761</v>
+        <v>0.01155813738945926</v>
       </c>
       <c r="AC30" t="n">
         <v>0.01650784040222776</v>
@@ -4122,16 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-2.152169018543387</v>
+        <v>-0.1077554255732119</v>
       </c>
       <c r="AK30" t="n">
+        <v>-1.761940012305867</v>
+      </c>
+      <c r="AL30" t="n">
         <v>10.91848008369316</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AM30" t="n">
         <v>3.258304687144962</v>
       </c>
-      <c r="AM30" t="n">
-        <v>5.508006378004813</v>
+      <c r="AN30" t="n">
+        <v>5.898235384242332</v>
       </c>
     </row>
     <row r="31">
@@ -4192,16 +4284,16 @@
         <v>0.2181751522496826</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.03167202368162194</v>
+        <v>-0.03455129856176939</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01728684544314896</v>
+        <v>-0.0006344048952334065</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.07076954195692932</v>
+        <v>-0.07493245618968987</v>
       </c>
       <c r="W31" t="n">
         <v>-0.2000426032485421</v>
@@ -4219,7 +4311,7 @@
         <v>0.003162797685258593</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.2036595958697739</v>
+        <v>-0.002322433742544064</v>
       </c>
       <c r="AC31" t="n">
         <v>-4.531463537381475e-05</v>
@@ -4243,16 +4335,19 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-3.71445874764763</v>
+        <v>-0.2036595958697739</v>
       </c>
       <c r="AK31" t="n">
+        <v>-3.793421494894128</v>
+      </c>
+      <c r="AL31" t="n">
         <v>13.1009509223985</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AM31" t="n">
         <v>2.718200667416676</v>
       </c>
-      <c r="AM31" t="n">
-        <v>6.668291507334194</v>
+      <c r="AN31" t="n">
+        <v>6.589328760087696</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4408,16 @@
         <v>0.2516696947305048</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06862278255499388</v>
+        <v>0.07486121733272059</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03163637501321922</v>
+        <v>-0.9345488361886973</v>
       </c>
       <c r="U32" t="n">
         <v>0.5775794789357062</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0515522507670067</v>
+        <v>0.05458473610624239</v>
       </c>
       <c r="W32" t="n">
         <v>-0.1177278988686714</v>
@@ -4340,7 +4435,7 @@
         <v>0.04826928774248113</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.04319983072250946</v>
+        <v>0.00358243071918728</v>
       </c>
       <c r="AC32" t="n">
         <v>0.08262558697438827</v>
@@ -4364,16 +4459,19 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.163467744848888</v>
+        <v>-0.04319983072250946</v>
       </c>
       <c r="AK32" t="n">
-        <v>7.457909224143483</v>
+        <v>0.2852703893012555</v>
       </c>
       <c r="AL32" t="n">
+        <v>7.457909224143485</v>
+      </c>
+      <c r="AM32" t="n">
         <v>2.093590660402022</v>
       </c>
-      <c r="AM32" t="n">
-        <v>5.52778630859035</v>
+      <c r="AN32" t="n">
+        <v>5.649588953042719</v>
       </c>
     </row>
     <row r="33">
@@ -4434,16 +4532,16 @@
         <v>0.1382636823334533</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02888450407620595</v>
+        <v>0.03151036808313376</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1555015946355887</v>
+        <v>-0.03605960163321436</v>
       </c>
       <c r="U33" t="n">
         <v>0.1856867567500219</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.1052238199380977</v>
+        <v>-0.1114134564050446</v>
       </c>
       <c r="W33" t="n">
         <v>0.05281491079053924</v>
@@ -4461,7 +4559,7 @@
         <v>0.779915706058657</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02000160997978494</v>
+        <v>0.007036710829212876</v>
       </c>
       <c r="AC33" t="n">
         <v>0.03793931528195652</v>
@@ -4485,16 +4583,19 @@
         <v>0.6553052450467106</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-2.172348279679764</v>
+        <v>0.02000160997978494</v>
       </c>
       <c r="AK33" t="n">
+        <v>-1.97893547855947</v>
+      </c>
+      <c r="AL33" t="n">
         <v>6.610777461013075</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AM33" t="n">
         <v>3.322850010526614</v>
       </c>
-      <c r="AM33" t="n">
-        <v>1.115579170806698</v>
+      <c r="AN33" t="n">
+        <v>1.308991971926992</v>
       </c>
     </row>
     <row r="34">
@@ -4513,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2120017436315793</v>
+        <v>0.2117927208988548</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01552211738152041</v>
@@ -4537,7 +4638,7 @@
         <v>-0.0004860857276838701</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.01656049982394939</v>
+        <v>-0.01674339471508332</v>
       </c>
       <c r="N34" t="n">
         <v>-0.2317624671384483</v>
@@ -4555,16 +4656,16 @@
         <v>0.2182465942989016</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.04755995351651105</v>
+        <v>-0.0518835856543757</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03835173678456576</v>
+        <v>-0.01014008231268123</v>
       </c>
       <c r="U34" t="n">
         <v>0.03266245892647817</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.08322014287326907</v>
+        <v>-0.08811544539522607</v>
       </c>
       <c r="W34" t="n">
         <v>-0.04684727194620325</v>
@@ -4582,7 +4683,7 @@
         <v>0.9927762717265926</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.05660145931208047</v>
+        <v>0.006040035094304267</v>
       </c>
       <c r="AC34" t="n">
         <v>0.006999098341388179</v>
@@ -4606,16 +4707,19 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-2.100851423560739</v>
+        <v>-0.0567344737783597</v>
       </c>
       <c r="AK34" t="n">
+        <v>-1.896953389483466</v>
+      </c>
+      <c r="AL34" t="n">
         <v>9.525918619408859</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AM34" t="n">
         <v>2.452265966414421</v>
       </c>
-      <c r="AM34" t="n">
-        <v>4.972801229433699</v>
+      <c r="AN34" t="n">
+        <v>5.176699263510972</v>
       </c>
     </row>
     <row r="35">
@@ -4676,16 +4780,16 @@
         <v>0.003215107164026211</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04693111032933153</v>
+        <v>0.05119757490472531</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06058909912254773</v>
+        <v>-0.001079985839675328</v>
       </c>
       <c r="U35" t="n">
         <v>0.186387472648064</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.05597414233076922</v>
+        <v>-0.05926673893846152</v>
       </c>
       <c r="W35" t="n">
         <v>-0.312851211891566</v>
@@ -4703,7 +4807,7 @@
         <v>0.01173465464514082</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.09913830123284956</v>
+        <v>-0.003608782433439837</v>
       </c>
       <c r="AC35" t="n">
         <v>0.04547502046689621</v>
@@ -4727,16 +4831,19 @@
         <v>0.002157292675186645</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.430929389543783</v>
+        <v>-0.09913830123284954</v>
       </c>
       <c r="AK35" t="n">
+        <v>-0.5536279922807372</v>
+      </c>
+      <c r="AL35" t="n">
         <v>11.26743725998544</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AM35" t="n">
         <v>1.214086092026202</v>
       </c>
-      <c r="AM35" t="n">
-        <v>9.622421778415456</v>
+      <c r="AN35" t="n">
+        <v>9.499723175678502</v>
       </c>
     </row>
     <row r="36">
@@ -4806,7 +4913,7 @@
         <v>0.305763175406062</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.07607617955213243</v>
+        <v>-0.08055124893755199</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -4824,7 +4931,7 @@
         <v>0.003071836840684668</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.02972770508385903</v>
+        <v>-0.01924293585216243</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0001099024547185473</v>
@@ -4848,16 +4955,19 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.328682204538097</v>
+        <v>0.02972770508385903</v>
       </c>
       <c r="AK36" t="n">
+        <v>0.6744223855645748</v>
+      </c>
+      <c r="AL36" t="n">
         <v>11.82005794554482</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AM36" t="n">
         <v>2.193231160044317</v>
       </c>
-      <c r="AM36" t="n">
-        <v>10.95550899003861</v>
+      <c r="AN36" t="n">
+        <v>10.30124917106508</v>
       </c>
     </row>
     <row r="37">
@@ -4918,16 +5028,16 @@
         <v>0.2115072974767728</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.0561878691982587</v>
+        <v>-0.06129585730719131</v>
       </c>
       <c r="T37" t="n">
-        <v>0.05636259964947647</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0.07629872928454189</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.0779074453469949</v>
+        <v>-0.08249023624975931</v>
       </c>
       <c r="W37" t="n">
         <v>-0.3063823446073967</v>
@@ -4945,7 +5055,7 @@
         <v>0.001030868726564773</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02626326986210847</v>
+        <v>0.01368039775801545</v>
       </c>
       <c r="AC37" t="n">
         <v>0.01651019231694366</v>
@@ -4969,16 +5079,19 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-1.283883792547925</v>
+        <v>0.02626326986210848</v>
       </c>
       <c r="AK37" t="n">
+        <v>-0.8187502687753992</v>
+      </c>
+      <c r="AL37" t="n">
         <v>10.55997466036404</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AM37" t="n">
         <v>1.995053108156679</v>
       </c>
-      <c r="AM37" t="n">
-        <v>7.281037759659437</v>
+      <c r="AN37" t="n">
+        <v>7.746171283431963</v>
       </c>
     </row>
     <row r="38">
@@ -5039,16 +5152,16 @@
         <v>0.08202070409591546</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.02486573163387512</v>
+        <v>-0.02712625269150014</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.1000380014206551</v>
+        <v>-0.003570639877458631</v>
       </c>
       <c r="U38" t="n">
         <v>0.0002984719776150189</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.06460485068567551</v>
+        <v>-0.06840513602012702</v>
       </c>
       <c r="W38" t="n">
         <v>-0.2510524696087274</v>
@@ -5066,7 +5179,7 @@
         <v>0.004458731639026205</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.1838995189745202</v>
+        <v>0.01590719321474483</v>
       </c>
       <c r="AC38" t="n">
         <v>-6.382668483895896e-05</v>
@@ -5090,16 +5203,19 @@
         <v>0.0008954159328450565</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-5.882090956034646</v>
+        <v>-0.1838995189745202</v>
       </c>
       <c r="AK38" t="n">
+        <v>-5.447288425397408</v>
+      </c>
+      <c r="AL38" t="n">
         <v>9.791283855774291</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AM38" t="n">
         <v>2.844241268734032</v>
       </c>
-      <c r="AM38" t="n">
-        <v>1.064951631005612</v>
+      <c r="AN38" t="n">
+        <v>1.49975416164285</v>
       </c>
     </row>
     <row r="39">
@@ -5160,16 +5276,16 @@
         <v>0.1227183565735349</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1467235707961233</v>
+        <v>0.1600620772321345</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1867089128982221</v>
+        <v>-0.004742288678627769</v>
       </c>
       <c r="U39" t="n">
         <v>0.9082259163507499</v>
       </c>
       <c r="V39" t="n">
-        <v>0.05297308863888257</v>
+        <v>0.0560891526764639</v>
       </c>
       <c r="W39" t="n">
         <v>-0.1471251897455326</v>
@@ -5187,7 +5303,7 @@
         <v>0.01637628773630221</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.08570066372316699</v>
+        <v>0.009745680975105992</v>
       </c>
       <c r="AC39" t="n">
         <v>0.1240291310630012</v>
@@ -5211,16 +5327,19 @@
         <v>0.004742288678627769</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3.298923364158658</v>
+        <v>-0.08570066372316699</v>
       </c>
       <c r="AK39" t="n">
+        <v>3.536313739437888</v>
+      </c>
+      <c r="AL39" t="n">
         <v>9.218659575692948</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>1.861016650472897</v>
       </c>
-      <c r="AM39" t="n">
-        <v>10.65656628937871</v>
+      <c r="AN39" t="n">
+        <v>10.89395666465794</v>
       </c>
     </row>
     <row r="40">
@@ -5281,16 +5400,16 @@
         <v>0.23277879480999</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.07826787234633099</v>
+        <v>-0.08538313346872471</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04272043327400022</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0.03017079910471204</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.1008415695604225</v>
+        <v>-0.1067734265933885</v>
       </c>
       <c r="W40" t="n">
         <v>-0.2341546814298424</v>
@@ -5308,7 +5427,7 @@
         <v>0.01266069782466638</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03223518003632108</v>
+        <v>0.01101453199136119</v>
       </c>
       <c r="AC40" t="n">
         <v>0.006465171236724009</v>
@@ -5332,16 +5451,19 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-0.9839453289403881</v>
+        <v>0.03223518003632108</v>
       </c>
       <c r="AK40" t="n">
+        <v>-0.609451241234108</v>
+      </c>
+      <c r="AL40" t="n">
         <v>9.432661815350977</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AM40" t="n">
         <v>1.87250846798494</v>
       </c>
-      <c r="AM40" t="n">
-        <v>6.57620801842565</v>
+      <c r="AN40" t="n">
+        <v>6.95070210613193</v>
       </c>
     </row>
     <row r="41">
@@ -5402,16 +5524,16 @@
         <v>0.09347739454823135</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.1556194641807351</v>
+        <v>-0.1697666881971656</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03497455592220655</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0.001857294412879343</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.02824008481331445</v>
+        <v>-0.02990126627292118</v>
       </c>
       <c r="W41" t="n">
         <v>-0.07734120395130682</v>
@@ -5429,7 +5551,7 @@
         <v>0.002794877281409848</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.03592132280669295</v>
+        <v>-0.004318552343939839</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0003992681830585496</v>
@@ -5453,16 +5575,19 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-2.457924312114676</v>
+        <v>0.03592132280669296</v>
       </c>
       <c r="AK41" t="n">
+        <v>-2.60475509180863</v>
+      </c>
+      <c r="AL41" t="n">
         <v>10.66623084597191</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AM41" t="n">
         <v>1.204401773911864</v>
       </c>
-      <c r="AM41" t="n">
-        <v>7.003904759945368</v>
+      <c r="AN41" t="n">
+        <v>6.857073980251416</v>
       </c>
     </row>
     <row r="42">
@@ -5523,16 +5648,16 @@
         <v>0.2366667503859064</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.01407848501813441</v>
+        <v>-0.01535834729251027</v>
       </c>
       <c r="T42" t="n">
-        <v>0.03872259147418541</v>
+        <v>-0.002048755954849671</v>
       </c>
       <c r="U42" t="n">
         <v>0.0685149639238468</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.03193391088318295</v>
+        <v>-0.03381237622925254</v>
       </c>
       <c r="W42" t="n">
         <v>-0.2538164576404477</v>
@@ -5550,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.2273493467500137</v>
+        <v>0.005880777238454191</v>
       </c>
       <c r="AC42" t="n">
         <v>0.01473660475321515</v>
@@ -5574,16 +5699,19 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-2.050660191021994</v>
+        <v>-0.2273493467500137</v>
       </c>
       <c r="AK42" t="n">
+        <v>-1.872735439037579</v>
+      </c>
+      <c r="AL42" t="n">
         <v>12.08267375847591</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AM42" t="n">
         <v>1.730605606249227</v>
       </c>
-      <c r="AM42" t="n">
-        <v>8.301407961204688</v>
+      <c r="AN42" t="n">
+        <v>8.479332713189104</v>
       </c>
     </row>
     <row r="43">
@@ -5644,16 +5772,16 @@
         <v>0.2039152183259058</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.001100993081474932</v>
+        <v>-0.001201083361609017</v>
       </c>
       <c r="T43" t="n">
-        <v>0.003907482783376993</v>
+        <v>-0.01128687438060058</v>
       </c>
       <c r="U43" t="n">
         <v>0.02200594136178537</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.07715861802160608</v>
+        <v>-0.08169736025817113</v>
       </c>
       <c r="W43" t="n">
         <v>-0.2213562090242181</v>
@@ -5671,7 +5799,7 @@
         <v>0.0537114507544224</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.1392001608208503</v>
+        <v>0.01098580551199035</v>
       </c>
       <c r="AC43" t="n">
         <v>0.002198597569012764</v>
@@ -5695,16 +5823,19 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-2.659951877182438</v>
+        <v>-0.1392001608208503</v>
       </c>
       <c r="AK43" t="n">
+        <v>-2.752124249851914</v>
+      </c>
+      <c r="AL43" t="n">
         <v>10.60426712920052</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AM43" t="n">
         <v>2.494397362795435</v>
       </c>
-      <c r="AM43" t="n">
-        <v>5.449917889222648</v>
+      <c r="AN43" t="n">
+        <v>5.357745516553171</v>
       </c>
     </row>
     <row r="44">
@@ -5765,16 +5896,16 @@
         <v>0.2460726061888337</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.04199571565871601</v>
+        <v>-0.04581350799132655</v>
       </c>
       <c r="T44" t="n">
-        <v>0.008876218929609977</v>
+        <v>-0.002290950514254206</v>
       </c>
       <c r="U44" t="n">
         <v>0.0007636501714180685</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.07032392026885216</v>
+        <v>-0.07446062146113758</v>
       </c>
       <c r="W44" t="n">
         <v>-0.2425127814167804</v>
@@ -5792,7 +5923,7 @@
         <v>0.0288792172623222</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.06603568266083215</v>
+        <v>0.0002544224792391313</v>
       </c>
       <c r="AC44" t="n">
         <v>0.000163639322446729</v>
@@ -5816,16 +5947,19 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-1.261358460026182</v>
+        <v>-0.06603568266083214</v>
       </c>
       <c r="AK44" t="n">
+        <v>-1.252708095732052</v>
+      </c>
+      <c r="AL44" t="n">
         <v>9.825341055939742</v>
       </c>
-      <c r="AL44" t="n">
+      <c r="AM44" t="n">
         <v>1.928244044616695</v>
       </c>
-      <c r="AM44" t="n">
-        <v>6.635738551296864</v>
+      <c r="AN44" t="n">
+        <v>6.644388915590994</v>
       </c>
     </row>
     <row r="45">
@@ -5886,16 +6020,16 @@
         <v>-0.01383473665645047</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.08711145048330438</v>
+        <v>-0.09503067325451386</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.1237900644373292</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0.1596527955387894</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.07263105423777134</v>
+        <v>-0.07690346919293437</v>
       </c>
       <c r="W45" t="n">
         <v>-6.587162146320704e-06</v>
@@ -5913,7 +6047,7 @@
         <v>0.00878872114169606</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.03135610442776929</v>
+        <v>0.01113651412105037</v>
       </c>
       <c r="AC45" t="n">
         <v>0.00124307921392415</v>
@@ -5937,16 +6071,19 @@
         <v>0.1000063371472084</v>
       </c>
       <c r="AJ45" t="n">
-        <v>-5.790604462270903</v>
+        <v>-0.03135610442776928</v>
       </c>
       <c r="AK45" t="n">
-        <v>11.9151948408219</v>
+        <v>-5.411962982155189</v>
       </c>
       <c r="AL45" t="n">
+        <v>11.91531682858812</v>
+      </c>
+      <c r="AM45" t="n">
         <v>2.544717952291438</v>
       </c>
-      <c r="AM45" t="n">
-        <v>3.579872426259556</v>
+      <c r="AN45" t="n">
+        <v>3.958635894141496</v>
       </c>
     </row>
     <row r="46">
@@ -6007,16 +6144,16 @@
         <v>-0.01753161701570148</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.08556946753428642</v>
+        <v>-0.09334851003740337</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.1488372100799483</v>
+        <v>-0.002188657970372453</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.03059740833905758</v>
+        <v>-0.0323972558884139</v>
       </c>
       <c r="W46" t="n">
         <v>-0.08950232701262921</v>
@@ -6034,7 +6171,7 @@
         <v>0.4469432618459903</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.09150980768016342</v>
+        <v>0.0009638615733472746</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
@@ -6058,16 +6195,19 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-2.40362215206617</v>
+        <v>-0.09150980768016342</v>
       </c>
       <c r="AK46" t="n">
+        <v>-2.370850858572363</v>
+      </c>
+      <c r="AL46" t="n">
         <v>8.404927901459558</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AM46" t="n">
         <v>2.143290922985067</v>
       </c>
-      <c r="AM46" t="n">
-        <v>3.858014826408322</v>
+      <c r="AN46" t="n">
+        <v>3.890786119902128</v>
       </c>
     </row>
     <row r="47">
@@ -6128,16 +6268,16 @@
         <v>0.2715426518726338</v>
       </c>
       <c r="S47" t="n">
-        <v>0.07434473811631419</v>
+        <v>0.08110335067234276</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0952747756927681</v>
+        <v>-0.002820836637638813</v>
       </c>
       <c r="U47" t="n">
         <v>0.3011219420262332</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05003027719117004</v>
+        <v>0.05297323467300357</v>
       </c>
       <c r="W47" t="n">
         <v>-0.03343966468296498</v>
@@ -6155,7 +6295,7 @@
         <v>0.01665656589262091</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.02421231846412458</v>
+        <v>0.0001659315669199302</v>
       </c>
       <c r="AC47" t="n">
         <v>0.06452613043419282</v>
@@ -6179,16 +6319,19 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.74337244378866</v>
+        <v>-0.02421231846412458</v>
       </c>
       <c r="AK47" t="n">
+        <v>1.749014117063937</v>
+      </c>
+      <c r="AL47" t="n">
         <v>9.654722866628497</v>
       </c>
-      <c r="AL47" t="n">
+      <c r="AM47" t="n">
         <v>1.110301723834436</v>
       </c>
-      <c r="AM47" t="n">
-        <v>10.28779358658272</v>
+      <c r="AN47" t="n">
+        <v>10.293435259858</v>
       </c>
     </row>
     <row r="48">
@@ -6249,16 +6392,16 @@
         <v>0.2385131479009603</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1413759218903817</v>
+        <v>0.154228278425871</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.02741133996683207</v>
+        <v>-1.657808068248622</v>
       </c>
       <c r="U48" t="n">
         <v>0.5614819872296927</v>
       </c>
       <c r="V48" t="n">
-        <v>0.007859224186856743</v>
+        <v>0.008321531491965965</v>
       </c>
       <c r="W48" t="n">
         <v>-0.000824215545179809</v>
@@ -6276,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03295218173088205</v>
+        <v>-0.005373492478567453</v>
       </c>
       <c r="AC48" t="n">
         <v>0.1468140491781271</v>
@@ -6300,16 +6443,19 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.5448629631613421</v>
+        <v>0.03295218173088205</v>
       </c>
       <c r="AK48" t="n">
+        <v>0.3621642188900479</v>
+      </c>
+      <c r="AL48" t="n">
         <v>11.49424627689794</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AM48" t="n">
         <v>1.991472897368744</v>
       </c>
-      <c r="AM48" t="n">
-        <v>10.04763634269054</v>
+      <c r="AN48" t="n">
+        <v>9.864937598419244</v>
       </c>
     </row>
     <row r="49">
@@ -6370,16 +6516,16 @@
         <v>0.2304395576270529</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.02212900548126774</v>
+        <v>-0.02414073325229208</v>
       </c>
       <c r="T49" t="n">
-        <v>0.07491257447492421</v>
+        <v>-0.005532841019748132</v>
       </c>
       <c r="U49" t="n">
         <v>0.08154598476509969</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.03175770141698121</v>
+        <v>-0.03362580150033304</v>
       </c>
       <c r="W49" t="n">
         <v>-0.2400857655219023</v>
@@ -6397,7 +6543,7 @@
         <v>0.002775231387057928</v>
       </c>
       <c r="AB49" t="n">
-        <v>-0.2322621447911731</v>
+        <v>0.003741178685360518</v>
       </c>
       <c r="AC49" t="n">
         <v>0.01747413959252136</v>
@@ -6421,16 +6567,19 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-2.400026854423972</v>
+        <v>-0.2322621447911732</v>
       </c>
       <c r="AK49" t="n">
+        <v>-2.272826779121714</v>
+      </c>
+      <c r="AL49" t="n">
         <v>10.42023143382613</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AM49" t="n">
         <v>1.819341721761147</v>
       </c>
-      <c r="AM49" t="n">
-        <v>6.200862857641013</v>
+      <c r="AN49" t="n">
+        <v>6.32806293294327</v>
       </c>
     </row>
     <row r="50">
@@ -6449,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09013156523451801</v>
+        <v>0.08911462607861556</v>
       </c>
       <c r="F50" t="n">
         <v>-0.009096680249524867</v>
@@ -6473,7 +6622,7 @@
         <v>-0.01489270061739626</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.01587736182835589</v>
+        <v>-0.01676718358977053</v>
       </c>
       <c r="N50" t="n">
         <v>-0.177392653167075</v>
@@ -6491,16 +6640,16 @@
         <v>-0.09005719438299972</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.08050980253534974</v>
+        <v>-0.0878288754931088</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.1830443038610875</v>
+        <v>-0.002399025499895952</v>
       </c>
       <c r="U50" t="n">
         <v>0.01710916497185766</v>
       </c>
       <c r="V50" t="n">
-        <v>-0.03772384567692652</v>
+        <v>-0.03980177627557526</v>
       </c>
       <c r="W50" t="n">
         <v>0.01927113194217189</v>
@@ -6518,7 +6667,7 @@
         <v>0.9091488902129901</v>
       </c>
       <c r="AB50" t="n">
-        <v>-0.05565934523207476</v>
+        <v>-0.002763314981170658</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -6542,16 +6691,19 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-1.460568192395139</v>
+        <v>-0.0563064883312854</v>
       </c>
       <c r="AK50" t="n">
+        <v>-1.566424347493195</v>
+      </c>
+      <c r="AL50" t="n">
         <v>8.884716126749142</v>
       </c>
-      <c r="AL50" t="n">
+      <c r="AM50" t="n">
         <v>1.980333696494249</v>
       </c>
-      <c r="AM50" t="n">
-        <v>5.443814237859755</v>
+      <c r="AN50" t="n">
+        <v>5.337958082761698</v>
       </c>
     </row>
     <row r="51">
@@ -6612,16 +6764,16 @@
         <v>0.1500185378914771</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09581583677964822</v>
+        <v>0.1045263673959799</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.02935392979429712</v>
+        <v>-0.229039572917333</v>
       </c>
       <c r="U51" t="n">
         <v>0.08434566894038241</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.07159452206025677</v>
+        <v>-0.07580596453438951</v>
       </c>
       <c r="W51" t="n">
         <v>0.005314251624947533</v>
@@ -6639,7 +6791,7 @@
         <v>0.1542175632287701</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.06605395394971005</v>
+        <v>0.03544811175148233</v>
       </c>
       <c r="AC51" t="n">
         <v>0.01795472796672045</v>
@@ -6663,16 +6815,19 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-5.371986870955735</v>
+        <v>-0.06605395394971005</v>
       </c>
       <c r="AK51" t="n">
+        <v>-4.986110361393498</v>
+      </c>
+      <c r="AL51" t="n">
         <v>8.969746088908481</v>
       </c>
-      <c r="AL51" t="n">
+      <c r="AM51" t="n">
         <v>3.335239623901399</v>
       </c>
-      <c r="AM51" t="n">
-        <v>0.2625195940513474</v>
+      <c r="AN51" t="n">
+        <v>0.6483961036135839</v>
       </c>
     </row>
     <row r="52">
@@ -6733,16 +6888,16 @@
         <v>0.2046691612620581</v>
       </c>
       <c r="S52" t="n">
-        <v>0.107560642496319</v>
+        <v>0.117338882723257</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.02665064539609377</v>
+        <v>-1.444692843117452</v>
       </c>
       <c r="U52" t="n">
         <v>0.4152676488770866</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.01346223063576651</v>
+        <v>-0.01425412655551748</v>
       </c>
       <c r="W52" t="n">
         <v>0.0260596905269317</v>
@@ -6760,7 +6915,7 @@
         <v>0.172332525119654</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01038379854719894</v>
+        <v>-0.01852771159094178</v>
       </c>
       <c r="AC52" t="n">
         <v>0.1069458506893688</v>
@@ -6784,16 +6939,19 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-0.6246720645797089</v>
+        <v>0.01038379854719894</v>
       </c>
       <c r="AK52" t="n">
+        <v>-1.257856487107523</v>
+      </c>
+      <c r="AL52" t="n">
         <v>10.55437240247194</v>
       </c>
-      <c r="AL52" t="n">
+      <c r="AM52" t="n">
         <v>2.385761708617381</v>
       </c>
-      <c r="AM52" t="n">
-        <v>7.543938629274848</v>
+      <c r="AN52" t="n">
+        <v>6.910754206747034</v>
       </c>
     </row>
     <row r="53">
@@ -6854,16 +7012,16 @@
         <v>-0.01817817476082543</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0208768159237855</v>
+        <v>0.02277470828049327</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.1388666356126353</v>
+        <v>-0.006405639457555219</v>
       </c>
       <c r="U53" t="n">
         <v>0.002135213152518406</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.03733018021465571</v>
+        <v>-0.03952607316845898</v>
       </c>
       <c r="W53" t="n">
         <v>-0.1106161478487831</v>
@@ -6881,7 +7039,7 @@
         <v>0.2869293514886067</v>
       </c>
       <c r="AB53" t="n">
-        <v>-0.2571591641461918</v>
+        <v>0.01759291481255326</v>
       </c>
       <c r="AC53" t="n">
         <v>0.0004592328061552139</v>
@@ -6905,16 +7063,19 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-7.191604145301383</v>
+        <v>-0.2571591641461917</v>
       </c>
       <c r="AK53" t="n">
+        <v>-6.831009692179042</v>
+      </c>
+      <c r="AL53" t="n">
         <v>6.346908093909779</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AM53" t="n">
         <v>2.998095499299937</v>
       </c>
-      <c r="AM53" t="n">
-        <v>-3.842791550691542</v>
+      <c r="AN53" t="n">
+        <v>-3.4821970975692</v>
       </c>
     </row>
     <row r="54">
@@ -6975,16 +7136,16 @@
         <v>0.2413777720762513</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.01323247065438411</v>
+        <v>-0.01443542253205539</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.001659549467324441</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.08030288152524642</v>
+        <v>-0.08502658043849622</v>
       </c>
       <c r="W54" t="n">
         <v>-0.2465737091167721</v>
@@ -7002,7 +7163,7 @@
         <v>0.05688885551753876</v>
       </c>
       <c r="AB54" t="n">
-        <v>-0.1244443379331433</v>
+        <v>0.01184817861704062</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
@@ -7026,16 +7187,19 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>-1.429356137436064</v>
+        <v>-0.1244443379331433</v>
       </c>
       <c r="AK54" t="n">
+        <v>-1.026518064456683</v>
+      </c>
+      <c r="AL54" t="n">
         <v>9.439912248896468</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AM54" t="n">
         <v>1.656467734917757</v>
       </c>
-      <c r="AM54" t="n">
-        <v>6.354088376542646</v>
+      <c r="AN54" t="n">
+        <v>6.756926449522028</v>
       </c>
     </row>
     <row r="55">
@@ -7096,16 +7260,16 @@
         <v>0.2090293324657128</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.05107462140865526</v>
+        <v>-0.0557177688094421</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01724868397814264</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0.0007437202450670155</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.06140326636116073</v>
+        <v>-0.06501522320593489</v>
       </c>
       <c r="W55" t="n">
         <v>-0.2642470861610662</v>
@@ -7123,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.1850021998328497</v>
+        <v>0.006918056079419206</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -7147,16 +7311,19 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-2.972988891458085</v>
+        <v>-0.1850021998328497</v>
       </c>
       <c r="AK55" t="n">
+        <v>-2.737774984757832</v>
+      </c>
+      <c r="AL55" t="n">
         <v>8.443172052991514</v>
       </c>
-      <c r="AL55" t="n">
+      <c r="AM55" t="n">
         <v>2.515589779621977</v>
       </c>
-      <c r="AM55" t="n">
-        <v>2.954593381911452</v>
+      <c r="AN55" t="n">
+        <v>3.189807288611704</v>
       </c>
     </row>
     <row r="56">
@@ -7217,16 +7384,16 @@
         <v>0.223488133310564</v>
       </c>
       <c r="S56" t="n">
-        <v>0.04495137071082397</v>
+        <v>0.04903785895726252</v>
       </c>
       <c r="T56" t="n">
-        <v>0.08077021203303097</v>
+        <v>-0.003717024417963826</v>
       </c>
       <c r="U56" t="n">
         <v>0.2253526008241815</v>
       </c>
       <c r="V56" t="n">
-        <v>-0.0367430372276277</v>
+        <v>-0.03890439235866463</v>
       </c>
       <c r="W56" t="n">
         <v>-0.1094356562493243</v>
@@ -7244,7 +7411,7 @@
         <v>0.6149146120798978</v>
       </c>
       <c r="AB56" t="n">
-        <v>-0.1915336305466101</v>
+        <v>0.005064442306599152</v>
       </c>
       <c r="AC56" t="n">
         <v>0.0463623685065115</v>
@@ -7268,16 +7435,19 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>-0.9651428895620351</v>
+        <v>-0.1915336305466101</v>
       </c>
       <c r="AK56" t="n">
+        <v>-0.8003543566163066</v>
+      </c>
+      <c r="AL56" t="n">
         <v>8.703991597531722</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AM56" t="n">
         <v>2.641218525885009</v>
       </c>
-      <c r="AM56" t="n">
-        <v>5.097630182084679</v>
+      <c r="AN56" t="n">
+        <v>5.262418715030407</v>
       </c>
     </row>
     <row r="57">
@@ -7338,16 +7508,16 @@
         <v>-0.04760639002123861</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.05684812821879499</v>
+        <v>-0.06201613987504908</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.1713573423385886</v>
+        <v>-0.005692014399457066</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.07048545805246348</v>
+        <v>-0.07463166146731427</v>
       </c>
       <c r="W57" t="n">
         <v>-0.3098547497444557</v>
@@ -7365,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.1915188804052421</v>
+        <v>0.007582124943526772</v>
       </c>
       <c r="AC57" t="n">
         <v>0</v>
@@ -7389,16 +7559,19 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-3.502249257471446</v>
+        <v>-0.1915188804052421</v>
       </c>
       <c r="AK57" t="n">
+        <v>-3.244457009391536</v>
+      </c>
+      <c r="AL57" t="n">
         <v>8.969685523823282</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>2.381801182601639</v>
       </c>
-      <c r="AM57" t="n">
-        <v>3.085635083750197</v>
+      <c r="AN57" t="n">
+        <v>3.343427331830108</v>
       </c>
     </row>
     <row r="58">
@@ -7459,16 +7632,16 @@
         <v>0.1313666721120245</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.1352944048233057</v>
+        <v>-0.1475938961708789</v>
       </c>
       <c r="T58" t="n">
-        <v>0.0290457471937902</v>
+        <v>-0.000948531547944562</v>
       </c>
       <c r="U58" t="n">
         <v>0.001886786991605652</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.08276430097156139</v>
+        <v>-0.08763278926400618</v>
       </c>
       <c r="W58" t="n">
         <v>-0.1849445137375156</v>
@@ -7486,7 +7659,7 @@
         <v>0.003781759196624758</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.04652606636635022</v>
+        <v>0.00209477794835794</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
@@ -7510,16 +7683,19 @@
         <v>0.001894995946214633</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-3.29697641596374</v>
+        <v>-0.04652606636635023</v>
       </c>
       <c r="AK58" t="n">
+        <v>-3.228593367904735</v>
+      </c>
+      <c r="AL58" t="n">
         <v>12.53487115266425</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>1.926396978431585</v>
       </c>
-      <c r="AM58" t="n">
-        <v>7.311497758268922</v>
+      <c r="AN58" t="n">
+        <v>7.379880806327927</v>
       </c>
     </row>
     <row r="59">
@@ -7580,16 +7756,16 @@
         <v>0.002574087049314119</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.05982980359966491</v>
+        <v>-0.06526887665417989</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.1478995083533518</v>
+        <v>-0.005210658381574833</v>
       </c>
       <c r="U59" t="n">
         <v>0.00116023644798083</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.06195683060534327</v>
+        <v>-0.06555000910368633</v>
       </c>
       <c r="W59" t="n">
         <v>-0.2661623253032689</v>
@@ -7607,7 +7783,7 @@
         <v>0.005210658381574833</v>
       </c>
       <c r="AB59" t="n">
-        <v>-0.2096921549749869</v>
+        <v>0.01696919481924952</v>
       </c>
       <c r="AC59" t="n">
         <v>0</v>
@@ -7631,16 +7807,19 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>-4.778643052285567</v>
+        <v>-0.2096921549749869</v>
       </c>
       <c r="AK59" t="n">
+        <v>-4.204303572249692</v>
+      </c>
+      <c r="AL59" t="n">
         <v>10.78562108124832</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>2.824992738297468</v>
       </c>
-      <c r="AM59" t="n">
-        <v>3.181985290665283</v>
+      <c r="AN59" t="n">
+        <v>3.756324770701157</v>
       </c>
     </row>
     <row r="60">
@@ -7701,16 +7880,16 @@
         <v>0.02593662981699437</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.07936536868715717</v>
+        <v>-0.08658040220417146</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.04011039757676016</v>
+        <v>-0.2574069270675656</v>
       </c>
       <c r="U60" t="n">
         <v>0.001508892225559567</v>
       </c>
       <c r="V60" t="n">
-        <v>-0.1184021163852727</v>
+        <v>-0.1252601034432262</v>
       </c>
       <c r="W60" t="n">
         <v>-0.2304695385530454</v>
@@ -7728,7 +7907,7 @@
         <v>0.1745078880460472</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.1005911473269495</v>
+        <v>0.02169021071020707</v>
       </c>
       <c r="AC60" t="n">
         <v>0.0002583970661703538</v>
@@ -7752,16 +7931,19 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-4.493063386433525</v>
+        <v>-0.1005911473269495</v>
       </c>
       <c r="AK60" t="n">
-        <v>11.0614854021074</v>
+        <v>-3.761022599895864</v>
       </c>
       <c r="AL60" t="n">
+        <v>11.0615650631726</v>
+      </c>
+      <c r="AM60" t="n">
         <v>2.325179694425028</v>
       </c>
-      <c r="AM60" t="n">
-        <v>4.243242321248847</v>
+      <c r="AN60" t="n">
+        <v>4.97536276885171</v>
       </c>
     </row>
     <row r="61">
@@ -7780,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1233114123091521</v>
+        <v>0.1231619132757468</v>
       </c>
       <c r="F61" t="n">
         <v>-0.0611729028482504</v>
@@ -7804,7 +7986,7 @@
         <v>-0.1523739913730948</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.1416080705460127</v>
+        <v>-0.1417388822002424</v>
       </c>
       <c r="N61" t="n">
         <v>-0.1617492624264748</v>
@@ -7822,16 +8004,16 @@
         <v>0.001452953911767014</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.01543555402851061</v>
+        <v>-0.01683878621292067</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.1522956960256475</v>
+        <v>-0.008762122666665827</v>
       </c>
       <c r="U61" t="n">
         <v>0.03402902591263718</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.04413933468033362</v>
+        <v>-0.04369595929607242</v>
       </c>
       <c r="W61" t="n">
         <v>-0.3322983532059678</v>
@@ -7849,7 +8031,7 @@
         <v>0.02799184240775296</v>
       </c>
       <c r="AB61" t="n">
-        <v>-0.2514164745928094</v>
+        <v>0.01414015428264194</v>
       </c>
       <c r="AC61" t="n">
         <v>0.0001260165622803366</v>
@@ -7873,16 +8055,19 @@
         <v>0.0005896735215525865</v>
       </c>
       <c r="AJ61" t="n">
-        <v>-5.945214913978574</v>
+        <v>-0.25151161034134</v>
       </c>
       <c r="AK61" t="n">
-        <v>9.081287322300794</v>
+        <v>-5.465496161602585</v>
       </c>
       <c r="AL61" t="n">
+        <v>9.081289059537912</v>
+      </c>
+      <c r="AM61" t="n">
         <v>2.850968133067187</v>
       </c>
-      <c r="AM61" t="n">
-        <v>0.285104275255033</v>
+      <c r="AN61" t="n">
+        <v>0.7648247648681399</v>
       </c>
     </row>
     <row r="62">
@@ -7901,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02029793645301394</v>
+        <v>0.01986504882555344</v>
       </c>
       <c r="F62" t="n">
         <v>-0.0243233493417165</v>
@@ -7925,7 +8110,7 @@
         <v>-0.0484517999026346</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.03035267700160243</v>
+        <v>-0.03073145367563037</v>
       </c>
       <c r="N62" t="n">
         <v>-0.006466107498868189</v>
@@ -7943,16 +8128,16 @@
         <v>-0.06377531365118456</v>
       </c>
       <c r="S62" t="n">
-        <v>0.05077711619757525</v>
+        <v>0.0553932176700821</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.1164115115576174</v>
+        <v>-0.001230105145802428</v>
       </c>
       <c r="U62" t="n">
         <v>0.06106534248279022</v>
       </c>
       <c r="V62" t="n">
-        <v>-0.03637521007809803</v>
+        <v>-0.03819091415498291</v>
       </c>
       <c r="W62" t="n">
         <v>0.2558030576961477</v>
@@ -7970,7 +8155,7 @@
         <v>1.735781442166479</v>
       </c>
       <c r="AB62" t="n">
-        <v>-0.07238723938488575</v>
+        <v>0.02153387707925089</v>
       </c>
       <c r="AC62" t="n">
         <v>0.01304146709668146</v>
@@ -7994,16 +8179,19 @@
         <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-1.106430430453641</v>
+        <v>-0.07266271332963334</v>
       </c>
       <c r="AK62" t="n">
-        <v>11.39511404331832</v>
+        <v>-0.7379021456869297</v>
       </c>
       <c r="AL62" t="n">
+        <v>11.39523153497151</v>
+      </c>
+      <c r="AM62" t="n">
         <v>1.982485564443892</v>
       </c>
-      <c r="AM62" t="n">
-        <v>8.306198048420791</v>
+      <c r="AN62" t="n">
+        <v>8.674843824840686</v>
       </c>
     </row>
     <row r="63">
@@ -8064,16 +8252,16 @@
         <v>0.1837578873423724</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.06539398926875371</v>
+        <v>-0.07133889738409496</v>
       </c>
       <c r="T63" t="n">
-        <v>0.002737792675327785</v>
+        <v>-0.001712081068937557</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.1126471405223498</v>
+        <v>-0.117471676715394</v>
       </c>
       <c r="W63" t="n">
         <v>-0.2587398734474738</v>
@@ -8091,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>-0.1501479957848963</v>
+        <v>0.02291887388171919</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
@@ -8115,16 +8303,19 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-3.981134755020507</v>
+        <v>-0.1501479957848963</v>
       </c>
       <c r="AK63" t="n">
-        <v>11.60538962273036</v>
+        <v>-3.207009170162291</v>
       </c>
       <c r="AL63" t="n">
+        <v>11.60545252856806</v>
+      </c>
+      <c r="AM63" t="n">
         <v>2.396621156425506</v>
       </c>
-      <c r="AM63" t="n">
-        <v>5.227633711284342</v>
+      <c r="AN63" t="n">
+        <v>6.001822201980266</v>
       </c>
     </row>
     <row r="64">
@@ -8185,16 +8376,16 @@
         <v>0.2276247466056894</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.05230819103252143</v>
+        <v>-0.05706348112638701</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.06313381490159409</v>
+        <v>-0.477870833804408</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>-0.07583511857198356</v>
+        <v>-0.08029600789974731</v>
       </c>
       <c r="W64" t="n">
         <v>-0.0007172445618272524</v>
@@ -8212,7 +8403,7 @@
         <v>0.004306803262919562</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.1690909868415308</v>
+        <v>0.0001486668905218245</v>
       </c>
       <c r="AC64" t="n">
         <v>-6.17703000231266e-05</v>
@@ -8236,16 +8427,19 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="n">
-        <v>-1.850001459479273</v>
+        <v>0.1690909868415308</v>
       </c>
       <c r="AK64" t="n">
+        <v>-2.394849484614606</v>
+      </c>
+      <c r="AL64" t="n">
         <v>12.39893209643974</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AM64" t="n">
         <v>2.266209328061446</v>
       </c>
-      <c r="AM64" t="n">
-        <v>8.282721308899022</v>
+      <c r="AN64" t="n">
+        <v>7.73787328376369</v>
       </c>
     </row>
     <row r="65">
@@ -8264,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0721452797670431</v>
+        <v>0.07202734920853851</v>
       </c>
       <c r="F65" t="n">
         <v>-0.01019719538412618</v>
@@ -8288,7 +8482,7 @@
         <v>-0.01735266492084075</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.1142973361071789</v>
+        <v>-0.1144005253458704</v>
       </c>
       <c r="N65" t="n">
         <v>-0.1189792080916912</v>
@@ -8306,16 +8500,16 @@
         <v>0.1051899499301452</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.05801733830777012</v>
+        <v>-0.06329164179029467</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.02461807306358001</v>
+        <v>-0.0008318386000059342</v>
       </c>
       <c r="U65" t="n">
         <v>0.1328350892548649</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.09612281676300492</v>
+        <v>-0.1015819332082198</v>
       </c>
       <c r="W65" t="n">
         <v>-0.1436881509391866</v>
@@ -8333,7 +8527,7 @@
         <v>0.0131219251300911</v>
       </c>
       <c r="AB65" t="n">
-        <v>-0.05787937134230201</v>
+        <v>0.02423676463767701</v>
       </c>
       <c r="AC65" t="n">
         <v>0.008412033768114119</v>
@@ -8357,16 +8551,19 @@
         <v>0.0008318386000059342</v>
       </c>
       <c r="AJ65" t="n">
-        <v>-5.375873056756035</v>
+        <v>-0.05795441806135042</v>
       </c>
       <c r="AK65" t="n">
+        <v>-4.819280237339909</v>
+      </c>
+      <c r="AL65" t="n">
         <v>11.10943158934868</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AM65" t="n">
         <v>3.229072804533929</v>
       </c>
-      <c r="AM65" t="n">
-        <v>2.504485728058713</v>
+      <c r="AN65" t="n">
+        <v>3.06107854747484</v>
       </c>
     </row>
     <row r="66">
@@ -8427,16 +8624,16 @@
         <v>-0.01621446359270814</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.07017124395039454</v>
+        <v>-0.07655044794588495</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.1451193152101566</v>
+        <v>-0.002702077333419527</v>
       </c>
       <c r="U66" t="n">
         <v>0.05085713359708304</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.07244588115467138</v>
+        <v>-0.07618138568720292</v>
       </c>
       <c r="W66" t="n">
         <v>-0.06408159042938832</v>
@@ -8454,7 +8651,7 @@
         <v>0.2083860694412956</v>
       </c>
       <c r="AB66" t="n">
-        <v>-0.06158194480999298</v>
+        <v>0.01151561667899816</v>
       </c>
       <c r="AC66" t="n">
         <v>0.009725479347129001</v>
@@ -8478,16 +8675,19 @@
         <v>0.0009025616987692496</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-3.799136239787753</v>
+        <v>-0.06158194480999297</v>
       </c>
       <c r="AK66" t="n">
+        <v>-3.417431763113794</v>
+      </c>
+      <c r="AL66" t="n">
         <v>9.970100801926188</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>2.559754237381127</v>
       </c>
-      <c r="AM66" t="n">
-        <v>3.611210324757308</v>
+      <c r="AN66" t="n">
+        <v>3.992914801431267</v>
       </c>
     </row>
     <row r="67">
@@ -8548,16 +8748,16 @@
         <v>0.09688529200249082</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.03898074964293134</v>
+        <v>-0.0425244541559251</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.1009351044150919</v>
+        <v>-0.007266720167856608</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.02876939999146372</v>
+        <v>-0.03046171763802041</v>
       </c>
       <c r="W67" t="n">
         <v>-0.2669267450220107</v>
@@ -8575,7 +8775,7 @@
         <v>0.03263393631481569</v>
       </c>
       <c r="AB67" t="n">
-        <v>-0.2502810135289198</v>
+        <v>0.00486232998684009</v>
       </c>
       <c r="AC67" t="n">
         <v>0</v>
@@ -8599,16 +8799,19 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>-4.700289978526146</v>
+        <v>-0.2502810135289197</v>
       </c>
       <c r="AK67" t="n">
+        <v>-4.552914545239195</v>
+      </c>
+      <c r="AL67" t="n">
         <v>9.557016881066625</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>2.988979749536568</v>
       </c>
-      <c r="AM67" t="n">
-        <v>1.867747153003911</v>
+      <c r="AN67" t="n">
+        <v>2.015122586290862</v>
       </c>
     </row>
     <row r="68">
@@ -8627,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1706242163955169</v>
+        <v>0.1700454075622996</v>
       </c>
       <c r="F68" t="n">
         <v>-0.06176685987196905</v>
@@ -8651,7 +8854,7 @@
         <v>-0.05729824048923265</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.1356363327265944</v>
+        <v>-0.1361427904556596</v>
       </c>
       <c r="N68" t="n">
         <v>-0.2369488106521603</v>
@@ -8669,16 +8872,16 @@
         <v>-0.05562137995616933</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.03157235197150724</v>
+        <v>-0.03444256578709881</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.1451022721744446</v>
+        <v>-0.02374505912415822</v>
       </c>
       <c r="U68" t="n">
         <v>0.01221981453882373</v>
       </c>
       <c r="V68" t="n">
-        <v>-0.06393429706569487</v>
+        <v>-0.06502187208453833</v>
       </c>
       <c r="W68" t="n">
         <v>-0.3256704016016823</v>
@@ -8696,7 +8899,7 @@
         <v>0.002703366848512778</v>
       </c>
       <c r="AB68" t="n">
-        <v>-0.2547559021342717</v>
+        <v>0.03033550116555248</v>
       </c>
       <c r="AC68" t="n">
         <v>0.002361334363854586</v>
@@ -8720,16 +8923,19 @@
         <v>0.00180411301877858</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-6.039568501862479</v>
+        <v>-0.2551242350281372</v>
       </c>
       <c r="AK68" t="n">
+        <v>-5.330291203911943</v>
+      </c>
+      <c r="AL68" t="n">
         <v>9.981727725265163</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>3.157101240805398</v>
       </c>
-      <c r="AM68" t="n">
-        <v>0.7850579825972863</v>
+      <c r="AN68" t="n">
+        <v>1.494335280547822</v>
       </c>
     </row>
     <row r="69">
@@ -8790,16 +8996,16 @@
         <v>0.05591682571922722</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.08229970434871232</v>
+        <v>-0.08978149565314072</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.112298629715414</v>
+        <v>-0.001365578215028945</v>
       </c>
       <c r="U69" t="n">
         <v>0.001361306717818181</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.06270792685955515</v>
+        <v>-0.06639662843952898</v>
       </c>
       <c r="W69" t="n">
         <v>-0.2112038239954063</v>
@@ -8817,7 +9023,7 @@
         <v>0.2212848800329647</v>
       </c>
       <c r="AB69" t="n">
-        <v>-0.1496466899910836</v>
+        <v>0.01467492832962354</v>
       </c>
       <c r="AC69" t="n">
         <v>-6.095769790444821e-07</v>
@@ -8841,16 +9047,19 @@
         <v>0.01611019496906826</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-2.250384075530675</v>
+        <v>-0.1496466899910836</v>
       </c>
       <c r="AK69" t="n">
+        <v>-1.783080607061495</v>
+      </c>
+      <c r="AL69" t="n">
         <v>10.76943308418791</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>2.287494107006678</v>
       </c>
-      <c r="AM69" t="n">
-        <v>6.231554901650561</v>
+      <c r="AN69" t="n">
+        <v>6.698858370119742</v>
       </c>
     </row>
     <row r="70">
@@ -8911,16 +9120,16 @@
         <v>-0.1414458005375516</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.0510085343000934</v>
+        <v>-0.05564567378192007</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.1850376942687458</v>
+        <v>-0.001875437909935059</v>
       </c>
       <c r="U70" t="n">
         <v>0.0006251459699783531</v>
       </c>
       <c r="V70" t="n">
-        <v>-0.03916273985977928</v>
+        <v>-0.04027834774319938</v>
       </c>
       <c r="W70" t="n">
         <v>-0.2128467633887787</v>
@@ -8938,7 +9147,7 @@
         <v>0.005602190790100545</v>
       </c>
       <c r="AB70" t="n">
-        <v>-0.1484475430409893</v>
+        <v>0.006372374501474947</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
@@ -8962,16 +9171,19 @@
         <v>0.01659432812192123</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-5.524917825354797</v>
+        <v>-0.1484475430409893</v>
       </c>
       <c r="AK70" t="n">
-        <v>7.939705727123222</v>
+        <v>-5.315710735282374</v>
       </c>
       <c r="AL70" t="n">
+        <v>7.939640751141269</v>
+      </c>
+      <c r="AM70" t="n">
         <v>2.079037696280881</v>
       </c>
-      <c r="AM70" t="n">
-        <v>0.3357502054875439</v>
+      <c r="AN70" t="n">
+        <v>0.5448923195780147</v>
       </c>
     </row>
     <row r="71">
@@ -8990,7 +9202,7 @@
         <v>0.0001861226236667514</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2085202393561207</v>
+        <v>0.2083799805161628</v>
       </c>
       <c r="F71" t="n">
         <v>-0.05035703211616487</v>
@@ -9014,7 +9226,7 @@
         <v>-0.0811999861464162</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.09877804707976964</v>
+        <v>-0.09890077356473281</v>
       </c>
       <c r="N71" t="n">
         <v>-0.2895717001318688</v>
@@ -9032,16 +9244,16 @@
         <v>-0.01559960914183369</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.02357469285856165</v>
+        <v>-0.02571784675479452</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.1322986280820351</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.05800805879193955</v>
+        <v>-0.05418326713983992</v>
       </c>
       <c r="W71" t="n">
         <v>-0.4243932763136522</v>
@@ -9059,7 +9271,7 @@
         <v>0.032665334665677</v>
       </c>
       <c r="AB71" t="n">
-        <v>-0.2961237662197875</v>
+        <v>0.01266368740527084</v>
       </c>
       <c r="AC71" t="n">
         <v>0</v>
@@ -9083,16 +9295,19 @@
         <v>0.01031504329624333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>-5.223523689924362</v>
+        <v>-0.2962130218452153</v>
       </c>
       <c r="AK71" t="n">
+        <v>-4.799128275368934</v>
+      </c>
+      <c r="AL71" t="n">
         <v>7.157723775418602</v>
       </c>
-      <c r="AL71" t="n">
+      <c r="AM71" t="n">
         <v>2.711267782049019</v>
       </c>
-      <c r="AM71" t="n">
-        <v>-0.7770676965547794</v>
+      <c r="AN71" t="n">
+        <v>-0.3526722819993511</v>
       </c>
     </row>
     <row r="72">
@@ -9153,16 +9368,16 @@
         <v>0.04040629416375178</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.01488462102085135</v>
+        <v>-0.01623776838638329</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.09124450270306507</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.004750599132781886</v>
+        <v>-0.005030046140592585</v>
       </c>
       <c r="W72" t="n">
         <v>-0.2278860864327866</v>
@@ -9180,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>-0.1372258480690412</v>
+        <v>0.0009995481358422375</v>
       </c>
       <c r="AC72" t="n">
         <v>0</v>
@@ -9204,16 +9419,19 @@
         <v>0.01708647896843243</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-0.9620615469335297</v>
+        <v>-0.1372258480690412</v>
       </c>
       <c r="AK72" t="n">
-        <v>9.24337243740591</v>
+        <v>-0.9305593800305524</v>
       </c>
       <c r="AL72" t="n">
+        <v>9.24090146008248</v>
+      </c>
+      <c r="AM72" t="n">
         <v>1.731238145367616</v>
       </c>
-      <c r="AM72" t="n">
-        <v>6.550072745104764</v>
+      <c r="AN72" t="n">
+        <v>6.579103934684312</v>
       </c>
     </row>
     <row r="73">
@@ -9232,7 +9450,7 @@
         <v>0.0006229592686852547</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1334088626489643</v>
+        <v>0.1332012111101736</v>
       </c>
       <c r="F73" t="n">
         <v>-0.004573498671488607</v>
@@ -9256,7 +9474,7 @@
         <v>-0.001748064844377158</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.002330573309499414</v>
+        <v>-0.002512268405941246</v>
       </c>
       <c r="N73" t="n">
         <v>0.03968061741791731</v>
@@ -9274,16 +9492,16 @@
         <v>0.09020048695866377</v>
       </c>
       <c r="S73" t="n">
-        <v>0.08153883209359622</v>
+        <v>0.08895145319301406</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.03891636848168906</v>
+        <v>-0.6501239411801965</v>
       </c>
       <c r="U73" t="n">
         <v>0.1050668944281073</v>
       </c>
       <c r="V73" t="n">
-        <v>-0.1073252882392283</v>
+        <v>-0.113552749776532</v>
       </c>
       <c r="W73" t="n">
         <v>-0.06888404798414571</v>
@@ -9301,7 +9519,7 @@
         <v>0.7504029278360136</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.06118653013510527</v>
+        <v>0.007736564450065956</v>
       </c>
       <c r="AC73" t="n">
         <v>0.02205477573132225</v>
@@ -9325,16 +9543,19 @@
         <v>0.01295294610835125</v>
       </c>
       <c r="AJ73" t="n">
-        <v>-2.312283518777592</v>
+        <v>0.06105438824678395</v>
       </c>
       <c r="AK73" t="n">
+        <v>-2.053605891123485</v>
+      </c>
+      <c r="AL73" t="n">
         <v>11.98205063492302</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AM73" t="n">
         <v>3.022534412543458</v>
       </c>
-      <c r="AM73" t="n">
-        <v>6.647232703601972</v>
+      <c r="AN73" t="n">
+        <v>6.905910331256079</v>
       </c>
     </row>
     <row r="74">
@@ -9395,16 +9616,16 @@
         <v>0.1889780808121177</v>
       </c>
       <c r="S74" t="n">
-        <v>0.04492787443798313</v>
+        <v>0.04901222665961796</v>
       </c>
       <c r="T74" t="n">
-        <v>0.003451306609627092</v>
+        <v>-0.01982096605637848</v>
       </c>
       <c r="U74" t="n">
         <v>0.1158790241853104</v>
       </c>
       <c r="V74" t="n">
-        <v>-0.05763816223400556</v>
+        <v>-0.06087007482617072</v>
       </c>
       <c r="W74" t="n">
         <v>-0.1911503733603349</v>
@@ -9422,7 +9643,7 @@
         <v>0.5094868129969347</v>
       </c>
       <c r="AB74" t="n">
-        <v>-0.1539807218308993</v>
+        <v>0.01339331391374013</v>
       </c>
       <c r="AC74" t="n">
         <v>0.02549709123859855</v>
@@ -9446,16 +9667,19 @@
         <v>0.01462319613317591</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-1.854248386223436</v>
+        <v>-0.1539807218308993</v>
       </c>
       <c r="AK74" t="n">
+        <v>-1.622225307908703</v>
+      </c>
+      <c r="AL74" t="n">
         <v>8.450588613006515</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>2.252956910384702</v>
       </c>
-      <c r="AM74" t="n">
-        <v>4.343383316398376</v>
+      <c r="AN74" t="n">
+        <v>4.575406394713109</v>
       </c>
     </row>
     <row r="75">
@@ -9516,16 +9740,16 @@
         <v>0.2354782399721667</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.04315226165413121</v>
+        <v>-0.0470751945317795</v>
       </c>
       <c r="T75" t="n">
-        <v>0.005974779209385487</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0.01426830040443353</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.04333762764704216</v>
+        <v>-0.04588689986157406</v>
       </c>
       <c r="W75" t="n">
         <v>-0.310730455857437</v>
@@ -9543,7 +9767,7 @@
         <v>0.3520060688821427</v>
       </c>
       <c r="AB75" t="n">
-        <v>-0.2600695389083036</v>
+        <v>0.003210795561023635</v>
       </c>
       <c r="AC75" t="n">
         <v>0</v>
@@ -9567,16 +9791,19 @@
         <v>0.01559386574710754</v>
       </c>
       <c r="AJ75" t="n">
-        <v>-2.655620234195657</v>
+        <v>-0.2600695389083036</v>
       </c>
       <c r="AK75" t="n">
+        <v>-2.553018806959876</v>
+      </c>
+      <c r="AL75" t="n">
         <v>11.40932506604161</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AM75" t="n">
         <v>2.315864572906233</v>
       </c>
-      <c r="AM75" t="n">
-        <v>6.437840258939718</v>
+      <c r="AN75" t="n">
+        <v>6.540441686175497</v>
       </c>
     </row>
     <row r="76">
@@ -9637,16 +9864,16 @@
         <v>-0.09468430346940074</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.04794066258128895</v>
+        <v>-0.0522989046341334</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.1791211365759965</v>
+        <v>-0.006989681441802116</v>
       </c>
       <c r="U76" t="n">
         <v>0.02661096733578111</v>
       </c>
       <c r="V76" t="n">
-        <v>-0.03987727533330902</v>
+        <v>-0.0420165913908801</v>
       </c>
       <c r="W76" t="n">
         <v>-0.1917406567741416</v>
@@ -9664,7 +9891,7 @@
         <v>0.1057884908055507</v>
       </c>
       <c r="AB76" t="n">
-        <v>-0.1641204189601657</v>
+        <v>0.0104843438927014</v>
       </c>
       <c r="AC76" t="n">
         <v>0.001484042936547319</v>
@@ -9688,16 +9915,19 @@
         <v>0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>-5.308888874181845</v>
+        <v>-0.1641204189601657</v>
       </c>
       <c r="AK76" t="n">
+        <v>-4.952421181829996</v>
+      </c>
+      <c r="AL76" t="n">
         <v>7.635137629794182</v>
       </c>
-      <c r="AL76" t="n">
+      <c r="AM76" t="n">
         <v>2.373054628544904</v>
       </c>
-      <c r="AM76" t="n">
-        <v>-0.04680587293256711</v>
+      <c r="AN76" t="n">
+        <v>0.3096618194192815</v>
       </c>
     </row>
     <row r="77">
@@ -9758,16 +9988,16 @@
         <v>-0.205736864725067</v>
       </c>
       <c r="S77" t="n">
-        <v>-0.04843377995061449</v>
+        <v>-0.05283685085521581</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.1863134370524347</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>0.005603613166838227</v>
       </c>
       <c r="V77" t="n">
-        <v>-0.05085878224588016</v>
+        <v>-0.04867140015870532</v>
       </c>
       <c r="W77" t="n">
         <v>-0.1638951941817202</v>
@@ -9785,7 +10015,7 @@
         <v>0.02071617831491532</v>
       </c>
       <c r="AB77" t="n">
-        <v>-0.1792086940263051</v>
+        <v>0.01252167960261534</v>
       </c>
       <c r="AC77" t="n">
         <v>0.0006003871250183814</v>
@@ -9809,16 +10039,19 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>-6.503778596431688</v>
+        <v>-0.1792086940263051</v>
       </c>
       <c r="AK77" t="n">
+        <v>-6.078041489942766</v>
+      </c>
+      <c r="AL77" t="n">
         <v>7.90361339744452</v>
       </c>
-      <c r="AL77" t="n">
+      <c r="AM77" t="n">
         <v>1.85321162898101</v>
       </c>
-      <c r="AM77" t="n">
-        <v>-0.4533768279681778</v>
+      <c r="AN77" t="n">
+        <v>-0.02763972147925653</v>
       </c>
     </row>
     <row r="78">
@@ -9879,16 +10112,16 @@
         <v>-0.06656640041067598</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.03924472555316642</v>
+        <v>-0.04281242787618154</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.1729900494045683</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0.002114599339840172</v>
       </c>
       <c r="V78" t="n">
-        <v>-0.03855241028952995</v>
+        <v>-0.04082019913009054</v>
       </c>
       <c r="W78" t="n">
         <v>-0.258147558307268</v>
@@ -9906,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>-0.1988064577048137</v>
+        <v>0.00275253970460144</v>
       </c>
       <c r="AC78" t="n">
         <v>0.0002265642149828755</v>
@@ -9930,16 +10163,19 @@
         <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>-4.836716690242865</v>
+        <v>-0.1988064577048137</v>
       </c>
       <c r="AK78" t="n">
+        <v>-4.743130340286416</v>
+      </c>
+      <c r="AL78" t="n">
         <v>8.040142353643786</v>
       </c>
-      <c r="AL78" t="n">
+      <c r="AM78" t="n">
         <v>2.366002688000143</v>
       </c>
-      <c r="AM78" t="n">
-        <v>0.837422975400778</v>
+      <c r="AN78" t="n">
+        <v>0.9310093253572265</v>
       </c>
     </row>
     <row r="79">
@@ -10000,16 +10236,16 @@
         <v>0.1042079169565722</v>
       </c>
       <c r="S79" t="n">
-        <v>0.01953973080017062</v>
+        <v>0.02131606996382249</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.1052814582603564</v>
+        <v>-0.003559810766220264</v>
       </c>
       <c r="U79" t="n">
         <v>0.004727119774234473</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.04222737606502196</v>
+        <v>-0.04211451545684121</v>
       </c>
       <c r="W79" t="n">
         <v>-0.2557318909511822</v>
@@ -10027,7 +10263,7 @@
         <v>0.0276934904829368</v>
       </c>
       <c r="AB79" t="n">
-        <v>-0.2587909806757508</v>
+        <v>0.01885317898323453</v>
       </c>
       <c r="AC79" t="n">
         <v>0.0005085443951743234</v>
@@ -10051,16 +10287,19 @@
         <v>0.003559810766220264</v>
       </c>
       <c r="AJ79" t="n">
-        <v>-6.243965227392444</v>
+        <v>-0.2587909806757508</v>
       </c>
       <c r="AK79" t="n">
+        <v>-5.820495240984341</v>
+      </c>
+      <c r="AL79" t="n">
         <v>7.366704395574535</v>
       </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
         <v>3.200478627683012</v>
       </c>
-      <c r="AM79" t="n">
-        <v>-2.077739459500921</v>
+      <c r="AN79" t="n">
+        <v>-1.654269473092818</v>
       </c>
     </row>
     <row r="80">
@@ -10121,16 +10360,16 @@
         <v>-0.07409081710200383</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.006649740047984139</v>
+        <v>-0.007254261870528151</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.1607638590616433</v>
+        <v>-0.01455302797689131</v>
       </c>
       <c r="U80" t="n">
         <v>0.001228076819426729</v>
       </c>
       <c r="V80" t="n">
-        <v>-0.06241785352479618</v>
+        <v>-0.05976031694907523</v>
       </c>
       <c r="W80" t="n">
         <v>-0.2788178908098468</v>
@@ -10148,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>-0.2861381433895525</v>
+        <v>0.02158504956767094</v>
       </c>
       <c r="AC80" t="n">
         <v>0.0002631593184485847</v>
@@ -10172,16 +10411,19 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-7.08166524073722</v>
+        <v>-0.2861381433895524</v>
       </c>
       <c r="AK80" t="n">
+        <v>-6.546242328081538</v>
+      </c>
+      <c r="AL80" t="n">
         <v>5.65940795322908</v>
       </c>
-      <c r="AL80" t="n">
+      <c r="AM80" t="n">
         <v>2.807904940120132</v>
       </c>
-      <c r="AM80" t="n">
-        <v>-4.230162227628272</v>
+      <c r="AN80" t="n">
+        <v>-3.694739314972591</v>
       </c>
     </row>
     <row r="81">
@@ -10242,16 +10484,16 @@
         <v>-0.06526526793926941</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.02033482213866748</v>
+        <v>-0.0221834423330918</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.1707340067478268</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0.000941318274071319</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.05038676447701773</v>
+        <v>-0.05253071210059</v>
       </c>
       <c r="W81" t="n">
         <v>-0.1762480304775619</v>
@@ -10269,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="AB81" t="n">
-        <v>-0.2126870273645982</v>
+        <v>0.009908591271651125</v>
       </c>
       <c r="AC81" t="n">
         <v>0.0002017110587295684</v>
@@ -10293,16 +10535,19 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="n">
-        <v>-5.630010407030533</v>
+        <v>-0.2126870273645982</v>
       </c>
       <c r="AK81" t="n">
+        <v>-5.295942258616608</v>
+      </c>
+      <c r="AL81" t="n">
         <v>6.71568293590797</v>
       </c>
-      <c r="AL81" t="n">
+      <c r="AM81" t="n">
         <v>2.433837675097362</v>
       </c>
-      <c r="AM81" t="n">
-        <v>-1.348165146219925</v>
+      <c r="AN81" t="n">
+        <v>-1.014096997806</v>
       </c>
     </row>
     <row r="82">
@@ -10363,16 +10608,16 @@
         <v>-0.01946492450963309</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.005405154713029624</v>
+        <v>-0.005896532414214135</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.1560620509274093</v>
+        <v>-0.006597339108559803</v>
       </c>
       <c r="U82" t="n">
         <v>0.09656834495079321</v>
       </c>
       <c r="V82" t="n">
-        <v>-0.03710284879422474</v>
+        <v>-0.03928536931153207</v>
       </c>
       <c r="W82" t="n">
         <v>-0.205641801302747</v>
@@ -10390,7 +10635,7 @@
         <v>0.1185264543351096</v>
       </c>
       <c r="AB82" t="n">
-        <v>-0.2286552076181861</v>
+        <v>0.00755551953897625</v>
       </c>
       <c r="AC82" t="n">
         <v>0.0002365140644475897</v>
@@ -10414,16 +10659,19 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>-3.807513990409398</v>
+        <v>-0.2286552076181862</v>
       </c>
       <c r="AK82" t="n">
+        <v>-3.550626326084206</v>
+      </c>
+      <c r="AL82" t="n">
         <v>9.110174668228042</v>
       </c>
-      <c r="AL82" t="n">
+      <c r="AM82" t="n">
         <v>2.568986972995789</v>
       </c>
-      <c r="AM82" t="n">
-        <v>2.733673704822855</v>
+      <c r="AN82" t="n">
+        <v>2.990561369148047</v>
       </c>
     </row>
     <row r="83">
@@ -10484,16 +10732,16 @@
         <v>-0.07736582704737636</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.03391936288252121</v>
+        <v>-0.03700294132638678</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.1687322440334528</v>
+        <v>-0.006074572521323806</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.05047267967243356</v>
+        <v>-0.05344166082963554</v>
       </c>
       <c r="W83" t="n">
         <v>-0.2506966677979591</v>
@@ -10511,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>-0.1997947610184442</v>
+        <v>0.01103001779055551</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
@@ -10535,16 +10783,19 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="n">
-        <v>-6.224820763491644</v>
+        <v>-0.1997947610184442</v>
       </c>
       <c r="AK83" t="n">
+        <v>-5.849800158612756</v>
+      </c>
+      <c r="AL83" t="n">
         <v>5.360163692926537</v>
       </c>
-      <c r="AL83" t="n">
+      <c r="AM83" t="n">
         <v>2.558311126585456</v>
       </c>
-      <c r="AM83" t="n">
-        <v>-3.422968197150564</v>
+      <c r="AN83" t="n">
+        <v>-3.047947592271675</v>
       </c>
     </row>
     <row r="84">
@@ -10605,16 +10856,16 @@
         <v>0.1967248867771121</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.08272779259919295</v>
+        <v>-0.09024850101730141</v>
       </c>
       <c r="T84" t="n">
-        <v>0.03633142147478655</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0.001171242855804494</v>
       </c>
       <c r="V84" t="n">
-        <v>-0.09745037277802085</v>
+        <v>-0.1023658360224521</v>
       </c>
       <c r="W84" t="n">
         <v>-0.1201242545762921</v>
@@ -10632,7 +10883,7 @@
         <v>0.5591741703102994</v>
       </c>
       <c r="AB84" t="n">
-        <v>-0.06319911888754612</v>
+        <v>0.01631873921633746</v>
       </c>
       <c r="AC84" t="n">
         <v>-0.03570022699088757</v>
@@ -10656,16 +10907,19 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>-4.611388583655959</v>
+        <v>-0.06319911888754612</v>
       </c>
       <c r="AK84" t="n">
+        <v>-4.056551450300486</v>
+      </c>
+      <c r="AL84" t="n">
         <v>11.94122305981043</v>
       </c>
-      <c r="AL84" t="n">
+      <c r="AM84" t="n">
         <v>2.727880518977305</v>
       </c>
-      <c r="AM84" t="n">
-        <v>4.601953957177162</v>
+      <c r="AN84" t="n">
+        <v>5.156791090532636</v>
       </c>
     </row>
     <row r="85">
@@ -10726,16 +10980,16 @@
         <v>0.009764140340496203</v>
       </c>
       <c r="S85" t="n">
-        <v>0.01430408832588481</v>
+        <v>0.01560445999187434</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.1569684047015359</v>
+        <v>-0.0180171216294323</v>
       </c>
       <c r="U85" t="n">
         <v>0.008339921394401845</v>
       </c>
       <c r="V85" t="n">
-        <v>-0.04892729584171931</v>
+        <v>-0.04725754274632977</v>
       </c>
       <c r="W85" t="n">
         <v>-0.2189343584288319</v>
@@ -10753,7 +11007,7 @@
         <v>0.03531646464416969</v>
       </c>
       <c r="AB85" t="n">
-        <v>-0.2026259369483401</v>
+        <v>0.02352674501428104</v>
       </c>
       <c r="AC85" t="n">
         <v>0.001808136253880279</v>
@@ -10777,16 +11031,19 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="n">
-        <v>-5.90734043926941</v>
+        <v>-0.2026259369483401</v>
       </c>
       <c r="AK85" t="n">
+        <v>-5.283473308875132</v>
+      </c>
+      <c r="AL85" t="n">
         <v>6.170200355607149</v>
       </c>
-      <c r="AL85" t="n">
+      <c r="AM85" t="n">
         <v>3.047668085045672</v>
       </c>
-      <c r="AM85" t="n">
-        <v>-2.784808168707932</v>
+      <c r="AN85" t="n">
+        <v>-2.160941038313655</v>
       </c>
     </row>
     <row r="86">
@@ -10847,16 +11104,16 @@
         <v>0.2592911443566296</v>
       </c>
       <c r="S86" t="n">
-        <v>0.06279094421152502</v>
+        <v>0.0684992118671182</v>
       </c>
       <c r="T86" t="n">
-        <v>0.002563207913835728</v>
+        <v>-0.005597377157794703</v>
       </c>
       <c r="U86" t="n">
         <v>0.02415755213466877</v>
       </c>
       <c r="V86" t="n">
-        <v>-0.07149100192084216</v>
+        <v>-0.07569635497500934</v>
       </c>
       <c r="W86" t="n">
         <v>-0.01069280545516466</v>
@@ -10874,7 +11131,7 @@
         <v>0.01112352987000443</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.05112431594338047</v>
+        <v>0.04488756417060403</v>
       </c>
       <c r="AC86" t="n">
         <v>0.005005872427628364</v>
@@ -10898,16 +11155,19 @@
         <v>0.01658024799195141</v>
       </c>
       <c r="AJ86" t="n">
-        <v>-1.663020070932059</v>
+        <v>0.05112431594338047</v>
       </c>
       <c r="AK86" t="n">
+        <v>-0.7256467362061482</v>
+      </c>
+      <c r="AL86" t="n">
         <v>9.512600881405731</v>
       </c>
-      <c r="AL86" t="n">
+      <c r="AM86" t="n">
         <v>1.959814633997636</v>
       </c>
-      <c r="AM86" t="n">
-        <v>5.889766176476037</v>
+      <c r="AN86" t="n">
+        <v>6.827139511201947</v>
       </c>
     </row>
     <row r="87">
@@ -10968,16 +11228,16 @@
         <v>0.2382151975433908</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.009193802866301644</v>
+        <v>-0.01002960312687452</v>
       </c>
       <c r="T87" t="n">
-        <v>0.01046010815320058</v>
+        <v>-0.002732623889326428</v>
       </c>
       <c r="U87" t="n">
         <v>0.01557833730451324</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.03978651432370265</v>
+        <v>-0.03524253604038</v>
       </c>
       <c r="W87" t="n">
         <v>-0.3109940293472709</v>
@@ -10995,7 +11255,7 @@
         <v>0.334734383632582</v>
       </c>
       <c r="AB87" t="n">
-        <v>-0.2967957069782546</v>
+        <v>0.00587158897339428</v>
       </c>
       <c r="AC87" t="n">
         <v>0.003373708562545083</v>
@@ -11019,16 +11279,19 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>-4.149733971370265</v>
+        <v>-0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
+        <v>-3.95009994627486</v>
+      </c>
+      <c r="AL87" t="n">
         <v>7.840588355525568</v>
       </c>
-      <c r="AL87" t="n">
+      <c r="AM87" t="n">
         <v>2.425357899050288</v>
       </c>
-      <c r="AM87" t="n">
-        <v>1.265496485105016</v>
+      <c r="AN87" t="n">
+        <v>1.465130510200421</v>
       </c>
     </row>
     <row r="88">
@@ -11089,16 +11352,16 @@
         <v>-0.08012237280806812</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.04020064516385836</v>
+        <v>-0.04385524926966367</v>
       </c>
       <c r="T88" t="n">
-        <v>-0.1566835442575533</v>
+        <v>-0.003680171855663775</v>
       </c>
       <c r="U88" t="n">
         <v>0.001226723951887925</v>
       </c>
       <c r="V88" t="n">
-        <v>-0.04761356721405805</v>
+        <v>-0.04998322292485165</v>
       </c>
       <c r="W88" t="n">
         <v>-0.3692400505250117</v>
@@ -11116,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>-0.3146553283164298</v>
+        <v>0.007751840110312241</v>
       </c>
       <c r="AC88" t="n">
         <v>0.0002628694182616982</v>
@@ -11140,16 +11403,19 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="n">
-        <v>-5.13242411092465</v>
+        <v>-0.3146553283164298</v>
       </c>
       <c r="AK88" t="n">
+        <v>-4.868861547174033</v>
+      </c>
+      <c r="AL88" t="n">
         <v>8.263916310292464</v>
       </c>
-      <c r="AL88" t="n">
+      <c r="AM88" t="n">
         <v>2.616048750996152</v>
       </c>
-      <c r="AM88" t="n">
-        <v>0.5154434483716615</v>
+      <c r="AN88" t="n">
+        <v>0.7790060121222786</v>
       </c>
     </row>
     <row r="89">
@@ -11210,16 +11476,16 @@
         <v>-0.05645820701209524</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.0479186560133768</v>
+        <v>-0.05227489746913833</v>
       </c>
       <c r="T89" t="n">
-        <v>-0.1844176992103618</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>-0.04237129431142415</v>
+        <v>-0.04486372338856676</v>
       </c>
       <c r="W89" t="n">
         <v>-0.2217206635953561</v>
@@ -11237,7 +11503,7 @@
         <v>0.005388672420382223</v>
       </c>
       <c r="AB89" t="n">
-        <v>-0.08814671510752987</v>
+        <v>0.007885600570990917</v>
       </c>
       <c r="AC89" t="n">
         <v>0</v>
@@ -11261,16 +11527,19 @@
         <v>0</v>
       </c>
       <c r="AJ89" t="n">
-        <v>-4.024258579934556</v>
+        <v>-0.08814671510752987</v>
       </c>
       <c r="AK89" t="n">
+        <v>-3.756148160520866</v>
+      </c>
+      <c r="AL89" t="n">
         <v>7.915400646016661</v>
       </c>
-      <c r="AL89" t="n">
+      <c r="AM89" t="n">
         <v>2.084980127071581</v>
       </c>
-      <c r="AM89" t="n">
-        <v>1.806161939010523</v>
+      <c r="AN89" t="n">
+        <v>2.074272358424214</v>
       </c>
     </row>
     <row r="90">
@@ -11331,16 +11600,16 @@
         <v>-0.03169871966774399</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.0007575850348201449</v>
+        <v>-0.0008264564016219763</v>
       </c>
       <c r="T90" t="n">
-        <v>0.006805019273215</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
         <v>0.001843322293102625</v>
       </c>
       <c r="V90" t="n">
-        <v>-0.05658147116088582</v>
+        <v>-0.0599097929938791</v>
       </c>
       <c r="W90" t="n">
         <v>-0.003584685628358099</v>
@@ -11358,7 +11627,7 @@
         <v>0.002764983439653938</v>
       </c>
       <c r="AB90" t="n">
-        <v>-0.1076508695620903</v>
+        <v>0.009433676580603909</v>
       </c>
       <c r="AC90" t="n">
         <v>-0.02381826997325304</v>
@@ -11382,16 +11651,19 @@
         <v>1.125348372889696</v>
       </c>
       <c r="AJ90" t="n">
-        <v>-5.265809220387614</v>
+        <v>-0.1076508695620903</v>
       </c>
       <c r="AK90" t="n">
+        <v>-5.107470674582339</v>
+      </c>
+      <c r="AL90" t="n">
         <v>8.608584070451485</v>
       </c>
-      <c r="AL90" t="n">
+      <c r="AM90" t="n">
         <v>2.433918121628596</v>
       </c>
-      <c r="AM90" t="n">
-        <v>0.9088567284352753</v>
+      <c r="AN90" t="n">
+        <v>1.067195274240549</v>
       </c>
     </row>
     <row r="91">
@@ -11452,16 +11724,16 @@
         <v>0.2258686961856878</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.002053836330930342</v>
+        <v>-0.002240548724651281</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.00338835021394774</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0.003421282412329471</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.02132857706732193</v>
+        <v>-0.02258319924775264</v>
       </c>
       <c r="W91" t="n">
         <v>-0.2647667275805787</v>
@@ -11479,7 +11751,7 @@
         <v>0.01530621761421376</v>
       </c>
       <c r="AB91" t="n">
-        <v>-0.194654101420828</v>
+        <v>0.004907738925894137</v>
       </c>
       <c r="AC91" t="n">
         <v>0</v>
@@ -11503,16 +11775,19 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="n">
-        <v>-1.972067819917271</v>
+        <v>-0.194654101420828</v>
       </c>
       <c r="AK91" t="n">
+        <v>-1.80520469643687</v>
+      </c>
+      <c r="AL91" t="n">
         <v>6.784724649393182</v>
       </c>
-      <c r="AL91" t="n">
+      <c r="AM91" t="n">
         <v>1.972188058716642</v>
       </c>
-      <c r="AM91" t="n">
-        <v>2.840468770759268</v>
+      <c r="AN91" t="n">
+        <v>3.00733189423967</v>
       </c>
     </row>
     <row r="92">
@@ -11573,16 +11848,16 @@
         <v>-0.02578964945809435</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.00536849347690722</v>
+        <v>-0.005856538338444239</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.1500870340552757</v>
+        <v>-0.004703511419353144</v>
       </c>
       <c r="U92" t="n">
         <v>0.001567837139784381</v>
       </c>
       <c r="V92" t="n">
-        <v>-0.04413574197411087</v>
+        <v>-0.04511513744229728</v>
       </c>
       <c r="W92" t="n">
         <v>-0.3364226689796279</v>
@@ -11600,7 +11875,7 @@
         <v>0.1903034753619269</v>
       </c>
       <c r="AB92" t="n">
-        <v>-0.3160423877674182</v>
+        <v>0.01950632989669333</v>
       </c>
       <c r="AC92" t="n">
         <v>0.0003359651013823674</v>
@@ -11624,16 +11899,19 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="n">
-        <v>-4.913113232776914</v>
+        <v>-0.3160423877674182</v>
       </c>
       <c r="AK92" t="n">
+        <v>-4.597232548113853</v>
+      </c>
+      <c r="AL92" t="n">
         <v>8.111406989640949</v>
       </c>
-      <c r="AL92" t="n">
+      <c r="AM92" t="n">
         <v>2.606532721370237</v>
       </c>
-      <c r="AM92" t="n">
-        <v>0.5917610354937981</v>
+      <c r="AN92" t="n">
+        <v>0.907641720156859</v>
       </c>
     </row>
     <row r="93">
@@ -11694,16 +11972,16 @@
         <v>0.1956553397573777</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.02997677927970273</v>
+        <v>-0.03270194103240298</v>
       </c>
       <c r="T93" t="n">
-        <v>0.02002855779806119</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0.01775907384621912</v>
       </c>
       <c r="V93" t="n">
-        <v>-0.1125124103380424</v>
+        <v>-0.1157301077304609</v>
       </c>
       <c r="W93" t="n">
         <v>-0.2870794703375311</v>
@@ -11721,7 +11999,7 @@
         <v>0.617449191429001</v>
       </c>
       <c r="AB93" t="n">
-        <v>-0.2827785212685758</v>
+        <v>0.01988893011986378</v>
       </c>
       <c r="AC93" t="n">
         <v>0.00380551582418981</v>
@@ -11745,16 +12023,19 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="n">
-        <v>-4.528134292708066</v>
+        <v>-0.2827785212685758</v>
       </c>
       <c r="AK93" t="n">
+        <v>-3.849341783336558</v>
+      </c>
+      <c r="AL93" t="n">
         <v>9.444442255971929</v>
       </c>
-      <c r="AL93" t="n">
+      <c r="AM93" t="n">
         <v>2.699182906316397</v>
       </c>
-      <c r="AM93" t="n">
-        <v>2.217125056947465</v>
+      <c r="AN93" t="n">
+        <v>2.895917566318973</v>
       </c>
     </row>
     <row r="94">
@@ -11815,16 +12096,16 @@
         <v>-0.0417826898375468</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.08305893578453458</v>
+        <v>-0.09060974812858318</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.1357984004585005</v>
+        <v>-0.00236492896470245</v>
       </c>
       <c r="U94" t="n">
         <v>0.00235216657535721</v>
       </c>
       <c r="V94" t="n">
-        <v>-0.07477404084563948</v>
+        <v>-0.07794695051215493</v>
       </c>
       <c r="W94" t="n">
         <v>-0.2464210369607579</v>
@@ -11842,7 +12123,7 @@
         <v>0.43194480247863</v>
       </c>
       <c r="AB94" t="n">
-        <v>-0.1998147055052133</v>
+        <v>0.01309252976510758</v>
       </c>
       <c r="AC94" t="n">
         <v>0.0005058556076571552</v>
@@ -11866,16 +12147,19 @@
         <v>0.004717049542497722</v>
       </c>
       <c r="AJ94" t="n">
-        <v>-5.678640587038046</v>
+        <v>-0.1998147055052133</v>
       </c>
       <c r="AK94" t="n">
+        <v>-5.247494749873889</v>
+      </c>
+      <c r="AL94" t="n">
         <v>9.172885047477312</v>
       </c>
-      <c r="AL94" t="n">
+      <c r="AM94" t="n">
         <v>2.915258061534266</v>
       </c>
-      <c r="AM94" t="n">
-        <v>0.5789863989049997</v>
+      <c r="AN94" t="n">
+        <v>1.010132236069157</v>
       </c>
     </row>
     <row r="95">
@@ -11936,16 +12220,16 @@
         <v>-0.08069360661305673</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.07815194202888737</v>
+        <v>-0.0852566640315135</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.1907210781566022</v>
+        <v>-0.07071929740641167</v>
       </c>
       <c r="U95" t="n">
         <v>0.001696747357653869</v>
       </c>
       <c r="V95" t="n">
-        <v>-0.03164046027692415</v>
+        <v>-0.03305383067255731</v>
       </c>
       <c r="W95" t="n">
         <v>-0.06828244247963629</v>
@@ -11963,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>-0.05139794557285706</v>
+        <v>0.003866986342808845</v>
       </c>
       <c r="AC95" t="n">
         <v>0.0003635887194972576</v>
@@ -11987,16 +12271,19 @@
         <v>0.005090242072961607</v>
       </c>
       <c r="AJ95" t="n">
-        <v>-4.408474429903369</v>
+        <v>-0.05139794557285706</v>
       </c>
       <c r="AK95" t="n">
+        <v>-4.276996894247868</v>
+      </c>
+      <c r="AL95" t="n">
         <v>11.38144294400707</v>
       </c>
-      <c r="AL95" t="n">
+      <c r="AM95" t="n">
         <v>2.013415045137802</v>
       </c>
-      <c r="AM95" t="n">
-        <v>4.959553468965899</v>
+      <c r="AN95" t="n">
+        <v>5.091031004621399</v>
       </c>
     </row>
     <row r="96">
@@ -12057,16 +12344,16 @@
         <v>0.01238967123638608</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.002506681120673468</v>
+        <v>-0.002734561222552874</v>
       </c>
       <c r="T96" t="n">
-        <v>-0.1382761469434731</v>
+        <v>-0.00390520104500858</v>
       </c>
       <c r="U96" t="n">
         <v>0.001301733681669527</v>
       </c>
       <c r="V96" t="n">
-        <v>-0.03767543487689182</v>
+        <v>-0.03898490581109798</v>
       </c>
       <c r="W96" t="n">
         <v>-0.3120737368672158</v>
@@ -12084,7 +12371,7 @@
         <v>0.1163116927549799</v>
       </c>
       <c r="AB96" t="n">
-        <v>-0.3154337569703177</v>
+        <v>0.01044929190590838</v>
       </c>
       <c r="AC96" t="n">
         <v>0.0002789429317863271</v>
@@ -12108,16 +12395,19 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="n">
-        <v>-5.713069759311736</v>
+        <v>-0.3154337569703177</v>
       </c>
       <c r="AK96" t="n">
+        <v>-5.357793834510851</v>
+      </c>
+      <c r="AL96" t="n">
         <v>6.987007722430583</v>
       </c>
-      <c r="AL96" t="n">
+      <c r="AM96" t="n">
         <v>2.678264677601537</v>
       </c>
-      <c r="AM96" t="n">
-        <v>-1.40432671448269</v>
+      <c r="AN96" t="n">
+        <v>-1.049050789681805</v>
       </c>
     </row>
     <row r="97">
@@ -12178,16 +12468,16 @@
         <v>-0.02120090582983531</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.04434260334716356</v>
+        <v>-0.04837374910599661</v>
       </c>
       <c r="T97" t="n">
-        <v>-0.1555470603704981</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0.001827055579973114</v>
       </c>
       <c r="V97" t="n">
-        <v>-0.05073834008596353</v>
+        <v>-0.05292439815088082</v>
       </c>
       <c r="W97" t="n">
         <v>-0.2844952965138656</v>
@@ -12205,7 +12495,7 @@
         <v>0.1728894559473952</v>
       </c>
       <c r="AB97" t="n">
-        <v>-0.2306404980166452</v>
+        <v>0.01544318415740843</v>
       </c>
       <c r="AC97" t="n">
         <v>0.0003915119099942387</v>
@@ -12229,16 +12519,19 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="n">
-        <v>-5.070047324460957</v>
+        <v>-0.2306404980166452</v>
       </c>
       <c r="AK97" t="n">
+        <v>-4.54497906310907</v>
+      </c>
+      <c r="AL97" t="n">
         <v>5.34155721540487</v>
       </c>
-      <c r="AL97" t="n">
+      <c r="AM97" t="n">
         <v>2.655563428030504</v>
       </c>
-      <c r="AM97" t="n">
-        <v>-2.384053537086591</v>
+      <c r="AN97" t="n">
+        <v>-1.858985275734704</v>
       </c>
     </row>
     <row r="98">
@@ -12299,16 +12592,16 @@
         <v>0.01934936573982315</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.02622401862794832</v>
+        <v>-0.02860802032139817</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.1250742050122525</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>-0.0452109403274875</v>
+        <v>-0.04737762415438622</v>
       </c>
       <c r="W98" t="n">
         <v>-0.3013095870363662</v>
@@ -12326,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>-0.2700738201972069</v>
+        <v>0.01426639488492909</v>
       </c>
       <c r="AC98" t="n">
         <v>0</v>
@@ -12350,16 +12643,19 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="n">
-        <v>-6.839366944751796</v>
+        <v>-0.2700738201972069</v>
       </c>
       <c r="AK98" t="n">
+        <v>-6.354309518664207</v>
+      </c>
+      <c r="AL98" t="n">
         <v>7.230852300805022</v>
       </c>
-      <c r="AL98" t="n">
+      <c r="AM98" t="n">
         <v>2.966931020723821</v>
       </c>
-      <c r="AM98" t="n">
-        <v>-2.575445664670595</v>
+      <c r="AN98" t="n">
+        <v>-2.090388238583006</v>
       </c>
     </row>
     <row r="99">
@@ -12420,16 +12716,16 @@
         <v>-0.0736675950419339</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.07075395283436771</v>
+        <v>-0.07718613036476478</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.1391295848810617</v>
+        <v>-0.002610421286556845</v>
       </c>
       <c r="U99" t="n">
         <v>0.04793129503650947</v>
       </c>
       <c r="V99" t="n">
-        <v>-0.05957786875931538</v>
+        <v>-0.06308244927456923</v>
       </c>
       <c r="W99" t="n">
         <v>-0.04274676822645803</v>
@@ -12447,7 +12743,7 @@
         <v>1.212859966153136</v>
       </c>
       <c r="AB99" t="n">
-        <v>-0.1575729328062057</v>
+        <v>0.01363895050247226</v>
       </c>
       <c r="AC99" t="n">
         <v>0.0005582619326419213</v>
@@ -12471,16 +12767,19 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="n">
-        <v>-3.44404540581356</v>
+        <v>-0.1575729328062057</v>
       </c>
       <c r="AK99" t="n">
+        <v>-2.980321088729503</v>
+      </c>
+      <c r="AL99" t="n">
         <v>8.076984835780214</v>
       </c>
-      <c r="AL99" t="n">
+      <c r="AM99" t="n">
         <v>2.645633434644179</v>
       </c>
-      <c r="AM99" t="n">
-        <v>1.987305995322476</v>
+      <c r="AN99" t="n">
+        <v>2.451030312406533</v>
       </c>
     </row>
     <row r="100">
@@ -12541,16 +12840,16 @@
         <v>-0.03591753469976847</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.01103645927872926</v>
+        <v>-0.01203977375861374</v>
       </c>
       <c r="T100" t="n">
-        <v>-0.1453404190557269</v>
+        <v>-0.005142378260985046</v>
       </c>
       <c r="U100" t="n">
         <v>0.02812065433850967</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.03649257576481835</v>
+        <v>-0.03818679124804609</v>
       </c>
       <c r="W100" t="n">
         <v>-0.3373886342840815</v>
@@ -12568,7 +12867,7 @@
         <v>0.005142378260985046</v>
       </c>
       <c r="AB100" t="n">
-        <v>-0.2775849952755857</v>
+        <v>-0.0152717975604553</v>
       </c>
       <c r="AC100" t="n">
         <v>0.006025854501109216</v>
@@ -12592,16 +12891,19 @@
         <v>0</v>
       </c>
       <c r="AJ100" t="n">
-        <v>-2.960438281622402</v>
+        <v>-0.2775849952755857</v>
       </c>
       <c r="AK100" t="n">
+        <v>-3.479679398677882</v>
+      </c>
+      <c r="AL100" t="n">
         <v>9.377326500939484</v>
       </c>
-      <c r="AL100" t="n">
+      <c r="AM100" t="n">
         <v>2.553406261296868</v>
       </c>
-      <c r="AM100" t="n">
-        <v>3.863481958020214</v>
+      <c r="AN100" t="n">
+        <v>3.344240840964734</v>
       </c>
     </row>
     <row r="101">
@@ -12662,16 +12964,16 @@
         <v>0.0149440858013598</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.01538258618876429</v>
+        <v>-0.01678100311501559</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.1208677088647226</v>
+        <v>-0.003816991365011593</v>
       </c>
       <c r="U101" t="n">
         <v>0.02978993974180026</v>
       </c>
       <c r="V101" t="n">
-        <v>-0.03866746870025122</v>
+        <v>-0.03919873462719053</v>
       </c>
       <c r="W101" t="n">
         <v>-0.2864154131844432</v>
@@ -12689,7 +12991,7 @@
         <v>0.08973551776357765</v>
       </c>
       <c r="AB101" t="n">
-        <v>-0.2608321684737274</v>
+        <v>0.01189266825668174</v>
       </c>
       <c r="AC101" t="n">
         <v>0.005246442424685624</v>
@@ -12713,16 +13015,19 @@
         <v>0</v>
       </c>
       <c r="AJ101" t="n">
-        <v>-5.111072405641086</v>
+        <v>-0.2608321684737274</v>
       </c>
       <c r="AK101" t="n">
-        <v>5.978703352838419</v>
+        <v>-4.714322412374143</v>
       </c>
       <c r="AL101" t="n">
+        <v>5.978454461997773</v>
+      </c>
+      <c r="AM101" t="n">
         <v>2.855159933826961</v>
       </c>
-      <c r="AM101" t="n">
-        <v>-1.987528986629628</v>
+      <c r="AN101" t="n">
+        <v>-1.591027884203331</v>
       </c>
     </row>
     <row r="102">
@@ -12783,16 +13088,16 @@
         <v>0.02219861464917381</v>
       </c>
       <c r="S102" t="n">
-        <v>-0.03700176118258702</v>
+        <v>-0.04036555765373129</v>
       </c>
       <c r="T102" t="n">
-        <v>-0.0002255350769117691</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0.02080044943991463</v>
       </c>
       <c r="V102" t="n">
-        <v>-0.02316963469534804</v>
+        <v>-0.02453255438330968</v>
       </c>
       <c r="W102" t="n">
         <v>-0.02866896607658079</v>
@@ -12810,7 +13115,7 @@
         <v>0.00278716450068783</v>
       </c>
       <c r="AB102" t="n">
-        <v>-0.01084298328904704</v>
+        <v>-0.0163723678570871</v>
       </c>
       <c r="AC102" t="n">
         <v>0.004457239165695993</v>
@@ -12834,16 +13139,19 @@
         <v>0</v>
       </c>
       <c r="AJ102" t="n">
-        <v>-1.483251309529772</v>
+        <v>-0.01084298328904704</v>
       </c>
       <c r="AK102" t="n">
+        <v>-2.039911816670734</v>
+      </c>
+      <c r="AL102" t="n">
         <v>8.636664268151225</v>
       </c>
-      <c r="AL102" t="n">
+      <c r="AM102" t="n">
         <v>1.274613539470903</v>
       </c>
-      <c r="AM102" t="n">
-        <v>5.87879941915055</v>
+      <c r="AN102" t="n">
+        <v>5.322138912009588</v>
       </c>
     </row>
     <row r="103">
@@ -12904,16 +13212,16 @@
         <v>0.0533308157647725</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.009376482566058253</v>
+        <v>-0.01022889007206355</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.1255720967691613</v>
+        <v>-0.002525709252446584</v>
       </c>
       <c r="U103" t="n">
         <v>0.001678938242371556</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.02373768022970902</v>
+        <v>-0.02513401436086837</v>
       </c>
       <c r="W103" t="n">
         <v>-0.2621030989762052</v>
@@ -12931,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AB103" t="n">
-        <v>-0.2665785874533607</v>
+        <v>-0.002178661852858397</v>
       </c>
       <c r="AC103" t="n">
         <v>0.0003597724805081905</v>
@@ -12955,16 +13263,19 @@
         <v>0</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-4.276713732489735</v>
+        <v>-0.2665785874533608</v>
       </c>
       <c r="AK103" t="n">
+        <v>-4.35078823548692</v>
+      </c>
+      <c r="AL103" t="n">
         <v>7.973835615208159</v>
       </c>
-      <c r="AL103" t="n">
+      <c r="AM103" t="n">
         <v>2.555008484225799</v>
       </c>
-      <c r="AM103" t="n">
-        <v>1.142113398492626</v>
+      <c r="AN103" t="n">
+        <v>1.06803889549544</v>
       </c>
     </row>
   </sheetData>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -751,7 +751,7 @@
         <v>2.801788565973822</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.995075048266217</v>
+        <v>1.995075048266216</v>
       </c>
     </row>
     <row r="3">
@@ -2611,7 +2611,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.77235340969462</v>
+        <v>6.772353409694619</v>
       </c>
     </row>
     <row r="18">
@@ -2859,7 +2859,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.155808351755077</v>
+        <v>6.155808351755078</v>
       </c>
     </row>
     <row r="20">
@@ -4595,7 +4595,7 @@
         <v>3.322850010526614</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.308991971926992</v>
+        <v>1.308991971926991</v>
       </c>
     </row>
     <row r="34">
@@ -5587,7 +5587,7 @@
         <v>1.204401773911864</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.857073980251416</v>
+        <v>6.857073980251415</v>
       </c>
     </row>
     <row r="42">
@@ -5835,7 +5835,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.357745516553171</v>
+        <v>5.357745516553172</v>
       </c>
     </row>
     <row r="44">
@@ -7819,7 +7819,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.756324770701157</v>
+        <v>3.756324770701158</v>
       </c>
     </row>
     <row r="60">
@@ -8315,7 +8315,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN63" t="n">
-        <v>6.001822201980266</v>
+        <v>6.001822201980267</v>
       </c>
     </row>
     <row r="64">
@@ -8563,7 +8563,7 @@
         <v>3.229072804533929</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.06107854747484</v>
+        <v>3.061078547474839</v>
       </c>
     </row>
     <row r="66">
@@ -8687,7 +8687,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.992914801431267</v>
+        <v>3.992914801431266</v>
       </c>
     </row>
     <row r="67">
@@ -8811,7 +8811,7 @@
         <v>2.988979749536568</v>
       </c>
       <c r="AN67" t="n">
-        <v>2.015122586290862</v>
+        <v>2.015122586290861</v>
       </c>
     </row>
     <row r="68">
@@ -9183,7 +9183,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.5448923195780147</v>
+        <v>0.5448923195780142</v>
       </c>
     </row>
     <row r="71">
@@ -9307,7 +9307,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN71" t="n">
-        <v>-0.3526722819993511</v>
+        <v>-0.3526722819993515</v>
       </c>
     </row>
     <row r="72">
@@ -9927,7 +9927,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.3096618194192815</v>
+        <v>0.3096618194192819</v>
       </c>
     </row>
     <row r="77">
@@ -10051,7 +10051,7 @@
         <v>1.85321162898101</v>
       </c>
       <c r="AN77" t="n">
-        <v>-0.02763972147925653</v>
+        <v>-0.02763972147925631</v>
       </c>
     </row>
     <row r="78">
@@ -10175,7 +10175,7 @@
         <v>2.366002688000143</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.9310093253572265</v>
+        <v>0.9310093253572269</v>
       </c>
     </row>
     <row r="79">
@@ -11663,7 +11663,7 @@
         <v>2.433918121628596</v>
       </c>
       <c r="AN90" t="n">
-        <v>1.067195274240549</v>
+        <v>1.06719527424055</v>
       </c>
     </row>
     <row r="91">
@@ -11911,7 +11911,7 @@
         <v>2.606532721370237</v>
       </c>
       <c r="AN92" t="n">
-        <v>0.907641720156859</v>
+        <v>0.9076417201568594</v>
       </c>
     </row>
     <row r="93">
@@ -12779,7 +12779,7 @@
         <v>2.645633434644179</v>
       </c>
       <c r="AN99" t="n">
-        <v>2.451030312406533</v>
+        <v>2.451030312406532</v>
       </c>
     </row>
     <row r="100">
@@ -12903,7 +12903,7 @@
         <v>2.553406261296868</v>
       </c>
       <c r="AN100" t="n">
-        <v>3.344240840964734</v>
+        <v>3.344240840964733</v>
       </c>
     </row>
     <row r="101">

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -745,13 +745,13 @@
         <v>-3.772888992856371</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.56975260709641</v>
+        <v>8.566300087221352</v>
       </c>
       <c r="AM2" t="n">
         <v>2.801788565973822</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.995075048266216</v>
+        <v>1.991622528391158</v>
       </c>
     </row>
     <row r="3">
@@ -869,13 +869,13 @@
         <v>-1.339279539339436</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.566724743300953</v>
+        <v>7.470476787769698</v>
       </c>
       <c r="AM3" t="n">
         <v>1.943376229480157</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.28406897448136</v>
+        <v>4.187821018950105</v>
       </c>
     </row>
     <row r="4">
@@ -993,13 +993,13 @@
         <v>-1.172273070822017</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.24906966166723</v>
+        <v>11.4502213929782</v>
       </c>
       <c r="AM4" t="n">
         <v>2.572732680729677</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.504063910115532</v>
+        <v>7.705215641426504</v>
       </c>
     </row>
     <row r="5">
@@ -1117,13 +1117,13 @@
         <v>-4.649009698158522</v>
       </c>
       <c r="AL5" t="n">
-        <v>10.02259369868193</v>
+        <v>10.02898039831704</v>
       </c>
       <c r="AM5" t="n">
         <v>1.958763450397016</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.414820550126394</v>
+        <v>3.4212072497615</v>
       </c>
     </row>
     <row r="6">
@@ -1241,13 +1241,13 @@
         <v>-5.455736006000977</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.031932749077432</v>
+        <v>8.045473164963306</v>
       </c>
       <c r="AM6" t="n">
         <v>2.839958685856766</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.26376194278031</v>
+        <v>-0.2502215268944359</v>
       </c>
     </row>
     <row r="7">
@@ -1365,13 +1365,13 @@
         <v>-3.471989202252119</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.226611442252423</v>
+        <v>7.155735836346217</v>
       </c>
       <c r="AM7" t="n">
         <v>2.7530387857707</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.001583454229604</v>
+        <v>0.9307078483233981</v>
       </c>
     </row>
     <row r="8">
@@ -1489,13 +1489,13 @@
         <v>-2.354419805800274</v>
       </c>
       <c r="AL8" t="n">
-        <v>13.29608581276644</v>
+        <v>13.28553285853533</v>
       </c>
       <c r="AM8" t="n">
         <v>2.466377417990771</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.475288588975399</v>
+        <v>8.464735634744283</v>
       </c>
     </row>
     <row r="9">
@@ -1613,13 +1613,13 @@
         <v>0.7460132845901837</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.356007155952678</v>
+        <v>10.99034054021454</v>
       </c>
       <c r="AM9" t="n">
         <v>1.305223223231338</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.796797217311525</v>
+        <v>10.43113060157339</v>
       </c>
     </row>
     <row r="10">
@@ -1737,13 +1737,13 @@
         <v>-5.520367756973094</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.959119085391755</v>
+        <v>9.029699704606241</v>
       </c>
       <c r="AM10" t="n">
         <v>2.921626792037109</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.517124536381552</v>
+        <v>0.5877051555960375</v>
       </c>
     </row>
     <row r="11">
@@ -1861,13 +1861,13 @@
         <v>-2.954062618593812</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.546078664666423</v>
+        <v>9.951185141655555</v>
       </c>
       <c r="AM11" t="n">
         <v>2.200553715420134</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.391462330652477</v>
+        <v>4.796568807641609</v>
       </c>
     </row>
     <row r="12">
@@ -1985,13 +1985,13 @@
         <v>2.363633486786664</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.659770178042942</v>
+        <v>10.65172517400161</v>
       </c>
       <c r="AM12" t="n">
         <v>1.20650060678588</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.816903058043726</v>
+        <v>11.8088580540024</v>
       </c>
     </row>
     <row r="13">
@@ -2109,13 +2109,13 @@
         <v>-0.2831392461660344</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.22854955803782</v>
+        <v>11.14960785993486</v>
       </c>
       <c r="AM13" t="n">
         <v>2.18710745456344</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.758302857308344</v>
+        <v>8.679361159205383</v>
       </c>
     </row>
     <row r="14">
@@ -2233,13 +2233,13 @@
         <v>-1.463333904217645</v>
       </c>
       <c r="AL14" t="n">
-        <v>6.73570546722786</v>
+        <v>6.52579083659314</v>
       </c>
       <c r="AM14" t="n">
         <v>2.295332708068656</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.97703885494156</v>
+        <v>2.76712422430684</v>
       </c>
     </row>
     <row r="15">
@@ -2357,13 +2357,13 @@
         <v>-1.625172661687158</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.371025177774848</v>
+        <v>7.243676507309634</v>
       </c>
       <c r="AM15" t="n">
         <v>3.25792022508047</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.48793229100722</v>
+        <v>2.360583620542006</v>
       </c>
     </row>
     <row r="16">
@@ -2481,13 +2481,13 @@
         <v>-3.475865103952154</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.48614932616124</v>
+        <v>10.50942092405035</v>
       </c>
       <c r="AM16" t="n">
         <v>2.353966381743893</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.656317840465194</v>
+        <v>4.679589438354304</v>
       </c>
     </row>
     <row r="17">
@@ -2605,13 +2605,13 @@
         <v>-1.162717810211585</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.38340618139177</v>
+        <v>10.34890957427704</v>
       </c>
       <c r="AM17" t="n">
         <v>2.448334961485563</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.772353409694619</v>
+        <v>6.73785680257989</v>
       </c>
     </row>
     <row r="18">
@@ -2729,13 +2729,13 @@
         <v>-0.3649095254497141</v>
       </c>
       <c r="AL18" t="n">
-        <v>13.1147081323068</v>
+        <v>13.47950353565217</v>
       </c>
       <c r="AM18" t="n">
         <v>1.595355954196678</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.15444265266041</v>
+        <v>11.51923805600577</v>
       </c>
     </row>
     <row r="19">
@@ -2853,13 +2853,13 @@
         <v>-1.592013801313695</v>
       </c>
       <c r="AL19" t="n">
-        <v>10.0018869250583</v>
+        <v>9.998707088215102</v>
       </c>
       <c r="AM19" t="n">
         <v>2.254064771989529</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.155808351755078</v>
+        <v>6.152628514911879</v>
       </c>
     </row>
     <row r="20">
@@ -2977,13 +2977,13 @@
         <v>-0.176968597193278</v>
       </c>
       <c r="AL20" t="n">
-        <v>11.03360754517704</v>
+        <v>11.3185129821365</v>
       </c>
       <c r="AM20" t="n">
         <v>2.525216607984509</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.331422339999254</v>
+        <v>8.616327776958709</v>
       </c>
     </row>
     <row r="21">
@@ -3101,13 +3101,13 @@
         <v>-1.436228552767574</v>
       </c>
       <c r="AL21" t="n">
-        <v>12.59092126182111</v>
+        <v>12.6627841661494</v>
       </c>
       <c r="AM21" t="n">
         <v>2.159781837538</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.994910871515534</v>
+        <v>9.066773775843826</v>
       </c>
     </row>
     <row r="22">
@@ -3225,13 +3225,13 @@
         <v>-0.4348289096738315</v>
       </c>
       <c r="AL22" t="n">
-        <v>13.13308936767439</v>
+        <v>13.47594955901148</v>
       </c>
       <c r="AM22" t="n">
         <v>2.105224658176807</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.59303579982375</v>
+        <v>10.93589599116084</v>
       </c>
     </row>
     <row r="23">
@@ -3349,13 +3349,13 @@
         <v>-4.614946717823615</v>
       </c>
       <c r="AL23" t="n">
-        <v>6.848403118712048</v>
+        <v>6.886174059002296</v>
       </c>
       <c r="AM23" t="n">
         <v>2.839902601579024</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.6064462006905917</v>
+        <v>-0.5686752604003433</v>
       </c>
     </row>
     <row r="24">
@@ -3473,13 +3473,13 @@
         <v>-1.789466987792439</v>
       </c>
       <c r="AL24" t="n">
-        <v>11.69128025543198</v>
+        <v>11.71300024367512</v>
       </c>
       <c r="AM24" t="n">
         <v>2.662041804378848</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.23977146326069</v>
+        <v>7.261491451503831</v>
       </c>
     </row>
     <row r="25">
@@ -3597,13 +3597,13 @@
         <v>-4.312766910811058</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.316789570635473</v>
+        <v>9.347188599605477</v>
       </c>
       <c r="AM25" t="n">
         <v>2.69592875790635</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.308093901918066</v>
+        <v>2.33849293088807</v>
       </c>
     </row>
     <row r="26">
@@ -3721,13 +3721,13 @@
         <v>-0.3689251116054634</v>
       </c>
       <c r="AL26" t="n">
-        <v>11.95162095170882</v>
+        <v>12.36817560543482</v>
       </c>
       <c r="AM26" t="n">
         <v>1.321288630557237</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.26140720954612</v>
+        <v>10.67796186327212</v>
       </c>
     </row>
     <row r="27">
@@ -3845,13 +3845,13 @@
         <v>-3.840847354365247</v>
       </c>
       <c r="AL27" t="n">
-        <v>12.91732193173242</v>
+        <v>12.94234416634632</v>
       </c>
       <c r="AM27" t="n">
         <v>2.63080341085498</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.445671166512188</v>
+        <v>6.470693401126091</v>
       </c>
     </row>
     <row r="28">
@@ -3969,13 +3969,13 @@
         <v>0.206294438258171</v>
       </c>
       <c r="AL28" t="n">
-        <v>12.03933309482989</v>
+        <v>12.17836637337119</v>
       </c>
       <c r="AM28" t="n">
         <v>1.882496340225403</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.36313119286265</v>
+        <v>10.50216447140396</v>
       </c>
     </row>
     <row r="29">
@@ -4093,13 +4093,13 @@
         <v>-1.753775897733343</v>
       </c>
       <c r="AL29" t="n">
-        <v>12.74373185084925</v>
+        <v>12.82650814211323</v>
       </c>
       <c r="AM29" t="n">
         <v>2.353577778082971</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.636378175032934</v>
+        <v>8.719154466296921</v>
       </c>
     </row>
     <row r="30">
@@ -4217,13 +4217,13 @@
         <v>-1.761940012305867</v>
       </c>
       <c r="AL30" t="n">
-        <v>10.91848008369316</v>
+        <v>11.05410876344899</v>
       </c>
       <c r="AM30" t="n">
         <v>3.258304687144962</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.898235384242332</v>
+        <v>6.033864063998157</v>
       </c>
     </row>
     <row r="31">
@@ -4341,13 +4341,13 @@
         <v>-3.793421494894128</v>
       </c>
       <c r="AL31" t="n">
-        <v>13.1009509223985</v>
+        <v>13.12398390372212</v>
       </c>
       <c r="AM31" t="n">
         <v>2.718200667416676</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.589328760087696</v>
+        <v>6.612361741411316</v>
       </c>
     </row>
     <row r="32">
@@ -4465,13 +4465,13 @@
         <v>0.2852703893012555</v>
       </c>
       <c r="AL32" t="n">
-        <v>7.457909224143485</v>
+        <v>7.597523528976012</v>
       </c>
       <c r="AM32" t="n">
         <v>2.093590660402022</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.649588953042719</v>
+        <v>5.789203257875246</v>
       </c>
     </row>
     <row r="33">
@@ -4589,13 +4589,13 @@
         <v>-1.97893547855947</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.610777461013075</v>
+        <v>6.722520401440502</v>
       </c>
       <c r="AM33" t="n">
         <v>3.322850010526614</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.308991971926991</v>
+        <v>1.420734912354417</v>
       </c>
     </row>
     <row r="34">
@@ -4713,13 +4713,13 @@
         <v>-1.896953389483466</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.525918619408859</v>
+        <v>9.49869652494948</v>
       </c>
       <c r="AM34" t="n">
         <v>2.452265966414421</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.176699263510972</v>
+        <v>5.149477169051593</v>
       </c>
     </row>
     <row r="35">
@@ -4837,13 +4837,13 @@
         <v>-0.5536279922807372</v>
       </c>
       <c r="AL35" t="n">
-        <v>11.26743725998544</v>
+        <v>11.50883810638006</v>
       </c>
       <c r="AM35" t="n">
         <v>1.214086092026202</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.499723175678502</v>
+        <v>9.741124022073125</v>
       </c>
     </row>
     <row r="36">
@@ -4961,13 +4961,13 @@
         <v>0.6744223855645748</v>
       </c>
       <c r="AL36" t="n">
-        <v>11.82005794554482</v>
+        <v>12.91531569771551</v>
       </c>
       <c r="AM36" t="n">
         <v>2.193231160044317</v>
       </c>
       <c r="AN36" t="n">
-        <v>10.30124917106508</v>
+        <v>11.39650692323577</v>
       </c>
     </row>
     <row r="37">
@@ -5085,13 +5085,13 @@
         <v>-0.8187502687753992</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.55997466036404</v>
+        <v>10.59881515340415</v>
       </c>
       <c r="AM37" t="n">
         <v>1.995053108156679</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.746171283431963</v>
+        <v>7.785011776472071</v>
       </c>
     </row>
     <row r="38">
@@ -5209,13 +5209,13 @@
         <v>-5.447288425397408</v>
       </c>
       <c r="AL38" t="n">
-        <v>9.791283855774291</v>
+        <v>9.831264921291664</v>
       </c>
       <c r="AM38" t="n">
         <v>2.844241268734032</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.49975416164285</v>
+        <v>1.539735227160224</v>
       </c>
     </row>
     <row r="39">
@@ -5333,13 +5333,13 @@
         <v>3.536313739437888</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.218659575692948</v>
+        <v>9.883752427493629</v>
       </c>
       <c r="AM39" t="n">
         <v>1.861016650472897</v>
       </c>
       <c r="AN39" t="n">
-        <v>10.89395666465794</v>
+        <v>11.55904951645862</v>
       </c>
     </row>
     <row r="40">
@@ -5457,13 +5457,13 @@
         <v>-0.609451241234108</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.432661815350977</v>
+        <v>9.437435407552986</v>
       </c>
       <c r="AM40" t="n">
         <v>1.87250846798494</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.95070210613193</v>
+        <v>6.955475698333938</v>
       </c>
     </row>
     <row r="41">
@@ -5581,13 +5581,13 @@
         <v>-2.60475509180863</v>
       </c>
       <c r="AL41" t="n">
-        <v>10.66623084597191</v>
+        <v>10.66934497954808</v>
       </c>
       <c r="AM41" t="n">
         <v>1.204401773911864</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.857073980251415</v>
+        <v>6.860188113827584</v>
       </c>
     </row>
     <row r="42">
@@ -5705,13 +5705,13 @@
         <v>-1.872735439037579</v>
       </c>
       <c r="AL42" t="n">
-        <v>12.08267375847591</v>
+        <v>12.0714880652931</v>
       </c>
       <c r="AM42" t="n">
         <v>1.730605606249227</v>
       </c>
       <c r="AN42" t="n">
-        <v>8.479332713189104</v>
+        <v>8.468147020006299</v>
       </c>
     </row>
     <row r="43">
@@ -5829,13 +5829,13 @@
         <v>-2.752124249851914</v>
       </c>
       <c r="AL43" t="n">
-        <v>10.60426712920052</v>
+        <v>10.69200272547526</v>
       </c>
       <c r="AM43" t="n">
         <v>2.494397362795435</v>
       </c>
       <c r="AN43" t="n">
-        <v>5.357745516553172</v>
+        <v>5.445481112827912</v>
       </c>
     </row>
     <row r="44">
@@ -5953,13 +5953,13 @@
         <v>-1.252708095732052</v>
       </c>
       <c r="AL44" t="n">
-        <v>9.825341055939742</v>
+        <v>9.820515667413837</v>
       </c>
       <c r="AM44" t="n">
         <v>1.928244044616695</v>
       </c>
       <c r="AN44" t="n">
-        <v>6.644388915590994</v>
+        <v>6.639563527065089</v>
       </c>
     </row>
     <row r="45">
@@ -6077,13 +6077,13 @@
         <v>-5.411962982155189</v>
       </c>
       <c r="AL45" t="n">
-        <v>11.91531682858812</v>
+        <v>11.93633320006451</v>
       </c>
       <c r="AM45" t="n">
         <v>2.544717952291438</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.958635894141496</v>
+        <v>3.979652265617883</v>
       </c>
     </row>
     <row r="46">
@@ -6201,13 +6201,13 @@
         <v>-2.370850858572363</v>
       </c>
       <c r="AL46" t="n">
-        <v>8.404927901459558</v>
+        <v>8.550008307869977</v>
       </c>
       <c r="AM46" t="n">
         <v>2.143290922985067</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.890786119902128</v>
+        <v>4.035866526312546</v>
       </c>
     </row>
     <row r="47">
@@ -6325,13 +6325,13 @@
         <v>1.749014117063937</v>
       </c>
       <c r="AL47" t="n">
-        <v>9.654722866628497</v>
+        <v>9.806990401331403</v>
       </c>
       <c r="AM47" t="n">
         <v>1.110301723834436</v>
       </c>
       <c r="AN47" t="n">
-        <v>10.293435259858</v>
+        <v>10.4457027945609</v>
       </c>
     </row>
     <row r="48">
@@ -6449,13 +6449,13 @@
         <v>0.3621642188900479</v>
       </c>
       <c r="AL48" t="n">
-        <v>11.49424627689794</v>
+        <v>12.08611100398902</v>
       </c>
       <c r="AM48" t="n">
         <v>1.991472897368744</v>
       </c>
       <c r="AN48" t="n">
-        <v>9.864937598419244</v>
+        <v>10.45680232551032</v>
       </c>
     </row>
     <row r="49">
@@ -6573,13 +6573,13 @@
         <v>-2.272826779121714</v>
       </c>
       <c r="AL49" t="n">
-        <v>10.42023143382613</v>
+        <v>10.44853568355692</v>
       </c>
       <c r="AM49" t="n">
         <v>1.819341721761147</v>
       </c>
       <c r="AN49" t="n">
-        <v>6.32806293294327</v>
+        <v>6.356367182674061</v>
       </c>
     </row>
     <row r="50">
@@ -6697,13 +6697,13 @@
         <v>-1.566424347493195</v>
       </c>
       <c r="AL50" t="n">
-        <v>8.884716126749142</v>
+        <v>8.88233198388316</v>
       </c>
       <c r="AM50" t="n">
         <v>1.980333696494249</v>
       </c>
       <c r="AN50" t="n">
-        <v>5.337958082761698</v>
+        <v>5.335573939895717</v>
       </c>
     </row>
     <row r="51">
@@ -6821,13 +6821,13 @@
         <v>-4.986110361393498</v>
       </c>
       <c r="AL51" t="n">
-        <v>8.969746088908481</v>
+        <v>8.93409847828973</v>
       </c>
       <c r="AM51" t="n">
         <v>3.335239623901399</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.6483961036135839</v>
+        <v>0.6127484929948328</v>
       </c>
     </row>
     <row r="52">
@@ -6945,13 +6945,13 @@
         <v>-1.257856487107523</v>
       </c>
       <c r="AL52" t="n">
-        <v>10.55437240247194</v>
+        <v>10.83292125954527</v>
       </c>
       <c r="AM52" t="n">
         <v>2.385761708617381</v>
       </c>
       <c r="AN52" t="n">
-        <v>6.910754206747034</v>
+        <v>7.189303063820372</v>
       </c>
     </row>
     <row r="53">
@@ -7069,13 +7069,13 @@
         <v>-6.831009692179042</v>
       </c>
       <c r="AL53" t="n">
-        <v>6.346908093909779</v>
+        <v>6.326593803449509</v>
       </c>
       <c r="AM53" t="n">
         <v>2.998095499299937</v>
       </c>
       <c r="AN53" t="n">
-        <v>-3.4821970975692</v>
+        <v>-3.50251138802947</v>
       </c>
     </row>
     <row r="54">
@@ -7193,13 +7193,13 @@
         <v>-1.026518064456683</v>
       </c>
       <c r="AL54" t="n">
-        <v>9.439912248896468</v>
+        <v>9.435032822957847</v>
       </c>
       <c r="AM54" t="n">
         <v>1.656467734917757</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.756926449522028</v>
+        <v>6.752047023583407</v>
       </c>
     </row>
     <row r="55">
@@ -7317,13 +7317,13 @@
         <v>-2.737774984757832</v>
       </c>
       <c r="AL55" t="n">
-        <v>8.443172052991514</v>
+        <v>8.47625135836987</v>
       </c>
       <c r="AM55" t="n">
         <v>2.515589779621977</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.189807288611704</v>
+        <v>3.222886593990061</v>
       </c>
     </row>
     <row r="56">
@@ -7441,13 +7441,13 @@
         <v>-0.8003543566163066</v>
       </c>
       <c r="AL56" t="n">
-        <v>8.703991597531722</v>
+        <v>8.728040149512106</v>
       </c>
       <c r="AM56" t="n">
         <v>2.641218525885009</v>
       </c>
       <c r="AN56" t="n">
-        <v>5.262418715030407</v>
+        <v>5.28646726701079</v>
       </c>
     </row>
     <row r="57">
@@ -7565,13 +7565,13 @@
         <v>-3.244457009391536</v>
       </c>
       <c r="AL57" t="n">
-        <v>8.969685523823282</v>
+        <v>8.988068396175153</v>
       </c>
       <c r="AM57" t="n">
         <v>2.381801182601639</v>
       </c>
       <c r="AN57" t="n">
-        <v>3.343427331830108</v>
+        <v>3.361810204181979</v>
       </c>
     </row>
     <row r="58">
@@ -7689,13 +7689,13 @@
         <v>-3.228593367904735</v>
       </c>
       <c r="AL58" t="n">
-        <v>12.53487115266425</v>
+        <v>12.53772515753643</v>
       </c>
       <c r="AM58" t="n">
         <v>1.926396978431585</v>
       </c>
       <c r="AN58" t="n">
-        <v>7.379880806327927</v>
+        <v>7.382734811200111</v>
       </c>
     </row>
     <row r="59">
@@ -7813,13 +7813,13 @@
         <v>-4.204303572249692</v>
       </c>
       <c r="AL59" t="n">
-        <v>10.78562108124832</v>
+        <v>10.79647152089053</v>
       </c>
       <c r="AM59" t="n">
         <v>2.824992738297468</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.756324770701158</v>
+        <v>3.767175210343375</v>
       </c>
     </row>
     <row r="60">
@@ -7937,13 +7937,13 @@
         <v>-3.761022599895864</v>
       </c>
       <c r="AL60" t="n">
-        <v>11.0615650631726</v>
+        <v>11.17413998427603</v>
       </c>
       <c r="AM60" t="n">
         <v>2.325179694425028</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.97536276885171</v>
+        <v>5.087937689955135</v>
       </c>
     </row>
     <row r="61">
@@ -8061,13 +8061,13 @@
         <v>-5.465496161602585</v>
       </c>
       <c r="AL61" t="n">
-        <v>9.081289059537912</v>
+        <v>9.175246261169404</v>
       </c>
       <c r="AM61" t="n">
         <v>2.850968133067187</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.7648247648681399</v>
+        <v>0.8587819664996315</v>
       </c>
     </row>
     <row r="62">
@@ -8185,13 +8185,13 @@
         <v>-0.7379021456869297</v>
       </c>
       <c r="AL62" t="n">
-        <v>11.39523153497151</v>
+        <v>11.75985082332704</v>
       </c>
       <c r="AM62" t="n">
         <v>1.982485564443892</v>
       </c>
       <c r="AN62" t="n">
-        <v>8.674843824840686</v>
+        <v>9.039463113196216</v>
       </c>
     </row>
     <row r="63">
@@ -8309,13 +8309,13 @@
         <v>-3.207009170162291</v>
       </c>
       <c r="AL63" t="n">
-        <v>11.60545252856806</v>
+        <v>11.62308959786551</v>
       </c>
       <c r="AM63" t="n">
         <v>2.396621156425506</v>
       </c>
       <c r="AN63" t="n">
-        <v>6.001822201980267</v>
+        <v>6.019459271277715</v>
       </c>
     </row>
     <row r="64">
@@ -8433,13 +8433,13 @@
         <v>-2.394849484614606</v>
       </c>
       <c r="AL64" t="n">
-        <v>12.39893209643974</v>
+        <v>12.75338850422631</v>
       </c>
       <c r="AM64" t="n">
         <v>2.266209328061446</v>
       </c>
       <c r="AN64" t="n">
-        <v>7.73787328376369</v>
+        <v>8.092329691550258</v>
       </c>
     </row>
     <row r="65">
@@ -8557,13 +8557,13 @@
         <v>-4.819280237339909</v>
       </c>
       <c r="AL65" t="n">
-        <v>11.10943158934868</v>
+        <v>11.11427936865096</v>
       </c>
       <c r="AM65" t="n">
         <v>3.229072804533929</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.061078547474839</v>
+        <v>3.065926326777126</v>
       </c>
     </row>
     <row r="66">
@@ -8681,13 +8681,13 @@
         <v>-3.417431763113794</v>
       </c>
       <c r="AL66" t="n">
-        <v>9.970100801926188</v>
+        <v>9.977139786237682</v>
       </c>
       <c r="AM66" t="n">
         <v>2.559754237381127</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.992914801431266</v>
+        <v>3.99995378574276</v>
       </c>
     </row>
     <row r="67">
@@ -8805,13 +8805,13 @@
         <v>-4.552914545239195</v>
       </c>
       <c r="AL67" t="n">
-        <v>9.557016881066625</v>
+        <v>9.588571811947475</v>
       </c>
       <c r="AM67" t="n">
         <v>2.988979749536568</v>
       </c>
       <c r="AN67" t="n">
-        <v>2.015122586290861</v>
+        <v>2.046677517171711</v>
       </c>
     </row>
     <row r="68">
@@ -8929,13 +8929,13 @@
         <v>-5.330291203911943</v>
       </c>
       <c r="AL68" t="n">
-        <v>9.981727725265163</v>
+        <v>10.00089999059192</v>
       </c>
       <c r="AM68" t="n">
         <v>3.157101240805398</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.494335280547822</v>
+        <v>1.513507545874581</v>
       </c>
     </row>
     <row r="69">
@@ -9053,13 +9053,13 @@
         <v>-1.783080607061495</v>
       </c>
       <c r="AL69" t="n">
-        <v>10.76943308418791</v>
+        <v>10.76980608506283</v>
       </c>
       <c r="AM69" t="n">
         <v>2.287494107006678</v>
       </c>
       <c r="AN69" t="n">
-        <v>6.698858370119742</v>
+        <v>6.69923137099466</v>
       </c>
     </row>
     <row r="70">
@@ -9177,13 +9177,13 @@
         <v>-5.315710735282374</v>
       </c>
       <c r="AL70" t="n">
-        <v>7.939640751141269</v>
+        <v>8.051898171241968</v>
       </c>
       <c r="AM70" t="n">
         <v>2.079037696280881</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.5448923195780142</v>
+        <v>0.6571497396787129</v>
       </c>
     </row>
     <row r="71">
@@ -9301,13 +9301,13 @@
         <v>-4.799128275368934</v>
       </c>
       <c r="AL71" t="n">
-        <v>7.157723775418602</v>
+        <v>7.257492808936884</v>
       </c>
       <c r="AM71" t="n">
         <v>2.711267782049019</v>
       </c>
       <c r="AN71" t="n">
-        <v>-0.3526722819993515</v>
+        <v>-0.2529032484810698</v>
       </c>
     </row>
     <row r="72">
@@ -9425,13 +9425,13 @@
         <v>-0.9305593800305524</v>
       </c>
       <c r="AL72" t="n">
-        <v>9.24090146008248</v>
+        <v>9.571466211515009</v>
       </c>
       <c r="AM72" t="n">
         <v>1.731238145367616</v>
       </c>
       <c r="AN72" t="n">
-        <v>6.579103934684312</v>
+        <v>6.909668686116841</v>
       </c>
     </row>
     <row r="73">
@@ -9549,13 +9549,13 @@
         <v>-2.053605891123485</v>
       </c>
       <c r="AL73" t="n">
-        <v>11.98205063492302</v>
+        <v>12.24689581688748</v>
       </c>
       <c r="AM73" t="n">
         <v>3.022534412543458</v>
       </c>
       <c r="AN73" t="n">
-        <v>6.905910331256079</v>
+        <v>7.170755513220536</v>
       </c>
     </row>
     <row r="74">
@@ -9673,13 +9673,13 @@
         <v>-1.622225307908703</v>
       </c>
       <c r="AL74" t="n">
-        <v>8.450588613006515</v>
+        <v>8.451166396474795</v>
       </c>
       <c r="AM74" t="n">
         <v>2.252956910384702</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.575406394713109</v>
+        <v>4.57598417818139</v>
       </c>
     </row>
     <row r="75">
@@ -9797,13 +9797,13 @@
         <v>-2.553018806959876</v>
       </c>
       <c r="AL75" t="n">
-        <v>11.40932506604161</v>
+        <v>11.40806703865609</v>
       </c>
       <c r="AM75" t="n">
         <v>2.315864572906233</v>
       </c>
       <c r="AN75" t="n">
-        <v>6.540441686175497</v>
+        <v>6.539183658789983</v>
       </c>
     </row>
     <row r="76">
@@ -9921,13 +9921,13 @@
         <v>-4.952421181829996</v>
       </c>
       <c r="AL76" t="n">
-        <v>7.635137629794182</v>
+        <v>7.73280622254592</v>
       </c>
       <c r="AM76" t="n">
         <v>2.373054628544904</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.3096618194192819</v>
+        <v>0.4073304121710208</v>
       </c>
     </row>
     <row r="77">
@@ -10045,13 +10045,13 @@
         <v>-6.078041489942766</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.90361339744452</v>
+        <v>8.227310405747662</v>
       </c>
       <c r="AM77" t="n">
         <v>1.85321162898101</v>
       </c>
       <c r="AN77" t="n">
-        <v>-0.02763972147925631</v>
+        <v>0.296057286823886</v>
       </c>
     </row>
     <row r="78">
@@ -10169,13 +10169,13 @@
         <v>-4.743130340286416</v>
       </c>
       <c r="AL78" t="n">
-        <v>8.040142353643786</v>
+        <v>8.180690025420565</v>
       </c>
       <c r="AM78" t="n">
         <v>2.366002688000143</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.9310093253572269</v>
+        <v>1.071556997134007</v>
       </c>
     </row>
     <row r="79">
@@ -10293,13 +10293,13 @@
         <v>-5.820495240984341</v>
       </c>
       <c r="AL79" t="n">
-        <v>7.366704395574535</v>
+        <v>7.408550219087493</v>
       </c>
       <c r="AM79" t="n">
         <v>3.200478627683012</v>
       </c>
       <c r="AN79" t="n">
-        <v>-1.654269473092818</v>
+        <v>-1.61242364957986</v>
       </c>
     </row>
     <row r="80">
@@ -10417,13 +10417,13 @@
         <v>-6.546242328081538</v>
       </c>
       <c r="AL80" t="n">
-        <v>5.65940795322908</v>
+        <v>5.731459250048257</v>
       </c>
       <c r="AM80" t="n">
         <v>2.807904940120132</v>
       </c>
       <c r="AN80" t="n">
-        <v>-3.694739314972591</v>
+        <v>-3.622688018153414</v>
       </c>
     </row>
     <row r="81">
@@ -10541,13 +10541,13 @@
         <v>-5.295942258616608</v>
       </c>
       <c r="AL81" t="n">
-        <v>6.71568293590797</v>
+        <v>6.932843760220323</v>
       </c>
       <c r="AM81" t="n">
         <v>2.433837675097362</v>
       </c>
       <c r="AN81" t="n">
-        <v>-1.014096997806</v>
+        <v>-0.7969361734936471</v>
       </c>
     </row>
     <row r="82">
@@ -10665,13 +10665,13 @@
         <v>-3.550626326084206</v>
       </c>
       <c r="AL82" t="n">
-        <v>9.110174668228042</v>
+        <v>9.227716404410117</v>
       </c>
       <c r="AM82" t="n">
         <v>2.568986972995789</v>
       </c>
       <c r="AN82" t="n">
-        <v>2.990561369148047</v>
+        <v>3.108103105330122</v>
       </c>
     </row>
     <row r="83">
@@ -10789,13 +10789,13 @@
         <v>-5.849800158612756</v>
       </c>
       <c r="AL83" t="n">
-        <v>5.360163692926537</v>
+        <v>5.550990009462243</v>
       </c>
       <c r="AM83" t="n">
         <v>2.558311126585456</v>
       </c>
       <c r="AN83" t="n">
-        <v>-3.047947592271675</v>
+        <v>-2.857121275735969</v>
       </c>
     </row>
     <row r="84">
@@ -10913,13 +10913,13 @@
         <v>-4.056551450300486</v>
       </c>
       <c r="AL84" t="n">
-        <v>11.94122305981043</v>
+        <v>11.97719473953711</v>
       </c>
       <c r="AM84" t="n">
         <v>2.727880518977305</v>
       </c>
       <c r="AN84" t="n">
-        <v>5.156791090532636</v>
+        <v>5.192762770259318</v>
       </c>
     </row>
     <row r="85">
@@ -11037,13 +11037,13 @@
         <v>-5.283473308875132</v>
       </c>
       <c r="AL85" t="n">
-        <v>6.170200355607149</v>
+        <v>6.203589031298053</v>
       </c>
       <c r="AM85" t="n">
         <v>3.047668085045672</v>
       </c>
       <c r="AN85" t="n">
-        <v>-2.160941038313655</v>
+        <v>-2.127552362622751</v>
       </c>
     </row>
     <row r="86">
@@ -11161,13 +11161,13 @@
         <v>-0.7256467362061482</v>
       </c>
       <c r="AL86" t="n">
-        <v>9.512600881405731</v>
+        <v>9.711890026635315</v>
       </c>
       <c r="AM86" t="n">
         <v>1.959814633997636</v>
       </c>
       <c r="AN86" t="n">
-        <v>6.827139511201947</v>
+        <v>7.026428656431531</v>
       </c>
     </row>
     <row r="87">
@@ -11285,13 +11285,13 @@
         <v>-3.95009994627486</v>
       </c>
       <c r="AL87" t="n">
-        <v>7.840588355525568</v>
+        <v>7.847390299979631</v>
       </c>
       <c r="AM87" t="n">
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.465130510200421</v>
+        <v>1.471932454654484</v>
       </c>
     </row>
     <row r="88">
@@ -11409,13 +11409,13 @@
         <v>-4.868861547174033</v>
       </c>
       <c r="AL88" t="n">
-        <v>8.263916310292464</v>
+        <v>8.430759973584665</v>
       </c>
       <c r="AM88" t="n">
         <v>2.616048750996152</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.7790060121222786</v>
+        <v>0.9458496754144803</v>
       </c>
     </row>
     <row r="89">
@@ -11533,13 +11533,13 @@
         <v>-3.756148160520866</v>
       </c>
       <c r="AL89" t="n">
-        <v>7.915400646016661</v>
+        <v>8.104360703050274</v>
       </c>
       <c r="AM89" t="n">
         <v>2.084980127071581</v>
       </c>
       <c r="AN89" t="n">
-        <v>2.074272358424214</v>
+        <v>2.263232415457827</v>
       </c>
     </row>
     <row r="90">
@@ -11657,13 +11657,13 @@
         <v>-5.107470674582339</v>
       </c>
       <c r="AL90" t="n">
-        <v>8.608584070451485</v>
+        <v>8.737354212697953</v>
       </c>
       <c r="AM90" t="n">
         <v>2.433918121628596</v>
       </c>
       <c r="AN90" t="n">
-        <v>1.06719527424055</v>
+        <v>1.195965416487018</v>
       </c>
     </row>
     <row r="91">
@@ -11781,13 +11781,13 @@
         <v>-1.80520469643687</v>
       </c>
       <c r="AL91" t="n">
-        <v>6.784724649393182</v>
+        <v>6.77061848153161</v>
       </c>
       <c r="AM91" t="n">
         <v>1.972188058716642</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.00733189423967</v>
+        <v>2.993225726378098</v>
       </c>
     </row>
     <row r="92">
@@ -11905,13 +11905,13 @@
         <v>-4.597232548113853</v>
       </c>
       <c r="AL92" t="n">
-        <v>8.111406989640949</v>
+        <v>8.202420257616994</v>
       </c>
       <c r="AM92" t="n">
         <v>2.606532721370237</v>
       </c>
       <c r="AN92" t="n">
-        <v>0.9076417201568594</v>
+        <v>0.9986549881329045</v>
       </c>
     </row>
     <row r="93">
@@ -12029,13 +12029,13 @@
         <v>-3.849341783336558</v>
       </c>
       <c r="AL93" t="n">
-        <v>9.444442255971929</v>
+        <v>9.424204072180411</v>
       </c>
       <c r="AM93" t="n">
         <v>2.699182906316397</v>
       </c>
       <c r="AN93" t="n">
-        <v>2.895917566318973</v>
+        <v>2.875679382527455</v>
       </c>
     </row>
     <row r="94">
@@ -12153,13 +12153,13 @@
         <v>-5.247494749873889</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.172885047477312</v>
+        <v>9.194569786479338</v>
       </c>
       <c r="AM94" t="n">
         <v>2.915258061534266</v>
       </c>
       <c r="AN94" t="n">
-        <v>1.010132236069157</v>
+        <v>1.031816975071183</v>
       </c>
     </row>
     <row r="95">
@@ -12277,13 +12277,13 @@
         <v>-4.276996894247868</v>
       </c>
       <c r="AL95" t="n">
-        <v>11.38144294400707</v>
+        <v>11.40993644727429</v>
       </c>
       <c r="AM95" t="n">
         <v>2.013415045137802</v>
       </c>
       <c r="AN95" t="n">
-        <v>5.091031004621399</v>
+        <v>5.119524507888624</v>
       </c>
     </row>
     <row r="96">
@@ -12401,13 +12401,13 @@
         <v>-5.357793834510851</v>
       </c>
       <c r="AL96" t="n">
-        <v>6.987007722430583</v>
+        <v>7.191024390570621</v>
       </c>
       <c r="AM96" t="n">
         <v>2.678264677601537</v>
       </c>
       <c r="AN96" t="n">
-        <v>-1.049050789681805</v>
+        <v>-0.8450341215417669</v>
       </c>
     </row>
     <row r="97">
@@ -12525,13 +12525,13 @@
         <v>-4.54497906310907</v>
       </c>
       <c r="AL97" t="n">
-        <v>5.34155721540487</v>
+        <v>5.614459330744943</v>
       </c>
       <c r="AM97" t="n">
         <v>2.655563428030504</v>
       </c>
       <c r="AN97" t="n">
-        <v>-1.858985275734704</v>
+        <v>-1.586083160394631</v>
       </c>
     </row>
     <row r="98">
@@ -12649,13 +12649,13 @@
         <v>-6.354309518664207</v>
       </c>
       <c r="AL98" t="n">
-        <v>7.230852300805022</v>
+        <v>7.322769457503619</v>
       </c>
       <c r="AM98" t="n">
         <v>2.966931020723821</v>
       </c>
       <c r="AN98" t="n">
-        <v>-2.090388238583006</v>
+        <v>-1.998471081884409</v>
       </c>
     </row>
     <row r="99">
@@ -12773,13 +12773,13 @@
         <v>-2.980321088729503</v>
       </c>
       <c r="AL99" t="n">
-        <v>8.076984835780214</v>
+        <v>7.973600439924182</v>
       </c>
       <c r="AM99" t="n">
         <v>2.645633434644179</v>
       </c>
       <c r="AN99" t="n">
-        <v>2.451030312406532</v>
+        <v>2.3476459165505</v>
       </c>
     </row>
     <row r="100">
@@ -12897,13 +12897,13 @@
         <v>-3.479679398677882</v>
       </c>
       <c r="AL100" t="n">
-        <v>9.377326500939484</v>
+        <v>9.408061412111548</v>
       </c>
       <c r="AM100" t="n">
         <v>2.553406261296868</v>
       </c>
       <c r="AN100" t="n">
-        <v>3.344240840964733</v>
+        <v>3.374975752136798</v>
       </c>
     </row>
     <row r="101">
@@ -13021,13 +13021,13 @@
         <v>-4.714322412374143</v>
       </c>
       <c r="AL101" t="n">
-        <v>5.978454461997773</v>
+        <v>5.873510411949113</v>
       </c>
       <c r="AM101" t="n">
         <v>2.855159933826961</v>
       </c>
       <c r="AN101" t="n">
-        <v>-1.591027884203331</v>
+        <v>-1.695971934251991</v>
       </c>
     </row>
     <row r="102">
@@ -13145,13 +13145,13 @@
         <v>-2.039911816670734</v>
       </c>
       <c r="AL102" t="n">
-        <v>8.636664268151225</v>
+        <v>9.090333260003838</v>
       </c>
       <c r="AM102" t="n">
         <v>1.274613539470903</v>
       </c>
       <c r="AN102" t="n">
-        <v>5.322138912009588</v>
+        <v>5.775807903862201</v>
       </c>
     </row>
     <row r="103">
@@ -13269,13 +13269,13 @@
         <v>-4.35078823548692</v>
       </c>
       <c r="AL103" t="n">
-        <v>7.973835615208159</v>
+        <v>8.010587313886541</v>
       </c>
       <c r="AM103" t="n">
         <v>2.555008484225799</v>
       </c>
       <c r="AN103" t="n">
-        <v>1.06803889549544</v>
+        <v>1.104790594173822</v>
       </c>
     </row>
   </sheetData>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -658,16 +658,16 @@
         <v>0.04189849612137526</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1099131477350422</v>
+        <v>0.1167827194684824</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0769287925294221</v>
+        <v>-0.1034351387957499</v>
       </c>
       <c r="K2" t="n">
         <v>-0.02003778049364691</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01669949149881537</v>
+        <v>0.01366322031721258</v>
       </c>
       <c r="M2" t="n">
         <v>0.1118571032266511</v>
@@ -679,16 +679,16 @@
         <v>0.05863733746869614</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1107288876873581</v>
+        <v>0.09651030331355652</v>
       </c>
       <c r="Q2" t="n">
         <v>0.06907434285800988</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1295957016827537</v>
+        <v>-0.1061944067134177</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0207862766772904</v>
+        <v>-0.01905408695418286</v>
       </c>
       <c r="T2" t="n">
         <v>0.002812615762220474</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.01128228155996626</v>
+        <v>-0.01162416887996523</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.005725080141041975</v>
+        <v>-0.07648733316941017</v>
       </c>
       <c r="AD2" t="n">
         <v>0.06451848847250299</v>
@@ -733,7 +733,7 @@
         <v>0.166285739898494</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0004441672500082519</v>
+        <v>0.3508732053494438</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0.2837989100423026</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.772888992856371</v>
+        <v>2.092541123664448</v>
       </c>
       <c r="AL2" t="n">
         <v>-8.566300087221352</v>
@@ -751,7 +751,7 @@
         <v>2.801788565973822</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.991622528391158</v>
+        <v>-3.671970397583082</v>
       </c>
     </row>
     <row r="3">
@@ -782,16 +782,16 @@
         <v>0.1292165127175744</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1555875340506339</v>
+        <v>0.1649109590883863</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.001321476003562208</v>
+        <v>-0.000792885602137325</v>
       </c>
       <c r="K3" t="n">
         <v>-0.004740234244568595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09641222339424199</v>
+        <v>0.07772525972962785</v>
       </c>
       <c r="M3" t="n">
         <v>0.1826235568853009</v>
@@ -803,16 +803,16 @@
         <v>0.05662179863184137</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03785988511471415</v>
+        <v>0.09529552473914259</v>
       </c>
       <c r="Q3" t="n">
         <v>0.02512928754368618</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2481661401895269</v>
+        <v>-0.190507070593721</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.005051599900402045</v>
+        <v>-0.004630633242035207</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
@@ -839,10 +839,10 @@
         <v>-0.01273215352227149</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.02147129898693729</v>
+        <v>-0.02212194441078388</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.001354352641305313</v>
+        <v>-0.003394744460484124</v>
       </c>
       <c r="AD3" t="n">
         <v>0.2245257138941066</v>
@@ -857,7 +857,7 @@
         <v>0.173405975639116</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0.2191275866711793</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0.07839512731399524</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.339279539339436</v>
+        <v>0.01901525475831605</v>
       </c>
       <c r="AL3" t="n">
         <v>-7.470476787769698</v>
@@ -875,7 +875,7 @@
         <v>1.943376229480157</v>
       </c>
       <c r="AN3" t="n">
-        <v>-4.187821018950105</v>
+        <v>-5.508085303531224</v>
       </c>
     </row>
     <row r="4">
@@ -906,16 +906,16 @@
         <v>0.1630912677220231</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1391098160649025</v>
+        <v>0.1478041795689589</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0001754813699107074</v>
+        <v>-0.0002105776438928489</v>
       </c>
       <c r="K4" t="n">
         <v>-0.3221689411360175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002339751598809432</v>
+        <v>-0.06684012073609805</v>
       </c>
       <c r="M4" t="n">
         <v>0.1231195297772633</v>
@@ -927,16 +927,16 @@
         <v>0.09699905213450433</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1006436130038879</v>
+        <v>0.01814202746301309</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.3384437942513009</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1955384169876597</v>
+        <v>-0.184363227917868</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.09432786779662358</v>
+        <v>-0.08646721214690495</v>
       </c>
       <c r="T4" t="n">
         <v>-0</v>
@@ -963,10 +963,10 @@
         <v>-0.737347104536007</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.01833107072538664</v>
+        <v>-0.01888655771706502</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.09204826889600501</v>
+        <v>0.06823463468569946</v>
       </c>
       <c r="AD4" t="n">
         <v>0.2854097185135404</v>
@@ -981,7 +981,7 @@
         <v>0.008219893080847607</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0.1716225589739343</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>-0.1228790364151159</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.172273070822017</v>
+        <v>0.3949271288704178</v>
       </c>
       <c r="AL4" t="n">
         <v>-11.4502213929782</v>
@@ -999,7 +999,7 @@
         <v>2.572732680729677</v>
       </c>
       <c r="AN4" t="n">
-        <v>-7.705215641426504</v>
+        <v>-8.482561583378104</v>
       </c>
     </row>
     <row r="5">
@@ -1030,16 +1030,16 @@
         <v>0.08656570299379036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09924449582548299</v>
+        <v>0.1054472768145757</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1482814628953997</v>
+        <v>-0.1145128454035439</v>
       </c>
       <c r="K5" t="n">
         <v>-0.001095550594678175</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1094718563405503</v>
+        <v>0.08956788246045026</v>
       </c>
       <c r="M5" t="n">
         <v>0.07053676058007968</v>
@@ -1051,16 +1051,16 @@
         <v>0.1885053309933784</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2544381806995347</v>
+        <v>0.2203007852666323</v>
       </c>
       <c r="Q5" t="n">
         <v>0.05516322005352656</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1828563705893259</v>
+        <v>0.07137446190612734</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04785554630674651</v>
+        <v>0.04386758411451763</v>
       </c>
       <c r="T5" t="n">
         <v>-0</v>
@@ -1087,10 +1087,10 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.01172759329187711</v>
+        <v>-0.01208297490678248</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0004707141212669298</v>
+        <v>-0.03385546923507355</v>
       </c>
       <c r="AD5" t="n">
         <v>0.1434916455426018</v>
@@ -1105,7 +1105,7 @@
         <v>-0.008552547885272391</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.1891700314470551</v>
+        <v>0.05316506077675265</v>
       </c>
       <c r="AI5" t="n">
         <v>-0.002207795319024319</v>
@@ -1114,7 +1114,7 @@
         <v>0.1422986865441846</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.649009698158522</v>
+        <v>3.063526716797265</v>
       </c>
       <c r="AL5" t="n">
         <v>-10.02898039831704</v>
@@ -1123,7 +1123,7 @@
         <v>1.958763450397016</v>
       </c>
       <c r="AN5" t="n">
-        <v>-3.4212072497615</v>
+        <v>-5.006690231122758</v>
       </c>
     </row>
     <row r="6">
@@ -1154,16 +1154,16 @@
         <v>0.1420797547358446</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1329546088487381</v>
+        <v>0.1412642719017842</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1295013219633827</v>
+        <v>-0.1130161112119199</v>
       </c>
       <c r="K6" t="n">
         <v>0.001173272930945902</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1219718825863991</v>
+        <v>0.06320235319496045</v>
       </c>
       <c r="M6" t="n">
         <v>0.166147740373025</v>
@@ -1175,16 +1175,16 @@
         <v>0.1311838023761337</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2576835487768154</v>
+        <v>0.2522837842869889</v>
       </c>
       <c r="Q6" t="n">
         <v>0.1502476156755713</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05356645368571278</v>
+        <v>-0.04639361151933857</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00254727374658882</v>
+        <v>0.001943909957391117</v>
       </c>
       <c r="T6" t="n">
         <v>-0</v>
@@ -1211,10 +1211,10 @@
         <v>-0.4025210581330265</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02455796953567477</v>
+        <v>-0.02530215043069522</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>-0.05209013421153697</v>
       </c>
       <c r="AD6" t="n">
         <v>0.2401343141848793</v>
@@ -1229,7 +1229,7 @@
         <v>0.1074692984639957</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.03167389755478349</v>
+        <v>0.2237919194717572</v>
       </c>
       <c r="AI6" t="n">
         <v>-0</v>
@@ -1238,7 +1238,7 @@
         <v>0.2797693085251196</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.455736006000977</v>
+        <v>2.805186720939317</v>
       </c>
       <c r="AL6" t="n">
         <v>-8.045473164963306</v>
@@ -1247,7 +1247,7 @@
         <v>2.839958685856766</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.2502215268944359</v>
+        <v>-2.400327758167224</v>
       </c>
     </row>
     <row r="7">
@@ -1278,16 +1278,16 @@
         <v>0.1748435870660824</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1611520316225767</v>
+        <v>0.1712240335989877</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>-0.07697653605398554</v>
       </c>
       <c r="K7" t="n">
         <v>-0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>-0.0002708662966229264</v>
       </c>
       <c r="M7" t="n">
         <v>0.07367866627497872</v>
@@ -1299,16 +1299,16 @@
         <v>0.02618399331948412</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0003310588069835768</v>
+        <v>0.08543281545970204</v>
       </c>
       <c r="Q7" t="n">
         <v>-0.08867459846054213</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2193382153018284</v>
+        <v>-0.1702004884659951</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.005870953877800214</v>
+        <v>-0.005381707721316862</v>
       </c>
       <c r="T7" t="n">
         <v>-0</v>
@@ -1335,10 +1335,10 @@
         <v>-0.002979529262852191</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01904797011363681</v>
+        <v>-0.01962518132920156</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.02821620102710062</v>
       </c>
       <c r="AD7" t="n">
         <v>0.2784015325597447</v>
@@ -1353,7 +1353,7 @@
         <v>0.1535367507112799</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0009931764209507303</v>
+        <v>0.3847347196819202</v>
       </c>
       <c r="AI7" t="n">
         <v>-0</v>
@@ -1362,7 +1362,7 @@
         <v>0.1702032922743236</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.471989202252119</v>
+        <v>2.438829162880797</v>
       </c>
       <c r="AL7" t="n">
         <v>-7.155735836346217</v>
@@ -1371,7 +1371,7 @@
         <v>2.7530387857707</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.9307078483233981</v>
+        <v>-1.96386788769472</v>
       </c>
     </row>
     <row r="8">
@@ -1402,16 +1402,16 @@
         <v>0.1131118201236558</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1883114818660542</v>
+        <v>0.2000809494826826</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0001164154594415389</v>
+        <v>-0.07363238315100865</v>
       </c>
       <c r="K8" t="n">
         <v>-0.0003492463783246166</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>-0.0002535901616776413</v>
       </c>
       <c r="M8" t="n">
         <v>0.01814070378698854</v>
@@ -1423,16 +1423,16 @@
         <v>0.0970626551084602</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00197993643429687</v>
+        <v>0.05775407034941549</v>
       </c>
       <c r="Q8" t="n">
         <v>-0.08855772968700253</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2336763343531353</v>
+        <v>-0.1498316662032382</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05450876066480607</v>
+        <v>0.0499663639427389</v>
       </c>
       <c r="T8" t="n">
         <v>-0</v>
@@ -1459,10 +1459,10 @@
         <v>-0.002789491778454054</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.01000148366751533</v>
+        <v>-0.01030455893016731</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0005920601070521951</v>
+        <v>-0.01718064785832099</v>
       </c>
       <c r="AD8" t="n">
         <v>0.1832458716584324</v>
@@ -1477,7 +1477,7 @@
         <v>0.09387311368885032</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2765944645302161</v>
+        <v>0.284824826237684</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
@@ -1486,7 +1486,7 @@
         <v>0.1851099426811437</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.354419805800274</v>
+        <v>1.341626786516027</v>
       </c>
       <c r="AL8" t="n">
         <v>-13.28553285853533</v>
@@ -1495,7 +1495,7 @@
         <v>2.466377417990771</v>
       </c>
       <c r="AN8" t="n">
-        <v>-8.464735634744283</v>
+        <v>-9.47752865402853</v>
       </c>
     </row>
     <row r="9">
@@ -1526,16 +1526,16 @@
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03374868061854772</v>
+        <v>0.03585797315720695</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.00049184967159446</v>
+        <v>-0.0003690751449091444</v>
       </c>
       <c r="K9" t="n">
         <v>-0.00147180809414761</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0001643674265610409</v>
+        <v>-0.1222054702854389</v>
       </c>
       <c r="M9" t="n">
         <v>0.000184913354881171</v>
@@ -1547,16 +1547,16 @@
         <v>0.0008421020311231402</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0004897695041712303</v>
+        <v>-0.0003390711951954671</v>
       </c>
       <c r="Q9" t="n">
         <v>-0.00147180809414761</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.004641501613162685</v>
+        <v>-0.00295368284473989</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.0004007205034128249</v>
+        <v>-0.0003673271281284228</v>
       </c>
       <c r="T9" t="n">
         <v>-0</v>
@@ -1583,10 +1583,10 @@
         <v>-1.342780866300779</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.006704729410531703</v>
+        <v>0.006907903029032663</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.0003148518241100766</v>
+        <v>-0.0001969061279582707</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
@@ -1601,7 +1601,7 @@
         <v>0.002954686129658313</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.0004931022796831227</v>
+        <v>0.004614175064027868</v>
       </c>
       <c r="AI9" t="n">
         <v>-0</v>
@@ -1610,7 +1610,7 @@
         <v>-0.0002666945870196709</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.7460132845901837</v>
+        <v>-0.7504461833486071</v>
       </c>
       <c r="AL9" t="n">
         <v>-10.99034054021454</v>
@@ -1619,7 +1619,7 @@
         <v>1.305223223231338</v>
       </c>
       <c r="AN9" t="n">
-        <v>-10.43113060157339</v>
+        <v>-10.43556350033181</v>
       </c>
     </row>
     <row r="10">
@@ -1650,16 +1650,16 @@
         <v>0.1151048928987968</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1138524153468234</v>
+        <v>0.1209681913059998</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1199275349345776</v>
+        <v>-0.127948972967195</v>
       </c>
       <c r="K10" t="n">
         <v>-0.0003626376800616105</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07452230903346603</v>
+        <v>0.06084093005281344</v>
       </c>
       <c r="M10" t="n">
         <v>0.2013388426520351</v>
@@ -1671,16 +1671,16 @@
         <v>0.1107944726426642</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2341033443417369</v>
+        <v>0.1997361370548983</v>
       </c>
       <c r="Q10" t="n">
         <v>0.1807613007802118</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0008648295878110256</v>
+        <v>-0.0380252139591136</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.005681268648158131</v>
+        <v>-0.005449185652544943</v>
       </c>
       <c r="T10" t="n">
         <v>0.005773358293573149</v>
@@ -1707,10 +1707,10 @@
         <v>-0.001450550720246442</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.01260901254510259</v>
+        <v>-0.01299110383434812</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.0001036107657318887</v>
+        <v>-0.08880116580061077</v>
       </c>
       <c r="AD10" t="n">
         <v>0.1224099206595116</v>
@@ -1725,7 +1725,7 @@
         <v>0.2037557738538226</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.02469791664595447</v>
+        <v>0.295344298601204</v>
       </c>
       <c r="AI10" t="n">
         <v>-0</v>
@@ -1734,7 +1734,7 @@
         <v>0.3488921036616279</v>
       </c>
       <c r="AK10" t="n">
-        <v>5.520367756973094</v>
+        <v>3.205812757107338</v>
       </c>
       <c r="AL10" t="n">
         <v>-9.029699704606241</v>
@@ -1743,7 +1743,7 @@
         <v>2.921626792037109</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.5877051555960375</v>
+        <v>-2.902260155461793</v>
       </c>
     </row>
     <row r="11">
@@ -1774,16 +1774,16 @@
         <v>0.06804498620947803</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1754769421317372</v>
+        <v>0.1864442510149708</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04008079114090177</v>
+        <v>-0.09256415115791161</v>
       </c>
       <c r="K11" t="n">
         <v>-0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003195809053889488</v>
+        <v>0.0001305211824990069</v>
       </c>
       <c r="M11" t="n">
         <v>0.001433986242873756</v>
@@ -1795,16 +1795,16 @@
         <v>0.1275889227094024</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05392069077559259</v>
+        <v>0.07039394958336774</v>
       </c>
       <c r="Q11" t="n">
         <v>-0.06233647702216577</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1451955880942274</v>
+        <v>-0.09278875882405622</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09560329934331523</v>
+        <v>0.08763635773137229</v>
       </c>
       <c r="T11" t="n">
         <v>0.001440495141011464</v>
@@ -1831,10 +1831,10 @@
         <v>-0.001440495141011464</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.006150959527534438</v>
+        <v>-0.006337352240490027</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.01198506954855988</v>
       </c>
       <c r="AD11" t="n">
         <v>0.1074587819008618</v>
@@ -1849,7 +1849,7 @@
         <v>0.04442853223467642</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.3505375976208793</v>
+        <v>0.2268248564767719</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
@@ -1858,7 +1858,7 @@
         <v>0.1210206071648134</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.954062618593812</v>
+        <v>2.34014421735694</v>
       </c>
       <c r="AL11" t="n">
         <v>-9.951185141655555</v>
@@ -1867,7 +1867,7 @@
         <v>2.200553715420134</v>
       </c>
       <c r="AN11" t="n">
-        <v>-4.796568807641609</v>
+        <v>-5.410487208878481</v>
       </c>
     </row>
     <row r="12">
@@ -1898,16 +1898,16 @@
         <v>0.0005898238405750626</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01045351324035656</v>
+        <v>-0.01110685781787885</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0005718757367019289</v>
+        <v>-0.0008881852533712637</v>
       </c>
       <c r="K12" t="n">
         <v>-0.1973576942207282</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004563436818779645</v>
+        <v>-0.170363389477014</v>
       </c>
       <c r="M12" t="n">
         <v>0.01015814028970585</v>
@@ -1919,16 +1919,16 @@
         <v>0.08132913041859115</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.08565449753761221</v>
+        <v>-0.05898167007342189</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.2798720216720536</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.002480257996631916</v>
+        <v>-0.005503206015166794</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.06382309627017328</v>
+        <v>-0.05850450491432551</v>
       </c>
       <c r="T12" t="n">
         <v>-0</v>
@@ -1955,10 +1955,10 @@
         <v>-1.878104377384056</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01816759208929049</v>
+        <v>0.01871812518290535</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.05638791263449378</v>
+        <v>-9.040227364246492e-05</v>
       </c>
       <c r="AD12" t="n">
         <v>0.00103219172100636</v>
@@ -1973,7 +1973,7 @@
         <v>-0.07774853661448292</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.003633732075667376</v>
+        <v>0.002855825870635729</v>
       </c>
       <c r="AI12" t="n">
         <v>-0</v>
@@ -1982,7 +1982,7 @@
         <v>-0.1015215479687227</v>
       </c>
       <c r="AK12" t="n">
-        <v>-2.363633486786664</v>
+        <v>-2.413669455817499</v>
       </c>
       <c r="AL12" t="n">
         <v>-10.65172517400161</v>
@@ -1991,7 +1991,7 @@
         <v>1.20650060678588</v>
       </c>
       <c r="AN12" t="n">
-        <v>-11.8088580540024</v>
+        <v>-11.85889402303323</v>
       </c>
     </row>
     <row r="13">
@@ -2022,16 +2022,16 @@
         <v>0.1172823842759437</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09680796545611908</v>
+        <v>0.1028584632971265</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0002289648406540355</v>
+        <v>-0.05739603461276355</v>
       </c>
       <c r="K13" t="n">
         <v>-0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001528846522785092</v>
+        <v>-0.01731323403660922</v>
       </c>
       <c r="M13" t="n">
         <v>0.01407741470337953</v>
@@ -2043,16 +2043,16 @@
         <v>0.156730518497083</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04639249975159118</v>
+        <v>0.03092832540744453</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.3924887846578431</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.001354557381422464</v>
+        <v>-0.005690973810611336</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004445629258134329</v>
+        <v>0.004075160153289801</v>
       </c>
       <c r="T13" t="n">
         <v>-0</v>
@@ -2079,10 +2079,10 @@
         <v>-0.191821536273208</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.007093882535637006</v>
+        <v>-0.007308848673080552</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.05409397321463855</v>
       </c>
       <c r="AD13" t="n">
         <v>0.2049001820152749</v>
@@ -2097,7 +2097,7 @@
         <v>-0.06079191006116286</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.2067161934564781</v>
+        <v>0.05180405432206261</v>
       </c>
       <c r="AI13" t="n">
         <v>-0.1228215789792931</v>
@@ -2106,7 +2106,7 @@
         <v>-0.09412395573830512</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2831392461660344</v>
+        <v>0.2218293060777457</v>
       </c>
       <c r="AL13" t="n">
         <v>-11.14960785993486</v>
@@ -2115,7 +2115,7 @@
         <v>2.18710745456344</v>
       </c>
       <c r="AN13" t="n">
-        <v>-8.679361159205383</v>
+        <v>-8.740671099293671</v>
       </c>
     </row>
     <row r="14">
@@ -2146,16 +2146,16 @@
         <v>0.04910437469588922</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1321751444956069</v>
+        <v>0.1404360910265823</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>-0.0792791598239852</v>
       </c>
       <c r="K14" t="n">
         <v>-0.0003247306756742245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004679931089890603</v>
+        <v>0.003829034528092311</v>
       </c>
       <c r="M14" t="n">
         <v>0.00542728781396404</v>
@@ -2167,16 +2167,16 @@
         <v>0.0936733687102074</v>
       </c>
       <c r="P14" t="n">
-        <v>0.004247387226789825</v>
+        <v>0.02515701514587607</v>
       </c>
       <c r="Q14" t="n">
         <v>-0.1666947409208715</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1789056120621836</v>
+        <v>-0.1144359448947113</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05430336372543621</v>
+        <v>0.04977808341498319</v>
       </c>
       <c r="T14" t="n">
         <v>0.001298922702696898</v>
@@ -2203,10 +2203,10 @@
         <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.002469945818687772</v>
+        <v>-0.00254479266167831</v>
       </c>
       <c r="AC14" t="n">
-        <v>-9.278019304977844e-05</v>
+        <v>0.016446355469751</v>
       </c>
       <c r="AD14" t="n">
         <v>0.07220367796382011</v>
@@ -2221,7 +2221,7 @@
         <v>0.06498104659848832</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.1999769910150028</v>
+        <v>0.2795865731459105</v>
       </c>
       <c r="AI14" t="n">
         <v>-0</v>
@@ -2230,7 +2230,7 @@
         <v>0.09263953195417346</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.463333904217645</v>
+        <v>1.41475841500209</v>
       </c>
       <c r="AL14" t="n">
         <v>-6.52579083659314</v>
@@ -2239,7 +2239,7 @@
         <v>2.295332708068656</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.76712422430684</v>
+        <v>-2.815699713522395</v>
       </c>
     </row>
     <row r="15">
@@ -2270,16 +2270,16 @@
         <v>0.1064354674776237</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1312524164391117</v>
+        <v>0.1394556924665561</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04343297275797925</v>
+        <v>-0.09175147683744336</v>
       </c>
       <c r="K15" t="n">
         <v>-0.2457785187846322</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.002943519640759821</v>
+        <v>-0.08597867990103608</v>
       </c>
       <c r="M15" t="n">
         <v>0.02515927924871428</v>
@@ -2291,16 +2291,16 @@
         <v>0.1354867454674863</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06597804101839277</v>
+        <v>0.007496800748659901</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.2043470749298928</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1432687117117093</v>
+        <v>-0.1124914216652526</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.05508808255331472</v>
+        <v>-0.05049740900720515</v>
       </c>
       <c r="T15" t="n">
         <v>0.9779106650934735</v>
@@ -2327,10 +2327,10 @@
         <v>-0.9192738021445584</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0008171784821526904</v>
+        <v>-0.0008419414664603477</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.07022243393846633</v>
+        <v>0.02235088781446914</v>
       </c>
       <c r="AD15" t="n">
         <v>0.1728151947245285</v>
@@ -2345,7 +2345,7 @@
         <v>-0.01170521029387905</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1377546172645809</v>
+        <v>0.2733743769487813</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
@@ -2354,7 +2354,7 @@
         <v>0.05306878459793927</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.625172661687158</v>
+        <v>1.020452184195476</v>
       </c>
       <c r="AL15" t="n">
         <v>-7.243676507309634</v>
@@ -2363,7 +2363,7 @@
         <v>3.25792022508047</v>
       </c>
       <c r="AN15" t="n">
-        <v>-2.360583620542006</v>
+        <v>-2.965304098033689</v>
       </c>
     </row>
     <row r="16">
@@ -2394,16 +2394,16 @@
         <v>0.07295486625474569</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1458499625510157</v>
+        <v>0.1549655852104541</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1320014914736221</v>
+        <v>-0.1208596908331201</v>
       </c>
       <c r="K16" t="n">
         <v>-0.0009593217871612027</v>
       </c>
       <c r="L16" t="n">
-        <v>0.086237402924807</v>
+        <v>0.07020971310628459</v>
       </c>
       <c r="M16" t="n">
         <v>0.06161106488475297</v>
@@ -2415,16 +2415,16 @@
         <v>0.1823463288712222</v>
       </c>
       <c r="P16" t="n">
-        <v>0.229662572680653</v>
+        <v>0.1945513161102233</v>
       </c>
       <c r="Q16" t="n">
         <v>0.06510383512501879</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02801904639600896</v>
+        <v>0.01344081908075103</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05107074034003092</v>
+        <v>0.04681484531169502</v>
       </c>
       <c r="T16" t="n">
         <v>0.001280350225397671</v>
@@ -2451,10 +2451,10 @@
         <v>-0.003829782154132546</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.005751550409471506</v>
+        <v>-0.005925839815819127</v>
       </c>
       <c r="AC16" t="n">
-        <v>-9.145358752840507e-05</v>
+        <v>-0.03302110591525941</v>
       </c>
       <c r="AD16" t="n">
         <v>0.1155509888267564</v>
@@ -2469,7 +2469,7 @@
         <v>0.07546864506139186</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.2039077710837101</v>
+        <v>0.2010071035517265</v>
       </c>
       <c r="AI16" t="n">
         <v>-0</v>
@@ -2478,7 +2478,7 @@
         <v>0.1245367664366711</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.475865103952154</v>
+        <v>2.429690056979331</v>
       </c>
       <c r="AL16" t="n">
         <v>-10.50942092405035</v>
@@ -2487,7 +2487,7 @@
         <v>2.353966381743893</v>
       </c>
       <c r="AN16" t="n">
-        <v>-4.679589438354304</v>
+        <v>-5.725764485327128</v>
       </c>
     </row>
     <row r="17">
@@ -2518,16 +2518,16 @@
         <v>0.04337047270109277</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04342856037396967</v>
+        <v>0.04614284539734277</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.006269567858902952</v>
+        <v>-0.003900524456188927</v>
       </c>
       <c r="K17" t="n">
         <v>-0.1775109591587369</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01570624712223083</v>
+        <v>-0.07421475670938822</v>
       </c>
       <c r="M17" t="n">
         <v>0.01870875000202852</v>
@@ -2539,16 +2539,16 @@
         <v>0.02388603068629905</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.09221737289447512</v>
+        <v>-0.04573195915669132</v>
       </c>
       <c r="Q17" t="n">
         <v>0.01250790240642274</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.1350152193844156</v>
+        <v>-0.08738446348544071</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.04356374175780811</v>
+        <v>-0.03993342994465744</v>
       </c>
       <c r="T17" t="n">
         <v>0.001390054900834992</v>
@@ -2575,10 +2575,10 @@
         <v>-0.9577185479033479</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03201684570093066</v>
+        <v>0.03298705314641341</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.05071741690249625</v>
+        <v>-0.07206024270563716</v>
       </c>
       <c r="AD17" t="n">
         <v>0.05886022175332223</v>
@@ -2593,7 +2593,7 @@
         <v>-0.0008017116077837394</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.07871867932242697</v>
+        <v>0.08879201470496707</v>
       </c>
       <c r="AI17" t="n">
         <v>-0</v>
@@ -2602,7 +2602,7 @@
         <v>0.09002268137020791</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.162717810211585</v>
+        <v>-0.1822067794674012</v>
       </c>
       <c r="AL17" t="n">
         <v>-10.34890957427704</v>
@@ -2611,7 +2611,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN17" t="n">
-        <v>-6.73785680257989</v>
+        <v>-8.082781392258878</v>
       </c>
     </row>
     <row r="18">
@@ -2642,16 +2642,16 @@
         <v>0.0001905880184084796</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09468821152843897</v>
+        <v>0.1006062247489664</v>
       </c>
       <c r="J18" t="n">
-        <v>-0</v>
+        <v>-0.0003971953089766967</v>
       </c>
       <c r="K18" t="n">
         <v>-0.008664056946258594</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001482351254288174</v>
+        <v>-0.1180014298584549</v>
       </c>
       <c r="M18" t="n">
         <v>0.0001667645161074196</v>
@@ -2663,16 +2663,16 @@
         <v>0.0001905880184084796</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01084342377363533</v>
+        <v>-0.007404361371835275</v>
       </c>
       <c r="Q18" t="n">
         <v>-0</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.001321982508317971</v>
+        <v>-0.0008412615962023449</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.003029282877834093</v>
+        <v>-0.002776842638014585</v>
       </c>
       <c r="T18" t="n">
         <v>-0</v>
@@ -2699,10 +2699,10 @@
         <v>-1.214643213657027</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.04154752411916478</v>
+        <v>0.04280654000156371</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.00247544484178817</v>
+        <v>-0.005647108727655738</v>
       </c>
       <c r="AD18" t="n">
         <v>0.0003335290322148392</v>
@@ -2717,7 +2717,7 @@
         <v>-0.002673646635566794</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.0004447053762864523</v>
+        <v>0.001982958451112547</v>
       </c>
       <c r="AI18" t="n">
         <v>-0</v>
@@ -2726,7 +2726,7 @@
         <v>0.0007221732890485396</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3649095254497141</v>
+        <v>0.2788687784060186</v>
       </c>
       <c r="AL18" t="n">
         <v>-13.47950353565217</v>
@@ -2735,7 +2735,7 @@
         <v>1.595355954196678</v>
       </c>
       <c r="AN18" t="n">
-        <v>-11.51923805600577</v>
+        <v>-11.60527880304947</v>
       </c>
     </row>
     <row r="19">
@@ -2766,16 +2766,16 @@
         <v>0.1306847316445459</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1983544876409717</v>
+        <v>0.2107516431185324</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.000182770123751656</v>
+        <v>-0.05437387475399186</v>
       </c>
       <c r="K19" t="n">
         <v>-0.03746676895289189</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>-0.006178225212596372</v>
       </c>
       <c r="M19" t="n">
         <v>0.001766332317744976</v>
@@ -2787,16 +2787,16 @@
         <v>0.1027188160557746</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05655197800306046</v>
+        <v>0.09890129484291456</v>
       </c>
       <c r="Q19" t="n">
         <v>-0.1175341190407639</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.2520662849072046</v>
+        <v>-0.1802318266855637</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05633765548495075</v>
+        <v>0.05164285086120485</v>
       </c>
       <c r="T19" t="n">
         <v>-0</v>
@@ -2823,10 +2823,10 @@
         <v>-0.06796047733856009</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.002919525260275581</v>
+        <v>-0.003007995722708174</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.03625926015825379</v>
+        <v>0.002988647084310895</v>
       </c>
       <c r="AD19" t="n">
         <v>0.1941872577325863</v>
@@ -2841,7 +2841,7 @@
         <v>0.06532441702499822</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.3204509160962942</v>
+        <v>0.2360494374570458</v>
       </c>
       <c r="AI19" t="n">
         <v>-0</v>
@@ -2850,7 +2850,7 @@
         <v>0.03506494125532367</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.592013801313695</v>
+        <v>-0.01548834056987516</v>
       </c>
       <c r="AL19" t="n">
         <v>-9.998707088215102</v>
@@ -2859,7 +2859,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN19" t="n">
-        <v>-6.152628514911879</v>
+        <v>-7.760130656795448</v>
       </c>
     </row>
     <row r="20">
@@ -2890,16 +2890,16 @@
         <v>0.1190948489554375</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1027979933625197</v>
+        <v>0.1092228679476772</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0001033238113661746</v>
+        <v>-0.0004313326249174391</v>
       </c>
       <c r="K20" t="n">
         <v>-0.3233704025989282</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001377650818215662</v>
+        <v>-0.1177301134675775</v>
       </c>
       <c r="M20" t="n">
         <v>0.01295443952257084</v>
@@ -2911,16 +2911,16 @@
         <v>0.08101878153193029</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1376631102572851</v>
+        <v>-0.03117723458673102</v>
       </c>
       <c r="Q20" t="n">
         <v>-0.252539229484906</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.2038730371581451</v>
+        <v>-0.1402751159473634</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.09923713988721024</v>
+        <v>-0.09096737822994272</v>
       </c>
       <c r="T20" t="n">
         <v>1.426786059667215</v>
@@ -2947,10 +2947,10 @@
         <v>-1.293791362406958</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.005177989554059266</v>
+        <v>0.005334898328424697</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.09230298033280848</v>
+        <v>0.05549493713011123</v>
       </c>
       <c r="AD20" t="n">
         <v>0.2084159856720156</v>
@@ -2965,7 +2965,7 @@
         <v>0.01323897639749088</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.4751820579769404</v>
+        <v>0.179157267641572</v>
       </c>
       <c r="AI20" t="n">
         <v>-0</v>
@@ -2974,7 +2974,7 @@
         <v>-0.09093580994840726</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.176968597193278</v>
+        <v>0.05857381040650839</v>
       </c>
       <c r="AL20" t="n">
         <v>-11.3185129821365</v>
@@ -2983,7 +2983,7 @@
         <v>2.525216607984509</v>
       </c>
       <c r="AN20" t="n">
-        <v>-8.616327776958709</v>
+        <v>-8.734722563745478</v>
       </c>
     </row>
     <row r="21">
@@ -3014,16 +3014,16 @@
         <v>0.009341308553018481</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08927695046776866</v>
+        <v>0.0948567598720042</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1262277920032109</v>
+        <v>-0.116960140143266</v>
       </c>
       <c r="K21" t="n">
         <v>-0.002299724930090923</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000343111104506498</v>
+        <v>0.0002807272673234983</v>
       </c>
       <c r="M21" t="n">
         <v>0.0005149718536637058</v>
@@ -3035,16 +3035,16 @@
         <v>0.1498211812608903</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1673954504979137</v>
+        <v>0.1160477045252811</v>
       </c>
       <c r="Q21" t="n">
         <v>-0.1451767021405313</v>
       </c>
       <c r="R21" t="n">
-        <v>0.003232835043413334</v>
+        <v>-0.006969639413249595</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01514443992500771</v>
+        <v>-0.0138824032645904</v>
       </c>
       <c r="T21" t="n">
         <v>0.003087999940558481</v>
@@ -3071,10 +3071,10 @@
         <v>-0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0003576166053486231</v>
+        <v>0.0003684534721773692</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.0006570642657402637</v>
+        <v>-0.0002058666627038988</v>
       </c>
       <c r="AD21" t="n">
         <v>0.0005152760868576098</v>
@@ -3089,7 +3089,7 @@
         <v>0.1479809434348021</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0006854083506024388</v>
+        <v>0.2891847041118966</v>
       </c>
       <c r="AI21" t="n">
         <v>-0</v>
@@ -3098,7 +3098,7 @@
         <v>0.02234759951019036</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.436228552767574</v>
+        <v>1.331783569629946</v>
       </c>
       <c r="AL21" t="n">
         <v>-12.6627841661494</v>
@@ -3107,7 +3107,7 @@
         <v>2.159781837538</v>
       </c>
       <c r="AN21" t="n">
-        <v>-9.066773775843826</v>
+        <v>-9.171218758981453</v>
       </c>
     </row>
     <row r="22">
@@ -3138,16 +3138,16 @@
         <v>0.1532122641666268</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1459676487232653</v>
+        <v>0.1550906267684694</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.259620459962974e-05</v>
+        <v>-0.06295489418730307</v>
       </c>
       <c r="K22" t="n">
         <v>-0.008039217013118369</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001234616061328396</v>
+        <v>-0.08326153088836034</v>
       </c>
       <c r="M22" t="n">
         <v>0.00137911833890849</v>
@@ -3159,16 +3159,16 @@
         <v>0.08857155346004386</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0032026005207652</v>
+        <v>0.06099332070700154</v>
       </c>
       <c r="Q22" t="n">
         <v>-0.3083344143438224</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.235456038795476</v>
+        <v>-0.1622330819630987</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.00222314082190395</v>
+        <v>-0.002037879086745288</v>
       </c>
       <c r="T22" t="n">
         <v>0.001111154455195557</v>
@@ -3195,10 +3195,10 @@
         <v>-0.9169879942271594</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.01403843743693635</v>
+        <v>-0.01446384463199503</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.002296919146605248</v>
+        <v>0.005610096201756439</v>
       </c>
       <c r="AD22" t="n">
         <v>0.2054341434694767</v>
@@ -3213,7 +3213,7 @@
         <v>0.1616035403515858</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0</v>
+        <v>0.3632723751073997</v>
       </c>
       <c r="AI22" t="n">
         <v>-0</v>
@@ -3222,7 +3222,7 @@
         <v>0.06909199035061322</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.4348289096738315</v>
+        <v>-0.4391278512034829</v>
       </c>
       <c r="AL22" t="n">
         <v>-13.47594955901148</v>
@@ -3231,7 +3231,7 @@
         <v>2.105224658176807</v>
       </c>
       <c r="AN22" t="n">
-        <v>-10.93589599116084</v>
+        <v>-11.80985275203815</v>
       </c>
     </row>
     <row r="23">
@@ -3262,16 +3262,16 @@
         <v>0.06346839423738473</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1145821110191155</v>
+        <v>0.1216778673241431</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1106964447146534</v>
+        <v>-0.1146785481290357</v>
       </c>
       <c r="K23" t="n">
         <v>-0.004388234424998255</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.001070029331999332</v>
+        <v>-0.001538870488877608</v>
       </c>
       <c r="M23" t="n">
         <v>0.07526460037283372</v>
@@ -3283,16 +3283,16 @@
         <v>0.1106215080049643</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1357245239644946</v>
+        <v>0.1227711504644284</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.006967561074430612</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.04137341290831864</v>
+        <v>-0.04646238937126976</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01363726913985673</v>
+        <v>0.01232603939903402</v>
       </c>
       <c r="T23" t="n">
         <v>0.02452503428248968</v>
@@ -3319,10 +3319,10 @@
         <v>-0.00729731138965969</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01108857358524507</v>
+        <v>-0.01142459096661613</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.001178780540094149</v>
+        <v>-0.02686039813872119</v>
       </c>
       <c r="AD23" t="n">
         <v>0.09362606008927944</v>
@@ -3337,7 +3337,7 @@
         <v>0.1112946700211885</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.06630347684653128</v>
+        <v>0.2615824015800838</v>
       </c>
       <c r="AI23" t="n">
         <v>-0</v>
@@ -3346,7 +3346,7 @@
         <v>0.1715814565692732</v>
       </c>
       <c r="AK23" t="n">
-        <v>4.614946717823615</v>
+        <v>3.586995378176329</v>
       </c>
       <c r="AL23" t="n">
         <v>-6.886174059002296</v>
@@ -3355,7 +3355,7 @@
         <v>2.839902601579024</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.5686752604003433</v>
+        <v>-0.4592760792469428</v>
       </c>
     </row>
     <row r="24">
@@ -3386,16 +3386,16 @@
         <v>0.1775169600364764</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2038152543935714</v>
+        <v>0.2165537077931697</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0001156639106090513</v>
+        <v>-0.0540608741463242</v>
       </c>
       <c r="K24" t="n">
         <v>-0.02109657533684456</v>
       </c>
       <c r="L24" t="n">
-        <v>-0</v>
+        <v>-0.002568597298792971</v>
       </c>
       <c r="M24" t="n">
         <v>0.00137268527586668</v>
@@ -3407,16 +3407,16 @@
         <v>0.1118166137246806</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03668517662460861</v>
+        <v>0.1109055711966401</v>
       </c>
       <c r="Q24" t="n">
         <v>-0.2074631177307115</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.2431612979877681</v>
+        <v>-0.1825827201790259</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04686336929782078</v>
+        <v>0.04295808852300238</v>
       </c>
       <c r="T24" t="n">
         <v>-0</v>
@@ -3443,10 +3443,10 @@
         <v>-0.02825457028672268</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.01499935362676518</v>
+        <v>-0.01545387949424292</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.02403668115063034</v>
+        <v>0.01998707036644832</v>
       </c>
       <c r="AD24" t="n">
         <v>0.277901458983711</v>
@@ -3461,7 +3461,7 @@
         <v>0.08959894964396777</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.2410470850182099</v>
+        <v>0.2575256642232789</v>
       </c>
       <c r="AI24" t="n">
         <v>-0</v>
@@ -3470,7 +3470,7 @@
         <v>0.03091123067155705</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.789466987792439</v>
+        <v>0.2504865338432088</v>
       </c>
       <c r="AL24" t="n">
         <v>-11.71300024367512</v>
@@ -3479,7 +3479,7 @@
         <v>2.662041804378848</v>
       </c>
       <c r="AN24" t="n">
-        <v>-7.261491451503831</v>
+        <v>-8.800471905453062</v>
       </c>
     </row>
     <row r="25">
@@ -3510,16 +3510,16 @@
         <v>0.1222776233395308</v>
       </c>
       <c r="I25" t="n">
-        <v>0.162494803274463</v>
+        <v>0.1726507284791169</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1346283790597197</v>
+        <v>-0.1278852820935762</v>
       </c>
       <c r="K25" t="n">
         <v>-0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06473173717969788</v>
+        <v>0.0528064624062675</v>
       </c>
       <c r="M25" t="n">
         <v>0.08591700278809589</v>
@@ -3531,16 +3531,16 @@
         <v>0.1596866889424823</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2154641603209989</v>
+        <v>0.2102163529475863</v>
       </c>
       <c r="Q25" t="n">
         <v>0.05283958489923749</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01791461642814954</v>
+        <v>-0.04406897040763646</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01991141508186771</v>
+        <v>0.01810925147935052</v>
       </c>
       <c r="T25" t="n">
         <v>0.005123470532285596</v>
@@ -3567,10 +3567,10 @@
         <v>-0.001714548148338529</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.02379974512924092</v>
+        <v>-0.02452094952709671</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0002444538609261025</v>
+        <v>-0.001131888886284231</v>
       </c>
       <c r="AD25" t="n">
         <v>0.1984087863574079</v>
@@ -3585,7 +3585,7 @@
         <v>0.1030690088235366</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.1420875238073608</v>
+        <v>0.2479389226893146</v>
       </c>
       <c r="AI25" t="n">
         <v>-0</v>
@@ -3594,7 +3594,7 @@
         <v>0.1401552258474265</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.312766910811058</v>
+        <v>3.022019931824405</v>
       </c>
       <c r="AL25" t="n">
         <v>-9.347188599605477</v>
@@ -3603,7 +3603,7 @@
         <v>2.69592875790635</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.33849293088807</v>
+        <v>-3.629239909874723</v>
       </c>
     </row>
     <row r="26">
@@ -3634,16 +3634,16 @@
         <v>0.1218592933232478</v>
       </c>
       <c r="I26" t="n">
-        <v>0.155438477573867</v>
+        <v>0.1650599712036099</v>
       </c>
       <c r="J26" t="n">
-        <v>-6.232772322913151e-05</v>
+        <v>-0.0002978306035447494</v>
       </c>
       <c r="K26" t="n">
         <v>-0.002596466208399831</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004140943136530051</v>
+        <v>-0.0473035466305451</v>
       </c>
       <c r="M26" t="n">
         <v>0.001942737452951352</v>
@@ -3655,16 +3655,16 @@
         <v>0.03599023170252458</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00256390240319303</v>
+        <v>0.0626236911397697</v>
       </c>
       <c r="Q26" t="n">
         <v>-0.1237261809599439</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2634232242298099</v>
+        <v>-0.1802236576457753</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.005845056711723959</v>
+        <v>-0.005357968652413629</v>
       </c>
       <c r="T26" t="n">
         <v>0.002984033190237546</v>
@@ -3691,10 +3691,10 @@
         <v>-0.524065861758873</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.01295652184121765</v>
+        <v>-0.01334914371519394</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0004661563182820192</v>
+        <v>0.05561084693637374</v>
       </c>
       <c r="AD26" t="n">
         <v>0.1977582157970672</v>
@@ -3709,7 +3709,7 @@
         <v>0.1832830057955839</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.02028926530564239</v>
+        <v>0.2357383741801266</v>
       </c>
       <c r="AI26" t="n">
         <v>-0.02189595096524102</v>
@@ -3718,7 +3718,7 @@
         <v>-0.04445006173401439</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.3689251116054634</v>
+        <v>0.1348993912330917</v>
       </c>
       <c r="AL26" t="n">
         <v>-12.36817560543482</v>
@@ -3727,7 +3727,7 @@
         <v>1.321288630557237</v>
       </c>
       <c r="AN26" t="n">
-        <v>-10.67796186327212</v>
+        <v>-10.91198758364449</v>
       </c>
     </row>
     <row r="27">
@@ -3758,16 +3758,16 @@
         <v>0.1909555992612977</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1843846611994892</v>
+        <v>0.1958249575329407</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.005199563546275485</v>
+        <v>-0.02455946168947984</v>
       </c>
       <c r="K27" t="n">
         <v>-0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04421928359715194</v>
+        <v>0.03289384551376856</v>
       </c>
       <c r="M27" t="n">
         <v>0.1170702564725295</v>
@@ -3779,16 +3779,16 @@
         <v>0.03633318065228351</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05333181101767544</v>
+        <v>0.1153031592961953</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0981596249850972</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.2305118033590843</v>
+        <v>-0.148608600594669</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0155902064991355</v>
+        <v>0.01429102262420754</v>
       </c>
       <c r="T27" t="n">
         <v>-0</v>
@@ -3815,10 +3815,10 @@
         <v>-0.03480133185864867</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.00838731426062086</v>
+        <v>-0.008641475298821493</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0001911227438131067</v>
+        <v>-0.03884855225653829</v>
       </c>
       <c r="AD27" t="n">
         <v>0.254738692922865</v>
@@ -3833,7 +3833,7 @@
         <v>0.1241717644224455</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.1447532472814803</v>
+        <v>0.2086465244493102</v>
       </c>
       <c r="AI27" t="n">
         <v>-0.001339919864264656</v>
@@ -3842,7 +3842,7 @@
         <v>0.2337376841302361</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.840847354365247</v>
+        <v>2.214036677520295</v>
       </c>
       <c r="AL27" t="n">
         <v>-12.94234416634632</v>
@@ -3851,7 +3851,7 @@
         <v>2.63080341085498</v>
       </c>
       <c r="AN27" t="n">
-        <v>-6.470693401126091</v>
+        <v>-8.097504077971042</v>
       </c>
     </row>
     <row r="28">
@@ -3882,16 +3882,16 @@
         <v>0.1367026895462948</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02428802048510116</v>
+        <v>0.02571745667405927</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0001180867884809457</v>
+        <v>-0.08327482817461018</v>
       </c>
       <c r="K28" t="n">
         <v>-0.3461092935106249</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06418142348244466</v>
+        <v>0.05212686207234277</v>
       </c>
       <c r="M28" t="n">
         <v>0.0766571079502054</v>
@@ -3903,16 +3903,16 @@
         <v>0.09790618551535288</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.08784086086339846</v>
+        <v>-0.002728231230685791</v>
       </c>
       <c r="Q28" t="n">
         <v>0.04041594090081486</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.004857405548908729</v>
+        <v>-0.01111971848057833</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.04474923912874516</v>
+        <v>-0.04102013586801639</v>
       </c>
       <c r="T28" t="n">
         <v>0.009823545920025314</v>
@@ -3939,10 +3939,10 @@
         <v>-0.004237328546231514</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.00380253992890558</v>
+        <v>-0.003917768411599689</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.09888836957446424</v>
+        <v>0.0113594626844272</v>
       </c>
       <c r="AD28" t="n">
         <v>0.1887751854429177</v>
@@ -3957,7 +3957,7 @@
         <v>-0.2299484718829251</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.3135476263902861</v>
+        <v>0.09345186697273872</v>
       </c>
       <c r="AI28" t="n">
         <v>-0.001417041461771349</v>
@@ -3966,7 +3966,7 @@
         <v>0.1579692274202947</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.206294438258171</v>
+        <v>-0.8807353456692059</v>
       </c>
       <c r="AL28" t="n">
         <v>-12.17836637337119</v>
@@ -3975,7 +3975,7 @@
         <v>1.882496340225403</v>
       </c>
       <c r="AN28" t="n">
-        <v>-10.50216447140396</v>
+        <v>-11.17660537881499</v>
       </c>
     </row>
     <row r="29">
@@ -4006,16 +4006,16 @@
         <v>0.1837204084962911</v>
       </c>
       <c r="I29" t="n">
-        <v>0.213499729255502</v>
+        <v>0.2268434623339708</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0002893656656733326</v>
+        <v>-0.01824250272275413</v>
       </c>
       <c r="K29" t="n">
         <v>-0.0008680969970199977</v>
       </c>
       <c r="L29" t="n">
-        <v>-0</v>
+        <v>-0.0002103543605574181</v>
       </c>
       <c r="M29" t="n">
         <v>0.0001448112527435489</v>
@@ -4027,16 +4027,16 @@
         <v>0.1819289273459816</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.07283973213234575</v>
+        <v>0.008158598980309514</v>
       </c>
       <c r="Q29" t="n">
         <v>-0.2277249593057231</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1928255974158438</v>
+        <v>-0.1440849180298445</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1162540047163058</v>
+        <v>0.106566170989947</v>
       </c>
       <c r="T29" t="n">
         <v>-0</v>
@@ -4063,10 +4063,10 @@
         <v>-0.002313897966131599</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.0160970601312161</v>
+        <v>-0.01658484983216205</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.0001652784261522571</v>
+        <v>-0.01181795105899981</v>
       </c>
       <c r="AD29" t="n">
         <v>0.1904048439837839</v>
@@ -4081,7 +4081,7 @@
         <v>-0.01568996151656357</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.5018401023515313</v>
+        <v>0.02599380491118086</v>
       </c>
       <c r="AI29" t="n">
         <v>-0</v>
@@ -4090,7 +4090,7 @@
         <v>-0.007481135876674387</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.753775897733343</v>
+        <v>0.5785738494738798</v>
       </c>
       <c r="AL29" t="n">
         <v>-12.82650814211323</v>
@@ -4099,7 +4099,7 @@
         <v>2.353577778082971</v>
       </c>
       <c r="AN29" t="n">
-        <v>-8.719154466296921</v>
+        <v>-9.894356514556382</v>
       </c>
     </row>
     <row r="30">
@@ -4130,16 +4130,16 @@
         <v>0.109905589339416</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1720470557872123</v>
+        <v>0.1827999967739131</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0004593974144836809</v>
+        <v>-0.05520735102339476</v>
       </c>
       <c r="K30" t="n">
         <v>-0.05777744140779716</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0648548493209098</v>
+        <v>0.04522312805762955</v>
       </c>
       <c r="M30" t="n">
         <v>0.08995152811490759</v>
@@ -4151,16 +4151,16 @@
         <v>0.06937391922513163</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01588978461007811</v>
+        <v>0.05960343115837949</v>
       </c>
       <c r="Q30" t="n">
         <v>0.120683934010747</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.2358659403114424</v>
+        <v>-0.1411217850858562</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06592021368619067</v>
+        <v>0.06042686254567477</v>
       </c>
       <c r="T30" t="n">
         <v>0.4963935474671212</v>
@@ -4187,10 +4187,10 @@
         <v>-0.08623923525426318</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.01155813738945926</v>
+        <v>-0.01195021364431562</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.01650784040222776</v>
+        <v>0.008778570656687242</v>
       </c>
       <c r="AD30" t="n">
         <v>0.1579591358920576</v>
@@ -4205,7 +4205,7 @@
         <v>0.05607047667445753</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.08220975167269166</v>
+        <v>0.2511786769594867</v>
       </c>
       <c r="AI30" t="n">
         <v>-0</v>
@@ -4214,16 +4214,16 @@
         <v>0.1077554255732119</v>
       </c>
       <c r="AK30" t="n">
-        <v>1.761940012305867</v>
+        <v>1.122542711211548</v>
       </c>
       <c r="AL30" t="n">
-        <v>-11.05410876344899</v>
+        <v>-11.05365854488897</v>
       </c>
       <c r="AM30" t="n">
         <v>3.258304687144962</v>
       </c>
       <c r="AN30" t="n">
-        <v>-6.033864063998157</v>
+        <v>-6.672811146532457</v>
       </c>
     </row>
     <row r="31">
@@ -4254,16 +4254,16 @@
         <v>0.1023316618697756</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1660568781650266</v>
+        <v>0.1764354330503408</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0001056570351350017</v>
+        <v>-0.06007599092821438</v>
       </c>
       <c r="K31" t="n">
         <v>-0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0002813420154011957</v>
+        <v>-5.733814060434829e-05</v>
       </c>
       <c r="M31" t="n">
         <v>0.0004751109911346968</v>
@@ -4275,16 +4275,16 @@
         <v>0.09592188301209571</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02255053047997158</v>
+        <v>0.05859942377715223</v>
       </c>
       <c r="Q31" t="n">
         <v>-0.1781204855757205</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2181751522496826</v>
+        <v>-0.1778048329864493</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03455129856176939</v>
+        <v>0.03167202368162194</v>
       </c>
       <c r="T31" t="n">
         <v>0.0006344048952334065</v>
@@ -4311,10 +4311,10 @@
         <v>-0.003162797685258593</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.002322433742544064</v>
+        <v>0.002392810522621157</v>
       </c>
       <c r="AC31" t="n">
-        <v>4.531463537381475e-05</v>
+        <v>-0.04371177327406477</v>
       </c>
       <c r="AD31" t="n">
         <v>0.1397094336958087</v>
@@ -4329,7 +4329,7 @@
         <v>0.08949414933732135</v>
       </c>
       <c r="AH31" t="n">
-        <v>-0.2107612156685726</v>
+        <v>0.2619784790513893</v>
       </c>
       <c r="AI31" t="n">
         <v>-0</v>
@@ -4338,7 +4338,7 @@
         <v>0.2036595958697739</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.793421494894128</v>
+        <v>2.148376849211057</v>
       </c>
       <c r="AL31" t="n">
         <v>-13.12398390372212</v>
@@ -4347,7 +4347,7 @@
         <v>2.718200667416676</v>
       </c>
       <c r="AN31" t="n">
-        <v>-6.612361741411316</v>
+        <v>-8.257406387094386</v>
       </c>
     </row>
     <row r="32">
@@ -4378,16 +4378,16 @@
         <v>0.0275555070448924</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06702707030471307</v>
+        <v>0.07121626219875764</v>
       </c>
       <c r="J32" t="n">
-        <v>-0</v>
+        <v>-0.02677357863236178</v>
       </c>
       <c r="K32" t="n">
         <v>-0.2891895544103589</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02062532383260244</v>
+        <v>0.01248714788644917</v>
       </c>
       <c r="M32" t="n">
         <v>0.02382255477947624</v>
@@ -4399,16 +4399,16 @@
         <v>0.03332761621578616</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.1705370581168585</v>
+        <v>-0.1080356128772088</v>
       </c>
       <c r="Q32" t="n">
         <v>0.02303773976767511</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.2516696947305048</v>
+        <v>-0.1630580181345338</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.07486121733272059</v>
+        <v>-0.06862278255499388</v>
       </c>
       <c r="T32" t="n">
         <v>0.9345488361886973</v>
@@ -4435,10 +4435,10 @@
         <v>-0.04826928774248113</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.00358243071918728</v>
+        <v>-0.003690989225829319</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.08262558697438827</v>
+        <v>-0.002309740705922794</v>
       </c>
       <c r="AD32" t="n">
         <v>0.03259263891200309</v>
@@ -4453,7 +4453,7 @@
         <v>0.0234306845225938</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1952602399583891</v>
+        <v>0.2435489149309049</v>
       </c>
       <c r="AI32" t="n">
         <v>-0</v>
@@ -4462,7 +4462,7 @@
         <v>0.04319983072250946</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.2852703893012555</v>
+        <v>-0.5259467597697083</v>
       </c>
       <c r="AL32" t="n">
         <v>-7.597523528976012</v>
@@ -4471,7 +4471,7 @@
         <v>2.093590660402022</v>
       </c>
       <c r="AN32" t="n">
-        <v>-5.789203257875246</v>
+        <v>-6.029879628343698</v>
       </c>
     </row>
     <row r="33">
@@ -4502,16 +4502,16 @@
         <v>0.2338401546736534</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1371260936872143</v>
+        <v>0.1456964745426652</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.03652499179649172</v>
+        <v>-0.03900241040685061</v>
       </c>
       <c r="K33" t="n">
         <v>-0.1334579770772884</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001522944622486277</v>
+        <v>-0.06965538222329823</v>
       </c>
       <c r="M33" t="n">
         <v>0.04110146673516931</v>
@@ -4523,16 +4523,16 @@
         <v>0.1507734699319271</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01267525414425572</v>
+        <v>0.06777477782841111</v>
       </c>
       <c r="Q33" t="n">
         <v>-0.1577023930352338</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.1382636823334533</v>
+        <v>-0.1202079361691555</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.03151036808313376</v>
+        <v>-0.02888450407620595</v>
       </c>
       <c r="T33" t="n">
         <v>0.03605960163321436</v>
@@ -4559,10 +4559,10 @@
         <v>-0.779915706058657</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.007036710829212876</v>
+        <v>-0.007249944490704176</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.03793931528195652</v>
+        <v>0.05775895895513201</v>
       </c>
       <c r="AD33" t="n">
         <v>0.2487873497669115</v>
@@ -4577,7 +4577,7 @@
         <v>0.05499155492927381</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.05875204989122924</v>
+        <v>0.1043047026305786</v>
       </c>
       <c r="AI33" t="n">
         <v>-0.6553052450467106</v>
@@ -4586,7 +4586,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.97893547855947</v>
+        <v>1.340712699344147</v>
       </c>
       <c r="AL33" t="n">
         <v>-6.722520401440502</v>
@@ -4595,7 +4595,7 @@
         <v>3.322850010526614</v>
       </c>
       <c r="AN33" t="n">
-        <v>-1.420734912354417</v>
+        <v>-2.058957691569741</v>
       </c>
     </row>
     <row r="34">
@@ -4626,16 +4626,16 @@
         <v>0.152056402224801</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1648300967405924</v>
+        <v>0.1751319777868794</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0003645642957629026</v>
+        <v>-0.06311451865741675</v>
       </c>
       <c r="K34" t="n">
         <v>-0.02449684419485863</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0004860857276838701</v>
+        <v>-0.08985468183431253</v>
       </c>
       <c r="M34" t="n">
         <v>0.01674339471508332</v>
@@ -4647,16 +4647,16 @@
         <v>0.09600452966109051</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.009915314853458318</v>
+        <v>0.05488183644222992</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.1953918749217792</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.2182465942989016</v>
+        <v>-0.1395448321682743</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0518835856543757</v>
+        <v>0.04755995351651105</v>
       </c>
       <c r="T34" t="n">
         <v>0.01014008231268123</v>
@@ -4683,10 +4683,10 @@
         <v>-0.9927762717265926</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.006040035094304267</v>
+        <v>-0.006223066460798335</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.006999098341388179</v>
+        <v>0.05283260034684884</v>
       </c>
       <c r="AD34" t="n">
         <v>0.2006754268575284</v>
@@ -4701,7 +4701,7 @@
         <v>0.08862099930950121</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.179254493151446</v>
+        <v>0.2802641214342033</v>
       </c>
       <c r="AI34" t="n">
         <v>-0</v>
@@ -4710,7 +4710,7 @@
         <v>0.0567344737783597</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.896953389483466</v>
+        <v>1.879473693497378</v>
       </c>
       <c r="AL34" t="n">
         <v>-9.49869652494948</v>
@@ -4719,7 +4719,7 @@
         <v>2.452265966414421</v>
       </c>
       <c r="AN34" t="n">
-        <v>-5.149477169051593</v>
+        <v>-5.16695686503768</v>
       </c>
     </row>
     <row r="35">
@@ -4750,16 +4750,16 @@
         <v>0.1079284370179328</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01592120856731942</v>
+        <v>0.01691628410277689</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.001245264785579239</v>
+        <v>-0.0948132561955036</v>
       </c>
       <c r="K35" t="n">
         <v>-0.1594325680940555</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0007155548524155829</v>
+        <v>-0.0004813328157636884</v>
       </c>
       <c r="M35" t="n">
         <v>0.002010698718761461</v>
@@ -4771,16 +4771,16 @@
         <v>0.05893312795456768</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.05975324964950008</v>
+        <v>0.01666460203387336</v>
       </c>
       <c r="Q35" t="n">
         <v>-0.2001121716251429</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.003215107164026211</v>
+        <v>-0.03021058260971581</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.05119757490472531</v>
+        <v>-0.04693111032933153</v>
       </c>
       <c r="T35" t="n">
         <v>0.001079985839675328</v>
@@ -4807,10 +4807,10 @@
         <v>-0.01173465464514082</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.003608782433439837</v>
+        <v>0.003718139476877408</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.04547502046689621</v>
+        <v>0.04943593906282494</v>
       </c>
       <c r="AD35" t="n">
         <v>0.1886047683214636</v>
@@ -4825,7 +4825,7 @@
         <v>-0.06056705712409592</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.0007173159750031646</v>
+        <v>0.2389030443678996</v>
       </c>
       <c r="AI35" t="n">
         <v>-0.002157292675186645</v>
@@ -4834,7 +4834,7 @@
         <v>0.09913830123284954</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.5536279922807372</v>
+        <v>0.2298573605388912</v>
       </c>
       <c r="AL35" t="n">
         <v>-11.50883810638006</v>
@@ -4843,7 +4843,7 @@
         <v>1.214086092026202</v>
       </c>
       <c r="AN35" t="n">
-        <v>-9.741124022073125</v>
+        <v>-10.06489465381497</v>
       </c>
     </row>
     <row r="36">
@@ -4874,16 +4874,16 @@
         <v>0.1480333754142214</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06185334192188547</v>
+        <v>0.06571917579200331</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.1219136627953876</v>
+        <v>-0.08729682979912075</v>
       </c>
       <c r="K36" t="n">
         <v>-0.0003846585915149155</v>
       </c>
       <c r="L36" t="n">
-        <v>-0</v>
+        <v>-0.0002792578946076971</v>
       </c>
       <c r="M36" t="n">
         <v>-0</v>
@@ -4895,13 +4895,13 @@
         <v>0.02401534805506811</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.1017500990946807</v>
+        <v>0.009267902772878709</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.08328440100970855</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001087493117313305</v>
+        <v>-0.0006920410746539215</v>
       </c>
       <c r="S36" t="n">
         <v>-0</v>
@@ -4931,10 +4931,10 @@
         <v>-0.003071836840684668</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01924293585216243</v>
+        <v>0.01982605512040977</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.0001099024547185473</v>
+        <v>0.1638803327365419</v>
       </c>
       <c r="AD36" t="n">
         <v>0.2590584069748874</v>
@@ -4949,7 +4949,7 @@
         <v>0.0006073817455133475</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.0005128781220198874</v>
+        <v>0.001335536082734726</v>
       </c>
       <c r="AI36" t="n">
         <v>-0</v>
@@ -4958,7 +4958,7 @@
         <v>-0.02972770508385903</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.6744223855645748</v>
+        <v>0.4676481719869245</v>
       </c>
       <c r="AL36" t="n">
         <v>-12.91531569771551</v>
@@ -4967,7 +4967,7 @@
         <v>2.193231160044317</v>
       </c>
       <c r="AN36" t="n">
-        <v>-11.39650692323577</v>
+        <v>-10.25443636568427</v>
       </c>
     </row>
     <row r="37">
@@ -4998,16 +4998,16 @@
         <v>0.1276855686706882</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1754962148380349</v>
+        <v>0.186464728265412</v>
       </c>
       <c r="J37" t="n">
-        <v>-0</v>
+        <v>-0.08134826791247221</v>
       </c>
       <c r="K37" t="n">
         <v>-0.05804339029094399</v>
       </c>
       <c r="L37" t="n">
-        <v>-0</v>
+        <v>-9.371533877861575e-05</v>
       </c>
       <c r="M37" t="n">
         <v>0.0001288585908205967</v>
@@ -5019,16 +5019,16 @@
         <v>0.1370677893306506</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02520409906023419</v>
+        <v>0.02989191385854211</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.2539496080990947</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.2115072974767728</v>
+        <v>-0.1407513968727543</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06129585730719131</v>
+        <v>0.0561878691982587</v>
       </c>
       <c r="T37" t="n">
         <v>-0</v>
@@ -5055,10 +5055,10 @@
         <v>-0.001030868726564773</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.01368039775801545</v>
+        <v>-0.0140949552658341</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.01651019231694366</v>
+        <v>0.04089149835944249</v>
       </c>
       <c r="AD37" t="n">
         <v>0.1538579429257888</v>
@@ -5073,7 +5073,7 @@
         <v>0.03452269029409035</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.3010502060775767</v>
+        <v>0.2754168692034449</v>
       </c>
       <c r="AI37" t="n">
         <v>-0</v>
@@ -5082,7 +5082,7 @@
         <v>-0.02626326986210848</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.8187502687753992</v>
+        <v>0.7469149517478646</v>
       </c>
       <c r="AL37" t="n">
         <v>-10.59881515340415</v>
@@ -5091,7 +5091,7 @@
         <v>1.995053108156679</v>
       </c>
       <c r="AN37" t="n">
-        <v>-7.785011776472071</v>
+        <v>-7.856847093499606</v>
       </c>
     </row>
     <row r="38">
@@ -5122,16 +5122,16 @@
         <v>0.09917561098274534</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1710693167243965</v>
+        <v>0.1817611490196713</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.08992783735842023</v>
+        <v>-0.09763194356125204</v>
       </c>
       <c r="K38" t="n">
         <v>-0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.08058643814322353</v>
+        <v>0.06552901924090777</v>
       </c>
       <c r="M38" t="n">
         <v>0.04578535887811487</v>
@@ -5143,16 +5143,16 @@
         <v>0.1397413511185227</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1472465194867318</v>
+        <v>0.149883752867264</v>
       </c>
       <c r="Q38" t="n">
         <v>-0.04396941991749016</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.08202070409591546</v>
+        <v>-0.0699373161607507</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02712625269150014</v>
+        <v>0.02486573163387512</v>
       </c>
       <c r="T38" t="n">
         <v>0.003570639877458631</v>
@@ -5179,10 +5179,10 @@
         <v>-0.004458731639026205</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01590719321474483</v>
+        <v>-0.0163892293727674</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.382668483895896e-05</v>
+        <v>-0.03674000913125283</v>
       </c>
       <c r="AD38" t="n">
         <v>0.1558175279734617</v>
@@ -5197,7 +5197,7 @@
         <v>0.1310713794727417</v>
       </c>
       <c r="AH38" t="n">
-        <v>-0.1381116082917302</v>
+        <v>0.2485775951507833</v>
       </c>
       <c r="AI38" t="n">
         <v>-0.0008954159328450565</v>
@@ -5206,7 +5206,7 @@
         <v>0.1838995189745202</v>
       </c>
       <c r="AK38" t="n">
-        <v>5.447288425397408</v>
+        <v>4.003067317392244</v>
       </c>
       <c r="AL38" t="n">
         <v>-9.831264921291664</v>
@@ -5215,7 +5215,7 @@
         <v>2.844241268734032</v>
       </c>
       <c r="AN38" t="n">
-        <v>-1.539735227160224</v>
+        <v>-2.983956335165388</v>
       </c>
     </row>
     <row r="39">
@@ -5246,16 +5246,16 @@
         <v>0.06238145055813425</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01714993668873317</v>
+        <v>-0.01822180773177899</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01230951381751107</v>
+        <v>-0.05222319873855287</v>
       </c>
       <c r="K39" t="n">
         <v>-0.4341019587205042</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.009911949264136417</v>
+        <v>-0.009598530101229998</v>
       </c>
       <c r="M39" t="n">
         <v>0.0002972021560716665</v>
@@ -5267,16 +5267,16 @@
         <v>0.03539169522238389</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.2965054159853242</v>
+        <v>-0.1718658620930424</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.08539205934108961</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.1227183565735349</v>
+        <v>-0.08672922386403052</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1600620772321345</v>
+        <v>-0.1467235707961233</v>
       </c>
       <c r="T39" t="n">
         <v>0.004742288678627769</v>
@@ -5303,10 +5303,10 @@
         <v>-0.01637628773630221</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.009745680975105992</v>
+        <v>-0.01004100464101829</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.1240291310630012</v>
+        <v>0.003849604808278639</v>
       </c>
       <c r="AD39" t="n">
         <v>0.1085731341645916</v>
@@ -5321,7 +5321,7 @@
         <v>-0.09214144414961987</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.03101473396201882</v>
+        <v>0.2133751142085143</v>
       </c>
       <c r="AI39" t="n">
         <v>-0.004742288678627769</v>
@@ -5330,7 +5330,7 @@
         <v>0.08570066372316699</v>
       </c>
       <c r="AK39" t="n">
-        <v>-3.536313739437888</v>
+        <v>-4.007855170461666</v>
       </c>
       <c r="AL39" t="n">
         <v>-9.883752427493629</v>
@@ -5339,7 +5339,7 @@
         <v>1.861016650472897</v>
       </c>
       <c r="AN39" t="n">
-        <v>-11.55904951645862</v>
+        <v>-12.0305909474824</v>
       </c>
     </row>
     <row r="40">
@@ -5370,16 +5370,16 @@
         <v>0.1660594004605955</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2028075051774813</v>
+        <v>0.2154829742510738</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.001571272963221449</v>
+        <v>-0.07139813603323714</v>
       </c>
       <c r="K40" t="n">
         <v>-0.02262809932853403</v>
       </c>
       <c r="L40" t="n">
-        <v>0.001179695013219721</v>
+        <v>-0.00018576751869899</v>
       </c>
       <c r="M40" t="n">
         <v>0.001327156889872186</v>
@@ -5391,16 +5391,16 @@
         <v>0.1509382218724641</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.007019531161982617</v>
+        <v>0.06049332654275396</v>
       </c>
       <c r="Q40" t="n">
         <v>-0.2618975706476149</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.23277879480999</v>
+        <v>-0.1483261343173884</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08538313346872471</v>
+        <v>0.07826787234633099</v>
       </c>
       <c r="T40" t="n">
         <v>-0</v>
@@ -5427,10 +5427,10 @@
         <v>-0.01266069782466638</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.01101453199136119</v>
+        <v>-0.0113483056880691</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.006465171236724009</v>
+        <v>0.03460024135756162</v>
       </c>
       <c r="AD40" t="n">
         <v>0.2123972563784113</v>
@@ -5445,7 +5445,7 @@
         <v>0.0519586235146708</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.3460694022559144</v>
+        <v>0.2524007596958662</v>
       </c>
       <c r="AI40" t="n">
         <v>-0</v>
@@ -5454,7 +5454,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.609451241234108</v>
+        <v>0.2767299222625451</v>
       </c>
       <c r="AL40" t="n">
         <v>-9.437435407552986</v>
@@ -5463,7 +5463,7 @@
         <v>1.87250846798494</v>
       </c>
       <c r="AN40" t="n">
-        <v>-6.955475698333938</v>
+        <v>-7.288197017305501</v>
       </c>
     </row>
     <row r="41">
@@ -5494,16 +5494,16 @@
         <v>0.04965369078730923</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1507605325537419</v>
+        <v>0.1601830658383508</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.001375472659653563</v>
+        <v>-0.02402764478118418</v>
       </c>
       <c r="K41" t="n">
         <v>-0.001397438640704924</v>
       </c>
       <c r="L41" t="n">
-        <v>-0</v>
+        <v>-0.0002540797528554407</v>
       </c>
       <c r="M41" t="n">
         <v>-0</v>
@@ -5515,16 +5515,16 @@
         <v>0.1701095351191071</v>
       </c>
       <c r="P41" t="n">
-        <v>0.001214865408578303</v>
+        <v>0.002523448631638894</v>
       </c>
       <c r="Q41" t="n">
         <v>-0.1230055915860493</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.09347739454823135</v>
+        <v>-0.05948561471251086</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1697666881971656</v>
+        <v>0.1556194641807351</v>
       </c>
       <c r="T41" t="n">
         <v>-0</v>
@@ -5551,10 +5551,10 @@
         <v>-0.002794877281409848</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.004318552343939839</v>
+        <v>0.00444941756648347</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.0003992681830585496</v>
+        <v>-0.0580374681098379</v>
       </c>
       <c r="AD41" t="n">
         <v>0.00546776088352522</v>
@@ -5569,7 +5569,7 @@
         <v>-0.1170167218287117</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.6243351511358198</v>
+        <v>-0.09226384949326952</v>
       </c>
       <c r="AI41" t="n">
         <v>-0</v>
@@ -5578,7 +5578,7 @@
         <v>-0.03592132280669296</v>
       </c>
       <c r="AK41" t="n">
-        <v>2.60475509180863</v>
+        <v>1.712322026626961</v>
       </c>
       <c r="AL41" t="n">
         <v>-10.66934497954808</v>
@@ -5587,7 +5587,7 @@
         <v>1.204401773911864</v>
       </c>
       <c r="AN41" t="n">
-        <v>-6.860188113827584</v>
+        <v>-7.752621179009253</v>
       </c>
     </row>
     <row r="42">
@@ -5618,16 +5618,16 @@
         <v>0.09722526092321462</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1422204705214393</v>
+        <v>0.1511092499290292</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.003178943659499501</v>
+        <v>-0.07794986569009153</v>
       </c>
       <c r="K42" t="n">
         <v>-0.05157811663625303</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.001765002863300149</v>
+        <v>-0.001444093251791031</v>
       </c>
       <c r="M42" t="n">
         <v>0.0005121889887124178</v>
@@ -5639,16 +5639,16 @@
         <v>0.04796404131404099</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.02081894289174708</v>
+        <v>0.02554411563037182</v>
       </c>
       <c r="Q42" t="n">
         <v>-0.06064680305293509</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.2366667503859064</v>
+        <v>-0.1515321521633671</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01535834729251027</v>
+        <v>0.01407848501813441</v>
       </c>
       <c r="T42" t="n">
         <v>0.002048755954849671</v>
@@ -5675,10 +5675,10 @@
         <v>-0</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.005880777238454191</v>
+        <v>-0.006058982609316439</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.01473660475321515</v>
+        <v>-0.03783573074937488</v>
       </c>
       <c r="AD42" t="n">
         <v>0.1298609973051394</v>
@@ -5693,7 +5693,7 @@
         <v>0.1072020805789969</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.1308036247341603</v>
+        <v>0.3498979077778523</v>
       </c>
       <c r="AI42" t="n">
         <v>-0</v>
@@ -5702,7 +5702,7 @@
         <v>0.2273493467500137</v>
       </c>
       <c r="AK42" t="n">
-        <v>1.872735439037579</v>
+        <v>0.7755690674807052</v>
       </c>
       <c r="AL42" t="n">
         <v>-12.0714880652931</v>
@@ -5711,7 +5711,7 @@
         <v>1.730605606249227</v>
       </c>
       <c r="AN42" t="n">
-        <v>-8.468147020006299</v>
+        <v>-9.565313391563173</v>
       </c>
     </row>
     <row r="43">
@@ -5742,16 +5742,16 @@
         <v>0.09352936049843867</v>
       </c>
       <c r="I43" t="n">
-        <v>0.151003172183041</v>
+        <v>0.1604408704444811</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0404377803942925</v>
+        <v>-0.09321263660066058</v>
       </c>
       <c r="K43" t="n">
         <v>-0.007695091491544672</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.05142671360656867</v>
+        <v>-0.04695926120123095</v>
       </c>
       <c r="M43" t="n">
         <v>0.0003561672022536681</v>
@@ -5763,16 +5763,16 @@
         <v>0.09593253600770968</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.004844986868107129</v>
+        <v>0.04426478979044222</v>
       </c>
       <c r="Q43" t="n">
         <v>-0.1993295218417914</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.2039152183259058</v>
+        <v>-0.1509749573945856</v>
       </c>
       <c r="S43" t="n">
-        <v>0.001201083361609017</v>
+        <v>0.001100993081474932</v>
       </c>
       <c r="T43" t="n">
         <v>0.01128687438060058</v>
@@ -5799,10 +5799,10 @@
         <v>-0.0537114507544224</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.01098580551199035</v>
+        <v>-0.01131870870932339</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.002198597569012764</v>
+        <v>-0.04353845851678051</v>
       </c>
       <c r="AD43" t="n">
         <v>0.1547617872721783</v>
@@ -5817,7 +5817,7 @@
         <v>0.0895714630119176</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.1706792000292592</v>
+        <v>0.2878306282186284</v>
       </c>
       <c r="AI43" t="n">
         <v>-0</v>
@@ -5826,7 +5826,7 @@
         <v>0.1392001608208503</v>
       </c>
       <c r="AK43" t="n">
-        <v>2.752124249851914</v>
+        <v>1.246682219952392</v>
       </c>
       <c r="AL43" t="n">
         <v>-10.69200272547526</v>
@@ -5835,7 +5835,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN43" t="n">
-        <v>-5.445481112827912</v>
+        <v>-6.950923142727433</v>
       </c>
     </row>
     <row r="44">
@@ -5866,16 +5866,16 @@
         <v>0.07550390578581349</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1591560844752784</v>
+        <v>0.1691033397549833</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.001683006448231701</v>
+        <v>-0.07520759915708924</v>
       </c>
       <c r="K44" t="n">
         <v>-0.0005727376285635514</v>
       </c>
       <c r="L44" t="n">
-        <v>-0</v>
+        <v>-0.002625383387483836</v>
       </c>
       <c r="M44" t="n">
         <v>0.0008546140219107299</v>
@@ -5887,16 +5887,16 @@
         <v>0.09709106615860782</v>
       </c>
       <c r="P44" t="n">
-        <v>0.001989458540502911</v>
+        <v>0.03433464766307312</v>
       </c>
       <c r="Q44" t="n">
         <v>-0.2099190556495422</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.2460726061888337</v>
+        <v>-0.1606613298017898</v>
       </c>
       <c r="S44" t="n">
-        <v>0.04581350799132655</v>
+        <v>0.04199571565871601</v>
       </c>
       <c r="T44" t="n">
         <v>0.002290950514254206</v>
@@ -5923,10 +5923,10 @@
         <v>-0.0288792172623222</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.0002544224792391313</v>
+        <v>-0.0002621322513372868</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.000163639322446729</v>
+        <v>-0.009901613195428172</v>
       </c>
       <c r="AD44" t="n">
         <v>0.1071113231888561</v>
@@ -5941,7 +5941,7 @@
         <v>0.1243301694457056</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.1657038919097688</v>
+        <v>0.3409072000275076</v>
       </c>
       <c r="AI44" t="n">
         <v>-0</v>
@@ -5950,7 +5950,7 @@
         <v>0.06603568266083214</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.252708095732052</v>
+        <v>0.630972220547353</v>
       </c>
       <c r="AL44" t="n">
         <v>-9.820515667413837</v>
@@ -5959,7 +5959,7 @@
         <v>1.928244044616695</v>
       </c>
       <c r="AN44" t="n">
-        <v>-6.639563527065089</v>
+        <v>-7.261299402249788</v>
       </c>
     </row>
     <row r="45">
@@ -5990,16 +5990,16 @@
         <v>0.1223675125768138</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1878908700614849</v>
+        <v>0.1996340494403277</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.1072506465622534</v>
+        <v>-0.06464433116139871</v>
       </c>
       <c r="K45" t="n">
         <v>-0.004350777248734525</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09734252767110949</v>
+        <v>0.07884491162711721</v>
       </c>
       <c r="M45" t="n">
         <v>0.0003686724542051114</v>
@@ -6011,16 +6011,16 @@
         <v>0.2127220002868195</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09011097241825711</v>
+        <v>0.1240064313179291</v>
       </c>
       <c r="Q45" t="n">
         <v>-0.1294446176596941</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01383473665645047</v>
+        <v>0.008803923326832119</v>
       </c>
       <c r="S45" t="n">
-        <v>0.09503067325451386</v>
+        <v>0.08711145048330438</v>
       </c>
       <c r="T45" t="n">
         <v>-0</v>
@@ -6047,10 +6047,10 @@
         <v>-0.00878872114169606</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.01113651412105037</v>
+        <v>-0.01147398424593069</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.00124307921392415</v>
+        <v>-0.02703359092478728</v>
       </c>
       <c r="AD45" t="n">
         <v>0.2002712138421911</v>
@@ -6065,7 +6065,7 @@
         <v>0.0005338477794575889</v>
       </c>
       <c r="AH45" t="n">
-        <v>-0.3881578785762443</v>
+        <v>-0.00855456328039006</v>
       </c>
       <c r="AI45" t="n">
         <v>-0.1000063371472084</v>
@@ -6074,7 +6074,7 @@
         <v>0.03135610442776928</v>
       </c>
       <c r="AK45" t="n">
-        <v>5.411962982155189</v>
+        <v>4.199475503647334</v>
       </c>
       <c r="AL45" t="n">
         <v>-11.93633320006451</v>
@@ -6083,7 +6083,7 @@
         <v>2.544717952291438</v>
       </c>
       <c r="AN45" t="n">
-        <v>-3.979652265617883</v>
+        <v>-5.192139744125738</v>
       </c>
     </row>
     <row r="46">
@@ -6114,16 +6114,16 @@
         <v>0.04519535820676231</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1505871819135924</v>
+        <v>0.1599988807831919</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.1241193939398284</v>
+        <v>-0.1235600646614667</v>
       </c>
       <c r="K46" t="n">
         <v>-0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0002431842189302725</v>
+        <v>-0.04043223671596526</v>
       </c>
       <c r="M46" t="n">
         <v>0.001090227194054536</v>
@@ -6135,16 +6135,16 @@
         <v>0.2074924811362072</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1657357094720348</v>
+        <v>0.1273771075512978</v>
       </c>
       <c r="Q46" t="n">
         <v>-0.09607091980352653</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01753161701570148</v>
+        <v>0.0111564835554464</v>
       </c>
       <c r="S46" t="n">
-        <v>0.09334851003740337</v>
+        <v>0.08556946753428642</v>
       </c>
       <c r="T46" t="n">
         <v>0.002188657970372453</v>
@@ -6171,10 +6171,10 @@
         <v>-0.4469432618459903</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.0009638615733472746</v>
+        <v>-0.0009930694998123435</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0</v>
+        <v>-0.04744247962296445</v>
       </c>
       <c r="AD46" t="n">
         <v>0.04107025322963948</v>
@@ -6189,7 +6189,7 @@
         <v>0.03377217367235488</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.3422670044913698</v>
+        <v>0.1649362878343677</v>
       </c>
       <c r="AI46" t="n">
         <v>-0</v>
@@ -6198,7 +6198,7 @@
         <v>0.09150980768016342</v>
       </c>
       <c r="AK46" t="n">
-        <v>2.370850858572363</v>
+        <v>1.494932651309338</v>
       </c>
       <c r="AL46" t="n">
         <v>-8.550008307869977</v>
@@ -6207,7 +6207,7 @@
         <v>2.143290922985067</v>
       </c>
       <c r="AN46" t="n">
-        <v>-4.035866526312546</v>
+        <v>-4.911784733575571</v>
       </c>
     </row>
     <row r="47">
@@ -6238,16 +6238,16 @@
         <v>0.0004029766625198304</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06186668905404789</v>
+        <v>0.06573335711992588</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.003589334017178978</v>
+        <v>-0.01287728627794599</v>
       </c>
       <c r="K47" t="n">
         <v>-0.2258414565196749</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0003134262930709792</v>
+        <v>-0.001257793568634736</v>
       </c>
       <c r="M47" t="n">
         <v>0.0007052091594097033</v>
@@ -6259,16 +6259,16 @@
         <v>0.00367715287510272</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0952747756927681</v>
+        <v>-0.06574247266132877</v>
       </c>
       <c r="Q47" t="n">
         <v>0.0007052091594097033</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.2715426518726338</v>
+        <v>-0.173056309067825</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.08110335067234276</v>
+        <v>-0.07434473811631419</v>
       </c>
       <c r="T47" t="n">
         <v>0.002820836637638813</v>
@@ -6295,10 +6295,10 @@
         <v>-0.01665656589262091</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.0001659315669199302</v>
+        <v>-0.0001709597962205341</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.06452613043419282</v>
+        <v>-0.002179855075109285</v>
       </c>
       <c r="AD47" t="n">
         <v>0.0007052091594097033</v>
@@ -6313,7 +6313,7 @@
         <v>0.1034917449828233</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.001862431802550511</v>
+        <v>0.2687420195777582</v>
       </c>
       <c r="AI47" t="n">
         <v>-0</v>
@@ -6322,7 +6322,7 @@
         <v>0.02421231846412458</v>
       </c>
       <c r="AK47" t="n">
-        <v>-1.749014117063937</v>
+        <v>-1.787353616465854</v>
       </c>
       <c r="AL47" t="n">
         <v>-9.806990401331403</v>
@@ -6331,7 +6331,7 @@
         <v>1.110301723834436</v>
       </c>
       <c r="AN47" t="n">
-        <v>-10.4457027945609</v>
+        <v>-10.48404229396282</v>
       </c>
     </row>
     <row r="48">
@@ -6362,16 +6362,16 @@
         <v>0.1292339945821452</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03109650196439663</v>
+        <v>0.03304003333717142</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.01386148075428554</v>
+        <v>-0.008440520784348295</v>
       </c>
       <c r="K48" t="n">
         <v>-0.5138491721234449</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0005494770301198727</v>
+        <v>0.0004495721155526231</v>
       </c>
       <c r="M48" t="n">
         <v>0.06447873480844994</v>
@@ -6383,16 +6383,16 @@
         <v>0.02764922191127156</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1857962322829728</v>
+        <v>-0.05923082885440596</v>
       </c>
       <c r="Q48" t="n">
         <v>-0.09308414724498484</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.2385131479009603</v>
+        <v>-0.1535445363441662</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.154228278425871</v>
+        <v>-0.1413759218903817</v>
       </c>
       <c r="T48" t="n">
         <v>1.657808068248622</v>
@@ -6419,10 +6419,10 @@
         <v>-0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.005373492478567453</v>
+        <v>0.005536325583978588</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1468140491781271</v>
+        <v>0.05542403667356834</v>
       </c>
       <c r="AD48" t="n">
         <v>0.2255413288598693</v>
@@ -6437,7 +6437,7 @@
         <v>-0.0375997428680274</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.5517784738710274</v>
+        <v>0.2099249074766882</v>
       </c>
       <c r="AI48" t="n">
         <v>-0</v>
@@ -6446,7 +6446,7 @@
         <v>-0.03295218173088205</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.3621642188900479</v>
+        <v>-0.4523668487051061</v>
       </c>
       <c r="AL48" t="n">
         <v>-12.08611100398902</v>
@@ -6455,7 +6455,7 @@
         <v>1.991472897368744</v>
       </c>
       <c r="AN48" t="n">
-        <v>-10.45680232551032</v>
+        <v>-10.54700495532538</v>
       </c>
     </row>
     <row r="49">
@@ -6486,16 +6486,16 @@
         <v>0.142647248687525</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1473058395216515</v>
+        <v>0.1565124544917547</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0006894209392375846</v>
+        <v>-0.07257814378946614</v>
       </c>
       <c r="K49" t="n">
         <v>-0.06115948857382477</v>
       </c>
       <c r="L49" t="n">
-        <v>-0</v>
+        <v>-0.0002522937624598116</v>
       </c>
       <c r="M49" t="n">
         <v>-0</v>
@@ -6507,16 +6507,16 @@
         <v>0.05568471561423332</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.02626276700271645</v>
+        <v>0.02452190227066224</v>
       </c>
       <c r="Q49" t="n">
         <v>-0.0625153163046018</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.2304395576270529</v>
+        <v>-0.1468956486160389</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02414073325229208</v>
+        <v>0.02212900548126774</v>
       </c>
       <c r="T49" t="n">
         <v>0.005532841019748132</v>
@@ -6543,10 +6543,10 @@
         <v>-0.002775231387057928</v>
       </c>
       <c r="AB49" t="n">
-        <v>-0.003741178685360518</v>
+        <v>-0.003854547736432048</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.01747413959252136</v>
+        <v>-0.04820292354866972</v>
       </c>
       <c r="AD49" t="n">
         <v>0.1387874081357643</v>
@@ -6561,7 +6561,7 @@
         <v>0.08693012116814682</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.1682177263502546</v>
+        <v>0.3193067198885226</v>
       </c>
       <c r="AI49" t="n">
         <v>-0</v>
@@ -6570,7 +6570,7 @@
         <v>0.2322621447911732</v>
       </c>
       <c r="AK49" t="n">
-        <v>2.272826779121714</v>
+        <v>0.9918580619615537</v>
       </c>
       <c r="AL49" t="n">
         <v>-10.44853568355692</v>
@@ -6579,7 +6579,7 @@
         <v>1.819341721761147</v>
       </c>
       <c r="AN49" t="n">
-        <v>-6.356367182674061</v>
+        <v>-7.637335899834223</v>
       </c>
     </row>
     <row r="50">
@@ -6610,16 +6610,16 @@
         <v>0.03260428050913044</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1335464596240989</v>
+        <v>0.1418931133506051</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.1430812327859125</v>
+        <v>-0.1183522968744361</v>
       </c>
       <c r="K50" t="n">
         <v>-0.005282145113513869</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01489270061739626</v>
+        <v>-0.07046496224149307</v>
       </c>
       <c r="M50" t="n">
         <v>0.01676718358977053</v>
@@ -6631,16 +6631,16 @@
         <v>0.2299773112708239</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2036418305328122</v>
+        <v>0.1553638213789302</v>
       </c>
       <c r="Q50" t="n">
         <v>-0.09415724923149332</v>
       </c>
       <c r="R50" t="n">
-        <v>0.09005719438299972</v>
+        <v>0.05493966274364542</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0878288754931088</v>
+        <v>0.08050980253534974</v>
       </c>
       <c r="T50" t="n">
         <v>0.002399025499895952</v>
@@ -6667,10 +6667,10 @@
         <v>-0.9091488902129901</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.002763314981170658</v>
+        <v>0.002847051798781889</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0</v>
+        <v>-0.02999650629536038</v>
       </c>
       <c r="AD50" t="n">
         <v>0.04673830078269556</v>
@@ -6685,7 +6685,7 @@
         <v>0.005676429249160125</v>
       </c>
       <c r="AH50" t="n">
-        <v>-0.3354101302005807</v>
+        <v>0.08980580217652662</v>
       </c>
       <c r="AI50" t="n">
         <v>-0</v>
@@ -6694,7 +6694,7 @@
         <v>0.0563064883312854</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.566424347493195</v>
+        <v>0.8823308989770525</v>
       </c>
       <c r="AL50" t="n">
         <v>-8.88233198388316</v>
@@ -6703,7 +6703,7 @@
         <v>1.980333696494249</v>
       </c>
       <c r="AN50" t="n">
-        <v>-5.335573939895717</v>
+        <v>-6.019667388411859</v>
       </c>
     </row>
     <row r="51">
@@ -6734,16 +6734,16 @@
         <v>0.1693666200506838</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1385166436753769</v>
+        <v>0.1471739339050879</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.1216672130021349</v>
+        <v>-0.07896812756240477</v>
       </c>
       <c r="K51" t="n">
         <v>-0.06358556244767354</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0907092479701727</v>
+        <v>-0.08823643590548404</v>
       </c>
       <c r="M51" t="n">
         <v>0.02629190521139421</v>
@@ -6755,16 +6755,16 @@
         <v>0.09922855968223672</v>
       </c>
       <c r="P51" t="n">
-        <v>0.04372915285883609</v>
+        <v>0.09435878862302641</v>
       </c>
       <c r="Q51" t="n">
         <v>-0.1734491866114203</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.1500185378914771</v>
+        <v>-0.1306985001408797</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.1045263673959799</v>
+        <v>-0.09581583677964822</v>
       </c>
       <c r="T51" t="n">
         <v>0.229039572917333</v>
@@ -6791,10 +6791,10 @@
         <v>-0.1542175632287701</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.03544811175148233</v>
+        <v>-0.0365222969560727</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.01795472796672045</v>
+        <v>0.02031398771733459</v>
       </c>
       <c r="AD51" t="n">
         <v>0.2082754690924546</v>
@@ -6809,7 +6809,7 @@
         <v>0.2633439821027245</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.07079327062018742</v>
+        <v>0.2241841581804377</v>
       </c>
       <c r="AI51" t="n">
         <v>-0</v>
@@ -6818,7 +6818,7 @@
         <v>0.06605395394971005</v>
       </c>
       <c r="AK51" t="n">
-        <v>4.986110361393498</v>
+        <v>4.020675944375481</v>
       </c>
       <c r="AL51" t="n">
         <v>-8.93409847828973</v>
@@ -6827,7 +6827,7 @@
         <v>3.335239623901399</v>
       </c>
       <c r="AN51" t="n">
-        <v>-0.6127484929948328</v>
+        <v>-1.57818291001285</v>
       </c>
     </row>
     <row r="52">
@@ -6858,16 +6858,16 @@
         <v>0.1895064225199023</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07536623978383003</v>
+        <v>0.0800766297703194</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.001339032874312544</v>
+        <v>-0.001602138822490713</v>
       </c>
       <c r="K52" t="n">
         <v>-0.3743104774127906</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0003602476039771001</v>
+        <v>-0.01596134123231344</v>
       </c>
       <c r="M52" t="n">
         <v>0.0008075539057073115</v>
@@ -6879,16 +6879,16 @@
         <v>0.01113710873938503</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.1369974200639226</v>
+        <v>0.006948149894478377</v>
       </c>
       <c r="Q52" t="n">
         <v>-0.03335959860326149</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.2046691612620581</v>
+        <v>-0.1302440117122188</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.117338882723257</v>
+        <v>-0.107560642496319</v>
       </c>
       <c r="T52" t="n">
         <v>1.444692843117452</v>
@@ -6915,10 +6915,10 @@
         <v>-0.172332525119654</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01852771159094178</v>
+        <v>0.0190891573967279</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1069458506893688</v>
+        <v>0.08609630679380431</v>
       </c>
       <c r="AD52" t="n">
         <v>0.3308256823008805</v>
@@ -6933,7 +6933,7 @@
         <v>-0.006138657664318692</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.478345960411688</v>
+        <v>0.1814787143707549</v>
       </c>
       <c r="AI52" t="n">
         <v>-0</v>
@@ -6942,7 +6942,7 @@
         <v>-0.01038379854719894</v>
       </c>
       <c r="AK52" t="n">
-        <v>1.257856487107523</v>
+        <v>1.225998359811066</v>
       </c>
       <c r="AL52" t="n">
         <v>-10.83292125954527</v>
@@ -6951,7 +6951,7 @@
         <v>2.385761708617381</v>
       </c>
       <c r="AN52" t="n">
-        <v>-7.189303063820372</v>
+        <v>-7.221161191116828</v>
       </c>
     </row>
     <row r="53">
@@ -6982,16 +6982,16 @@
         <v>0.07950438178153495</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1024214743316523</v>
+        <v>0.1088228164773805</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.1303387376727408</v>
+        <v>-0.1048226921289425</v>
       </c>
       <c r="K53" t="n">
         <v>-0.001607314821543249</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1309198175944886</v>
+        <v>0.08103172789652642</v>
       </c>
       <c r="M53" t="n">
         <v>0.1163662059081128</v>
@@ -7003,16 +7003,16 @@
         <v>0.1138235747670937</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1931479789095787</v>
+        <v>0.1706278462770962</v>
       </c>
       <c r="Q53" t="n">
         <v>0.06674239318617388</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01817817476082543</v>
+        <v>-0.02779355112118593</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.02277470828049327</v>
+        <v>-0.02114470172737604</v>
       </c>
       <c r="T53" t="n">
         <v>0.006405639457555219</v>
@@ -7039,10 +7039,10 @@
         <v>-0.2869293514886067</v>
       </c>
       <c r="AB53" t="n">
-        <v>-0.01759291481255326</v>
+        <v>-0.01812603344323669</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.0004592328061552139</v>
+        <v>-0.07479681295760979</v>
       </c>
       <c r="AD53" t="n">
         <v>0.1199575478540107</v>
@@ -7057,7 +7057,7 @@
         <v>0.1689521617828212</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.001586452666829085</v>
+        <v>0.2150596214113201</v>
       </c>
       <c r="AI53" t="n">
         <v>-0</v>
@@ -7066,7 +7066,7 @@
         <v>0.2571591641461917</v>
       </c>
       <c r="AK53" t="n">
-        <v>6.831009692179042</v>
+        <v>4.678344079481873</v>
       </c>
       <c r="AL53" t="n">
         <v>-6.326593803449509</v>
@@ -7075,7 +7075,7 @@
         <v>2.998095499299937</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.50251138802947</v>
+        <v>1.349845775332301</v>
       </c>
     </row>
     <row r="54">
@@ -7106,16 +7106,16 @@
         <v>0.08632974258802598</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1450140034398356</v>
+        <v>0.1540773786548253</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.001244662100493331</v>
+        <v>-0.07669029207750609</v>
       </c>
       <c r="K54" t="n">
         <v>-0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0002805854075610722</v>
+        <v>-0.004942144259044465</v>
       </c>
       <c r="M54" t="n">
         <v>0.002487668888154432</v>
@@ -7127,16 +7127,16 @@
         <v>0.07124951285425696</v>
       </c>
       <c r="P54" t="n">
-        <v>0.001940134874885513</v>
+        <v>0.04782841630693473</v>
       </c>
       <c r="Q54" t="n">
         <v>-0.2096546001675511</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.2413777720762513</v>
+        <v>-0.1631675106206217</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01443542253205539</v>
+        <v>0.01323247065438411</v>
       </c>
       <c r="T54" t="n">
         <v>-0</v>
@@ -7163,10 +7163,10 @@
         <v>-0.05688885551753876</v>
       </c>
       <c r="AB54" t="n">
-        <v>-0.01184817861704062</v>
+        <v>-0.01220721433270852</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0</v>
+        <v>-0.015217790503858</v>
       </c>
       <c r="AD54" t="n">
         <v>0.1510770495290455</v>
@@ -7181,7 +7181,7 @@
         <v>0.1563166784324256</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.04713785513847449</v>
+        <v>0.3852545850835572</v>
       </c>
       <c r="AI54" t="n">
         <v>-0</v>
@@ -7190,7 +7190,7 @@
         <v>0.1244443379331433</v>
       </c>
       <c r="AK54" t="n">
-        <v>1.026518064456683</v>
+        <v>0.08874479648955132</v>
       </c>
       <c r="AL54" t="n">
         <v>-9.435032822957847</v>
@@ -7199,7 +7199,7 @@
         <v>1.656467734917757</v>
       </c>
       <c r="AN54" t="n">
-        <v>-6.752047023583407</v>
+        <v>-7.689820291550538</v>
       </c>
     </row>
     <row r="55">
@@ -7230,10 +7230,10 @@
         <v>0.1065016856269109</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1600867456504387</v>
+        <v>0.1700921672535911</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.001101516629921386</v>
+        <v>-0.07993503582627269</v>
       </c>
       <c r="K55" t="n">
         <v>-0</v>
@@ -7251,16 +7251,16 @@
         <v>0.08378311174053089</v>
       </c>
       <c r="P55" t="n">
-        <v>0.00122078209153951</v>
+        <v>0.04523403714229935</v>
       </c>
       <c r="Q55" t="n">
         <v>-0.1320508376187143</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.2090293324657128</v>
+        <v>-0.1353864792286635</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0557177688094421</v>
+        <v>0.05107462140865526</v>
       </c>
       <c r="T55" t="n">
         <v>-0</v>
@@ -7287,10 +7287,10 @@
         <v>-0</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.006918056079419206</v>
+        <v>-0.007127694142431909</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0</v>
+        <v>-0.04221053998219464</v>
       </c>
       <c r="AD55" t="n">
         <v>0.144263861006509</v>
@@ -7305,7 +7305,7 @@
         <v>0.08448815124855275</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.2105140047778395</v>
+        <v>0.3037955036814906</v>
       </c>
       <c r="AI55" t="n">
         <v>-0</v>
@@ -7314,7 +7314,7 @@
         <v>0.1850021998328497</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.737774984757832</v>
+        <v>1.501515496743567</v>
       </c>
       <c r="AL55" t="n">
         <v>-8.47625135836987</v>
@@ -7323,7 +7323,7 @@
         <v>2.515589779621977</v>
       </c>
       <c r="AN55" t="n">
-        <v>-3.222886593990061</v>
+        <v>-4.459146082004326</v>
       </c>
     </row>
     <row r="56">
@@ -7354,16 +7354,16 @@
         <v>0.08064757011378934</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08545348630302384</v>
+        <v>0.09079432919696283</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.00362334673318405</v>
+        <v>-0.06519758681641612</v>
       </c>
       <c r="K56" t="n">
         <v>-0.1622682897727903</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.000409497895630957</v>
+        <v>-0.05623637210368877</v>
       </c>
       <c r="M56" t="n">
         <v>0.0004646280522454783</v>
@@ -7375,16 +7375,16 @@
         <v>0.06932561575395849</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.07152190795232689</v>
+        <v>-0.01783177343106292</v>
       </c>
       <c r="Q56" t="n">
         <v>-0.2131042985204226</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.223488133310564</v>
+        <v>-0.1432305875518686</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.04903785895726252</v>
+        <v>-0.04495137071082397</v>
       </c>
       <c r="T56" t="n">
         <v>0.003717024417963826</v>
@@ -7411,10 +7411,10 @@
         <v>-0.6149146120798978</v>
       </c>
       <c r="AB56" t="n">
-        <v>-0.005064442306599152</v>
+        <v>-0.005217910255283975</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.0463623685065115</v>
+        <v>-0.02753318930495817</v>
       </c>
       <c r="AD56" t="n">
         <v>0.102971029241781</v>
@@ -7429,7 +7429,7 @@
         <v>0.0869357658248191</v>
       </c>
       <c r="AH56" t="n">
-        <v>-0.02487657410607818</v>
+        <v>0.3473627991086832</v>
       </c>
       <c r="AI56" t="n">
         <v>-0</v>
@@ -7438,7 +7438,7 @@
         <v>0.1915336305466101</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.8003543566163066</v>
+        <v>-0.03564712982179633</v>
       </c>
       <c r="AL56" t="n">
         <v>-8.728040149512106</v>
@@ -7447,7 +7447,7 @@
         <v>2.641218525885009</v>
       </c>
       <c r="AN56" t="n">
-        <v>-5.28646726701079</v>
+        <v>-6.122468753448894</v>
       </c>
     </row>
     <row r="57">
@@ -7478,16 +7478,16 @@
         <v>0.06944726070431877</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1432090416353729</v>
+        <v>0.1521596067375837</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.1303555184825309</v>
+        <v>-0.1337423524543067</v>
       </c>
       <c r="K57" t="n">
         <v>-0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.08253951741905713</v>
+        <v>0.067532332433774</v>
       </c>
       <c r="M57" t="n">
         <v>0.09285695709643926</v>
@@ -7499,16 +7499,16 @@
         <v>0.2222294283283333</v>
       </c>
       <c r="P57" t="n">
-        <v>0.256346875395765</v>
+        <v>0.2127315806422758</v>
       </c>
       <c r="Q57" t="n">
         <v>-0.01687347959628188</v>
       </c>
       <c r="R57" t="n">
-        <v>0.04760639002123861</v>
+        <v>-0.008330466664998998</v>
       </c>
       <c r="S57" t="n">
-        <v>0.06201613987504908</v>
+        <v>0.05684812821879499</v>
       </c>
       <c r="T57" t="n">
         <v>0.005692014399457066</v>
@@ -7535,10 +7535,10 @@
         <v>-0</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.007582124943526772</v>
+        <v>-0.007811886305451826</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0</v>
+        <v>-0.07572147741116314</v>
       </c>
       <c r="AD57" t="n">
         <v>0.1145971674469253</v>
@@ -7553,7 +7553,7 @@
         <v>0.04944252919920467</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.2436347284167323</v>
+        <v>0.2006257649109763</v>
       </c>
       <c r="AI57" t="n">
         <v>-0</v>
@@ -7562,7 +7562,7 @@
         <v>0.1915188804052421</v>
       </c>
       <c r="AK57" t="n">
-        <v>3.244457009391536</v>
+        <v>1.225366314972728</v>
       </c>
       <c r="AL57" t="n">
         <v>-8.988068396175153</v>
@@ -7571,7 +7571,7 @@
         <v>2.381801182601639</v>
       </c>
       <c r="AN57" t="n">
-        <v>-3.361810204181979</v>
+        <v>-5.380900898600787</v>
       </c>
     </row>
     <row r="58">
@@ -7602,16 +7602,16 @@
         <v>0.130837022660583</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1921330575261842</v>
+        <v>0.2040820903998242</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.009840810754268764</v>
+        <v>-0.02385487139686507</v>
       </c>
       <c r="K58" t="n">
         <v>-0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.08361669689982469</v>
+        <v>0.06806986480925431</v>
       </c>
       <c r="M58" t="n">
         <v>0.09477786274153335</v>
@@ -7623,16 +7623,16 @@
         <v>0.1963955852845893</v>
       </c>
       <c r="P58" t="n">
-        <v>0.1145253768442347</v>
+        <v>0.1208363048469455</v>
       </c>
       <c r="Q58" t="n">
         <v>-0.04108935441671649</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.1313666721120245</v>
+        <v>-0.0893056523324751</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1475938961708789</v>
+        <v>0.1352944048233057</v>
       </c>
       <c r="T58" t="n">
         <v>0.000948531547944562</v>
@@ -7659,10 +7659,10 @@
         <v>-0.003781759196624758</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.00209477794835794</v>
+        <v>-0.00215825606800515</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0</v>
+        <v>-0.0654096563054249</v>
       </c>
       <c r="AD58" t="n">
         <v>0.1350358928530447</v>
@@ -7677,7 +7677,7 @@
         <v>-0.06517540524879202</v>
       </c>
       <c r="AH58" t="n">
-        <v>-0.5615580070140876</v>
+        <v>-0.03671160225001427</v>
       </c>
       <c r="AI58" t="n">
         <v>-0.001894995946214633</v>
@@ -7686,7 +7686,7 @@
         <v>0.04652606636635023</v>
       </c>
       <c r="AK58" t="n">
-        <v>3.228593367904735</v>
+        <v>1.641663886394294</v>
       </c>
       <c r="AL58" t="n">
         <v>-12.53772515753643</v>
@@ -7695,7 +7695,7 @@
         <v>1.926396978431585</v>
       </c>
       <c r="AN58" t="n">
-        <v>-7.382734811200111</v>
+        <v>-8.969664292710551</v>
       </c>
     </row>
     <row r="59">
@@ -7726,16 +7726,16 @@
         <v>0.09745093489044619</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1630253317537122</v>
+        <v>0.1732144149883192</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.1142495505706134</v>
+        <v>-0.1182115765958612</v>
       </c>
       <c r="K59" t="n">
         <v>-0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.08485027401683166</v>
+        <v>0.06894925525181</v>
       </c>
       <c r="M59" t="n">
         <v>0.07644444979271975</v>
@@ -7747,16 +7747,16 @@
         <v>0.1845771399347878</v>
       </c>
       <c r="P59" t="n">
-        <v>0.2194128878186359</v>
+        <v>0.2011729834233997</v>
       </c>
       <c r="Q59" t="n">
         <v>0.03487095400220977</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.002574087049314119</v>
+        <v>-0.005819737910617007</v>
       </c>
       <c r="S59" t="n">
-        <v>0.06526887665417989</v>
+        <v>0.05982980359966491</v>
       </c>
       <c r="T59" t="n">
         <v>0.005210658381574833</v>
@@ -7783,10 +7783,10 @@
         <v>-0.005210658381574833</v>
       </c>
       <c r="AB59" t="n">
-        <v>-0.01696919481924952</v>
+        <v>-0.01748341284407526</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0</v>
+        <v>-0.05718833119361568</v>
       </c>
       <c r="AD59" t="n">
         <v>0.1601331985341182</v>
@@ -7801,7 +7801,7 @@
         <v>0.06582214367187349</v>
       </c>
       <c r="AH59" t="n">
-        <v>-0.2446875212800252</v>
+        <v>0.2049363723860815</v>
       </c>
       <c r="AI59" t="n">
         <v>-0</v>
@@ -7810,7 +7810,7 @@
         <v>0.2096921549749869</v>
       </c>
       <c r="AK59" t="n">
-        <v>4.204303572249692</v>
+        <v>2.65298588384951</v>
       </c>
       <c r="AL59" t="n">
         <v>-10.79647152089053</v>
@@ -7819,7 +7819,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN59" t="n">
-        <v>-3.767175210343375</v>
+        <v>-5.318492898743556</v>
       </c>
     </row>
     <row r="60">
@@ -7850,16 +7850,16 @@
         <v>0.1763174667575844</v>
       </c>
       <c r="I60" t="n">
-        <v>0.148934802263587</v>
+        <v>0.1582432274050612</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.01028640336978883</v>
+        <v>-0.08322895940161787</v>
       </c>
       <c r="K60" t="n">
         <v>-0.001131669169169676</v>
       </c>
       <c r="L60" t="n">
-        <v>0.003160164186276697</v>
+        <v>-0.01327876457905063</v>
       </c>
       <c r="M60" t="n">
         <v>0.002249888521186409</v>
@@ -7871,16 +7871,16 @@
         <v>0.1428400896653601</v>
       </c>
       <c r="P60" t="n">
-        <v>0.01440739532453745</v>
+        <v>0.1041532069381381</v>
       </c>
       <c r="Q60" t="n">
         <v>-0.2229032079463398</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.02593662981699437</v>
+        <v>-0.04693599775854813</v>
       </c>
       <c r="S60" t="n">
-        <v>0.08658040220417146</v>
+        <v>0.07936536868715717</v>
       </c>
       <c r="T60" t="n">
         <v>0.2574069270675656</v>
@@ -7907,10 +7907,10 @@
         <v>-0.1745078880460472</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.02169021071020707</v>
+        <v>-0.02234748982263759</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.0002583970661703538</v>
+        <v>-0.01267791834000958</v>
       </c>
       <c r="AD60" t="n">
         <v>0.3060812830687395</v>
@@ -7925,7 +7925,7 @@
         <v>-0.06789036310800808</v>
       </c>
       <c r="AH60" t="n">
-        <v>-0.2388456329609615</v>
+        <v>0.1083456741489361</v>
       </c>
       <c r="AI60" t="n">
         <v>-0</v>
@@ -7934,7 +7934,7 @@
         <v>0.1005911473269495</v>
       </c>
       <c r="AK60" t="n">
-        <v>3.761022599895864</v>
+        <v>2.009063671745337</v>
       </c>
       <c r="AL60" t="n">
         <v>-11.17413998427603</v>
@@ -7943,7 +7943,7 @@
         <v>2.325179694425028</v>
       </c>
       <c r="AN60" t="n">
-        <v>-5.087937689955135</v>
+        <v>-6.839896618105662</v>
       </c>
     </row>
     <row r="61">
@@ -7974,16 +7974,16 @@
         <v>0.07956330370073404</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1306163861522957</v>
+        <v>0.1387430556917171</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.1159828739587112</v>
+        <v>-0.1141004446642984</v>
       </c>
       <c r="K61" t="n">
         <v>-0.0002938394769836401</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1523739913730948</v>
+        <v>0.1221249163591</v>
       </c>
       <c r="M61" t="n">
         <v>0.1417388822002424</v>
@@ -7995,16 +7995,16 @@
         <v>0.1291036467688066</v>
       </c>
       <c r="P61" t="n">
-        <v>0.2610734778518636</v>
+        <v>0.2216024005409317</v>
       </c>
       <c r="Q61" t="n">
         <v>0.2138369774910006</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.001452953911767014</v>
+        <v>-0.01894161488219174</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01683878621292067</v>
+        <v>0.01543555402851061</v>
       </c>
       <c r="T61" t="n">
         <v>0.008762122666665827</v>
@@ -8031,10 +8031,10 @@
         <v>-0.02799184240775296</v>
       </c>
       <c r="AB61" t="n">
-        <v>-0.01414015428264194</v>
+        <v>-0.01460435736652632</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.0001260165622803366</v>
+        <v>-0.08946301173616278</v>
       </c>
       <c r="AD61" t="n">
         <v>0.1327924765913348</v>
@@ -8049,7 +8049,7 @@
         <v>0.1742722061274753</v>
       </c>
       <c r="AH61" t="n">
-        <v>-0.06413587505770169</v>
+        <v>0.2611552002276837</v>
       </c>
       <c r="AI61" t="n">
         <v>-0.0005896735215525865</v>
@@ -8058,16 +8058,16 @@
         <v>0.25151161034134</v>
       </c>
       <c r="AK61" t="n">
-        <v>5.465496161602585</v>
+        <v>3.369757862547919</v>
       </c>
       <c r="AL61" t="n">
-        <v>-9.175246261169404</v>
+        <v>-9.177366221063243</v>
       </c>
       <c r="AM61" t="n">
         <v>2.850968133067187</v>
       </c>
       <c r="AN61" t="n">
-        <v>-0.8587819664996315</v>
+        <v>-2.956640225448137</v>
       </c>
     </row>
     <row r="62">
@@ -8098,16 +8098,16 @@
         <v>0.1033042835317771</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08068433595142459</v>
+        <v>0.08568863894246175</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.1392304007315639</v>
+        <v>-0.08366107723661252</v>
       </c>
       <c r="K62" t="n">
         <v>-0.04564513483838512</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0484517999026346</v>
+        <v>-0.1181559311857062</v>
       </c>
       <c r="M62" t="n">
         <v>0.03073145367563037</v>
@@ -8119,16 +8119,16 @@
         <v>0.1085541831972505</v>
       </c>
       <c r="P62" t="n">
-        <v>0.1529807351010598</v>
+        <v>0.1554846333808125</v>
       </c>
       <c r="Q62" t="n">
         <v>0.01525554982595952</v>
       </c>
       <c r="R62" t="n">
-        <v>0.06377531365118456</v>
+        <v>0.05945895077430782</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.0553932176700821</v>
+        <v>-0.0515389468595806</v>
       </c>
       <c r="T62" t="n">
         <v>0.001230105145802428</v>
@@ -8155,10 +8155,10 @@
         <v>-1.735781442166479</v>
       </c>
       <c r="AB62" t="n">
-        <v>-0.02153387707925089</v>
+        <v>-0.02222369472243433</v>
       </c>
       <c r="AC62" t="n">
-        <v>-0.01304146709668146</v>
+        <v>-0.0004029294525157952</v>
       </c>
       <c r="AD62" t="n">
         <v>0.1611184045102563</v>
@@ -8173,7 +8173,7 @@
         <v>0.06357664335951074</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.002239954464460311</v>
+        <v>0.1087306489556636</v>
       </c>
       <c r="AI62" t="n">
         <v>-0</v>
@@ -8182,16 +8182,16 @@
         <v>0.07266271332963334</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.7379021456869297</v>
+        <v>-0.0003446487479122906</v>
       </c>
       <c r="AL62" t="n">
-        <v>-11.75985082332704</v>
+        <v>-11.7593222248522</v>
       </c>
       <c r="AM62" t="n">
         <v>1.982485564443892</v>
       </c>
       <c r="AN62" t="n">
-        <v>-9.039463113196216</v>
+        <v>-9.777181309156218</v>
       </c>
     </row>
     <row r="63">
@@ -8222,16 +8222,16 @@
         <v>0.1865520125255146</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2096619099533742</v>
+        <v>0.2226587742586515</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.01400180299656198</v>
+        <v>-0.08129317268143121</v>
       </c>
       <c r="K63" t="n">
         <v>-0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.004222318906355731</v>
+        <v>0.003454624559745598</v>
       </c>
       <c r="M63" t="n">
         <v>0.01037388419756276</v>
@@ -8243,16 +8243,16 @@
         <v>0.1346508336630146</v>
       </c>
       <c r="P63" t="n">
-        <v>0.02204100590202212</v>
+        <v>0.1012178693091324</v>
       </c>
       <c r="Q63" t="n">
         <v>-0.2103798430034632</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.1837578873423724</v>
+        <v>-0.1227850601402122</v>
       </c>
       <c r="S63" t="n">
-        <v>0.07133889738409496</v>
+        <v>0.06532258225147758</v>
       </c>
       <c r="T63" t="n">
         <v>0.001712081068937557</v>
@@ -8279,10 +8279,10 @@
         <v>-0</v>
       </c>
       <c r="AB63" t="n">
-        <v>-0.02291887388171919</v>
+        <v>-0.02361338521146825</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0</v>
+        <v>0.0006851291333246283</v>
       </c>
       <c r="AD63" t="n">
         <v>0.2793658119751306</v>
@@ -8297,7 +8297,7 @@
         <v>0.07490437694297788</v>
       </c>
       <c r="AH63" t="n">
-        <v>-0.2805985697736326</v>
+        <v>0.2578359829134806</v>
       </c>
       <c r="AI63" t="n">
         <v>-0</v>
@@ -8306,7 +8306,7 @@
         <v>0.1501479957848963</v>
       </c>
       <c r="AK63" t="n">
-        <v>3.207009170162291</v>
+        <v>2.031209675425032</v>
       </c>
       <c r="AL63" t="n">
         <v>-11.62308959786551</v>
@@ -8315,7 +8315,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN63" t="n">
-        <v>-6.019459271277715</v>
+        <v>-7.195258766014973</v>
       </c>
     </row>
     <row r="64">
@@ -8346,16 +8346,16 @@
         <v>0.001106498061937043</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1721689042052115</v>
+        <v>0.1829294607180372</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.05342508199361142</v>
+        <v>-0.03235593102634683</v>
       </c>
       <c r="K64" t="n">
         <v>-0</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.06071633330590612</v>
+        <v>-0.05006852754691587</v>
       </c>
       <c r="M64" t="n">
         <v>0.00213892675672526</v>
@@ -8367,16 +8367,16 @@
         <v>0.1904904219058517</v>
       </c>
       <c r="P64" t="n">
-        <v>0.01051672820509255</v>
+        <v>0.007876618483030175</v>
       </c>
       <c r="Q64" t="n">
         <v>-0.3388896995080463</v>
       </c>
       <c r="R64" t="n">
-        <v>-0.2276247466056894</v>
+        <v>-0.1449305719881329</v>
       </c>
       <c r="S64" t="n">
-        <v>0.05706348112638701</v>
+        <v>0.05230819103252143</v>
       </c>
       <c r="T64" t="n">
         <v>0.477870833804408</v>
@@ -8403,10 +8403,10 @@
         <v>-0.004306803262919562</v>
       </c>
       <c r="AB64" t="n">
-        <v>-0.0001486668905218245</v>
+        <v>-0.0001531719478103646</v>
       </c>
       <c r="AC64" t="n">
-        <v>6.17703000231266e-05</v>
+        <v>-0.04938359992024777</v>
       </c>
       <c r="AD64" t="n">
         <v>0.001936371608389826</v>
@@ -8421,7 +8421,7 @@
         <v>0.0464460968039925</v>
       </c>
       <c r="AH64" t="n">
-        <v>-0.2468367135017026</v>
+        <v>0.05891792360548104</v>
       </c>
       <c r="AI64" t="n">
         <v>-0</v>
@@ -8430,7 +8430,7 @@
         <v>-0.1690909868415308</v>
       </c>
       <c r="AK64" t="n">
-        <v>2.394849484614606</v>
+        <v>1.642892581146723</v>
       </c>
       <c r="AL64" t="n">
         <v>-12.75338850422631</v>
@@ -8439,7 +8439,7 @@
         <v>2.266209328061446</v>
       </c>
       <c r="AN64" t="n">
-        <v>-8.092329691550258</v>
+        <v>-8.844286595018142</v>
       </c>
     </row>
     <row r="65">
@@ -8470,16 +8470,16 @@
         <v>0.1978260939635606</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2046934350642717</v>
+        <v>0.2174867747557887</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.09259318552825675</v>
+        <v>-0.08890344450477636</v>
       </c>
       <c r="K65" t="n">
         <v>-0.02944211818839941</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01735266492084075</v>
+        <v>0.01300473265067961</v>
       </c>
       <c r="M65" t="n">
         <v>0.1144005253458704</v>
@@ -8491,16 +8491,16 @@
         <v>0.2060167704096181</v>
       </c>
       <c r="P65" t="n">
-        <v>0.1023841281594277</v>
+        <v>0.1391003361352557</v>
       </c>
       <c r="Q65" t="n">
         <v>-0.1798949598392651</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.1051899499301452</v>
+        <v>-0.1057641813154225</v>
       </c>
       <c r="S65" t="n">
-        <v>0.06329164179029467</v>
+        <v>0.05801733830777012</v>
       </c>
       <c r="T65" t="n">
         <v>0.0008318386000059342</v>
@@ -8527,10 +8527,10 @@
         <v>-0.0131219251300911</v>
       </c>
       <c r="AB65" t="n">
-        <v>-0.02423676463767701</v>
+        <v>-0.02499641928124316</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.008412033768114119</v>
+        <v>-0.02409830975228122</v>
       </c>
       <c r="AD65" t="n">
         <v>0.2217118040808687</v>
@@ -8545,7 +8545,7 @@
         <v>0.03518558042626725</v>
       </c>
       <c r="AH65" t="n">
-        <v>-0.3716908001918977</v>
+        <v>0.1400400666801837</v>
       </c>
       <c r="AI65" t="n">
         <v>-0.0008318386000059342</v>
@@ -8554,16 +8554,16 @@
         <v>0.05795441806135042</v>
       </c>
       <c r="AK65" t="n">
-        <v>4.819280237339909</v>
+        <v>3.136414516784874</v>
       </c>
       <c r="AL65" t="n">
-        <v>-11.11427936865096</v>
+        <v>-11.11417087530666</v>
       </c>
       <c r="AM65" t="n">
         <v>3.229072804533929</v>
       </c>
       <c r="AN65" t="n">
-        <v>-3.065926326777126</v>
+        <v>-4.748683553987856</v>
       </c>
     </row>
     <row r="66">
@@ -8594,16 +8594,16 @@
         <v>0.08960804437936414</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1780385971673384</v>
+        <v>0.189166009490297</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.1220038646868071</v>
+        <v>-0.08414643828147565</v>
       </c>
       <c r="K66" t="n">
         <v>-0.03449045856433613</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03833189951774353</v>
+        <v>0.01241827511076329</v>
       </c>
       <c r="M66" t="n">
         <v>0.03846756916516873</v>
@@ -8615,16 +8615,16 @@
         <v>0.2334028192776819</v>
       </c>
       <c r="P66" t="n">
-        <v>0.1785165298093064</v>
+        <v>0.1708797522556401</v>
       </c>
       <c r="Q66" t="n">
         <v>-0.1279454977755446</v>
       </c>
       <c r="R66" t="n">
-        <v>0.01621446359270814</v>
+        <v>0.0008543098427762314</v>
       </c>
       <c r="S66" t="n">
-        <v>0.07655044794588495</v>
+        <v>0.07017124395039454</v>
       </c>
       <c r="T66" t="n">
         <v>0.002702077333419527</v>
@@ -8651,10 +8651,10 @@
         <v>-0.2083860694412956</v>
       </c>
       <c r="AB66" t="n">
-        <v>-0.01151561667899816</v>
+        <v>-0.01186457476017993</v>
       </c>
       <c r="AC66" t="n">
-        <v>-0.009725479347129001</v>
+        <v>-0.04813018166668244</v>
       </c>
       <c r="AD66" t="n">
         <v>0.1536970027598906</v>
@@ -8669,7 +8669,7 @@
         <v>0.03493161859882919</v>
       </c>
       <c r="AH66" t="n">
-        <v>-0.330982189320512</v>
+        <v>0.07038122788435645</v>
       </c>
       <c r="AI66" t="n">
         <v>-0.0009025616987692496</v>
@@ -8678,7 +8678,7 @@
         <v>0.06158194480999297</v>
       </c>
       <c r="AK66" t="n">
-        <v>3.417431763113794</v>
+        <v>1.972980687074425</v>
       </c>
       <c r="AL66" t="n">
         <v>-9.977139786237682</v>
@@ -8687,7 +8687,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN66" t="n">
-        <v>-3.99995378574276</v>
+        <v>-5.444404861782131</v>
       </c>
     </row>
     <row r="67">
@@ -8718,16 +8718,16 @@
         <v>0.0561069569659809</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1459558991556604</v>
+        <v>0.1550209542740807</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.08063149598244902</v>
+        <v>-0.10432978380864</v>
       </c>
       <c r="K67" t="n">
         <v>-0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.05800554353740538</v>
+        <v>0.04449235959289388</v>
       </c>
       <c r="M67" t="n">
         <v>0.1226714319289581</v>
@@ -8739,16 +8739,16 @@
         <v>0.1156254353165366</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1628580028129716</v>
+        <v>0.1392296752402158</v>
       </c>
       <c r="Q67" t="n">
         <v>0.08562704402152449</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.09688529200249082</v>
+        <v>-0.0835705419264843</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0425244541559251</v>
+        <v>0.03898074964293134</v>
       </c>
       <c r="T67" t="n">
         <v>0.007266720167856608</v>
@@ -8775,10 +8775,10 @@
         <v>-0.03263393631481569</v>
       </c>
       <c r="AB67" t="n">
-        <v>-0.00486232998684009</v>
+        <v>-0.005009673319774638</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0</v>
+        <v>-0.07795692037110448</v>
       </c>
       <c r="AD67" t="n">
         <v>0.08606593820151551</v>
@@ -8793,7 +8793,7 @@
         <v>0.2079261701159254</v>
       </c>
       <c r="AH67" t="n">
-        <v>-0.16154295006783</v>
+        <v>0.2818691704441595</v>
       </c>
       <c r="AI67" t="n">
         <v>-0</v>
@@ -8802,7 +8802,7 @@
         <v>0.2502810135289197</v>
       </c>
       <c r="AK67" t="n">
-        <v>4.552914545239195</v>
+        <v>2.787276177656723</v>
       </c>
       <c r="AL67" t="n">
         <v>-9.588571811947475</v>
@@ -8811,7 +8811,7 @@
         <v>2.988979749536568</v>
       </c>
       <c r="AN67" t="n">
-        <v>-2.046677517171711</v>
+        <v>-3.812315884754184</v>
       </c>
     </row>
     <row r="68">
@@ -8842,16 +8842,16 @@
         <v>0.1386270976641105</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1569262126949667</v>
+        <v>0.1666213439247285</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.145548220598872</v>
+        <v>-0.1393512641043835</v>
       </c>
       <c r="K68" t="n">
         <v>-0.008264670273491051</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05729824048923265</v>
+        <v>0.04663461795950737</v>
       </c>
       <c r="M68" t="n">
         <v>0.1361427904556596</v>
@@ -8863,16 +8863,16 @@
         <v>0.1682940899127871</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2476789399901447</v>
+        <v>0.2376802882632724</v>
       </c>
       <c r="Q68" t="n">
         <v>0.1585290770381691</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05562137995616933</v>
+        <v>-0.002450581735226051</v>
       </c>
       <c r="S68" t="n">
-        <v>0.03444256578709881</v>
+        <v>0.03090067404450307</v>
       </c>
       <c r="T68" t="n">
         <v>0.02374505912415822</v>
@@ -8899,10 +8899,10 @@
         <v>-0.002703366848512778</v>
       </c>
       <c r="AB68" t="n">
-        <v>-0.03033550116555248</v>
+        <v>-0.03128212221063911</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.002361334363854586</v>
+        <v>-0.0553314602756915</v>
       </c>
       <c r="AD68" t="n">
         <v>0.2151833218778098</v>
@@ -8917,7 +8917,7 @@
         <v>0.04442795476193934</v>
       </c>
       <c r="AH68" t="n">
-        <v>-0.1980491374696239</v>
+        <v>0.1825997922751056</v>
       </c>
       <c r="AI68" t="n">
         <v>-0.00180411301877858</v>
@@ -8926,16 +8926,16 @@
         <v>0.2551242350281372</v>
       </c>
       <c r="AK68" t="n">
-        <v>5.330291203911943</v>
+        <v>3.036644677300227</v>
       </c>
       <c r="AL68" t="n">
-        <v>-10.00089999059192</v>
+        <v>-10.00104715613588</v>
       </c>
       <c r="AM68" t="n">
         <v>3.157101240805398</v>
       </c>
       <c r="AN68" t="n">
-        <v>-1.513507545874581</v>
+        <v>-3.807301238030259</v>
       </c>
     </row>
     <row r="69">
@@ -8966,16 +8966,16 @@
         <v>0.1023654188510936</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1867208170578816</v>
+        <v>0.1983908681239992</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.08921919878897339</v>
+        <v>-0.1274140769551935</v>
       </c>
       <c r="K69" t="n">
         <v>-0.001020980038363636</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.002309713818756446</v>
+        <v>-0.02200657312743388</v>
       </c>
       <c r="M69" t="n">
         <v>0.004350407978927273</v>
@@ -8987,16 +8987,16 @@
         <v>0.1770374717794658</v>
       </c>
       <c r="P69" t="n">
-        <v>0.1112709308099314</v>
+        <v>0.1314250940664306</v>
       </c>
       <c r="Q69" t="n">
         <v>-0.09694350533948069</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.05591682571922722</v>
+        <v>-0.04089279445390519</v>
       </c>
       <c r="S69" t="n">
-        <v>0.08978149565314072</v>
+        <v>0.08229970434871232</v>
       </c>
       <c r="T69" t="n">
         <v>0.001365578215028945</v>
@@ -9023,10 +9023,10 @@
         <v>-0.2212848800329647</v>
       </c>
       <c r="AB69" t="n">
-        <v>-0.01467492832962354</v>
+        <v>-0.01511962312749092</v>
       </c>
       <c r="AC69" t="n">
-        <v>6.095769790444821e-07</v>
+        <v>-0.01385938212983968</v>
       </c>
       <c r="AD69" t="n">
         <v>0.1767719613935537</v>
@@ -9041,7 +9041,7 @@
         <v>0.04029914031208475</v>
       </c>
       <c r="AH69" t="n">
-        <v>-0.3388421440492537</v>
+        <v>0.2342566273835728</v>
       </c>
       <c r="AI69" t="n">
         <v>-0.01611019496906826</v>
@@ -9050,7 +9050,7 @@
         <v>0.1496466899910836</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.783080607061495</v>
+        <v>0.7906492219423855</v>
       </c>
       <c r="AL69" t="n">
         <v>-10.76980608506283</v>
@@ -9059,7 +9059,7 @@
         <v>2.287494107006678</v>
       </c>
       <c r="AN69" t="n">
-        <v>-6.69923137099466</v>
+        <v>-7.69166275611377</v>
       </c>
     </row>
     <row r="70">
@@ -9090,16 +9090,16 @@
         <v>0.07392119710186267</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1321780475238428</v>
+        <v>0.140439175494083</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.1457503527715636</v>
+        <v>-0.1054796947187984</v>
       </c>
       <c r="K70" t="n">
         <v>-0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.09186754468203705</v>
+        <v>0.07465506466802117</v>
       </c>
       <c r="M70" t="n">
         <v>0.07048439813354969</v>
@@ -9111,16 +9111,16 @@
         <v>0.1868997672700651</v>
       </c>
       <c r="P70" t="n">
-        <v>0.2567004971421444</v>
+        <v>0.2129335261732255</v>
       </c>
       <c r="Q70" t="n">
         <v>0.08246026556980686</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1414458005375516</v>
+        <v>0.04464577457437435</v>
       </c>
       <c r="S70" t="n">
-        <v>0.05564567378192007</v>
+        <v>0.0510085343000934</v>
       </c>
       <c r="T70" t="n">
         <v>0.001875437909935059</v>
@@ -9147,10 +9147,10 @@
         <v>-0.005602190790100545</v>
       </c>
       <c r="AB70" t="n">
-        <v>-0.006372374501474947</v>
+        <v>-0.006565476759095399</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0</v>
+        <v>-0.06235458800573528</v>
       </c>
       <c r="AD70" t="n">
         <v>0.1144578414931581</v>
@@ -9165,7 +9165,7 @@
         <v>0.0145093266706644</v>
       </c>
       <c r="AH70" t="n">
-        <v>-0.2100175541270403</v>
+        <v>0.05770272266405893</v>
       </c>
       <c r="AI70" t="n">
         <v>-0.01659432812192123</v>
@@ -9174,7 +9174,7 @@
         <v>0.1484475430409893</v>
       </c>
       <c r="AK70" t="n">
-        <v>5.315710735282374</v>
+        <v>3.372450292909533</v>
       </c>
       <c r="AL70" t="n">
         <v>-8.051898171241968</v>
@@ -9183,7 +9183,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN70" t="n">
-        <v>-0.6571497396787129</v>
+        <v>-2.600410182051553</v>
       </c>
     </row>
     <row r="71">
@@ -9214,16 +9214,16 @@
         <v>0.08053772149006198</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1398647333270002</v>
+        <v>0.1486062791599377</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.1020070421326662</v>
+        <v>-0.1371518953010757</v>
       </c>
       <c r="K71" t="n">
         <v>-0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0811999861464162</v>
+        <v>0.06346677642291534</v>
       </c>
       <c r="M71" t="n">
         <v>0.09890077356473281</v>
@@ -9235,16 +9235,16 @@
         <v>0.1368287075044295</v>
       </c>
       <c r="P71" t="n">
-        <v>0.2067708337131816</v>
+        <v>0.1851390684335161</v>
       </c>
       <c r="Q71" t="n">
         <v>0.0746015644287376</v>
       </c>
       <c r="R71" t="n">
-        <v>0.01559960914183369</v>
+        <v>-0.04288828938505157</v>
       </c>
       <c r="S71" t="n">
-        <v>0.02571784675479452</v>
+        <v>0.02357469285856165</v>
       </c>
       <c r="T71" t="n">
         <v>-0</v>
@@ -9271,10 +9271,10 @@
         <v>-0.032665334665677</v>
       </c>
       <c r="AB71" t="n">
-        <v>-0.01266368740527084</v>
+        <v>-0.01304743550846086</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0</v>
+        <v>-0.07236072407094767</v>
       </c>
       <c r="AD71" t="n">
         <v>0.1364675965542685</v>
@@ -9289,7 +9289,7 @@
         <v>0.0786935848235526</v>
       </c>
       <c r="AH71" t="n">
-        <v>-0.1062887800397391</v>
+        <v>0.2874338891586429</v>
       </c>
       <c r="AI71" t="n">
         <v>-0.01031504329624333</v>
@@ -9298,7 +9298,7 @@
         <v>0.2962130218452153</v>
       </c>
       <c r="AK71" t="n">
-        <v>4.799128275368934</v>
+        <v>2.577781906692895</v>
       </c>
       <c r="AL71" t="n">
         <v>-7.257492808936884</v>
@@ -9307,7 +9307,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.2529032484810698</v>
+        <v>-1.968443120194969</v>
       </c>
     </row>
     <row r="72">
@@ -9338,16 +9338,16 @@
         <v>0.01440707217608029</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08260693827917727</v>
+        <v>0.08776987192162584</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.07482033130181164</v>
+        <v>-0.1116892904719424</v>
       </c>
       <c r="K72" t="n">
         <v>-0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.003210246118217007</v>
+        <v>0.002626565005813914</v>
       </c>
       <c r="M72" t="n">
         <v>0.005752910560177216</v>
@@ -9359,16 +9359,16 @@
         <v>0.07969351374420039</v>
       </c>
       <c r="P72" t="n">
-        <v>0.1011489486742053</v>
+        <v>0.07339350313002665</v>
       </c>
       <c r="Q72" t="n">
         <v>-0.002589387370724162</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.04040629416375178</v>
+        <v>-0.05376039303069418</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01623776838638329</v>
+        <v>0.01488462102085135</v>
       </c>
       <c r="T72" t="n">
         <v>-0</v>
@@ -9395,10 +9395,10 @@
         <v>-0</v>
       </c>
       <c r="AB72" t="n">
-        <v>-0.0009995481358422375</v>
+        <v>-0.001029837473292002</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0</v>
+        <v>-0.01845196292108432</v>
       </c>
       <c r="AD72" t="n">
         <v>0.0109437506556248</v>
@@ -9413,7 +9413,7 @@
         <v>0.0998350651696831</v>
       </c>
       <c r="AH72" t="n">
-        <v>-0.05995163778517078</v>
+        <v>0.2896507508181884</v>
       </c>
       <c r="AI72" t="n">
         <v>-0.01708647896843243</v>
@@ -9422,7 +9422,7 @@
         <v>0.1372258480690412</v>
       </c>
       <c r="AK72" t="n">
-        <v>0.9305593800305524</v>
+        <v>0.3014846694004148</v>
       </c>
       <c r="AL72" t="n">
         <v>-9.571466211515009</v>
@@ -9431,7 +9431,7 @@
         <v>1.731238145367616</v>
       </c>
       <c r="AN72" t="n">
-        <v>-6.909668686116841</v>
+        <v>-7.538743396746979</v>
       </c>
     </row>
     <row r="73">
@@ -9462,16 +9462,16 @@
         <v>0.2170315602004781</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1814008935419831</v>
+        <v>0.1927384493883571</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.002599083952023257</v>
+        <v>-0.002207097676631516</v>
       </c>
       <c r="K73" t="n">
         <v>-0.07936123483583486</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001748064844377158</v>
+        <v>-0.06678821311241992</v>
       </c>
       <c r="M73" t="n">
         <v>0.002512268405941246</v>
@@ -9483,16 +9483,16 @@
         <v>0.05400764810008799</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.02964728127656829</v>
+        <v>0.09633810691647939</v>
       </c>
       <c r="Q73" t="n">
         <v>-0.1729559836450931</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.09020048695866377</v>
+        <v>-0.08295419512876653</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.08895145319301406</v>
+        <v>-0.08153883209359622</v>
       </c>
       <c r="T73" t="n">
         <v>0.6501239411801965</v>
@@ -9519,10 +9519,10 @@
         <v>-0.7504029278360136</v>
       </c>
       <c r="AB73" t="n">
-        <v>-0.007736564450065956</v>
+        <v>-0.007971005797037653</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.02205477573132225</v>
+        <v>0.1000979214520825</v>
       </c>
       <c r="AD73" t="n">
         <v>0.3798052303508366</v>
@@ -9537,7 +9537,7 @@
         <v>0.03393234710383843</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.2292122332083899</v>
+        <v>0.08714914646291222</v>
       </c>
       <c r="AI73" t="n">
         <v>-0.01295294610835125</v>
@@ -9546,7 +9546,7 @@
         <v>-0.06105438824678395</v>
       </c>
       <c r="AK73" t="n">
-        <v>2.053605891123485</v>
+        <v>1.665233452047614</v>
       </c>
       <c r="AL73" t="n">
         <v>-12.24689581688748</v>
@@ -9555,7 +9555,7 @@
         <v>3.022534412543458</v>
       </c>
       <c r="AN73" t="n">
-        <v>-7.170755513220536</v>
+        <v>-7.559127952296407</v>
       </c>
     </row>
     <row r="74">
@@ -9586,16 +9586,16 @@
         <v>0.1206413747751193</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1346350055593877</v>
+        <v>0.1427973669264145</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.04523036670346617</v>
+        <v>-0.103405287124918</v>
       </c>
       <c r="K74" t="n">
         <v>-0.08957729822323099</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.02171775415435426</v>
+        <v>-0.06408605458055663</v>
       </c>
       <c r="M74" t="n">
         <v>0.07615147850427884</v>
@@ -9607,16 +9607,16 @@
         <v>0.06484723502595981</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.002448531250769239</v>
+        <v>0.06264735227891033</v>
       </c>
       <c r="Q74" t="n">
         <v>-0.1318621599341677</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.1889780808121177</v>
+        <v>-0.1258988731928457</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.04901222665961796</v>
+        <v>-0.04492787443798313</v>
       </c>
       <c r="T74" t="n">
         <v>0.01982096605637848</v>
@@ -9643,10 +9643,10 @@
         <v>-0.5094868129969347</v>
       </c>
       <c r="AB74" t="n">
-        <v>-0.01339331391374013</v>
+        <v>-0.01379917191112619</v>
       </c>
       <c r="AC74" t="n">
-        <v>-0.02549709123859855</v>
+        <v>0.04872531147134141</v>
       </c>
       <c r="AD74" t="n">
         <v>0.2091130902206894</v>
@@ -9661,7 +9661,7 @@
         <v>0.1241481677524863</v>
       </c>
       <c r="AH74" t="n">
-        <v>-0.006651295577540948</v>
+        <v>0.3891505830635718</v>
       </c>
       <c r="AI74" t="n">
         <v>-0.01462319613317591</v>
@@ -9670,7 +9670,7 @@
         <v>0.1539807218308993</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.622225307908703</v>
+        <v>1.443833144085689</v>
       </c>
       <c r="AL74" t="n">
         <v>-8.451166396474795</v>
@@ -9679,7 +9679,7 @@
         <v>2.252956910384702</v>
       </c>
       <c r="AN74" t="n">
-        <v>-4.57598417818139</v>
+        <v>-4.754376342004404</v>
       </c>
     </row>
     <row r="75">
@@ -9710,16 +9710,16 @@
         <v>0.05833318866906961</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1522446161386452</v>
+        <v>0.1617599046473105</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.002797821757257398</v>
+        <v>-0.06419065257961712</v>
       </c>
       <c r="K75" t="n">
         <v>-0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1014812010409403</v>
+        <v>0.05102952186239273</v>
       </c>
       <c r="M75" t="n">
         <v>0.117735417864723</v>
@@ -9731,16 +9731,16 @@
         <v>0.06986495807477031</v>
       </c>
       <c r="P75" t="n">
-        <v>0.09986703284469885</v>
+        <v>0.09563610145830258</v>
       </c>
       <c r="Q75" t="n">
         <v>0.1210712892290924</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.2354782399721667</v>
+        <v>-0.1588698735380415</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0470751945317795</v>
+        <v>0.04315226165413121</v>
       </c>
       <c r="T75" t="n">
         <v>-0</v>
@@ -9767,10 +9767,10 @@
         <v>-0.3520060688821427</v>
       </c>
       <c r="AB75" t="n">
-        <v>-0.003210795561023635</v>
+        <v>-0.00330809239620617</v>
       </c>
       <c r="AC75" t="n">
-        <v>-0</v>
+        <v>-0.1167013704746699</v>
       </c>
       <c r="AD75" t="n">
         <v>0.0861165058389109</v>
@@ -9785,7 +9785,7 @@
         <v>0.1157223841430462</v>
       </c>
       <c r="AH75" t="n">
-        <v>-0.172710692540924</v>
+        <v>0.2988185096413778</v>
       </c>
       <c r="AI75" t="n">
         <v>-0.01559386574710754</v>
@@ -9794,7 +9794,7 @@
         <v>0.2600695389083036</v>
       </c>
       <c r="AK75" t="n">
-        <v>2.553018806959876</v>
+        <v>0.3574902083133086</v>
       </c>
       <c r="AL75" t="n">
         <v>-11.40806703865609</v>
@@ -9803,7 +9803,7 @@
         <v>2.315864572906233</v>
       </c>
       <c r="AN75" t="n">
-        <v>-6.539183658789983</v>
+        <v>-8.734712257436552</v>
       </c>
     </row>
     <row r="76">
@@ -9834,16 +9834,16 @@
         <v>0.06975524642241571</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1223170225613227</v>
+        <v>0.1299618364714054</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.1391069800421757</v>
+        <v>-0.1210289927535031</v>
       </c>
       <c r="K76" t="n">
         <v>-0.005194150277915617</v>
       </c>
       <c r="L76" t="n">
-        <v>0.09253639523938745</v>
+        <v>0.06609446057717602</v>
       </c>
       <c r="M76" t="n">
         <v>0.06442936508535628</v>
@@ -9855,16 +9855,16 @@
         <v>0.1807952781810349</v>
       </c>
       <c r="P76" t="n">
-        <v>0.2342506492792947</v>
+        <v>0.1963845929640857</v>
       </c>
       <c r="Q76" t="n">
         <v>0.07300367156811285</v>
       </c>
       <c r="R76" t="n">
-        <v>0.09468430346940074</v>
+        <v>0.01942349821648347</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0522989046341334</v>
+        <v>0.04794066258128895</v>
       </c>
       <c r="T76" t="n">
         <v>0.006989681441802116</v>
@@ -9891,10 +9891,10 @@
         <v>-0.1057884908055507</v>
       </c>
       <c r="AB76" t="n">
-        <v>-0.0104843438927014</v>
+        <v>-0.01080205128338932</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.001484042936547319</v>
+        <v>-0.06298057964366817</v>
       </c>
       <c r="AD76" t="n">
         <v>0.1111859662548655</v>
@@ -9909,7 +9909,7 @@
         <v>0.07595082986595664</v>
       </c>
       <c r="AH76" t="n">
-        <v>-0.2139796006575271</v>
+        <v>0.1386076559212341</v>
       </c>
       <c r="AI76" t="n">
         <v>-0</v>
@@ -9918,7 +9918,7 @@
         <v>0.1641204189601657</v>
       </c>
       <c r="AK76" t="n">
-        <v>4.952421181829996</v>
+        <v>3.113836978251024</v>
       </c>
       <c r="AL76" t="n">
         <v>-7.73280622254592</v>
@@ -9927,7 +9927,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN76" t="n">
-        <v>-0.4073304121710208</v>
+        <v>-2.245914615749992</v>
       </c>
     </row>
     <row r="77">
@@ -9958,16 +9958,16 @@
         <v>0.08445587776901475</v>
       </c>
       <c r="I77" t="n">
-        <v>0.08435976748701404</v>
+        <v>0.08963225295495242</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.146598744266175</v>
+        <v>-0.1137959019201923</v>
       </c>
       <c r="K77" t="n">
         <v>-0.002101354937564335</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1226664587805571</v>
+        <v>0.09848017733728166</v>
       </c>
       <c r="M77" t="n">
         <v>0.07192481424041784</v>
@@ -9979,16 +9979,16 @@
         <v>0.1764628041226624</v>
       </c>
       <c r="P77" t="n">
-        <v>0.2504968607226845</v>
+        <v>0.2132080240704103</v>
       </c>
       <c r="Q77" t="n">
         <v>0.09558048304300205</v>
       </c>
       <c r="R77" t="n">
-        <v>0.205736864725067</v>
+        <v>0.09791311035947158</v>
       </c>
       <c r="S77" t="n">
-        <v>0.05283685085521581</v>
+        <v>0.04843377995061449</v>
       </c>
       <c r="T77" t="n">
         <v>-0</v>
@@ -10015,10 +10015,10 @@
         <v>-0.02071617831491532</v>
       </c>
       <c r="AB77" t="n">
-        <v>-0.01252167960261534</v>
+        <v>-0.01290112443905823</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.0006003871250183814</v>
+        <v>-0.06151996339107698</v>
       </c>
       <c r="AD77" t="n">
         <v>0.1293081416027932</v>
@@ -10033,7 +10033,7 @@
         <v>-0.02956405641313182</v>
       </c>
       <c r="AH77" t="n">
-        <v>-0.2020873408332307</v>
+        <v>0.02868724535358572</v>
       </c>
       <c r="AI77" t="n">
         <v>-0</v>
@@ -10042,7 +10042,7 @@
         <v>0.1792086940263051</v>
       </c>
       <c r="AK77" t="n">
-        <v>6.078041489942766</v>
+        <v>4.21921198671791</v>
       </c>
       <c r="AL77" t="n">
         <v>-8.227310405747662</v>
@@ -10051,7 +10051,7 @@
         <v>1.85321162898101</v>
       </c>
       <c r="AN77" t="n">
-        <v>-0.296057286823886</v>
+        <v>-2.154886790048742</v>
       </c>
     </row>
     <row r="78">
@@ -10082,16 +10082,16 @@
         <v>0.0512119406143225</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1149679897551102</v>
+        <v>0.1221534891148046</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.1313095942803091</v>
+        <v>-0.1265797911851548</v>
       </c>
       <c r="K78" t="n">
         <v>-0.0007929747524400644</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07340771301144555</v>
+        <v>0.06006085610027363</v>
       </c>
       <c r="M78" t="n">
         <v>0.07412558218802766</v>
@@ -10103,16 +10103,16 @@
         <v>0.1739290156262727</v>
       </c>
       <c r="P78" t="n">
-        <v>0.2402639989831566</v>
+        <v>0.1927097528796795</v>
       </c>
       <c r="Q78" t="n">
         <v>0.05968504246758631</v>
       </c>
       <c r="R78" t="n">
-        <v>0.06656640041067598</v>
+        <v>-0.001789762664978961</v>
       </c>
       <c r="S78" t="n">
-        <v>0.04281242787618154</v>
+        <v>0.03924472555316642</v>
       </c>
       <c r="T78" t="n">
         <v>-0</v>
@@ -10139,10 +10139,10 @@
         <v>-0</v>
       </c>
       <c r="AB78" t="n">
-        <v>-0.00275253970460144</v>
+        <v>-0.002835949998680272</v>
       </c>
       <c r="AC78" t="n">
-        <v>-0.0002265642149828755</v>
+        <v>-0.08191273414502338</v>
       </c>
       <c r="AD78" t="n">
         <v>0.08571269914685582</v>
@@ -10157,7 +10157,7 @@
         <v>0.06047237287187448</v>
       </c>
       <c r="AH78" t="n">
-        <v>-0.1683421999234109</v>
+        <v>0.1950755526322664</v>
       </c>
       <c r="AI78" t="n">
         <v>-0</v>
@@ -10166,7 +10166,7 @@
         <v>0.1988064577048137</v>
       </c>
       <c r="AK78" t="n">
-        <v>4.743130340286416</v>
+        <v>2.685936339334142</v>
       </c>
       <c r="AL78" t="n">
         <v>-8.180690025420565</v>
@@ -10175,7 +10175,7 @@
         <v>2.366002688000143</v>
       </c>
       <c r="AN78" t="n">
-        <v>-1.071556997134007</v>
+        <v>-3.12875099808628</v>
       </c>
     </row>
     <row r="79">
@@ -10206,16 +10206,16 @@
         <v>0.07801908050869309</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1438559097928684</v>
+        <v>0.1528469041549226</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.09913967921699436</v>
+        <v>-0.1022932654150409</v>
       </c>
       <c r="K79" t="n">
         <v>-0.001779905383110132</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05811412610683131</v>
+        <v>0.04503033131623136</v>
       </c>
       <c r="M79" t="n">
         <v>0.1143244978281343</v>
@@ -10227,16 +10227,16 @@
         <v>0.08643013370053262</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1657723824939065</v>
+        <v>0.1554285198791158</v>
       </c>
       <c r="Q79" t="n">
         <v>0.08755677854226658</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.1042079169565722</v>
+        <v>-0.1047770998672223</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.02131606996382249</v>
+        <v>-0.01953973080017062</v>
       </c>
       <c r="T79" t="n">
         <v>0.003559810766220264</v>
@@ -10263,10 +10263,10 @@
         <v>-0.0276934904829368</v>
       </c>
       <c r="AB79" t="n">
-        <v>-0.01885317898323453</v>
+        <v>-0.01942448743727194</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.0005085443951743234</v>
+        <v>-0.07003143663260229</v>
       </c>
       <c r="AD79" t="n">
         <v>0.1321548289958371</v>
@@ -10281,7 +10281,7 @@
         <v>0.2446846203169355</v>
       </c>
       <c r="AH79" t="n">
-        <v>-0.01213449639293247</v>
+        <v>0.3142824396579645</v>
       </c>
       <c r="AI79" t="n">
         <v>-0.003559810766220264</v>
@@ -10290,7 +10290,7 @@
         <v>0.2587909806757508</v>
       </c>
       <c r="AK79" t="n">
-        <v>5.820495240984341</v>
+        <v>3.797125548673671</v>
       </c>
       <c r="AL79" t="n">
         <v>-7.408550219087493</v>
@@ -10299,7 +10299,7 @@
         <v>3.200478627683012</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.61242364957986</v>
+        <v>-0.4109460427308096</v>
       </c>
     </row>
     <row r="80">
@@ -10330,16 +10330,16 @@
         <v>0.09727455189618292</v>
       </c>
       <c r="I80" t="n">
-        <v>0.11124369096229</v>
+        <v>0.1179661572437906</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.1402841549196238</v>
+        <v>-0.129309724840182</v>
       </c>
       <c r="K80" t="n">
         <v>-0.0009210576145700464</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1221193918157448</v>
+        <v>0.09991586603106391</v>
       </c>
       <c r="M80" t="n">
         <v>0.1124511474697463</v>
@@ -10351,16 +10351,16 @@
         <v>0.1546724759162369</v>
       </c>
       <c r="P80" t="n">
-        <v>0.2501532847803341</v>
+        <v>0.2217974056878543</v>
       </c>
       <c r="Q80" t="n">
         <v>0.1002147421579868</v>
       </c>
       <c r="R80" t="n">
-        <v>0.07409081710200383</v>
+        <v>-0.02171096068463508</v>
       </c>
       <c r="S80" t="n">
-        <v>0.007254261870528151</v>
+        <v>0.006649740047984139</v>
       </c>
       <c r="T80" t="n">
         <v>0.01455302797689131</v>
@@ -10387,10 +10387,10 @@
         <v>-0</v>
       </c>
       <c r="AB80" t="n">
-        <v>-0.02158504956767094</v>
+        <v>-0.02223914197881248</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.0002631593184485847</v>
+        <v>-0.08496979411707818</v>
       </c>
       <c r="AD80" t="n">
         <v>0.1579966777297749</v>
@@ -10405,7 +10405,7 @@
         <v>0.08490810128386778</v>
       </c>
       <c r="AH80" t="n">
-        <v>-0.08911246899179726</v>
+        <v>0.1983999461865253</v>
       </c>
       <c r="AI80" t="n">
         <v>-0</v>
@@ -10414,7 +10414,7 @@
         <v>0.2861381433895524</v>
       </c>
       <c r="AK80" t="n">
-        <v>6.546242328081538</v>
+        <v>3.856647720080543</v>
       </c>
       <c r="AL80" t="n">
         <v>-5.731459250048257</v>
@@ -10423,7 +10423,7 @@
         <v>2.807904940120132</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.622688018153414</v>
+        <v>0.9330934101524186</v>
       </c>
     </row>
     <row r="81">
@@ -10454,16 +10454,16 @@
         <v>0.1008320287724563</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1241829383944411</v>
+        <v>0.1319443720440937</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.1361556514488491</v>
+        <v>-0.114020460722323</v>
       </c>
       <c r="K81" t="n">
         <v>-0.0007059887055534893</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1013963448285801</v>
+        <v>0.08296064576883827</v>
       </c>
       <c r="M81" t="n">
         <v>0.05209155973303845</v>
@@ -10475,16 +10475,16 @@
         <v>0.1580927544519651</v>
       </c>
       <c r="P81" t="n">
-        <v>0.2241192306503879</v>
+        <v>0.2024064177114895</v>
       </c>
       <c r="Q81" t="n">
         <v>0.027510354199393</v>
       </c>
       <c r="R81" t="n">
-        <v>0.06526526793926941</v>
+        <v>-0.02970114615332659</v>
       </c>
       <c r="S81" t="n">
-        <v>0.0221834423330918</v>
+        <v>0.02033482213866748</v>
       </c>
       <c r="T81" t="n">
         <v>-0</v>
@@ -10511,10 +10511,10 @@
         <v>-0</v>
       </c>
       <c r="AB81" t="n">
-        <v>-0.009908591271651125</v>
+        <v>-0.01020885161321631</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.0002017110587295684</v>
+        <v>-0.04999073025387538</v>
       </c>
       <c r="AD81" t="n">
         <v>0.1535525885989682</v>
@@ -10529,7 +10529,7 @@
         <v>0.08707440385397117</v>
       </c>
       <c r="AH81" t="n">
-        <v>-0.09926501293498348</v>
+        <v>0.1903666681555512</v>
       </c>
       <c r="AI81" t="n">
         <v>-0</v>
@@ -10538,7 +10538,7 @@
         <v>0.2126870273645982</v>
       </c>
       <c r="AK81" t="n">
-        <v>5.295942258616608</v>
+        <v>3.1426535575067</v>
       </c>
       <c r="AL81" t="n">
         <v>-6.932843760220323</v>
@@ -10547,7 +10547,7 @@
         <v>2.433837675097362</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.7969361734936471</v>
+        <v>-1.356352527616262</v>
       </c>
     </row>
     <row r="82">
@@ -10578,16 +10578,16 @@
         <v>0.06029027908526961</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1149045996788818</v>
+        <v>0.1220861371588119</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.117048626086888</v>
+        <v>-0.1375169190694858</v>
       </c>
       <c r="K82" t="n">
         <v>-0.0008277992255665641</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02082884553617264</v>
+        <v>0.006266650499131287</v>
       </c>
       <c r="M82" t="n">
         <v>0.0008277992255665641</v>
@@ -10599,16 +10599,16 @@
         <v>0.1359896332417586</v>
       </c>
       <c r="P82" t="n">
-        <v>0.1242432972325048</v>
+        <v>0.1182238793682434</v>
       </c>
       <c r="Q82" t="n">
         <v>-0.06228263040035605</v>
       </c>
       <c r="R82" t="n">
-        <v>0.01946492450963309</v>
+        <v>-0.02881034971310685</v>
       </c>
       <c r="S82" t="n">
-        <v>0.005896532414214135</v>
+        <v>0.005405154713029624</v>
       </c>
       <c r="T82" t="n">
         <v>0.006597339108559803</v>
@@ -10635,10 +10635,10 @@
         <v>-0.1185264543351096</v>
       </c>
       <c r="AB82" t="n">
-        <v>-0.00755551953897625</v>
+        <v>-0.007784474676520985</v>
       </c>
       <c r="AC82" t="n">
-        <v>-0.0002365140644475897</v>
+        <v>-0.03606268806439524</v>
       </c>
       <c r="AD82" t="n">
         <v>0.1046801891736552</v>
@@ -10653,7 +10653,7 @@
         <v>0.1018188210734685</v>
       </c>
       <c r="AH82" t="n">
-        <v>-0.08007743157657114</v>
+        <v>0.2959067844980013</v>
       </c>
       <c r="AI82" t="n">
         <v>-0</v>
@@ -10662,7 +10662,7 @@
         <v>0.2286552076181862</v>
       </c>
       <c r="AK82" t="n">
-        <v>3.550626326084206</v>
+        <v>2.137796930012049</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.227716404410117</v>
@@ -10671,7 +10671,7 @@
         <v>2.568986972995789</v>
       </c>
       <c r="AN82" t="n">
-        <v>-3.108103105330122</v>
+        <v>-4.520932501402278</v>
       </c>
     </row>
     <row r="83">
@@ -10702,16 +10702,16 @@
         <v>0.09127620304248361</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1218506912664498</v>
+        <v>0.1294663594706029</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.133189905272337</v>
+        <v>-0.1204192851844397</v>
       </c>
       <c r="K83" t="n">
         <v>-0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1115776032387005</v>
+        <v>0.09129076628620948</v>
       </c>
       <c r="M83" t="n">
         <v>0.08675914579587543</v>
@@ -10723,16 +10723,16 @@
         <v>0.1716517901404473</v>
       </c>
       <c r="P83" t="n">
-        <v>0.2547057810705608</v>
+        <v>0.2188863239572416</v>
       </c>
       <c r="Q83" t="n">
         <v>0.08770011586323243</v>
       </c>
       <c r="R83" t="n">
-        <v>0.07736582704737636</v>
+        <v>-0.009332163879897652</v>
       </c>
       <c r="S83" t="n">
-        <v>0.03700294132638678</v>
+        <v>0.03366537063485709</v>
       </c>
       <c r="T83" t="n">
         <v>0.006074572521323806</v>
@@ -10759,10 +10759,10 @@
         <v>-0</v>
       </c>
       <c r="AB83" t="n">
-        <v>-0.01103001779055551</v>
+        <v>-0.01136426075390568</v>
       </c>
       <c r="AC83" t="n">
-        <v>-0</v>
+        <v>-0.06408840630286552</v>
       </c>
       <c r="AD83" t="n">
         <v>0.1382925454522733</v>
@@ -10777,7 +10777,7 @@
         <v>0.1147028752824696</v>
       </c>
       <c r="AH83" t="n">
-        <v>-0.1518329744209402</v>
+        <v>0.175656427321627</v>
       </c>
       <c r="AI83" t="n">
         <v>-0</v>
@@ -10786,7 +10786,7 @@
         <v>0.1997947610184442</v>
       </c>
       <c r="AK83" t="n">
-        <v>5.849800158612756</v>
+        <v>3.688041383278203</v>
       </c>
       <c r="AL83" t="n">
         <v>-5.550990009462243</v>
@@ -10795,7 +10795,7 @@
         <v>2.558311126585456</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.857121275735969</v>
+        <v>0.6953625004014157</v>
       </c>
     </row>
     <row r="84">
@@ -10826,16 +10826,16 @@
         <v>0.187247298004538</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2068468556088241</v>
+        <v>0.2197747840843756</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.001722349111258464</v>
+        <v>-0.001383372304860219</v>
       </c>
       <c r="K84" t="n">
         <v>-0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1410451902709484</v>
+        <v>0.06456659473893057</v>
       </c>
       <c r="M84" t="n">
         <v>0.1604117762576532</v>
@@ -10847,16 +10847,16 @@
         <v>0.1370606510346396</v>
       </c>
       <c r="P84" t="n">
-        <v>0.1988555513972349</v>
+        <v>0.2117523127691307</v>
       </c>
       <c r="Q84" t="n">
         <v>0.1248167150606349</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.1967248867771121</v>
+        <v>-0.1619773481013685</v>
       </c>
       <c r="S84" t="n">
-        <v>0.09024850101730141</v>
+        <v>0.08272779259919295</v>
       </c>
       <c r="T84" t="n">
         <v>-0</v>
@@ -10883,10 +10883,10 @@
         <v>-0.5591741703102994</v>
       </c>
       <c r="AB84" t="n">
-        <v>-0.01631873921633746</v>
+        <v>-0.01681324646531738</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.03570022699088757</v>
+        <v>-0.0424489151372844</v>
       </c>
       <c r="AD84" t="n">
         <v>0.2407700258558964</v>
@@ -10901,7 +10901,7 @@
         <v>0.03476072153914228</v>
       </c>
       <c r="AH84" t="n">
-        <v>-0.3748424481288143</v>
+        <v>0.03502678864381828</v>
       </c>
       <c r="AI84" t="n">
         <v>-0</v>
@@ -10910,7 +10910,7 @@
         <v>0.06319911888754612</v>
       </c>
       <c r="AK84" t="n">
-        <v>4.056551450300486</v>
+        <v>1.545230363135113</v>
       </c>
       <c r="AL84" t="n">
         <v>-11.97719473953711</v>
@@ -10919,7 +10919,7 @@
         <v>2.727880518977305</v>
       </c>
       <c r="AN84" t="n">
-        <v>-5.192762770259318</v>
+        <v>-7.70408385742469</v>
       </c>
     </row>
     <row r="85">
@@ -10950,16 +10950,16 @@
         <v>0.103652666290437</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1491266612885905</v>
+        <v>0.1584470776191274</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.1353533065527428</v>
+        <v>-0.1122105443815794</v>
       </c>
       <c r="K85" t="n">
         <v>-0.006328476888580977</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04409672077732146</v>
+        <v>0.03286854748652031</v>
       </c>
       <c r="M85" t="n">
         <v>0.1216906402047607</v>
@@ -10971,16 +10971,16 @@
         <v>0.1191632075092365</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2112671381360369</v>
+        <v>0.1998841318141041</v>
       </c>
       <c r="Q85" t="n">
         <v>0.08856136077546924</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.009764140340496203</v>
+        <v>-0.0701994826727791</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.01560445999187434</v>
+        <v>-0.01460939810704161</v>
       </c>
       <c r="T85" t="n">
         <v>0.0180171216294323</v>
@@ -11007,10 +11007,10 @@
         <v>-0.03531646464416969</v>
       </c>
       <c r="AB85" t="n">
-        <v>-0.02352674501428104</v>
+        <v>-0.02423967668138047</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.001808136253880279</v>
+        <v>-0.04036028524371561</v>
       </c>
       <c r="AD85" t="n">
         <v>0.1742723675897552</v>
@@ -11025,7 +11025,7 @@
         <v>0.2189686060227004</v>
       </c>
       <c r="AH85" t="n">
-        <v>-0.01880279339696774</v>
+        <v>0.2577615210129309</v>
       </c>
       <c r="AI85" t="n">
         <v>-0</v>
@@ -11034,7 +11034,7 @@
         <v>0.2026259369483401</v>
       </c>
       <c r="AK85" t="n">
-        <v>5.283473308875132</v>
+        <v>3.237436272210534</v>
       </c>
       <c r="AL85" t="n">
         <v>-6.203589031298053</v>
@@ -11043,7 +11043,7 @@
         <v>3.047668085045672</v>
       </c>
       <c r="AN85" t="n">
-        <v>2.127552362622751</v>
+        <v>0.08151532595815336</v>
       </c>
     </row>
     <row r="86">
@@ -11074,16 +11074,16 @@
         <v>0.0834197380197256</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1407100170365964</v>
+        <v>0.1495043931013837</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0540992085906889</v>
+        <v>-0.03608315797461366</v>
       </c>
       <c r="K86" t="n">
         <v>-0.01822248004594578</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.06511068231973771</v>
+        <v>-0.05428360643160399</v>
       </c>
       <c r="M86" t="n">
         <v>0.08544123406539561</v>
@@ -11095,16 +11095,16 @@
         <v>0.06009689700089443</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.0007189542218214162</v>
+        <v>0.04442058293397588</v>
       </c>
       <c r="Q86" t="n">
         <v>-0.193141204661025</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.2592911443566296</v>
+        <v>-0.1860056389863296</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.0684992118671182</v>
+        <v>-0.06394598246409923</v>
       </c>
       <c r="T86" t="n">
         <v>0.005597377157794703</v>
@@ -11131,10 +11131,10 @@
         <v>-0.01112352987000443</v>
       </c>
       <c r="AB86" t="n">
-        <v>-0.04488756417060403</v>
+        <v>-0.04624779338789506</v>
       </c>
       <c r="AC86" t="n">
-        <v>-0.005005872427628364</v>
+        <v>0.03973288783119523</v>
       </c>
       <c r="AD86" t="n">
         <v>0.1459845415345198</v>
@@ -11149,7 +11149,7 @@
         <v>0.1799745075365457</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.04554158140263553</v>
+        <v>0.257793055246527</v>
       </c>
       <c r="AI86" t="n">
         <v>-0.01658024799195141</v>
@@ -11158,7 +11158,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.7256467362061482</v>
+        <v>0.213952509342103</v>
       </c>
       <c r="AL86" t="n">
         <v>-9.711890026635315</v>
@@ -11167,7 +11167,7 @@
         <v>1.959814633997636</v>
       </c>
       <c r="AN86" t="n">
-        <v>-7.026428656431531</v>
+        <v>-7.538122883295575</v>
       </c>
     </row>
     <row r="87">
@@ -11198,16 +11198,16 @@
         <v>0.06476531344588979</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1308200151854366</v>
+        <v>0.1389962661345263</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.001124529874869349</v>
+        <v>-0.06076519260294931</v>
       </c>
       <c r="K87" t="n">
         <v>-0.01180797996890779</v>
       </c>
       <c r="L87" t="n">
-        <v>0.133116971365333</v>
+        <v>0.07848348715049229</v>
       </c>
       <c r="M87" t="n">
         <v>0.1719424444310106</v>
@@ -11219,16 +11219,16 @@
         <v>0.03167809948910465</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1043407095889003</v>
+        <v>0.1022146643514083</v>
       </c>
       <c r="Q87" t="n">
         <v>0.1831167036248524</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.2382151975433908</v>
+        <v>-0.153059092489767</v>
       </c>
       <c r="S87" t="n">
-        <v>0.01002960312687452</v>
+        <v>0.009193802866301644</v>
       </c>
       <c r="T87" t="n">
         <v>0.002732623889326428</v>
@@ -11255,10 +11255,10 @@
         <v>-0.334734383632582</v>
       </c>
       <c r="AB87" t="n">
-        <v>-0.00587158897339428</v>
+        <v>-0.006049515911981985</v>
       </c>
       <c r="AC87" t="n">
-        <v>-0.003373708562545083</v>
+        <v>-0.1086834393122153</v>
       </c>
       <c r="AD87" t="n">
         <v>0.0974310625670511</v>
@@ -11273,7 +11273,7 @@
         <v>0.1459903661409299</v>
       </c>
       <c r="AH87" t="n">
-        <v>-0.05704417870930372</v>
+        <v>0.3386181343556855</v>
       </c>
       <c r="AI87" t="n">
         <v>-0</v>
@@ -11282,7 +11282,7 @@
         <v>0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
-        <v>3.95009994627486</v>
+        <v>1.913980471739723</v>
       </c>
       <c r="AL87" t="n">
         <v>-7.847390299979631</v>
@@ -11291,7 +11291,7 @@
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-1.471932454654484</v>
+        <v>-3.508051929189621</v>
       </c>
     </row>
     <row r="88">
@@ -11322,16 +11322,16 @@
         <v>0.09795004663004381</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1222324813747907</v>
+        <v>0.1298720114607152</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.1215863208180737</v>
+        <v>-0.133345808028047</v>
       </c>
       <c r="K88" t="n">
         <v>-0.0009200429639159438</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1217393422622232</v>
+        <v>0.09960491639636442</v>
       </c>
       <c r="M88" t="n">
         <v>0.1241800221922446</v>
@@ -11343,16 +11343,16 @@
         <v>0.1569444121274737</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2708651403903274</v>
+        <v>0.2365040491095654</v>
       </c>
       <c r="Q88" t="n">
         <v>0.1914504997212466</v>
       </c>
       <c r="R88" t="n">
-        <v>0.08012237280806812</v>
+        <v>0.008773001547127469</v>
       </c>
       <c r="S88" t="n">
-        <v>0.04385524926966367</v>
+        <v>0.04020064516385836</v>
       </c>
       <c r="T88" t="n">
         <v>0.003680171855663775</v>
@@ -11379,10 +11379,10 @@
         <v>-0</v>
       </c>
       <c r="AB88" t="n">
-        <v>-0.007751840110312241</v>
+        <v>-0.007986744356079279</v>
       </c>
       <c r="AC88" t="n">
-        <v>-0.0002628694182616982</v>
+        <v>-0.09269115529590231</v>
       </c>
       <c r="AD88" t="n">
         <v>0.1591915937278506</v>
@@ -11397,7 +11397,7 @@
         <v>0.03766219068593992</v>
       </c>
       <c r="AH88" t="n">
-        <v>-0.1701825804382592</v>
+        <v>0.1989789547167529</v>
       </c>
       <c r="AI88" t="n">
         <v>-0</v>
@@ -11406,7 +11406,7 @@
         <v>0.3146553283164298</v>
       </c>
       <c r="AK88" t="n">
-        <v>4.868861547174033</v>
+        <v>2.362715409924887</v>
       </c>
       <c r="AL88" t="n">
         <v>-8.430759973584665</v>
@@ -11415,7 +11415,7 @@
         <v>2.616048750996152</v>
       </c>
       <c r="AN88" t="n">
-        <v>-0.9458496754144803</v>
+        <v>-3.451995812663626</v>
       </c>
     </row>
     <row r="89">
@@ -11446,16 +11446,16 @@
         <v>0.07154750696498456</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1558153094715056</v>
+        <v>0.1655537663134747</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.1402915484942761</v>
+        <v>-0.1214660265872487</v>
       </c>
       <c r="K89" t="n">
         <v>-0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05389992839663547</v>
+        <v>0.04361006210448519</v>
       </c>
       <c r="M89" t="n">
         <v>0.03910140406694226</v>
@@ -11467,16 +11467,16 @@
         <v>0.1839632154734932</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2247342723741516</v>
+        <v>0.1922847470064769</v>
       </c>
       <c r="Q89" t="n">
         <v>0.006805298661684611</v>
       </c>
       <c r="R89" t="n">
-        <v>0.05645820701209524</v>
+        <v>-0.005976028535504645</v>
       </c>
       <c r="S89" t="n">
-        <v>0.05227489746913833</v>
+        <v>0.0479186560133768</v>
       </c>
       <c r="T89" t="n">
         <v>-0</v>
@@ -11503,10 +11503,10 @@
         <v>-0.005388672420382223</v>
       </c>
       <c r="AB89" t="n">
-        <v>-0.007885600570990917</v>
+        <v>-0.008124558164051249</v>
       </c>
       <c r="AC89" t="n">
-        <v>-0</v>
+        <v>-0.01159480123815689</v>
       </c>
       <c r="AD89" t="n">
         <v>0.1192733149292088</v>
@@ -11521,7 +11521,7 @@
         <v>0.06818947360378538</v>
       </c>
       <c r="AH89" t="n">
-        <v>-0.201231234301428</v>
+        <v>0.1788024224695028</v>
       </c>
       <c r="AI89" t="n">
         <v>-0</v>
@@ -11530,7 +11530,7 @@
         <v>0.08814671510752987</v>
       </c>
       <c r="AK89" t="n">
-        <v>3.756148160520866</v>
+        <v>2.638783731447442</v>
       </c>
       <c r="AL89" t="n">
         <v>-8.104360703050274</v>
@@ -11539,7 +11539,7 @@
         <v>2.084980127071581</v>
       </c>
       <c r="AN89" t="n">
-        <v>-2.263232415457827</v>
+        <v>-3.380596844531252</v>
       </c>
     </row>
     <row r="90">
@@ -11570,16 +11570,16 @@
         <v>0.08827314427576335</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1000270732468755</v>
+        <v>0.1062787653248052</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.1140128675794976</v>
+        <v>-0.06962137540818866</v>
       </c>
       <c r="K90" t="n">
         <v>-0.0006912458599134845</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.01712930716334903</v>
+        <v>-0.01426624980998138</v>
       </c>
       <c r="M90" t="n">
         <v>0.002052144605363672</v>
@@ -11591,16 +11591,16 @@
         <v>0.1418227334030428</v>
       </c>
       <c r="P90" t="n">
-        <v>0.1708573137677067</v>
+        <v>0.1551344664378004</v>
       </c>
       <c r="Q90" t="n">
         <v>-0.1273830394389952</v>
       </c>
       <c r="R90" t="n">
-        <v>0.03169871966774399</v>
+        <v>0.008888058448843711</v>
       </c>
       <c r="S90" t="n">
-        <v>0.0008264564016219763</v>
+        <v>0.0007575850348201449</v>
       </c>
       <c r="T90" t="n">
         <v>-0</v>
@@ -11627,10 +11627,10 @@
         <v>-0.002764983439653938</v>
       </c>
       <c r="AB90" t="n">
-        <v>-0.009433676580603909</v>
+        <v>-0.009719545567894936</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.02381826997325304</v>
+        <v>-0.05110743297540068</v>
       </c>
       <c r="AD90" t="n">
         <v>0.1197580599455114</v>
@@ -11645,7 +11645,7 @@
         <v>0.07435208418345181</v>
       </c>
       <c r="AH90" t="n">
-        <v>-0.06178757487684435</v>
+        <v>-0.03782263562074017</v>
       </c>
       <c r="AI90" t="n">
         <v>-1.125348372889696</v>
@@ -11654,7 +11654,7 @@
         <v>0.1076508695620903</v>
       </c>
       <c r="AK90" t="n">
-        <v>5.107470674582339</v>
+        <v>3.288824358022443</v>
       </c>
       <c r="AL90" t="n">
         <v>-8.737354212697953</v>
@@ -11663,7 +11663,7 @@
         <v>2.433918121628596</v>
       </c>
       <c r="AN90" t="n">
-        <v>-1.195965416487018</v>
+        <v>-3.014611733046913</v>
       </c>
     </row>
     <row r="91">
@@ -11694,16 +11694,16 @@
         <v>0.03880571452100972</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1134346916069149</v>
+        <v>0.120524359832347</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.01045156899636711</v>
+        <v>-0.07729005327901355</v>
       </c>
       <c r="K91" t="n">
         <v>-0.002565961809247103</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03345462919973214</v>
+        <v>0.0259804950166705</v>
       </c>
       <c r="M91" t="n">
         <v>0.02294054318422756</v>
@@ -11715,16 +11715,16 @@
         <v>0.02176977785754281</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0331865917992486</v>
+        <v>0.03735842300357063</v>
       </c>
       <c r="Q91" t="n">
         <v>0.009769041658194748</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.2258686961856878</v>
+        <v>-0.1498456423478208</v>
       </c>
       <c r="S91" t="n">
-        <v>0.002240548724651281</v>
+        <v>0.002053836330930342</v>
       </c>
       <c r="T91" t="n">
         <v>-0</v>
@@ -11751,10 +11751,10 @@
         <v>-0.01530621761421376</v>
       </c>
       <c r="AB91" t="n">
-        <v>-0.004907738925894137</v>
+        <v>-0.005056458287284868</v>
       </c>
       <c r="AC91" t="n">
-        <v>-0</v>
+        <v>-0.01178124551399449</v>
       </c>
       <c r="AD91" t="n">
         <v>0.04674504321329519</v>
@@ -11769,7 +11769,7 @@
         <v>0.1661325970811079</v>
       </c>
       <c r="AH91" t="n">
-        <v>-0.01163662773605084</v>
+        <v>0.3864965069589916</v>
       </c>
       <c r="AI91" t="n">
         <v>-0</v>
@@ -11778,7 +11778,7 @@
         <v>0.194654101420828</v>
       </c>
       <c r="AK91" t="n">
-        <v>1.80520469643687</v>
+        <v>1.384548495584546</v>
       </c>
       <c r="AL91" t="n">
         <v>-6.77061848153161</v>
@@ -11787,7 +11787,7 @@
         <v>1.972188058716642</v>
       </c>
       <c r="AN91" t="n">
-        <v>-2.993225726378098</v>
+        <v>-3.413881927230422</v>
       </c>
     </row>
     <row r="92">
@@ -11818,16 +11818,16 @@
         <v>0.09868019252202143</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1393341695553321</v>
+        <v>0.1480425551525403</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.1491228047460035</v>
+        <v>-0.1465789302024505</v>
       </c>
       <c r="K92" t="n">
         <v>-0.001175877854838286</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09999156258244479</v>
+        <v>0.06451096253455238</v>
       </c>
       <c r="M92" t="n">
         <v>0.1716235945785012</v>
@@ -11839,16 +11839,16 @@
         <v>0.1482336346206797</v>
       </c>
       <c r="P92" t="n">
-        <v>0.2727819370865587</v>
+        <v>0.2349571509848562</v>
       </c>
       <c r="Q92" t="n">
         <v>0.213694748484609</v>
       </c>
       <c r="R92" t="n">
-        <v>0.02578964945809435</v>
+        <v>-0.03444880161603162</v>
       </c>
       <c r="S92" t="n">
-        <v>0.005856538338444239</v>
+        <v>0.00536849347690722</v>
       </c>
       <c r="T92" t="n">
         <v>0.004703511419353144</v>
@@ -11875,10 +11875,10 @@
         <v>-0.1903034753619269</v>
       </c>
       <c r="AB92" t="n">
-        <v>-0.01950632989669333</v>
+        <v>-0.02009743080265374</v>
       </c>
       <c r="AC92" t="n">
-        <v>-0.0003359651013823674</v>
+        <v>-0.09845579744512654</v>
       </c>
       <c r="AD92" t="n">
         <v>0.1498513822560255</v>
@@ -11893,7 +11893,7 @@
         <v>0.07960316268538346</v>
       </c>
       <c r="AH92" t="n">
-        <v>-0.1504982503136747</v>
+        <v>0.2434397829571826</v>
       </c>
       <c r="AI92" t="n">
         <v>-0</v>
@@ -11902,7 +11902,7 @@
         <v>0.3160423877674182</v>
       </c>
       <c r="AK92" t="n">
-        <v>4.597232548113853</v>
+        <v>1.947453090464293</v>
       </c>
       <c r="AL92" t="n">
         <v>-8.202420257616994</v>
@@ -11911,7 +11911,7 @@
         <v>2.606532721370237</v>
       </c>
       <c r="AN92" t="n">
-        <v>-0.9986549881329045</v>
+        <v>-3.648434445782465</v>
       </c>
     </row>
     <row r="93">
@@ -11942,16 +11942,16 @@
         <v>0.2035002952956739</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1867215831472213</v>
+        <v>0.1983916820939227</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.002887592039507784</v>
+        <v>-0.06168425222639037</v>
       </c>
       <c r="K93" t="n">
         <v>-0.01331930538466434</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1267657859333859</v>
+        <v>0.04758571654286112</v>
       </c>
       <c r="M93" t="n">
         <v>0.1498379535084253</v>
@@ -11963,16 +11963,16 @@
         <v>0.09358987121564422</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1246962173706566</v>
+        <v>0.1834720861759723</v>
       </c>
       <c r="Q93" t="n">
         <v>0.108367426718817</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.1956553397573777</v>
+        <v>-0.139462098282951</v>
       </c>
       <c r="S93" t="n">
-        <v>0.03270194103240298</v>
+        <v>0.02997677927970273</v>
       </c>
       <c r="T93" t="n">
         <v>-0</v>
@@ -11999,10 +11999,10 @@
         <v>-0.617449191429001</v>
       </c>
       <c r="AB93" t="n">
-        <v>-0.01988893011986378</v>
+        <v>-0.0205694699809548</v>
       </c>
       <c r="AC93" t="n">
-        <v>-0.00380551582418981</v>
+        <v>-0.06769575338989803</v>
       </c>
       <c r="AD93" t="n">
         <v>0.3157177909879326</v>
@@ -12017,7 +12017,7 @@
         <v>0.08635285382342764</v>
       </c>
       <c r="AH93" t="n">
-        <v>-0.1791942542342483</v>
+        <v>0.2582112075158384</v>
       </c>
       <c r="AI93" t="n">
         <v>-0</v>
@@ -12026,16 +12026,16 @@
         <v>0.2827785212685758</v>
       </c>
       <c r="AK93" t="n">
-        <v>3.849341783336558</v>
+        <v>1.391215585791564</v>
       </c>
       <c r="AL93" t="n">
-        <v>-9.424204072180411</v>
+        <v>-9.423818852944082</v>
       </c>
       <c r="AM93" t="n">
         <v>2.699182906316397</v>
       </c>
       <c r="AN93" t="n">
-        <v>-2.875679382527455</v>
+        <v>-5.33342036083612</v>
       </c>
     </row>
     <row r="94">
@@ -12066,16 +12066,16 @@
         <v>0.1157375125585055</v>
       </c>
       <c r="I94" t="n">
-        <v>0.16575865754703</v>
+        <v>0.1761185736437194</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.1060964575069199</v>
+        <v>-0.1160442458436841</v>
       </c>
       <c r="K94" t="n">
         <v>-0.001770494626800043</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1689477063715098</v>
+        <v>0.09896223226045073</v>
       </c>
       <c r="M94" t="n">
         <v>0.1104472717459263</v>
@@ -12087,16 +12087,16 @@
         <v>0.2060295464206784</v>
       </c>
       <c r="P94" t="n">
-        <v>0.235245482436078</v>
+        <v>0.2230622183870057</v>
       </c>
       <c r="Q94" t="n">
         <v>0.07829710903155038</v>
       </c>
       <c r="R94" t="n">
-        <v>0.0417826898375468</v>
+        <v>-0.005958624971838961</v>
       </c>
       <c r="S94" t="n">
-        <v>0.09060974812858318</v>
+        <v>0.08305893578453458</v>
       </c>
       <c r="T94" t="n">
         <v>0.00236492896470245</v>
@@ -12123,10 +12123,10 @@
         <v>-0.43194480247863</v>
       </c>
       <c r="AB94" t="n">
-        <v>-0.01309252976510758</v>
+        <v>-0.01348927309132296</v>
       </c>
       <c r="AC94" t="n">
-        <v>-0.0005058556076571552</v>
+        <v>-0.07141514214802394</v>
       </c>
       <c r="AD94" t="n">
         <v>0.1956498742765932</v>
@@ -12141,7 +12141,7 @@
         <v>-0.01021044906166181</v>
       </c>
       <c r="AH94" t="n">
-        <v>-0.357778748121642</v>
+        <v>0.1167484612861533</v>
       </c>
       <c r="AI94" t="n">
         <v>-0.004717049542497722</v>
@@ -12150,7 +12150,7 @@
         <v>0.1998147055052133</v>
       </c>
       <c r="AK94" t="n">
-        <v>5.247494749873889</v>
+        <v>3.035644416994101</v>
       </c>
       <c r="AL94" t="n">
         <v>-9.194569786479338</v>
@@ -12159,7 +12159,7 @@
         <v>2.915258061534266</v>
       </c>
       <c r="AN94" t="n">
-        <v>-1.031816975071183</v>
+        <v>-3.243667307950971</v>
       </c>
     </row>
     <row r="95">
@@ -12190,16 +12190,16 @@
         <v>0.05611172905101128</v>
       </c>
       <c r="I95" t="n">
-        <v>0.144927528079988</v>
+        <v>0.1539854985849872</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.1412578488423542</v>
+        <v>-0.1048580467746923</v>
       </c>
       <c r="K95" t="n">
         <v>-0.001272560518240402</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09315383820995893</v>
+        <v>0.07621677671723913</v>
       </c>
       <c r="M95" t="n">
         <v>0.001906998034727786</v>
@@ -12211,16 +12211,16 @@
         <v>0.2063107837401507</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1883437984564723</v>
+        <v>0.1575948456543085</v>
       </c>
       <c r="Q95" t="n">
         <v>-0.05143093384550426</v>
       </c>
       <c r="R95" t="n">
-        <v>0.08069360661305673</v>
+        <v>0.03295273221516466</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0852566640315135</v>
+        <v>0.07815194202888737</v>
       </c>
       <c r="T95" t="n">
         <v>0.07071929740641167</v>
@@ -12247,10 +12247,10 @@
         <v>-0</v>
       </c>
       <c r="AB95" t="n">
-        <v>-0.003866986342808845</v>
+        <v>-0.003984167747136386</v>
       </c>
       <c r="AC95" t="n">
-        <v>-0.0003635887194972576</v>
+        <v>-0.04486541256726505</v>
       </c>
       <c r="AD95" t="n">
         <v>0.08840970184943987</v>
@@ -12265,7 +12265,7 @@
         <v>0.014525846759871</v>
       </c>
       <c r="AH95" t="n">
-        <v>-0.3022061180283567</v>
+        <v>0.0684156521230381</v>
       </c>
       <c r="AI95" t="n">
         <v>-0.005090242072961607</v>
@@ -12274,7 +12274,7 @@
         <v>0.05139794557285706</v>
       </c>
       <c r="AK95" t="n">
-        <v>4.276996894247868</v>
+        <v>3.040343970455447</v>
       </c>
       <c r="AL95" t="n">
         <v>-11.40993644727429</v>
@@ -12283,7 +12283,7 @@
         <v>2.013415045137802</v>
       </c>
       <c r="AN95" t="n">
-        <v>-5.119524507888624</v>
+        <v>-6.356177431681046</v>
       </c>
     </row>
     <row r="96">
@@ -12314,16 +12314,16 @@
         <v>0.08278906709747254</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1239845601297866</v>
+        <v>0.1317335951378983</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.1080166459124807</v>
+        <v>-0.1252276417577561</v>
       </c>
       <c r="K96" t="n">
         <v>-0.0009763002612521451</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1598216390937646</v>
+        <v>0.120189369008082</v>
       </c>
       <c r="M96" t="n">
         <v>0.09947693234353847</v>
@@ -12335,16 +12335,16 @@
         <v>0.116297853069077</v>
       </c>
       <c r="P96" t="n">
-        <v>0.2302995088508534</v>
+        <v>0.2000388169908829</v>
       </c>
       <c r="Q96" t="n">
         <v>0.1642781672936018</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.01238967123638608</v>
+        <v>-0.006873753386792458</v>
       </c>
       <c r="S96" t="n">
-        <v>0.002734561222552874</v>
+        <v>0.002506681120673468</v>
       </c>
       <c r="T96" t="n">
         <v>0.00390520104500858</v>
@@ -12371,10 +12371,10 @@
         <v>-0.1163116927549799</v>
       </c>
       <c r="AB96" t="n">
-        <v>-0.01044929190590838</v>
+        <v>-0.01076593711517834</v>
       </c>
       <c r="AC96" t="n">
-        <v>-0.0002789429317863271</v>
+        <v>-0.0889368626706815</v>
       </c>
       <c r="AD96" t="n">
         <v>0.1319522603059493</v>
@@ -12389,7 +12389,7 @@
         <v>0.1185891615152031</v>
       </c>
       <c r="AH96" t="n">
-        <v>-0.05297499271469971</v>
+        <v>0.3035562943275896</v>
       </c>
       <c r="AI96" t="n">
         <v>-0</v>
@@ -12398,7 +12398,7 @@
         <v>0.3154337569703177</v>
       </c>
       <c r="AK96" t="n">
-        <v>5.357793834510851</v>
+        <v>3.446447356190167</v>
       </c>
       <c r="AL96" t="n">
         <v>-7.191024390570621</v>
@@ -12407,7 +12407,7 @@
         <v>2.678264677601537</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.8450341215417669</v>
+        <v>-1.066312356778917</v>
       </c>
     </row>
     <row r="97">
@@ -12438,16 +12438,16 @@
         <v>0.1037090151107201</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1585748463008798</v>
+        <v>0.1684857741946848</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.1249405829625103</v>
+        <v>-0.1302585347460972</v>
       </c>
       <c r="K97" t="n">
         <v>-0.001370291684979835</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0887142201489175</v>
+        <v>0.0568671386720784</v>
       </c>
       <c r="M97" t="n">
         <v>0.08022355433647389</v>
@@ -12459,16 +12459,16 @@
         <v>0.1669095507352683</v>
       </c>
       <c r="P97" t="n">
-        <v>0.2351746795366852</v>
+        <v>0.2114348412407297</v>
       </c>
       <c r="Q97" t="n">
         <v>0.08741279300359703</v>
       </c>
       <c r="R97" t="n">
-        <v>0.02120090582983531</v>
+        <v>-0.01573472650026212</v>
       </c>
       <c r="S97" t="n">
-        <v>0.04837374910599661</v>
+        <v>0.04434260334716356</v>
       </c>
       <c r="T97" t="n">
         <v>-0</v>
@@ -12495,10 +12495,10 @@
         <v>-0.1728894559473952</v>
       </c>
       <c r="AB97" t="n">
-        <v>-0.01544318415740843</v>
+        <v>-0.01591115943490565</v>
       </c>
       <c r="AC97" t="n">
-        <v>-0.0003915119099942387</v>
+        <v>-0.06084663224309323</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1580202050748297</v>
@@ -12513,7 +12513,7 @@
         <v>0.1046971345497546</v>
       </c>
       <c r="AH97" t="n">
-        <v>-0.1881105332460192</v>
+        <v>0.2365540942968798</v>
       </c>
       <c r="AI97" t="n">
         <v>-0</v>
@@ -12522,7 +12522,7 @@
         <v>0.2306404980166452</v>
       </c>
       <c r="AK97" t="n">
-        <v>4.54497906310907</v>
+        <v>2.678710426851622</v>
       </c>
       <c r="AL97" t="n">
         <v>-5.614459330744943</v>
@@ -12531,7 +12531,7 @@
         <v>2.655563428030504</v>
       </c>
       <c r="AN97" t="n">
-        <v>1.586083160394631</v>
+        <v>-0.2801854758628171</v>
       </c>
     </row>
     <row r="98">
@@ -12562,16 +12562,16 @@
         <v>0.08587448476206554</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1288787670545118</v>
+        <v>0.1369336899954188</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.09563816347441467</v>
+        <v>-0.1136118176001362</v>
       </c>
       <c r="K98" t="n">
         <v>-0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1098277051217873</v>
+        <v>0.08985903146328052</v>
       </c>
       <c r="M98" t="n">
         <v>0.09383982912664271</v>
@@ -12583,16 +12583,16 @@
         <v>0.120616751364369</v>
       </c>
       <c r="P98" t="n">
-        <v>0.2031251846651426</v>
+        <v>0.1851736875952338</v>
       </c>
       <c r="Q98" t="n">
         <v>0.11494578987421</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.01934936573982315</v>
+        <v>-0.06262531605410494</v>
       </c>
       <c r="S98" t="n">
-        <v>0.02860802032139817</v>
+        <v>0.02598981599335318</v>
       </c>
       <c r="T98" t="n">
         <v>-0</v>
@@ -12619,10 +12619,10 @@
         <v>-0</v>
       </c>
       <c r="AB98" t="n">
-        <v>-0.01426639488492909</v>
+        <v>-0.01469870988144209</v>
       </c>
       <c r="AC98" t="n">
-        <v>-0</v>
+        <v>-0.05827521879310996</v>
       </c>
       <c r="AD98" t="n">
         <v>0.1447828191879387</v>
@@ -12637,7 +12637,7 @@
         <v>0.1693253261649009</v>
       </c>
       <c r="AH98" t="n">
-        <v>-0.1048960745117933</v>
+        <v>0.2616242110807633</v>
       </c>
       <c r="AI98" t="n">
         <v>-0</v>
@@ -12646,7 +12646,7 @@
         <v>0.2700738201972069</v>
       </c>
       <c r="AK98" t="n">
-        <v>6.354309518664207</v>
+        <v>4.333601025831584</v>
       </c>
       <c r="AL98" t="n">
         <v>-7.322769457503619</v>
@@ -12655,7 +12655,7 @@
         <v>2.966931020723821</v>
       </c>
       <c r="AN98" t="n">
-        <v>1.998471081884409</v>
+        <v>-0.02223741094821463</v>
       </c>
     </row>
     <row r="99">
@@ -12686,16 +12686,16 @@
         <v>0.1097983521006056</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1519167179879916</v>
+        <v>0.1614115128622411</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.1191700811458262</v>
+        <v>-0.1093052290166172</v>
       </c>
       <c r="K99" t="n">
         <v>-0.001953916764246724</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09632856402685525</v>
+        <v>-0.03144571726467627</v>
       </c>
       <c r="M99" t="n">
         <v>0.06414773507724787</v>
@@ -12707,16 +12707,16 @@
         <v>0.1981218305779981</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1985034438317028</v>
+        <v>0.1832629989849316</v>
       </c>
       <c r="Q99" t="n">
         <v>0.004649005765285597</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0736675950419339</v>
+        <v>0.03666775422516438</v>
       </c>
       <c r="S99" t="n">
-        <v>0.07718613036476478</v>
+        <v>0.07075395283436771</v>
       </c>
       <c r="T99" t="n">
         <v>0.002610421286556845</v>
@@ -12743,10 +12743,10 @@
         <v>-1.212859966153136</v>
       </c>
       <c r="AB99" t="n">
-        <v>-0.01363895050247226</v>
+        <v>-0.01405225203285021</v>
       </c>
       <c r="AC99" t="n">
-        <v>-0.0005582619326419213</v>
+        <v>-0.06540403666240825</v>
       </c>
       <c r="AD99" t="n">
         <v>0.1489719980796963</v>
@@ -12761,7 +12761,7 @@
         <v>0.004718579112768561</v>
       </c>
       <c r="AH99" t="n">
-        <v>-0.2847151692328637</v>
+        <v>0.1017094357567074</v>
       </c>
       <c r="AI99" t="n">
         <v>-0</v>
@@ -12770,7 +12770,7 @@
         <v>0.1575729328062057</v>
       </c>
       <c r="AK99" t="n">
-        <v>2.980321088729503</v>
+        <v>1.285823835084751</v>
       </c>
       <c r="AL99" t="n">
         <v>-7.973600439924182</v>
@@ -12779,7 +12779,7 @@
         <v>2.645633434644179</v>
       </c>
       <c r="AN99" t="n">
-        <v>-2.3476459165505</v>
+        <v>-4.042143170195252</v>
       </c>
     </row>
     <row r="100">
@@ -12810,16 +12810,16 @@
         <v>0.06126491945972421</v>
       </c>
       <c r="I100" t="n">
-        <v>0.100286690557539</v>
+        <v>0.1065546087173852</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.1187036870309397</v>
+        <v>-0.138750345653822</v>
       </c>
       <c r="K100" t="n">
         <v>-0.02109049075388226</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07543461280670122</v>
+        <v>0.06125173972721144</v>
       </c>
       <c r="M100" t="n">
         <v>0.0855029534392009</v>
@@ -12831,16 +12831,16 @@
         <v>0.1420164259372839</v>
       </c>
       <c r="P100" t="n">
-        <v>0.2240461107021564</v>
+        <v>0.1852391188017144</v>
       </c>
       <c r="Q100" t="n">
         <v>0.0836222122085569</v>
       </c>
       <c r="R100" t="n">
-        <v>0.03591753469976847</v>
+        <v>-0.01262507248463265</v>
       </c>
       <c r="S100" t="n">
-        <v>0.01203977375861374</v>
+        <v>0.01103645927872926</v>
       </c>
       <c r="T100" t="n">
         <v>0.005142378260985046</v>
@@ -12867,10 +12867,10 @@
         <v>-0.005142378260985046</v>
       </c>
       <c r="AB100" t="n">
-        <v>0.0152717975604553</v>
+        <v>0.01573457930471152</v>
       </c>
       <c r="AC100" t="n">
-        <v>-0.006025854501109216</v>
+        <v>-0.08174611143757318</v>
       </c>
       <c r="AD100" t="n">
         <v>0.0979233870257199</v>
@@ -12885,7 +12885,7 @@
         <v>0.08667176858361028</v>
       </c>
       <c r="AH100" t="n">
-        <v>-0.07140689135454327</v>
+        <v>0.2880276397316806</v>
       </c>
       <c r="AI100" t="n">
         <v>-0</v>
@@ -12894,7 +12894,7 @@
         <v>0.2775849952755857</v>
       </c>
       <c r="AK100" t="n">
-        <v>3.479679398677882</v>
+        <v>1.466338038188766</v>
       </c>
       <c r="AL100" t="n">
         <v>-9.408061412111548</v>
@@ -12903,7 +12903,7 @@
         <v>2.553406261296868</v>
       </c>
       <c r="AN100" t="n">
-        <v>-3.374975752136798</v>
+        <v>-5.388317112625915</v>
       </c>
     </row>
     <row r="101">
@@ -12934,16 +12934,16 @@
         <v>0.07636695089485039</v>
       </c>
       <c r="I101" t="n">
-        <v>0.119877456519972</v>
+        <v>0.1273697975524702</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.09810629804550837</v>
+        <v>-0.1221455532674856</v>
       </c>
       <c r="K101" t="n">
         <v>-0.01836254848639968</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08913199387447164</v>
+        <v>0.06476840246424247</v>
       </c>
       <c r="M101" t="n">
         <v>0.07428295956136956</v>
@@ -12955,16 +12955,16 @@
         <v>0.1212251414621022</v>
       </c>
       <c r="P101" t="n">
-        <v>0.179901533536874</v>
+        <v>0.164508595472651</v>
       </c>
       <c r="Q101" t="n">
         <v>0.08032911972618569</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.0149440858013598</v>
+        <v>-0.06143178045102211</v>
       </c>
       <c r="S101" t="n">
-        <v>0.01678100311501559</v>
+        <v>0.01538258618876429</v>
       </c>
       <c r="T101" t="n">
         <v>0.003816991365011593</v>
@@ -12991,10 +12991,10 @@
         <v>-0.08973551776357765</v>
       </c>
       <c r="AB101" t="n">
-        <v>-0.01189266825668174</v>
+        <v>-0.01225305214324785</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.005246442424685624</v>
+        <v>-0.05878040068566041</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1298744848281492</v>
@@ -13009,7 +13009,7 @@
         <v>0.1575697581190514</v>
       </c>
       <c r="AH101" t="n">
-        <v>-0.09952237316388639</v>
+        <v>0.2796918534552905</v>
       </c>
       <c r="AI101" t="n">
         <v>-0</v>
@@ -13018,7 +13018,7 @@
         <v>0.2608321684737274</v>
       </c>
       <c r="AK101" t="n">
-        <v>4.714322412374143</v>
+        <v>2.726776023504444</v>
       </c>
       <c r="AL101" t="n">
         <v>-5.873510411949113</v>
@@ -13027,7 +13027,7 @@
         <v>2.855159933826961</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.695971934251991</v>
+        <v>-0.2915744546177081</v>
       </c>
     </row>
     <row r="102">
@@ -13058,16 +13058,16 @@
         <v>0.01333145068951459</v>
       </c>
       <c r="I102" t="n">
-        <v>0.05048165925496497</v>
+        <v>0.05363676295840028</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.005601527376053139</v>
+        <v>-0.005866908193841223</v>
       </c>
       <c r="K102" t="n">
         <v>-0.01560033707993598</v>
       </c>
       <c r="L102" t="n">
-        <v>0.008043788310999264</v>
+        <v>0.006327902754391413</v>
       </c>
       <c r="M102" t="n">
         <v>0.008700866287288193</v>
@@ -13079,16 +13079,16 @@
         <v>0.06954325067119997</v>
       </c>
       <c r="P102" t="n">
-        <v>0.008269323387911033</v>
+        <v>0.0126889923705472</v>
       </c>
       <c r="Q102" t="n">
         <v>-0.07982871305294717</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.02219861464917381</v>
+        <v>-0.01488170016986752</v>
       </c>
       <c r="S102" t="n">
-        <v>0.04036555765373129</v>
+        <v>0.03700176118258702</v>
       </c>
       <c r="T102" t="n">
         <v>-0</v>
@@ -13115,10 +13115,10 @@
         <v>-0.00278716450068783</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.0163723678570871</v>
+        <v>0.01686850021639278</v>
       </c>
       <c r="AC102" t="n">
-        <v>-0.004457239165695993</v>
+        <v>-0.05826428370068658</v>
       </c>
       <c r="AD102" t="n">
         <v>0.02263324758147858</v>
@@ -13133,7 +13133,7 @@
         <v>-0.03517015597732608</v>
       </c>
       <c r="AH102" t="n">
-        <v>-0.1724884661246893</v>
+        <v>-0.03059211649412833</v>
       </c>
       <c r="AI102" t="n">
         <v>-0</v>
@@ -13142,7 +13142,7 @@
         <v>0.01084298328904704</v>
       </c>
       <c r="AK102" t="n">
-        <v>2.039911816670734</v>
+        <v>1.067106171510195</v>
       </c>
       <c r="AL102" t="n">
         <v>-9.090333260003838</v>
@@ -13151,7 +13151,7 @@
         <v>1.274613539470903</v>
       </c>
       <c r="AN102" t="n">
-        <v>-5.775807903862201</v>
+        <v>-6.74861354902274</v>
       </c>
     </row>
     <row r="103">
@@ -13182,16 +13182,16 @@
         <v>0.05139228297476607</v>
       </c>
       <c r="I103" t="n">
-        <v>0.120527813193447</v>
+        <v>0.1280608015180374</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.09643995495689432</v>
+        <v>-0.1111264700866382</v>
       </c>
       <c r="K103" t="n">
         <v>-0.001259203681778667</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05637429462302213</v>
+        <v>0.04612442287338174</v>
       </c>
       <c r="M103" t="n">
         <v>0.07081039941300726</v>
@@ -13203,16 +13203,16 @@
         <v>0.1026942269515405</v>
       </c>
       <c r="P103" t="n">
-        <v>0.184401255151424</v>
+        <v>0.1534413687769667</v>
       </c>
       <c r="Q103" t="n">
         <v>0.1025450226207682</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.0533308157647725</v>
+        <v>-0.07507847575900563</v>
       </c>
       <c r="S103" t="n">
-        <v>0.01022889007206355</v>
+        <v>0.009376482566058253</v>
       </c>
       <c r="T103" t="n">
         <v>0.002525709252446584</v>
@@ -13239,10 +13239,10 @@
         <v>-0</v>
       </c>
       <c r="AB103" t="n">
-        <v>0.002178661852858397</v>
+        <v>0.002244681909005621</v>
       </c>
       <c r="AC103" t="n">
-        <v>-0.0003597724805081905</v>
+        <v>-0.07900423303280114</v>
       </c>
       <c r="AD103" t="n">
         <v>0.08378162443443765</v>
@@ -13257,7 +13257,7 @@
         <v>0.1344832907646763</v>
       </c>
       <c r="AH103" t="n">
-        <v>-0.06024181582075403</v>
+        <v>0.3015742444214328</v>
       </c>
       <c r="AI103" t="n">
         <v>-0</v>
@@ -13266,7 +13266,7 @@
         <v>0.2665785874533608</v>
       </c>
       <c r="AK103" t="n">
-        <v>4.35078823548692</v>
+        <v>2.378050719261498</v>
       </c>
       <c r="AL103" t="n">
         <v>-8.010587313886541</v>
@@ -13275,7 +13275,7 @@
         <v>2.555008484225799</v>
       </c>
       <c r="AN103" t="n">
-        <v>-1.104790594173822</v>
+        <v>-3.077528110399243</v>
       </c>
     </row>
   </sheetData>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -655,10 +655,10 @@
         <v>-0.07440453259304865</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1033042835317771</v>
+        <v>0.1033383050991068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08568863894246175</v>
+        <v>0.08570352337816847</v>
       </c>
       <c r="J2" t="n">
         <v>-0.08366107723661252</v>
@@ -676,10 +676,10 @@
         <v>0.006466107498868189</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1085541831972505</v>
+        <v>0.1122756629901363</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1554846333808125</v>
+        <v>0.1555029526862977</v>
       </c>
       <c r="Q2" t="n">
         <v>0.01525554982595952</v>
@@ -715,22 +715,22 @@
         <v>-1.735781442166479</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02222369472243433</v>
+        <v>-0.02366516376811743</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0004029294525157952</v>
+        <v>-0.0003870527210953009</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1611184045102563</v>
+        <v>0.1611779422530832</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1397683711552963</v>
+        <v>0.1397802787038617</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0525670377561499</v>
+        <v>-0.05255215332044319</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06357664335951074</v>
+        <v>0.1413213883808546</v>
       </c>
       <c r="AH2" t="n">
         <v>0.1087306489556636</v>
@@ -742,7 +742,7 @@
         <v>0.07266271332963334</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0003446487479122906</v>
+        <v>0.05175606835248892</v>
       </c>
       <c r="AL2" t="n">
         <v>-11.7593222248522</v>
@@ -751,7 +751,7 @@
         <v>1.982485564443892</v>
       </c>
       <c r="AN2" t="n">
-        <v>-9.777181309156218</v>
+        <v>-9.725080592055816</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>0.2523397190572176</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1845771399347878</v>
+        <v>0.192030275157858</v>
       </c>
       <c r="P3" t="n">
         <v>0.2011729834233997</v>
@@ -839,7 +839,7 @@
         <v>-0.005210658381574833</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.01748341284407526</v>
+        <v>-0.01861137496304786</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.05718833119361568</v>
@@ -854,7 +854,7 @@
         <v>0.2039367233339978</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06582214367187349</v>
+        <v>0.2043748712959176</v>
       </c>
       <c r="AH3" t="n">
         <v>0.2049363723860815</v>
@@ -866,7 +866,7 @@
         <v>0.2096921549749869</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.65298588384951</v>
+        <v>2.757329776972493</v>
       </c>
       <c r="AL3" t="n">
         <v>-10.79647152089053</v>
@@ -875,7 +875,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN3" t="n">
-        <v>-5.318492898743556</v>
+        <v>-5.214149005620573</v>
       </c>
     </row>
     <row r="4">
@@ -924,7 +924,7 @@
         <v>0.2376622972931015</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1156254353165366</v>
+        <v>0.1222566378890519</v>
       </c>
       <c r="P4" t="n">
         <v>0.1392296752402158</v>
@@ -963,7 +963,7 @@
         <v>-0.03263393631481569</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.005009673319774638</v>
+        <v>-0.005332878050082679</v>
       </c>
       <c r="AC4" t="n">
         <v>-0.07795692037110448</v>
@@ -978,7 +978,7 @@
         <v>0.1705065548062204</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2079261701159254</v>
+        <v>0.3705264799980573</v>
       </c>
       <c r="AH4" t="n">
         <v>0.2818691704441595</v>
@@ -990,7 +990,7 @@
         <v>0.2502810135289197</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.787276177656723</v>
+        <v>2.880113013671938</v>
       </c>
       <c r="AL4" t="n">
         <v>-9.588571811947475</v>
@@ -999,7 +999,7 @@
         <v>2.988979749536568</v>
       </c>
       <c r="AN4" t="n">
-        <v>-3.812315884754184</v>
+        <v>-3.719479048738969</v>
       </c>
     </row>
     <row r="5">
@@ -1027,10 +1027,10 @@
         <v>0.2143842018994345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1865520125255146</v>
+        <v>0.1865691520235678</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2226587742586515</v>
+        <v>0.2226662727890498</v>
       </c>
       <c r="J5" t="n">
         <v>-0.08129317268143121</v>
@@ -1048,10 +1048,10 @@
         <v>0.2834351498257829</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1346508336630146</v>
+        <v>0.153455742615115</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1012178693091324</v>
+        <v>0.1012270982696226</v>
       </c>
       <c r="Q5" t="n">
         <v>-0.2103798430034632</v>
@@ -1087,22 +1087,22 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.02361338521146825</v>
+        <v>-0.02514069962789757</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0006851291333246283</v>
+        <v>0.0006931275657494555</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2793658119751306</v>
+        <v>0.2793958060967237</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.07070407215072147</v>
+        <v>0.07071007097504009</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2174713668451092</v>
+        <v>0.2174788653755075</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07490437694297788</v>
+        <v>0.2197397605457578</v>
       </c>
       <c r="AH5" t="n">
         <v>0.2578359829134806</v>
@@ -1114,7 +1114,7 @@
         <v>0.1501479957848963</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.031209675425032</v>
+        <v>2.294478400754438</v>
       </c>
       <c r="AL5" t="n">
         <v>-11.62308959786551</v>
@@ -1123,7 +1123,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN5" t="n">
-        <v>-7.195258766014973</v>
+        <v>-6.931990040685569</v>
       </c>
     </row>
     <row r="6">
@@ -1211,7 +1211,7 @@
         <v>-0.003781759196624758</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.00215825606800515</v>
+        <v>-0.002297498394973225</v>
       </c>
       <c r="AC6" t="n">
         <v>-0.0654096563054249</v>
@@ -1226,7 +1226,7 @@
         <v>0.1697613482196766</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.06517540524879202</v>
+        <v>0.03830629791623117</v>
       </c>
       <c r="AH6" t="n">
         <v>-0.03671160225001427</v>
@@ -1296,7 +1296,7 @@
         <v>0.1239938475554008</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2334028192776819</v>
+        <v>0.2341661706496274</v>
       </c>
       <c r="P7" t="n">
         <v>0.1708797522556401</v>
@@ -1335,7 +1335,7 @@
         <v>-0.2083860694412956</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01186457476017993</v>
+        <v>-0.01260091630281188</v>
       </c>
       <c r="AC7" t="n">
         <v>-0.04813018166668244</v>
@@ -1350,7 +1350,7 @@
         <v>0.1107716215419545</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03493161859882919</v>
+        <v>0.1688229703271503</v>
       </c>
       <c r="AH7" t="n">
         <v>0.07038122788435645</v>
@@ -1362,7 +1362,7 @@
         <v>0.06158194480999297</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.972980687074425</v>
+        <v>1.983667606281662</v>
       </c>
       <c r="AL7" t="n">
         <v>-9.977139786237682</v>
@@ -1371,7 +1371,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN7" t="n">
-        <v>-5.444404861782131</v>
+        <v>-5.433717942574893</v>
       </c>
     </row>
     <row r="8">
@@ -1399,10 +1399,10 @@
         <v>0.001695112897061519</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07956330370073404</v>
+        <v>0.07961777435291016</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1387430556917171</v>
+        <v>0.1387668866020442</v>
       </c>
       <c r="J8" t="n">
         <v>-0.1141004446642984</v>
@@ -1420,10 +1420,10 @@
         <v>0.1617492624264748</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1291036467688066</v>
+        <v>0.1319989000857415</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2216024005409317</v>
+        <v>0.2216317308921034</v>
       </c>
       <c r="Q8" t="n">
         <v>0.2138369774910006</v>
@@ -1459,22 +1459,22 @@
         <v>-0.02799184240775296</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.01460435736652632</v>
+        <v>-0.01553985206900158</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.08946301173616278</v>
+        <v>-0.08943759209848059</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1327924765913348</v>
+        <v>0.132887800232643</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1654496591775867</v>
+        <v>0.1654687239058483</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1830462324519694</v>
+        <v>0.1830700633622965</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1742722061274753</v>
+        <v>0.3143508678676113</v>
       </c>
       <c r="AH8" t="n">
         <v>0.2611552002276837</v>
@@ -1486,7 +1486,7 @@
         <v>0.25151161034134</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.369757862547919</v>
+        <v>3.410291408985006</v>
       </c>
       <c r="AL8" t="n">
         <v>-9.177366221063243</v>
@@ -1495,7 +1495,7 @@
         <v>2.850968133067187</v>
       </c>
       <c r="AN8" t="n">
-        <v>-2.956640225448137</v>
+        <v>-2.91610667901105</v>
       </c>
     </row>
     <row r="9">
@@ -1544,7 +1544,7 @@
         <v>0.001499968605253682</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1904904219058517</v>
+        <v>0.1906138397508488</v>
       </c>
       <c r="P9" t="n">
         <v>0.007876618483030175</v>
@@ -1583,7 +1583,7 @@
         <v>-0.004306803262919562</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.0001531719478103646</v>
+        <v>-0.0001630540089594204</v>
       </c>
       <c r="AC9" t="n">
         <v>-0.04938359992024777</v>
@@ -1598,7 +1598,7 @@
         <v>0.001126941627684544</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0464460968039925</v>
+        <v>0.214816769458969</v>
       </c>
       <c r="AH9" t="n">
         <v>0.05891792360548104</v>
@@ -1610,7 +1610,7 @@
         <v>-0.1690909868415308</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.642892581146723</v>
+        <v>1.644620430976683</v>
       </c>
       <c r="AL9" t="n">
         <v>-12.75338850422631</v>
@@ -1619,7 +1619,7 @@
         <v>2.266209328061446</v>
       </c>
       <c r="AN9" t="n">
-        <v>-8.844286595018142</v>
+        <v>-8.842558745188182</v>
       </c>
     </row>
     <row r="10">
@@ -1668,7 +1668,7 @@
         <v>0.1189792080916912</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2060167704096181</v>
+        <v>0.2132514758147989</v>
       </c>
       <c r="P10" t="n">
         <v>0.1391003361352557</v>
@@ -1707,7 +1707,7 @@
         <v>-0.0131219251300911</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.02499641928124316</v>
+        <v>-0.02660909149293627</v>
       </c>
       <c r="AC10" t="n">
         <v>-0.02409830975228122</v>
@@ -1722,7 +1722,7 @@
         <v>0.1271161951834799</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03518558042626725</v>
+        <v>0.1810895377090463</v>
       </c>
       <c r="AH10" t="n">
         <v>0.1400400666801837</v>
@@ -1734,7 +1734,7 @@
         <v>0.05795441806135042</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.136414516784874</v>
+        <v>3.237700392457405</v>
       </c>
       <c r="AL10" t="n">
         <v>-11.11417087530666</v>
@@ -1743,7 +1743,7 @@
         <v>3.229072804533929</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.748683553987856</v>
+        <v>-4.647397678315324</v>
       </c>
     </row>
     <row r="11">
@@ -1792,7 +1792,7 @@
         <v>0.2369488106521603</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1682940899127871</v>
+        <v>0.1793240965935962</v>
       </c>
       <c r="P11" t="n">
         <v>0.2376802882632724</v>
@@ -1831,7 +1831,7 @@
         <v>-0.002703366848512778</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.03128212221063911</v>
+        <v>-0.03330032364358358</v>
       </c>
       <c r="AC11" t="n">
         <v>-0.0553314602756915</v>
@@ -1846,7 +1846,7 @@
         <v>0.2293687217148381</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.04442795476193934</v>
+        <v>0.1451269154376878</v>
       </c>
       <c r="AH11" t="n">
         <v>0.1825997922751056</v>
@@ -1858,7 +1858,7 @@
         <v>0.2551242350281372</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.036644677300227</v>
+        <v>3.191064770831555</v>
       </c>
       <c r="AL11" t="n">
         <v>-10.00104715613588</v>
@@ -1867,7 +1867,7 @@
         <v>3.157101240805398</v>
       </c>
       <c r="AN11" t="n">
-        <v>-3.807301238030259</v>
+        <v>-3.652881144498931</v>
       </c>
     </row>
     <row r="12">
@@ -1895,10 +1895,10 @@
         <v>0.03025940145316009</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1763174667575844</v>
+        <v>0.1763348663972775</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1582432274050612</v>
+        <v>0.158250839747427</v>
       </c>
       <c r="J12" t="n">
         <v>-0.08322895940161787</v>
@@ -1916,10 +1916,10 @@
         <v>0.1953600459701597</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1428400896653601</v>
+        <v>0.1677781764988954</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1041532069381381</v>
+        <v>0.1041625759748959</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.2229032079463398</v>
@@ -1955,22 +1955,22 @@
         <v>-0.1745078880460472</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.02234748982263759</v>
+        <v>-0.02379319231048038</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.01267791834000958</v>
+        <v>-0.01266979850815283</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3060812830687395</v>
+        <v>0.3061117324382023</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.08894560699325894</v>
+        <v>0.08895169686715151</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1643050239849761</v>
+        <v>0.1643126363273418</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.06789036310800808</v>
+        <v>-0.03793367595330329</v>
       </c>
       <c r="AH12" t="n">
         <v>0.1083456741489361</v>
@@ -1982,7 +1982,7 @@
         <v>0.1005911473269495</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.009063671745337</v>
+        <v>2.358196887414831</v>
       </c>
       <c r="AL12" t="n">
         <v>-11.17413998427603</v>
@@ -1991,7 +1991,7 @@
         <v>2.325179694425028</v>
       </c>
       <c r="AN12" t="n">
-        <v>-6.839896618105662</v>
+        <v>-6.490763402436167</v>
       </c>
     </row>
     <row r="13">
@@ -2010,10 +2010,10 @@
         <v>-0.0006229592686852547</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1332012111101736</v>
+        <v>-0.131564554114892</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004573498671488607</v>
+        <v>0.005176477564487086</v>
       </c>
       <c r="G13" t="n">
         <v>0.1052339014517744</v>
@@ -2037,13 +2037,13 @@
         <v>0.002512268405941246</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.03968061741791731</v>
+        <v>-0.0411126922887887</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05400764810008799</v>
+        <v>0.05411147386948333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.09633810691647939</v>
+        <v>0.09721938376009254</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.1729559836450931</v>
@@ -2079,7 +2079,7 @@
         <v>-0.7504029278360136</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.007971005797037653</v>
+        <v>-0.008485264235556211</v>
       </c>
       <c r="AC13" t="n">
         <v>0.1000979214520825</v>
@@ -2091,10 +2091,10 @@
         <v>0.118983280018963</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1001329577410332</v>
+        <v>0.09941692030559751</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03393234710383843</v>
+        <v>0.09960870000865765</v>
       </c>
       <c r="AH13" t="n">
         <v>0.08714914646291222</v>
@@ -2106,7 +2106,7 @@
         <v>-0.06105438824678395</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.665233452047614</v>
+        <v>1.666687012819149</v>
       </c>
       <c r="AL13" t="n">
         <v>-12.24689581688748</v>
@@ -2115,7 +2115,7 @@
         <v>3.022534412543458</v>
       </c>
       <c r="AN13" t="n">
-        <v>-7.559127952296407</v>
+        <v>-7.557674391524873</v>
       </c>
     </row>
     <row r="14">
@@ -2134,19 +2134,19 @@
         <v>-0.0005346874033168953</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04939158500112974</v>
+        <v>-0.04459960528987941</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03361284270227235</v>
+        <v>0.03537830891168037</v>
       </c>
       <c r="G14" t="n">
         <v>-0.1650201006271435</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07392119710186267</v>
+        <v>0.07402037398383408</v>
       </c>
       <c r="I14" t="n">
-        <v>0.140439175494083</v>
+        <v>0.1404825653799455</v>
       </c>
       <c r="J14" t="n">
         <v>-0.1054796947187984</v>
@@ -2161,13 +2161,13 @@
         <v>0.07048439813354969</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1300085234069377</v>
+        <v>0.1258155411595937</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1868997672700651</v>
+        <v>0.1887245234439736</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2129335261732255</v>
+        <v>0.215567225877268</v>
       </c>
       <c r="Q14" t="n">
         <v>0.08246026556980686</v>
@@ -2203,22 +2203,22 @@
         <v>-0.005602190790100545</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.006565476759095399</v>
+        <v>-0.007011450684643482</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.06235458800573528</v>
+        <v>-0.0623083054608153</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1144578414931581</v>
+        <v>0.114631401036608</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1519610853218759</v>
+        <v>0.1519957972305659</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1508994045277251</v>
+        <v>0.1488463032899155</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0145093266706644</v>
+        <v>0.08946478153148876</v>
       </c>
       <c r="AH14" t="n">
         <v>0.05770272266405893</v>
@@ -2230,7 +2230,7 @@
         <v>0.1484475430409893</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.372450292909533</v>
+        <v>3.397996879344251</v>
       </c>
       <c r="AL14" t="n">
         <v>-8.051898171241968</v>
@@ -2239,7 +2239,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.600410182051553</v>
+        <v>-2.574863595616835</v>
       </c>
     </row>
     <row r="15">
@@ -2258,10 +2258,10 @@
         <v>-0.0005767462409942482</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2693314675691794</v>
+        <v>-0.2632778417298588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02006654658561898</v>
+        <v>0.0222968297895792</v>
       </c>
       <c r="G15" t="n">
         <v>0.2204744276141373</v>
@@ -2285,13 +2285,13 @@
         <v>0.07615147850427884</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2336409414442554</v>
+        <v>0.2283440188348499</v>
       </c>
       <c r="O15" t="n">
         <v>0.06484723502595981</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06264735227891033</v>
+        <v>0.06590699696162144</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.1318621599341677</v>
@@ -2327,7 +2327,7 @@
         <v>-0.5094868129969347</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.01379917191112619</v>
+        <v>-0.01468944106668272</v>
       </c>
       <c r="AC15" t="n">
         <v>0.04872531147134141</v>
@@ -2339,10 +2339,10 @@
         <v>0.0720647473146615</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1454462994088778</v>
+        <v>0.1427978381041751</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1241481677524863</v>
+        <v>0.2881043217793761</v>
       </c>
       <c r="AH15" t="n">
         <v>0.3891505830635718</v>
@@ -2382,10 +2382,10 @@
         <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.218203045094387</v>
+        <v>-0.208655500842743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003008509528901766</v>
+        <v>0.006526025832139009</v>
       </c>
       <c r="G16" t="n">
         <v>0.06523629667243176</v>
@@ -2409,13 +2409,13 @@
         <v>0.004350407978927273</v>
       </c>
       <c r="N16" t="n">
-        <v>0.270960409336835</v>
+        <v>0.2626063081166466</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1770374717794658</v>
+        <v>0.1774258101456914</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1314250940664306</v>
+        <v>0.1365660794327004</v>
       </c>
       <c r="Q16" t="n">
         <v>-0.09694350533948069</v>
@@ -2451,7 +2451,7 @@
         <v>-0.2212848800329647</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01511962312749092</v>
+        <v>-0.01609508268410324</v>
       </c>
       <c r="AC16" t="n">
         <v>-0.01385938212983968</v>
@@ -2463,10 +2463,10 @@
         <v>0.08811837719001228</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1665214319128214</v>
+        <v>0.1623443813027272</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.04029914031208475</v>
+        <v>0.183066431745504</v>
       </c>
       <c r="AH16" t="n">
         <v>0.2342566273835728</v>
@@ -2478,7 +2478,7 @@
         <v>0.1496466899910836</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.7906492219423855</v>
+        <v>0.796085959069544</v>
       </c>
       <c r="AL16" t="n">
         <v>-10.76980608506283</v>
@@ -2487,7 +2487,7 @@
         <v>2.287494107006678</v>
       </c>
       <c r="AN16" t="n">
-        <v>-7.69166275611377</v>
+        <v>-7.686226018986611</v>
       </c>
     </row>
     <row r="17">
@@ -2506,10 +2506,10 @@
         <v>-0.0001861226236667514</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2083799805161628</v>
+        <v>-0.2053421901163283</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05035703211616487</v>
+        <v>0.05147621805294598</v>
       </c>
       <c r="G17" t="n">
         <v>-0.01819954399880595</v>
@@ -2533,13 +2533,13 @@
         <v>0.09890077356473281</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2895717001318688</v>
+        <v>0.2869136335320137</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1368287075044295</v>
+        <v>0.1389455609288783</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1851390684335161</v>
+        <v>0.1867748017257346</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0746015644287376</v>
@@ -2575,7 +2575,7 @@
         <v>-0.032665334665677</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01304743550846086</v>
+        <v>-0.01388920554126479</v>
       </c>
       <c r="AC17" t="n">
         <v>-0.07236072407094767</v>
@@ -2587,10 +2587,10 @@
         <v>0.1254912185870175</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.2431156402952761</v>
+        <v>0.2417866069953485</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0786935848235526</v>
+        <v>0.1896634944490609</v>
       </c>
       <c r="AH17" t="n">
         <v>0.2874338891586429</v>
@@ -2602,7 +2602,7 @@
         <v>0.2962130218452153</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.577781906692895</v>
+        <v>2.607417854635178</v>
       </c>
       <c r="AL17" t="n">
         <v>-7.257492808936884</v>
@@ -2611,7 +2611,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.968443120194969</v>
+        <v>-1.938807172252687</v>
       </c>
     </row>
     <row r="18">
@@ -2630,19 +2630,19 @@
         <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1930140036185225</v>
+        <v>-0.1908488334024443</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.002084708064609022</v>
+        <v>-0.001287013774474969</v>
       </c>
       <c r="G18" t="n">
         <v>0.04714067652437707</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01440707217608029</v>
+        <v>0.01456764078156548</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08776987192162584</v>
+        <v>0.08784012068652562</v>
       </c>
       <c r="J18" t="n">
         <v>-0.1116892904719424</v>
@@ -2657,13 +2657,13 @@
         <v>0.005752910560177216</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1756076580196007</v>
+        <v>0.1737131340805323</v>
       </c>
       <c r="O18" t="n">
         <v>0.07969351374420039</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07339350313002665</v>
+        <v>0.07464582403394536</v>
       </c>
       <c r="Q18" t="n">
         <v>-0.002589387370724162</v>
@@ -2699,22 +2699,22 @@
         <v>-0</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.001029837473292002</v>
+        <v>-0.001132536027646206</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.01845196292108432</v>
+        <v>-0.01837703090519123</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0109437506556248</v>
+        <v>0.01122474571522387</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.04858771009592772</v>
+        <v>0.04864390910784753</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.09250068447243227</v>
+        <v>0.09162367126779784</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0998350651696831</v>
+        <v>0.2176556216749174</v>
       </c>
       <c r="AH18" t="n">
         <v>0.2896507508181884</v>
@@ -2754,10 +2754,10 @@
         <v>-0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1825020838795685</v>
+        <v>-0.1817460171399923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0474146110328189</v>
+        <v>0.04769316193687331</v>
       </c>
       <c r="G19" t="n">
         <v>0.2747246133008611</v>
@@ -2781,13 +2781,13 @@
         <v>0.117735417864723</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2129924938865062</v>
+        <v>0.212330935489377</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06986495807477031</v>
+        <v>0.07222967916332541</v>
       </c>
       <c r="P19" t="n">
-        <v>0.09563610145830258</v>
+        <v>0.09604321431807442</v>
       </c>
       <c r="Q19" t="n">
         <v>0.1210712892290924</v>
@@ -2823,7 +2823,7 @@
         <v>-0.3520060688821427</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.00330809239620617</v>
+        <v>-0.003521517712090439</v>
       </c>
       <c r="AC19" t="n">
         <v>-0.1167013704746699</v>
@@ -2835,10 +2835,10 @@
         <v>0.06682834135762358</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1664093449429414</v>
+        <v>0.1660785657443767</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.1157223841430462</v>
+        <v>0.283125867142611</v>
       </c>
       <c r="AH19" t="n">
         <v>0.2988185096413778</v>
@@ -2850,7 +2850,7 @@
         <v>0.2600695389083036</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3574902083133086</v>
+        <v>0.3905963035530801</v>
       </c>
       <c r="AL19" t="n">
         <v>-11.40806703865609</v>
@@ -2859,7 +2859,7 @@
         <v>2.315864572906233</v>
       </c>
       <c r="AN19" t="n">
-        <v>-8.734712257436552</v>
+        <v>-8.701606162196779</v>
       </c>
     </row>
     <row r="20">
@@ -2947,7 +2947,7 @@
         <v>-0.191821536273208</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.007308848673080552</v>
+        <v>-0.007780387297150265</v>
       </c>
       <c r="AC20" t="n">
         <v>0.05409397321463855</v>
@@ -2962,7 +2962,7 @@
         <v>0.1021539081728004</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.06079191006116286</v>
+        <v>-0.05956896208538228</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05180405432206261</v>
@@ -3071,7 +3071,7 @@
         <v>-0.002313897966131599</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.01658484983216205</v>
+        <v>-0.01765484014391443</v>
       </c>
       <c r="AC21" t="n">
         <v>-0.01181795105899981</v>
@@ -3086,7 +3086,7 @@
         <v>0.1345144117385505</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.01568996151656357</v>
+        <v>0.1192876484667506</v>
       </c>
       <c r="AH21" t="n">
         <v>0.02599380491118086</v>
@@ -3156,7 +3156,7 @@
         <v>0.1656514407340747</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06937391922513163</v>
+        <v>0.08240544222884705</v>
       </c>
       <c r="P22" t="n">
         <v>0.05960343115837949</v>
@@ -3195,7 +3195,7 @@
         <v>-0.08623923525426318</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.01195021364431562</v>
+        <v>-0.01272119516975533</v>
       </c>
       <c r="AC22" t="n">
         <v>0.008778570656687242</v>
@@ -3210,7 +3210,7 @@
         <v>0.1537509529405348</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.05607047667445753</v>
+        <v>0.2214522733411574</v>
       </c>
       <c r="AH22" t="n">
         <v>0.2511786769594867</v>
@@ -3222,7 +3222,7 @@
         <v>0.1077554255732119</v>
       </c>
       <c r="AK22" t="n">
-        <v>1.122542711211548</v>
+        <v>1.304984033263563</v>
       </c>
       <c r="AL22" t="n">
         <v>-11.05365854488897</v>
@@ -3231,7 +3231,7 @@
         <v>3.258304687144962</v>
       </c>
       <c r="AN22" t="n">
-        <v>-6.672811146532457</v>
+        <v>-6.490369824480441</v>
       </c>
     </row>
     <row r="23">
@@ -3319,7 +3319,7 @@
         <v>-0.003162797685258593</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.002392810522621157</v>
+        <v>0.002547185395048329</v>
       </c>
       <c r="AC23" t="n">
         <v>-0.04371177327406477</v>
@@ -3334,7 +3334,7 @@
         <v>0.1708746441427057</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.08949414933732135</v>
+        <v>0.2423435443542611</v>
       </c>
       <c r="AH23" t="n">
         <v>0.2619784790513893</v>
@@ -3443,7 +3443,7 @@
         <v>-1.342780866300779</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.006907903029032663</v>
+        <v>0.007353574192196061</v>
       </c>
       <c r="AC24" t="n">
         <v>-0.0001969061279582707</v>
@@ -3458,7 +3458,7 @@
         <v>-0.05046537519604623</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.002954686129658313</v>
+        <v>0.006646026180880607</v>
       </c>
       <c r="AH24" t="n">
         <v>0.004614175064027868</v>
@@ -3528,7 +3528,7 @@
         <v>0.083194333123134</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1354867454674863</v>
+        <v>0.1367392450044894</v>
       </c>
       <c r="P25" t="n">
         <v>0.007496800748659901</v>
@@ -3567,7 +3567,7 @@
         <v>-0.9192738021445584</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.0008419414664603477</v>
+        <v>-0.000896260270748112</v>
       </c>
       <c r="AC25" t="n">
         <v>0.02235088781446914</v>
@@ -3582,7 +3582,7 @@
         <v>0.05384468636477142</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.01170521029387905</v>
+        <v>0.1288576291471369</v>
       </c>
       <c r="AH25" t="n">
         <v>0.2733743769487813</v>
@@ -3594,7 +3594,7 @@
         <v>0.05306878459793927</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.020452184195476</v>
+        <v>1.037987177713519</v>
       </c>
       <c r="AL25" t="n">
         <v>-7.243676507309634</v>
@@ -3603,7 +3603,7 @@
         <v>3.25792022508047</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.965304098033689</v>
+        <v>-2.947769104515645</v>
       </c>
     </row>
     <row r="26">
@@ -3691,7 +3691,7 @@
         <v>-0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0003684534721773692</v>
+        <v>0.0003922246639307479</v>
       </c>
       <c r="AC26" t="n">
         <v>-0.0002058666627038988</v>
@@ -3706,7 +3706,7 @@
         <v>0.05345158423514242</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1479809434348021</v>
+        <v>0.2969849543305156</v>
       </c>
       <c r="AH26" t="n">
         <v>0.2891847041118966</v>
@@ -3776,7 +3776,7 @@
         <v>0.2531813046351129</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1275889227094024</v>
+        <v>0.1282012199865924</v>
       </c>
       <c r="P27" t="n">
         <v>0.07039394958336774</v>
@@ -3815,7 +3815,7 @@
         <v>-0.001440495141011464</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.006337352240490027</v>
+        <v>-0.006746213675360352</v>
       </c>
       <c r="AC27" t="n">
         <v>-0.01198506954855988</v>
@@ -3830,7 +3830,7 @@
         <v>0.1536351120520532</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.04442853223467642</v>
+        <v>0.1941623932697178</v>
       </c>
       <c r="AH27" t="n">
         <v>0.2268248564767719</v>
@@ -3842,7 +3842,7 @@
         <v>0.1210206071648134</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.34014421735694</v>
+        <v>2.3487163792376</v>
       </c>
       <c r="AL27" t="n">
         <v>-9.951185141655555</v>
@@ -3851,7 +3851,7 @@
         <v>2.200553715420134</v>
       </c>
       <c r="AN27" t="n">
-        <v>-5.410487208878481</v>
+        <v>-5.401915046997822</v>
       </c>
     </row>
     <row r="28">
@@ -3939,7 +3939,7 @@
         <v>-1.878104377384056</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01871812518290535</v>
+        <v>0.01992574616244764</v>
       </c>
       <c r="AC28" t="n">
         <v>-9.040227364246492e-05</v>
@@ -3954,7 +3954,7 @@
         <v>-0.1296590581514258</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.07774853661448292</v>
+        <v>-0.07546387591797435</v>
       </c>
       <c r="AH28" t="n">
         <v>0.002855825870635729</v>
@@ -4063,7 +4063,7 @@
         <v>-0.001030868726564773</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.0140949552658341</v>
+        <v>-0.01500430721846855</v>
       </c>
       <c r="AC29" t="n">
         <v>0.04089149835944249</v>
@@ -4078,7 +4078,7 @@
         <v>0.1388470173864849</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.03452269029409035</v>
+        <v>0.1825777985278313</v>
       </c>
       <c r="AH29" t="n">
         <v>0.2754168692034449</v>
@@ -4148,7 +4148,7 @@
         <v>0.1767338732719355</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03633318065228351</v>
+        <v>0.0397772583881275</v>
       </c>
       <c r="P30" t="n">
         <v>0.1153031592961953</v>
@@ -4187,7 +4187,7 @@
         <v>-0.03480133185864867</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.008641475298821493</v>
+        <v>-0.009198989834229331</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.03884855225653829</v>
@@ -4202,7 +4202,7 @@
         <v>0.1749165924650408</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1241717644224455</v>
+        <v>0.2917695030293351</v>
       </c>
       <c r="AH30" t="n">
         <v>0.2086465244493102</v>
@@ -4214,7 +4214,7 @@
         <v>0.2337376841302361</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.214036677520295</v>
+        <v>2.262253765822111</v>
       </c>
       <c r="AL30" t="n">
         <v>-12.94234416634632</v>
@@ -4223,7 +4223,7 @@
         <v>2.63080341085498</v>
       </c>
       <c r="AN30" t="n">
-        <v>-8.097504077971042</v>
+        <v>-8.049286989669227</v>
       </c>
     </row>
     <row r="31">
@@ -4311,7 +4311,7 @@
         <v>-0.06796047733856009</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.003007995722708174</v>
+        <v>-0.003202059962882895</v>
       </c>
       <c r="AC31" t="n">
         <v>0.002988647084310895</v>
@@ -4326,7 +4326,7 @@
         <v>0.06172275593880893</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.06532441702499822</v>
+        <v>0.2417708164600414</v>
       </c>
       <c r="AH31" t="n">
         <v>0.2360494374570458</v>
@@ -4347,7 +4347,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN31" t="n">
-        <v>-7.760130656795448</v>
+        <v>-7.760130656795449</v>
       </c>
     </row>
     <row r="32">
@@ -4396,7 +4396,7 @@
         <v>0.2773286696028882</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0970626551084602</v>
+        <v>0.109959449321415</v>
       </c>
       <c r="P32" t="n">
         <v>0.05775407034941549</v>
@@ -4435,7 +4435,7 @@
         <v>-0.002789491778454054</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.01030455893016731</v>
+        <v>-0.01096936918372649</v>
       </c>
       <c r="AC32" t="n">
         <v>-0.01718064785832099</v>
@@ -4450,7 +4450,7 @@
         <v>0.18438877107448</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.09387311368885032</v>
+        <v>0.2575862462873749</v>
       </c>
       <c r="AH32" t="n">
         <v>0.284824826237684</v>
@@ -4462,7 +4462,7 @@
         <v>0.1851099426811437</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.341626786516027</v>
+        <v>1.522181905497394</v>
       </c>
       <c r="AL32" t="n">
         <v>-13.28553285853533</v>
@@ -4471,7 +4471,7 @@
         <v>2.466377417990771</v>
       </c>
       <c r="AN32" t="n">
-        <v>-9.47752865402853</v>
+        <v>-9.296973535047163</v>
       </c>
     </row>
     <row r="33">
@@ -4520,7 +4520,7 @@
         <v>-0.006723645019309733</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03599023170252458</v>
+        <v>0.03609698738095178</v>
       </c>
       <c r="P33" t="n">
         <v>0.0626236911397697</v>
@@ -4559,7 +4559,7 @@
         <v>-0.524065861758873</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01334914371519394</v>
+        <v>-0.01421037879359355</v>
       </c>
       <c r="AC33" t="n">
         <v>0.05561084693637374</v>
@@ -4574,7 +4574,7 @@
         <v>0.01402041738329393</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.1832830057955839</v>
+        <v>0.3676044694885759</v>
       </c>
       <c r="AH33" t="n">
         <v>0.2357383741801266</v>
@@ -4586,7 +4586,7 @@
         <v>-0.04445006173401439</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1348993912330917</v>
+        <v>0.1363939707310724</v>
       </c>
       <c r="AL33" t="n">
         <v>-12.36817560543482</v>
@@ -4595,7 +4595,7 @@
         <v>1.321288630557237</v>
       </c>
       <c r="AN33" t="n">
-        <v>-10.91198758364449</v>
+        <v>-10.91049300414651</v>
       </c>
     </row>
     <row r="34">
@@ -4644,7 +4644,7 @@
         <v>0.2857180985280504</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0936733687102074</v>
+        <v>0.09485839144349655</v>
       </c>
       <c r="P34" t="n">
         <v>0.02515701514587607</v>
@@ -4683,7 +4683,7 @@
         <v>-0</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.00254479266167831</v>
+        <v>-0.002708972833399491</v>
       </c>
       <c r="AC34" t="n">
         <v>0.016446355469751</v>
@@ -4698,7 +4698,7 @@
         <v>0.1694386621091593</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.06498104659848832</v>
+        <v>0.1902149750420168</v>
       </c>
       <c r="AH34" t="n">
         <v>0.2795865731459105</v>
@@ -4710,7 +4710,7 @@
         <v>0.09263953195417346</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.41475841500209</v>
+        <v>1.431348733268138</v>
       </c>
       <c r="AL34" t="n">
         <v>-6.52579083659314</v>
@@ -4719,7 +4719,7 @@
         <v>2.295332708068656</v>
       </c>
       <c r="AN34" t="n">
-        <v>-2.815699713522395</v>
+        <v>-2.799109395256347</v>
       </c>
     </row>
     <row r="35">
@@ -4768,7 +4768,7 @@
         <v>0.2705793808750063</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1107944726426642</v>
+        <v>0.1143222749641344</v>
       </c>
       <c r="P35" t="n">
         <v>0.1997361370548983</v>
@@ -4807,7 +4807,7 @@
         <v>-0.001450550720246442</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.01299110383434812</v>
+        <v>-0.01382923956559639</v>
       </c>
       <c r="AC35" t="n">
         <v>-0.08880116580061077</v>
@@ -4822,7 +4822,7 @@
         <v>0.2151897267622538</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.2037557738538226</v>
+        <v>0.3360330195450326</v>
       </c>
       <c r="AH35" t="n">
         <v>0.295344298601204</v>
@@ -4834,7 +4834,7 @@
         <v>0.3488921036616279</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.205812757107338</v>
+        <v>3.255201989607921</v>
       </c>
       <c r="AL35" t="n">
         <v>-9.029699704606241</v>
@@ -4843,7 +4843,7 @@
         <v>2.921626792037109</v>
       </c>
       <c r="AN35" t="n">
-        <v>-2.902260155461793</v>
+        <v>-2.852870922961211</v>
       </c>
     </row>
     <row r="36">
@@ -4931,7 +4931,7 @@
         <v>-0.02825457028672268</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.01545387949424292</v>
+        <v>-0.01645090397774246</v>
       </c>
       <c r="AC36" t="n">
         <v>0.01998707036644832</v>
@@ -4946,7 +4946,7 @@
         <v>0.1036722180828322</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.08959894964396777</v>
+        <v>0.2599506549281363</v>
       </c>
       <c r="AH36" t="n">
         <v>0.2575256642232789</v>
@@ -5055,7 +5055,7 @@
         <v>-0.9927762717265926</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.006223066460798335</v>
+        <v>-0.006624554619559519</v>
       </c>
       <c r="AC37" t="n">
         <v>0.05283260034684884</v>
@@ -5070,7 +5070,7 @@
         <v>0.1049980921634837</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.08862099930950121</v>
+        <v>0.2418310924736478</v>
       </c>
       <c r="AH37" t="n">
         <v>0.2802641214342033</v>
@@ -5179,7 +5179,7 @@
         <v>-0.01173465464514082</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.003718139476877408</v>
+        <v>0.003958019443127563</v>
       </c>
       <c r="AC38" t="n">
         <v>0.04943593906282494</v>
@@ -5194,7 +5194,7 @@
         <v>0.1247450925362747</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.06056705712409592</v>
+        <v>-0.05703789363410115</v>
       </c>
       <c r="AH38" t="n">
         <v>0.2389030443678996</v>
@@ -5264,7 +5264,7 @@
         <v>0.1515911793932632</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1823463288712222</v>
+        <v>0.1880219699969333</v>
       </c>
       <c r="P39" t="n">
         <v>0.1945513161102233</v>
@@ -5303,7 +5303,7 @@
         <v>-0.003829782154132546</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.005925839815819127</v>
+        <v>-0.006308152062001006</v>
       </c>
       <c r="AC39" t="n">
         <v>-0.03302110591525941</v>
@@ -5318,7 +5318,7 @@
         <v>0.1338480458811303</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.07546864506139186</v>
+        <v>0.2142571023525321</v>
       </c>
       <c r="AH39" t="n">
         <v>0.2010071035517265</v>
@@ -5330,7 +5330,7 @@
         <v>0.1245367664366711</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.429690056979331</v>
+        <v>2.509149032739287</v>
       </c>
       <c r="AL39" t="n">
         <v>-10.50942092405035</v>
@@ -5339,7 +5339,7 @@
         <v>2.353966381743893</v>
       </c>
       <c r="AN39" t="n">
-        <v>-5.725764485327124</v>
+        <v>-5.646305509567169</v>
       </c>
     </row>
     <row r="40">
@@ -5427,7 +5427,7 @@
         <v>-1.214643213657027</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.04280654000156371</v>
+        <v>0.04556825225972912</v>
       </c>
       <c r="AC40" t="n">
         <v>-0.005647108727655738</v>
@@ -5442,7 +5442,7 @@
         <v>0.02460915068423399</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.002673646635566794</v>
+        <v>-0.001748258879744214</v>
       </c>
       <c r="AH40" t="n">
         <v>0.001982958451112547</v>
@@ -5551,7 +5551,7 @@
         <v>-0.003071836840684668</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01982605512040977</v>
+        <v>0.02110515545075879</v>
       </c>
       <c r="AC41" t="n">
         <v>0.1638803327365419</v>
@@ -5566,7 +5566,7 @@
         <v>0.06495591494845311</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0006073817455133475</v>
+        <v>0.001522490364238627</v>
       </c>
       <c r="AH41" t="n">
         <v>0.001335536082734726</v>
@@ -5636,7 +5636,7 @@
         <v>-0.05207608418205063</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03332761621578616</v>
+        <v>0.03488866506811688</v>
       </c>
       <c r="P42" t="n">
         <v>-0.1080356128772088</v>
@@ -5675,7 +5675,7 @@
         <v>-0.04826928774248113</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.003690989225829319</v>
+        <v>-0.003929117562979597</v>
       </c>
       <c r="AC42" t="n">
         <v>-0.002309740705922794</v>
@@ -5690,7 +5690,7 @@
         <v>-0.007208893577724987</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0234306845225938</v>
+        <v>0.1995994708339472</v>
       </c>
       <c r="AH42" t="n">
         <v>0.2435489149309049</v>
@@ -5702,7 +5702,7 @@
         <v>0.04319983072250946</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.5259467597697083</v>
+        <v>-0.5040920758370782</v>
       </c>
       <c r="AL42" t="n">
         <v>-7.597523528976011</v>
@@ -5711,7 +5711,7 @@
         <v>2.093590660402022</v>
       </c>
       <c r="AN42" t="n">
-        <v>-6.029879628343698</v>
+        <v>-6.008024944411067</v>
       </c>
     </row>
     <row r="43">
@@ -5760,7 +5760,7 @@
         <v>0.2241921283538076</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1397413511185227</v>
+        <v>0.1439193921669489</v>
       </c>
       <c r="P43" t="n">
         <v>0.149883752867264</v>
@@ -5799,7 +5799,7 @@
         <v>-0.004458731639026205</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.0163892293727674</v>
+        <v>-0.01744659900972013</v>
       </c>
       <c r="AC43" t="n">
         <v>-0.03674000913125283</v>
@@ -5814,7 +5814,7 @@
         <v>0.1912104133072386</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.1310713794727417</v>
+        <v>0.2854380093158323</v>
       </c>
       <c r="AH43" t="n">
         <v>0.2485775951507833</v>
@@ -5826,7 +5826,7 @@
         <v>0.1838995189745202</v>
       </c>
       <c r="AK43" t="n">
-        <v>4.003067317392244</v>
+        <v>4.061559892070211</v>
       </c>
       <c r="AL43" t="n">
         <v>-9.831264921291664</v>
@@ -5835,7 +5835,7 @@
         <v>2.844241268734032</v>
       </c>
       <c r="AN43" t="n">
-        <v>-2.983956335165388</v>
+        <v>-2.925463760487422</v>
       </c>
     </row>
     <row r="44">
@@ -5884,7 +5884,7 @@
         <v>0.1905386598628712</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1596866889424823</v>
+        <v>0.1689525829770762</v>
       </c>
       <c r="P44" t="n">
         <v>0.2102163529475863</v>
@@ -5923,7 +5923,7 @@
         <v>-0.001714548148338529</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.02452094952709671</v>
+        <v>-0.02610294627078037</v>
       </c>
       <c r="AC44" t="n">
         <v>-0.001131888886284231</v>
@@ -5938,7 +5938,7 @@
         <v>0.1812252905948956</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.1030690088235366</v>
+        <v>0.2489786518976432</v>
       </c>
       <c r="AH44" t="n">
         <v>0.2479389226893146</v>
@@ -5950,7 +5950,7 @@
         <v>0.1401552258474265</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.022019931824405</v>
+        <v>3.151742448308719</v>
       </c>
       <c r="AL44" t="n">
         <v>-9.347188599605477</v>
@@ -5959,7 +5959,7 @@
         <v>2.69592875790635</v>
       </c>
       <c r="AN44" t="n">
-        <v>-3.629239909874723</v>
+        <v>-3.499517393390409</v>
       </c>
     </row>
     <row r="45">
@@ -6047,7 +6047,7 @@
         <v>-0.9169879942271594</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.01446384463199503</v>
+        <v>-0.01539699589857535</v>
       </c>
       <c r="AC45" t="n">
         <v>0.005610096201756439</v>
@@ -6062,7 +6062,7 @@
         <v>0.07080004686247068</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.1616035403515858</v>
+        <v>0.3265338829539385</v>
       </c>
       <c r="AH45" t="n">
         <v>0.3632723751073997</v>
@@ -6171,7 +6171,7 @@
         <v>-0.004237328546231514</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.003917768411599689</v>
+        <v>-0.004170527663960959</v>
       </c>
       <c r="AC46" t="n">
         <v>0.0113594626844272</v>
@@ -6186,7 +6186,7 @@
         <v>0.155260377360165</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.2299484718829251</v>
+        <v>-0.2264065838525118</v>
       </c>
       <c r="AH46" t="n">
         <v>0.09345186697273872</v>
@@ -6256,7 +6256,7 @@
         <v>-0.083341008816658</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1507734699319271</v>
+        <v>0.1508692375877044</v>
       </c>
       <c r="P47" t="n">
         <v>0.06777477782841111</v>
@@ -6295,7 +6295,7 @@
         <v>-0.779915706058657</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.007249944490704176</v>
+        <v>-0.007717682844943155</v>
       </c>
       <c r="AC47" t="n">
         <v>0.05775895895513201</v>
@@ -6310,7 +6310,7 @@
         <v>-0.02063852767424782</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.05499155492927381</v>
+        <v>0.1910225860111868</v>
       </c>
       <c r="AH47" t="n">
         <v>0.1043047026305786</v>
@@ -6322,7 +6322,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK47" t="n">
-        <v>1.340712699344147</v>
+        <v>1.342053446525028</v>
       </c>
       <c r="AL47" t="n">
         <v>-6.722520401440502</v>
@@ -6331,7 +6331,7 @@
         <v>3.322850010526614</v>
       </c>
       <c r="AN47" t="n">
-        <v>-2.058957691569741</v>
+        <v>-2.057616944388859</v>
       </c>
     </row>
     <row r="48">
@@ -6380,7 +6380,7 @@
         <v>-0.08875547957936844</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02388603068629905</v>
+        <v>0.02457447551831663</v>
       </c>
       <c r="P48" t="n">
         <v>-0.04573195915669132</v>
@@ -6419,7 +6419,7 @@
         <v>-0.9577185479033479</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03298705314641341</v>
+        <v>0.03511525012360137</v>
       </c>
       <c r="AC48" t="n">
         <v>-0.07206024270563716</v>
@@ -6434,7 +6434,7 @@
         <v>-0.07982881056614909</v>
       </c>
       <c r="AG48" t="n">
-        <v>-0.0008017116077837394</v>
+        <v>0.09370894196130722</v>
       </c>
       <c r="AH48" t="n">
         <v>0.08879201470496707</v>
@@ -6446,7 +6446,7 @@
         <v>0.09002268137020791</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.1822067794674012</v>
+        <v>-0.1725685518191551</v>
       </c>
       <c r="AL48" t="n">
         <v>-10.34890957427704</v>
@@ -6455,7 +6455,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN48" t="n">
-        <v>-8.082781392258878</v>
+        <v>-8.073143164610631</v>
       </c>
     </row>
     <row r="49">
@@ -6504,7 +6504,7 @@
         <v>0.1892754715074416</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1106215080049643</v>
+        <v>0.1130749848219546</v>
       </c>
       <c r="P49" t="n">
         <v>0.1227711504644284</v>
@@ -6543,7 +6543,7 @@
         <v>-0.00729731138965969</v>
       </c>
       <c r="AB49" t="n">
-        <v>-0.01142459096661613</v>
+        <v>-0.01216166135155911</v>
       </c>
       <c r="AC49" t="n">
         <v>-0.02686039813872119</v>
@@ -6558,7 +6558,7 @@
         <v>0.1284377031840786</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.1112946700211885</v>
+        <v>0.2455497904946958</v>
       </c>
       <c r="AH49" t="n">
         <v>0.2615824015800838</v>
@@ -6570,7 +6570,7 @@
         <v>0.1715814565692732</v>
       </c>
       <c r="AK49" t="n">
-        <v>3.586995378176329</v>
+        <v>3.621344053614194</v>
       </c>
       <c r="AL49" t="n">
         <v>-6.886174059002296</v>
@@ -6579,7 +6579,7 @@
         <v>2.839902601579024</v>
       </c>
       <c r="AN49" t="n">
-        <v>-0.4592760792469428</v>
+        <v>-0.424927403809078</v>
       </c>
     </row>
     <row r="50">
@@ -6667,7 +6667,7 @@
         <v>-1.293791362406958</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.005334898328424697</v>
+        <v>0.005679085317355324</v>
       </c>
       <c r="AC50" t="n">
         <v>0.05549493713011123</v>
@@ -6682,7 +6682,7 @@
         <v>-0.07222867420946606</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.01323897639749088</v>
+        <v>0.1559501024081924</v>
       </c>
       <c r="AH50" t="n">
         <v>0.179157267641572</v>
@@ -6722,10 +6722,10 @@
         <v>-0.0003715105043607721</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09461341773083662</v>
+        <v>-0.09386591388316846</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.02549643211738723</v>
+        <v>-0.02522103596298318</v>
       </c>
       <c r="G51" t="n">
         <v>0.2805175846599525</v>
@@ -6749,13 +6749,13 @@
         <v>0.01233885728638696</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2203646361104828</v>
+        <v>0.2197105702437731</v>
       </c>
       <c r="O51" t="n">
         <v>0.00896742524581658</v>
       </c>
       <c r="P51" t="n">
-        <v>0.07189404479242649</v>
+        <v>0.0722965468642478</v>
       </c>
       <c r="Q51" t="n">
         <v>-0.02041800043988028</v>
@@ -6791,7 +6791,7 @@
         <v>-0.006472466771332674</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.0155148644481065</v>
+        <v>-0.01651582344475853</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0601191835791135</v>
@@ -6803,10 +6803,10 @@
         <v>0.04609508943446338</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.1681151629297671</v>
+        <v>0.1677881299964122</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.1684365355242424</v>
+        <v>0.3375226327898898</v>
       </c>
       <c r="AH51" t="n">
         <v>0.28018968608801</v>
@@ -6846,10 +6846,10 @@
         <v>-0</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1253689033762813</v>
+        <v>-0.1242696662442857</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0005277572151394326</v>
+        <v>-0.0001227751138779017</v>
       </c>
       <c r="G52" t="n">
         <v>0.2320239051030353</v>
@@ -6873,13 +6873,13 @@
         <v>0.002578369350251128</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.1064706168014858</v>
+        <v>-0.107432449291982</v>
       </c>
       <c r="O52" t="n">
         <v>0.1653498329742742</v>
       </c>
       <c r="P52" t="n">
-        <v>0.015536058920419</v>
+        <v>0.01612795583764739</v>
       </c>
       <c r="Q52" t="n">
         <v>-0.2629500357224106</v>
@@ -6915,7 +6915,7 @@
         <v>-1.448667844449929</v>
       </c>
       <c r="AB52" t="n">
-        <v>-0.01303553426236214</v>
+        <v>-0.01387653647283712</v>
       </c>
       <c r="AC52" t="n">
         <v>0.06871467331130582</v>
@@ -6927,10 +6927,10 @@
         <v>0.05191887864973042</v>
       </c>
       <c r="AF52" t="n">
-        <v>-0.07864514199051166</v>
+        <v>-0.07912605823575973</v>
       </c>
       <c r="AG52" t="n">
-        <v>-0.06873471485294079</v>
+        <v>0.0721626434442799</v>
       </c>
       <c r="AH52" t="n">
         <v>0.02011169903019877</v>
@@ -6970,10 +6970,10 @@
         <v>-0.0004249182340984003</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2370237364531894</v>
+        <v>-0.2361709696933542</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01587754300299736</v>
+        <v>0.01619172023030509</v>
       </c>
       <c r="G53" t="n">
         <v>0.2488769504648488</v>
@@ -6997,13 +6997,13 @@
         <v>0.0009272978180603537</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2542111379903144</v>
+        <v>0.2534649670754585</v>
       </c>
       <c r="O53" t="n">
         <v>0.02239640830413891</v>
       </c>
       <c r="P53" t="n">
-        <v>0.01581581237568815</v>
+        <v>0.0162749944771379</v>
       </c>
       <c r="Q53" t="n">
         <v>-0.0191789699815423</v>
@@ -7039,7 +7039,7 @@
         <v>-0.1467586151350624</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0005719015864827032</v>
+        <v>0.0006087984630299743</v>
       </c>
       <c r="AC53" t="n">
         <v>-0.05263645232794058</v>
@@ -7051,10 +7051,10 @@
         <v>0.01829745227469093</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.1357436895978884</v>
+        <v>0.1353706041404605</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.1340936265596551</v>
+        <v>0.2894047603697989</v>
       </c>
       <c r="AH53" t="n">
         <v>0.3624781143388342</v>
@@ -7075,7 +7075,7 @@
         <v>2.350373486023714</v>
       </c>
       <c r="AN53" t="n">
-        <v>-4.125636065878718</v>
+        <v>-4.125636065878719</v>
       </c>
     </row>
     <row r="54">
@@ -7094,10 +7094,10 @@
         <v>-0.0004878888732458545</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1591168135395118</v>
+        <v>-0.1561657368107577</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.002571847244996206</v>
+        <v>-0.001484608450192043</v>
       </c>
       <c r="G54" t="n">
         <v>0.003220391889804027</v>
@@ -7121,13 +7121,13 @@
         <v>0.0002138710178175601</v>
       </c>
       <c r="N54" t="n">
-        <v>0.195942589352006</v>
+        <v>0.1933603972143461</v>
       </c>
       <c r="O54" t="n">
         <v>0.1350319949034223</v>
       </c>
       <c r="P54" t="n">
-        <v>0.1183258729031687</v>
+        <v>0.1199149142186517</v>
       </c>
       <c r="Q54" t="n">
         <v>-0.01319531814078358</v>
@@ -7163,7 +7163,7 @@
         <v>-0.02498260752973103</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0004745990568439094</v>
+        <v>0.0005052183508338391</v>
       </c>
       <c r="AC54" t="n">
         <v>-0.05019835402035666</v>
@@ -7175,10 +7175,10 @@
         <v>0.08637236000304668</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.1258424280443795</v>
+        <v>0.1245513319755496</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.1064237235754235</v>
+        <v>0.2522283905129342</v>
       </c>
       <c r="AH54" t="n">
         <v>0.2591962823348584</v>
@@ -7218,10 +7218,10 @@
         <v>-0.001759877150682527</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1080371959524366</v>
+        <v>-0.1066008065537571</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.01286814990094619</v>
+        <v>-0.01233895380669586</v>
       </c>
       <c r="G55" t="n">
         <v>0.2948746204311182</v>
@@ -7245,13 +7245,13 @@
         <v>0.01247911888814314</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1994322341287242</v>
+        <v>0.1981753934048796</v>
       </c>
       <c r="O55" t="n">
         <v>0.005638218434878574</v>
       </c>
       <c r="P55" t="n">
-        <v>0.03915094886705976</v>
+        <v>0.03992438931250256</v>
       </c>
       <c r="Q55" t="n">
         <v>-0.01114372534036256</v>
@@ -7287,7 +7287,7 @@
         <v>-0.009883108976819112</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.0114891493936383</v>
+        <v>-0.01223038483838916</v>
       </c>
       <c r="AC55" t="n">
         <v>0.00921762912617744</v>
@@ -7299,10 +7299,10 @@
         <v>0.03065677911264543</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.1377238808741535</v>
+        <v>0.1370954605122313</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.1752288509732265</v>
+        <v>0.3526505899568296</v>
       </c>
       <c r="AH55" t="n">
         <v>0.3054812176399455</v>
@@ -7372,7 +7372,7 @@
         <v>0.06408178023656905</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2008934006873426</v>
+        <v>0.2010099380137065</v>
       </c>
       <c r="P56" t="n">
         <v>0.102305117805679</v>
@@ -7411,7 +7411,7 @@
         <v>-0.03454955742617902</v>
       </c>
       <c r="AB56" t="n">
-        <v>-0.008134273570675173</v>
+        <v>-0.008659065413944541</v>
       </c>
       <c r="AC56" t="n">
         <v>-0.02429419625712991</v>
@@ -7426,7 +7426,7 @@
         <v>0.07111519891788584</v>
       </c>
       <c r="AG56" t="n">
-        <v>-0.0642390676030864</v>
+        <v>0.04907040214795409</v>
       </c>
       <c r="AH56" t="n">
         <v>0.1236559866871581</v>
@@ -7438,7 +7438,7 @@
         <v>0.1111309514097872</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.08594029279470403</v>
+        <v>0.08757181536379952</v>
       </c>
       <c r="AL56" t="n">
         <v>-7.914896659987046</v>
@@ -7447,7 +7447,7 @@
         <v>2.487522546768731</v>
       </c>
       <c r="AN56" t="n">
-        <v>-5.34143382042361</v>
+        <v>-5.339802297854516</v>
       </c>
     </row>
     <row r="57">
@@ -7466,10 +7466,10 @@
         <v>-0.0004816207142038139</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1337437193741275</v>
+        <v>-0.1318806406728168</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.005204882505525746</v>
+        <v>-0.00451848508925337</v>
       </c>
       <c r="G57" t="n">
         <v>0.1038083713121333</v>
@@ -7493,13 +7493,13 @@
         <v>0.1012237799091148</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2125726193042678</v>
+        <v>0.2109424254406209</v>
       </c>
       <c r="O57" t="n">
-        <v>0.1633465553076055</v>
+        <v>0.1647695704740965</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1426488234249431</v>
+        <v>0.1436520196487258</v>
       </c>
       <c r="Q57" t="n">
         <v>-0.03496303207399891</v>
@@ -7535,7 +7535,7 @@
         <v>-0.02154186991745327</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.01837792428931619</v>
+        <v>-0.01956359682411079</v>
       </c>
       <c r="AC57" t="n">
         <v>-0.02838830344086093</v>
@@ -7547,10 +7547,10 @@
         <v>0.08435289259944032</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.1458978974389797</v>
+        <v>0.1450828005071562</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.08713733583156312</v>
+        <v>0.2510927484674319</v>
       </c>
       <c r="AH57" t="n">
         <v>0.2446608358848298</v>
@@ -7562,7 +7562,7 @@
         <v>0.1752452879725516</v>
       </c>
       <c r="AK57" t="n">
-        <v>2.629441814832449</v>
+        <v>2.649364027163323</v>
       </c>
       <c r="AL57" t="n">
         <v>-7.644414549991065</v>
@@ -7571,7 +7571,7 @@
         <v>3.082913411703236</v>
       </c>
       <c r="AN57" t="n">
-        <v>-1.93205932345538</v>
+        <v>-1.912137111124505</v>
       </c>
     </row>
     <row r="58">
@@ -7590,10 +7590,10 @@
         <v>-0.001186989885038049</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2065489283321697</v>
+        <v>-0.2053387852497053</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02453517487181076</v>
+        <v>0.02498101706008712</v>
       </c>
       <c r="G58" t="n">
         <v>0.09732723624313611</v>
@@ -7617,13 +7617,13 @@
         <v>0.1281307799853418</v>
       </c>
       <c r="N58" t="n">
-        <v>0.2412583765149734</v>
+        <v>0.240199501317817</v>
       </c>
       <c r="O58" t="n">
-        <v>0.1068009066237564</v>
+        <v>0.1104533330232863</v>
       </c>
       <c r="P58" t="n">
-        <v>0.1541395624257864</v>
+        <v>0.1547911779317288</v>
       </c>
       <c r="Q58" t="n">
         <v>0.04729741046952889</v>
@@ -7659,7 +7659,7 @@
         <v>-0.1863982064074009</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.0265513738966012</v>
+        <v>-0.02826436576089805</v>
       </c>
       <c r="AC58" t="n">
         <v>-0.0441578022017631</v>
@@ -7671,10 +7671,10 @@
         <v>0.1144056339728153</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.1840601392180383</v>
+        <v>0.1835307016194602</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.1564559653026728</v>
+        <v>0.3083228633175681</v>
       </c>
       <c r="AH58" t="n">
         <v>0.3575913748869828</v>
@@ -7686,7 +7686,7 @@
         <v>0.2903406134603872</v>
       </c>
       <c r="AK58" t="n">
-        <v>2.329477962367454</v>
+        <v>2.380611931960873</v>
       </c>
       <c r="AL58" t="n">
         <v>-7.463465556431431</v>
@@ -7695,7 +7695,7 @@
         <v>3.026334215209626</v>
       </c>
       <c r="AN58" t="n">
-        <v>-2.107653378854351</v>
+        <v>-2.056519409260933</v>
       </c>
     </row>
     <row r="59">
@@ -7714,10 +7714,10 @@
         <v>-0.0002805180383333826</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1794206821584432</v>
+        <v>-0.1782960387051047</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0184959211508254</v>
+        <v>0.01891026347573961</v>
       </c>
       <c r="G59" t="n">
         <v>0.001593197515689772</v>
@@ -7741,13 +7741,13 @@
         <v>0.0007363598506251295</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.1576441698186292</v>
+        <v>-0.1586282328403004</v>
       </c>
       <c r="O59" t="n">
         <v>0.0006975297546000967</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.09789630936753579</v>
+        <v>-0.09729073212343042</v>
       </c>
       <c r="Q59" t="n">
         <v>-0</v>
@@ -7783,7 +7783,7 @@
         <v>-1.568301711897793</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.06026343840162213</v>
+        <v>0.06415140216946871</v>
       </c>
       <c r="AC59" t="n">
         <v>-0.0001309084178889119</v>
@@ -7795,10 +7795,10 @@
         <v>-0.07107670261632912</v>
       </c>
       <c r="AF59" t="n">
-        <v>-0.1767182152611558</v>
+        <v>-0.1772102467719915</v>
       </c>
       <c r="AG59" t="n">
-        <v>-0.1238059349875932</v>
+        <v>-0.1220698374485726</v>
       </c>
       <c r="AH59" t="n">
         <v>0.0009592315056830814</v>
@@ -7838,10 +7838,10 @@
         <v>-0.0005525446757941302</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2070440156014248</v>
+        <v>-0.205923940610441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0006965404635093644</v>
+        <v>0.001109199670713903</v>
       </c>
       <c r="G60" t="n">
         <v>-0</v>
@@ -7865,13 +7865,13 @@
         <v>0.0007257531135785435</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.1801163979076891</v>
+        <v>-0.1810964635247999</v>
       </c>
       <c r="O60" t="n">
         <v>0.0008215433863531716</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.1100047895934101</v>
+        <v>-0.1094016722905727</v>
       </c>
       <c r="Q60" t="n">
         <v>0.0009669531826397278</v>
@@ -7907,7 +7907,7 @@
         <v>-1.576700906819478</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.05034234767766462</v>
+        <v>0.05359024107622363</v>
       </c>
       <c r="AC60" t="n">
         <v>-0.0003864942188698923</v>
@@ -7919,10 +7919,10 @@
         <v>-0.06266216807035038</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.1882391290732726</v>
+        <v>-0.188729161881828</v>
       </c>
       <c r="AG60" t="n">
-        <v>-0.1435340500236965</v>
+        <v>-0.1423838892828021</v>
       </c>
       <c r="AH60" t="n">
         <v>0.001196500857056866</v>
@@ -7962,19 +7962,19 @@
         <v>-0.0004678558392980388</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2508719749681779</v>
+        <v>-0.2411282971283649</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01364152615677113</v>
+        <v>0.01723130220301801</v>
       </c>
       <c r="G61" t="n">
         <v>0.2289192053299494</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1482105812293641</v>
+        <v>0.1482836914637742</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1402762126380409</v>
+        <v>0.1403081983655954</v>
       </c>
       <c r="J61" t="n">
         <v>-0.07714375523153456</v>
@@ -7989,13 +7989,13 @@
         <v>0.006860595653749232</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2570963767549332</v>
+        <v>0.2485706586450969</v>
       </c>
       <c r="O61" t="n">
-        <v>0.04704546281129368</v>
+        <v>0.05619632199618887</v>
       </c>
       <c r="P61" t="n">
-        <v>0.05792845175654028</v>
+        <v>0.06321441456573729</v>
       </c>
       <c r="Q61" t="n">
         <v>-0.1581829032053434</v>
@@ -8031,22 +8031,22 @@
         <v>-0.932952934001424</v>
       </c>
       <c r="AB61" t="n">
-        <v>-0.01668796913950528</v>
+        <v>-0.01778112107240467</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.009311719845371292</v>
+        <v>-0.009277601735979928</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.2348308009993573</v>
+        <v>0.2349587439095749</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.04898839438915593</v>
+        <v>0.04901398297119945</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.1289463302522169</v>
+        <v>0.1247154569248532</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.123447835253038</v>
+        <v>0.2625707886800587</v>
       </c>
       <c r="AH61" t="n">
         <v>0.3611512732229189</v>
@@ -8058,7 +8058,7 @@
         <v>0.2392312990678294</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.2933392152572888</v>
+        <v>0.4214512438458213</v>
       </c>
       <c r="AL61" t="n">
         <v>-10.16183652645125</v>
@@ -8067,7 +8067,7 @@
         <v>2.603377124461177</v>
       </c>
       <c r="AN61" t="n">
-        <v>-7.265120186732785</v>
+        <v>-7.137008158144253</v>
       </c>
     </row>
     <row r="62">
@@ -8116,7 +8116,7 @@
         <v>0.2360569871953485</v>
       </c>
       <c r="O62" t="n">
-        <v>0.1546724759162369</v>
+        <v>0.1588682281716769</v>
       </c>
       <c r="P62" t="n">
         <v>0.2217974056878543</v>
@@ -8155,7 +8155,7 @@
         <v>-0</v>
       </c>
       <c r="AB62" t="n">
-        <v>-0.02223914197881248</v>
+        <v>-0.02367392533228426</v>
       </c>
       <c r="AC62" t="n">
         <v>-0.08496979411707818</v>
@@ -8170,7 +8170,7 @@
         <v>0.2056603322233009</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.08490810128386778</v>
+        <v>0.1800833351538119</v>
       </c>
       <c r="AH62" t="n">
         <v>0.1983999461865253</v>
@@ -8182,7 +8182,7 @@
         <v>0.2861381433895524</v>
       </c>
       <c r="AK62" t="n">
-        <v>3.856647720080543</v>
+        <v>3.915388251656703</v>
       </c>
       <c r="AL62" t="n">
         <v>-5.731459250048257</v>
@@ -8191,7 +8191,7 @@
         <v>2.807904940120132</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.9330934101524186</v>
+        <v>0.991833941728578</v>
       </c>
     </row>
     <row r="63">
@@ -8279,7 +8279,7 @@
         <v>-0.01665656589262091</v>
       </c>
       <c r="AB63" t="n">
-        <v>-0.0001709597962205341</v>
+        <v>-0.0001819894604928266</v>
       </c>
       <c r="AC63" t="n">
         <v>-0.002179855075109285</v>
@@ -8294,7 +8294,7 @@
         <v>-0.04219723414435375</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.1034917449828233</v>
+        <v>0.2978788021142818</v>
       </c>
       <c r="AH63" t="n">
         <v>0.2687420195777582</v>
@@ -8364,7 +8364,7 @@
         <v>0.2566157784815899</v>
       </c>
       <c r="O64" t="n">
-        <v>0.120616751364369</v>
+        <v>0.1219954283295629</v>
       </c>
       <c r="P64" t="n">
         <v>0.1851736875952338</v>
@@ -8403,7 +8403,7 @@
         <v>-0</v>
       </c>
       <c r="AB64" t="n">
-        <v>-0.01469870988144209</v>
+        <v>-0.01564701374476093</v>
       </c>
       <c r="AC64" t="n">
         <v>-0.05827521879310996</v>
@@ -8418,7 +8418,7 @@
         <v>0.2072085397820577</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.1693253261649009</v>
+        <v>0.2976356783520747</v>
       </c>
       <c r="AH64" t="n">
         <v>0.2616242110807633</v>
@@ -8430,7 +8430,7 @@
         <v>0.2700738201972069</v>
       </c>
       <c r="AK64" t="n">
-        <v>4.333601025831584</v>
+        <v>4.352902503344297</v>
       </c>
       <c r="AL64" t="n">
         <v>-7.322769457503619</v>
@@ -8439,7 +8439,7 @@
         <v>2.966931020723821</v>
       </c>
       <c r="AN64" t="n">
-        <v>-0.02223741094821463</v>
+        <v>-0.002935933435500804</v>
       </c>
     </row>
     <row r="65">
@@ -8527,7 +8527,7 @@
         <v>-0.4469432618459903</v>
       </c>
       <c r="AB65" t="n">
-        <v>-0.0009930694998123435</v>
+        <v>-0.001057138499800237</v>
       </c>
       <c r="AC65" t="n">
         <v>-0.04744247962296445</v>
@@ -8542,7 +8542,7 @@
         <v>0.07910488093066706</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.03377217367235488</v>
+        <v>0.1704433144891579</v>
       </c>
       <c r="AH65" t="n">
         <v>0.1649362878343677</v>
@@ -8612,7 +8612,7 @@
         <v>-0.1040250601178567</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1418227334030428</v>
+        <v>0.1470941059867731</v>
       </c>
       <c r="P66" t="n">
         <v>0.1551344664378004</v>
@@ -8651,7 +8651,7 @@
         <v>-0.002764983439653938</v>
       </c>
       <c r="AB66" t="n">
-        <v>-0.009719545567894936</v>
+        <v>-0.01034661302388816</v>
       </c>
       <c r="AC66" t="n">
         <v>-0.05110743297540068</v>
@@ -8666,7 +8666,7 @@
         <v>-0.02224582653752888</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.07435208418345181</v>
+        <v>0.1727377757179023</v>
       </c>
       <c r="AH66" t="n">
         <v>-0.03782263562074017</v>
@@ -8678,7 +8678,7 @@
         <v>0.1076508695620903</v>
       </c>
       <c r="AK66" t="n">
-        <v>3.288824358022443</v>
+        <v>3.362623574194668</v>
       </c>
       <c r="AL66" t="n">
         <v>-8.737354212697953</v>
@@ -8687,7 +8687,7 @@
         <v>2.433918121628596</v>
       </c>
       <c r="AN66" t="n">
-        <v>-3.014611733046913</v>
+        <v>-2.940812516874689</v>
       </c>
     </row>
     <row r="67">
@@ -8736,7 +8736,7 @@
         <v>0.2521124343761889</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1482336346206797</v>
+        <v>0.1568749106308813</v>
       </c>
       <c r="P67" t="n">
         <v>0.2349571509848562</v>
@@ -8775,7 +8775,7 @@
         <v>-0.1903034753619269</v>
       </c>
       <c r="AB67" t="n">
-        <v>-0.02009743080265374</v>
+        <v>-0.02139403924153462</v>
       </c>
       <c r="AC67" t="n">
         <v>-0.09845579744512654</v>
@@ -8790,7 +8790,7 @@
         <v>0.2182960044259007</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.07960316268538346</v>
+        <v>0.2057643205774703</v>
       </c>
       <c r="AH67" t="n">
         <v>0.2434397829571826</v>
@@ -8802,7 +8802,7 @@
         <v>0.3160423877674182</v>
       </c>
       <c r="AK67" t="n">
-        <v>1.947453090464293</v>
+        <v>2.068430954607115</v>
       </c>
       <c r="AL67" t="n">
         <v>-8.202420257616994</v>
@@ -8811,7 +8811,7 @@
         <v>2.606532721370237</v>
       </c>
       <c r="AN67" t="n">
-        <v>-3.648434445782465</v>
+        <v>-3.527456581639643</v>
       </c>
     </row>
     <row r="68">
@@ -8899,7 +8899,7 @@
         <v>-0</v>
       </c>
       <c r="AB68" t="n">
-        <v>-0.007127694142431909</v>
+        <v>-0.007587545377427516</v>
       </c>
       <c r="AC68" t="n">
         <v>-0.04221053998219464</v>
@@ -8914,7 +8914,7 @@
         <v>0.1602401639982503</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.08448815124855275</v>
+        <v>0.2321305039304574</v>
       </c>
       <c r="AH68" t="n">
         <v>0.3037955036814906</v>
@@ -8984,7 +8984,7 @@
         <v>0.2393716855125168</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1420164259372839</v>
+        <v>0.1423837386702114</v>
       </c>
       <c r="P69" t="n">
         <v>0.1852391188017144</v>
@@ -9023,7 +9023,7 @@
         <v>-0.005142378260985046</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.01573457930471152</v>
+        <v>0.01674971345340259</v>
       </c>
       <c r="AC69" t="n">
         <v>-0.08174611143757318</v>
@@ -9038,7 +9038,7 @@
         <v>0.1862772605751463</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.08667176858361028</v>
+        <v>0.2039739187309</v>
       </c>
       <c r="AH69" t="n">
         <v>0.2880276397316806</v>
@@ -9050,7 +9050,7 @@
         <v>0.2775849952755857</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.466338038188766</v>
+        <v>1.471480416449751</v>
       </c>
       <c r="AL69" t="n">
         <v>-9.408061412111548</v>
@@ -9059,7 +9059,7 @@
         <v>2.553406261296868</v>
       </c>
       <c r="AN69" t="n">
-        <v>-5.388317112625915</v>
+        <v>-5.38317473436493</v>
       </c>
     </row>
     <row r="70">
@@ -9108,7 +9108,7 @@
         <v>0.177392653167075</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2299773112708239</v>
+        <v>0.2343009901223236</v>
       </c>
       <c r="P70" t="n">
         <v>0.1553638213789302</v>
@@ -9147,7 +9147,7 @@
         <v>-0.9091488902129901</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.002847051798781889</v>
+        <v>0.003030732559993624</v>
       </c>
       <c r="AC70" t="n">
         <v>-0.02999650629536038</v>
@@ -9162,7 +9162,7 @@
         <v>0.05252478079728622</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.005676429249160125</v>
+        <v>0.1133768981947681</v>
       </c>
       <c r="AH70" t="n">
         <v>0.08980580217652662</v>
@@ -9174,7 +9174,7 @@
         <v>0.0563064883312854</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.8823308989770525</v>
+        <v>0.9428624028980485</v>
       </c>
       <c r="AL70" t="n">
         <v>-8.88233198388316</v>
@@ -9183,7 +9183,7 @@
         <v>1.980333696494249</v>
       </c>
       <c r="AN70" t="n">
-        <v>-6.019667388411859</v>
+        <v>-5.959135884490864</v>
       </c>
     </row>
     <row r="71">
@@ -9232,7 +9232,7 @@
         <v>0.2444034386090219</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2060295464206784</v>
+        <v>0.2101476816943998</v>
       </c>
       <c r="P71" t="n">
         <v>0.2230622183870057</v>
@@ -9271,7 +9271,7 @@
         <v>-0.43194480247863</v>
       </c>
       <c r="AB71" t="n">
-        <v>-0.01348927309132296</v>
+        <v>-0.01435954877463412</v>
       </c>
       <c r="AC71" t="n">
         <v>-0.07141514214802394</v>
@@ -9286,7 +9286,7 @@
         <v>0.1980391125595283</v>
       </c>
       <c r="AG71" t="n">
-        <v>-0.01021044906166181</v>
+        <v>0.08645739957540913</v>
       </c>
       <c r="AH71" t="n">
         <v>0.1167484612861533</v>
@@ -9298,7 +9298,7 @@
         <v>0.1998147055052133</v>
       </c>
       <c r="AK71" t="n">
-        <v>3.035644416994101</v>
+        <v>3.0932983108262</v>
       </c>
       <c r="AL71" t="n">
         <v>-9.194569786479338</v>
@@ -9307,7 +9307,7 @@
         <v>2.915258061534266</v>
       </c>
       <c r="AN71" t="n">
-        <v>-3.243667307950971</v>
+        <v>-3.186013414118872</v>
       </c>
     </row>
     <row r="72">
@@ -9395,7 +9395,7 @@
         <v>-0</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.005536325583978588</v>
+        <v>0.005893507879719142</v>
       </c>
       <c r="AC72" t="n">
         <v>0.05542403667356834</v>
@@ -9410,7 +9410,7 @@
         <v>-0.07145967405081909</v>
       </c>
       <c r="AG72" t="n">
-        <v>-0.0375997428680274</v>
+        <v>0.1303401831133232</v>
       </c>
       <c r="AH72" t="n">
         <v>0.2099249074766882</v>
@@ -9459,10 +9459,10 @@
         <v>-0.01614052609919222</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1223675125768138</v>
+        <v>0.1224707010726895</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1996340494403277</v>
+        <v>0.1996791944072733</v>
       </c>
       <c r="J73" t="n">
         <v>-0.06464433116139871</v>
@@ -9480,10 +9480,10 @@
         <v>0.0868051573039199</v>
       </c>
       <c r="O73" t="n">
-        <v>0.2127220002868195</v>
+        <v>0.2262197992734252</v>
       </c>
       <c r="P73" t="n">
-        <v>0.1240064313179291</v>
+        <v>0.1240619943541698</v>
       </c>
       <c r="Q73" t="n">
         <v>-0.1294446176596941</v>
@@ -9519,22 +9519,22 @@
         <v>-0.00878872114169606</v>
       </c>
       <c r="AB73" t="n">
-        <v>-0.01147398424593069</v>
+        <v>-0.01223754192215621</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.02703359092478728</v>
+        <v>-0.02698543629337862</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.2002712138421911</v>
+        <v>0.2004517937099736</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.1482087681577895</v>
+        <v>0.148244884131346</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.09310542326825427</v>
+        <v>0.09315056823519989</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.0005338477794575889</v>
+        <v>0.1195503079946464</v>
       </c>
       <c r="AH73" t="n">
         <v>-0.00855456328039006</v>
@@ -9546,7 +9546,7 @@
         <v>0.03135610442776928</v>
       </c>
       <c r="AK73" t="n">
-        <v>4.199475503647334</v>
+        <v>4.388444689459813</v>
       </c>
       <c r="AL73" t="n">
         <v>-11.93633320006451</v>
@@ -9555,7 +9555,7 @@
         <v>2.544717952291438</v>
       </c>
       <c r="AN73" t="n">
-        <v>-5.192139744125738</v>
+        <v>-5.00317055831326</v>
       </c>
     </row>
     <row r="74">
@@ -9643,7 +9643,7 @@
         <v>-0</v>
       </c>
       <c r="AB74" t="n">
-        <v>-0.002835949998680272</v>
+        <v>-0.00301891451472416</v>
       </c>
       <c r="AC74" t="n">
         <v>-0.08191273414502338</v>
@@ -9658,7 +9658,7 @@
         <v>0.1504564917797606</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.06047237287187448</v>
+        <v>0.1714474057207723</v>
       </c>
       <c r="AH74" t="n">
         <v>0.1950755526322664</v>
@@ -9728,7 +9728,7 @@
         <v>0.236753485644637</v>
       </c>
       <c r="O75" t="n">
-        <v>0.116297853069077</v>
+        <v>0.1202394941849679</v>
       </c>
       <c r="P75" t="n">
         <v>0.2000388169908829</v>
@@ -9767,7 +9767,7 @@
         <v>-0.1163116927549799</v>
       </c>
       <c r="AB75" t="n">
-        <v>-0.01076593711517834</v>
+        <v>-0.01146051370325436</v>
       </c>
       <c r="AC75" t="n">
         <v>-0.0889368626706815</v>
@@ -9782,7 +9782,7 @@
         <v>0.1928703914611772</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.1185891615152031</v>
+        <v>0.2568819064756502</v>
       </c>
       <c r="AH75" t="n">
         <v>0.3035562943275896</v>
@@ -9794,7 +9794,7 @@
         <v>0.3154337569703177</v>
       </c>
       <c r="AK75" t="n">
-        <v>3.446447356190167</v>
+        <v>3.50163033181264</v>
       </c>
       <c r="AL75" t="n">
         <v>-7.191024390570621</v>
@@ -9803,7 +9803,7 @@
         <v>2.678264677601537</v>
       </c>
       <c r="AN75" t="n">
-        <v>-1.066312356778917</v>
+        <v>-1.011129381156444</v>
       </c>
     </row>
     <row r="76">
@@ -9891,7 +9891,7 @@
         <v>-0.0537114507544224</v>
       </c>
       <c r="AB76" t="n">
-        <v>-0.01131870870932339</v>
+        <v>-0.01204894798089264</v>
       </c>
       <c r="AC76" t="n">
         <v>-0.04353845851678051</v>
@@ -9906,7 +9906,7 @@
         <v>0.136169305415119</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.0895714630119176</v>
+        <v>0.2342684763054879</v>
       </c>
       <c r="AH76" t="n">
         <v>0.2878306282186284</v>
@@ -9927,7 +9927,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN76" t="n">
-        <v>-6.950923142727433</v>
+        <v>-6.950923142727434</v>
       </c>
     </row>
     <row r="77">
@@ -9976,7 +9976,7 @@
         <v>0.1553846167094519</v>
       </c>
       <c r="O77" t="n">
-        <v>0.1807952781810349</v>
+        <v>0.1861022685675013</v>
       </c>
       <c r="P77" t="n">
         <v>0.1963845929640857</v>
@@ -10015,7 +10015,7 @@
         <v>-0.1057884908055507</v>
       </c>
       <c r="AB77" t="n">
-        <v>-0.01080205128338932</v>
+        <v>-0.01149895781780153</v>
       </c>
       <c r="AC77" t="n">
         <v>-0.06298057964366817</v>
@@ -10030,7 +10030,7 @@
         <v>0.1304355402984984</v>
       </c>
       <c r="AG77" t="n">
-        <v>0.07595082986595664</v>
+        <v>0.176600193487987</v>
       </c>
       <c r="AH77" t="n">
         <v>0.1386076559212341</v>
@@ -10042,7 +10042,7 @@
         <v>0.1641204189601657</v>
       </c>
       <c r="AK77" t="n">
-        <v>3.113836978251024</v>
+        <v>3.188134843661555</v>
       </c>
       <c r="AL77" t="n">
         <v>-7.73280622254592</v>
@@ -10051,7 +10051,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN77" t="n">
-        <v>-2.245914615749992</v>
+        <v>-2.171616750339462</v>
       </c>
     </row>
     <row r="78">
@@ -10100,7 +10100,7 @@
         <v>0.1383400292825439</v>
       </c>
       <c r="O78" t="n">
-        <v>0.1191632075092365</v>
+        <v>0.122166618937534</v>
       </c>
       <c r="P78" t="n">
         <v>0.1998841318141041</v>
@@ -10139,7 +10139,7 @@
         <v>-0.03531646464416969</v>
       </c>
       <c r="AB78" t="n">
-        <v>-0.02423967668138047</v>
+        <v>-0.02580352678985663</v>
       </c>
       <c r="AC78" t="n">
         <v>-0.04036028524371561</v>
@@ -10154,7 +10154,7 @@
         <v>0.1560902903871056</v>
       </c>
       <c r="AG78" t="n">
-        <v>0.2189686060227004</v>
+        <v>0.3635121962875444</v>
       </c>
       <c r="AH78" t="n">
         <v>0.2577615210129309</v>
@@ -10166,7 +10166,7 @@
         <v>0.2026259369483401</v>
       </c>
       <c r="AK78" t="n">
-        <v>3.237436272210534</v>
+        <v>3.2794840322067</v>
       </c>
       <c r="AL78" t="n">
         <v>-6.203589031298053</v>
@@ -10175,7 +10175,7 @@
         <v>3.047668085045672</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.08151532595815336</v>
+        <v>0.1235630859543186</v>
       </c>
     </row>
     <row r="79">
@@ -10224,7 +10224,7 @@
         <v>0.1732733078716905</v>
       </c>
       <c r="O79" t="n">
-        <v>0.1138235747670937</v>
+        <v>0.1147320155090815</v>
       </c>
       <c r="P79" t="n">
         <v>0.1706278462770962</v>
@@ -10263,7 +10263,7 @@
         <v>-0.2869293514886067</v>
       </c>
       <c r="AB79" t="n">
-        <v>-0.01812603344323669</v>
+        <v>-0.01929545495570358</v>
       </c>
       <c r="AC79" t="n">
         <v>-0.07479681295760979</v>
@@ -10278,7 +10278,7 @@
         <v>0.1248327844360189</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.1689521617828212</v>
+        <v>0.2888774596070854</v>
       </c>
       <c r="AH79" t="n">
         <v>0.2150596214113201</v>
@@ -10290,7 +10290,7 @@
         <v>0.2571591641461917</v>
       </c>
       <c r="AK79" t="n">
-        <v>4.678344079481873</v>
+        <v>4.691062249869701</v>
       </c>
       <c r="AL79" t="n">
         <v>-6.326593803449509</v>
@@ -10299,7 +10299,7 @@
         <v>2.998095499299937</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.349845775332301</v>
+        <v>1.36256394572013</v>
       </c>
     </row>
     <row r="80">
@@ -10348,7 +10348,7 @@
         <v>0.08991014110611627</v>
       </c>
       <c r="O80" t="n">
-        <v>0.2063107837401507</v>
+        <v>0.2077402480768626</v>
       </c>
       <c r="P80" t="n">
         <v>0.1575948456543085</v>
@@ -10387,7 +10387,7 @@
         <v>-0</v>
       </c>
       <c r="AB80" t="n">
-        <v>-0.003984167747136386</v>
+        <v>-0.004241210827596798</v>
       </c>
       <c r="AC80" t="n">
         <v>-0.04486541256726505</v>
@@ -10402,7 +10402,7 @@
         <v>0.06769377627453829</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.014525846759871</v>
+        <v>0.1275497407415564</v>
       </c>
       <c r="AH80" t="n">
         <v>0.0684156521230381</v>
@@ -10414,7 +10414,7 @@
         <v>0.05139794557285706</v>
       </c>
       <c r="AK80" t="n">
-        <v>3.040343970455447</v>
+        <v>3.060356471169412</v>
       </c>
       <c r="AL80" t="n">
         <v>-11.40993644727429</v>
@@ -10423,7 +10423,7 @@
         <v>2.013415045137802</v>
       </c>
       <c r="AN80" t="n">
-        <v>-6.356177431681046</v>
+        <v>-6.336164930967079</v>
       </c>
     </row>
     <row r="81">
@@ -10511,7 +10511,7 @@
         <v>-0.1185264543351096</v>
       </c>
       <c r="AB81" t="n">
-        <v>-0.007784474676520985</v>
+        <v>-0.008286698849199758</v>
       </c>
       <c r="AC81" t="n">
         <v>-0.03606268806439524</v>
@@ -10526,7 +10526,7 @@
         <v>0.1473951911089525</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.1018188210734685</v>
+        <v>0.228651725220991</v>
       </c>
       <c r="AH81" t="n">
         <v>0.2959067844980013</v>
@@ -10596,7 +10596,7 @@
         <v>0.1648243809739937</v>
       </c>
       <c r="O82" t="n">
-        <v>0.1509382218724641</v>
+        <v>0.157028632769649</v>
       </c>
       <c r="P82" t="n">
         <v>0.06049332654275396</v>
@@ -10635,7 +10635,7 @@
         <v>-0.01266069782466638</v>
       </c>
       <c r="AB82" t="n">
-        <v>-0.0113483056880691</v>
+        <v>-0.01208045444213807</v>
       </c>
       <c r="AC82" t="n">
         <v>0.03460024135756162</v>
@@ -10650,7 +10650,7 @@
         <v>0.1352502947986602</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.0519586235146708</v>
+        <v>0.2167893074375295</v>
       </c>
       <c r="AH82" t="n">
         <v>0.2524007596958662</v>
@@ -10662,7 +10662,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.2767299222625451</v>
+        <v>0.3619956748231339</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.437435407552986</v>
@@ -10671,7 +10671,7 @@
         <v>1.87250846798494</v>
       </c>
       <c r="AN82" t="n">
-        <v>-7.288197017305501</v>
+        <v>-7.202931264744912</v>
       </c>
     </row>
     <row r="83">
@@ -10720,7 +10720,7 @@
         <v>0.06173801765697602</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1370606510346396</v>
+        <v>0.1469096192250984</v>
       </c>
       <c r="P83" t="n">
         <v>0.2117523127691307</v>
@@ -10759,7 +10759,7 @@
         <v>-0.5591741703102994</v>
       </c>
       <c r="AB83" t="n">
-        <v>-0.01681324646531738</v>
+        <v>-0.01789797204372496</v>
       </c>
       <c r="AC83" t="n">
         <v>-0.0424489151372844</v>
@@ -10774,7 +10774,7 @@
         <v>0.1356706572109402</v>
       </c>
       <c r="AG83" t="n">
-        <v>0.03476072153914228</v>
+        <v>0.1745349612166309</v>
       </c>
       <c r="AH83" t="n">
         <v>0.03502678864381828</v>
@@ -10786,7 +10786,7 @@
         <v>0.06319911888754612</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.545230363135113</v>
+        <v>1.683115917801537</v>
       </c>
       <c r="AL83" t="n">
         <v>-11.97719473953711</v>
@@ -10795,7 +10795,7 @@
         <v>2.727880518977305</v>
       </c>
       <c r="AN83" t="n">
-        <v>-7.70408385742469</v>
+        <v>-7.566198302758266</v>
       </c>
     </row>
     <row r="84">
@@ -10844,7 +10844,7 @@
         <v>0.186770858258794</v>
       </c>
       <c r="O84" t="n">
-        <v>0.1716517901404473</v>
+        <v>0.1723003823312248</v>
       </c>
       <c r="P84" t="n">
         <v>0.2188863239572416</v>
@@ -10883,7 +10883,7 @@
         <v>-0</v>
       </c>
       <c r="AB84" t="n">
-        <v>-0.01136426075390568</v>
+        <v>-0.01209743886706088</v>
       </c>
       <c r="AC84" t="n">
         <v>-0.06408840630286552</v>
@@ -10898,7 +10898,7 @@
         <v>0.171338138390403</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.1147028752824696</v>
+        <v>0.2203746826761105</v>
       </c>
       <c r="AH84" t="n">
         <v>0.175656427321627</v>
@@ -10910,7 +10910,7 @@
         <v>0.1997947610184442</v>
       </c>
       <c r="AK84" t="n">
-        <v>3.688041383278203</v>
+        <v>3.697121673949088</v>
       </c>
       <c r="AL84" t="n">
         <v>-5.550990009462243</v>
@@ -10919,7 +10919,7 @@
         <v>2.558311126585456</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.6953625004014157</v>
+        <v>0.7044427910723012</v>
       </c>
     </row>
     <row r="85">
@@ -10968,7 +10968,7 @@
         <v>0.001265525309147249</v>
       </c>
       <c r="O85" t="n">
-        <v>0.06009689700089443</v>
+        <v>0.06147426200811245</v>
       </c>
       <c r="P85" t="n">
         <v>0.04442058293397588</v>
@@ -11007,7 +11007,7 @@
         <v>-0.01112352987000443</v>
       </c>
       <c r="AB85" t="n">
-        <v>-0.04624779338789506</v>
+        <v>-0.04923152199356571</v>
       </c>
       <c r="AC85" t="n">
         <v>0.03973288783119523</v>
@@ -11022,7 +11022,7 @@
         <v>0.03660915905863993</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.1799745075365457</v>
+        <v>0.3675169741875506</v>
       </c>
       <c r="AH85" t="n">
         <v>0.257793055246527</v>
@@ -11034,7 +11034,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.213952509342103</v>
+        <v>0.2332356194431552</v>
       </c>
       <c r="AL85" t="n">
         <v>-9.711890026635315</v>
@@ -11043,7 +11043,7 @@
         <v>1.959814633997636</v>
       </c>
       <c r="AN85" t="n">
-        <v>-7.538122883295575</v>
+        <v>-7.518839773194523</v>
       </c>
     </row>
     <row r="86">
@@ -11092,7 +11092,7 @@
         <v>0.2240374297404278</v>
       </c>
       <c r="O86" t="n">
-        <v>0.05568471561423332</v>
+        <v>0.05816787617728627</v>
       </c>
       <c r="P86" t="n">
         <v>0.02452190227066224</v>
@@ -11131,7 +11131,7 @@
         <v>-0.002775231387057928</v>
       </c>
       <c r="AB86" t="n">
-        <v>-0.003854547736432048</v>
+        <v>-0.004103228235556697</v>
       </c>
       <c r="AC86" t="n">
         <v>-0.04820292354866972</v>
@@ -11146,7 +11146,7 @@
         <v>0.1465421149424639</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.08693012116814682</v>
+        <v>0.2490651166341689</v>
       </c>
       <c r="AH86" t="n">
         <v>0.3193067198885226</v>
@@ -11158,7 +11158,7 @@
         <v>0.2322621447911732</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.9918580619615537</v>
+        <v>1.026622309844295</v>
       </c>
       <c r="AL86" t="n">
         <v>-10.44853568355692</v>
@@ -11167,7 +11167,7 @@
         <v>1.819341721761147</v>
       </c>
       <c r="AN86" t="n">
-        <v>-7.637335899834223</v>
+        <v>-7.602571651951481</v>
       </c>
     </row>
     <row r="87">
@@ -11216,7 +11216,7 @@
         <v>0.2014063002708468</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03167809948910465</v>
+        <v>0.03226001552896158</v>
       </c>
       <c r="P87" t="n">
         <v>0.1022146643514083</v>
@@ -11255,7 +11255,7 @@
         <v>-0.334734383632582</v>
       </c>
       <c r="AB87" t="n">
-        <v>-0.006049515911981985</v>
+        <v>-0.006439807261142113</v>
       </c>
       <c r="AC87" t="n">
         <v>-0.1086834393122153</v>
@@ -11270,7 +11270,7 @@
         <v>0.1665705834348781</v>
       </c>
       <c r="AG87" t="n">
-        <v>0.1459903661409299</v>
+        <v>0.3140904402711466</v>
       </c>
       <c r="AH87" t="n">
         <v>0.3386181343556855</v>
@@ -11282,7 +11282,7 @@
         <v>0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.913980471739723</v>
+        <v>1.92212729629772</v>
       </c>
       <c r="AL87" t="n">
         <v>-7.847390299979631</v>
@@ -11291,7 +11291,7 @@
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-3.508051929189621</v>
+        <v>-3.499905104631624</v>
       </c>
     </row>
     <row r="88">
@@ -11379,7 +11379,7 @@
         <v>-0.00278716450068783</v>
       </c>
       <c r="AB88" t="n">
-        <v>0.01686850021639278</v>
+        <v>0.01795679055293424</v>
       </c>
       <c r="AC88" t="n">
         <v>-0.05826428370068658</v>
@@ -11394,7 +11394,7 @@
         <v>0.01319927214555842</v>
       </c>
       <c r="AG88" t="n">
-        <v>-0.03517015597732608</v>
+        <v>-0.01290929287164065</v>
       </c>
       <c r="AH88" t="n">
         <v>-0.03059211649412833</v>
@@ -11503,7 +11503,7 @@
         <v>-0</v>
       </c>
       <c r="AB89" t="n">
-        <v>-0.007811886305451826</v>
+        <v>-0.008315878970319686</v>
       </c>
       <c r="AC89" t="n">
         <v>-0.07572147741116314</v>
@@ -11518,7 +11518,7 @@
         <v>0.2041486855792177</v>
       </c>
       <c r="AG89" t="n">
-        <v>0.04944252919920467</v>
+        <v>0.1725446783633747</v>
       </c>
       <c r="AH89" t="n">
         <v>0.2006257649109763</v>
@@ -11539,7 +11539,7 @@
         <v>2.381801182601639</v>
       </c>
       <c r="AN89" t="n">
-        <v>-5.380900898600787</v>
+        <v>-5.380900898600786</v>
       </c>
     </row>
     <row r="90">
@@ -11588,7 +11588,7 @@
         <v>0.2273415326707826</v>
       </c>
       <c r="O90" t="n">
-        <v>0.1669095507352683</v>
+        <v>0.1686337044528414</v>
       </c>
       <c r="P90" t="n">
         <v>0.2114348412407297</v>
@@ -11627,7 +11627,7 @@
         <v>-0.1728894559473952</v>
       </c>
       <c r="AB90" t="n">
-        <v>-0.01591115943490565</v>
+        <v>-0.01693768585006085</v>
       </c>
       <c r="AC90" t="n">
         <v>-0.06084663224309323</v>
@@ -11642,7 +11642,7 @@
         <v>0.1907438225860597</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.1046971345497546</v>
+        <v>0.2397852000238823</v>
       </c>
       <c r="AH90" t="n">
         <v>0.2365540942968798</v>
@@ -11654,7 +11654,7 @@
         <v>0.2306404980166452</v>
       </c>
       <c r="AK90" t="n">
-        <v>2.678710426851622</v>
+        <v>2.702848578897645</v>
       </c>
       <c r="AL90" t="n">
         <v>-5.614459330744943</v>
@@ -11663,7 +11663,7 @@
         <v>2.655563428030504</v>
       </c>
       <c r="AN90" t="n">
-        <v>-0.2801854758628171</v>
+        <v>-0.2560473238167935</v>
       </c>
     </row>
     <row r="91">
@@ -11712,7 +11712,7 @@
         <v>0.1936586035129337</v>
       </c>
       <c r="O91" t="n">
-        <v>0.1580927544519651</v>
+        <v>0.1624294582768775</v>
       </c>
       <c r="P91" t="n">
         <v>0.2024064177114895</v>
@@ -11751,7 +11751,7 @@
         <v>-0</v>
       </c>
       <c r="AB91" t="n">
-        <v>-0.01020885161321631</v>
+        <v>-0.01086748720116575</v>
       </c>
       <c r="AC91" t="n">
         <v>-0.04999073025387538</v>
@@ -11766,7 +11766,7 @@
         <v>0.1609016230190277</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.08707440385397117</v>
+        <v>0.2044931025528801</v>
       </c>
       <c r="AH91" t="n">
         <v>0.1903666681555512</v>
@@ -11778,7 +11778,7 @@
         <v>0.2126870273645982</v>
       </c>
       <c r="AK91" t="n">
-        <v>3.1426535575067</v>
+        <v>3.203367411055473</v>
       </c>
       <c r="AL91" t="n">
         <v>-6.932843760220323</v>
@@ -11787,7 +11787,7 @@
         <v>2.433837675097362</v>
       </c>
       <c r="AN91" t="n">
-        <v>-1.356352527616262</v>
+        <v>-1.295638674067488</v>
       </c>
     </row>
     <row r="92">
@@ -11875,7 +11875,7 @@
         <v>-0.01530621761421376</v>
       </c>
       <c r="AB92" t="n">
-        <v>-0.005056458287284868</v>
+        <v>-0.005051589556239104</v>
       </c>
       <c r="AC92" t="n">
         <v>-0.01178124551399449</v>
@@ -11890,7 +11890,7 @@
         <v>0.1438617984744377</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.1661325970811079</v>
+        <v>0.3367825672067298</v>
       </c>
       <c r="AH92" t="n">
         <v>0.3864965069589916</v>
@@ -11939,10 +11939,10 @@
         <v>0.0174347667682531</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07636695089485039</v>
+        <v>0.07654689785330659</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1273697975524702</v>
+        <v>0.1274485243467948</v>
       </c>
       <c r="J93" t="n">
         <v>-0.1221455532674856</v>
@@ -11960,10 +11960,10 @@
         <v>0.2383427663576508</v>
       </c>
       <c r="O93" t="n">
-        <v>0.1212251414621022</v>
+        <v>0.1238493832738642</v>
       </c>
       <c r="P93" t="n">
-        <v>0.164508595472651</v>
+        <v>0.1646054899887429</v>
       </c>
       <c r="Q93" t="n">
         <v>0.08032911972618569</v>
@@ -11999,22 +11999,22 @@
         <v>-0.08973551776357765</v>
       </c>
       <c r="AB93" t="n">
-        <v>-0.01225305214324785</v>
+        <v>-0.01308420482052815</v>
       </c>
       <c r="AC93" t="n">
-        <v>-0.05878040068566041</v>
+        <v>-0.05869642543838084</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.1298744848281492</v>
+        <v>0.1301893920054475</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.1247572234681965</v>
+        <v>0.1248202049036562</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.1799435662798032</v>
+        <v>0.1800222930741278</v>
       </c>
       <c r="AG93" t="n">
-        <v>0.1575697581190514</v>
+        <v>0.2849981030885898</v>
       </c>
       <c r="AH93" t="n">
         <v>0.2796918534552905</v>
@@ -12026,7 +12026,7 @@
         <v>0.2608321684737274</v>
       </c>
       <c r="AK93" t="n">
-        <v>2.726776023504444</v>
+        <v>2.763515408869112</v>
       </c>
       <c r="AL93" t="n">
         <v>-5.873510411949113</v>
@@ -12035,7 +12035,7 @@
         <v>2.855159933826961</v>
       </c>
       <c r="AN93" t="n">
-        <v>-0.2915744546177081</v>
+        <v>-0.2548350692530401</v>
       </c>
     </row>
     <row r="94">
@@ -12123,7 +12123,7 @@
         <v>-0.0288792172623222</v>
       </c>
       <c r="AB94" t="n">
-        <v>-0.0002621322513372868</v>
+        <v>-0.0002790440094880795</v>
       </c>
       <c r="AC94" t="n">
         <v>-0.009901613195428172</v>
@@ -12138,7 +12138,7 @@
         <v>0.1180042464323211</v>
       </c>
       <c r="AG94" t="n">
-        <v>0.1243301694457056</v>
+        <v>0.2986006015157672</v>
       </c>
       <c r="AH94" t="n">
         <v>0.3409072000275076</v>
@@ -12208,7 +12208,7 @@
         <v>0.231086843940341</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04796404131404099</v>
+        <v>0.05103406866440156</v>
       </c>
       <c r="P95" t="n">
         <v>0.02554411563037182</v>
@@ -12247,7 +12247,7 @@
         <v>-0</v>
       </c>
       <c r="AB95" t="n">
-        <v>-0.006058982609316439</v>
+        <v>-0.006449884713143306</v>
       </c>
       <c r="AC95" t="n">
         <v>-0.03783573074937488</v>
@@ -12262,7 +12262,7 @@
         <v>0.1481367185436335</v>
       </c>
       <c r="AG95" t="n">
-        <v>0.1072020805789969</v>
+        <v>0.2744813708282282</v>
       </c>
       <c r="AH95" t="n">
         <v>0.3498979077778523</v>
@@ -12274,7 +12274,7 @@
         <v>0.2273493467500137</v>
       </c>
       <c r="AK95" t="n">
-        <v>0.7755690674807052</v>
+        <v>0.8185494503857533</v>
       </c>
       <c r="AL95" t="n">
         <v>-12.0714880652931</v>
@@ -12283,7 +12283,7 @@
         <v>1.730605606249227</v>
       </c>
       <c r="AN95" t="n">
-        <v>-9.565313391563173</v>
+        <v>-9.522333008658125</v>
       </c>
     </row>
     <row r="96">
@@ -12332,7 +12332,7 @@
         <v>0.08178946131859616</v>
       </c>
       <c r="O96" t="n">
-        <v>0.09922855968223672</v>
+        <v>0.1062601492545764</v>
       </c>
       <c r="P96" t="n">
         <v>0.09435878862302641</v>
@@ -12371,7 +12371,7 @@
         <v>-0.1542175632287701</v>
       </c>
       <c r="AB96" t="n">
-        <v>-0.0365222969560727</v>
+        <v>-0.03887857417904514</v>
       </c>
       <c r="AC96" t="n">
         <v>0.02031398771733459</v>
@@ -12386,7 +12386,7 @@
         <v>0.08351100387165157</v>
       </c>
       <c r="AG96" t="n">
-        <v>0.2633439821027245</v>
+        <v>0.413967749457668</v>
       </c>
       <c r="AH96" t="n">
         <v>0.2241841581804377</v>
@@ -12398,7 +12398,7 @@
         <v>0.06605395394971005</v>
       </c>
       <c r="AK96" t="n">
-        <v>4.020675944375481</v>
+        <v>4.119118198388236</v>
       </c>
       <c r="AL96" t="n">
         <v>-8.93409847828973</v>
@@ -12407,7 +12407,7 @@
         <v>3.335239623901399</v>
       </c>
       <c r="AN96" t="n">
-        <v>-1.57818291001285</v>
+        <v>-1.479740656000095</v>
       </c>
     </row>
     <row r="97">
@@ -12456,7 +12456,7 @@
         <v>0.1858727329156639</v>
       </c>
       <c r="O97" t="n">
-        <v>0.1981218305779981</v>
+        <v>0.2008074515727563</v>
       </c>
       <c r="P97" t="n">
         <v>0.1832629989849316</v>
@@ -12495,7 +12495,7 @@
         <v>-1.212859966153136</v>
       </c>
       <c r="AB97" t="n">
-        <v>-0.01405225203285021</v>
+        <v>-0.01495884893819538</v>
       </c>
       <c r="AC97" t="n">
         <v>-0.06540403666240825</v>
@@ -12510,7 +12510,7 @@
         <v>0.09895542865127593</v>
       </c>
       <c r="AG97" t="n">
-        <v>0.004718579112768561</v>
+        <v>0.09615535995840629</v>
       </c>
       <c r="AH97" t="n">
         <v>0.1017094357567074</v>
@@ -12522,7 +12522,7 @@
         <v>0.1575729328062057</v>
       </c>
       <c r="AK97" t="n">
-        <v>1.285823835084751</v>
+        <v>1.323422529011367</v>
       </c>
       <c r="AL97" t="n">
         <v>-7.973600439924182</v>
@@ -12531,7 +12531,7 @@
         <v>2.645633434644179</v>
       </c>
       <c r="AN97" t="n">
-        <v>-4.042143170195252</v>
+        <v>-4.004544476268636</v>
       </c>
     </row>
     <row r="98">
@@ -12619,7 +12619,7 @@
         <v>-0.6149146120798978</v>
       </c>
       <c r="AB98" t="n">
-        <v>-0.005217910255283975</v>
+        <v>-0.005554549626592619</v>
       </c>
       <c r="AC98" t="n">
         <v>-0.02753318930495817</v>
@@ -12634,7 +12634,7 @@
         <v>0.08573157750818118</v>
       </c>
       <c r="AG98" t="n">
-        <v>0.0869357658248191</v>
+        <v>0.2466135222323741</v>
       </c>
       <c r="AH98" t="n">
         <v>0.3473627991086832</v>
@@ -12743,7 +12743,7 @@
         <v>-0.05688885551753876</v>
       </c>
       <c r="AB99" t="n">
-        <v>-0.01220721433270852</v>
+        <v>-0.01299477654772197</v>
       </c>
       <c r="AC99" t="n">
         <v>-0.015217790503858</v>
@@ -12758,7 +12758,7 @@
         <v>0.1302344033010509</v>
       </c>
       <c r="AG99" t="n">
-        <v>0.1563166784324256</v>
+        <v>0.3267747134063935</v>
       </c>
       <c r="AH99" t="n">
         <v>0.3852545850835572</v>
@@ -12828,7 +12828,7 @@
         <v>0.2706164258709966</v>
       </c>
       <c r="O100" t="n">
-        <v>0.1569444121274737</v>
+        <v>0.1606711141067969</v>
       </c>
       <c r="P100" t="n">
         <v>0.2365040491095654</v>
@@ -12867,7 +12867,7 @@
         <v>-0</v>
       </c>
       <c r="AB100" t="n">
-        <v>-0.007986744356079279</v>
+        <v>-0.008502018185503748</v>
       </c>
       <c r="AC100" t="n">
         <v>-0.09269115529590231</v>
@@ -12882,7 +12882,7 @@
         <v>0.2380786108928368</v>
       </c>
       <c r="AG100" t="n">
-        <v>0.03766219068593992</v>
+        <v>0.1274801147019807</v>
       </c>
       <c r="AH100" t="n">
         <v>0.1989789547167529</v>
@@ -12894,7 +12894,7 @@
         <v>0.3146553283164298</v>
       </c>
       <c r="AK100" t="n">
-        <v>2.362715409924887</v>
+        <v>2.414889237635412</v>
       </c>
       <c r="AL100" t="n">
         <v>-8.430759973584665</v>
@@ -12903,7 +12903,7 @@
         <v>2.616048750996152</v>
       </c>
       <c r="AN100" t="n">
-        <v>-3.451995812663626</v>
+        <v>-3.399821984953101</v>
       </c>
     </row>
     <row r="101">
@@ -12991,7 +12991,7 @@
         <v>-0.01637628773630221</v>
       </c>
       <c r="AB101" t="n">
-        <v>-0.01004100464101829</v>
+        <v>-0.01068881139205173</v>
       </c>
       <c r="AC101" t="n">
         <v>0.003849604808278639</v>
@@ -13006,7 +13006,7 @@
         <v>-0.01911693258050362</v>
       </c>
       <c r="AG101" t="n">
-        <v>-0.09214144414961987</v>
+        <v>-0.0008634557545696309</v>
       </c>
       <c r="AH101" t="n">
         <v>0.2133751142085143</v>
@@ -13115,7 +13115,7 @@
         <v>-0.172332525119654</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.0190891573967279</v>
+        <v>0.02032071593845228</v>
       </c>
       <c r="AC102" t="n">
         <v>0.08609630679380431</v>
@@ -13130,7 +13130,7 @@
         <v>-0.0204409434483398</v>
       </c>
       <c r="AG102" t="n">
-        <v>-0.006138657664318692</v>
+        <v>0.1384123718247177</v>
       </c>
       <c r="AH102" t="n">
         <v>0.1814787143707549</v>
@@ -13239,7 +13239,7 @@
         <v>-0.002794877281409848</v>
       </c>
       <c r="AB103" t="n">
-        <v>0.00444941756648347</v>
+        <v>0.004736476764321114</v>
       </c>
       <c r="AC103" t="n">
         <v>-0.0580374681098379</v>
@@ -13254,7 +13254,7 @@
         <v>0.06818416346163975</v>
       </c>
       <c r="AG103" t="n">
-        <v>-0.1170167218287117</v>
+        <v>-0.04993197845336551</v>
       </c>
       <c r="AH103" t="n">
         <v>-0.09226384949326952</v>
@@ -13275,7 +13275,7 @@
         <v>1.204401773911864</v>
       </c>
       <c r="AN103" t="n">
-        <v>-7.752621179009253</v>
+        <v>-7.752621179009252</v>
       </c>
     </row>
     <row r="104">
@@ -13324,7 +13324,7 @@
         <v>0.2536383551987321</v>
       </c>
       <c r="O104" t="n">
-        <v>0.09358987121564422</v>
+        <v>0.1139141906510889</v>
       </c>
       <c r="P104" t="n">
         <v>0.1834720861759723</v>
@@ -13363,7 +13363,7 @@
         <v>-0.617449191429001</v>
       </c>
       <c r="AB104" t="n">
-        <v>-0.0205694699809548</v>
+        <v>-0.02189653256037124</v>
       </c>
       <c r="AC104" t="n">
         <v>-0.06769575338989803</v>
@@ -13378,7 +13378,7 @@
         <v>0.2384638054695662</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.08635285382342764</v>
+        <v>0.2267767021010014</v>
       </c>
       <c r="AH104" t="n">
         <v>0.2582112075158384</v>
@@ -13390,7 +13390,7 @@
         <v>0.2827785212685758</v>
       </c>
       <c r="AK104" t="n">
-        <v>1.391215585791564</v>
+        <v>1.67575605788779</v>
       </c>
       <c r="AL104" t="n">
         <v>-9.423818852944082</v>
@@ -13399,7 +13399,7 @@
         <v>2.699182906316397</v>
       </c>
       <c r="AN104" t="n">
-        <v>-5.33342036083612</v>
+        <v>-5.048879888739895</v>
       </c>
     </row>
     <row r="105">
@@ -13448,7 +13448,7 @@
         <v>0.1511761381462326</v>
       </c>
       <c r="O105" t="n">
-        <v>0.1764628041226624</v>
+        <v>0.1767644501636299</v>
       </c>
       <c r="P105" t="n">
         <v>0.2132080240704103</v>
@@ -13487,7 +13487,7 @@
         <v>-0.02071617831491532</v>
       </c>
       <c r="AB105" t="n">
-        <v>-0.01290112443905823</v>
+        <v>-0.01373345504802973</v>
       </c>
       <c r="AC105" t="n">
         <v>-0.06151996339107698</v>
@@ -13502,7 +13502,7 @@
         <v>0.1370799830913506</v>
       </c>
       <c r="AG105" t="n">
-        <v>-0.02956405641313182</v>
+        <v>0.002338631398731293</v>
       </c>
       <c r="AH105" t="n">
         <v>0.02868724535358572</v>
@@ -13514,7 +13514,7 @@
         <v>0.1792086940263051</v>
       </c>
       <c r="AK105" t="n">
-        <v>4.21921198671791</v>
+        <v>4.223435031291454</v>
       </c>
       <c r="AL105" t="n">
         <v>-8.227310405747662</v>
@@ -13523,7 +13523,7 @@
         <v>1.85321162898101</v>
       </c>
       <c r="AN105" t="n">
-        <v>-2.154886790048742</v>
+        <v>-2.150663745475198</v>
       </c>
     </row>
     <row r="106">
@@ -13572,7 +13572,7 @@
         <v>0.1476979614732764</v>
       </c>
       <c r="O106" t="n">
-        <v>0.1839632154734932</v>
+        <v>0.1851038930765526</v>
       </c>
       <c r="P106" t="n">
         <v>0.1922847470064769</v>
@@ -13611,7 +13611,7 @@
         <v>-0.005388672420382223</v>
       </c>
       <c r="AB106" t="n">
-        <v>-0.008124558164051249</v>
+        <v>-0.008648723206893263</v>
       </c>
       <c r="AC106" t="n">
         <v>-0.01159480123815689</v>
@@ -13626,7 +13626,7 @@
         <v>0.1401986864538451</v>
       </c>
       <c r="AG106" t="n">
-        <v>0.06818947360378538</v>
+        <v>0.19701858688845</v>
       </c>
       <c r="AH106" t="n">
         <v>0.1788024224695028</v>
@@ -13638,7 +13638,7 @@
         <v>0.08814671510752987</v>
       </c>
       <c r="AK106" t="n">
-        <v>2.638783731447442</v>
+        <v>2.654753217890272</v>
       </c>
       <c r="AL106" t="n">
         <v>-8.104360703050274</v>
@@ -13647,7 +13647,7 @@
         <v>2.084980127071581</v>
       </c>
       <c r="AN106" t="n">
-        <v>-3.380596844531252</v>
+        <v>-3.36462735808842</v>
       </c>
     </row>
     <row r="107">
@@ -13696,7 +13696,7 @@
         <v>0.1864139895064421</v>
       </c>
       <c r="O107" t="n">
-        <v>0.08643013370053262</v>
+        <v>0.08718678180749144</v>
       </c>
       <c r="P107" t="n">
         <v>0.1554285198791158</v>
@@ -13735,7 +13735,7 @@
         <v>-0.0276934904829368</v>
       </c>
       <c r="AB107" t="n">
-        <v>-0.01942448743727194</v>
+        <v>-0.02067768017516046</v>
       </c>
       <c r="AC107" t="n">
         <v>-0.07003143663260229</v>
@@ -13750,7 +13750,7 @@
         <v>0.1686333387528182</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.2446846203169355</v>
+        <v>0.3991220520086557</v>
       </c>
       <c r="AH107" t="n">
         <v>0.3142824396579645</v>
@@ -13762,7 +13762,7 @@
         <v>0.2587909806757508</v>
       </c>
       <c r="AK107" t="n">
-        <v>3.797125548673671</v>
+        <v>3.807718622171095</v>
       </c>
       <c r="AL107" t="n">
         <v>-7.408550219087493</v>
@@ -13771,7 +13771,7 @@
         <v>3.200478627683012</v>
       </c>
       <c r="AN107" t="n">
-        <v>-0.4109460427308096</v>
+        <v>-0.4003529692333863</v>
       </c>
     </row>
     <row r="108">
@@ -13820,7 +13820,7 @@
         <v>0.2115785987967267</v>
       </c>
       <c r="O108" t="n">
-        <v>0.1026942269515405</v>
+        <v>0.1034096471730019</v>
       </c>
       <c r="P108" t="n">
         <v>0.1534413687769667</v>
@@ -13859,7 +13859,7 @@
         <v>-0</v>
       </c>
       <c r="AB108" t="n">
-        <v>0.002244681909005621</v>
+        <v>0.002389500096683403</v>
       </c>
       <c r="AC108" t="n">
         <v>-0.07900423303280114</v>
@@ -13874,7 +13874,7 @@
         <v>0.1584452462324227</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.1344832907646763</v>
+        <v>0.2875428077482902</v>
       </c>
       <c r="AH108" t="n">
         <v>0.3015742444214328</v>
@@ -13886,7 +13886,7 @@
         <v>0.2665785874533608</v>
       </c>
       <c r="AK108" t="n">
-        <v>2.378050719261498</v>
+        <v>2.388066602361959</v>
       </c>
       <c r="AL108" t="n">
         <v>-8.010587313886541</v>
@@ -13895,7 +13895,7 @@
         <v>2.555008484225799</v>
       </c>
       <c r="AN108" t="n">
-        <v>-3.077528110399243</v>
+        <v>-3.067512227298783</v>
       </c>
     </row>
     <row r="109">
@@ -13944,7 +13944,7 @@
         <v>0.2406682758204086</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07687818103313661</v>
+        <v>0.07943211892077953</v>
       </c>
       <c r="P109" t="n">
         <v>0.07870039108116213</v>
@@ -13983,7 +13983,7 @@
         <v>-0.002653890026296921</v>
       </c>
       <c r="AB109" t="n">
-        <v>-0.00802054457610322</v>
+        <v>-0.008537999064884073</v>
       </c>
       <c r="AC109" t="n">
         <v>-0.05528285938261391</v>
@@ -13998,7 +13998,7 @@
         <v>0.1805898007127624</v>
       </c>
       <c r="AG109" t="n">
-        <v>0.09484852320759202</v>
+        <v>0.2539412621255495</v>
       </c>
       <c r="AH109" t="n">
         <v>0.269183027271749</v>
@@ -14010,7 +14010,7 @@
         <v>0.2148800165022072</v>
       </c>
       <c r="AK109" t="n">
-        <v>3.633405056903486</v>
+        <v>3.669160187330487</v>
       </c>
       <c r="AL109" t="n">
         <v>-10.39978330388231</v>
@@ -14019,7 +14019,7 @@
         <v>2.8589308254521</v>
       </c>
       <c r="AN109" t="n">
-        <v>-3.907447421526719</v>
+        <v>-3.871692291099718</v>
       </c>
     </row>
     <row r="110">
@@ -14107,7 +14107,7 @@
         <v>-1.266729855509573</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.007852552746784104</v>
+        <v>0.008359169053028239</v>
       </c>
       <c r="AC110" t="n">
         <v>0.02067308558085053</v>
@@ -14122,7 +14122,7 @@
         <v>0.06226857995653171</v>
       </c>
       <c r="AG110" t="n">
-        <v>-0.117455384714108</v>
+        <v>-0.04622228409614297</v>
       </c>
       <c r="AH110" t="n">
         <v>0.06023088771011104</v>
@@ -14162,10 +14162,10 @@
         <v>-0.0002550341439824815</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.1643784060124557</v>
+        <v>-0.1633561467139695</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06266746803718998</v>
+        <v>0.06304408988400068</v>
       </c>
       <c r="G111" t="n">
         <v>0.003024736628235516</v>
@@ -14189,13 +14189,13 @@
         <v>0.0008917059431224019</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.2048020173217789</v>
+        <v>-0.2056964942079543</v>
       </c>
       <c r="O111" t="n">
         <v>0.07523735575723198</v>
       </c>
       <c r="P111" t="n">
-        <v>0.006621711223208691</v>
+        <v>0.007172158537778161</v>
       </c>
       <c r="Q111" t="n">
         <v>-0.2532798675018318</v>
@@ -14231,7 +14231,7 @@
         <v>-1.692781925697777</v>
       </c>
       <c r="AB111" t="n">
-        <v>-0.00844036035301822</v>
+        <v>-0.008984899730632299</v>
       </c>
       <c r="AC111" t="n">
         <v>0.07511702356179505</v>
@@ -14243,10 +14243,10 @@
         <v>0.03918019754415111</v>
       </c>
       <c r="AF111" t="n">
-        <v>-0.1343087959527348</v>
+        <v>-0.1347560343958225</v>
       </c>
       <c r="AG111" t="n">
-        <v>-0.1642252401182537</v>
+        <v>-0.1598066628191937</v>
       </c>
       <c r="AH111" t="n">
         <v>0.007765745355660495</v>
@@ -14316,7 +14316,7 @@
         <v>0.2381571217111964</v>
       </c>
       <c r="O112" t="n">
-        <v>0.1907820508622715</v>
+        <v>0.193119794702399</v>
       </c>
       <c r="P112" t="n">
         <v>0.1767750089113714</v>
@@ -14355,7 +14355,7 @@
         <v>-0.3707020604672329</v>
       </c>
       <c r="AB112" t="n">
-        <v>-0.005590740121695174</v>
+        <v>-0.005951433032772282</v>
       </c>
       <c r="AC112" t="n">
         <v>-0.05707678984511588</v>
@@ -14370,7 +14370,7 @@
         <v>0.1571108605879679</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.05485425403367261</v>
+        <v>0.1959001238153374</v>
       </c>
       <c r="AH112" t="n">
         <v>0.2126798768576532</v>
@@ -14382,7 +14382,7 @@
         <v>0.1809284910565726</v>
       </c>
       <c r="AK112" t="n">
-        <v>2.830458440890703</v>
+        <v>2.863186854652488</v>
       </c>
       <c r="AL112" t="n">
         <v>-10.73148231703463</v>
@@ -14391,7 +14391,7 @@
         <v>2.787009009474609</v>
       </c>
       <c r="AN112" t="n">
-        <v>-5.114014866669322</v>
+        <v>-5.081286452907538</v>
       </c>
     </row>
     <row r="113">
@@ -14440,7 +14440,7 @@
         <v>0.2036445287725573</v>
       </c>
       <c r="O113" t="n">
-        <v>0.1902922856854169</v>
+        <v>0.1937663115625029</v>
       </c>
       <c r="P113" t="n">
         <v>0.1813579913553949</v>
@@ -14479,7 +14479,7 @@
         <v>-0.8116198759870797</v>
       </c>
       <c r="AB113" t="n">
-        <v>-0.01414923346286663</v>
+        <v>-0.01506208723466448</v>
       </c>
       <c r="AC113" t="n">
         <v>-0.04895692433567804</v>
@@ -14494,7 +14494,7 @@
         <v>0.1001299032299915</v>
       </c>
       <c r="AG113" t="n">
-        <v>0.05700412544386709</v>
+        <v>0.1624624014791057</v>
       </c>
       <c r="AH113" t="n">
         <v>0.2009182881902655</v>
@@ -14506,7 +14506,7 @@
         <v>0.167486286217453</v>
       </c>
       <c r="AK113" t="n">
-        <v>2.593199305869222</v>
+        <v>2.641835668148425</v>
       </c>
       <c r="AL113" t="n">
         <v>-7.757499951832068</v>
@@ -14515,7 +14515,7 @@
         <v>2.565584272393367</v>
       </c>
       <c r="AN113" t="n">
-        <v>-2.59871637356948</v>
+        <v>-2.550080011290276</v>
       </c>
     </row>
     <row r="114">
@@ -14534,19 +14534,19 @@
         <v>-0</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.05579605666833905</v>
+        <v>-0.05536519975633057</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04549533146185118</v>
+        <v>0.04565406821890693</v>
       </c>
       <c r="G114" t="n">
         <v>0.2777911366718812</v>
       </c>
       <c r="H114" t="n">
-        <v>0.03936689173177885</v>
+        <v>0.03955518915041616</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1363223402537089</v>
+        <v>0.1364047203743627</v>
       </c>
       <c r="J114" t="n">
         <v>-0.05677284291691696</v>
@@ -14561,13 +14561,13 @@
         <v>0.06934812064688285</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1571007156294035</v>
+        <v>0.156723715831396</v>
       </c>
       <c r="O114" t="n">
-        <v>0.01795417190628693</v>
+        <v>0.01828775256489667</v>
       </c>
       <c r="P114" t="n">
-        <v>0.08879167932755429</v>
+        <v>0.08912507012097895</v>
       </c>
       <c r="Q114" t="n">
         <v>0.05334955097081381</v>
@@ -14603,22 +14603,22 @@
         <v>-0.016216409314326</v>
       </c>
       <c r="AB114" t="n">
-        <v>-0.005927439055465731</v>
+        <v>-0.006352373250349365</v>
       </c>
       <c r="AC114" t="n">
-        <v>-0.06041154811371342</v>
+        <v>-0.06032367598501601</v>
       </c>
       <c r="AD114" t="n">
-        <v>0.06427096322984877</v>
+        <v>0.06460048371246406</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.03678650725635634</v>
+        <v>0.0368524113528794</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.11146260984222</v>
+        <v>0.1113564900638701</v>
       </c>
       <c r="AG114" t="n">
-        <v>0.1848960348349041</v>
+        <v>0.3480546924259889</v>
       </c>
       <c r="AH114" t="n">
         <v>0.3450598397059677</v>
@@ -14630,7 +14630,7 @@
         <v>0.2613936998708855</v>
       </c>
       <c r="AK114" t="n">
-        <v>2.719521275698172</v>
+        <v>2.724191404918708</v>
       </c>
       <c r="AL114" t="n">
         <v>-9.594981035984961</v>
@@ -14639,7 +14639,7 @@
         <v>2.544952139569415</v>
       </c>
       <c r="AN114" t="n">
-        <v>-4.330507620717375</v>
+        <v>-4.325837491496839</v>
       </c>
     </row>
     <row r="115">
@@ -14688,7 +14688,7 @@
         <v>-0.05372872673194232</v>
       </c>
       <c r="O115" t="n">
-        <v>0.1136050924355706</v>
+        <v>0.1149327451772083</v>
       </c>
       <c r="P115" t="n">
         <v>0.257032707405237</v>
@@ -14727,7 +14727,7 @@
         <v>-0.004199766621428401</v>
       </c>
       <c r="AB115" t="n">
-        <v>-0.007676602608820023</v>
+        <v>-0.008171867293260025</v>
       </c>
       <c r="AC115" t="n">
         <v>-0.05279444614666638</v>
@@ -14742,7 +14742,7 @@
         <v>0.05124733766969249</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.08305021155245333</v>
+        <v>0.1928267130497197</v>
       </c>
       <c r="AH115" t="n">
         <v>0.2182947696658289</v>
@@ -14754,7 +14754,7 @@
         <v>0.2140602774625162</v>
       </c>
       <c r="AK115" t="n">
-        <v>1.48440248321364</v>
+        <v>1.502989621596569</v>
       </c>
       <c r="AL115" t="n">
         <v>-9.037867117110411</v>
@@ -14763,7 +14763,7 @@
         <v>2.333054433821673</v>
       </c>
       <c r="AN115" t="n">
-        <v>-5.220410200075098</v>
+        <v>-5.201823061692169</v>
       </c>
     </row>
     <row r="116">
@@ -14782,10 +14782,10 @@
         <v>-0.0003383813615454306</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.2378316538102945</v>
+        <v>-0.2351167741387715</v>
       </c>
       <c r="F116" t="n">
-        <v>0.04356249379412519</v>
+        <v>0.04456271262047579</v>
       </c>
       <c r="G116" t="n">
         <v>0.08280813871510213</v>
@@ -14809,13 +14809,13 @@
         <v>0.03434246556577784</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3630837164262266</v>
+        <v>0.3607081967136439</v>
       </c>
       <c r="O116" t="n">
-        <v>0.1178226724220467</v>
+        <v>0.1183275010475952</v>
       </c>
       <c r="P116" t="n">
-        <v>0.09694216064821173</v>
+        <v>0.09840401893287801</v>
       </c>
       <c r="Q116" t="n">
         <v>-0.04478830679118143</v>
@@ -14851,7 +14851,7 @@
         <v>-0.01402202448948022</v>
       </c>
       <c r="AB116" t="n">
-        <v>-0.008542868447333476</v>
+        <v>-0.00909402125038725</v>
       </c>
       <c r="AC116" t="n">
         <v>-0.04529429824847382</v>
@@ -14863,10 +14863,10 @@
         <v>0.06282174913464664</v>
       </c>
       <c r="AF116" t="n">
-        <v>0.222295775647854</v>
+        <v>0.2211080157915626</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.05903806149862435</v>
+        <v>0.1738868883606849</v>
       </c>
       <c r="AH116" t="n">
         <v>0.2789467683724697</v>
@@ -14878,7 +14878,7 @@
         <v>0.268449481599999</v>
       </c>
       <c r="AK116" t="n">
-        <v>2.209293442024658</v>
+        <v>2.216361042782338</v>
       </c>
       <c r="AL116" t="n">
         <v>-8.155165950959882</v>
@@ -14887,7 +14887,7 @@
         <v>2.356280128531479</v>
       </c>
       <c r="AN116" t="n">
-        <v>-3.589592380403745</v>
+        <v>-3.582524779646065</v>
       </c>
     </row>
     <row r="117">
@@ -14915,10 +14915,10 @@
         <v>0.2304369549218713</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1468282404072046</v>
+        <v>0.1469113604920412</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2055635287699758</v>
+        <v>0.2055998938070918</v>
       </c>
       <c r="J117" t="n">
         <v>-0.07495412394557148</v>
@@ -14936,10 +14936,10 @@
         <v>0.3116606440549615</v>
       </c>
       <c r="O117" t="n">
-        <v>0.1284586847900036</v>
+        <v>0.1349583333976346</v>
       </c>
       <c r="P117" t="n">
-        <v>0.1368090965942081</v>
+        <v>0.1368538535629662</v>
       </c>
       <c r="Q117" t="n">
         <v>0.02457874728269993</v>
@@ -14975,22 +14975,22 @@
         <v>-0.003476738592771803</v>
       </c>
       <c r="AB117" t="n">
-        <v>-0.01834249960972471</v>
+        <v>-0.01954465573273455</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.05818265851081075</v>
+        <v>-0.05814386913788704</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.2172029193271433</v>
+        <v>0.2173483794756073</v>
       </c>
       <c r="AE117" t="n">
-        <v>0.09064022845128959</v>
+        <v>0.09066932048098238</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.2646719798180021</v>
+        <v>0.264708344855118</v>
       </c>
       <c r="AG117" t="n">
-        <v>0.06337913671271481</v>
+        <v>0.2049988089141969</v>
       </c>
       <c r="AH117" t="n">
         <v>0.2413662861177027</v>
@@ -15002,7 +15002,7 @@
         <v>0.2292531602834578</v>
       </c>
       <c r="AK117" t="n">
-        <v>2.037150969138494</v>
+        <v>2.128146049645329</v>
       </c>
       <c r="AL117" t="n">
         <v>-11.85920525885087</v>
@@ -15011,7 +15011,7 @@
         <v>2.527111768589203</v>
       </c>
       <c r="AN117" t="n">
-        <v>-7.294942521123173</v>
+        <v>-7.203947440616339</v>
       </c>
     </row>
     <row r="118">
@@ -15030,10 +15030,10 @@
         <v>-0.0004717692022529195</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.181496238610965</v>
+        <v>-0.1796303113789358</v>
       </c>
       <c r="F118" t="n">
-        <v>0.005006863519590113</v>
+        <v>0.005694310394548264</v>
       </c>
       <c r="G118" t="n">
         <v>0.2912199986902778</v>
@@ -15057,13 +15057,13 @@
         <v>0.001235278904346585</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1578108711191455</v>
+        <v>0.1561781847911199</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04112388150542739</v>
+        <v>0.04159387056392755</v>
       </c>
       <c r="P118" t="n">
-        <v>0.01771297225880292</v>
+        <v>0.01871770230681868</v>
       </c>
       <c r="Q118" t="n">
         <v>-0.05214359143229898</v>
@@ -15099,7 +15099,7 @@
         <v>-0.03806196000570146</v>
       </c>
       <c r="AB118" t="n">
-        <v>-0.002316912136069072</v>
+        <v>-0.002466390338396109</v>
       </c>
       <c r="AC118" t="n">
         <v>-0.05989904126240465</v>
@@ -15111,10 +15111,10 @@
         <v>0.01393014511831155</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.08862943196046813</v>
+        <v>0.08781308879645533</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.1479577942616388</v>
+        <v>0.3279884546742443</v>
       </c>
       <c r="AH118" t="n">
         <v>0.3409430100016333</v>
@@ -15126,7 +15126,7 @@
         <v>0.1685865747073277</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.2370452297384868</v>
+        <v>0.2436250765574891</v>
       </c>
       <c r="AL118" t="n">
         <v>-10.23050545102693</v>
@@ -15135,7 +15135,7 @@
         <v>1.875837289633133</v>
       </c>
       <c r="AN118" t="n">
-        <v>-8.117622931655307</v>
+        <v>-8.111043084836304</v>
       </c>
     </row>
     <row r="119">
@@ -15184,7 +15184,7 @@
         <v>-0.1963455267193117</v>
       </c>
       <c r="O119" t="n">
-        <v>0.02088637827285119</v>
+        <v>0.02769977893916158</v>
       </c>
       <c r="P119" t="n">
         <v>0.125481768930132</v>
@@ -15223,7 +15223,7 @@
         <v>-0.0255374037289763</v>
       </c>
       <c r="AB119" t="n">
-        <v>-0.005321979861504391</v>
+        <v>-0.005665333400956288</v>
       </c>
       <c r="AC119" t="n">
         <v>0.004687143457348647</v>
@@ -15238,7 +15238,7 @@
         <v>-0.07431325980208005</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.1532246506764423</v>
+        <v>0.3254493901928605</v>
       </c>
       <c r="AH119" t="n">
         <v>0.2178697077993888</v>
@@ -15250,7 +15250,7 @@
         <v>-0.0007541660549133119</v>
       </c>
       <c r="AK119" t="n">
-        <v>1.144608818708504</v>
+        <v>1.23999642803685</v>
       </c>
       <c r="AL119" t="n">
         <v>-9.633210722718722</v>
@@ -15259,7 +15259,7 @@
         <v>2.11713028419598</v>
       </c>
       <c r="AN119" t="n">
-        <v>-6.371471619814239</v>
+        <v>-6.276084010485892</v>
       </c>
     </row>
     <row r="120">
@@ -15278,10 +15278,10 @@
         <v>-0.0004616933707039364</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.1976166776514491</v>
+        <v>-0.1968050220561608</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01757909197814666</v>
+        <v>0.01787812298693709</v>
       </c>
       <c r="G120" t="n">
         <v>0.07039466198587022</v>
@@ -15305,13 +15305,13 @@
         <v>0.06113662544303738</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1491068587114501</v>
+        <v>0.1483966600655728</v>
       </c>
       <c r="O120" t="n">
-        <v>0.1396853680179672</v>
+        <v>0.1429797006206079</v>
       </c>
       <c r="P120" t="n">
-        <v>0.1169619029769274</v>
+        <v>0.1173989482974673</v>
       </c>
       <c r="Q120" t="n">
         <v>-0.099990785915688</v>
@@ -15347,7 +15347,7 @@
         <v>-1.064981173697173</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.0009669789446644654</v>
+        <v>0.001029364683029915</v>
       </c>
       <c r="AC120" t="n">
         <v>-0.01437408542733656</v>
@@ -15359,10 +15359,10 @@
         <v>0.0666731504660685</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.04763557727155317</v>
+        <v>0.04728047794861453</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.09704990210805531</v>
+        <v>0.2459152137019441</v>
       </c>
       <c r="AH120" t="n">
         <v>0.25801111767614</v>
@@ -15374,7 +15374,7 @@
         <v>0.1456398247338927</v>
       </c>
       <c r="AK120" t="n">
-        <v>0.9725821805664242</v>
+        <v>1.018702837003393</v>
       </c>
       <c r="AL120" t="n">
         <v>-5.863074600513191</v>
@@ -15383,7 +15383,7 @@
         <v>3.324600710302439</v>
       </c>
       <c r="AN120" t="n">
-        <v>-1.565891709644328</v>
+        <v>-1.519771053207359</v>
       </c>
     </row>
     <row r="121">
@@ -15432,7 +15432,7 @@
         <v>0.2675451796795902</v>
       </c>
       <c r="O121" t="n">
-        <v>0.1045702076124554</v>
+        <v>0.1057695023461925</v>
       </c>
       <c r="P121" t="n">
         <v>0.1556502037157612</v>
@@ -15471,7 +15471,7 @@
         <v>-0.01205881622812242</v>
       </c>
       <c r="AB121" t="n">
-        <v>-0.00836770883239657</v>
+        <v>-0.008907561015131833</v>
       </c>
       <c r="AC121" t="n">
         <v>-0.09101061291309262</v>
@@ -15486,7 +15486,7 @@
         <v>0.189736243035735</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.1064032729427784</v>
+        <v>0.238101502956163</v>
       </c>
       <c r="AH121" t="n">
         <v>0.2998122632468287</v>
@@ -15498,7 +15498,7 @@
         <v>0.343579444965681</v>
       </c>
       <c r="AK121" t="n">
-        <v>2.624849570312446</v>
+        <v>2.641639696584766</v>
       </c>
       <c r="AL121" t="n">
         <v>-10.20011001865757</v>
@@ -15507,7 +15507,7 @@
         <v>2.764997810206407</v>
       </c>
       <c r="AN121" t="n">
-        <v>-4.810262638138716</v>
+        <v>-4.793472511866395</v>
       </c>
     </row>
     <row r="122">
@@ -15556,7 +15556,7 @@
         <v>0.1316743594249609</v>
       </c>
       <c r="O122" t="n">
-        <v>0.1358056702191721</v>
+        <v>0.1471051492195023</v>
       </c>
       <c r="P122" t="n">
         <v>0.1589364024499234</v>
@@ -15595,7 +15595,7 @@
         <v>-0.3721218892150281</v>
       </c>
       <c r="AB122" t="n">
-        <v>-0.01590738508882317</v>
+        <v>-0.0169336679977795</v>
       </c>
       <c r="AC122" t="n">
         <v>-0.08070516428268285</v>
@@ -15610,7 +15610,7 @@
         <v>0.1249966166440468</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.08535037524759777</v>
+        <v>0.1915953793232764</v>
       </c>
       <c r="AH122" t="n">
         <v>0.1346375736836138</v>
@@ -15622,7 +15622,7 @@
         <v>0.2265433791635344</v>
       </c>
       <c r="AK122" t="n">
-        <v>3.478697185369248</v>
+        <v>3.636889891373871</v>
       </c>
       <c r="AL122" t="n">
         <v>-7.297366970903406</v>
@@ -15631,7 +15631,7 @@
         <v>2.686127021374395</v>
       </c>
       <c r="AN122" t="n">
-        <v>-1.132542764159763</v>
+        <v>-0.9743500581551401</v>
       </c>
     </row>
     <row r="123">
@@ -15680,7 +15680,7 @@
         <v>0.2376919479788508</v>
       </c>
       <c r="O123" t="n">
-        <v>0.1255751034031899</v>
+        <v>0.1262096322641128</v>
       </c>
       <c r="P123" t="n">
         <v>0.09935352209990202</v>
@@ -15719,7 +15719,7 @@
         <v>-0.3330704159218006</v>
       </c>
       <c r="AB123" t="n">
-        <v>0.003134925888926892</v>
+        <v>0.003337179172083466</v>
       </c>
       <c r="AC123" t="n">
         <v>-0.06597491413464998</v>
@@ -15734,7 +15734,7 @@
         <v>0.1451666263762204</v>
       </c>
       <c r="AG123" t="n">
-        <v>0.08023308811875068</v>
+        <v>0.234303703411512</v>
       </c>
       <c r="AH123" t="n">
         <v>0.2782999796664974</v>
@@ -15746,7 +15746,7 @@
         <v>0.2221951046093984</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.17116698482625</v>
+        <v>1.18005038887917</v>
       </c>
       <c r="AL123" t="n">
         <v>-9.157683564752116</v>
@@ -15755,7 +15755,7 @@
         <v>2.858180191603926</v>
       </c>
       <c r="AN123" t="n">
-        <v>-5.128336388321939</v>
+        <v>-5.119452984269019</v>
       </c>
     </row>
     <row r="124">
@@ -15804,7 +15804,7 @@
         <v>0.1965069375116285</v>
       </c>
       <c r="O124" t="n">
-        <v>0.1883776700819525</v>
+        <v>0.1885221894880943</v>
       </c>
       <c r="P124" t="n">
         <v>0.1448672107537502</v>
@@ -15843,7 +15843,7 @@
         <v>-0.3415183617119583</v>
       </c>
       <c r="AB124" t="n">
-        <v>-0.002055565996615579</v>
+        <v>-0.002188183157687552</v>
       </c>
       <c r="AC124" t="n">
         <v>-0.0414425111318947</v>
@@ -15858,7 +15858,7 @@
         <v>0.08695343617210566</v>
       </c>
       <c r="AG124" t="n">
-        <v>0.01254360593285125</v>
+        <v>0.09999629562189177</v>
       </c>
       <c r="AH124" t="n">
         <v>0.1803076934893927</v>
@@ -15870,7 +15870,7 @@
         <v>0.1316139940554002</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.540364284863535</v>
+        <v>1.542387556549522</v>
       </c>
       <c r="AL124" t="n">
         <v>-10.68605617810361</v>
@@ -15879,7 +15879,7 @@
         <v>1.783835437068143</v>
       </c>
       <c r="AN124" t="n">
-        <v>-7.361856456171929</v>
+        <v>-7.359833184485941</v>
       </c>
     </row>
     <row r="125">
@@ -15928,7 +15928,7 @@
         <v>0.1265646381411309</v>
       </c>
       <c r="O125" t="n">
-        <v>0.03348577528624751</v>
+        <v>0.03477340708741741</v>
       </c>
       <c r="P125" t="n">
         <v>-0.001786094233833873</v>
@@ -15967,7 +15967,7 @@
         <v>-0.1336173983413256</v>
       </c>
       <c r="AB125" t="n">
-        <v>0.02775156516184541</v>
+        <v>0.02954198872067414</v>
       </c>
       <c r="AC125" t="n">
         <v>-0.03122239761239175</v>
@@ -15982,7 +15982,7 @@
         <v>0.0840688955518849</v>
       </c>
       <c r="AG125" t="n">
-        <v>0.05452119260631975</v>
+        <v>0.1800877941176382</v>
       </c>
       <c r="AH125" t="n">
         <v>0.2591010544870753</v>
@@ -15994,7 +15994,7 @@
         <v>0.1787688962397133</v>
       </c>
       <c r="AK125" t="n">
-        <v>-0.1742147561451714</v>
+        <v>-0.1561879109287931</v>
       </c>
       <c r="AL125" t="n">
         <v>-9.582999567801535</v>
@@ -16003,7 +16003,7 @@
         <v>2.571078859702942</v>
       </c>
       <c r="AN125" t="n">
-        <v>-7.186135464243764</v>
+        <v>-7.168108619027386</v>
       </c>
     </row>
     <row r="126">
@@ -16022,10 +16022,10 @@
         <v>-0</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.2124200679413279</v>
+        <v>-0.2115119418209216</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02641020977064127</v>
+        <v>0.02674478255184358</v>
       </c>
       <c r="G126" t="n">
         <v>0.2528163625385513</v>
@@ -16049,13 +16049,13 @@
         <v>0.005935426022448418</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3063241588896768</v>
+        <v>0.3055295485343213</v>
       </c>
       <c r="O126" t="n">
         <v>0.1028188455272173</v>
       </c>
       <c r="P126" t="n">
-        <v>0.05517504575394675</v>
+        <v>0.05566403674185782</v>
       </c>
       <c r="Q126" t="n">
         <v>-0.1620479281000734</v>
@@ -16091,7 +16091,7 @@
         <v>-0.01114534870235994</v>
       </c>
       <c r="AB126" t="n">
-        <v>-0.008236874162691789</v>
+        <v>-0.008768285398994486</v>
       </c>
       <c r="AC126" t="n">
         <v>-0.01824401693364663</v>
@@ -16103,10 +16103,10 @@
         <v>0.03668089497226081</v>
       </c>
       <c r="AF126" t="n">
-        <v>0.2008329531451604</v>
+        <v>0.2004356479674827</v>
       </c>
       <c r="AG126" t="n">
-        <v>0.08167530865611691</v>
+        <v>0.2358718488992008</v>
       </c>
       <c r="AH126" t="n">
         <v>0.2825308036875014</v>
@@ -16215,7 +16215,7 @@
         <v>-0.02077565048599293</v>
       </c>
       <c r="AB127" t="n">
-        <v>0.0205388943019685</v>
+        <v>0.02186398425693421</v>
       </c>
       <c r="AC127" t="n">
         <v>-0.0751252687851808</v>
@@ -16230,7 +16230,7 @@
         <v>0.159291978658943</v>
       </c>
       <c r="AG127" t="n">
-        <v>-0.07571940956326954</v>
+        <v>-0.0649666806324201</v>
       </c>
       <c r="AH127" t="n">
         <v>0.130530670302645</v>
@@ -16300,7 +16300,7 @@
         <v>0.1217996900974793</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1821583879835546</v>
+        <v>0.1934897449578048</v>
       </c>
       <c r="P128" t="n">
         <v>0.1738215697347286</v>
@@ -16339,7 +16339,7 @@
         <v>-0.0189017856785515</v>
       </c>
       <c r="AB128" t="n">
-        <v>-0.01059651634889782</v>
+        <v>-0.01128016256495574</v>
       </c>
       <c r="AC128" t="n">
         <v>-0.02302650144713016</v>
@@ -16354,7 +16354,7 @@
         <v>0.1172573374802991</v>
       </c>
       <c r="AG128" t="n">
-        <v>0.07141707502322049</v>
+        <v>0.2081606262177411</v>
       </c>
       <c r="AH128" t="n">
         <v>0.09393373363278065</v>
@@ -16366,7 +16366,7 @@
         <v>0.09152132699802742</v>
       </c>
       <c r="AK128" t="n">
-        <v>4.092059141796713</v>
+        <v>4.250698139436215</v>
       </c>
       <c r="AL128" t="n">
         <v>-10.67213352193915</v>
@@ -16375,7 +16375,7 @@
         <v>2.520101184757229</v>
       </c>
       <c r="AN128" t="n">
-        <v>-4.05997319538521</v>
+        <v>-3.901334197745708</v>
       </c>
     </row>
     <row r="129">
@@ -16403,10 +16403,10 @@
         <v>-0.01259935540362256</v>
       </c>
       <c r="H129" t="n">
-        <v>0.08590512226523399</v>
+        <v>0.08598093588601176</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1108571594711534</v>
+        <v>0.1108903279302437</v>
       </c>
       <c r="J129" t="n">
         <v>-0.1003775721621085</v>
@@ -16424,10 +16424,10 @@
         <v>0.206496622770685</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1249508607095705</v>
+        <v>0.1260796384839644</v>
       </c>
       <c r="P129" t="n">
-        <v>0.1584701989321291</v>
+        <v>0.1585110216510094</v>
       </c>
       <c r="Q129" t="n">
         <v>-0.0003275965990697793</v>
@@ -16463,22 +16463,22 @@
         <v>-0.01735200581092469</v>
       </c>
       <c r="AB129" t="n">
-        <v>-0.008027786516114842</v>
+        <v>-0.008562827431523683</v>
       </c>
       <c r="AC129" t="n">
-        <v>-0.1067566376876953</v>
+        <v>-0.106721257997999</v>
       </c>
       <c r="AD129" t="n">
-        <v>0.1243385311141199</v>
+        <v>0.124471204950481</v>
       </c>
       <c r="AE129" t="n">
-        <v>0.1078937696323174</v>
+        <v>0.1079203043995897</v>
       </c>
       <c r="AF129" t="n">
-        <v>0.1576007657253197</v>
+        <v>0.15763393418441</v>
       </c>
       <c r="AG129" t="n">
-        <v>0.09138708501862033</v>
+        <v>0.2014591233299215</v>
       </c>
       <c r="AH129" t="n">
         <v>0.218339024426952</v>
@@ -16490,7 +16490,7 @@
         <v>0.2904816890669009</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.483143853022498</v>
+        <v>1.498946741864013</v>
       </c>
       <c r="AL129" t="n">
         <v>-9.105056727821021</v>
@@ -16499,7 +16499,7 @@
         <v>1.936344855977472</v>
       </c>
       <c r="AN129" t="n">
-        <v>-5.68556801882105</v>
+        <v>-5.669765129979536</v>
       </c>
     </row>
     <row r="130">
@@ -16518,10 +16518,10 @@
         <v>-0</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.1080307155620495</v>
+        <v>-0.1071033824195684</v>
       </c>
       <c r="F130" t="n">
-        <v>0.01068557056498327</v>
+        <v>0.01102721961747629</v>
       </c>
       <c r="G130" t="n">
         <v>0.2800184765095645</v>
@@ -16545,13 +16545,13 @@
         <v>0.004999868580648292</v>
       </c>
       <c r="N130" t="n">
-        <v>-0.02306299177401168</v>
+        <v>-0.0238744082736826</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05911085651198406</v>
+        <v>0.06008854972071019</v>
       </c>
       <c r="P130" t="n">
-        <v>0.08506335422979197</v>
+        <v>0.08556268746035869</v>
       </c>
       <c r="Q130" t="n">
         <v>-0.1675252386952263</v>
@@ -16587,7 +16587,7 @@
         <v>-1.08185152031943</v>
       </c>
       <c r="AB130" t="n">
-        <v>-0.02401821034495447</v>
+        <v>-0.02556777230269346</v>
       </c>
       <c r="AC130" t="n">
         <v>0.06072672230690963</v>
@@ -16599,10 +16599,10 @@
         <v>0.05243146877685563</v>
       </c>
       <c r="AF130" t="n">
-        <v>-0.02079291435337985</v>
+        <v>-0.02119862260321531</v>
       </c>
       <c r="AG130" t="n">
-        <v>0.1775569524090927</v>
+        <v>0.3553138331742293</v>
       </c>
       <c r="AH130" t="n">
         <v>0.2092167579072995</v>
@@ -16614,7 +16614,7 @@
         <v>0.01253370692536285</v>
       </c>
       <c r="AK130" t="n">
-        <v>-0.4578809936325843</v>
+        <v>-0.4441932887104186</v>
       </c>
       <c r="AL130" t="n">
         <v>-9.326523330763616</v>
@@ -16623,7 +16623,7 @@
         <v>2.279347413266724</v>
       </c>
       <c r="AN130" t="n">
-        <v>-7.505056911129475</v>
+        <v>-7.491369206207311</v>
       </c>
     </row>
     <row r="131">
@@ -16672,7 +16672,7 @@
         <v>0.2155368487237397</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1063684633861123</v>
+        <v>0.1071527062378561</v>
       </c>
       <c r="P131" t="n">
         <v>0.1642695311438357</v>
@@ -16711,7 +16711,7 @@
         <v>-0.01636673541974817</v>
       </c>
       <c r="AB131" t="n">
-        <v>-0.003606670893184712</v>
+        <v>-0.003839359337906306</v>
       </c>
       <c r="AC131" t="n">
         <v>-0.09375340789383779</v>
@@ -16726,7 +16726,7 @@
         <v>0.1611195622817372</v>
       </c>
       <c r="AG131" t="n">
-        <v>0.1329032467719014</v>
+        <v>0.2792537156296259</v>
       </c>
       <c r="AH131" t="n">
         <v>0.2990544845994694</v>
@@ -16738,7 +16738,7 @@
         <v>0.2893717281207434</v>
       </c>
       <c r="AK131" t="n">
-        <v>2.239222550292132</v>
+        <v>2.250201950216546</v>
       </c>
       <c r="AL131" t="n">
         <v>-8.523899565585751</v>
@@ -16747,7 +16747,7 @@
         <v>2.662727926290813</v>
       </c>
       <c r="AN131" t="n">
-        <v>-3.621949089002806</v>
+        <v>-3.610969689078392</v>
       </c>
     </row>
     <row r="132">
@@ -16766,10 +16766,10 @@
         <v>-0.0002389913157211273</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.2101599991672289</v>
+        <v>-0.2077353831523496</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01767159916680081</v>
+        <v>0.01856487875123</v>
       </c>
       <c r="G132" t="n">
         <v>0.07321712623795069</v>
@@ -16793,13 +16793,13 @@
         <v>0.01253722305540516</v>
       </c>
       <c r="N132" t="n">
-        <v>0.359635607466979</v>
+        <v>0.3575140684539597</v>
       </c>
       <c r="O132" t="n">
-        <v>0.119062013954876</v>
+        <v>0.1194191288092172</v>
       </c>
       <c r="P132" t="n">
-        <v>0.05874342672210559</v>
+        <v>0.06004898919165595</v>
       </c>
       <c r="Q132" t="n">
         <v>-0.1537581953904179</v>
@@ -16835,7 +16835,7 @@
         <v>-0.02602317740385539</v>
       </c>
       <c r="AB132" t="n">
-        <v>-0.003358166772165514</v>
+        <v>-0.003574822692950386</v>
       </c>
       <c r="AC132" t="n">
         <v>-0.02649562561583602</v>
@@ -16847,10 +16847,10 @@
         <v>0.03688056138912141</v>
       </c>
       <c r="AF132" t="n">
-        <v>0.2011410949104822</v>
+        <v>0.2000803254039726</v>
       </c>
       <c r="AG132" t="n">
-        <v>0.02158903802221109</v>
+        <v>0.1037218555456928</v>
       </c>
       <c r="AH132" t="n">
         <v>0.2095962782842693</v>
@@ -16862,7 +16862,7 @@
         <v>0.2243305446669307</v>
       </c>
       <c r="AK132" t="n">
-        <v>2.460821389870921</v>
+        <v>2.465820997831696</v>
       </c>
       <c r="AL132" t="n">
         <v>-7.439336016482929</v>
@@ -16871,7 +16871,7 @@
         <v>2.470811852509721</v>
       </c>
       <c r="AN132" t="n">
-        <v>-2.507702774102287</v>
+        <v>-2.502703166141512</v>
       </c>
     </row>
     <row r="133">
@@ -16920,7 +16920,7 @@
         <v>0.2271722216932994</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1767693967827612</v>
+        <v>0.1773286517785466</v>
       </c>
       <c r="P133" t="n">
         <v>0.2058989807065197</v>
@@ -16959,7 +16959,7 @@
         <v>-0.01040837023764609</v>
       </c>
       <c r="AB133" t="n">
-        <v>-0.005818742443261131</v>
+        <v>-0.006194145181536043</v>
       </c>
       <c r="AC133" t="n">
         <v>-0.05861087854323666</v>
@@ -16974,7 +16974,7 @@
         <v>0.1956806237151697</v>
       </c>
       <c r="AG133" t="n">
-        <v>0.05125003945772645</v>
+        <v>0.1939610557436915</v>
       </c>
       <c r="AH133" t="n">
         <v>0.2185831984668077</v>
@@ -16986,7 +16986,7 @@
         <v>0.1975600018718598</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.135734413088264</v>
+        <v>1.14356398302926</v>
       </c>
       <c r="AL133" t="n">
         <v>-9.088635286416935</v>
@@ -16995,7 +16995,7 @@
         <v>2.499153294344754</v>
       </c>
       <c r="AN133" t="n">
-        <v>-5.453747578983917</v>
+        <v>-5.44591800904292</v>
       </c>
     </row>
     <row r="134">
@@ -17044,7 +17044,7 @@
         <v>0.2375192857060105</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1361721923529429</v>
+        <v>0.1363730934788158</v>
       </c>
       <c r="P134" t="n">
         <v>0.1603643130921221</v>
@@ -17083,7 +17083,7 @@
         <v>-0.02468090550013793</v>
       </c>
       <c r="AB134" t="n">
-        <v>0.004281819824525332</v>
+        <v>0.004558066264817288</v>
       </c>
       <c r="AC134" t="n">
         <v>-0.1024264842722595</v>
@@ -17098,7 +17098,7 @@
         <v>0.1733604832932555</v>
       </c>
       <c r="AG134" t="n">
-        <v>0.04253413761207359</v>
+        <v>0.1381373567453325</v>
       </c>
       <c r="AH134" t="n">
         <v>0.2113532178696303</v>
@@ -17110,7 +17110,7 @@
         <v>0.2811669469844215</v>
       </c>
       <c r="AK134" t="n">
-        <v>1.938304573501114</v>
+        <v>1.941117189263335</v>
       </c>
       <c r="AL134" t="n">
         <v>-7.833305169472409</v>
@@ -17119,7 +17119,7 @@
         <v>2.507281140857341</v>
       </c>
       <c r="AN134" t="n">
-        <v>-3.387719455113954</v>
+        <v>-3.384906839351733</v>
       </c>
     </row>
     <row r="135">
@@ -17207,7 +17207,7 @@
         <v>-1.608015268920238</v>
       </c>
       <c r="AB135" t="n">
-        <v>-0.004247750673009869</v>
+        <v>-0.004521799103526634</v>
       </c>
       <c r="AC135" t="n">
         <v>0.03020078111456828</v>
@@ -17222,7 +17222,7 @@
         <v>-0.05394465514729754</v>
       </c>
       <c r="AG135" t="n">
-        <v>-0.02107761237267522</v>
+        <v>0.1187374754582573</v>
       </c>
       <c r="AH135" t="n">
         <v>0.020969075962635</v>
@@ -17271,10 +17271,10 @@
         <v>0.2770368655341729</v>
       </c>
       <c r="H136" t="n">
-        <v>0.09277585382580651</v>
+        <v>0.09285335314116547</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1639722593813412</v>
+        <v>0.1640061653318108</v>
       </c>
       <c r="J136" t="n">
         <v>-0.07407587160816553</v>
@@ -17292,10 +17292,10 @@
         <v>0.277578354935811</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04188081952337958</v>
+        <v>0.04204622132510773</v>
       </c>
       <c r="P136" t="n">
-        <v>0.1014337491873182</v>
+        <v>0.1014754795878961</v>
       </c>
       <c r="Q136" t="n">
         <v>0.09696103601411082</v>
@@ -17331,22 +17331,22 @@
         <v>-0.009189329490201707</v>
       </c>
       <c r="AB136" t="n">
-        <v>-0.01460924079426104</v>
+        <v>-0.01556927230381055</v>
       </c>
       <c r="AC136" t="n">
-        <v>-0.03174727336970937</v>
+        <v>-0.03171110702254185</v>
       </c>
       <c r="AD136" t="n">
-        <v>0.158368760559709</v>
+        <v>0.1585043843615872</v>
       </c>
       <c r="AE136" t="n">
-        <v>0.07631207188907921</v>
+        <v>0.07633919664945485</v>
       </c>
       <c r="AF136" t="n">
-        <v>0.2176251542707627</v>
+        <v>0.2176590602212323</v>
       </c>
       <c r="AG136" t="n">
-        <v>0.1423586527641428</v>
+        <v>0.3133857068962058</v>
       </c>
       <c r="AH136" t="n">
         <v>0.3568438284930864</v>
@@ -17358,7 +17358,7 @@
         <v>0.2569563219372574</v>
       </c>
       <c r="AK136" t="n">
-        <v>1.685326074140672</v>
+        <v>1.687641699364866</v>
       </c>
       <c r="AL136" t="n">
         <v>-10.359640707828</v>
@@ -17367,7 +17367,7 @@
         <v>2.15319183362059</v>
       </c>
       <c r="AN136" t="n">
-        <v>-6.52112280006674</v>
+        <v>-6.518807174842547</v>
       </c>
     </row>
     <row r="137">
@@ -17395,10 +17395,10 @@
         <v>0.2592413042723869</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1259494016530814</v>
+        <v>0.126027397852735</v>
       </c>
       <c r="I137" t="n">
-        <v>0.09534239710783271</v>
+        <v>0.09537652044518113</v>
       </c>
       <c r="J137" t="n">
         <v>-0.002966022272226531</v>
@@ -17419,7 +17419,7 @@
         <v>0.00222052547731307</v>
       </c>
       <c r="P137" t="n">
-        <v>0.08039337260635909</v>
+        <v>0.08043537056001869</v>
       </c>
       <c r="Q137" t="n">
         <v>0.0007168967642109418</v>
@@ -17455,22 +17455,22 @@
         <v>-1.4741618342662</v>
       </c>
       <c r="AB137" t="n">
-        <v>-0.008538077538291295</v>
+        <v>-0.009106533295522178</v>
       </c>
       <c r="AC137" t="n">
-        <v>0.04087748830557322</v>
+        <v>0.0409138865320782</v>
       </c>
       <c r="AD137" t="n">
-        <v>0.2196897910769999</v>
+        <v>0.2198262844263936</v>
       </c>
       <c r="AE137" t="n">
-        <v>0.04385407763942772</v>
+        <v>0.04388137630930646</v>
       </c>
       <c r="AF137" t="n">
-        <v>-0.1626798674191376</v>
+        <v>-0.1626457440817892</v>
       </c>
       <c r="AG137" t="n">
-        <v>0.06438325421537534</v>
+        <v>0.2224594429943317</v>
       </c>
       <c r="AH137" t="n">
         <v>0.1996976017018462</v>
@@ -17540,7 +17540,7 @@
         <v>-0.165480313382114</v>
       </c>
       <c r="O138" t="n">
-        <v>0.04578854384739311</v>
+        <v>0.04609222747114691</v>
       </c>
       <c r="P138" t="n">
         <v>-0.09575750378689372</v>
@@ -17579,7 +17579,7 @@
         <v>-0.008461923455818589</v>
       </c>
       <c r="AB138" t="n">
-        <v>0.0174828441492745</v>
+        <v>0.01861076957825995</v>
       </c>
       <c r="AC138" t="n">
         <v>0.01296998078505455</v>
@@ -17594,7 +17594,7 @@
         <v>0.001014223615130363</v>
       </c>
       <c r="AG138" t="n">
-        <v>-0.1058648242502781</v>
+        <v>-0.05619876334242301</v>
       </c>
       <c r="AH138" t="n">
         <v>0.08231665306785521</v>
@@ -17606,7 +17606,7 @@
         <v>-0.02887904404389346</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.09713155732335593</v>
+        <v>0.1013831280559092</v>
       </c>
       <c r="AL138" t="n">
         <v>-10.98654883881618</v>
@@ -17615,7 +17615,7 @@
         <v>2.443723583836626</v>
       </c>
       <c r="AN138" t="n">
-        <v>-8.445693697656198</v>
+        <v>-8.441442126923645</v>
       </c>
     </row>
     <row r="139">
@@ -17664,7 +17664,7 @@
         <v>-0.1153855551505945</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1077702145273556</v>
+        <v>0.1079350538249543</v>
       </c>
       <c r="P139" t="n">
         <v>0.01848053476368404</v>
@@ -17703,7 +17703,7 @@
         <v>-0.5985343876868885</v>
       </c>
       <c r="AB139" t="n">
-        <v>-0.0201179505094043</v>
+        <v>-0.02141588280033361</v>
       </c>
       <c r="AC139" t="n">
         <v>0.06498192629220502</v>
@@ -17718,7 +17718,7 @@
         <v>-0.02116690717516231</v>
       </c>
       <c r="AG139" t="n">
-        <v>-0.08941129987312388</v>
+        <v>-0.0865177517236048</v>
       </c>
       <c r="AH139" t="n">
         <v>0.004184867199247237</v>
@@ -17730,7 +17730,7 @@
         <v>-0.1336391688720518</v>
       </c>
       <c r="AK139" t="n">
-        <v>-2.109550281124564</v>
+        <v>-2.107242530958183</v>
       </c>
       <c r="AL139" t="n">
         <v>-9.959909934547431</v>
@@ -17739,7 +17739,7 @@
         <v>1.704447158779988</v>
       </c>
       <c r="AN139" t="n">
-        <v>-10.36501305689201</v>
+        <v>-10.36270530672563</v>
       </c>
     </row>
     <row r="140">
@@ -17767,10 +17767,10 @@
         <v>0.265961956172785</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1772627069315909</v>
+        <v>0.1772998509771252</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1775484269939526</v>
+        <v>0.1775646775138739</v>
       </c>
       <c r="J140" t="n">
         <v>-0.07416472806600623</v>
@@ -17788,10 +17788,10 @@
         <v>0.001568347166250908</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0413623539353172</v>
+        <v>0.06709230659193602</v>
       </c>
       <c r="P140" t="n">
-        <v>0.09547027975908165</v>
+        <v>0.09549028039898477</v>
       </c>
       <c r="Q140" t="n">
         <v>-0.1361539000232803</v>
@@ -17827,22 +17827,22 @@
         <v>-0.01169572449526452</v>
       </c>
       <c r="AB140" t="n">
-        <v>-0.06473500454586328</v>
+        <v>-0.06891984381716867</v>
       </c>
       <c r="AC140" t="n">
-        <v>0.03996589946208891</v>
+        <v>0.03998323335000493</v>
       </c>
       <c r="AD140" t="n">
-        <v>0.310209737130284</v>
+        <v>0.3102747392099691</v>
       </c>
       <c r="AE140" t="n">
-        <v>0.08798511967733852</v>
+        <v>0.08799812009327554</v>
       </c>
       <c r="AF140" t="n">
-        <v>0.07772883080269523</v>
+        <v>0.0777450813226165</v>
       </c>
       <c r="AG140" t="n">
-        <v>0.1592103842409146</v>
+        <v>0.3218390351472686</v>
       </c>
       <c r="AH140" t="n">
         <v>0.2076715615260557</v>
@@ -17854,7 +17854,7 @@
         <v>0.004016343413390189</v>
       </c>
       <c r="AK140" t="n">
-        <v>3.353233763346856</v>
+        <v>3.713453100539519</v>
       </c>
       <c r="AL140" t="n">
         <v>-10.49649654345403</v>
@@ -17863,7 +17863,7 @@
         <v>2.21712440455058</v>
       </c>
       <c r="AN140" t="n">
-        <v>-4.926138375556598</v>
+        <v>-4.565919038363935</v>
       </c>
     </row>
     <row r="141">
@@ -17882,10 +17882,10 @@
         <v>-0</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.2042940406588524</v>
+        <v>-0.2024311950580268</v>
       </c>
       <c r="F141" t="n">
-        <v>0.02461905716734424</v>
+        <v>0.0253053687044905</v>
       </c>
       <c r="G141" t="n">
         <v>0.2837523537799242</v>
@@ -17909,13 +17909,13 @@
         <v>0.003153740798153696</v>
       </c>
       <c r="N141" t="n">
-        <v>0.237998711489284</v>
+        <v>0.2363687215885617</v>
       </c>
       <c r="O141" t="n">
-        <v>0.02136762440789245</v>
+        <v>0.02226535136606645</v>
       </c>
       <c r="P141" t="n">
-        <v>0.0341014375471945</v>
+        <v>0.03510450825533133</v>
       </c>
       <c r="Q141" t="n">
         <v>-0.04447226943895341</v>
@@ -17951,7 +17951,7 @@
         <v>-0.006376015305988337</v>
       </c>
       <c r="AB141" t="n">
-        <v>-0.007915230548480598</v>
+        <v>-0.008425890583866443</v>
       </c>
       <c r="AC141" t="n">
         <v>-0.03801700591209291</v>
@@ -17963,10 +17963,10 @@
         <v>0.02651014395028887</v>
       </c>
       <c r="AF141" t="n">
-        <v>0.1520197328205352</v>
+        <v>0.151204737870174</v>
       </c>
       <c r="AG141" t="n">
-        <v>0.1732801459362004</v>
+        <v>0.347517864261628</v>
       </c>
       <c r="AH141" t="n">
         <v>0.3956842534076437</v>
@@ -17978,7 +17978,7 @@
         <v>0.2457304037119557</v>
       </c>
       <c r="AK141" t="n">
-        <v>1.305471859171192</v>
+        <v>1.318040036585628</v>
       </c>
       <c r="AL141" t="n">
         <v>-9.146367046733465</v>
@@ -17987,7 +17987,7 @@
         <v>2.284655904174108</v>
       </c>
       <c r="AN141" t="n">
-        <v>-5.556239283388164</v>
+        <v>-5.543671105973729</v>
       </c>
     </row>
     <row r="142">
@@ -18006,10 +18006,10 @@
         <v>-0.0002868604557595373</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.0755585707003785</v>
+        <v>-0.07204216633117851</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04154170617164513</v>
+        <v>0.04283722357082407</v>
       </c>
       <c r="G142" t="n">
         <v>0.3132727352058025</v>
@@ -18033,13 +18033,13 @@
         <v>0.03411386231955231</v>
       </c>
       <c r="N142" t="n">
-        <v>-0.05482092071059904</v>
+        <v>-0.05789777453364903</v>
       </c>
       <c r="O142" t="n">
         <v>0.06339327099779449</v>
       </c>
       <c r="P142" t="n">
-        <v>0.03609107203960657</v>
+        <v>0.03798452054609888</v>
       </c>
       <c r="Q142" t="n">
         <v>-0.2124909287813377</v>
@@ -18075,7 +18075,7 @@
         <v>-0.005996429235320155</v>
       </c>
       <c r="AB142" t="n">
-        <v>-0.02408952777628942</v>
+        <v>-0.02564369085863067</v>
       </c>
       <c r="AC142" t="n">
         <v>0.05604948769492431</v>
@@ -18087,10 +18087,10 @@
         <v>0.04581281627341647</v>
       </c>
       <c r="AF142" t="n">
-        <v>0.02776133287405832</v>
+        <v>0.02622290596253333</v>
       </c>
       <c r="AG142" t="n">
-        <v>0.1416627919956565</v>
+        <v>0.3317760707854808</v>
       </c>
       <c r="AH142" t="n">
         <v>0.2398106604991789</v>
@@ -18160,7 +18160,7 @@
         <v>-0.05629829638245668</v>
       </c>
       <c r="O143" t="n">
-        <v>0.08705697855439164</v>
+        <v>0.08725152332309531</v>
       </c>
       <c r="P143" t="n">
         <v>0.0516763928719245</v>
@@ -18199,7 +18199,7 @@
         <v>-1.733045200720004</v>
       </c>
       <c r="AB143" t="n">
-        <v>-0.02235965680889637</v>
+        <v>-0.02380221531269614</v>
       </c>
       <c r="AC143" t="n">
         <v>-0.005487996368610304</v>
@@ -18214,7 +18214,7 @@
         <v>-0.06482074196272654</v>
       </c>
       <c r="AG143" t="n">
-        <v>-0.07066764959525881</v>
+        <v>-0.06135836788375735</v>
       </c>
       <c r="AH143" t="n">
         <v>0.02629314866513216</v>
@@ -18226,7 +18226,7 @@
         <v>0.04795996658599886</v>
       </c>
       <c r="AK143" t="n">
-        <v>-2.042311832940012</v>
+        <v>-2.039588206178161</v>
       </c>
       <c r="AL143" t="n">
         <v>-9.144541282086077</v>
@@ -18235,7 +18235,7 @@
         <v>1.80224759421804</v>
       </c>
       <c r="AN143" t="n">
-        <v>-9.38460552080805</v>
+        <v>-9.381881894046199</v>
       </c>
     </row>
     <row r="144">
@@ -18323,7 +18323,7 @@
         <v>-0.005670646673293446</v>
       </c>
       <c r="AB144" t="n">
-        <v>-0.01050928669592396</v>
+        <v>-0.01118730519243518</v>
       </c>
       <c r="AC144" t="n">
         <v>-0.02681398373299783</v>
@@ -18338,7 +18338,7 @@
         <v>0.1920142458079027</v>
       </c>
       <c r="AG144" t="n">
-        <v>0.1208039549561575</v>
+        <v>0.2727149807494064</v>
       </c>
       <c r="AH144" t="n">
         <v>0.364868049107309</v>
@@ -18378,10 +18378,10 @@
         <v>-0.0001972220773353952</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.2127324345933387</v>
+        <v>-0.2119873545585457</v>
       </c>
       <c r="F145" t="n">
-        <v>0.03561792330107829</v>
+        <v>0.03589242647179151</v>
       </c>
       <c r="G145" t="n">
         <v>0.211289806009833</v>
@@ -18405,13 +18405,13 @@
         <v>0.002884595372787681</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2133077259906483</v>
+        <v>0.2126557809602044</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0707839803147851</v>
+        <v>0.07107887797660159</v>
       </c>
       <c r="P145" t="n">
-        <v>0.05076807100353263</v>
+        <v>0.05116926794534427</v>
       </c>
       <c r="Q145" t="n">
         <v>-0.1966430069953265</v>
@@ -18447,7 +18447,7 @@
         <v>-1.234796580327959</v>
       </c>
       <c r="AB145" t="n">
-        <v>-0.01502007195118322</v>
+        <v>-0.01598910885125955</v>
       </c>
       <c r="AC145" t="n">
         <v>-0.02381285326072637</v>
@@ -18459,10 +18459,10 @@
         <v>0.03508168410474085</v>
       </c>
       <c r="AF145" t="n">
-        <v>0.07785926970720743</v>
+        <v>0.07753329719198547</v>
       </c>
       <c r="AG145" t="n">
-        <v>0.1109012367844895</v>
+        <v>0.2404859428418321</v>
       </c>
       <c r="AH145" t="n">
         <v>0.3063041139171608</v>
@@ -18474,7 +18474,7 @@
         <v>0.1794319315472532</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.04888127010909847</v>
+        <v>0.05300983737452934</v>
       </c>
       <c r="AL145" t="n">
         <v>-9.810732322379133</v>
@@ -18483,7 +18483,7 @@
         <v>2.835680215540036</v>
       </c>
       <c r="AN145" t="n">
-        <v>-6.926170836729998</v>
+        <v>-6.922042269464567</v>
       </c>
     </row>
     <row r="146">
@@ -18511,10 +18511,10 @@
         <v>0.2826665445172224</v>
       </c>
       <c r="H146" t="n">
-        <v>0.06750545619948733</v>
+        <v>0.06759542049877014</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1381689774712224</v>
+        <v>0.1382083368521586</v>
       </c>
       <c r="J146" t="n">
         <v>-0.07708069187590708</v>
@@ -18532,10 +18532,10 @@
         <v>0.1780934276821866</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05271248244597077</v>
+        <v>0.05297522940634137</v>
       </c>
       <c r="P146" t="n">
-        <v>0.03607026446578383</v>
+        <v>0.03611870678078227</v>
       </c>
       <c r="Q146" t="n">
         <v>-0.1668461267686959</v>
@@ -18571,22 +18571,22 @@
         <v>-0.003694101989519381</v>
       </c>
       <c r="AB146" t="n">
-        <v>-0.004624018047921025</v>
+        <v>-0.004942656312141081</v>
       </c>
       <c r="AC146" t="n">
-        <v>-0.02172462234386392</v>
+        <v>-0.02168263900419861</v>
       </c>
       <c r="AD146" t="n">
-        <v>0.1181345483491028</v>
+        <v>0.1182919858728478</v>
       </c>
       <c r="AE146" t="n">
-        <v>0.03807860043195944</v>
+        <v>0.03811008793670843</v>
       </c>
       <c r="AF146" t="n">
-        <v>0.1188092849816381</v>
+        <v>0.1188486443625743</v>
       </c>
       <c r="AG146" t="n">
-        <v>0.1707167173701566</v>
+        <v>0.3457168247498043</v>
       </c>
       <c r="AH146" t="n">
         <v>0.4008154403749254</v>
@@ -18598,7 +18598,7 @@
         <v>0.1467939995270025</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.6073898535871742</v>
+        <v>0.6110683110323627</v>
       </c>
       <c r="AL146" t="n">
         <v>-9.929866801649124</v>
@@ -18607,7 +18607,7 @@
         <v>1.884881904107643</v>
       </c>
       <c r="AN146" t="n">
-        <v>-7.437595043954308</v>
+        <v>-7.433916586509119</v>
       </c>
     </row>
     <row r="147">
@@ -18656,7 +18656,7 @@
         <v>0.1286107065113874</v>
       </c>
       <c r="O147" t="n">
-        <v>0.2126611765956139</v>
+        <v>0.2132327562111894</v>
       </c>
       <c r="P147" t="n">
         <v>0.1636277730490492</v>
@@ -18695,7 +18695,7 @@
         <v>-0.2007532869117631</v>
       </c>
       <c r="AB147" t="n">
-        <v>-0.001283772214029422</v>
+        <v>-0.001366596227837772</v>
       </c>
       <c r="AC147" t="n">
         <v>-0.02879499315658496</v>
@@ -18710,7 +18710,7 @@
         <v>0.06537889156509955</v>
       </c>
       <c r="AG147" t="n">
-        <v>-0.0356877561608446</v>
+        <v>-0.006554151303828692</v>
       </c>
       <c r="AH147" t="n">
         <v>0.01023002897088596</v>
@@ -18722,7 +18722,7 @@
         <v>0.05627153209299154</v>
       </c>
       <c r="AK147" t="n">
-        <v>2.470217048956917</v>
+        <v>2.478219163574973</v>
       </c>
       <c r="AL147" t="n">
         <v>-10.83928864216463</v>
@@ -18731,7 +18731,7 @@
         <v>1.567782485579664</v>
       </c>
       <c r="AN147" t="n">
-        <v>-6.80128910762805</v>
+        <v>-6.793286993009994</v>
       </c>
     </row>
     <row r="148">
@@ -18780,7 +18780,7 @@
         <v>-0.02492353612812712</v>
       </c>
       <c r="O148" t="n">
-        <v>0.2139203495459736</v>
+        <v>0.2165753114549915</v>
       </c>
       <c r="P148" t="n">
         <v>0.1878899548238403</v>
@@ -18819,7 +18819,7 @@
         <v>-0.4025719900176427</v>
       </c>
       <c r="AB148" t="n">
-        <v>-0.0070002620759022</v>
+        <v>-0.007451891887250729</v>
       </c>
       <c r="AC148" t="n">
         <v>-0.02335422814427309</v>
@@ -18834,7 +18834,7 @@
         <v>-0.01304432845845148</v>
       </c>
       <c r="AG148" t="n">
-        <v>-0.01754548260689304</v>
+        <v>0.05828464104850624</v>
       </c>
       <c r="AH148" t="n">
         <v>-0.01848621062632265</v>
@@ -18846,7 +18846,7 @@
         <v>0.02553700368941194</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.027592645968439</v>
+        <v>1.06476211269469</v>
       </c>
       <c r="AL148" t="n">
         <v>-8.743028378214424</v>
@@ -18855,7 +18855,7 @@
         <v>1.956643845860841</v>
       </c>
       <c r="AN148" t="n">
-        <v>-5.758791886385143</v>
+        <v>-5.721622419658893</v>
       </c>
     </row>
     <row r="149">
@@ -18874,19 +18874,19 @@
         <v>-0</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.2168878062953572</v>
+        <v>-0.214952840475151</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01548316394012324</v>
+        <v>0.01619604608440972</v>
       </c>
       <c r="G149" t="n">
         <v>0.2272612457996146</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07398413962266127</v>
+        <v>0.07407470803552042</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1453961794136712</v>
+        <v>0.1454358030942971</v>
       </c>
       <c r="J149" t="n">
         <v>-0.08367682214386453</v>
@@ -18901,13 +18901,13 @@
         <v>0.08368348642782555</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2505971840043096</v>
+        <v>0.2489040889116292</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0593364819737198</v>
+        <v>0.06274714001393879</v>
       </c>
       <c r="P149" t="n">
-        <v>0.06180788528207638</v>
+        <v>0.06289855756141925</v>
       </c>
       <c r="Q149" t="n">
         <v>-0.02850860438800523</v>
@@ -18943,22 +18943,22 @@
         <v>-0.04304612561067549</v>
       </c>
       <c r="AB149" t="n">
-        <v>0.003123533162709338</v>
+        <v>0.003304600499335294</v>
       </c>
       <c r="AC149" t="n">
-        <v>-0.02464581722824346</v>
+        <v>-0.02460355196890919</v>
       </c>
       <c r="AD149" t="n">
-        <v>0.1215047330270456</v>
+        <v>0.1216632277495492</v>
       </c>
       <c r="AE149" t="n">
-        <v>0.02353107653855563</v>
+        <v>0.02356277548305633</v>
       </c>
       <c r="AF149" t="n">
-        <v>0.162533932307564</v>
+        <v>0.1617270084418497</v>
       </c>
       <c r="AG149" t="n">
-        <v>0.1292175740054725</v>
+        <v>0.2899826895620089</v>
       </c>
       <c r="AH149" t="n">
         <v>0.3396488643476018</v>
@@ -18970,7 +18970,7 @@
         <v>0.2177384989295042</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.445475437427428</v>
+        <v>2.493224649990494</v>
       </c>
       <c r="AL149" t="n">
         <v>-9.233501954532898</v>
@@ -18979,7 +18979,7 @@
         <v>3.02067387909264</v>
       </c>
       <c r="AN149" t="n">
-        <v>-3.767352638012829</v>
+        <v>-3.719603425449765</v>
       </c>
     </row>
     <row r="150">
@@ -19028,7 +19028,7 @@
         <v>0.0008289681973650655</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1081615243596892</v>
+        <v>0.1372381945498271</v>
       </c>
       <c r="P150" t="n">
         <v>0.11776446869802</v>
@@ -19067,7 +19067,7 @@
         <v>-0.004028360965608691</v>
       </c>
       <c r="AB150" t="n">
-        <v>-0.023563797723638</v>
+        <v>-0.02508404273806626</v>
       </c>
       <c r="AC150" t="n">
         <v>0.03711937157222945</v>
@@ -19082,7 +19082,7 @@
         <v>0.09444583753290356</v>
       </c>
       <c r="AG150" t="n">
-        <v>0.09718722829041986</v>
+        <v>0.2671069674816861</v>
       </c>
       <c r="AH150" t="n">
         <v>0.1492451214253274</v>
@@ -19094,7 +19094,7 @@
         <v>-0.02818456282930008</v>
       </c>
       <c r="AK150" t="n">
-        <v>1.987154652877663</v>
+        <v>2.394228035539593</v>
       </c>
       <c r="AL150" t="n">
         <v>-14.1040491978401</v>
@@ -19103,7 +19103,7 @@
         <v>2.541339927396203</v>
       </c>
       <c r="AN150" t="n">
-        <v>-9.575554617566231</v>
+        <v>-9.168481234904302</v>
       </c>
     </row>
     <row r="151">
@@ -19122,19 +19122,19 @@
         <v>-0.0002051047153555762</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.01377771883167854</v>
+        <v>-0.01295593034947355</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02604249794267758</v>
+        <v>0.02634526212033205</v>
       </c>
       <c r="G151" t="n">
         <v>0.2981672683500989</v>
       </c>
       <c r="H151" t="n">
-        <v>0.144051643840871</v>
+        <v>0.1440747379411877</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1758035291839076</v>
+        <v>0.1758136328527961</v>
       </c>
       <c r="J151" t="n">
         <v>-0.001557064793723939</v>
@@ -19149,13 +19149,13 @@
         <v>0.0005378085339380024</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0008698984613723999</v>
+        <v>0.0001508335394430306</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0834760842196953</v>
+        <v>0.08357863657737308</v>
       </c>
       <c r="P151" t="n">
-        <v>0.07289920789890768</v>
+        <v>0.07335414467411164</v>
       </c>
       <c r="Q151" t="n">
         <v>-0.2875201139577415</v>
@@ -19191,22 +19191,22 @@
         <v>-0.01135512200181876</v>
       </c>
       <c r="AB151" t="n">
-        <v>-0.02073239851487415</v>
+        <v>-0.02207518740945366</v>
       </c>
       <c r="AC151" t="n">
-        <v>0.01874147730936004</v>
+        <v>0.01875225455617448</v>
       </c>
       <c r="AD151" t="n">
-        <v>0.2376368905870475</v>
+        <v>0.2376773052626016</v>
       </c>
       <c r="AE151" t="n">
-        <v>0.05447074098560515</v>
+        <v>0.05447882392071598</v>
       </c>
       <c r="AF151" t="n">
-        <v>0.05958137703483176</v>
+        <v>0.05923194824275562</v>
       </c>
       <c r="AG151" t="n">
-        <v>0.1787595801542134</v>
+        <v>0.3585143465336999</v>
       </c>
       <c r="AH151" t="n">
         <v>0.2262671495774581</v>
@@ -19218,7 +19218,7 @@
         <v>-0.0420318953441734</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.8403194165165189</v>
+        <v>0.8417551495240079</v>
       </c>
       <c r="AL151" t="n">
         <v>-11.55488254016869</v>
@@ -19227,7 +19227,7 @@
         <v>1.908386122460399</v>
       </c>
       <c r="AN151" t="n">
-        <v>-8.806177001191768</v>
+        <v>-8.804741268184278</v>
       </c>
     </row>
     <row r="152">
@@ -19276,7 +19276,7 @@
         <v>0.1669321493593708</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1846913327911937</v>
+        <v>0.1906857426546933</v>
       </c>
       <c r="P152" t="n">
         <v>0.2360550024872474</v>
@@ -19315,7 +19315,7 @@
         <v>-0.01386437847278081</v>
       </c>
       <c r="AB152" t="n">
-        <v>0.001848846742108523</v>
+        <v>0.001968127177083267</v>
       </c>
       <c r="AC152" t="n">
         <v>-0.09887991244546364</v>
@@ -19330,7 +19330,7 @@
         <v>0.1691259580490722</v>
       </c>
       <c r="AG152" t="n">
-        <v>0.05031858689464715</v>
+        <v>0.1592038091544977</v>
       </c>
       <c r="AH152" t="n">
         <v>0.1588383742235116</v>
@@ -19342,7 +19342,7 @@
         <v>0.2257968305255448</v>
       </c>
       <c r="AK152" t="n">
-        <v>1.126193325021638</v>
+        <v>1.210115063110633</v>
       </c>
       <c r="AL152" t="n">
         <v>-10.50896334152284</v>
@@ -19351,7 +19351,7 @@
         <v>2.023996130840089</v>
       </c>
       <c r="AN152" t="n">
-        <v>-7.358773885661112</v>
+        <v>-7.274852147572117</v>
       </c>
     </row>
     <row r="153">
@@ -19400,7 +19400,7 @@
         <v>0.2052584228255676</v>
       </c>
       <c r="O153" t="n">
-        <v>0.08567452797516721</v>
+        <v>0.09009948585601847</v>
       </c>
       <c r="P153" t="n">
         <v>0.03868437506613086</v>
@@ -19439,7 +19439,7 @@
         <v>-0.04107922828290081</v>
       </c>
       <c r="AB153" t="n">
-        <v>-0.01300389837934726</v>
+        <v>-0.0138428595651116</v>
       </c>
       <c r="AC153" t="n">
         <v>0.02232733542173684</v>
@@ -19454,7 +19454,7 @@
         <v>0.1404565346487149</v>
       </c>
       <c r="AG153" t="n">
-        <v>0.1340345024710522</v>
+        <v>0.3102036706864285</v>
       </c>
       <c r="AH153" t="n">
         <v>0.3825829238414122</v>
@@ -19466,7 +19466,7 @@
         <v>0.1238008829510981</v>
       </c>
       <c r="AK153" t="n">
-        <v>0.977714559262627</v>
+        <v>1.039663969594544</v>
       </c>
       <c r="AL153" t="n">
         <v>-8.995593587954794</v>
@@ -19475,7 +19475,7 @@
         <v>1.919667287367621</v>
       </c>
       <c r="AN153" t="n">
-        <v>-6.098211741324546</v>
+        <v>-6.036262330992629</v>
       </c>
     </row>
     <row r="154">
@@ -19524,7 +19524,7 @@
         <v>0.2102884836050946</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1645000500768281</v>
+        <v>0.1746329583455008</v>
       </c>
       <c r="P154" t="n">
         <v>0.2381850656215383</v>
@@ -19563,7 +19563,7 @@
         <v>-0.04500002917534819</v>
       </c>
       <c r="AB154" t="n">
-        <v>-0.02231371708977022</v>
+        <v>-0.02375331174072313</v>
       </c>
       <c r="AC154" t="n">
         <v>-0.02028720239068336</v>
@@ -19578,7 +19578,7 @@
         <v>0.2076409557581491</v>
       </c>
       <c r="AG154" t="n">
-        <v>0.09540906504441009</v>
+        <v>0.2416538952116309</v>
       </c>
       <c r="AH154" t="n">
         <v>0.2417055741829732</v>
@@ -19590,7 +19590,7 @@
         <v>0.2039021389741898</v>
       </c>
       <c r="AK154" t="n">
-        <v>3.451712220505497</v>
+        <v>3.593572936266913</v>
       </c>
       <c r="AL154" t="n">
         <v>-8.943398068057125</v>
@@ -19599,7 +19599,7 @@
         <v>3.18031209218228</v>
       </c>
       <c r="AN154" t="n">
-        <v>-2.311373755369347</v>
+        <v>-2.169513039607932</v>
       </c>
     </row>
     <row r="155">
@@ -19648,7 +19648,7 @@
         <v>0.2726978103787183</v>
       </c>
       <c r="O155" t="n">
-        <v>0.08337171207076298</v>
+        <v>0.08407921829352517</v>
       </c>
       <c r="P155" t="n">
         <v>0.0772254103595702</v>
@@ -19687,7 +19687,7 @@
         <v>-0.02671331771739352</v>
       </c>
       <c r="AB155" t="n">
-        <v>-0.003382270400434323</v>
+        <v>-0.00360048139401073</v>
       </c>
       <c r="AC155" t="n">
         <v>-0.03279194175431902</v>
@@ -19702,7 +19702,7 @@
         <v>0.1620358415506239</v>
       </c>
       <c r="AG155" t="n">
-        <v>0.1324996232222862</v>
+        <v>0.2955520120915898</v>
       </c>
       <c r="AH155" t="n">
         <v>0.3306457386107964</v>
@@ -19714,7 +19714,7 @@
         <v>0.2160151335558353</v>
       </c>
       <c r="AK155" t="n">
-        <v>2.795625189909403</v>
+        <v>2.805530277028074</v>
       </c>
       <c r="AL155" t="n">
         <v>-9.191514744549854</v>
@@ -19723,7 +19723,7 @@
         <v>2.772752858746185</v>
       </c>
       <c r="AN155" t="n">
-        <v>-3.623136695894266</v>
+        <v>-3.613231608775595</v>
       </c>
     </row>
     <row r="156">
@@ -19772,7 +19772,7 @@
         <v>0.2270745521541065</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1147563429138191</v>
+        <v>0.1180560536601331</v>
       </c>
       <c r="P156" t="n">
         <v>0.1405034210260028</v>
@@ -19811,7 +19811,7 @@
         <v>-0.0130939819126502</v>
       </c>
       <c r="AB156" t="n">
-        <v>-0.004850134816966995</v>
+        <v>-0.005163046740642285</v>
       </c>
       <c r="AC156" t="n">
         <v>-0.009108154314363749</v>
@@ -19826,7 +19826,7 @@
         <v>0.2235823202336501</v>
       </c>
       <c r="AG156" t="n">
-        <v>0.07312699065136859</v>
+        <v>0.2380084243409948</v>
       </c>
       <c r="AH156" t="n">
         <v>0.184890246320556</v>
@@ -19838,7 +19838,7 @@
         <v>0.1262830990458565</v>
       </c>
       <c r="AK156" t="n">
-        <v>2.608708930902398</v>
+        <v>2.654904881350795</v>
       </c>
       <c r="AL156" t="n">
         <v>-8.61668277647947</v>
@@ -19847,7 +19847,7 @@
         <v>2.761517985034063</v>
       </c>
       <c r="AN156" t="n">
-        <v>-3.246455860543009</v>
+        <v>-3.200259910094612</v>
       </c>
     </row>
     <row r="157">
@@ -19866,10 +19866,10 @@
         <v>-0.0003689916243779836</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.1072454160425399</v>
+        <v>-0.1028024252716771</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02543006023338036</v>
+        <v>0.02706695157001402</v>
       </c>
       <c r="G157" t="n">
         <v>0.3162970871991095</v>
@@ -19893,13 +19893,13 @@
         <v>0.008042404679749897</v>
       </c>
       <c r="N157" t="n">
-        <v>-0.09779445152032389</v>
+        <v>-0.1016820684448288</v>
       </c>
       <c r="O157" t="n">
-        <v>0.05069350418364225</v>
+        <v>0.05196250922216171</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.03103923917536544</v>
+        <v>-0.02864685952951624</v>
       </c>
       <c r="Q157" t="n">
         <v>-0.1647815790690353</v>
@@ -19935,7 +19935,7 @@
         <v>-0.0300253942288701</v>
       </c>
       <c r="AB157" t="n">
-        <v>-0.00455349285614192</v>
+        <v>-0.004847266588796238</v>
       </c>
       <c r="AC157" t="n">
         <v>0.03494953947345065</v>
@@ -19947,10 +19947,10 @@
         <v>0.01412541459303978</v>
       </c>
       <c r="AF157" t="n">
-        <v>-0.01687870367975312</v>
+        <v>-0.01882251214200559</v>
       </c>
       <c r="AG157" t="n">
-        <v>0.1058603988524534</v>
+        <v>0.2986411905948061</v>
       </c>
       <c r="AH157" t="n">
         <v>0.247311710371782</v>
@@ -19962,7 +19962,7 @@
         <v>-0.05252915257097401</v>
       </c>
       <c r="AK157" t="n">
-        <v>-1.198629532097994</v>
+        <v>-1.180863461558722</v>
       </c>
       <c r="AL157" t="n">
         <v>-10.43427905361962</v>
@@ -19971,7 +19971,7 @@
         <v>1.449690068219654</v>
       </c>
       <c r="AN157" t="n">
-        <v>-10.18321851749796</v>
+        <v>-10.16545244695869</v>
       </c>
     </row>
     <row r="158">
@@ -20020,7 +20020,7 @@
         <v>0.2095406772816724</v>
       </c>
       <c r="O158" t="n">
-        <v>0.05863733746869614</v>
+        <v>0.05953132002510259</v>
       </c>
       <c r="P158" t="n">
         <v>0.09651030331355652</v>
@@ -20059,7 +20059,7 @@
         <v>-0</v>
       </c>
       <c r="AB158" t="n">
-        <v>-0.01162416887996523</v>
+        <v>-0.01237411525931783</v>
       </c>
       <c r="AC158" t="n">
         <v>-0.07648733316941017</v>
@@ -20074,7 +20074,7 @@
         <v>0.1405897951887006</v>
       </c>
       <c r="AG158" t="n">
-        <v>0.166285739898494</v>
+        <v>0.3328430893730802</v>
       </c>
       <c r="AH158" t="n">
         <v>0.3508732053494438</v>
@@ -20086,7 +20086,7 @@
         <v>0.2837989100423026</v>
       </c>
       <c r="AK158" t="n">
-        <v>2.092541123664448</v>
+        <v>2.105056879454139</v>
       </c>
       <c r="AL158" t="n">
         <v>-8.566300087221352</v>
@@ -20095,7 +20095,7 @@
         <v>2.801788565973822</v>
       </c>
       <c r="AN158" t="n">
-        <v>-3.671970397583082</v>
+        <v>-3.659454641793391</v>
       </c>
     </row>
     <row r="159">
@@ -20144,7 +20144,7 @@
         <v>0.2994053499570728</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1322581691013328</v>
+        <v>0.135587895966079</v>
       </c>
       <c r="P159" t="n">
         <v>0.1843001552883849</v>
@@ -20183,7 +20183,7 @@
         <v>-0</v>
       </c>
       <c r="AB159" t="n">
-        <v>-0.007425532901655992</v>
+        <v>-0.007904599540472507</v>
       </c>
       <c r="AC159" t="n">
         <v>-0.07352777191121922</v>
@@ -20198,7 +20198,7 @@
         <v>0.2206652938070526</v>
       </c>
       <c r="AG159" t="n">
-        <v>0.0995322143463534</v>
+        <v>0.2190059353035345</v>
       </c>
       <c r="AH159" t="n">
         <v>0.3038433623837603</v>
@@ -20210,7 +20210,7 @@
         <v>0.3209978483486542</v>
       </c>
       <c r="AK159" t="n">
-        <v>2.556588484508716</v>
+        <v>2.603204660615164</v>
       </c>
       <c r="AL159" t="n">
         <v>-5.8963406328643</v>
@@ -20219,7 +20219,7 @@
         <v>2.566791396</v>
       </c>
       <c r="AN159" t="n">
-        <v>-0.7729607523555839</v>
+        <v>-0.7263445762491361</v>
       </c>
     </row>
     <row r="160">
@@ -20268,7 +20268,7 @@
         <v>0.002417090631188461</v>
       </c>
       <c r="O160" t="n">
-        <v>0.05662179863184137</v>
+        <v>0.06523002699786205</v>
       </c>
       <c r="P160" t="n">
         <v>0.09529552473914259</v>
@@ -20307,7 +20307,7 @@
         <v>-0.01273215352227149</v>
       </c>
       <c r="AB160" t="n">
-        <v>-0.02212194441078388</v>
+        <v>-0.02354916663083445</v>
       </c>
       <c r="AC160" t="n">
         <v>-0.003394744460484124</v>
@@ -20322,7 +20322,7 @@
         <v>0.1111768856936522</v>
       </c>
       <c r="AG160" t="n">
-        <v>0.173405975639116</v>
+        <v>0.3487080449760595</v>
       </c>
       <c r="AH160" t="n">
         <v>0.2191275866711793</v>
@@ -20334,7 +20334,7 @@
         <v>0.07839512731399524</v>
       </c>
       <c r="AK160" t="n">
-        <v>0.01901525475831605</v>
+        <v>0.1395304518826055</v>
       </c>
       <c r="AL160" t="n">
         <v>-7.470476787769698</v>
@@ -20343,7 +20343,7 @@
         <v>1.943376229480157</v>
       </c>
       <c r="AN160" t="n">
-        <v>-5.508085303531224</v>
+        <v>-5.387570106406935</v>
       </c>
     </row>
     <row r="161">
@@ -20431,7 +20431,7 @@
         <v>-0.737347104536007</v>
       </c>
       <c r="AB161" t="n">
-        <v>-0.01888655771706502</v>
+        <v>-0.02010504531171438</v>
       </c>
       <c r="AC161" t="n">
         <v>0.06823463468569946</v>
@@ -20446,7 +20446,7 @@
         <v>0.01630353913079034</v>
       </c>
       <c r="AG161" t="n">
-        <v>0.008219893080847607</v>
+        <v>0.1453073626161022</v>
       </c>
       <c r="AH161" t="n">
         <v>0.1716225589739343</v>
@@ -20516,7 +20516,7 @@
         <v>0.1987543323652513</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1311838023761337</v>
+        <v>0.1434183229846372</v>
       </c>
       <c r="P162" t="n">
         <v>0.2522837842869889</v>
@@ -20555,7 +20555,7 @@
         <v>-0.4025210581330265</v>
       </c>
       <c r="AB162" t="n">
-        <v>-0.02530215043069522</v>
+        <v>-0.02693454723267556</v>
       </c>
       <c r="AC162" t="n">
         <v>-0.05209013421153697</v>
@@ -20570,7 +20570,7 @@
         <v>0.1827977415895302</v>
       </c>
       <c r="AG162" t="n">
-        <v>0.1074692984639957</v>
+        <v>0.2253743672400559</v>
       </c>
       <c r="AH162" t="n">
         <v>0.2237919194717572</v>
@@ -20582,7 +20582,7 @@
         <v>0.2797693085251196</v>
       </c>
       <c r="AK162" t="n">
-        <v>2.805186720939317</v>
+        <v>2.976470009458366</v>
       </c>
       <c r="AL162" t="n">
         <v>-8.045473164963306</v>
@@ -20591,7 +20591,7 @@
         <v>2.839958685856766</v>
       </c>
       <c r="AN162" t="n">
-        <v>-2.400327758167224</v>
+        <v>-2.229044469648174</v>
       </c>
     </row>
     <row r="163">
@@ -20640,7 +20640,7 @@
         <v>0.1670606379733085</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1885053309933784</v>
+        <v>0.1909370958212003</v>
       </c>
       <c r="P163" t="n">
         <v>0.2203007852666323</v>
@@ -20679,7 +20679,7 @@
         <v>-0</v>
       </c>
       <c r="AB163" t="n">
-        <v>-0.01208297490678248</v>
+        <v>-0.01286252167496199</v>
       </c>
       <c r="AC163" t="n">
         <v>-0.03385546923507355</v>
@@ -20694,7 +20694,7 @@
         <v>0.1561135855767551</v>
       </c>
       <c r="AG163" t="n">
-        <v>-0.008552547885272391</v>
+        <v>0.03942291199419724</v>
       </c>
       <c r="AH163" t="n">
         <v>0.05316506077675265</v>
@@ -20706,7 +20706,7 @@
         <v>0.1422986865441846</v>
       </c>
       <c r="AK163" t="n">
-        <v>3.063526716797265</v>
+        <v>3.097571424386772</v>
       </c>
       <c r="AL163" t="n">
         <v>-10.02898039831704</v>
@@ -20715,7 +20715,7 @@
         <v>1.958763450397016</v>
       </c>
       <c r="AN163" t="n">
-        <v>-5.006690231122758</v>
+        <v>-4.972645523533251</v>
       </c>
     </row>
     <row r="164">
@@ -20764,7 +20764,7 @@
         <v>0.1924413401349638</v>
       </c>
       <c r="O164" t="n">
-        <v>0.02618399331948412</v>
+        <v>0.04342831922753233</v>
       </c>
       <c r="P164" t="n">
         <v>0.08543281545970204</v>
@@ -20803,7 +20803,7 @@
         <v>-0.002979529262852191</v>
       </c>
       <c r="AB164" t="n">
-        <v>-0.01962518132920156</v>
+        <v>-0.02089132206011779</v>
       </c>
       <c r="AC164" t="n">
         <v>0.02821620102710062</v>
@@ -20818,7 +20818,7 @@
         <v>0.1689714437951095</v>
       </c>
       <c r="AG164" t="n">
-        <v>0.1535367507112799</v>
+        <v>0.3070735014225597</v>
       </c>
       <c r="AH164" t="n">
         <v>0.3847347196819202</v>
@@ -20830,7 +20830,7 @@
         <v>0.1702032922743236</v>
       </c>
       <c r="AK164" t="n">
-        <v>2.438829162880797</v>
+        <v>2.680249725593471</v>
       </c>
       <c r="AL164" t="n">
         <v>-7.155735836346217</v>
@@ -20839,7 +20839,7 @@
         <v>2.7530387857707</v>
       </c>
       <c r="AN164" t="n">
-        <v>-1.96386788769472</v>
+        <v>-1.722447324982046</v>
       </c>
     </row>
     <row r="165">
@@ -20888,7 +20888,7 @@
         <v>0.2759145472576862</v>
       </c>
       <c r="O165" t="n">
-        <v>0.05275336466449206</v>
+        <v>0.05408437253079428</v>
       </c>
       <c r="P165" t="n">
         <v>0.01934627641468</v>
@@ -20927,7 +20927,7 @@
         <v>-0</v>
       </c>
       <c r="AB165" t="n">
-        <v>-0.001833639732722016</v>
+        <v>-0.001951939070316984</v>
       </c>
       <c r="AC165" t="n">
         <v>-0.06653188244296221</v>
@@ -20942,7 +20942,7 @@
         <v>0.1542269545374248</v>
       </c>
       <c r="AG165" t="n">
-        <v>0.1159952169459589</v>
+        <v>0.2764557418230785</v>
       </c>
       <c r="AH165" t="n">
         <v>0.3386057799965745</v>
@@ -20954,7 +20954,7 @@
         <v>0.2534432936141042</v>
       </c>
       <c r="AK165" t="n">
-        <v>1.232411465476745</v>
+        <v>1.251045575604976</v>
       </c>
       <c r="AL165" t="n">
         <v>-8.912998047912499</v>
@@ -20963,7 +20963,7 @@
         <v>2.516395805058615</v>
       </c>
       <c r="AN165" t="n">
-        <v>-5.164190777377138</v>
+        <v>-5.145556667248908</v>
       </c>
     </row>
     <row r="166">
@@ -20991,10 +20991,10 @@
         <v>0.2460375693191595</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1463589895057253</v>
+        <v>0.1464647559781105</v>
       </c>
       <c r="I166" t="n">
-        <v>0.1508881149187784</v>
+        <v>0.1509343877504469</v>
       </c>
       <c r="J166" t="n">
         <v>-0.08068579989920889</v>
@@ -21012,10 +21012,10 @@
         <v>0.2901328150882291</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06293202086832665</v>
+        <v>0.06621517364839613</v>
       </c>
       <c r="P166" t="n">
-        <v>0.1429786488133848</v>
+        <v>0.143035599990823</v>
       </c>
       <c r="Q166" t="n">
         <v>0.03882254667515295</v>
@@ -21051,22 +21051,22 @@
         <v>-0.04366250397263159</v>
       </c>
       <c r="AB166" t="n">
-        <v>-0.0107037430026778</v>
+        <v>-0.0114181898191956</v>
       </c>
       <c r="AC166" t="n">
-        <v>-0.03012941364139549</v>
+        <v>-0.0300800559542824</v>
       </c>
       <c r="AD166" t="n">
-        <v>0.2210070281785832</v>
+        <v>0.2211921195052572</v>
       </c>
       <c r="AE166" t="n">
-        <v>0.1009202932451239</v>
+        <v>0.1009573115104587</v>
       </c>
       <c r="AF166" t="n">
-        <v>0.2586530464790697</v>
+        <v>0.2586993193107382</v>
       </c>
       <c r="AG166" t="n">
-        <v>0.1505158548688767</v>
+        <v>0.3020406278252309</v>
       </c>
       <c r="AH166" t="n">
         <v>0.3715461048845994</v>
@@ -21078,7 +21078,7 @@
         <v>0.2591291549157473</v>
       </c>
       <c r="AK166" t="n">
-        <v>1.823974771153976</v>
+        <v>1.869938910074949</v>
       </c>
       <c r="AL166" t="n">
         <v>-9.642205030561344</v>
@@ -21087,7 +21087,7 @@
         <v>2.152744362981671</v>
       </c>
       <c r="AN166" t="n">
-        <v>-5.665485896425698</v>
+        <v>-5.619521757504724</v>
       </c>
     </row>
     <row r="167">
@@ -21175,7 +21175,7 @@
         <v>-1.272917423091857</v>
       </c>
       <c r="AB167" t="n">
-        <v>-0.007641167777855639</v>
+        <v>-0.008134146344168907</v>
       </c>
       <c r="AC167" t="n">
         <v>-0.03908231551641502</v>
@@ -21190,7 +21190,7 @@
         <v>-0.02930475397546423</v>
       </c>
       <c r="AG167" t="n">
-        <v>-0.04682347101921479</v>
+        <v>0.06100416447553118</v>
       </c>
       <c r="AH167" t="n">
         <v>-0.01755466615956952</v>
@@ -21239,10 +21239,10 @@
         <v>0.2607045047665982</v>
       </c>
       <c r="H168" t="n">
-        <v>0.1546893984066372</v>
+        <v>0.1547161673316469</v>
       </c>
       <c r="I168" t="n">
-        <v>0.1680326786206334</v>
+        <v>0.1680443900253251</v>
       </c>
       <c r="J168" t="n">
         <v>-0.001285182714326708</v>
@@ -21260,10 +21260,10 @@
         <v>-0.1501346248531824</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1729814732155896</v>
+        <v>0.1732883260506883</v>
       </c>
       <c r="P168" t="n">
-        <v>0.006309377998679954</v>
+        <v>0.006323792035223662</v>
       </c>
       <c r="Q168" t="n">
         <v>-0.30973771781943</v>
@@ -21299,22 +21299,22 @@
         <v>-0.02528253323167321</v>
       </c>
       <c r="AB168" t="n">
-        <v>-0.003421039715116898</v>
+        <v>-0.003647796550771801</v>
       </c>
       <c r="AC168" t="n">
-        <v>0.01911084919603885</v>
+        <v>0.0191233413610434</v>
       </c>
       <c r="AD168" t="n">
-        <v>0.2675001424470432</v>
+        <v>0.2675469880658103</v>
       </c>
       <c r="AE168" t="n">
-        <v>0.05521323771758572</v>
+        <v>0.05522260684133913</v>
       </c>
       <c r="AF168" t="n">
-        <v>-0.008967571206222736</v>
+        <v>-0.008955859801530972</v>
       </c>
       <c r="AG168" t="n">
-        <v>-0.07145672738906712</v>
+        <v>0.08645861655474754</v>
       </c>
       <c r="AH168" t="n">
         <v>0.04892958367955355</v>
@@ -21326,7 +21326,7 @@
         <v>-0.1468047655011192</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.5124801718509192</v>
+        <v>0.5167761115423007</v>
       </c>
       <c r="AL168" t="n">
         <v>-10.76958255958851</v>
@@ -21335,7 +21335,7 @@
         <v>2.226921032659365</v>
       </c>
       <c r="AN168" t="n">
-        <v>-8.030181355078231</v>
+        <v>-8.025885415386849</v>
       </c>
     </row>
     <row r="169">
@@ -21363,10 +21363,10 @@
         <v>0.01675307745562201</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1476704662176293</v>
+        <v>0.1476985541683289</v>
       </c>
       <c r="I169" t="n">
-        <v>0.105383567671401</v>
+        <v>0.1053958561498321</v>
       </c>
       <c r="J169" t="n">
         <v>-0.08885203471124854</v>
@@ -21387,7 +21387,7 @@
         <v>0.09927346705966547</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.02912225250566399</v>
+        <v>-0.029107128224518</v>
       </c>
       <c r="Q169" t="n">
         <v>-0.2102069239595612</v>
@@ -21423,22 +21423,22 @@
         <v>-0.07763770131657656</v>
       </c>
       <c r="AB169" t="n">
-        <v>-0.02532219764589154</v>
+        <v>-0.02689384105894386</v>
       </c>
       <c r="AC169" t="n">
-        <v>0.06863020888261913</v>
+        <v>0.06864331659294565</v>
       </c>
       <c r="AD169" t="n">
-        <v>0.2584233158808512</v>
+        <v>0.2584724697945757</v>
       </c>
       <c r="AE169" t="n">
-        <v>0.050910967550255</v>
+        <v>0.05092079833299989</v>
       </c>
       <c r="AF169" t="n">
-        <v>0.1579879623026021</v>
+        <v>0.1580002507810333</v>
       </c>
       <c r="AG169" t="n">
-        <v>-0.06136745890719569</v>
+        <v>-0.05068267266858024</v>
       </c>
       <c r="AH169" t="n">
         <v>0.1666074805085381</v>
@@ -21487,10 +21487,10 @@
         <v>0.270964379167724</v>
       </c>
       <c r="H170" t="n">
-        <v>0.04243357822308273</v>
+        <v>0.04251049147764056</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1831735561750998</v>
+        <v>0.1832072057239688</v>
       </c>
       <c r="J170" t="n">
         <v>-0.001496371415238474</v>
@@ -21508,10 +21508,10 @@
         <v>0.02705163050048144</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1076614896875833</v>
+        <v>0.108134947566541</v>
       </c>
       <c r="P170" t="n">
-        <v>0.04716316590415107</v>
+        <v>0.04720458073352837</v>
       </c>
       <c r="Q170" t="n">
         <v>-0.07379811823828</v>
@@ -21547,22 +21547,22 @@
         <v>-0.2794385626535086</v>
       </c>
       <c r="AB170" t="n">
-        <v>-0.001717461080036654</v>
+        <v>-0.001845632529777884</v>
       </c>
       <c r="AC170" t="n">
-        <v>-0.02282276399883985</v>
+        <v>-0.02278687114671286</v>
       </c>
       <c r="AD170" t="n">
-        <v>0.07330875149394338</v>
+        <v>0.07344334968941958</v>
       </c>
       <c r="AE170" t="n">
-        <v>0.02812176123717595</v>
+        <v>0.02814868087627119</v>
       </c>
       <c r="AF170" t="n">
-        <v>0.02672905893814853</v>
+        <v>0.02676270848701759</v>
       </c>
       <c r="AG170" t="n">
-        <v>0.1294568195501209</v>
+        <v>0.2944575592961312</v>
       </c>
       <c r="AH170" t="n">
         <v>0.08163947126070403</v>
@@ -21574,7 +21574,7 @@
         <v>-0.04612204868726691</v>
       </c>
       <c r="AK170" t="n">
-        <v>2.101119786674761</v>
+        <v>2.10774819698017</v>
       </c>
       <c r="AL170" t="n">
         <v>-12.35643114738403</v>
@@ -21583,7 +21583,7 @@
         <v>2.13421726539233</v>
       </c>
       <c r="AN170" t="n">
-        <v>-8.121094095316938</v>
+        <v>-8.114465685011529</v>
       </c>
     </row>
     <row r="171">
@@ -21611,10 +21611,10 @@
         <v>-0.08762577571425199</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02225104720445339</v>
+        <v>0.0223548398992476</v>
       </c>
       <c r="I171" t="n">
-        <v>0.096934678012873</v>
+        <v>0.09698008731684546</v>
       </c>
       <c r="J171" t="n">
         <v>-0.1355106142848735</v>
@@ -21635,7 +21635,7 @@
         <v>0.173395479207254</v>
       </c>
       <c r="P171" t="n">
-        <v>0.1653701390593793</v>
+        <v>0.1654260274334993</v>
       </c>
       <c r="Q171" t="n">
         <v>-0.0459432495113075</v>
@@ -21671,22 +21671,22 @@
         <v>-0.9015622102096786</v>
       </c>
       <c r="AB171" t="n">
-        <v>-0.00130032497599677</v>
+        <v>-0.001407653970046867</v>
       </c>
       <c r="AC171" t="n">
-        <v>-0.05450780672932738</v>
+        <v>-0.05445937013842341</v>
       </c>
       <c r="AD171" t="n">
-        <v>0.03893933260779343</v>
+        <v>0.03912096982368329</v>
       </c>
       <c r="AE171" t="n">
-        <v>0.117407094432653</v>
+        <v>0.117443421875831</v>
       </c>
       <c r="AF171" t="n">
-        <v>0.0628398797576514</v>
+        <v>0.06288528906162386</v>
       </c>
       <c r="AG171" t="n">
-        <v>0.08080616527342777</v>
+        <v>0.1909691237988814</v>
       </c>
       <c r="AH171" t="n">
         <v>0.2345777159966957</v>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -993,13 +993,13 @@
         <v>2.880113013671938</v>
       </c>
       <c r="AL4" t="n">
-        <v>-9.588571811947475</v>
+        <v>-9.588571811947473</v>
       </c>
       <c r="AM4" t="n">
         <v>2.988979749536568</v>
       </c>
       <c r="AN4" t="n">
-        <v>-3.719479048738969</v>
+        <v>-3.719479048738967</v>
       </c>
     </row>
     <row r="5">
@@ -2605,13 +2605,13 @@
         <v>2.607417854635178</v>
       </c>
       <c r="AL17" t="n">
-        <v>-7.257492808936884</v>
+        <v>-7.257492808936883</v>
       </c>
       <c r="AM17" t="n">
         <v>2.711267782049019</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.938807172252687</v>
+        <v>-1.938807172252686</v>
       </c>
     </row>
     <row r="18">
@@ -3597,13 +3597,13 @@
         <v>1.037987177713519</v>
       </c>
       <c r="AL25" t="n">
-        <v>-7.243676507309634</v>
+        <v>-7.243676507309633</v>
       </c>
       <c r="AM25" t="n">
         <v>3.25792022508047</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.947769104515645</v>
+        <v>-2.947769104515643</v>
       </c>
     </row>
     <row r="26">
@@ -3845,13 +3845,13 @@
         <v>2.3487163792376</v>
       </c>
       <c r="AL27" t="n">
-        <v>-9.951185141655555</v>
+        <v>-9.951185141655554</v>
       </c>
       <c r="AM27" t="n">
         <v>2.200553715420134</v>
       </c>
       <c r="AN27" t="n">
-        <v>-5.401915046997822</v>
+        <v>-5.401915046997821</v>
       </c>
     </row>
     <row r="28">
@@ -4471,7 +4471,7 @@
         <v>2.466377417990771</v>
       </c>
       <c r="AN32" t="n">
-        <v>-9.296973535047163</v>
+        <v>-9.296973535047162</v>
       </c>
     </row>
     <row r="33">
@@ -4713,13 +4713,13 @@
         <v>1.431348733268138</v>
       </c>
       <c r="AL34" t="n">
-        <v>-6.52579083659314</v>
+        <v>-6.525790836593139</v>
       </c>
       <c r="AM34" t="n">
         <v>2.295332708068656</v>
       </c>
       <c r="AN34" t="n">
-        <v>-2.799109395256347</v>
+        <v>-2.799109395256346</v>
       </c>
     </row>
     <row r="35">
@@ -5339,7 +5339,7 @@
         <v>2.353966381743893</v>
       </c>
       <c r="AN39" t="n">
-        <v>-5.646305509567169</v>
+        <v>-5.646305509567172</v>
       </c>
     </row>
     <row r="40">
@@ -5705,13 +5705,13 @@
         <v>-0.5040920758370782</v>
       </c>
       <c r="AL42" t="n">
-        <v>-7.597523528976011</v>
+        <v>-7.597523528976012</v>
       </c>
       <c r="AM42" t="n">
         <v>2.093590660402022</v>
       </c>
       <c r="AN42" t="n">
-        <v>-6.008024944411067</v>
+        <v>-6.008024944411069</v>
       </c>
     </row>
     <row r="43">
@@ -6077,7 +6077,7 @@
         <v>-0.4391278512034829</v>
       </c>
       <c r="AL45" t="n">
-        <v>-13.47594955901148</v>
+        <v>-13.47594955901147</v>
       </c>
       <c r="AM45" t="n">
         <v>2.105224658176807</v>
@@ -7441,13 +7441,13 @@
         <v>0.08757181536379952</v>
       </c>
       <c r="AL56" t="n">
-        <v>-7.914896659987046</v>
+        <v>-7.914896659987047</v>
       </c>
       <c r="AM56" t="n">
         <v>2.487522546768731</v>
       </c>
       <c r="AN56" t="n">
-        <v>-5.339802297854516</v>
+        <v>-5.339802297854517</v>
       </c>
     </row>
     <row r="57">
@@ -7565,7 +7565,7 @@
         <v>2.649364027163323</v>
       </c>
       <c r="AL57" t="n">
-        <v>-7.644414549991065</v>
+        <v>-7.644414549991064</v>
       </c>
       <c r="AM57" t="n">
         <v>3.082913411703236</v>
@@ -7689,13 +7689,13 @@
         <v>2.380611931960873</v>
       </c>
       <c r="AL58" t="n">
-        <v>-7.463465556431431</v>
+        <v>-7.46346555643143</v>
       </c>
       <c r="AM58" t="n">
         <v>3.026334215209626</v>
       </c>
       <c r="AN58" t="n">
-        <v>-2.056519409260933</v>
+        <v>-2.056519409260931</v>
       </c>
     </row>
     <row r="59">
@@ -8067,7 +8067,7 @@
         <v>2.603377124461177</v>
       </c>
       <c r="AN61" t="n">
-        <v>-7.137008158144253</v>
+        <v>-7.137008158144251</v>
       </c>
     </row>
     <row r="62">
@@ -8185,13 +8185,13 @@
         <v>3.915388251656703</v>
       </c>
       <c r="AL62" t="n">
-        <v>-5.731459250048257</v>
+        <v>-5.731459250048256</v>
       </c>
       <c r="AM62" t="n">
         <v>2.807904940120132</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.991833941728578</v>
+        <v>0.9918339417285789</v>
       </c>
     </row>
     <row r="63">
@@ -8309,7 +8309,7 @@
         <v>-1.787353616465854</v>
       </c>
       <c r="AL63" t="n">
-        <v>-9.806990401331403</v>
+        <v>-9.806990401331399</v>
       </c>
       <c r="AM63" t="n">
         <v>1.110301723834436</v>
@@ -9053,13 +9053,13 @@
         <v>1.471480416449751</v>
       </c>
       <c r="AL69" t="n">
-        <v>-9.408061412111548</v>
+        <v>-9.408061412111547</v>
       </c>
       <c r="AM69" t="n">
         <v>2.553406261296868</v>
       </c>
       <c r="AN69" t="n">
-        <v>-5.38317473436493</v>
+        <v>-5.383174734364928</v>
       </c>
     </row>
     <row r="70">
@@ -9555,7 +9555,7 @@
         <v>2.544717952291438</v>
       </c>
       <c r="AN73" t="n">
-        <v>-5.00317055831326</v>
+        <v>-5.003170558313258</v>
       </c>
     </row>
     <row r="74">
@@ -10293,13 +10293,13 @@
         <v>4.691062249869701</v>
       </c>
       <c r="AL79" t="n">
-        <v>-6.326593803449509</v>
+        <v>-6.326593803449508</v>
       </c>
       <c r="AM79" t="n">
         <v>2.998095499299937</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.36256394572013</v>
+        <v>1.362563945720131</v>
       </c>
     </row>
     <row r="80">
@@ -11285,13 +11285,13 @@
         <v>1.92212729629772</v>
       </c>
       <c r="AL87" t="n">
-        <v>-7.847390299979631</v>
+        <v>-7.847390299979629</v>
       </c>
       <c r="AM87" t="n">
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-3.499905104631624</v>
+        <v>-3.499905104631621</v>
       </c>
     </row>
     <row r="88">
@@ -12035,7 +12035,7 @@
         <v>2.855159933826961</v>
       </c>
       <c r="AN93" t="n">
-        <v>-0.2548350692530401</v>
+        <v>-0.2548350692530392</v>
       </c>
     </row>
     <row r="94">
@@ -12277,13 +12277,13 @@
         <v>0.8185494503857533</v>
       </c>
       <c r="AL95" t="n">
-        <v>-12.0714880652931</v>
+        <v>-12.07148806529311</v>
       </c>
       <c r="AM95" t="n">
         <v>1.730605606249227</v>
       </c>
       <c r="AN95" t="n">
-        <v>-9.522333008658125</v>
+        <v>-9.522333008658126</v>
       </c>
     </row>
     <row r="96">
@@ -12773,13 +12773,13 @@
         <v>0.08874479648955132</v>
       </c>
       <c r="AL99" t="n">
-        <v>-9.435032822957847</v>
+        <v>-9.435032822957849</v>
       </c>
       <c r="AM99" t="n">
         <v>1.656467734917757</v>
       </c>
       <c r="AN99" t="n">
-        <v>-7.689820291550538</v>
+        <v>-7.68982029155054</v>
       </c>
     </row>
     <row r="100">
@@ -12897,13 +12897,13 @@
         <v>2.414889237635412</v>
       </c>
       <c r="AL100" t="n">
-        <v>-8.430759973584665</v>
+        <v>-8.430759973584664</v>
       </c>
       <c r="AM100" t="n">
         <v>2.616048750996152</v>
       </c>
       <c r="AN100" t="n">
-        <v>-3.399821984953101</v>
+        <v>-3.399821984953099</v>
       </c>
     </row>
     <row r="101">
@@ -13145,13 +13145,13 @@
         <v>1.225998359811066</v>
       </c>
       <c r="AL102" t="n">
-        <v>-10.83292125954527</v>
+        <v>-10.83292125954528</v>
       </c>
       <c r="AM102" t="n">
         <v>2.385761708617381</v>
       </c>
       <c r="AN102" t="n">
-        <v>-7.221161191116828</v>
+        <v>-7.221161191116831</v>
       </c>
     </row>
     <row r="103">
@@ -15135,7 +15135,7 @@
         <v>1.875837289633133</v>
       </c>
       <c r="AN118" t="n">
-        <v>-8.111043084836304</v>
+        <v>-8.111043084836306</v>
       </c>
     </row>
     <row r="119">
@@ -15507,7 +15507,7 @@
         <v>2.764997810206407</v>
       </c>
       <c r="AN121" t="n">
-        <v>-4.793472511866395</v>
+        <v>-4.793472511866397</v>
       </c>
     </row>
     <row r="122">
@@ -16375,7 +16375,7 @@
         <v>2.520101184757229</v>
       </c>
       <c r="AN128" t="n">
-        <v>-3.901334197745708</v>
+        <v>-3.901334197745706</v>
       </c>
     </row>
     <row r="129">
@@ -16493,13 +16493,13 @@
         <v>1.498946741864013</v>
       </c>
       <c r="AL129" t="n">
-        <v>-9.105056727821021</v>
+        <v>-9.105056727821022</v>
       </c>
       <c r="AM129" t="n">
         <v>1.936344855977472</v>
       </c>
       <c r="AN129" t="n">
-        <v>-5.669765129979536</v>
+        <v>-5.669765129979537</v>
       </c>
     </row>
     <row r="130">
@@ -17367,7 +17367,7 @@
         <v>2.15319183362059</v>
       </c>
       <c r="AN136" t="n">
-        <v>-6.518807174842547</v>
+        <v>-6.518807174842549</v>
       </c>
     </row>
     <row r="137">
@@ -18477,13 +18477,13 @@
         <v>0.05300983737452934</v>
       </c>
       <c r="AL145" t="n">
-        <v>-9.810732322379133</v>
+        <v>-9.810732322379135</v>
       </c>
       <c r="AM145" t="n">
         <v>2.835680215540036</v>
       </c>
       <c r="AN145" t="n">
-        <v>-6.922042269464567</v>
+        <v>-6.922042269464569</v>
       </c>
     </row>
     <row r="146">
@@ -18601,13 +18601,13 @@
         <v>0.6110683110323627</v>
       </c>
       <c r="AL146" t="n">
-        <v>-9.929866801649124</v>
+        <v>-9.929866801649126</v>
       </c>
       <c r="AM146" t="n">
         <v>1.884881904107643</v>
       </c>
       <c r="AN146" t="n">
-        <v>-7.433916586509119</v>
+        <v>-7.433916586509121</v>
       </c>
     </row>
     <row r="147">
@@ -19221,13 +19221,13 @@
         <v>0.8417551495240079</v>
       </c>
       <c r="AL151" t="n">
-        <v>-11.55488254016869</v>
+        <v>-11.55488254016868</v>
       </c>
       <c r="AM151" t="n">
         <v>1.908386122460399</v>
       </c>
       <c r="AN151" t="n">
-        <v>-8.804741268184278</v>
+        <v>-8.804741268184276</v>
       </c>
     </row>
     <row r="152">
@@ -19351,7 +19351,7 @@
         <v>2.023996130840089</v>
       </c>
       <c r="AN152" t="n">
-        <v>-7.274852147572117</v>
+        <v>-7.274852147572119</v>
       </c>
     </row>
     <row r="153">
@@ -20833,13 +20833,13 @@
         <v>2.680249725593471</v>
       </c>
       <c r="AL164" t="n">
-        <v>-7.155735836346217</v>
+        <v>-7.155735836346218</v>
       </c>
       <c r="AM164" t="n">
         <v>2.7530387857707</v>
       </c>
       <c r="AN164" t="n">
-        <v>-1.722447324982046</v>
+        <v>-1.722447324982047</v>
       </c>
     </row>
     <row r="165">
@@ -21205,13 +21205,13 @@
         <v>0.06675558622173541</v>
       </c>
       <c r="AL167" t="n">
-        <v>-8.295054975684206</v>
+        <v>-8.295054975684208</v>
       </c>
       <c r="AM167" t="n">
         <v>3.089930255666845</v>
       </c>
       <c r="AN167" t="n">
-        <v>-5.138369133795626</v>
+        <v>-5.138369133795628</v>
       </c>
     </row>
     <row r="168">
@@ -21335,7 +21335,7 @@
         <v>2.226921032659365</v>
       </c>
       <c r="AN168" t="n">
-        <v>-8.025885415386849</v>
+        <v>-8.025885415386846</v>
       </c>
     </row>
     <row r="169">
@@ -21453,13 +21453,13 @@
         <v>-0.4990625740252904</v>
       </c>
       <c r="AL169" t="n">
-        <v>-9.609318240946731</v>
+        <v>-9.609318240946729</v>
       </c>
       <c r="AM169" t="n">
         <v>2.056037247723291</v>
       </c>
       <c r="AN169" t="n">
-        <v>-8.05234356724873</v>
+        <v>-8.052343567248728</v>
       </c>
     </row>
     <row r="170">

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -875,7 +875,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN3" t="n">
-        <v>-5.214149005620573</v>
+        <v>-5.214149005620572</v>
       </c>
     </row>
     <row r="4">
@@ -1123,7 +1123,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN5" t="n">
-        <v>-6.931990040685569</v>
+        <v>-6.931990040685568</v>
       </c>
     </row>
     <row r="6">
@@ -1371,7 +1371,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN7" t="n">
-        <v>-5.433717942574893</v>
+        <v>-5.433717942574894</v>
       </c>
     </row>
     <row r="8">
@@ -1743,7 +1743,7 @@
         <v>3.229072804533929</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.647397678315324</v>
+        <v>-4.647397678315325</v>
       </c>
     </row>
     <row r="11">
@@ -2239,7 +2239,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.574863595616835</v>
+        <v>-2.574863595616836</v>
       </c>
     </row>
     <row r="15">
@@ -2611,7 +2611,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.938807172252686</v>
+        <v>-1.938807172252687</v>
       </c>
     </row>
     <row r="18">
@@ -3603,7 +3603,7 @@
         <v>3.25792022508047</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.947769104515643</v>
+        <v>-2.947769104515644</v>
       </c>
     </row>
     <row r="26">
@@ -3851,7 +3851,7 @@
         <v>2.200553715420134</v>
       </c>
       <c r="AN27" t="n">
-        <v>-5.401915046997821</v>
+        <v>-5.40191504699782</v>
       </c>
     </row>
     <row r="28">
@@ -4347,7 +4347,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN31" t="n">
-        <v>-7.760130656795449</v>
+        <v>-7.760130656795448</v>
       </c>
     </row>
     <row r="32">
@@ -6455,7 +6455,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN48" t="n">
-        <v>-8.073143164610631</v>
+        <v>-8.073143164610633</v>
       </c>
     </row>
     <row r="49">
@@ -7075,7 +7075,7 @@
         <v>2.350373486023714</v>
       </c>
       <c r="AN53" t="n">
-        <v>-4.125636065878719</v>
+        <v>-4.125636065878718</v>
       </c>
     </row>
     <row r="54">
@@ -7571,7 +7571,7 @@
         <v>3.082913411703236</v>
       </c>
       <c r="AN57" t="n">
-        <v>-1.912137111124505</v>
+        <v>-1.912137111124506</v>
       </c>
     </row>
     <row r="58">
@@ -8439,7 +8439,7 @@
         <v>2.966931020723821</v>
       </c>
       <c r="AN64" t="n">
-        <v>-0.002935933435500804</v>
+        <v>-0.002935933435501248</v>
       </c>
     </row>
     <row r="65">
@@ -9183,7 +9183,7 @@
         <v>1.980333696494249</v>
       </c>
       <c r="AN70" t="n">
-        <v>-5.959135884490864</v>
+        <v>-5.959135884490863</v>
       </c>
     </row>
     <row r="71">
@@ -9927,7 +9927,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN76" t="n">
-        <v>-6.950923142727434</v>
+        <v>-6.950923142727433</v>
       </c>
     </row>
     <row r="77">
@@ -10051,7 +10051,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN77" t="n">
-        <v>-2.171616750339462</v>
+        <v>-2.171616750339461</v>
       </c>
     </row>
     <row r="78">
@@ -10299,7 +10299,7 @@
         <v>2.998095499299937</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.362563945720131</v>
+        <v>1.36256394572013</v>
       </c>
     </row>
     <row r="80">
@@ -11291,7 +11291,7 @@
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-3.499905104631621</v>
+        <v>-3.499905104631622</v>
       </c>
     </row>
     <row r="88">
@@ -11539,7 +11539,7 @@
         <v>2.381801182601639</v>
       </c>
       <c r="AN89" t="n">
-        <v>-5.380900898600786</v>
+        <v>-5.380900898600787</v>
       </c>
     </row>
     <row r="90">
@@ -13275,7 +13275,7 @@
         <v>1.204401773911864</v>
       </c>
       <c r="AN103" t="n">
-        <v>-7.752621179009252</v>
+        <v>-7.752621179009253</v>
       </c>
     </row>
     <row r="104">
@@ -13647,7 +13647,7 @@
         <v>2.084980127071581</v>
       </c>
       <c r="AN106" t="n">
-        <v>-3.36462735808842</v>
+        <v>-3.364627358088421</v>
       </c>
     </row>
     <row r="107">
@@ -14639,7 +14639,7 @@
         <v>2.544952139569415</v>
       </c>
       <c r="AN114" t="n">
-        <v>-4.325837491496839</v>
+        <v>-4.32583749149684</v>
       </c>
     </row>
     <row r="115">
@@ -15011,7 +15011,7 @@
         <v>2.527111768589203</v>
       </c>
       <c r="AN117" t="n">
-        <v>-7.203947440616339</v>
+        <v>-7.203947440616338</v>
       </c>
     </row>
     <row r="118">
@@ -15879,7 +15879,7 @@
         <v>1.783835437068143</v>
       </c>
       <c r="AN124" t="n">
-        <v>-7.359833184485941</v>
+        <v>-7.359833184485942</v>
       </c>
     </row>
     <row r="125">
@@ -16127,7 +16127,7 @@
         <v>2.55317520204669</v>
       </c>
       <c r="AN126" t="n">
-        <v>-6.451692313157396</v>
+        <v>-6.451692313157398</v>
       </c>
     </row>
     <row r="127">
@@ -16871,7 +16871,7 @@
         <v>2.470811852509721</v>
       </c>
       <c r="AN132" t="n">
-        <v>-2.502703166141512</v>
+        <v>-2.502703166141511</v>
       </c>
     </row>
     <row r="133">
@@ -17367,7 +17367,7 @@
         <v>2.15319183362059</v>
       </c>
       <c r="AN136" t="n">
-        <v>-6.518807174842549</v>
+        <v>-6.518807174842548</v>
       </c>
     </row>
     <row r="137">
@@ -18979,7 +18979,7 @@
         <v>3.02067387909264</v>
       </c>
       <c r="AN149" t="n">
-        <v>-3.719603425449765</v>
+        <v>-3.719603425449764</v>
       </c>
     </row>
     <row r="150">
@@ -19475,7 +19475,7 @@
         <v>1.919667287367621</v>
       </c>
       <c r="AN153" t="n">
-        <v>-6.036262330992629</v>
+        <v>-6.036262330992628</v>
       </c>
     </row>
     <row r="154">
@@ -19599,7 +19599,7 @@
         <v>3.18031209218228</v>
       </c>
       <c r="AN154" t="n">
-        <v>-2.169513039607932</v>
+        <v>-2.169513039607931</v>
       </c>
     </row>
     <row r="155">
@@ -21087,7 +21087,7 @@
         <v>2.152744362981671</v>
       </c>
       <c r="AN166" t="n">
-        <v>-5.619521757504724</v>
+        <v>-5.619521757504725</v>
       </c>
     </row>
     <row r="167">

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -658,7 +658,7 @@
         <v>0.1033383050991068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08570352337816847</v>
+        <v>0.09807170287449847</v>
       </c>
       <c r="J2" t="n">
         <v>-0.08366107723661252</v>
@@ -742,7 +742,7 @@
         <v>0.07266271332963334</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05175606835248892</v>
+        <v>0.2496469402937692</v>
       </c>
       <c r="AL2" t="n">
         <v>-11.7593222248522</v>
@@ -751,7 +751,7 @@
         <v>1.982485564443892</v>
       </c>
       <c r="AN2" t="n">
-        <v>-9.725080592055816</v>
+        <v>-9.527189720114537</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +782,7 @@
         <v>0.09745093489044619</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1732144149883192</v>
+        <v>0.2112190955506827</v>
       </c>
       <c r="J3" t="n">
         <v>-0.1182115765958612</v>
@@ -866,7 +866,7 @@
         <v>0.2096921549749869</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.757329776972493</v>
+        <v>3.365404665970308</v>
       </c>
       <c r="AL3" t="n">
         <v>-10.79647152089053</v>
@@ -875,7 +875,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN3" t="n">
-        <v>-5.214149005620572</v>
+        <v>-4.606074116622756</v>
       </c>
     </row>
     <row r="4">
@@ -906,7 +906,7 @@
         <v>0.0561069569659809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1550209542740807</v>
+        <v>0.1871052399830543</v>
       </c>
       <c r="J4" t="n">
         <v>-0.10432978380864</v>
@@ -990,7 +990,7 @@
         <v>0.2502810135289197</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.880113013671938</v>
+        <v>3.393461585015515</v>
       </c>
       <c r="AL4" t="n">
         <v>-9.588571811947473</v>
@@ -999,7 +999,7 @@
         <v>2.988979749536568</v>
       </c>
       <c r="AN4" t="n">
-        <v>-3.719479048738967</v>
+        <v>-3.20613047739539</v>
       </c>
     </row>
     <row r="5">
@@ -1030,7 +1030,7 @@
         <v>0.1865691520235678</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2226662727890498</v>
+        <v>0.2248292945026791</v>
       </c>
       <c r="J5" t="n">
         <v>-0.08129317268143121</v>
@@ -1114,7 +1114,7 @@
         <v>0.1501479957848963</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.294478400754438</v>
+        <v>2.329086748172507</v>
       </c>
       <c r="AL5" t="n">
         <v>-11.62308959786551</v>
@@ -1123,7 +1123,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN5" t="n">
-        <v>-6.931990040685568</v>
+        <v>-6.897381693267498</v>
       </c>
     </row>
     <row r="6">
@@ -1154,7 +1154,7 @@
         <v>0.130837022660583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2040820903998242</v>
+        <v>0.2512346618208018</v>
       </c>
       <c r="J6" t="n">
         <v>-0.02385487139686507</v>
@@ -1238,7 +1238,7 @@
         <v>0.04652606636635023</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.641663886394294</v>
+        <v>2.396105029129937</v>
       </c>
       <c r="AL6" t="n">
         <v>-12.53772515753643</v>
@@ -1247,7 +1247,7 @@
         <v>1.926396978431585</v>
       </c>
       <c r="AN6" t="n">
-        <v>-8.969664292710551</v>
+        <v>-8.215223149974909</v>
       </c>
     </row>
     <row r="7">
@@ -1278,7 +1278,7 @@
         <v>0.08960804437936414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.189166009490297</v>
+        <v>0.20744777453033</v>
       </c>
       <c r="J7" t="n">
         <v>-0.08414643828147565</v>
@@ -1362,7 +1362,7 @@
         <v>0.06158194480999297</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.983667606281662</v>
+        <v>2.27617584692219</v>
       </c>
       <c r="AL7" t="n">
         <v>-9.977139786237682</v>
@@ -1371,7 +1371,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN7" t="n">
-        <v>-5.433717942574894</v>
+        <v>-5.141209701934367</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1402,7 @@
         <v>0.07961777435291016</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1387668866020442</v>
+        <v>0.2047573643305292</v>
       </c>
       <c r="J8" t="n">
         <v>-0.1141004446642984</v>
@@ -1486,7 +1486,7 @@
         <v>0.25151161034134</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.410291408985006</v>
+        <v>4.466139052640767</v>
       </c>
       <c r="AL8" t="n">
         <v>-9.177366221063243</v>
@@ -1495,7 +1495,7 @@
         <v>2.850968133067187</v>
       </c>
       <c r="AN8" t="n">
-        <v>-2.91610667901105</v>
+        <v>-1.860259035355289</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1526,7 @@
         <v>0.001106498061937043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1829294607180372</v>
+        <v>0.1830374513324096</v>
       </c>
       <c r="J9" t="n">
         <v>-0.03235593102634683</v>
@@ -1610,7 +1610,7 @@
         <v>-0.1690909868415308</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.644620430976683</v>
+        <v>1.646348280806642</v>
       </c>
       <c r="AL9" t="n">
         <v>-12.75338850422631</v>
@@ -1619,7 +1619,7 @@
         <v>2.266209328061446</v>
       </c>
       <c r="AN9" t="n">
-        <v>-8.842558745188182</v>
+        <v>-8.840830895358224</v>
       </c>
     </row>
     <row r="10">
@@ -1650,7 +1650,7 @@
         <v>0.1978260939635606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2174867747557887</v>
+        <v>0.2297865849902141</v>
       </c>
       <c r="J10" t="n">
         <v>-0.08890344450477636</v>
@@ -1734,7 +1734,7 @@
         <v>0.05795441806135042</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.237700392457405</v>
+        <v>3.434497356208212</v>
       </c>
       <c r="AL10" t="n">
         <v>-11.11417087530666</v>
@@ -1743,7 +1743,7 @@
         <v>3.229072804533929</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.647397678315325</v>
+        <v>-4.450600714564518</v>
       </c>
     </row>
     <row r="11">
@@ -1774,7 +1774,7 @@
         <v>0.1386270976641105</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1666213439247285</v>
+        <v>0.2183388668773517</v>
       </c>
       <c r="J11" t="n">
         <v>-0.1393512641043835</v>
@@ -1858,7 +1858,7 @@
         <v>0.2551242350281372</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.191064770831555</v>
+        <v>4.018545138073526</v>
       </c>
       <c r="AL11" t="n">
         <v>-10.00104715613588</v>
@@ -1867,7 +1867,7 @@
         <v>3.157101240805398</v>
       </c>
       <c r="AN11" t="n">
-        <v>-3.652881144498931</v>
+        <v>-2.82540077725696</v>
       </c>
     </row>
     <row r="12">
@@ -1898,7 +1898,7 @@
         <v>0.1763348663972775</v>
       </c>
       <c r="I12" t="n">
-        <v>0.158250839747427</v>
+        <v>0.1590356937318001</v>
       </c>
       <c r="J12" t="n">
         <v>-0.08322895940161787</v>
@@ -1982,7 +1982,7 @@
         <v>0.1005911473269495</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.358196887414831</v>
+        <v>2.370754551164801</v>
       </c>
       <c r="AL12" t="n">
         <v>-11.17413998427603</v>
@@ -1991,7 +1991,7 @@
         <v>2.325179694425028</v>
       </c>
       <c r="AN12" t="n">
-        <v>-6.490763402436167</v>
+        <v>-6.478205738686198</v>
       </c>
     </row>
     <row r="13">
@@ -2022,7 +2022,7 @@
         <v>0.2170315602004781</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1927384493883571</v>
+        <v>0.1938125834115401</v>
       </c>
       <c r="J13" t="n">
         <v>-0.002207097676631516</v>
@@ -2106,7 +2106,7 @@
         <v>-0.06105438824678395</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.666687012819149</v>
+        <v>1.683873157190078</v>
       </c>
       <c r="AL13" t="n">
         <v>-12.24689581688748</v>
@@ -2115,7 +2115,7 @@
         <v>3.022534412543458</v>
       </c>
       <c r="AN13" t="n">
-        <v>-7.557674391524873</v>
+        <v>-7.540488247153943</v>
       </c>
     </row>
     <row r="14">
@@ -2146,7 +2146,7 @@
         <v>0.07402037398383408</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1404825653799455</v>
+        <v>0.1742279968428761</v>
       </c>
       <c r="J14" t="n">
         <v>-0.1054796947187984</v>
@@ -2230,7 +2230,7 @@
         <v>0.1484475430409893</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.397996879344251</v>
+        <v>3.93792378275114</v>
       </c>
       <c r="AL14" t="n">
         <v>-8.051898171241968</v>
@@ -2239,7 +2239,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.574863595616836</v>
+        <v>-2.034936692209947</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2270,7 @@
         <v>0.1206413747751193</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1427973669264145</v>
+        <v>0.1439553259252523</v>
       </c>
       <c r="J15" t="n">
         <v>-0.103405287124918</v>
@@ -2354,7 +2354,7 @@
         <v>0.1539807218308993</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.443833144085689</v>
+        <v>1.462360488067094</v>
       </c>
       <c r="AL15" t="n">
         <v>-8.451166396474795</v>
@@ -2363,7 +2363,7 @@
         <v>2.252956910384702</v>
       </c>
       <c r="AN15" t="n">
-        <v>-4.754376342004404</v>
+        <v>-4.735848998022999</v>
       </c>
     </row>
     <row r="16">
@@ -2394,7 +2394,7 @@
         <v>0.1023654188510936</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1983908681239992</v>
+        <v>0.1988989802710667</v>
       </c>
       <c r="J16" t="n">
         <v>-0.1274140769551935</v>
@@ -2478,7 +2478,7 @@
         <v>0.1496466899910836</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.796085959069544</v>
+        <v>0.8042157534226243</v>
       </c>
       <c r="AL16" t="n">
         <v>-10.76980608506283</v>
@@ -2487,7 +2487,7 @@
         <v>2.287494107006678</v>
       </c>
       <c r="AN16" t="n">
-        <v>-7.686226018986611</v>
+        <v>-7.67809622463353</v>
       </c>
     </row>
     <row r="17">
@@ -2518,7 +2518,7 @@
         <v>0.08053772149006198</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1486062791599377</v>
+        <v>0.1899002701631115</v>
       </c>
       <c r="J17" t="n">
         <v>-0.1371518953010757</v>
@@ -2602,7 +2602,7 @@
         <v>0.2962130218452153</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.607417854635178</v>
+        <v>3.26812171068596</v>
       </c>
       <c r="AL17" t="n">
         <v>-7.257492808936883</v>
@@ -2611,7 +2611,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.938807172252687</v>
+        <v>-1.278103316201904</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2642,7 @@
         <v>0.01456764078156548</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08784012068652562</v>
+        <v>0.08964588412802268</v>
       </c>
       <c r="J18" t="n">
         <v>-0.1116892904719424</v>
@@ -2726,7 +2726,7 @@
         <v>0.1372258480690412</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3014846694004148</v>
+        <v>0.3303768844643679</v>
       </c>
       <c r="AL18" t="n">
         <v>-9.571466211515009</v>
@@ -2735,7 +2735,7 @@
         <v>1.731238145367616</v>
       </c>
       <c r="AN18" t="n">
-        <v>-7.538743396746979</v>
+        <v>-7.509851181683025</v>
       </c>
     </row>
     <row r="19">
@@ -2766,7 +2766,7 @@
         <v>0.05833318866906961</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1617599046473105</v>
+        <v>0.2191708635316793</v>
       </c>
       <c r="J19" t="n">
         <v>-0.06419065257961712</v>
@@ -2850,7 +2850,7 @@
         <v>0.2600695389083036</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3905963035530801</v>
+        <v>1.309171645702981</v>
       </c>
       <c r="AL19" t="n">
         <v>-11.40806703865609</v>
@@ -2859,7 +2859,7 @@
         <v>2.315864572906233</v>
       </c>
       <c r="AN19" t="n">
-        <v>-8.701606162196779</v>
+        <v>-7.783030820046879</v>
       </c>
     </row>
     <row r="20">
@@ -2890,7 +2890,7 @@
         <v>0.1172823842759437</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1028584632971265</v>
+        <v>0.1029444609140332</v>
       </c>
       <c r="J20" t="n">
         <v>-0.05739603461276355</v>
@@ -2974,7 +2974,7 @@
         <v>-0.09412395573830512</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2218293060777457</v>
+        <v>0.2232052679482523</v>
       </c>
       <c r="AL20" t="n">
         <v>-11.14960785993486</v>
@@ -2983,7 +2983,7 @@
         <v>2.18710745456344</v>
       </c>
       <c r="AN20" t="n">
-        <v>-8.740671099293671</v>
+        <v>-8.739295137423165</v>
       </c>
     </row>
     <row r="21">
@@ -3014,7 +3014,7 @@
         <v>0.1837204084962911</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2268434623339708</v>
+        <v>0.2269158679603426</v>
       </c>
       <c r="J21" t="n">
         <v>-0.01824250272275413</v>
@@ -3098,7 +3098,7 @@
         <v>-0.007481135876674387</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.5785738494738798</v>
+        <v>0.5797323394958284</v>
       </c>
       <c r="AL21" t="n">
         <v>-12.82650814211323</v>
@@ -3107,7 +3107,7 @@
         <v>2.353577778082971</v>
       </c>
       <c r="AN21" t="n">
-        <v>-9.894356514556382</v>
+        <v>-9.893198024534435</v>
       </c>
     </row>
     <row r="22">
@@ -3138,7 +3138,7 @@
         <v>0.109905589339416</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1827999967739131</v>
+        <v>0.2194531235473562</v>
       </c>
       <c r="J22" t="n">
         <v>-0.05520735102339476</v>
@@ -3222,7 +3222,7 @@
         <v>0.1077554255732119</v>
       </c>
       <c r="AK22" t="n">
-        <v>1.304984033263563</v>
+        <v>1.891434061638654</v>
       </c>
       <c r="AL22" t="n">
         <v>-11.05365854488897</v>
@@ -3231,7 +3231,7 @@
         <v>3.258304687144962</v>
       </c>
       <c r="AN22" t="n">
-        <v>-6.490369824480441</v>
+        <v>-5.903919796105351</v>
       </c>
     </row>
     <row r="23">
@@ -3262,7 +3262,7 @@
         <v>0.1023316618697756</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1764354330503408</v>
+        <v>0.176593687934004</v>
       </c>
       <c r="J23" t="n">
         <v>-0.06007599092821438</v>
@@ -3346,7 +3346,7 @@
         <v>0.2036595958697739</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.148376849211057</v>
+        <v>2.150908927349668</v>
       </c>
       <c r="AL23" t="n">
         <v>-13.12398390372212</v>
@@ -3355,7 +3355,7 @@
         <v>2.718200667416676</v>
       </c>
       <c r="AN23" t="n">
-        <v>-8.257406387094386</v>
+        <v>-8.254874308955776</v>
       </c>
     </row>
     <row r="24">
@@ -3510,7 +3510,7 @@
         <v>0.1064354674776237</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1394556924665561</v>
+        <v>0.1418108908101261</v>
       </c>
       <c r="J25" t="n">
         <v>-0.09175147683744336</v>
@@ -3594,7 +3594,7 @@
         <v>0.05306878459793927</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.037987177713519</v>
+        <v>1.075670351210638</v>
       </c>
       <c r="AL25" t="n">
         <v>-7.243676507309633</v>
@@ -3603,7 +3603,7 @@
         <v>3.25792022508047</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.947769104515644</v>
+        <v>-2.910085931018525</v>
       </c>
     </row>
     <row r="26">
@@ -3634,7 +3634,7 @@
         <v>0.009341308553018481</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0948567598720042</v>
+        <v>0.0950497598682891</v>
       </c>
       <c r="J26" t="n">
         <v>-0.116960140143266</v>
@@ -3718,7 +3718,7 @@
         <v>0.02234759951019036</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.331783569629946</v>
+        <v>1.334871569570505</v>
       </c>
       <c r="AL26" t="n">
         <v>-12.6627841661494</v>
@@ -3727,7 +3727,7 @@
         <v>2.159781837538</v>
       </c>
       <c r="AN26" t="n">
-        <v>-9.171218758981453</v>
+        <v>-9.168130759040896</v>
       </c>
     </row>
     <row r="27">
@@ -3758,7 +3758,7 @@
         <v>0.06804498620947803</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1864442510149708</v>
+        <v>0.1866240152742521</v>
       </c>
       <c r="J27" t="n">
         <v>-0.09256415115791161</v>
@@ -3842,7 +3842,7 @@
         <v>0.1210206071648134</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.3487163792376</v>
+        <v>2.3515926073861</v>
       </c>
       <c r="AL27" t="n">
         <v>-9.951185141655554</v>
@@ -3851,7 +3851,7 @@
         <v>2.200553715420134</v>
       </c>
       <c r="AN27" t="n">
-        <v>-5.40191504699782</v>
+        <v>-5.399038818849318</v>
       </c>
     </row>
     <row r="28">
@@ -3882,7 +3882,7 @@
         <v>0.0005898238405750626</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.01110685781787885</v>
+        <v>-0.01076405775608744</v>
       </c>
       <c r="J28" t="n">
         <v>-0.0008881852533712637</v>
@@ -3966,7 +3966,7 @@
         <v>-0.1015215479687227</v>
       </c>
       <c r="AK28" t="n">
-        <v>-2.413669455817499</v>
+        <v>-2.408184654828837</v>
       </c>
       <c r="AL28" t="n">
         <v>-10.65172517400161</v>
@@ -3975,7 +3975,7 @@
         <v>1.20650060678588</v>
       </c>
       <c r="AN28" t="n">
-        <v>-11.85889402303323</v>
+        <v>-11.85340922204457</v>
       </c>
     </row>
     <row r="29">
@@ -4130,7 +4130,7 @@
         <v>0.1909555992612977</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1958249575329407</v>
+        <v>0.2206145595648221</v>
       </c>
       <c r="J30" t="n">
         <v>-0.02455946168947984</v>
@@ -4214,7 +4214,7 @@
         <v>0.2337376841302361</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.262253765822111</v>
+        <v>2.658887398332214</v>
       </c>
       <c r="AL30" t="n">
         <v>-12.94234416634632</v>
@@ -4223,7 +4223,7 @@
         <v>2.63080341085498</v>
       </c>
       <c r="AN30" t="n">
-        <v>-8.049286989669227</v>
+        <v>-7.652653357159124</v>
       </c>
     </row>
     <row r="31">
@@ -4254,7 +4254,7 @@
         <v>0.1306847316445459</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2107516431185324</v>
+        <v>0.2108201819149393</v>
       </c>
       <c r="J31" t="n">
         <v>-0.05437387475399186</v>
@@ -4338,7 +4338,7 @@
         <v>0.03506494125532367</v>
       </c>
       <c r="AK31" t="n">
-        <v>-0.01548834056987516</v>
+        <v>-0.01439171982736522</v>
       </c>
       <c r="AL31" t="n">
         <v>-9.998707088215102</v>
@@ -4347,7 +4347,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN31" t="n">
-        <v>-7.760130656795448</v>
+        <v>-7.759034036052938</v>
       </c>
     </row>
     <row r="32">
@@ -4502,7 +4502,7 @@
         <v>0.1218592933232478</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1650599712036099</v>
+        <v>0.1652928992550397</v>
       </c>
       <c r="J33" t="n">
         <v>-0.0002978306035447494</v>
@@ -4586,7 +4586,7 @@
         <v>-0.04445006173401439</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1363939707310724</v>
+        <v>0.1401208195539494</v>
       </c>
       <c r="AL33" t="n">
         <v>-12.36817560543482</v>
@@ -4595,7 +4595,7 @@
         <v>1.321288630557237</v>
       </c>
       <c r="AN33" t="n">
-        <v>-10.91049300414651</v>
+        <v>-10.90676615532363</v>
       </c>
     </row>
     <row r="34">
@@ -4626,7 +4626,7 @@
         <v>0.04910437469588922</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1404360910265823</v>
+        <v>0.1430685522646457</v>
       </c>
       <c r="J34" t="n">
         <v>-0.0792791598239852</v>
@@ -4710,7 +4710,7 @@
         <v>0.09263953195417346</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.431348733268138</v>
+        <v>1.473468113077153</v>
       </c>
       <c r="AL34" t="n">
         <v>-6.525790836593139</v>
@@ -4719,7 +4719,7 @@
         <v>2.295332708068656</v>
       </c>
       <c r="AN34" t="n">
-        <v>-2.799109395256346</v>
+        <v>-2.75699001544733</v>
       </c>
     </row>
     <row r="35">
@@ -4750,7 +4750,7 @@
         <v>0.1151048928987968</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1209681913059998</v>
+        <v>0.170356406885888</v>
       </c>
       <c r="J35" t="n">
         <v>-0.127948972967195</v>
@@ -4834,7 +4834,7 @@
         <v>0.3488921036616279</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.255201989607921</v>
+        <v>4.04541343888613</v>
       </c>
       <c r="AL35" t="n">
         <v>-9.029699704606241</v>
@@ -4843,7 +4843,7 @@
         <v>2.921626792037109</v>
       </c>
       <c r="AN35" t="n">
-        <v>-2.852870922961211</v>
+        <v>-2.062659473683002</v>
       </c>
     </row>
     <row r="36">
@@ -4998,7 +4998,7 @@
         <v>0.152056402224801</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1751319777868794</v>
+        <v>0.1754054010087016</v>
       </c>
       <c r="J37" t="n">
         <v>-0.06311451865741675</v>
@@ -5082,7 +5082,7 @@
         <v>0.0567344737783597</v>
       </c>
       <c r="AK37" t="n">
-        <v>1.879473693497378</v>
+        <v>1.883848465046533</v>
       </c>
       <c r="AL37" t="n">
         <v>-9.49869652494948</v>
@@ -5091,7 +5091,7 @@
         <v>2.452265966414421</v>
       </c>
       <c r="AN37" t="n">
-        <v>-5.16695686503768</v>
+        <v>-5.162582093488526</v>
       </c>
     </row>
     <row r="38">
@@ -5122,7 +5122,7 @@
         <v>0.1079284370179328</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01691628410277689</v>
+        <v>0.01731878370726065</v>
       </c>
       <c r="J38" t="n">
         <v>-0.0948132561955036</v>
@@ -5206,7 +5206,7 @@
         <v>0.09913830123284954</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.2298573605388912</v>
+        <v>0.2362973542106315</v>
       </c>
       <c r="AL38" t="n">
         <v>-11.50883810638006</v>
@@ -5215,7 +5215,7 @@
         <v>1.214086092026202</v>
       </c>
       <c r="AN38" t="n">
-        <v>-10.06489465381497</v>
+        <v>-10.05845466014323</v>
       </c>
     </row>
     <row r="39">
@@ -5246,7 +5246,7 @@
         <v>0.07295486625474569</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1549655852104541</v>
+        <v>0.1842896336838097</v>
       </c>
       <c r="J39" t="n">
         <v>-0.1208596908331201</v>
@@ -5330,7 +5330,7 @@
         <v>0.1245367664366711</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.509149032739287</v>
+        <v>2.978333808312976</v>
       </c>
       <c r="AL39" t="n">
         <v>-10.50942092405035</v>
@@ -5339,7 +5339,7 @@
         <v>2.353966381743893</v>
       </c>
       <c r="AN39" t="n">
-        <v>-5.646305509567172</v>
+        <v>-5.177120733993482</v>
       </c>
     </row>
     <row r="40">
@@ -5370,7 +5370,7 @@
         <v>0.0001905880184084796</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1006062247489664</v>
+        <v>0.1006896070070201</v>
       </c>
       <c r="J40" t="n">
         <v>-0.0003971953089766967</v>
@@ -5454,7 +5454,7 @@
         <v>0.0007221732890485396</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.2788687784060186</v>
+        <v>0.280202894534878</v>
       </c>
       <c r="AL40" t="n">
         <v>-13.47950353565217</v>
@@ -5463,7 +5463,7 @@
         <v>1.595355954196678</v>
       </c>
       <c r="AN40" t="n">
-        <v>-11.60527880304947</v>
+        <v>-11.60394468692061</v>
       </c>
     </row>
     <row r="41">
@@ -5618,7 +5618,7 @@
         <v>0.0275555070448924</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07121626219875764</v>
+        <v>0.08281800685459652</v>
       </c>
       <c r="J42" t="n">
         <v>-0.02677357863236178</v>
@@ -5702,7 +5702,7 @@
         <v>0.04319983072250946</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.5040920758370782</v>
+        <v>-0.3184641613436565</v>
       </c>
       <c r="AL42" t="n">
         <v>-7.597523528976012</v>
@@ -5711,7 +5711,7 @@
         <v>2.093590660402022</v>
       </c>
       <c r="AN42" t="n">
-        <v>-6.008024944411069</v>
+        <v>-5.822397029917647</v>
       </c>
     </row>
     <row r="43">
@@ -5742,7 +5742,7 @@
         <v>0.09917561098274534</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1817611490196713</v>
+        <v>0.2038806485962276</v>
       </c>
       <c r="J43" t="n">
         <v>-0.09763194356125204</v>
@@ -5826,7 +5826,7 @@
         <v>0.1838995189745202</v>
       </c>
       <c r="AK43" t="n">
-        <v>4.061559892070211</v>
+        <v>4.415471885295111</v>
       </c>
       <c r="AL43" t="n">
         <v>-9.831264921291664</v>
@@ -5835,7 +5835,7 @@
         <v>2.844241268734032</v>
       </c>
       <c r="AN43" t="n">
-        <v>-2.925463760487422</v>
+        <v>-2.571551767262521</v>
       </c>
     </row>
     <row r="44">
@@ -5866,7 +5866,7 @@
         <v>0.1222776233395308</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1726507284791169</v>
+        <v>0.209004492553225</v>
       </c>
       <c r="J44" t="n">
         <v>-0.1278852820935762</v>
@@ -5950,7 +5950,7 @@
         <v>0.1401552258474265</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.151742448308719</v>
+        <v>3.733402673494448</v>
       </c>
       <c r="AL44" t="n">
         <v>-9.347188599605477</v>
@@ -5959,7 +5959,7 @@
         <v>2.69592875790635</v>
       </c>
       <c r="AN44" t="n">
-        <v>-3.499517393390409</v>
+        <v>-2.91785716820468</v>
       </c>
     </row>
     <row r="45">
@@ -5990,7 +5990,7 @@
         <v>0.1532122641666268</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1550906267684694</v>
+        <v>0.1551600739219191</v>
       </c>
       <c r="J45" t="n">
         <v>-0.06295489418730307</v>
@@ -6074,7 +6074,7 @@
         <v>0.06909199035061322</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.4391278512034829</v>
+        <v>-0.4380166967482873</v>
       </c>
       <c r="AL45" t="n">
         <v>-13.47594955901147</v>
@@ -6083,7 +6083,7 @@
         <v>2.105224658176807</v>
       </c>
       <c r="AN45" t="n">
-        <v>-11.80985275203815</v>
+        <v>-11.80874159758295</v>
       </c>
     </row>
     <row r="46">
@@ -6114,7 +6114,7 @@
         <v>0.1367026895462948</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02571745667405927</v>
+        <v>0.0618195073829344</v>
       </c>
       <c r="J46" t="n">
         <v>-0.08327482817461018</v>
@@ -6198,7 +6198,7 @@
         <v>0.1579692274202947</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.8807353456692059</v>
+        <v>-0.3031025343272042</v>
       </c>
       <c r="AL46" t="n">
         <v>-12.17836637337119</v>
@@ -6207,7 +6207,7 @@
         <v>1.882496340225403</v>
       </c>
       <c r="AN46" t="n">
-        <v>-11.17660537881499</v>
+        <v>-10.59897256747299</v>
       </c>
     </row>
     <row r="47">
@@ -6238,7 +6238,7 @@
         <v>0.2338401546736534</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1456964745426652</v>
+        <v>0.1480273291724262</v>
       </c>
       <c r="J47" t="n">
         <v>-0.03900241040685061</v>
@@ -6322,7 +6322,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK47" t="n">
-        <v>1.342053446525028</v>
+        <v>1.379347120601204</v>
       </c>
       <c r="AL47" t="n">
         <v>-6.722520401440502</v>
@@ -6331,7 +6331,7 @@
         <v>3.322850010526614</v>
       </c>
       <c r="AN47" t="n">
-        <v>-2.057616944388859</v>
+        <v>-2.020323270312684</v>
       </c>
     </row>
     <row r="48">
@@ -6362,7 +6362,7 @@
         <v>0.04337047270109277</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04614284539734277</v>
+        <v>0.05497760940359761</v>
       </c>
       <c r="J48" t="n">
         <v>-0.003900524456188927</v>
@@ -6446,7 +6446,7 @@
         <v>0.09002268137020791</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.1725685518191551</v>
+        <v>-0.03121232771907767</v>
       </c>
       <c r="AL48" t="n">
         <v>-10.34890957427704</v>
@@ -6455,7 +6455,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN48" t="n">
-        <v>-8.073143164610633</v>
+        <v>-7.931786940510554</v>
       </c>
     </row>
     <row r="49">
@@ -6486,7 +6486,7 @@
         <v>0.06346839423738473</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1216778673241431</v>
+        <v>0.1325274016940348</v>
       </c>
       <c r="J49" t="n">
         <v>-0.1146785481290357</v>
@@ -6570,7 +6570,7 @@
         <v>0.1715814565692732</v>
       </c>
       <c r="AK49" t="n">
-        <v>3.621344053614194</v>
+        <v>3.794936603532461</v>
       </c>
       <c r="AL49" t="n">
         <v>-6.886174059002296</v>
@@ -6579,7 +6579,7 @@
         <v>2.839902601579024</v>
       </c>
       <c r="AN49" t="n">
-        <v>-0.424927403809078</v>
+        <v>-0.2513348538908109</v>
       </c>
     </row>
     <row r="50">
@@ -6734,7 +6734,7 @@
         <v>0.1431183250497206</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1640156996542482</v>
+        <v>0.164097089235826</v>
       </c>
       <c r="J51" t="n">
         <v>-0.02869577551696732</v>
@@ -6818,7 +6818,7 @@
         <v>0.1560580424000802</v>
       </c>
       <c r="AK51" t="n">
-        <v>1.082480209657355</v>
+        <v>1.083782442962599</v>
       </c>
       <c r="AL51" t="n">
         <v>-11.44397767834532</v>
@@ -6827,7 +6827,7 @@
         <v>1.946797999340515</v>
       </c>
       <c r="AN51" t="n">
-        <v>-8.414699469347452</v>
+        <v>-8.413397236042208</v>
       </c>
     </row>
     <row r="52">
@@ -6858,7 +6858,7 @@
         <v>0.1761722158781824</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1772442302457865</v>
+        <v>0.1774815303987874</v>
       </c>
       <c r="J52" t="n">
         <v>-0.001125649030855848</v>
@@ -6942,7 +6942,7 @@
         <v>-0.2077082796478813</v>
       </c>
       <c r="AK52" t="n">
-        <v>-2.301949552512325</v>
+        <v>-2.298152750064312</v>
       </c>
       <c r="AL52" t="n">
         <v>-12.57711222015901</v>
@@ -6951,7 +6951,7 @@
         <v>1.933309956327269</v>
       </c>
       <c r="AN52" t="n">
-        <v>-12.94575181634407</v>
+        <v>-12.94195501389605</v>
       </c>
     </row>
     <row r="53">
@@ -6982,7 +6982,7 @@
         <v>0.02649021385516142</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1224442390643525</v>
+        <v>0.1228147779578256</v>
       </c>
       <c r="J53" t="n">
         <v>-0.08017523754019037</v>
@@ -7066,7 +7066,7 @@
         <v>0.2569478745805414</v>
       </c>
       <c r="AK53" t="n">
-        <v>1.603675390286096</v>
+        <v>1.609604012581665</v>
       </c>
       <c r="AL53" t="n">
         <v>-8.079684942188528</v>
@@ -7075,7 +7075,7 @@
         <v>2.350373486023714</v>
       </c>
       <c r="AN53" t="n">
-        <v>-4.125636065878718</v>
+        <v>-4.119707443583149</v>
       </c>
     </row>
     <row r="54">
@@ -7106,7 +7106,7 @@
         <v>0.01571005397648262</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1450666172673247</v>
+        <v>0.1451735527762335</v>
       </c>
       <c r="J54" t="n">
         <v>-0.1225736281536819</v>
@@ -7190,7 +7190,7 @@
         <v>0.1816933742245348</v>
       </c>
       <c r="AK54" t="n">
-        <v>2.199200937623986</v>
+        <v>2.200911905766526</v>
       </c>
       <c r="AL54" t="n">
         <v>-11.2134410767811</v>
@@ -7199,7 +7199,7 @@
         <v>2.656132764272652</v>
       </c>
       <c r="AN54" t="n">
-        <v>-6.358107374884465</v>
+        <v>-6.356396406741924</v>
       </c>
     </row>
     <row r="55">
@@ -7230,7 +7230,7 @@
         <v>0.09301125316060396</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1507297421717748</v>
+        <v>0.1510403463748574</v>
       </c>
       <c r="J55" t="n">
         <v>-0.03544250193456994</v>
@@ -7314,7 +7314,7 @@
         <v>0.1819110967609791</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.9892155463402489</v>
+        <v>0.9941852135895709</v>
       </c>
       <c r="AL55" t="n">
         <v>-9.533136676239527</v>
@@ -7323,7 +7323,7 @@
         <v>1.978824549415278</v>
       </c>
       <c r="AN55" t="n">
-        <v>-6.565096580484</v>
+        <v>-6.560126913234678</v>
       </c>
     </row>
     <row r="56">
@@ -7354,7 +7354,7 @@
         <v>0.1023252743369962</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1123251542970846</v>
+        <v>0.1144845016362208</v>
       </c>
       <c r="J56" t="n">
         <v>-0.1181308311536775</v>
@@ -7438,7 +7438,7 @@
         <v>0.1111309514097872</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.08757181536379952</v>
+        <v>0.1221213727899783</v>
       </c>
       <c r="AL56" t="n">
         <v>-7.914896659987047</v>
@@ -7447,7 +7447,7 @@
         <v>2.487522546768731</v>
       </c>
       <c r="AN56" t="n">
-        <v>-5.339802297854517</v>
+        <v>-5.305252740428337</v>
       </c>
     </row>
     <row r="57">
@@ -7478,7 +7478,7 @@
         <v>0.1372547364787611</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1905997414658709</v>
+        <v>0.1912294496898338</v>
       </c>
       <c r="J57" t="n">
         <v>-0.1254097448391506</v>
@@ -7562,7 +7562,7 @@
         <v>0.1752452879725516</v>
       </c>
       <c r="AK57" t="n">
-        <v>2.649364027163323</v>
+        <v>2.65943935874673</v>
       </c>
       <c r="AL57" t="n">
         <v>-7.644414549991064</v>
@@ -7571,7 +7571,7 @@
         <v>3.082913411703236</v>
       </c>
       <c r="AN57" t="n">
-        <v>-1.912137111124506</v>
+        <v>-1.902061779541098</v>
       </c>
     </row>
     <row r="58">
@@ -7602,7 +7602,7 @@
         <v>0.0996379241577061</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1656660655363492</v>
+        <v>0.1844751966827722</v>
       </c>
       <c r="J58" t="n">
         <v>-0.1373559988865363</v>
@@ -7686,7 +7686,7 @@
         <v>0.2903406134603872</v>
       </c>
       <c r="AK58" t="n">
-        <v>2.380611931960873</v>
+        <v>2.681558030303639</v>
       </c>
       <c r="AL58" t="n">
         <v>-7.46346555643143</v>
@@ -7695,7 +7695,7 @@
         <v>3.026334215209626</v>
       </c>
       <c r="AN58" t="n">
-        <v>-2.056519409260931</v>
+        <v>-1.755573310918164</v>
       </c>
     </row>
     <row r="59">
@@ -7726,7 +7726,7 @@
         <v>-0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.0771338084852754</v>
+        <v>-0.07701108184350454</v>
       </c>
       <c r="J59" t="n">
         <v>-0.0005864521416367516</v>
@@ -7810,7 +7810,7 @@
         <v>0.0001785114789394253</v>
       </c>
       <c r="AK59" t="n">
-        <v>-3.492423535545508</v>
+        <v>-3.490459909277174</v>
       </c>
       <c r="AL59" t="n">
         <v>-11.40970585399761</v>
@@ -7819,7 +7819,7 @@
         <v>2.127973894528476</v>
       </c>
       <c r="AN59" t="n">
-        <v>-12.77415549501464</v>
+        <v>-12.77219186874631</v>
       </c>
     </row>
     <row r="60">
@@ -7850,7 +7850,7 @@
         <v>0.0002768874540099195</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.08958764300368099</v>
+        <v>-0.08934590470802106</v>
       </c>
       <c r="J60" t="n">
         <v>-0.0008658121971576356</v>
@@ -7934,7 +7934,7 @@
         <v>0.0008794397853806598</v>
       </c>
       <c r="AK60" t="n">
-        <v>-4.34154795677804</v>
+        <v>-4.337680144047481</v>
       </c>
       <c r="AL60" t="n">
         <v>-12.17128117978374</v>
@@ -7943,7 +7943,7 @@
         <v>1.863676352977317</v>
       </c>
       <c r="AN60" t="n">
-        <v>-14.64915278358446</v>
+        <v>-14.64528497085391</v>
       </c>
     </row>
     <row r="61">
@@ -8098,7 +8098,7 @@
         <v>0.09727455189618292</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1179661572437906</v>
+        <v>0.1660988264369735</v>
       </c>
       <c r="J62" t="n">
         <v>-0.129309724840182</v>
@@ -8182,7 +8182,7 @@
         <v>0.2861381433895524</v>
       </c>
       <c r="AK62" t="n">
-        <v>3.915388251656703</v>
+        <v>4.685510958747631</v>
       </c>
       <c r="AL62" t="n">
         <v>-5.731459250048256</v>
@@ -8191,7 +8191,7 @@
         <v>2.807904940120132</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.9918339417285789</v>
+        <v>1.761956648819508</v>
       </c>
     </row>
     <row r="63">
@@ -8222,7 +8222,7 @@
         <v>0.0004029766625198304</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06573335711992588</v>
+        <v>0.0659096594097783</v>
       </c>
       <c r="J63" t="n">
         <v>-0.01287728627794599</v>
@@ -8306,7 +8306,7 @@
         <v>0.02421231846412458</v>
       </c>
       <c r="AK63" t="n">
-        <v>-1.787353616465854</v>
+        <v>-1.784532779828215</v>
       </c>
       <c r="AL63" t="n">
         <v>-9.806990401331399</v>
@@ -8315,7 +8315,7 @@
         <v>1.110301723834436</v>
       </c>
       <c r="AN63" t="n">
-        <v>-10.48404229396282</v>
+        <v>-10.48122145732518</v>
       </c>
     </row>
     <row r="64">
@@ -8346,7 +8346,7 @@
         <v>0.08587448476206554</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1369336899954188</v>
+        <v>0.1794629837637505</v>
       </c>
       <c r="J64" t="n">
         <v>-0.1136118176001362</v>
@@ -8430,7 +8430,7 @@
         <v>0.2700738201972069</v>
       </c>
       <c r="AK64" t="n">
-        <v>4.352902503344297</v>
+        <v>5.033371203637605</v>
       </c>
       <c r="AL64" t="n">
         <v>-7.322769457503619</v>
@@ -8439,7 +8439,7 @@
         <v>2.966931020723821</v>
       </c>
       <c r="AN64" t="n">
-        <v>-0.002935933435501248</v>
+        <v>0.6775327668578068</v>
       </c>
     </row>
     <row r="65">
@@ -8470,7 +8470,7 @@
         <v>0.04519535820676231</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1599988807831919</v>
+        <v>0.1601356719063401</v>
       </c>
       <c r="J65" t="n">
         <v>-0.1235600646614667</v>
@@ -8554,7 +8554,7 @@
         <v>0.09150980768016342</v>
       </c>
       <c r="AK65" t="n">
-        <v>1.494932651309338</v>
+        <v>1.497121309279711</v>
       </c>
       <c r="AL65" t="n">
         <v>-8.550008307869977</v>
@@ -8563,7 +8563,7 @@
         <v>2.143290922985067</v>
       </c>
       <c r="AN65" t="n">
-        <v>-4.911784733575571</v>
+        <v>-4.909596075605199</v>
       </c>
     </row>
     <row r="66">
@@ -8718,7 +8718,7 @@
         <v>0.09868019252202143</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1480425551525403</v>
+        <v>0.2116426689069685</v>
       </c>
       <c r="J67" t="n">
         <v>-0.1465789302024505</v>
@@ -8802,7 +8802,7 @@
         <v>0.3160423877674182</v>
       </c>
       <c r="AK67" t="n">
-        <v>2.068430954607115</v>
+        <v>3.086032774677967</v>
       </c>
       <c r="AL67" t="n">
         <v>-8.202420257616994</v>
@@ -8811,7 +8811,7 @@
         <v>2.606532721370237</v>
       </c>
       <c r="AN67" t="n">
-        <v>-3.527456581639643</v>
+        <v>-2.50985476156879</v>
       </c>
     </row>
     <row r="68">
@@ -8966,7 +8966,7 @@
         <v>0.06126491945972421</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1065546087173852</v>
+        <v>0.148825403402614</v>
       </c>
       <c r="J69" t="n">
         <v>-0.138750345653822</v>
@@ -9050,7 +9050,7 @@
         <v>0.2775849952755857</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.471480416449751</v>
+        <v>2.147813131413412</v>
       </c>
       <c r="AL69" t="n">
         <v>-9.408061412111547</v>
@@ -9059,7 +9059,7 @@
         <v>2.553406261296868</v>
       </c>
       <c r="AN69" t="n">
-        <v>-5.383174734364928</v>
+        <v>-4.706842019401267</v>
       </c>
     </row>
     <row r="70">
@@ -9090,7 +9090,7 @@
         <v>0.03260428050913044</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1418931133506051</v>
+        <v>0.1496818551710395</v>
       </c>
       <c r="J70" t="n">
         <v>-0.1183522968744361</v>
@@ -9174,7 +9174,7 @@
         <v>0.0563064883312854</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.9428624028980485</v>
+        <v>1.067482272024998</v>
       </c>
       <c r="AL70" t="n">
         <v>-8.88233198388316</v>
@@ -9183,7 +9183,7 @@
         <v>1.980333696494249</v>
       </c>
       <c r="AN70" t="n">
-        <v>-5.959135884490863</v>
+        <v>-5.834516015363914</v>
       </c>
     </row>
     <row r="71">
@@ -9214,7 +9214,7 @@
         <v>0.1157375125585055</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1761185736437194</v>
+        <v>0.2300400484845028</v>
       </c>
       <c r="J71" t="n">
         <v>-0.1160442458436841</v>
@@ -9298,7 +9298,7 @@
         <v>0.1998147055052133</v>
       </c>
       <c r="AK71" t="n">
-        <v>3.0932983108262</v>
+        <v>3.956041908278734</v>
       </c>
       <c r="AL71" t="n">
         <v>-9.194569786479338</v>
@@ -9307,7 +9307,7 @@
         <v>2.915258061534266</v>
       </c>
       <c r="AN71" t="n">
-        <v>-3.186013414118872</v>
+        <v>-2.323269816666337</v>
       </c>
     </row>
     <row r="72">
@@ -9338,7 +9338,7 @@
         <v>0.1292339945821452</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03304003333717142</v>
+        <v>0.03319457375189263</v>
       </c>
       <c r="J72" t="n">
         <v>-0.008440520784348295</v>
@@ -9422,7 +9422,7 @@
         <v>-0.03295218173088205</v>
       </c>
       <c r="AK72" t="n">
-        <v>-0.4523668487051061</v>
+        <v>-0.4498942020695663</v>
       </c>
       <c r="AL72" t="n">
         <v>-12.08611100398902</v>
@@ -9431,7 +9431,7 @@
         <v>1.991472897368744</v>
       </c>
       <c r="AN72" t="n">
-        <v>-10.54700495532538</v>
+        <v>-10.54453230868984</v>
       </c>
     </row>
     <row r="73">
@@ -9462,7 +9462,7 @@
         <v>0.1224707010726895</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1996791944072733</v>
+        <v>0.1998635306343759</v>
       </c>
       <c r="J73" t="n">
         <v>-0.06464433116139871</v>
@@ -9546,7 +9546,7 @@
         <v>0.03135610442776928</v>
       </c>
       <c r="AK73" t="n">
-        <v>4.388444689459813</v>
+        <v>4.391394069093454</v>
       </c>
       <c r="AL73" t="n">
         <v>-11.93633320006451</v>
@@ -9555,7 +9555,7 @@
         <v>2.544717952291438</v>
       </c>
       <c r="AN73" t="n">
-        <v>-5.003170558313258</v>
+        <v>-5.000221178679617</v>
       </c>
     </row>
     <row r="74">
@@ -9586,7 +9586,7 @@
         <v>0.0512119406143225</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1221534891148046</v>
+        <v>0.1592162802088184</v>
       </c>
       <c r="J74" t="n">
         <v>-0.1265797911851548</v>
@@ -9670,7 +9670,7 @@
         <v>0.1988064577048137</v>
       </c>
       <c r="AK74" t="n">
-        <v>2.685936339334142</v>
+        <v>3.278940996838362</v>
       </c>
       <c r="AL74" t="n">
         <v>-8.180690025420565</v>
@@ -9679,7 +9679,7 @@
         <v>2.366002688000143</v>
       </c>
       <c r="AN74" t="n">
-        <v>-3.12875099808628</v>
+        <v>-2.535746340582059</v>
       </c>
     </row>
     <row r="75">
@@ -9710,7 +9710,7 @@
         <v>0.08278906709747254</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1317335951378983</v>
+        <v>0.1805086594974559</v>
       </c>
       <c r="J75" t="n">
         <v>-0.1252276417577561</v>
@@ -9794,7 +9794,7 @@
         <v>0.3154337569703177</v>
       </c>
       <c r="AK75" t="n">
-        <v>3.50163033181264</v>
+        <v>4.282031361565561</v>
       </c>
       <c r="AL75" t="n">
         <v>-7.191024390570621</v>
@@ -9803,7 +9803,7 @@
         <v>2.678264677601537</v>
       </c>
       <c r="AN75" t="n">
-        <v>-1.011129381156444</v>
+        <v>-0.2307283514035223</v>
       </c>
     </row>
     <row r="76">
@@ -9834,7 +9834,7 @@
         <v>0.09352936049843867</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1604408704444811</v>
+        <v>0.1606189540456079</v>
       </c>
       <c r="J76" t="n">
         <v>-0.09321263660066058</v>
@@ -9918,7 +9918,7 @@
         <v>0.1392001608208503</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.246682219952392</v>
+        <v>1.249531557570421</v>
       </c>
       <c r="AL76" t="n">
         <v>-10.69200272547526</v>
@@ -9927,7 +9927,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN76" t="n">
-        <v>-6.950923142727433</v>
+        <v>-6.948073805109404</v>
       </c>
     </row>
     <row r="77">
@@ -9958,7 +9958,7 @@
         <v>0.06975524642241571</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1299618364714054</v>
+        <v>0.1615203575268084</v>
       </c>
       <c r="J77" t="n">
         <v>-0.1210289927535031</v>
@@ -10042,7 +10042,7 @@
         <v>0.1641204189601657</v>
       </c>
       <c r="AK77" t="n">
-        <v>3.188134843661555</v>
+        <v>3.693071180548002</v>
       </c>
       <c r="AL77" t="n">
         <v>-7.73280622254592</v>
@@ -10051,7 +10051,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN77" t="n">
-        <v>-2.171616750339461</v>
+        <v>-1.666680413453014</v>
       </c>
     </row>
     <row r="78">
@@ -10082,7 +10082,7 @@
         <v>0.103652666290437</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1584470776191274</v>
+        <v>0.1881072533373787</v>
       </c>
       <c r="J78" t="n">
         <v>-0.1122105443815794</v>
@@ -10166,7 +10166,7 @@
         <v>0.2026259369483401</v>
       </c>
       <c r="AK78" t="n">
-        <v>3.2794840322067</v>
+        <v>3.754046843698721</v>
       </c>
       <c r="AL78" t="n">
         <v>-6.203589031298053</v>
@@ -10175,7 +10175,7 @@
         <v>3.047668085045672</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.1235630859543186</v>
+        <v>0.5981258974463404</v>
       </c>
     </row>
     <row r="79">
@@ -10206,7 +10206,7 @@
         <v>0.07950438178153495</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1088228164773805</v>
+        <v>0.1349626444820895</v>
       </c>
       <c r="J79" t="n">
         <v>-0.1048226921289425</v>
@@ -10290,7 +10290,7 @@
         <v>0.2571591641461917</v>
       </c>
       <c r="AK79" t="n">
-        <v>4.691062249869701</v>
+        <v>5.109299497945046</v>
       </c>
       <c r="AL79" t="n">
         <v>-6.326593803449508</v>
@@ -10299,7 +10299,7 @@
         <v>2.998095499299937</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.36256394572013</v>
+        <v>1.780801193795475</v>
       </c>
     </row>
     <row r="80">
@@ -10330,7 +10330,7 @@
         <v>0.05611172905101128</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1539854985849872</v>
+        <v>0.1543036387145473</v>
       </c>
       <c r="J80" t="n">
         <v>-0.1048580467746923</v>
@@ -10414,7 +10414,7 @@
         <v>0.05139794557285706</v>
       </c>
       <c r="AK80" t="n">
-        <v>3.060356471169412</v>
+        <v>3.065446713242374</v>
       </c>
       <c r="AL80" t="n">
         <v>-11.40993644727429</v>
@@ -10423,7 +10423,7 @@
         <v>2.013415045137802</v>
       </c>
       <c r="AN80" t="n">
-        <v>-6.336164930967079</v>
+        <v>-6.331074688894115</v>
       </c>
     </row>
     <row r="81">
@@ -10454,7 +10454,7 @@
         <v>0.06029027908526961</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1220861371588119</v>
+        <v>0.1222930869652035</v>
       </c>
       <c r="J81" t="n">
         <v>-0.1375169190694858</v>
@@ -10538,7 +10538,7 @@
         <v>0.2286552076181862</v>
       </c>
       <c r="AK81" t="n">
-        <v>2.137796930012049</v>
+        <v>2.141108126914316</v>
       </c>
       <c r="AL81" t="n">
         <v>-9.227716404410117</v>
@@ -10547,7 +10547,7 @@
         <v>2.568986972995789</v>
       </c>
       <c r="AN81" t="n">
-        <v>-4.520932501402278</v>
+        <v>-4.517621304500011</v>
       </c>
     </row>
     <row r="82">
@@ -10578,7 +10578,7 @@
         <v>0.1660594004605955</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2154829742510738</v>
+        <v>0.2160130580821761</v>
       </c>
       <c r="J82" t="n">
         <v>-0.07139813603323714</v>
@@ -10662,7 +10662,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.3619956748231339</v>
+        <v>0.3704770161207691</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.437435407552986</v>
@@ -10671,7 +10671,7 @@
         <v>1.87250846798494</v>
       </c>
       <c r="AN82" t="n">
-        <v>-7.202931264744912</v>
+        <v>-7.194449923447277</v>
       </c>
     </row>
     <row r="83">
@@ -10702,7 +10702,7 @@
         <v>0.187247298004538</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2197747840843756</v>
+        <v>0.299112703611784</v>
       </c>
       <c r="J83" t="n">
         <v>-0.001383372304860219</v>
@@ -10786,7 +10786,7 @@
         <v>0.06319911888754612</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.683115917801537</v>
+        <v>2.952522630240073</v>
       </c>
       <c r="AL83" t="n">
         <v>-11.97719473953711</v>
@@ -10795,7 +10795,7 @@
         <v>2.727880518977305</v>
       </c>
       <c r="AN83" t="n">
-        <v>-7.566198302758266</v>
+        <v>-6.29679159031973</v>
       </c>
     </row>
     <row r="84">
@@ -10826,7 +10826,7 @@
         <v>0.09127620304248361</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1294663594706029</v>
+        <v>0.1728459323685406</v>
       </c>
       <c r="J84" t="n">
         <v>-0.1204192851844397</v>
@@ -10910,7 +10910,7 @@
         <v>0.1997947610184442</v>
       </c>
       <c r="AK84" t="n">
-        <v>3.697121673949088</v>
+        <v>4.391194840316091</v>
       </c>
       <c r="AL84" t="n">
         <v>-5.550990009462243</v>
@@ -10919,7 +10919,7 @@
         <v>2.558311126585456</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.7044427910723012</v>
+        <v>1.398515957439304</v>
       </c>
     </row>
     <row r="85">
@@ -10950,7 +10950,7 @@
         <v>0.0834197380197256</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1495043931013837</v>
+        <v>0.1496798747386953</v>
       </c>
       <c r="J85" t="n">
         <v>-0.03608315797461366</v>
@@ -11034,7 +11034,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.2332356194431552</v>
+        <v>0.2360433256401414</v>
       </c>
       <c r="AL85" t="n">
         <v>-9.711890026635315</v>
@@ -11043,7 +11043,7 @@
         <v>1.959814633997636</v>
       </c>
       <c r="AN85" t="n">
-        <v>-7.518839773194523</v>
+        <v>-7.516032066997537</v>
       </c>
     </row>
     <row r="86">
@@ -11198,7 +11198,7 @@
         <v>0.06476531344588979</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1389962661345263</v>
+        <v>0.199765456116727</v>
       </c>
       <c r="J87" t="n">
         <v>-0.06076519260294931</v>
@@ -11282,7 +11282,7 @@
         <v>0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.92212729629772</v>
+        <v>2.894434336012931</v>
       </c>
       <c r="AL87" t="n">
         <v>-7.847390299979629</v>
@@ -11291,7 +11291,7 @@
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-3.499905104631622</v>
+        <v>-2.52759806491641</v>
       </c>
     </row>
     <row r="88">
@@ -11322,7 +11322,7 @@
         <v>0.01333145068951459</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05363676295840028</v>
+        <v>0.05798719610204438</v>
       </c>
       <c r="J88" t="n">
         <v>-0.005866908193841223</v>
@@ -11406,7 +11406,7 @@
         <v>0.01084298328904704</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.067106171510195</v>
+        <v>1.1367131018085</v>
       </c>
       <c r="AL88" t="n">
         <v>-9.090333260003838</v>
@@ -11415,7 +11415,7 @@
         <v>1.274613539470903</v>
       </c>
       <c r="AN88" t="n">
-        <v>-6.74861354902274</v>
+        <v>-6.679006618724435</v>
       </c>
     </row>
     <row r="89">
@@ -11446,7 +11446,7 @@
         <v>0.06944726070431877</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1521596067375837</v>
+        <v>0.1985880852858034</v>
       </c>
       <c r="J89" t="n">
         <v>-0.1337423524543067</v>
@@ -11530,7 +11530,7 @@
         <v>0.1915188804052421</v>
       </c>
       <c r="AK89" t="n">
-        <v>1.225366314972728</v>
+        <v>1.968221971744242</v>
       </c>
       <c r="AL89" t="n">
         <v>-8.988068396175153</v>
@@ -11539,7 +11539,7 @@
         <v>2.381801182601639</v>
       </c>
       <c r="AN89" t="n">
-        <v>-5.380900898600787</v>
+        <v>-4.638045241829273</v>
       </c>
     </row>
     <row r="90">
@@ -11570,7 +11570,7 @@
         <v>0.1037090151107201</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1684857741946848</v>
+        <v>0.207236840231094</v>
       </c>
       <c r="J90" t="n">
         <v>-0.1302585347460972</v>
@@ -11654,7 +11654,7 @@
         <v>0.2306404980166452</v>
       </c>
       <c r="AK90" t="n">
-        <v>2.702848578897645</v>
+        <v>3.322865635480193</v>
       </c>
       <c r="AL90" t="n">
         <v>-5.614459330744943</v>
@@ -11663,7 +11663,7 @@
         <v>2.655563428030504</v>
       </c>
       <c r="AN90" t="n">
-        <v>-0.2560473238167935</v>
+        <v>0.3639697327657538</v>
       </c>
     </row>
     <row r="91">
@@ -11694,7 +11694,7 @@
         <v>0.1008320287724563</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1319443720440937</v>
+        <v>0.1562476950510768</v>
       </c>
       <c r="J91" t="n">
         <v>-0.114020460722323</v>
@@ -11778,7 +11778,7 @@
         <v>0.2126870273645982</v>
       </c>
       <c r="AK91" t="n">
-        <v>3.203367411055473</v>
+        <v>3.592220579167202</v>
       </c>
       <c r="AL91" t="n">
         <v>-6.932843760220323</v>
@@ -11787,7 +11787,7 @@
         <v>2.433837675097362</v>
       </c>
       <c r="AN91" t="n">
-        <v>-1.295638674067488</v>
+        <v>-0.9067855059557588</v>
       </c>
     </row>
     <row r="92">
@@ -11818,7 +11818,7 @@
         <v>0.03880571452100972</v>
       </c>
       <c r="I92" t="n">
-        <v>0.120524359832347</v>
+        <v>0.1313531409721491</v>
       </c>
       <c r="J92" t="n">
         <v>-0.07729005327901355</v>
@@ -11902,7 +11902,7 @@
         <v>0.194654101420828</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.384548495584546</v>
+        <v>1.557808993821377</v>
       </c>
       <c r="AL92" t="n">
         <v>-6.77061848153161</v>
@@ -11911,7 +11911,7 @@
         <v>1.972188058716642</v>
       </c>
       <c r="AN92" t="n">
-        <v>-3.413881927230422</v>
+        <v>-3.24062142899359</v>
       </c>
     </row>
     <row r="93">
@@ -11942,7 +11942,7 @@
         <v>0.07654689785330659</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1274485243467948</v>
+        <v>0.1608855106346942</v>
       </c>
       <c r="J93" t="n">
         <v>-0.1221455532674856</v>
@@ -12026,7 +12026,7 @@
         <v>0.2608321684737274</v>
       </c>
       <c r="AK93" t="n">
-        <v>2.763515408869112</v>
+        <v>3.298507189475503</v>
       </c>
       <c r="AL93" t="n">
         <v>-5.873510411949113</v>
@@ -12035,7 +12035,7 @@
         <v>2.855159933826961</v>
       </c>
       <c r="AN93" t="n">
-        <v>-0.2548350692530392</v>
+        <v>0.2801567113533516</v>
       </c>
     </row>
     <row r="94">
@@ -12190,7 +12190,7 @@
         <v>0.09722526092321462</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1511092499290292</v>
+        <v>0.1512372971762073</v>
       </c>
       <c r="J95" t="n">
         <v>-0.07794986569009153</v>
@@ -12274,7 +12274,7 @@
         <v>0.2273493467500137</v>
       </c>
       <c r="AK95" t="n">
-        <v>0.8185494503857533</v>
+        <v>0.820598206340603</v>
       </c>
       <c r="AL95" t="n">
         <v>-12.07148806529311</v>
@@ -12283,7 +12283,7 @@
         <v>1.730605606249227</v>
       </c>
       <c r="AN95" t="n">
-        <v>-9.522333008658126</v>
+        <v>-9.520284252703275</v>
       </c>
     </row>
     <row r="96">
@@ -12314,7 +12314,7 @@
         <v>0.1693666200506838</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1471739339050879</v>
+        <v>0.1473599375461259</v>
       </c>
       <c r="J96" t="n">
         <v>-0.07896812756240477</v>
@@ -12398,7 +12398,7 @@
         <v>0.06605395394971005</v>
       </c>
       <c r="AK96" t="n">
-        <v>4.119118198388236</v>
+        <v>4.122094256644844</v>
       </c>
       <c r="AL96" t="n">
         <v>-8.93409847828973</v>
@@ -12407,7 +12407,7 @@
         <v>3.335239623901399</v>
       </c>
       <c r="AN96" t="n">
-        <v>-1.479740656000095</v>
+        <v>-1.476764597743487</v>
       </c>
     </row>
     <row r="97">
@@ -12438,7 +12438,7 @@
         <v>0.1097983521006056</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1614115128622411</v>
+        <v>0.1926792569775498</v>
       </c>
       <c r="J97" t="n">
         <v>-0.1093052290166172</v>
@@ -12522,7 +12522,7 @@
         <v>0.1575729328062057</v>
       </c>
       <c r="AK97" t="n">
-        <v>1.323422529011367</v>
+        <v>1.823706434856306</v>
       </c>
       <c r="AL97" t="n">
         <v>-7.973600439924182</v>
@@ -12531,7 +12531,7 @@
         <v>2.645633434644179</v>
       </c>
       <c r="AN97" t="n">
-        <v>-4.004544476268636</v>
+        <v>-3.504260570423698</v>
       </c>
     </row>
     <row r="98">
@@ -12686,7 +12686,7 @@
         <v>0.08632974258802598</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1540773786548253</v>
+        <v>0.1542352079465784</v>
       </c>
       <c r="J99" t="n">
         <v>-0.07669029207750609</v>
@@ -12770,7 +12770,7 @@
         <v>0.1244443379331433</v>
       </c>
       <c r="AK99" t="n">
-        <v>0.08874479648955132</v>
+        <v>0.09127006515760097</v>
       </c>
       <c r="AL99" t="n">
         <v>-9.435032822957849</v>
@@ -12779,7 +12779,7 @@
         <v>1.656467734917757</v>
       </c>
       <c r="AN99" t="n">
-        <v>-7.68982029155054</v>
+        <v>-7.68729502288249</v>
       </c>
     </row>
     <row r="100">
@@ -12810,7 +12810,7 @@
         <v>0.09795004663004381</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1298720114607152</v>
+        <v>0.1912739230576981</v>
       </c>
       <c r="J100" t="n">
         <v>-0.133345808028047</v>
@@ -12894,7 +12894,7 @@
         <v>0.3146553283164298</v>
       </c>
       <c r="AK100" t="n">
-        <v>2.414889237635412</v>
+        <v>3.397319823187138</v>
       </c>
       <c r="AL100" t="n">
         <v>-8.430759973584664</v>
@@ -12903,7 +12903,7 @@
         <v>2.616048750996152</v>
       </c>
       <c r="AN100" t="n">
-        <v>-3.399821984953099</v>
+        <v>-2.417391399401374</v>
       </c>
     </row>
     <row r="101">
@@ -12934,7 +12934,7 @@
         <v>0.06238145055813425</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.01822180773177899</v>
+        <v>-0.01807320665374315</v>
       </c>
       <c r="J101" t="n">
         <v>-0.05222319873855287</v>
@@ -13018,7 +13018,7 @@
         <v>0.08570066372316699</v>
       </c>
       <c r="AK101" t="n">
-        <v>-4.007855170461666</v>
+        <v>-4.005477553213093</v>
       </c>
       <c r="AL101" t="n">
         <v>-9.883752427493629</v>
@@ -13027,7 +13027,7 @@
         <v>1.861016650472897</v>
       </c>
       <c r="AN101" t="n">
-        <v>-12.0305909474824</v>
+        <v>-12.02821333023383</v>
       </c>
     </row>
     <row r="102">
@@ -13306,7 +13306,7 @@
         <v>0.2035002952956739</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1983916820939227</v>
+        <v>0.2696974366814522</v>
       </c>
       <c r="J104" t="n">
         <v>-0.06168425222639037</v>
@@ -13390,7 +13390,7 @@
         <v>0.2827785212685758</v>
       </c>
       <c r="AK104" t="n">
-        <v>1.67575605788779</v>
+        <v>2.816648131288263</v>
       </c>
       <c r="AL104" t="n">
         <v>-9.423818852944082</v>
@@ -13399,7 +13399,7 @@
         <v>2.699182906316397</v>
       </c>
       <c r="AN104" t="n">
-        <v>-5.048879888739895</v>
+        <v>-3.907987815339423</v>
       </c>
     </row>
     <row r="105">
@@ -13430,7 +13430,7 @@
         <v>0.08445587776901475</v>
       </c>
       <c r="I105" t="n">
-        <v>0.08963225295495242</v>
+        <v>0.1200918927171706</v>
       </c>
       <c r="J105" t="n">
         <v>-0.1137959019201923</v>
@@ -13514,7 +13514,7 @@
         <v>0.1792086940263051</v>
       </c>
       <c r="AK105" t="n">
-        <v>4.223435031291454</v>
+        <v>4.710789267486943</v>
       </c>
       <c r="AL105" t="n">
         <v>-8.227310405747662</v>
@@ -13523,7 +13523,7 @@
         <v>1.85321162898101</v>
       </c>
       <c r="AN105" t="n">
-        <v>-2.150663745475198</v>
+        <v>-1.663309509279709</v>
       </c>
     </row>
     <row r="106">
@@ -13554,7 +13554,7 @@
         <v>0.07154750696498456</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1655537663134747</v>
+        <v>0.1851044683469458</v>
       </c>
       <c r="J106" t="n">
         <v>-0.1214660265872487</v>
@@ -13638,7 +13638,7 @@
         <v>0.08814671510752987</v>
       </c>
       <c r="AK106" t="n">
-        <v>2.654753217890272</v>
+        <v>2.967564450425811</v>
       </c>
       <c r="AL106" t="n">
         <v>-8.104360703050274</v>
@@ -13647,7 +13647,7 @@
         <v>2.084980127071581</v>
       </c>
       <c r="AN106" t="n">
-        <v>-3.364627358088421</v>
+        <v>-3.051816125552882</v>
       </c>
     </row>
     <row r="107">
@@ -13678,7 +13678,7 @@
         <v>0.07801908050869309</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1528469041549226</v>
+        <v>0.1862215760415351</v>
       </c>
       <c r="J107" t="n">
         <v>-0.1022932654150409</v>
@@ -13762,7 +13762,7 @@
         <v>0.2587909806757508</v>
       </c>
       <c r="AK107" t="n">
-        <v>3.807718622171095</v>
+        <v>4.341713372356891</v>
       </c>
       <c r="AL107" t="n">
         <v>-7.408550219087493</v>
@@ -13771,7 +13771,7 @@
         <v>3.200478627683012</v>
       </c>
       <c r="AN107" t="n">
-        <v>-0.4003529692333863</v>
+        <v>0.1336417809524106</v>
       </c>
     </row>
     <row r="108">
@@ -13802,7 +13802,7 @@
         <v>0.05139228297476607</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1280608015180374</v>
+        <v>0.1597713422434874</v>
       </c>
       <c r="J108" t="n">
         <v>-0.1111264700866382</v>
@@ -13886,7 +13886,7 @@
         <v>0.2665785874533608</v>
       </c>
       <c r="AK108" t="n">
-        <v>2.388066602361959</v>
+        <v>2.895435253969158</v>
       </c>
       <c r="AL108" t="n">
         <v>-8.010587313886541</v>
@@ -13895,7 +13895,7 @@
         <v>2.555008484225799</v>
       </c>
       <c r="AN108" t="n">
-        <v>-3.067512227298783</v>
+        <v>-2.560143575691584</v>
       </c>
     </row>
     <row r="109">
@@ -13926,7 +13926,7 @@
         <v>0.09429606549315055</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1770848586245462</v>
+        <v>0.1997587039355333</v>
       </c>
       <c r="J109" t="n">
         <v>-0.06193651269751847</v>
@@ -14010,7 +14010,7 @@
         <v>0.2148800165022072</v>
       </c>
       <c r="AK109" t="n">
-        <v>3.669160187330487</v>
+        <v>4.03194171230628</v>
       </c>
       <c r="AL109" t="n">
         <v>-10.39978330388231</v>
@@ -14019,7 +14019,7 @@
         <v>2.8589308254521</v>
       </c>
       <c r="AN109" t="n">
-        <v>-3.871692291099718</v>
+        <v>-3.508910766123925</v>
       </c>
     </row>
     <row r="110">
@@ -14174,7 +14174,7 @@
         <v>0.1668763061406184</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.0221247210146018</v>
+        <v>-0.02190202291902528</v>
       </c>
       <c r="J111" t="n">
         <v>-0.0035194746249491</v>
@@ -14258,7 +14258,7 @@
         <v>-0.0849532940945425</v>
       </c>
       <c r="AK111" t="n">
-        <v>-2.807228982886632</v>
+        <v>-2.803665813357407</v>
       </c>
       <c r="AL111" t="n">
         <v>-10.02555049525445</v>
@@ -14267,7 +14267,7 @@
         <v>2.16251806207766</v>
       </c>
       <c r="AN111" t="n">
-        <v>-10.67026141606342</v>
+        <v>-10.6666982465342</v>
       </c>
     </row>
     <row r="112">
@@ -14298,7 +14298,7 @@
         <v>0.07858138134520889</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1748002475280112</v>
+        <v>0.2032237023860866</v>
       </c>
       <c r="J112" t="n">
         <v>-0.1210698577551503</v>
@@ -14382,7 +14382,7 @@
         <v>0.1809284910565726</v>
       </c>
       <c r="AK112" t="n">
-        <v>2.863186854652488</v>
+        <v>3.317962132381693</v>
       </c>
       <c r="AL112" t="n">
         <v>-10.73148231703463</v>
@@ -14391,7 +14391,7 @@
         <v>2.787009009474609</v>
       </c>
       <c r="AN112" t="n">
-        <v>-5.081286452907538</v>
+        <v>-4.626511175178333</v>
       </c>
     </row>
     <row r="113">
@@ -14422,7 +14422,7 @@
         <v>0.08542609252910226</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1304087492809112</v>
+        <v>0.1449281559844435</v>
       </c>
       <c r="J113" t="n">
         <v>-0.1297492654357388</v>
@@ -14506,7 +14506,7 @@
         <v>0.167486286217453</v>
       </c>
       <c r="AK113" t="n">
-        <v>2.641835668148425</v>
+        <v>2.874146175404942</v>
       </c>
       <c r="AL113" t="n">
         <v>-7.757499951832068</v>
@@ -14515,7 +14515,7 @@
         <v>2.565584272393367</v>
       </c>
       <c r="AN113" t="n">
-        <v>-2.550080011290276</v>
+        <v>-2.317769504033759</v>
       </c>
     </row>
     <row r="114">
@@ -14546,7 +14546,7 @@
         <v>0.03955518915041616</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1364047203743627</v>
+        <v>0.1515952306664233</v>
       </c>
       <c r="J114" t="n">
         <v>-0.05677284291691696</v>
@@ -14630,7 +14630,7 @@
         <v>0.2613936998708855</v>
       </c>
       <c r="AK114" t="n">
-        <v>2.724191404918708</v>
+        <v>2.967239569591676</v>
       </c>
       <c r="AL114" t="n">
         <v>-9.594981035984961</v>
@@ -14639,7 +14639,7 @@
         <v>2.544952139569415</v>
       </c>
       <c r="AN114" t="n">
-        <v>-4.32583749149684</v>
+        <v>-4.082789326823871</v>
       </c>
     </row>
     <row r="115">
@@ -14670,7 +14670,7 @@
         <v>0.05296241966712295</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1196681728342323</v>
+        <v>0.1418388326582856</v>
       </c>
       <c r="J115" t="n">
         <v>-0.09925266620439326</v>
@@ -14754,7 +14754,7 @@
         <v>0.2140602774625162</v>
       </c>
       <c r="AK115" t="n">
-        <v>1.502989621596569</v>
+        <v>1.857720178781422</v>
       </c>
       <c r="AL115" t="n">
         <v>-9.037867117110411</v>
@@ -14763,7 +14763,7 @@
         <v>2.333054433821673</v>
       </c>
       <c r="AN115" t="n">
-        <v>-5.201823061692169</v>
+        <v>-4.847092504507316</v>
       </c>
     </row>
     <row r="116">
@@ -14794,7 +14794,7 @@
         <v>0.05375455454840349</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1311181286384716</v>
+        <v>0.1477019778268862</v>
       </c>
       <c r="J116" t="n">
         <v>-0.1152249586054372</v>
@@ -14878,7 +14878,7 @@
         <v>0.268449481599999</v>
       </c>
       <c r="AK116" t="n">
-        <v>2.216361042782338</v>
+        <v>2.48170262979697</v>
       </c>
       <c r="AL116" t="n">
         <v>-8.155165950959882</v>
@@ -14887,7 +14887,7 @@
         <v>2.356280128531479</v>
       </c>
       <c r="AN116" t="n">
-        <v>-3.582524779646065</v>
+        <v>-3.317183192631433</v>
       </c>
     </row>
     <row r="117">
@@ -14918,7 +14918,7 @@
         <v>0.1469113604920412</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2055998938070918</v>
+        <v>0.2603581179278755</v>
       </c>
       <c r="J117" t="n">
         <v>-0.07495412394557148</v>
@@ -15002,7 +15002,7 @@
         <v>0.2292531602834578</v>
       </c>
       <c r="AK117" t="n">
-        <v>2.128146049645329</v>
+        <v>3.004277635577868</v>
       </c>
       <c r="AL117" t="n">
         <v>-11.85920525885087</v>
@@ -15011,7 +15011,7 @@
         <v>2.527111768589203</v>
       </c>
       <c r="AN117" t="n">
-        <v>-7.203947440616338</v>
+        <v>-6.327815854683799</v>
       </c>
     </row>
     <row r="118">
@@ -15042,7 +15042,7 @@
         <v>0.02857572359404118</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1428208384824987</v>
+        <v>0.1432320789086863</v>
       </c>
       <c r="J118" t="n">
         <v>-0.06552118568247375</v>
@@ -15126,7 +15126,7 @@
         <v>0.1685865747073277</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.2436250765574891</v>
+        <v>0.2502049233764913</v>
       </c>
       <c r="AL118" t="n">
         <v>-10.23050545102693</v>
@@ -15135,7 +15135,7 @@
         <v>1.875837289633133</v>
       </c>
       <c r="AN118" t="n">
-        <v>-8.111043084836306</v>
+        <v>-8.104463238017303</v>
       </c>
     </row>
     <row r="119">
@@ -15166,7 +15166,7 @@
         <v>0.05005178610313769</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1245096850521097</v>
+        <v>0.1248725702046174</v>
       </c>
       <c r="J119" t="n">
         <v>-0.01052187748743793</v>
@@ -15250,7 +15250,7 @@
         <v>-0.0007541660549133119</v>
       </c>
       <c r="AK119" t="n">
-        <v>1.23999642803685</v>
+        <v>1.245802590476973</v>
       </c>
       <c r="AL119" t="n">
         <v>-9.633210722718722</v>
@@ -15259,7 +15259,7 @@
         <v>2.11713028419598</v>
       </c>
       <c r="AN119" t="n">
-        <v>-6.276084010485892</v>
+        <v>-6.270277848045769</v>
       </c>
     </row>
     <row r="120">
@@ -15290,7 +15290,7 @@
         <v>0.07974273704280931</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1389589869833863</v>
+        <v>0.1442809905440691</v>
       </c>
       <c r="J120" t="n">
         <v>-0.1150119269230749</v>
@@ -15374,7 +15374,7 @@
         <v>0.1456398247338927</v>
       </c>
       <c r="AK120" t="n">
-        <v>1.018702837003393</v>
+        <v>1.103854893974317</v>
       </c>
       <c r="AL120" t="n">
         <v>-5.863074600513191</v>
@@ -15383,7 +15383,7 @@
         <v>3.324600710302439</v>
       </c>
       <c r="AN120" t="n">
-        <v>-1.519771053207359</v>
+        <v>-1.434618996236436</v>
       </c>
     </row>
     <row r="121">
@@ -15414,7 +15414,7 @@
         <v>0.06800127647479352</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1138515175129012</v>
+        <v>0.1460052382371269</v>
       </c>
       <c r="J121" t="n">
         <v>-0.1189038335097964</v>
@@ -15498,7 +15498,7 @@
         <v>0.343579444965681</v>
       </c>
       <c r="AK121" t="n">
-        <v>2.641639696584766</v>
+        <v>3.156099228172377</v>
       </c>
       <c r="AL121" t="n">
         <v>-10.20011001865757</v>
@@ -15507,7 +15507,7 @@
         <v>2.764997810206407</v>
       </c>
       <c r="AN121" t="n">
-        <v>-4.793472511866397</v>
+        <v>-4.279012980278787</v>
       </c>
     </row>
     <row r="122">
@@ -15538,7 +15538,7 @@
         <v>0.1332745381344487</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1428604126040168</v>
+        <v>0.1599114001905143</v>
       </c>
       <c r="J122" t="n">
         <v>-0.07846739908972866</v>
@@ -15622,7 +15622,7 @@
         <v>0.2265433791635344</v>
       </c>
       <c r="AK122" t="n">
-        <v>3.636889891373871</v>
+        <v>3.909705692757831</v>
       </c>
       <c r="AL122" t="n">
         <v>-7.297366970903406</v>
@@ -15631,7 +15631,7 @@
         <v>2.686127021374395</v>
       </c>
       <c r="AN122" t="n">
-        <v>-0.9743500581551401</v>
+        <v>-0.7015342567711795</v>
       </c>
     </row>
     <row r="123">
@@ -15662,7 +15662,7 @@
         <v>0.06158130808225485</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1619000787821136</v>
+        <v>0.1831819081599813</v>
       </c>
       <c r="J123" t="n">
         <v>-0.1055688731412385</v>
@@ -15746,7 +15746,7 @@
         <v>0.2221951046093984</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.18005038887917</v>
+        <v>1.520559658925053</v>
       </c>
       <c r="AL123" t="n">
         <v>-9.157683564752116</v>
@@ -15755,7 +15755,7 @@
         <v>2.858180191603926</v>
       </c>
       <c r="AN123" t="n">
-        <v>-5.119452984269019</v>
+        <v>-4.778943714223136</v>
       </c>
     </row>
     <row r="124">
@@ -15786,7 +15786,7 @@
         <v>0.02209789937299249</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1110157418947415</v>
+        <v>0.1112680644658091</v>
       </c>
       <c r="J124" t="n">
         <v>-0.1523809263301506</v>
@@ -15870,7 +15870,7 @@
         <v>0.1316139940554002</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.542387556549522</v>
+        <v>1.546424717686604</v>
       </c>
       <c r="AL124" t="n">
         <v>-10.68605617810361</v>
@@ -15879,7 +15879,7 @@
         <v>1.783835437068143</v>
       </c>
       <c r="AN124" t="n">
-        <v>-7.359833184485942</v>
+        <v>-7.355796023348861</v>
       </c>
     </row>
     <row r="125">
@@ -15910,7 +15910,7 @@
         <v>0.06162006724480324</v>
       </c>
       <c r="I125" t="n">
-        <v>0.08966271643394201</v>
+        <v>0.09222238016199337</v>
       </c>
       <c r="J125" t="n">
         <v>-0.05439022852577256</v>
@@ -15994,7 +15994,7 @@
         <v>0.1787688962397133</v>
       </c>
       <c r="AK125" t="n">
-        <v>-0.1561879109287931</v>
+        <v>-0.1152332912799716</v>
       </c>
       <c r="AL125" t="n">
         <v>-9.582999567801535</v>
@@ -16003,7 +16003,7 @@
         <v>2.571078859702942</v>
       </c>
       <c r="AN125" t="n">
-        <v>-7.168108619027386</v>
+        <v>-7.127153999378564</v>
       </c>
     </row>
     <row r="126">
@@ -16034,7 +16034,7 @@
         <v>0.09526847677521348</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1867832209057405</v>
+        <v>0.1896503206906404</v>
       </c>
       <c r="J126" t="n">
         <v>-0.0735053455884043</v>
@@ -16118,7 +16118,7 @@
         <v>0.1818835138933887</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.687308851184515</v>
+        <v>1.733182447742914</v>
       </c>
       <c r="AL126" t="n">
         <v>-10.6921763663886</v>
@@ -16127,7 +16127,7 @@
         <v>2.55317520204669</v>
       </c>
       <c r="AN126" t="n">
-        <v>-6.451692313157398</v>
+        <v>-6.405818716598999</v>
       </c>
     </row>
     <row r="127">
@@ -16158,7 +16158,7 @@
         <v>0.07906334185905615</v>
       </c>
       <c r="I127" t="n">
-        <v>0.03885490361812441</v>
+        <v>0.03911961612299843</v>
       </c>
       <c r="J127" t="n">
         <v>-0.1381283167665703</v>
@@ -16242,7 +16242,7 @@
         <v>0.2778761717435449</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.971766989596425</v>
+        <v>1.976002389674409</v>
       </c>
       <c r="AL127" t="n">
         <v>-13.24470743249028</v>
@@ -16251,7 +16251,7 @@
         <v>2.005065107355989</v>
       </c>
       <c r="AN127" t="n">
-        <v>-9.267875335537868</v>
+        <v>-9.263639935459883</v>
       </c>
     </row>
     <row r="128">
@@ -16282,7 +16282,7 @@
         <v>0.1310641860257757</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1779005018814707</v>
+        <v>0.1833517782246262</v>
       </c>
       <c r="J128" t="n">
         <v>-0.06900854153490613</v>
@@ -16366,7 +16366,7 @@
         <v>0.09152132699802742</v>
       </c>
       <c r="AK128" t="n">
-        <v>4.250698139436215</v>
+        <v>4.337918560926703</v>
       </c>
       <c r="AL128" t="n">
         <v>-10.67213352193915</v>
@@ -16375,7 +16375,7 @@
         <v>2.520101184757229</v>
       </c>
       <c r="AN128" t="n">
-        <v>-3.901334197745706</v>
+        <v>-3.814113776255218</v>
       </c>
     </row>
     <row r="129">
@@ -16406,7 +16406,7 @@
         <v>0.08598093588601176</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1108903279302437</v>
+        <v>0.1352426498548737</v>
       </c>
       <c r="J129" t="n">
         <v>-0.1003775721621085</v>
@@ -16490,7 +16490,7 @@
         <v>0.2904816890669009</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.498946741864013</v>
+        <v>1.888583892658094</v>
       </c>
       <c r="AL129" t="n">
         <v>-9.105056727821022</v>
@@ -16499,7 +16499,7 @@
         <v>1.936344855977472</v>
       </c>
       <c r="AN129" t="n">
-        <v>-5.669765129979537</v>
+        <v>-5.280127979185456</v>
       </c>
     </row>
     <row r="130">
@@ -16654,7 +16654,7 @@
         <v>0.03858554727564956</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1150579878735459</v>
+        <v>0.1535548703088511</v>
       </c>
       <c r="J131" t="n">
         <v>-0.1169950666586271</v>
@@ -16738,7 +16738,7 @@
         <v>0.2893717281207434</v>
       </c>
       <c r="AK131" t="n">
-        <v>2.250201950216546</v>
+        <v>2.866152069181428</v>
       </c>
       <c r="AL131" t="n">
         <v>-8.523899565585751</v>
@@ -16747,7 +16747,7 @@
         <v>2.662727926290813</v>
       </c>
       <c r="AN131" t="n">
-        <v>-3.610969689078392</v>
+        <v>-2.99501957011351</v>
       </c>
     </row>
     <row r="132">
@@ -16778,7 +16778,7 @@
         <v>0.04674019522905026</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1085679581376637</v>
+        <v>0.1112586109388784</v>
       </c>
       <c r="J132" t="n">
         <v>-0.09570250558948147</v>
@@ -16862,7 +16862,7 @@
         <v>0.2243305446669307</v>
       </c>
       <c r="AK132" t="n">
-        <v>2.465820997831696</v>
+        <v>2.508871442651131</v>
       </c>
       <c r="AL132" t="n">
         <v>-7.439336016482929</v>
@@ -16871,7 +16871,7 @@
         <v>2.470811852509721</v>
       </c>
       <c r="AN132" t="n">
-        <v>-2.502703166141511</v>
+        <v>-2.459652721322076</v>
       </c>
     </row>
     <row r="133">
@@ -16902,7 +16902,7 @@
         <v>0.07324563264618467</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1718248402918086</v>
+        <v>0.2245147789059333</v>
       </c>
       <c r="J133" t="n">
         <v>-0.1308696214875126</v>
@@ -16986,7 +16986,7 @@
         <v>0.1975600018718598</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.14356398302926</v>
+        <v>1.986603000855256</v>
       </c>
       <c r="AL133" t="n">
         <v>-9.088635286416935</v>
@@ -16995,7 +16995,7 @@
         <v>2.499153294344754</v>
       </c>
       <c r="AN133" t="n">
-        <v>-5.44591800904292</v>
+        <v>-4.602878991216924</v>
       </c>
     </row>
     <row r="134">
@@ -17026,7 +17026,7 @@
         <v>0.04660742092511339</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1120971813468143</v>
+        <v>0.1476784820937423</v>
       </c>
       <c r="J134" t="n">
         <v>-0.1231638647729994</v>
@@ -17110,7 +17110,7 @@
         <v>0.2811669469844215</v>
       </c>
       <c r="AK134" t="n">
-        <v>1.941117189263335</v>
+        <v>2.510418001214181</v>
       </c>
       <c r="AL134" t="n">
         <v>-7.833305169472409</v>
@@ -17119,7 +17119,7 @@
         <v>2.507281140857341</v>
       </c>
       <c r="AN134" t="n">
-        <v>-3.384906839351733</v>
+        <v>-2.815606027400886</v>
       </c>
     </row>
     <row r="135">
@@ -17150,7 +17150,7 @@
         <v>0.08123607406649161</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1821376470028715</v>
+        <v>0.1830063564367353</v>
       </c>
       <c r="J135" t="n">
         <v>-0.008600906894011093</v>
@@ -17234,7 +17234,7 @@
         <v>-0.1395954448533699</v>
       </c>
       <c r="AK135" t="n">
-        <v>-0.6943528360777669</v>
+        <v>-0.6804534851359465</v>
       </c>
       <c r="AL135" t="n">
         <v>-10.88021305327009</v>
@@ -17243,7 +17243,7 @@
         <v>1.915999119042789</v>
       </c>
       <c r="AN135" t="n">
-        <v>-9.658566770305068</v>
+        <v>-9.644667419363246</v>
       </c>
     </row>
     <row r="136">
@@ -17274,7 +17274,7 @@
         <v>0.09285335314116547</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1640061653318108</v>
+        <v>0.2038242850878784</v>
       </c>
       <c r="J136" t="n">
         <v>-0.07407587160816553</v>
@@ -17358,7 +17358,7 @@
         <v>0.2569563219372574</v>
       </c>
       <c r="AK136" t="n">
-        <v>1.687641699364866</v>
+        <v>2.324731615461948</v>
       </c>
       <c r="AL136" t="n">
         <v>-10.359640707828</v>
@@ -17367,7 +17367,7 @@
         <v>2.15319183362059</v>
       </c>
       <c r="AN136" t="n">
-        <v>-6.518807174842548</v>
+        <v>-5.881717258745466</v>
       </c>
     </row>
     <row r="137">
@@ -17398,7 +17398,7 @@
         <v>0.126027397852735</v>
       </c>
       <c r="I137" t="n">
-        <v>0.09537652044518113</v>
+        <v>0.09573616009020702</v>
       </c>
       <c r="J137" t="n">
         <v>-0.002966022272226531</v>
@@ -17482,7 +17482,7 @@
         <v>0.004627323146514133</v>
       </c>
       <c r="AK137" t="n">
-        <v>-2.280650690513531</v>
+        <v>-2.274896456193117</v>
       </c>
       <c r="AL137" t="n">
         <v>-10.28094554376941</v>
@@ -17491,7 +17491,7 @@
         <v>1.980404689698555</v>
       </c>
       <c r="AN137" t="n">
-        <v>-10.58119154458438</v>
+        <v>-10.57543731026397</v>
       </c>
     </row>
     <row r="138">
@@ -17522,7 +17522,7 @@
         <v>0.0329127898830992</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01829546284562066</v>
+        <v>0.01838432658555489</v>
       </c>
       <c r="J138" t="n">
         <v>-0.01338329868521804</v>
@@ -17606,7 +17606,7 @@
         <v>-0.02887904404389346</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.1013831280559092</v>
+        <v>0.1028049478948569</v>
       </c>
       <c r="AL138" t="n">
         <v>-10.98654883881618</v>
@@ -17615,7 +17615,7 @@
         <v>2.443723583836626</v>
       </c>
       <c r="AN138" t="n">
-        <v>-8.441442126923645</v>
+        <v>-8.440020307084698</v>
       </c>
     </row>
     <row r="139">
@@ -17770,7 +17770,7 @@
         <v>0.1772998509771252</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1775646775138739</v>
+        <v>0.1776878832318267</v>
       </c>
       <c r="J140" t="n">
         <v>-0.07416472806600623</v>
@@ -17854,7 +17854,7 @@
         <v>0.004016343413390189</v>
       </c>
       <c r="AK140" t="n">
-        <v>3.713453100539519</v>
+        <v>3.715424392026764</v>
       </c>
       <c r="AL140" t="n">
         <v>-10.49649654345403</v>
@@ -17863,7 +17863,7 @@
         <v>2.21712440455058</v>
       </c>
       <c r="AN140" t="n">
-        <v>-4.565919038363935</v>
+        <v>-4.563947746876691</v>
       </c>
     </row>
     <row r="141">
@@ -18018,7 +18018,7 @@
         <v>0.1275333609928641</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1442113165032455</v>
+        <v>0.1443368179526403</v>
       </c>
       <c r="J142" t="n">
         <v>-0.002740612045213057</v>
@@ -18102,7 +18102,7 @@
         <v>-0.07024608750793672</v>
       </c>
       <c r="AK142" t="n">
-        <v>-0.1328882937554312</v>
+        <v>-0.1308802705651144</v>
       </c>
       <c r="AL142" t="n">
         <v>-10.84148915726051</v>
@@ -18111,7 +18111,7 @@
         <v>2.285423820196082</v>
       </c>
       <c r="AN142" t="n">
-        <v>-8.688953630819865</v>
+        <v>-8.686945607629548</v>
       </c>
     </row>
     <row r="143">
@@ -18142,7 +18142,7 @@
         <v>0.1772157036775868</v>
       </c>
       <c r="I143" t="n">
-        <v>0.034663293565548</v>
+        <v>0.03483352023816373</v>
       </c>
       <c r="J143" t="n">
         <v>-0.02029423440523825</v>
@@ -18226,7 +18226,7 @@
         <v>0.04795996658599886</v>
       </c>
       <c r="AK143" t="n">
-        <v>-2.039588206178161</v>
+        <v>-2.036864579416309</v>
       </c>
       <c r="AL143" t="n">
         <v>-9.144541282086077</v>
@@ -18235,7 +18235,7 @@
         <v>1.80224759421804</v>
       </c>
       <c r="AN143" t="n">
-        <v>-9.381881894046199</v>
+        <v>-9.379158267284346</v>
       </c>
     </row>
     <row r="144">
@@ -18266,7 +18266,7 @@
         <v>0.08438172351902787</v>
       </c>
       <c r="I144" t="n">
-        <v>0.129993813958835</v>
+        <v>0.1300828525990135</v>
       </c>
       <c r="J144" t="n">
         <v>-0.07955408683084521</v>
@@ -18350,7 +18350,7 @@
         <v>0.2811015411984937</v>
       </c>
       <c r="AK144" t="n">
-        <v>1.24760720236967</v>
+        <v>1.249031820612527</v>
       </c>
       <c r="AL144" t="n">
         <v>-12.87431675816669</v>
@@ -18359,7 +18359,7 @@
         <v>2.346325491531209</v>
       </c>
       <c r="AN144" t="n">
-        <v>-9.280384064265808</v>
+        <v>-9.278959446022951</v>
       </c>
     </row>
     <row r="145">
@@ -18390,7 +18390,7 @@
         <v>0.092741399255684</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1374951601171064</v>
+        <v>0.1376674560181975</v>
       </c>
       <c r="J145" t="n">
         <v>-0.07574635354429657</v>
@@ -18474,7 +18474,7 @@
         <v>0.1794319315472532</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.05300983737452934</v>
+        <v>0.05576657179198817</v>
       </c>
       <c r="AL145" t="n">
         <v>-9.810732322379135</v>
@@ -18483,7 +18483,7 @@
         <v>2.835680215540036</v>
       </c>
       <c r="AN145" t="n">
-        <v>-6.922042269464569</v>
+        <v>-6.919285535047111</v>
       </c>
     </row>
     <row r="146">
@@ -18514,7 +18514,7 @@
         <v>0.06759542049877014</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1382083368521586</v>
+        <v>0.1386681522797727</v>
       </c>
       <c r="J146" t="n">
         <v>-0.07708069187590708</v>
@@ -18598,7 +18598,7 @@
         <v>0.1467939995270025</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.6110683110323627</v>
+        <v>0.6184253578741875</v>
       </c>
       <c r="AL146" t="n">
         <v>-9.929866801649126</v>
@@ -18607,7 +18607,7 @@
         <v>1.884881904107643</v>
       </c>
       <c r="AN146" t="n">
-        <v>-7.433916586509121</v>
+        <v>-7.426559539667296</v>
       </c>
     </row>
     <row r="147">
@@ -18638,7 +18638,7 @@
         <v>0.03305794782036064</v>
       </c>
       <c r="I147" t="n">
-        <v>0.07036232095573743</v>
+        <v>0.07174010491057928</v>
       </c>
       <c r="J147" t="n">
         <v>-0.112095273200268</v>
@@ -18722,7 +18722,7 @@
         <v>0.05627153209299154</v>
       </c>
       <c r="AK147" t="n">
-        <v>2.478219163574973</v>
+        <v>2.500263706852443</v>
       </c>
       <c r="AL147" t="n">
         <v>-10.83928864216463</v>
@@ -18731,7 +18731,7 @@
         <v>1.567782485579664</v>
       </c>
       <c r="AN147" t="n">
-        <v>-6.793286993009994</v>
+        <v>-6.771242449732523</v>
       </c>
     </row>
     <row r="148">
@@ -18762,7 +18762,7 @@
         <v>0.05552996234838135</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1266160459218598</v>
+        <v>0.1297027155142988</v>
       </c>
       <c r="J148" t="n">
         <v>-0.1211969422684071</v>
@@ -18846,7 +18846,7 @@
         <v>0.02553700368941194</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.06476211269469</v>
+        <v>1.114148826173713</v>
       </c>
       <c r="AL148" t="n">
         <v>-8.743028378214424</v>
@@ -18855,7 +18855,7 @@
         <v>1.956643845860841</v>
       </c>
       <c r="AN148" t="n">
-        <v>-5.721622419658893</v>
+        <v>-5.67223570617987</v>
       </c>
     </row>
     <row r="149">
@@ -18886,7 +18886,7 @@
         <v>0.07407470803552042</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1454358030942971</v>
+        <v>0.154660954735086</v>
       </c>
       <c r="J149" t="n">
         <v>-0.08367682214386453</v>
@@ -18970,7 +18970,7 @@
         <v>0.2177384989295042</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.493224649990494</v>
+        <v>2.640827076243115</v>
       </c>
       <c r="AL149" t="n">
         <v>-9.233501954532898</v>
@@ -18979,7 +18979,7 @@
         <v>3.02067387909264</v>
       </c>
       <c r="AN149" t="n">
-        <v>-3.719603425449764</v>
+        <v>-3.572000999197142</v>
       </c>
     </row>
     <row r="150">
@@ -19010,7 +19010,7 @@
         <v>0.2290066164151567</v>
       </c>
       <c r="I150" t="n">
-        <v>0.2456048258045752</v>
+        <v>0.2458565983649257</v>
       </c>
       <c r="J150" t="n">
         <v>-0.001587713858733863</v>
@@ -19094,7 +19094,7 @@
         <v>-0.02818456282930008</v>
       </c>
       <c r="AK150" t="n">
-        <v>2.394228035539593</v>
+        <v>2.398256396505202</v>
       </c>
       <c r="AL150" t="n">
         <v>-14.1040491978401</v>
@@ -19103,7 +19103,7 @@
         <v>2.541339927396203</v>
       </c>
       <c r="AN150" t="n">
-        <v>-9.168481234904302</v>
+        <v>-9.164452873938693</v>
       </c>
     </row>
     <row r="151">
@@ -19134,7 +19134,7 @@
         <v>0.1440747379411877</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1758136328527961</v>
+        <v>0.1759033661657642</v>
       </c>
       <c r="J151" t="n">
         <v>-0.001557064793723939</v>
@@ -19218,7 +19218,7 @@
         <v>-0.0420318953441734</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.8417551495240079</v>
+        <v>0.8431908825314969</v>
       </c>
       <c r="AL151" t="n">
         <v>-11.55488254016868</v>
@@ -19227,7 +19227,7 @@
         <v>1.908386122460399</v>
       </c>
       <c r="AN151" t="n">
-        <v>-8.804741268184276</v>
+        <v>-8.803305535176788</v>
       </c>
     </row>
     <row r="152">
@@ -19258,7 +19258,7 @@
         <v>0.07751814229900895</v>
       </c>
       <c r="I152" t="n">
-        <v>0.1320460528987011</v>
+        <v>0.1878443127912281</v>
       </c>
       <c r="J152" t="n">
         <v>-0.123565936365708</v>
@@ -19342,7 +19342,7 @@
         <v>0.2257968305255448</v>
       </c>
       <c r="AK152" t="n">
-        <v>1.210115063110633</v>
+        <v>2.102887221391066</v>
       </c>
       <c r="AL152" t="n">
         <v>-10.50896334152284</v>
@@ -19351,7 +19351,7 @@
         <v>2.023996130840089</v>
       </c>
       <c r="AN152" t="n">
-        <v>-7.274852147572119</v>
+        <v>-6.382079989291686</v>
       </c>
     </row>
     <row r="153">
@@ -19382,7 +19382,7 @@
         <v>0.09105010234355213</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1241644708618658</v>
+        <v>0.12739195041103</v>
       </c>
       <c r="J153" t="n">
         <v>-0.07855904081714211</v>
@@ -19466,7 +19466,7 @@
         <v>0.1238008829510981</v>
       </c>
       <c r="AK153" t="n">
-        <v>1.039663969594544</v>
+        <v>1.091303642381172</v>
       </c>
       <c r="AL153" t="n">
         <v>-8.995593587954794</v>
@@ -19475,7 +19475,7 @@
         <v>1.919667287367621</v>
       </c>
       <c r="AN153" t="n">
-        <v>-6.036262330992628</v>
+        <v>-5.984622658206</v>
       </c>
     </row>
     <row r="154">
@@ -19506,7 +19506,7 @@
         <v>0.1487077474433127</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1861219968735701</v>
+        <v>0.2289366979665703</v>
       </c>
       <c r="J154" t="n">
         <v>-0.1195372197852199</v>
@@ -19590,7 +19590,7 @@
         <v>0.2039021389741898</v>
       </c>
       <c r="AK154" t="n">
-        <v>3.593572936266913</v>
+        <v>4.278608153754917</v>
       </c>
       <c r="AL154" t="n">
         <v>-8.943398068057125</v>
@@ -19599,7 +19599,7 @@
         <v>3.18031209218228</v>
       </c>
       <c r="AN154" t="n">
-        <v>-2.169513039607931</v>
+        <v>-1.484477822119928</v>
       </c>
     </row>
     <row r="155">
@@ -19630,7 +19630,7 @@
         <v>0.04192458732244592</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1382769933308524</v>
+        <v>0.1483597402913025</v>
       </c>
       <c r="J155" t="n">
         <v>-0.09444254426648598</v>
@@ -19714,7 +19714,7 @@
         <v>0.2160151335558353</v>
       </c>
       <c r="AK155" t="n">
-        <v>2.805530277028074</v>
+        <v>2.966854228395276</v>
       </c>
       <c r="AL155" t="n">
         <v>-9.191514744549854</v>
@@ -19723,7 +19723,7 @@
         <v>2.772752858746185</v>
       </c>
       <c r="AN155" t="n">
-        <v>-3.613231608775595</v>
+        <v>-3.451907657408393</v>
       </c>
     </row>
     <row r="156">
@@ -19754,7 +19754,7 @@
         <v>0.1326785127756553</v>
       </c>
       <c r="I156" t="n">
-        <v>0.2147101815446113</v>
+        <v>0.2713921555893889</v>
       </c>
       <c r="J156" t="n">
         <v>-0.0388884285028156</v>
@@ -19838,7 +19838,7 @@
         <v>0.1262830990458565</v>
       </c>
       <c r="AK156" t="n">
-        <v>2.654904881350795</v>
+        <v>3.561816466067236</v>
       </c>
       <c r="AL156" t="n">
         <v>-8.61668277647947</v>
@@ -19847,7 +19847,7 @@
         <v>2.761517985034063</v>
       </c>
       <c r="AN156" t="n">
-        <v>-3.200259910094612</v>
+        <v>-2.293348325378171</v>
       </c>
     </row>
     <row r="157">
@@ -19878,7 +19878,7 @@
         <v>0.0756425646351342</v>
       </c>
       <c r="I157" t="n">
-        <v>0.100540251120064</v>
+        <v>0.1011803044762406</v>
       </c>
       <c r="J157" t="n">
         <v>-0.008195081919713737</v>
@@ -19962,7 +19962,7 @@
         <v>-0.05252915257097401</v>
       </c>
       <c r="AK157" t="n">
-        <v>-1.180863461558722</v>
+        <v>-1.170622607859896</v>
       </c>
       <c r="AL157" t="n">
         <v>-10.43427905361962</v>
@@ -19971,7 +19971,7 @@
         <v>1.449690068219654</v>
       </c>
       <c r="AN157" t="n">
-        <v>-10.16545244695869</v>
+        <v>-10.15521159325987</v>
       </c>
     </row>
     <row r="158">
@@ -20002,7 +20002,7 @@
         <v>0.04189849612137526</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1167827194684824</v>
+        <v>0.1364725538982209</v>
       </c>
       <c r="J158" t="n">
         <v>-0.1034351387957499</v>
@@ -20086,7 +20086,7 @@
         <v>0.2837989100423026</v>
       </c>
       <c r="AK158" t="n">
-        <v>2.105056879454139</v>
+        <v>2.420094230329954</v>
       </c>
       <c r="AL158" t="n">
         <v>-8.566300087221352</v>
@@ -20095,7 +20095,7 @@
         <v>2.801788565973822</v>
       </c>
       <c r="AN158" t="n">
-        <v>-3.659454641793391</v>
+        <v>-3.344417290917576</v>
       </c>
     </row>
     <row r="159">
@@ -20126,7 +20126,7 @@
         <v>0.07680220481517254</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1250430274113138</v>
+        <v>0.1580971360585217</v>
       </c>
       <c r="J159" t="n">
         <v>-0.1405379353418515</v>
@@ -20210,7 +20210,7 @@
         <v>0.3209978483486542</v>
       </c>
       <c r="AK159" t="n">
-        <v>2.603204660615164</v>
+        <v>3.13207039897049</v>
       </c>
       <c r="AL159" t="n">
         <v>-5.8963406328643</v>
@@ -20219,7 +20219,7 @@
         <v>2.566791396</v>
       </c>
       <c r="AN159" t="n">
-        <v>-0.7263445762491361</v>
+        <v>-0.1974788378938097</v>
       </c>
     </row>
     <row r="160">
@@ -20250,7 +20250,7 @@
         <v>0.1292165127175744</v>
       </c>
       <c r="I160" t="n">
-        <v>0.1649109590883863</v>
+        <v>0.2191428347476475</v>
       </c>
       <c r="J160" t="n">
         <v>-0.000792885602137325</v>
@@ -20334,7 +20334,7 @@
         <v>0.07839512731399524</v>
       </c>
       <c r="AK160" t="n">
-        <v>0.1395304518826055</v>
+        <v>1.007240462430783</v>
       </c>
       <c r="AL160" t="n">
         <v>-7.470476787769698</v>
@@ -20343,7 +20343,7 @@
         <v>1.943376229480157</v>
       </c>
       <c r="AN160" t="n">
-        <v>-5.387570106406935</v>
+        <v>-4.519860095858758</v>
       </c>
     </row>
     <row r="161">
@@ -20374,7 +20374,7 @@
         <v>0.1630912677220231</v>
       </c>
       <c r="I161" t="n">
-        <v>0.1478041795689589</v>
+        <v>0.1479357905963919</v>
       </c>
       <c r="J161" t="n">
         <v>-0.0002105776438928489</v>
@@ -20458,7 +20458,7 @@
         <v>-0.1228790364151159</v>
       </c>
       <c r="AK161" t="n">
-        <v>0.3949271288704178</v>
+        <v>0.3970329053093463</v>
       </c>
       <c r="AL161" t="n">
         <v>-11.4502213929782</v>
@@ -20467,7 +20467,7 @@
         <v>2.572732680729677</v>
       </c>
       <c r="AN161" t="n">
-        <v>-8.482561583378104</v>
+        <v>-8.480455806939174</v>
       </c>
     </row>
     <row r="162">
@@ -20498,7 +20498,7 @@
         <v>0.1420797547358446</v>
       </c>
       <c r="I162" t="n">
-        <v>0.1412642719017842</v>
+        <v>0.1889382212932513</v>
       </c>
       <c r="J162" t="n">
         <v>-0.1130161112119199</v>
@@ -20582,7 +20582,7 @@
         <v>0.2797693085251196</v>
       </c>
       <c r="AK162" t="n">
-        <v>2.976470009458366</v>
+        <v>3.739253199721841</v>
       </c>
       <c r="AL162" t="n">
         <v>-8.045473164963306</v>
@@ -20591,7 +20591,7 @@
         <v>2.839958685856766</v>
       </c>
       <c r="AN162" t="n">
-        <v>-2.229044469648174</v>
+        <v>-1.4662612793847</v>
       </c>
     </row>
     <row r="163">
@@ -20622,7 +20622,7 @@
         <v>0.08656570299379036</v>
       </c>
       <c r="I163" t="n">
-        <v>0.1054472768145757</v>
+        <v>0.1381759880241628</v>
       </c>
       <c r="J163" t="n">
         <v>-0.1145128454035439</v>
@@ -20706,7 +20706,7 @@
         <v>0.1422986865441846</v>
       </c>
       <c r="AK163" t="n">
-        <v>3.097571424386772</v>
+        <v>3.621230803740165</v>
       </c>
       <c r="AL163" t="n">
         <v>-10.02898039831704</v>
@@ -20715,7 +20715,7 @@
         <v>1.958763450397016</v>
       </c>
       <c r="AN163" t="n">
-        <v>-4.972645523533251</v>
+        <v>-4.448986144179858</v>
       </c>
     </row>
     <row r="164">
@@ -20870,7 +20870,7 @@
         <v>0.02847942889882703</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1395787535505369</v>
+        <v>0.1409704332243104</v>
       </c>
       <c r="J165" t="n">
         <v>-0.08025907186074566</v>
@@ -20954,7 +20954,7 @@
         <v>0.2534432936141042</v>
       </c>
       <c r="AK165" t="n">
-        <v>1.251045575604976</v>
+        <v>1.273312450385352</v>
       </c>
       <c r="AL165" t="n">
         <v>-8.912998047912499</v>
@@ -20963,7 +20963,7 @@
         <v>2.516395805058615</v>
       </c>
       <c r="AN165" t="n">
-        <v>-5.145556667248908</v>
+        <v>-5.123289792468531</v>
       </c>
     </row>
     <row r="166">
@@ -20994,7 +20994,7 @@
         <v>0.1464647559781105</v>
       </c>
       <c r="I166" t="n">
-        <v>0.1509343877504469</v>
+        <v>0.2119981761390458</v>
       </c>
       <c r="J166" t="n">
         <v>-0.08068579989920889</v>
@@ -21078,7 +21078,7 @@
         <v>0.2591291549157473</v>
       </c>
       <c r="AK166" t="n">
-        <v>1.869938910074949</v>
+        <v>2.84695952429253</v>
       </c>
       <c r="AL166" t="n">
         <v>-9.642205030561344</v>
@@ -21087,7 +21087,7 @@
         <v>2.152744362981671</v>
       </c>
       <c r="AN166" t="n">
-        <v>-5.619521757504725</v>
+        <v>-4.642501143287143</v>
       </c>
     </row>
     <row r="167">
@@ -21118,7 +21118,7 @@
         <v>0.07327987438841548</v>
       </c>
       <c r="I167" t="n">
-        <v>0.1765739830372772</v>
+        <v>0.1997847402068046</v>
       </c>
       <c r="J167" t="n">
         <v>-0.0528237567670651</v>
@@ -21202,7 +21202,7 @@
         <v>0.05074028835899175</v>
       </c>
       <c r="AK167" t="n">
-        <v>0.06675558622173541</v>
+        <v>0.4381277009341723</v>
       </c>
       <c r="AL167" t="n">
         <v>-8.295054975684208</v>
@@ -21211,7 +21211,7 @@
         <v>3.089930255666845</v>
       </c>
       <c r="AN167" t="n">
-        <v>-5.138369133795628</v>
+        <v>-4.76699701908319</v>
       </c>
     </row>
     <row r="168">
@@ -21242,7 +21242,7 @@
         <v>0.1547161673316469</v>
       </c>
       <c r="I168" t="n">
-        <v>0.1680443900253251</v>
+        <v>0.1687140032693993</v>
       </c>
       <c r="J168" t="n">
         <v>-0.001285182714326708</v>
@@ -21326,7 +21326,7 @@
         <v>-0.1468047655011192</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.5167761115423007</v>
+        <v>0.5274899234474874</v>
       </c>
       <c r="AL168" t="n">
         <v>-10.76958255958851</v>
@@ -21335,7 +21335,7 @@
         <v>2.226921032659365</v>
       </c>
       <c r="AN168" t="n">
-        <v>-8.025885415386846</v>
+        <v>-8.015171603481662</v>
       </c>
     </row>
     <row r="169">
@@ -21366,7 +21366,7 @@
         <v>0.1476985541683289</v>
       </c>
       <c r="I169" t="n">
-        <v>0.1053958561498321</v>
+        <v>0.1055283602212108</v>
       </c>
       <c r="J169" t="n">
         <v>-0.08885203471124854</v>
@@ -21450,7 +21450,7 @@
         <v>0.03559215304512069</v>
       </c>
       <c r="AK169" t="n">
-        <v>-0.4990625740252904</v>
+        <v>-0.4969425088832314</v>
       </c>
       <c r="AL169" t="n">
         <v>-9.609318240946729</v>
@@ -21459,7 +21459,7 @@
         <v>2.056037247723291</v>
       </c>
       <c r="AN169" t="n">
-        <v>-8.052343567248728</v>
+        <v>-8.05022350210667</v>
       </c>
     </row>
     <row r="170">
@@ -21490,7 +21490,7 @@
         <v>0.04251049147764056</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1832072057239688</v>
+        <v>0.1955481717042351</v>
       </c>
       <c r="J170" t="n">
         <v>-0.001496371415238474</v>
@@ -21574,7 +21574,7 @@
         <v>-0.04612204868726691</v>
       </c>
       <c r="AK170" t="n">
-        <v>2.10774819698017</v>
+        <v>2.30520365266443</v>
       </c>
       <c r="AL170" t="n">
         <v>-12.35643114738403</v>
@@ -21583,7 +21583,7 @@
         <v>2.13421726539233</v>
       </c>
       <c r="AN170" t="n">
-        <v>-8.114465685011529</v>
+        <v>-7.917010229327269</v>
       </c>
     </row>
     <row r="171">
@@ -21614,7 +21614,7 @@
         <v>0.0223548398992476</v>
       </c>
       <c r="I171" t="n">
-        <v>0.09698008731684546</v>
+        <v>0.1169615026090487</v>
       </c>
       <c r="J171" t="n">
         <v>-0.1355106142848735</v>
@@ -21698,7 +21698,7 @@
         <v>0.1530485017959816</v>
       </c>
       <c r="AK171" t="n">
-        <v>1.187508852848593</v>
+        <v>1.507211497523845</v>
       </c>
       <c r="AL171" t="n">
         <v>-11.48594968308679</v>
@@ -21707,7 +21707,7 @@
         <v>2.35348857347212</v>
       </c>
       <c r="AN171" t="n">
-        <v>-7.944952256766081</v>
+        <v>-7.625249612090828</v>
       </c>
     </row>
   </sheetData>

--- a/input/comp_mrs_dog.xlsx
+++ b/input/comp_mrs_dog.xlsx
@@ -742,7 +742,7 @@
         <v>0.07266271332963334</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2496469402937692</v>
+        <v>0.06926169836713744</v>
       </c>
       <c r="AL2" t="n">
         <v>-11.7593222248522</v>
@@ -751,7 +751,7 @@
         <v>1.982485564443892</v>
       </c>
       <c r="AN2" t="n">
-        <v>-9.527189720114537</v>
+        <v>-9.707574962041168</v>
       </c>
     </row>
     <row r="3">
@@ -866,7 +866,7 @@
         <v>0.2096921549749869</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.365404665970308</v>
+        <v>0.6411743334691035</v>
       </c>
       <c r="AL3" t="n">
         <v>-10.79647152089053</v>
@@ -875,7 +875,7 @@
         <v>2.824992738297468</v>
       </c>
       <c r="AN3" t="n">
-        <v>-4.606074116622756</v>
+        <v>-7.330304449123961</v>
       </c>
     </row>
     <row r="4">
@@ -990,7 +990,7 @@
         <v>0.2502810135289197</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.393461585015515</v>
+        <v>0.5151389990516401</v>
       </c>
       <c r="AL4" t="n">
         <v>-9.588571811947473</v>
@@ -999,7 +999,7 @@
         <v>2.988979749536568</v>
       </c>
       <c r="AN4" t="n">
-        <v>-3.20613047739539</v>
+        <v>-6.084453063359264</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +1114,7 @@
         <v>0.1501479957848963</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.329086748172507</v>
+        <v>0.1170120111459167</v>
       </c>
       <c r="AL5" t="n">
         <v>-11.62308959786551</v>
@@ -1123,7 +1123,7 @@
         <v>2.396621156425506</v>
       </c>
       <c r="AN5" t="n">
-        <v>-6.897381693267498</v>
+        <v>-9.109456430294088</v>
       </c>
     </row>
     <row r="6">
@@ -1238,7 +1238,7 @@
         <v>0.04652606636635023</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.396105029129937</v>
+        <v>0.7572846702298014</v>
       </c>
       <c r="AL6" t="n">
         <v>-12.53772515753643</v>
@@ -1247,7 +1247,7 @@
         <v>1.926396978431585</v>
       </c>
       <c r="AN6" t="n">
-        <v>-8.215223149974909</v>
+        <v>-9.854043508875044</v>
       </c>
     </row>
     <row r="7">
@@ -1362,7 +1362,7 @@
         <v>0.06158194480999297</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.27617584692219</v>
+        <v>0.1740557208400462</v>
       </c>
       <c r="AL7" t="n">
         <v>-9.977139786237682</v>
@@ -1371,7 +1371,7 @@
         <v>2.559754237381127</v>
       </c>
       <c r="AN7" t="n">
-        <v>-5.141209701934367</v>
+        <v>-7.243329828016509</v>
       </c>
     </row>
     <row r="8">
@@ -1486,7 +1486,7 @@
         <v>0.25151161034134</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.466139052640767</v>
+        <v>1.115137601408287</v>
       </c>
       <c r="AL8" t="n">
         <v>-9.177366221063243</v>
@@ -1495,7 +1495,7 @@
         <v>2.850968133067187</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1.860259035355289</v>
+        <v>-5.211260486587769</v>
       </c>
     </row>
     <row r="9">
@@ -1610,7 +1610,7 @@
         <v>-0.1690909868415308</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.646348280806642</v>
+        <v>0.1191066280433973</v>
       </c>
       <c r="AL9" t="n">
         <v>-12.75338850422631</v>
@@ -1619,7 +1619,7 @@
         <v>2.266209328061446</v>
       </c>
       <c r="AN9" t="n">
-        <v>-8.840830895358224</v>
+        <v>-10.36807254812147</v>
       </c>
     </row>
     <row r="10">
@@ -1734,7 +1734,7 @@
         <v>0.05795441806135042</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.434497356208212</v>
+        <v>0.211809744977536</v>
       </c>
       <c r="AL10" t="n">
         <v>-11.11417087530666</v>
@@ -1743,7 +1743,7 @@
         <v>3.229072804533929</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.450600714564518</v>
+        <v>-7.673288325795193</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1858,7 @@
         <v>0.2551242350281372</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.018545138073526</v>
+        <v>0.9472397186988336</v>
       </c>
       <c r="AL11" t="n">
         <v>-10.00104715613588</v>
@@ -1867,7 +1867,7 @@
         <v>3.157101240805398</v>
       </c>
       <c r="AN11" t="n">
-        <v>-2.82540077725696</v>
+        <v>-5.896706196631653</v>
       </c>
     </row>
     <row r="12">
@@ -1982,7 +1982,7 @@
         <v>0.1005911473269495</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.370754551164801</v>
+        <v>0.2886798239722412</v>
       </c>
       <c r="AL12" t="n">
         <v>-11.17413998427603</v>
@@ -1991,7 +1991,7 @@
         <v>2.325179694425028</v>
       </c>
       <c r="AN12" t="n">
-        <v>-6.478205738686198</v>
+        <v>-8.560280465878757</v>
       </c>
     </row>
     <row r="13">
@@ -2106,7 +2106,7 @@
         <v>-0.06105438824678395</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.683873157190078</v>
+        <v>-0.3046292399540775</v>
       </c>
       <c r="AL13" t="n">
         <v>-12.24689581688748</v>
@@ -2115,7 +2115,7 @@
         <v>3.022534412543458</v>
       </c>
       <c r="AN13" t="n">
-        <v>-7.540488247153943</v>
+        <v>-9.5289906442981</v>
       </c>
     </row>
     <row r="14">
@@ -2230,7 +2230,7 @@
         <v>0.1484475430409893</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.93792378275114</v>
+        <v>0.5528329826973005</v>
       </c>
       <c r="AL14" t="n">
         <v>-8.051898171241968</v>
@@ -2239,7 +2239,7 @@
         <v>2.079037696280881</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.034936692209947</v>
+        <v>-5.420027492263786</v>
       </c>
     </row>
     <row r="15">
@@ -2354,7 +2354,7 @@
         <v>0.1539807218308993</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.462360488067094</v>
+        <v>-0.238893554459309</v>
       </c>
       <c r="AL15" t="n">
         <v>-8.451166396474795</v>
@@ -2363,7 +2363,7 @@
         <v>2.252956910384702</v>
       </c>
       <c r="AN15" t="n">
-        <v>-4.735848998022999</v>
+        <v>-6.437103040549403</v>
       </c>
     </row>
     <row r="16">
@@ -2478,7 +2478,7 @@
         <v>0.1496466899910836</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.8042157534226243</v>
+        <v>0.006764216138051277</v>
       </c>
       <c r="AL16" t="n">
         <v>-10.76980608506283</v>
@@ -2487,7 +2487,7 @@
         <v>2.287494107006678</v>
       </c>
       <c r="AN16" t="n">
-        <v>-7.67809622463353</v>
+        <v>-8.475547761918103</v>
       </c>
     </row>
     <row r="17">
@@ -2602,7 +2602,7 @@
         <v>0.2962130218452153</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.26812171068596</v>
+        <v>0.8760989568824644</v>
       </c>
       <c r="AL17" t="n">
         <v>-7.257492808936883</v>
@@ -2611,7 +2611,7 @@
         <v>2.711267782049019</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.278103316201904</v>
+        <v>-3.670126070005399</v>
       </c>
     </row>
     <row r="18">
@@ -2726,7 +2726,7 @@
         <v>0.1372258480690412</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3303768844643679</v>
+        <v>0.0301352236743156</v>
       </c>
       <c r="AL18" t="n">
         <v>-9.571466211515009</v>
@@ -2735,7 +2735,7 @@
         <v>1.731238145367616</v>
       </c>
       <c r="AN18" t="n">
-        <v>-7.509851181683025</v>
+        <v>-7.810092842473077</v>
       </c>
     </row>
     <row r="19">
@@ -2850,7 +2850,7 @@
         <v>0.2600695389083036</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.309171645702981</v>
+        <v>0.9366606424331219</v>
       </c>
       <c r="AL19" t="n">
         <v>-11.40806703865609</v>
@@ -2859,7 +2859,7 @@
         <v>2.315864572906233</v>
       </c>
       <c r="AN19" t="n">
-        <v>-7.783030820046879</v>
+        <v>-8.155541823316739</v>
       </c>
     </row>
     <row r="20">
@@ -2974,7 +2974,7 @@
         <v>-0.09412395573830512</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2232052679482523</v>
+        <v>0.1355160292331186</v>
       </c>
       <c r="AL20" t="n">
         <v>-11.14960785993486</v>
@@ -2983,7 +2983,7 @@
         <v>2.18710745456344</v>
       </c>
       <c r="AN20" t="n">
-        <v>-8.739295137423165</v>
+        <v>-8.826984376138299</v>
       </c>
     </row>
     <row r="21">
@@ -3098,7 +3098,7 @@
         <v>-0.007481135876674387</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.5797323394958284</v>
+        <v>-0.001155407944183209</v>
       </c>
       <c r="AL21" t="n">
         <v>-12.82650814211323</v>
@@ -3107,7 +3107,7 @@
         <v>2.353577778082971</v>
       </c>
       <c r="AN21" t="n">
-        <v>-9.893198024534435</v>
+        <v>-10.47408577197445</v>
       </c>
     </row>
     <row r="22">
@@ -3222,7 +3222,7 @@
         <v>0.1077554255732119</v>
       </c>
       <c r="AK22" t="n">
-        <v>1.891434061638654</v>
+        <v>0.339802044257749</v>
       </c>
       <c r="AL22" t="n">
         <v>-11.05365854488897</v>
@@ -3231,7 +3231,7 @@
         <v>3.258304687144962</v>
       </c>
       <c r="AN22" t="n">
-        <v>-5.903919796105351</v>
+        <v>-7.455551813486256</v>
       </c>
     </row>
     <row r="23">
@@ -3346,7 +3346,7 @@
         <v>0.2036595958697739</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.150908927349668</v>
+        <v>-0</v>
       </c>
       <c r="AL23" t="n">
         <v>-13.12398390372212</v>
@@ -3355,7 +3355,7 @@
         <v>2.718200667416676</v>
       </c>
       <c r="AN23" t="n">
-        <v>-8.254874308955776</v>
+        <v>-10.40578323630544</v>
       </c>
     </row>
     <row r="24">
@@ -3470,7 +3470,7 @@
         <v>-0.0002666945870196709</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.7504461833486071</v>
+        <v>-0.172450296547334</v>
       </c>
       <c r="AL24" t="n">
         <v>-10.99034054021454</v>
@@ -3479,7 +3479,7 @@
         <v>1.305223223231338</v>
       </c>
       <c r="AN24" t="n">
-        <v>-10.43556350033181</v>
+        <v>-9.857567613530541</v>
       </c>
     </row>
     <row r="25">
@@ -3594,7 +3594,7 @@
         <v>0.05306878459793927</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.075670351210638</v>
+        <v>-0.9853875303656798</v>
       </c>
       <c r="AL25" t="n">
         <v>-7.243676507309633</v>
@@ -3603,7 +3603,7 @@
         <v>3.25792022508047</v>
       </c>
       <c r="AN25" t="n">
-        <v>-2.910085931018525</v>
+        <v>-4.971143812594843</v>
       </c>
     </row>
     <row r="26">
@@ -3718,7 +3718,7 @@
         <v>0.02234759951019036</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.334871569570505</v>
+        <v>-0.02145246051750591</v>
       </c>
       <c r="AL26" t="n">
         <v>-12.6627841661494</v>
@@ -3727,7 +3727,7 @@
         <v>2.159781837538</v>
       </c>
       <c r="AN26" t="n">
-        <v>-9.168130759040896</v>
+        <v>-10.5244547891289</v>
       </c>
     </row>
     <row r="27">
@@ -3842,7 +3842,7 @@
         <v>0.1210206071648134</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.3515926073861</v>
+        <v>0.00287622814850054</v>
       </c>
       <c r="AL27" t="n">
         <v>-9.951185141655554</v>
@@ -3851,7 +3851,7 @@
         <v>2.200553715420134</v>
       </c>
       <c r="AN27" t="n">
-        <v>-5.399038818849318</v>
+        <v>-7.74775519808692</v>
       </c>
     </row>
     <row r="28">
@@ -3966,7 +3966,7 @@
         <v>-0.1015215479687227</v>
       </c>
       <c r="AK28" t="n">
-        <v>-2.408184654828837</v>
+        <v>-0.9075248044679389</v>
       </c>
       <c r="AL28" t="n">
         <v>-10.65172517400161</v>
@@ -3975,7 +3975,7 @@
         <v>1.20650060678588</v>
       </c>
       <c r="AN28" t="n">
-        <v>-11.85340922204457</v>
+        <v>-10.35274937168367</v>
       </c>
     </row>
     <row r="29">
@@ -4090,7 +4090,7 @@
         <v>-0.02626326986210848</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.7469149517478646</v>
+        <v>-0.2341992393244924</v>
       </c>
       <c r="AL29" t="n">
         <v>-10.59881515340415</v>
@@ -4099,7 +4099,7 @@
         <v>1.995053108156679</v>
       </c>
       <c r="AN29" t="n">
-        <v>-7.856847093499606</v>
+        <v>-8.837961284571964</v>
       </c>
     </row>
     <row r="30">
@@ -4214,7 +4214,7 @@
         <v>0.2337376841302361</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.658887398332214</v>
+        <v>0.4111902768493249</v>
       </c>
       <c r="AL30" t="n">
         <v>-12.94234416634632</v>
@@ -4223,7 +4223,7 @@
         <v>2.63080341085498</v>
       </c>
       <c r="AN30" t="n">
-        <v>-7.652653357159124</v>
+        <v>-9.900350478642013</v>
       </c>
     </row>
     <row r="31">
@@ -4338,7 +4338,7 @@
         <v>0.03506494125532367</v>
       </c>
       <c r="AK31" t="n">
-        <v>-0.01439171982736522</v>
+        <v>-0.03881118667768291</v>
       </c>
       <c r="AL31" t="n">
         <v>-9.998707088215102</v>
@@ -4347,7 +4347,7 @@
         <v>2.254064771989529</v>
       </c>
       <c r="AN31" t="n">
-        <v>-7.759034036052938</v>
+        <v>-7.783453502903256</v>
       </c>
     </row>
     <row r="32">
@@ -4462,7 +4462,7 @@
         <v>0.1851099426811437</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.522181905497394</v>
+        <v>-1.340911198432094e-05</v>
       </c>
       <c r="AL32" t="n">
         <v>-13.28553285853533</v>
@@ -4471,7 +4471,7 @@
         <v>2.466377417990771</v>
       </c>
       <c r="AN32" t="n">
-        <v>-9.296973535047162</v>
+        <v>-10.81916884965654</v>
       </c>
     </row>
     <row r="33">
@@ -4586,7 +4586,7 @@
         <v>-0.04445006173401439</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.1401208195539494</v>
+        <v>0.106336648238502</v>
       </c>
       <c r="AL33" t="n">
         <v>-12.36817560543482</v>
@@ -4595,7 +4595,7 @@
         <v>1.321288630557237</v>
       </c>
       <c r="AN33" t="n">
-        <v>-10.90676615532363</v>
+        <v>-10.94055032663908</v>
       </c>
     </row>
     <row r="34">
@@ -4710,7 +4710,7 @@
         <v>0.09263953195417346</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.473468113077153</v>
+        <v>-0.06024637775229447</v>
       </c>
       <c r="AL34" t="n">
         <v>-6.525790836593139</v>
@@ -4719,7 +4719,7 @@
         <v>2.295332708068656</v>
       </c>
       <c r="AN34" t="n">
-        <v>-2.75699001544733</v>
+        <v>-4.290704506276779</v>
       </c>
     </row>
     <row r="35">
@@ -4834,7 +4834,7 @@
         <v>0.3488921036616279</v>
       </c>
       <c r="AK35" t="n">
-        <v>4.04541343888613</v>
+        <v>1.043570263957005</v>
       </c>
       <c r="AL35" t="n">
         <v>-9.029699704606241</v>
@@ -4843,7 +4843,7 @@
         <v>2.921626792037109</v>
       </c>
       <c r="AN35" t="n">
-        <v>-2.062659473683002</v>
+        <v>-5.064502648612127</v>
       </c>
     </row>
     <row r="36">
@@ -4958,7 +4958,7 @@
         <v>0.03091123067155705</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.2504865338432088</v>
+        <v>0.2621241535932569</v>
       </c>
       <c r="AL36" t="n">
         <v>-11.71300024367512</v>
@@ -4967,7 +4967,7 @@
         <v>2.662041804378848</v>
       </c>
       <c r="AN36" t="n">
-        <v>-8.800471905453062</v>
+        <v>-8.788834285703013</v>
       </c>
     </row>
     <row r="37">
@@ -5082,7 +5082,7 @@
         <v>0.0567344737783597</v>
       </c>
       <c r="AK37" t="n">
-        <v>1.883848465046533</v>
+        <v>0.01606341690152326</v>
       </c>
       <c r="AL37" t="n">
         <v>-9.49869652494948</v>
@@ -5091,7 +5091,7 @@
         <v>2.452265966414421</v>
       </c>
       <c r="AN37" t="n">
-        <v>-5.162582093488526</v>
+        <v>-7.030367141633535</v>
       </c>
     </row>
     <row r="38">
@@ -5206,7 +5206,7 @@
         <v>0.09913830123284954</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.2362973542106315</v>
+        <v>-0.4192920998372856</v>
       </c>
       <c r="AL38" t="n">
         <v>-11.50883810638006</v>
@@ -5215,7 +5215,7 @@
         <v>1.214086092026202</v>
       </c>
       <c r="AN38" t="n">
-        <v>-10.05845466014323</v>
+        <v>-10.71404411419114</v>
       </c>
     </row>
     <row r="39">
@@ -5330,7 +5330,7 @@
         <v>0.1245367664366711</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.978333808312976</v>
+        <v>0.53161799182104</v>
       </c>
       <c r="AL39" t="n">
         <v>-10.50942092405035</v>
@@ -5339,7 +5339,7 @@
         <v>2.353966381743893</v>
       </c>
       <c r="AN39" t="n">
-        <v>-5.177120733993482</v>
+        <v>-7.623836550485418</v>
       </c>
     </row>
     <row r="40">
@@ -5454,7 +5454,7 @@
         <v>0.0007221732890485396</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.280202894534878</v>
+        <v>-1.443450625002887</v>
       </c>
       <c r="AL40" t="n">
         <v>-13.47950353565217</v>
@@ -5463,7 +5463,7 @@
         <v>1.595355954196678</v>
       </c>
       <c r="AN40" t="n">
-        <v>-11.60394468692061</v>
+        <v>-13.32759820645838</v>
       </c>
     </row>
     <row r="41">
@@ -5578,7 +5578,7 @@
         <v>-0.02972770508385903</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.4676481719869245</v>
+        <v>-2.138979733122355</v>
       </c>
       <c r="AL41" t="n">
         <v>-12.91531569771551</v>
@@ -5587,7 +5587,7 @@
         <v>2.193231160044317</v>
       </c>
       <c r="AN41" t="n">
-        <v>-10.25443636568427</v>
+        <v>-12.86106427079355</v>
       </c>
     </row>
     <row r="42">
@@ -5702,7 +5702,7 @@
         <v>0.04319983072250946</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.3184641613436565</v>
+        <v>-1.313959680274157</v>
       </c>
       <c r="AL42" t="n">
         <v>-7.597523528976012</v>
@@ -5711,7 +5711,7 @@
         <v>2.093590660402022</v>
       </c>
       <c r="AN42" t="n">
-        <v>-5.822397029917647</v>
+        <v>-6.817892548848146</v>
       </c>
     </row>
     <row r="43">
@@ -5826,7 +5826,7 @@
         <v>0.1838995189745202</v>
       </c>
       <c r="AK43" t="n">
-        <v>4.415471885295111</v>
+        <v>0.4195239981498734</v>
       </c>
       <c r="AL43" t="n">
         <v>-9.831264921291664</v>
@@ -5835,7 +5835,7 @@
         <v>2.844241268734032</v>
       </c>
       <c r="AN43" t="n">
-        <v>-2.571551767262521</v>
+        <v>-6.567499654407758</v>
       </c>
     </row>
     <row r="44">
@@ -5950,7 +5950,7 @@
         <v>0.1401552258474265</v>
       </c>
       <c r="AK44" t="n">
-        <v>3.733402673494448</v>
+        <v>0.7483896641280543</v>
       </c>
       <c r="AL44" t="n">
         <v>-9.347188599605477</v>
@@ -5959,7 +5959,7 @@
         <v>2.69592875790635</v>
       </c>
       <c r="AN44" t="n">
-        <v>-2.91785716820468</v>
+        <v>-5.902870177571073</v>
       </c>
     </row>
     <row r="45">
@@ -6074,7 +6074,7 @@
         <v>0.06909199035061322</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.4380166967482873</v>
+        <v>-0.03104571359727792</v>
       </c>
       <c r="AL45" t="n">
         <v>-13.47594955901147</v>
@@ -6083,7 +6083,7 @@
         <v>2.105224658176807</v>
       </c>
       <c r="AN45" t="n">
-        <v>-11.80874159758295</v>
+        <v>-11.40177061443194</v>
       </c>
     </row>
     <row r="46">
@@ -6198,7 +6198,7 @@
         <v>0.1579692274202947</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.3031025343272042</v>
+        <v>-0.7955954178708514</v>
       </c>
       <c r="AL46" t="n">
         <v>-12.17836637337119</v>
@@ -6207,7 +6207,7 @@
         <v>1.882496340225403</v>
       </c>
       <c r="AN46" t="n">
-        <v>-10.59897256747299</v>
+        <v>-11.09146545101664</v>
       </c>
     </row>
     <row r="47">
@@ -6322,7 +6322,7 @@
         <v>-0.02000160997978494</v>
       </c>
       <c r="AK47" t="n">
-        <v>1.379347120601204</v>
+        <v>-0.2225784004869883</v>
       </c>
       <c r="AL47" t="n">
         <v>-6.722520401440502</v>
@@ -6331,7 +6331,7 @@
         <v>3.322850010526614</v>
       </c>
       <c r="AN47" t="n">
-        <v>-2.020323270312684</v>
+        <v>-3.622248791400875</v>
       </c>
     </row>
     <row r="48">
@@ -6446,7 +6446,7 @@
         <v>0.09002268137020791</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.03121232771907767</v>
+        <v>-1.557728508232895</v>
       </c>
       <c r="AL48" t="n">
         <v>-10.34890957427704</v>
@@ -6455,7 +6455,7 @@
         <v>2.448334961485563</v>
       </c>
       <c r="AN48" t="n">
-        <v>-7.931786940510554</v>
+        <v>-9.458303121024372</v>
       </c>
     </row>
     <row r="49">
@@ -6570,7 +6570,7 @@
         <v>0.1715814565692732</v>
       </c>
       <c r="AK49" t="n">
-        <v>3.794936603532461</v>
+        <v>0.3397165551053184</v>
       </c>
       <c r="AL49" t="n">
         <v>-6.886174059002296</v>
@@ -6579,7 +6579,7 @@
         <v>2.839902601579024</v>
       </c>
       <c r="AN49" t="n">
-        <v>-0.2513348538908109</v>
+        <v>-3.706554902317954</v>
       </c>
     </row>
     <row r="50">
@@ -6694,7 +6694,7 @@
         <v>-0.09093580994840726</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.05857381040650839</v>
+        <v>-1.424280216434801</v>
       </c>
       <c r="AL50" t="n">
         <v>-11.3185129821365</v>
@@ -6703,7 +6703,7 @@
         <v>2.525216607984509</v>
       </c>
       <c r="AN50" t="n">
-        <v>-8.734722563745478</v>
+        <v>-10.21757659058679</v>
       </c>
     </row>
     <row r="51">
@@ -6818,7 +6818,7 @@
         <v>0.1560580424000802</v>
       </c>
       <c r="AK51" t="n">
-        <v>1.083782442962599</v>
+        <v>0.003887327139737095</v>
       </c>
       <c r="AL51" t="n">
         <v>-11.44397767834532</v>
@@ -6827,7 +6827,7 @@
         <v>1.946797999340515</v>
       </c>
       <c r="AN51" t="n">
-        <v>-8.413397236042208</v>
+        <v>-9.493292351865071</v>
       </c>
     </row>
     <row r="52">
@@ -6942,7 +6942,7 @@
         <v>-0.2077082796478813</v>
       </c>
       <c r="AK52" t="n">
-        <v>-2.298152750064312</v>
+        <v>-0.6650961889060963</v>
       </c>
       <c r="AL52" t="n">
         <v>-12.57711222015901</v>
@@ -6951,7 +6951,7 @@
         <v>1.933309956327269</v>
       </c>
       <c r="AN52" t="n">
-        <v>-12.94195501389605</v>
+        <v>-11.30889845273784</v>
       </c>
     </row>
     <row r="53">
@@ -7066,7 +7066,7 @@
         <v>0.2569478745805414</v>
       </c>
       <c r="AK53" t="n">
-        <v>1.609604012581665</v>
+        <v>-0.03817039198328421</v>
       </c>
       <c r="AL53" t="n">
         <v>-8.079684942188528</v>
@@ -7075,7 +7075,7 @@
         <v>2.350373486023714</v>
       </c>
       <c r="AN53" t="n">
-        <v>-4.119707443583149</v>
+        <v>-5.767481848148098</v>
       </c>
     </row>
     <row r="54">
@@ -7190,7 +7190,7 @@
         <v>0.1816933742245348</v>
       </c>
       <c r="AK54" t="n">
-        <v>2.200911905766526</v>
+        <v>0.01019918897081136</v>
       </c>
       <c r="AL54" t="n">
         <v>-11.2134410767811</v>
@@ -7199,7 +7199,7 @@
         <v>2.656132764272652</v>
       </c>
       <c r="AN54" t="n">
-        <v>-6.356396406741924</v>
+        <v>-8.54710912353764</v>
       </c>
     </row>
     <row r="55">
@@ -7314,7 +7314,7 @@
         <v>0.1819110967609791</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.9941852135895709</v>
+        <v>0.004969667249321938</v>
       </c>
       <c r="AL55" t="n">
         <v>-9.533136676239527</v>
@@ -7323,7 +7323,7 @@
         <v>1.978824549415278</v>
       </c>
       <c r="AN55" t="n">
-        <v>-6.560126913234678</v>
+        <v>-7.549342459574928</v>
       </c>
     </row>
     <row r="56">
@@ -7438,7 +7438,7 @@
         <v>0.1111309514097872</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.1221213727899783</v>
+        <v>-0.9378230717239237</v>
       </c>
       <c r="AL56" t="n">
         <v>-7.914896659987047</v>
@@ -7447,7 +7447,7 @@
         <v>2.487522546768731</v>
       </c>
       <c r="AN56" t="n">
-        <v>-5.305252740428337</v>
+        <v>-6.36519718494224</v>
       </c>
     </row>
     <row r="57">
@@ -7562,7 +7562,7 @@
         <v>0.1752452879725516</v>
       </c>
       <c r="AK57" t="n">
-        <v>2.65943935874673</v>
+        <v>0.1180465464528532</v>
       </c>
       <c r="AL57" t="n">
         <v>-7.644414549991064</v>
@@ -7571,7 +7571,7 @@
         <v>3.082913411703236</v>
       </c>
       <c r="AN57" t="n">
-        <v>-1.902061779541098</v>
+        <v>-4.443454591834975</v>
       </c>
     </row>
     <row r="58">
@@ -7686,7 +7686,7 @@
         <v>0.2903406134603872</v>
       </c>
       <c r="AK58" t="n">
-        <v>2.681558030303639</v>
+        <v>0.3317203734138236</v>
       </c>
       <c r="AL58" t="n">
         <v>-7.46346555643143</v>
@@ -7695,7 +7695,7 @@
         <v>3.026334215209626</v>
       </c>
       <c r="AN58" t="n">
-        <v>-1.755573310918164</v>
+        <v>-4.10541096780798</v>
       </c>
     </row>
     <row r="59">
@@ -7810,7 +7810,7 @@
         <v>0.0001785114789394253</v>
       </c>
       <c r="AK59" t="n">
-        <v>-3.490459909277174</v>
+        <v>-1.95092793298473</v>
       </c>
       <c r="AL59" t="n">
         <v>-11.40970585399761</v>
@@ -7819,7 +7819,7 @@
         <v>2.127973894528476</v>
       </c>
       <c r="AN59" t="n">
-        <v>-12.77219186874631</v>
+        <v>-11.23265989245386</v>
       </c>
     </row>
     <row r="60">
@@ -7934,7 +7934,7 @@
         <v>0.0008794397853806598</v>
       </c>
       <c r="AK60" t="n">
-        <v>-4.337680144047481</v>
+        <v>-2.420539245186375</v>
       </c>
       <c r="AL60" t="n">
         <v>-12.17128117978374</v>
@@ -7943,7 +7943,7 @@
         <v>1.863676352977317</v>
       </c>
       <c r="AN60" t="n">
-        <v>-14.64528497085391</v>
+        <v>-12.7281440719928</v>
       </c>
     </row>
     <row r="61">
@@ -8058,7 +8058,7 @@
         <v>0.2392312990678294</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.4214512438458213</v>
+        <v>-0.1453163125353056</v>
       </c>
       <c r="AL61" t="n">
         <v>-10.16183652645125</v>
@@ -8067,7 +8067,7 @@
         <v>2.603377124461177</v>
       </c>
       <c r="AN61" t="n">
-        <v>-7.137008158144251</v>
+        <v>-7.703775714525378</v>
       </c>
     </row>
     <row r="62">
@@ -8182,7 +8182,7 @@
         <v>0.2861381433895524</v>
       </c>
       <c r="AK62" t="n">
-        <v>4.685510958747631</v>
+        <v>0.9764656939391477</v>
       </c>
       <c r="AL62" t="n">
         <v>-5.731459250048256</v>
@@ -8191,7 +8191,7 @@
         <v>2.807904940120132</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.761956648819508</v>
+        <v>-1.947088615988976</v>
       </c>
     </row>
     <row r="63">
@@ -8306,7 +8306,7 @@
         <v>0.02421231846412458</v>
       </c>
       <c r="AK63" t="n">
-        <v>-1.784532779828215</v>
+        <v>-0.9005449894410607</v>
       </c>
       <c r="AL63" t="n">
         <v>-9.806990401331399</v>
@@ -8315,7 +8315,7 @@
         <v>1.110301723834436</v>
       </c>
       <c r="AN63" t="n">
-        <v>-10.48122145732518</v>
+        <v>-9.597233666938024</v>
       </c>
     </row>
     <row r="64">
@@ -8430,7 +8430,7 @@
         <v>0.2700738201972069</v>
       </c>
       <c r="AK64" t="n">
-        <v>5.033371203637605</v>
+        <v>0.7026675831896547</v>
       </c>
       <c r="AL64" t="n">
         <v>-7.322769457503619</v>
@@ -8439,7 +8439,7 @@
         <v>2.966931020723821</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.6775327668578068</v>
+        <v>-3.653170853590143</v>
       </c>
     </row>
     <row r="65">
@@ -8554,7 +8554,7 @@
         <v>0.09150980768016342</v>
       </c>
       <c r="AK65" t="n">
-        <v>1.497121309279711</v>
+        <v>0.01728257336353747</v>
       </c>
       <c r="AL65" t="n">
         <v>-8.550008307869977</v>
@@ -8563,7 +8563,7 @@
         <v>2.143290922985067</v>
       </c>
       <c r="AN65" t="n">
-        <v>-4.909596075605199</v>
+        <v>-6.389434811521372</v>
       </c>
     </row>
     <row r="66">
@@ -8678,7 +8678,7 @@
         <v>0.1076508695620903</v>
       </c>
       <c r="AK66" t="n">
-        <v>3.362623574194668</v>
+        <v>-0.005529966879307876</v>
       </c>
       <c r="AL66" t="n">
         <v>-8.737354212697953</v>
@@ -8687,7 +8687,7 @@
         <v>2.433918121628596</v>
       </c>
       <c r="AN66" t="n">
-        <v>-2.940812516874689</v>
+        <v>-6.308966057948666</v>
       </c>
     </row>
     <row r="67">
@@ -8802,7 +8802,7 @@
         <v>0.3160423877674182</v>
       </c>
       <c r="AK67" t="n">
-        <v>3.086032774677967</v>
+        <v>0.9670899489760165</v>
       </c>
       <c r="AL67" t="n">
         <v>-8.202420257616994</v>
@@ -8811,7 +8811,7 @@
         <v>2.606532721370237</v>
       </c>
       <c r="AN67" t="n">
-        <v>-2.50985476156879</v>
+        <v>-4.628797587270741</v>
       </c>
     </row>
     <row r="68">
@@ -8926,7 +8926,7 @@
         <v>0.1850021998328497</v>
       </c>
       <c r="AK68" t="n">
-        <v>1.501515496743567</v>
+        <v>0.03850564122056568</v>
       </c>
       <c r="AL68" t="n">
         <v>-8.47625135836987</v>
@@ -8935,7 +8935,7 @@
         <v>2.515589779621977</v>
       </c>
       <c r="AN68" t="n">
-        <v>-4.459146082004326</v>
+        <v>-5.922155937527328</v>
       </c>
     </row>
     <row r="69">
@@ -9050,7 +9050,7 @@
         <v>0.2775849952755857</v>
       </c>
       <c r="AK69" t="n">
-        <v>2.147813131413412</v>
+        <v>-0.2628357980723937</v>
       </c>
       <c r="AL69" t="n">
         <v>-9.408061412111547</v>
@@ -9059,7 +9059,7 @@
         <v>2.553406261296868</v>
       </c>
       <c r="AN69" t="n">
-        <v>-4.706842019401267</v>
+        <v>-7.117490948887072</v>
       </c>
     </row>
     <row r="70">
@@ -9174,7 +9174,7 @@
         <v>0.0563064883312854</v>
       </c>
       <c r="AK70" t="n">
-        <v>1.067482272024998</v>
+        <v>0.08944259899624687</v>
       </c>
       <c r="AL70" t="n">
         <v>-8.88233198388316</v>
@@ -9183,7 +9183,7 @@
         <v>1.980333696494249</v>
       </c>
       <c r="AN70" t="n">
-        <v>-5.834516015363914</v>
+        <v>-6.812555688392665</v>
       </c>
     </row>
     <row r="71">
@@ -9298,7 +9298,7 @@
         <v>0.1998147055052133</v>
       </c>
       <c r="AK71" t="n">
-        <v>3.956041908278734</v>
+        <v>0.6738601497009131</v>
       </c>
       <c r="AL71" t="n">
         <v>-9.194569786479338</v>
@@ -9307,7 +9307,7 @@
         <v>2.915258061534266</v>
       </c>
       <c r="AN71" t="n">
-        <v>-2.323269816666337</v>
+        <v>-5.60545157524416</v>
       </c>
     </row>
     <row r="72">
@@ -9422,7 +9422,7 @@
         <v>-0.03295218173088205</v>
       </c>
       <c r="AK72" t="n">
-        <v>-0.4498942020695663</v>
+        <v>-1.922332155961165</v>
       </c>
       <c r="AL72" t="n">
         <v>-12.08611100398902</v>
@@ -9431,7 +9431,7 @@
         <v>1.991472897368744</v>
       </c>
       <c r="AN72" t="n">
-        <v>-10.54453230868984</v>
+        <v>-12.01697026258144</v>
       </c>
     </row>
     <row r="73">
@@ -9546,7 +9546,7 @@
         <v>0.03135610442776928</v>
       </c>
       <c r="AK73" t="n">
-        <v>4.391394069093454</v>
+        <v>0.01166214964743761</v>
       </c>
       <c r="AL73" t="n">
         <v>-11.93633320006451</v>
@@ -9555,7 +9555,7 @@
         <v>2.544717952291438</v>
       </c>
       <c r="AN73" t="n">
-        <v>-5.000221178679617</v>
+        <v>-9.379953098125632</v>
       </c>
     </row>
     <row r="74">
@@ -9670,7 +9670,7 @@
         <v>0.1988064577048137</v>
       </c>
       <c r="AK74" t="n">
-        <v>3.278940996838362</v>
+        <v>0.5992797916998194</v>
       </c>
       <c r="AL74" t="n">
         <v>-8.180690025420565</v>
@@ -9679,7 +9679,7 @@
         <v>2.366002688000143</v>
       </c>
       <c r="AN74" t="n">
-        <v>-2.535746340582059</v>
+        <v>-5.215407545720603</v>
       </c>
     </row>
     <row r="75">
@@ -9794,7 +9794,7 @@
         <v>0.3154337569703177</v>
       </c>
       <c r="AK75" t="n">
-        <v>4.282031361565561</v>
+        <v>1.017213229348135</v>
       </c>
       <c r="AL75" t="n">
         <v>-7.191024390570621</v>
@@ -9803,7 +9803,7 @@
         <v>2.678264677601537</v>
       </c>
       <c r="AN75" t="n">
-        <v>-0.2307283514035223</v>
+        <v>-3.495546483620949</v>
       </c>
     </row>
     <row r="76">
@@ -9918,7 +9918,7 @@
         <v>0.1392001608208503</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.249531557570421</v>
+        <v>0.2069613897733393</v>
       </c>
       <c r="AL76" t="n">
         <v>-10.69200272547526</v>
@@ -9927,7 +9927,7 @@
         <v>2.494397362795435</v>
       </c>
       <c r="AN76" t="n">
-        <v>-6.948073805109404</v>
+        <v>-7.990643972906487</v>
       </c>
     </row>
     <row r="77">
@@ -10042,7 +10042,7 @@
         <v>0.1641204189601657</v>
       </c>
       <c r="AK77" t="n">
-        <v>3.693071180548002</v>
+        <v>0.6081348643132892</v>
       </c>
       <c r="AL77" t="n">
         <v>-7.73280622254592</v>
@@ -10051,7 +10051,7 @@
         <v>2.373054628544904</v>
       </c>
       <c r="AN77" t="n">
-        <v>-1.666680413453014</v>
+        <v>-4.751616729687727</v>
       </c>
     </row>
     <row r="78">
@@ -10166,7 +10166,7 @@
         <v>0.2026259369483401</v>
       </c>
       <c r="AK78" t="n">
-        <v>3.754046843698721</v>
+        <v>0.4740643802378544</v>
       </c>
       <c r="AL78" t="n">
         <v>-6.203589031298053</v>
@@ -10175,7 +10175,7 @@
         <v>3.047668085045672</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.5981258974463404</v>
+        <v>-2.681856566014527</v>
       </c>
     </row>
     <row r="79">
@@ -10290,7 +10290,7 @@
         <v>0.2571591641461917</v>
       </c>
       <c r="AK79" t="n">
-        <v>5.109299497945046</v>
+        <v>0.4991927597774608</v>
       </c>
       <c r="AL79" t="n">
         <v>-6.326593803449508</v>
@@ -10299,7 +10299,7 @@
         <v>2.998095499299937</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.780801193795475</v>
+        <v>-2.82930554437211</v>
       </c>
     </row>
     <row r="80">
@@ -10414,7 +10414,7 @@
         <v>0.05139794557285706</v>
       </c>
       <c r="AK80" t="n">
-        <v>3.065446713242374</v>
+        <v>0.01756079226143276</v>
       </c>
       <c r="AL80" t="n">
         <v>-11.40993644727429</v>
@@ -10423,7 +10423,7 @@
         <v>2.013415045137802</v>
       </c>
       <c r="AN80" t="n">
-        <v>-6.331074688894115</v>
+        <v>-9.378960609875058</v>
       </c>
     </row>
     <row r="81">
@@ -10538,7 +10538,7 @@
         <v>0.2286552076181862</v>
       </c>
       <c r="AK81" t="n">
-        <v>2.141108126914316</v>
+        <v>0.03202795922359074</v>
       </c>
       <c r="AL81" t="n">
         <v>-9.227716404410117</v>
@@ -10547,7 +10547,7 @@
         <v>2.568986972995789</v>
       </c>
       <c r="AN81" t="n">
-        <v>-4.517621304500011</v>
+        <v>-6.626701472190737</v>
       </c>
     </row>
     <row r="82">
@@ -10662,7 +10662,7 @@
         <v>-0.03223518003632108</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.3704770161207691</v>
+        <v>-0.07565457262621215</v>
       </c>
       <c r="AL82" t="n">
         <v>-9.437435407552986</v>
@@ -10671,7 +10671,7 @@
         <v>1.87250846798494</v>
       </c>
       <c r="AN82" t="n">
-        <v>-7.194449923447277</v>
+        <v>-7.640581512194258</v>
       </c>
     </row>
     <row r="83">
@@ -10786,7 +10786,7 @@
         <v>0.06319911888754612</v>
       </c>
       <c r="AK83" t="n">
-        <v>2.952522630240073</v>
+        <v>1.659900183126761</v>
       </c>
       <c r="AL83" t="n">
         <v>-11.97719473953711</v>
@@ -10795,7 +10795,7 @@
         <v>2.727880518977305</v>
       </c>
       <c r="AN83" t="n">
-        <v>-6.29679159031973</v>
+        <v>-7.589414037433043</v>
       </c>
     </row>
     <row r="84">
@@ -10910,7 +10910,7 @@
         <v>0.1997947610184442</v>
       </c>
       <c r="AK84" t="n">
-        <v>4.391194840316091</v>
+        <v>0.7297810347048138</v>
       </c>
       <c r="AL84" t="n">
         <v>-5.550990009462243</v>
@@ -10919,7 +10919,7 @@
         <v>2.558311126585456</v>
       </c>
       <c r="AN84" t="n">
-        <v>1.398515957439304</v>
+        <v>-2.262897848171973</v>
       </c>
     </row>
     <row r="85">
@@ -11034,7 +11034,7 @@
         <v>-0.05112431594338047</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.2360433256401414</v>
+        <v>-0.2319625053446809</v>
       </c>
       <c r="AL85" t="n">
         <v>-9.711890026635315</v>
@@ -11043,7 +11043,7 @@
         <v>1.959814633997636</v>
       </c>
       <c r="AN85" t="n">
-        <v>-7.516032066997537</v>
+        <v>-7.984037897982359</v>
       </c>
     </row>
     <row r="86">
@@ -11158,7 +11158,7 @@
         <v>0.2322621447911732</v>
       </c>
       <c r="AK86" t="n">
-        <v>1.026622309844295</v>
+        <v>-0.239140134411506</v>
       </c>
       <c r="AL86" t="n">
         <v>-10.44853568355692</v>
@@ -11167,7 +11167,7 @@
         <v>1.819341721761147</v>
       </c>
       <c r="AN86" t="n">
-        <v>-7.602571651951481</v>
+        <v>-8.868334096207283</v>
       </c>
     </row>
     <row r="87">
@@ -11282,7 +11282,7 @@
         <v>0.2967957069782546</v>
       </c>
       <c r="AK87" t="n">
-        <v>2.894434336012931</v>
+        <v>0.9359039419405358</v>
       </c>
       <c r="AL87" t="n">
         <v>-7.847390299979629</v>
@@ -11291,7 +11291,7 @@
         <v>2.425357899050288</v>
       </c>
       <c r="AN87" t="n">
-        <v>-2.52759806491641</v>
+        <v>-4.486128458988805</v>
       </c>
     </row>
     <row r="88">
@@ -11406,7 +11406,7 @@
         <v>0.01084298328904704</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.1367131018085</v>
+        <v>-0.06477688472017636</v>
       </c>
       <c r="AL88" t="n">
         <v>-9.090333260003838</v>
@@ -11415,7 +11415,7 @@
         <v>1.274613539470903</v>
       </c>
       <c r="AN88" t="n">
-        <v>-6.679006618724435</v>
+        <v>-7.880496605253112</v>
       </c>
     </row>
     <row r="89">
@@ -11530,7 +11530,7 @@
         <v>0.1915188804052421</v>
       </c>
       <c r="AK89" t="n">
-        <v>1.968221971744242</v>
+        <v>0.7838314525462468</v>
       </c>
       <c r="AL89" t="n">
         <v>-8.988068396175153</v>
@@ -11539,7 +11539,7 @@
         <v>2.381801182601639</v>
       </c>
       <c r="AN89" t="n">
-        <v>-4.638045241829273</v>
+        <v>-5.822435761027267</v>
       </c>
     </row>
     <row r="90">
@@ -11654,7 +11654,7 @@
         <v>0.2306404980166452</v>
       </c>
       <c r="AK90" t="n">
-        <v>3.322865635480193</v>
+        <v>0.7432234474006838</v>
       </c>
       <c r="AL90" t="n">
         <v>-5.614459330744943</v>
@@ -11663,7 +11663,7 @@
         <v>2.655563428030504</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.3639697327657538</v>
+        <v>-2.215672455313755</v>
       </c>
     </row>
     <row r="91">
@@ -11778,7 +11778,7 @@
         <v>0.2126870273645982</v>
       </c>
       <c r="AK91" t="n">
-        <v>3.592220579167202</v>
+        <v>0.4500909457922981</v>
       </c>
       <c r="AL91" t="n">
         <v>-6.932843760220323</v>
@@ -11787,7 +11787,7 @@
         <v>2.433837675097362</v>
       </c>
       <c r="AN91" t="n">
-        <v>-0.9067855059557588</v>
+        <v>-4.048915139330663</v>
       </c>
     </row>
     <row r="92">
@@ -11902,7 +11902,7 @@
         <v>0.194654101420828</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.557808993821377</v>
+        <v>0.236010380991393</v>
       </c>
       <c r="AL92" t="n">
         <v>-6.77061848153161</v>
@@ -11911,7 +11911,7 @@
         <v>1.972188058716642</v>
       </c>
       <c r="AN92" t="n">
-        <v>-3.24062142899359</v>
+        <v>-4.562420041823574</v>
       </c>
     </row>
     <row r="93">
@@ -12026,7 +12026,7 @@
         <v>0.2608321684737274</v>
       </c>
       <c r="AK93" t="n">
-        <v>3.298507189475503</v>
+        <v>0.5049059281702621</v>
       </c>
       <c r="AL93" t="n">
         <v>-5.873510411949113</v>
@@ -12035,7 +12035,7 @@
         <v>2.855159933826961</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.2801567113533516</v>
+        <v>-2.513444549951889</v>
       </c>
     </row>
     <row r="94">
@@ -12150,7 +12150,7 @@
         <v>0.06603568266083214</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.630972220547353</v>
+        <v>-0.002290950514254206</v>
       </c>
       <c r="AL94" t="n">
         <v>-9.820515667413837</v>
@@ -12159,7 +12159,7 @@
         <v>1.928244044616695</v>
       </c>
       <c r="AN94" t="n">
-        <v>-7.261299402249788</v>
+        <v>-7.894562573311395</v>
       </c>
     </row>
     <row r="95">
@@ -12274,7 +12274,7 @@
         <v>0.2273493467500137</v>
       </c>
       <c r="AK95" t="n">
-        <v>0.820598206340603</v>
+        <v>-0.2001758181916864</v>
       </c>
       <c r="AL95" t="n">
         <v>-12.07148806529311</v>
@@ -12283,7 +12283,7 @@
         <v>1.730605606249227</v>
       </c>
       <c r="AN95" t="n">
-        <v>-9.520284252703275</v>
+        <v>-10.54105827723557</v>
       </c>
     </row>
     <row r="96">
@@ -12398,7 +12398,7 @@
         <v>0.06605395394971005</v>
       </c>
       <c r="AK96" t="n">
-        <v>4.122094256644844</v>
+        <v>-0.1862750507847621</v>
       </c>
       <c r="AL96" t="n">
         <v>-8.93409847828973</v>
@@ -12407,7 +12407,7 @@
         <v>3.335239623901399</v>
       </c>
       <c r="AN96" t="n">
-        <v>-1.476764597743487</v>
+        <v>-5.785133905173092</v>
       </c>
     </row>
     <row r="97">
@@ -12522,7 +12522,7 @@
         <v>0.1575729328062057</v>
       </c>
       <c r="AK97" t="n">
-        <v>1.823706434856306</v>
+        <v>0.4728213321991891</v>
       </c>
       <c r="AL97" t="n">
         <v>-7.973600439924182</v>
@@ -12531,7 +12531,7 @@
         <v>2.645633434644179</v>
       </c>
       <c r="AN97" t="n">
-        <v>-3.504260570423698</v>
+        <v>-4.855145673080814</v>
       </c>
     </row>
     <row r="98">
@@ -12646,7 +12646,7 @@
         <v>0.1915336305466101</v>
       </c>
       <c r="AK98" t="n">
-        <v>-0.03564712982179633</v>
+        <v>-0.7094172829209963</v>
       </c>
       <c r="AL98" t="n">
         <v>-8.728040149512106</v>
@@ -12655,7 +12655,7 @@
         <v>2.641218525885009</v>
       </c>
       <c r="AN98" t="n">
-        <v>-6.122468753448894</v>
+        <v>-6.796238906548094</v>
       </c>
     </row>
     <row r="99">
@@ -12770,7 +12770,7 @@
         <v>0.1244443379331433</v>
       </c>
       <c r="AK99" t="n">
-        <v>0.09127006515760097</v>
+        <v>0.03190052528939933</v>
       </c>
       <c r="AL99" t="n">
         <v>-9.435032822957849</v>
@@ -12779,7 +12779,7 @@
         <v>1.656467734917757</v>
       </c>
       <c r="AN99" t="n">
-        <v>-7.68729502288249</v>
+        <v>-7.746664562750692</v>
       </c>
     </row>
     <row r="100">
@@ -12894,7 +12894,7 @@
         <v>0.3146553283164298</v>
       </c>
       <c r="AK100" t="n">
-        <v>3.397319823187138</v>
+        <v>0.8083327878069778</v>
       </c>
       <c r="AL100" t="n">
         <v>-8.430759973584664</v>
@@ -12903,7 +12903,7 @@
         <v>2.616048750996152</v>
       </c>
       <c r="AN100" t="n">
-        <v>-2.417391399401374</v>
+        <v>-5.006378434781533</v>
       </c>
     </row>
     <row r="101">
@@ -13018,7 +13018,7 @@
         <v>0.08570066372316699</v>
       </c>
       <c r="AK101" t="n">
-        <v>-4.005477553213093</v>
+        <v>-1.690380889819217</v>
       </c>
       <c r="AL101" t="n">
         <v>-9.883752427493629</v>
@@ -13027,7 +13027,7 @@
         <v>1.861016650472897</v>
       </c>
       <c r="AN101" t="n">
-        <v>-12.02821333023383</v>
+        <v>-9.713116666839948</v>
       </c>
     </row>
     <row r="102">
@@ -13142,7 +13142,7 @@
         <v>-0.01038379854719894</v>
       </c>
       <c r="AK102" t="n">
-        <v>1.225998359811066</v>
+        <v>-0.6746286802073621</v>
       </c>
       <c r="AL102" t="n">
         <v>-10.83292125954528</v>
@@ -13151,7 +13151,7 @@
         <v>2.385761708617381</v>
       </c>
       <c r="AN102" t="n">
-        <v>-7.221161191116831</v>
+        <v>-9.121788231135259</v>
       </c>
     </row>
     <row r="103">
@@ -13266,7 +13266,7 @@
         <v>-0.03592132280669296</v>
       </c>
       <c r="AK103" t="n">
-        <v>1.712322026626961</v>
+        <v>-0.005589754562819695</v>
       </c>
       <c r="AL103" t="n">
         <v>-10.66934497954808</v>
@@ -13275,7 +13275,7 @@
         <v>1.204401773911864</v>
       </c>
       <c r="AN103" t="n">
-        <v>-7.752621179009253</v>
+        <v>-9.470532960199034</v>
       </c>
     </row>
     <row r="104">
@@ -13390,7 +13390,7 @@
         <v>0.2827785212685758</v>
       </c>
       <c r="AK104" t="n">
-        <v>2.816648131288263</v>
+        <v>1.373582306407155</v>
       </c>
       <c r="AL104" t="n">
         <v>-9.423818852944082</v>
@@ -13399,7 +13399,7 @@
         <v>2.699182906316397</v>
       </c>
       <c r="AN104" t="n">
-        <v>-3.907987815339423</v>
+        <v>-5.351053640220531</v>
       </c>
     </row>
     <row r="105">
@@ -13514,7 +13514,7 @@
         <v>0.1792086940263051</v>
       </c>
       <c r="AK105" t="n">
-        <v>4.710789267486943</v>
+        <v>0.6840977487085682</v>
       </c>
       <c r="AL105" t="n">
         <v>-8.227310405747662</v>
@@ -13523,7 +13523,7 @@
         <v>1.85321162898101</v>
       </c>
       <c r="AN105" t="n">
-        <v>-1.663309509279709</v>
+        <v>-5.690001028058083</v>
       </c>
     </row>
     <row r="106">
@@ -13638,7 +13638,7 @@
         <v>0.08814671510752987</v>
       </c>
       <c r="AK106" t="n">
-        <v>2.967564450425811</v>
+        <v>0.3566150392932006</v>
       </c>
       <c r="AL106" t="n">
         <v>-8.104360703050274</v>
@@ -13647,7 +13647,7 @@
         <v>2.084980127071581</v>
       </c>
       <c r="AN106" t="n">
-        <v>-3.051816125552882</v>
+        <v>-5.662765536685493</v>
       </c>
     </row>
     <row r="107">
@@ -13762,7 +13762,7 @@
         <v>0.2587909806757508</v>
       </c>
       <c r="AK107" t="n">
-        <v>4.341713372356891</v>
+        <v>0.6624955272150921</v>
       </c>
       <c r="AL107" t="n">
         <v>-7.408550219087493</v>
@@ -13771,7 +13771,7 @@
         <v>3.200478627683012</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.1336417809524106</v>
+        <v>-3.545576064189389</v>
       </c>
     </row>
     <row r="108">
@@ -13886,7 +13886,7 @@
         <v>0.2665785874533608</v>
       </c>
       <c r="AK108" t="n">
-        <v>2.895435253969158</v>
+        <v>0.5702004080156611</v>
       </c>
       <c r="AL108" t="n">
         <v>-8.010587313886541</v>
@@ -13895,7 +13895,7 @@
         <v>2.555008484225799</v>
       </c>
       <c r="AN108" t="n">
-        <v>-2.560143575691584</v>
+        <v>-4.885378421645081</v>
       </c>
     </row>
     <row r="109">
@@ -14010,7 +14010,7 @@
         <v>0.2148800165022072</v>
       </c>
       <c r="AK109" t="n">
-        <v>4.03194171230628</v>
+        <v>0.386889962132371</v>
       </c>
       <c r="AL109" t="n">
         <v>-10.39978330388231</v>
@@ -14019,7 +14019,7 @@
         <v>2.8589308254521</v>
       </c>
       <c r="AN109" t="n">
-        <v>-3.508910766123925</v>
+        <v>-7.153962516297835</v>
       </c>
     </row>
     <row r="110">
@@ -14134,7 +14134,7 @@
         <v>-0.0077995536038212</v>
       </c>
       <c r="AK110" t="n">
-        <v>0.1885212997582419</v>
+        <v>-0.8064675038036804</v>
       </c>
       <c r="AL110" t="n">
         <v>-11.3857516698281</v>
@@ -14143,7 +14143,7 @@
         <v>2.276728140982012</v>
       </c>
       <c r="AN110" t="n">
-        <v>-8.920502229087841</v>
+        <v>-9.915491032649765</v>
       </c>
     </row>
     <row r="111">
@@ -14258,7 +14258,7 @@
         <v>-0.0849532940945425</v>
       </c>
       <c r="AK111" t="n">
-        <v>-2.803665813357407</v>
+        <v>-1.769056998458541</v>
       </c>
       <c r="AL111" t="n">
         <v>-10.02555049525445</v>
@@ -14267,7 +14267,7 @@
         <v>2.16251806207766</v>
       </c>
       <c r="AN111" t="n">
-        <v>-10.6666982465342</v>
+        <v>-9.632089431635332</v>
       </c>
     </row>
     <row r="112">
@@ -14382,7 +14382,7 @@
         <v>0.1809284910565726</v>
       </c>
       <c r="AK112" t="n">
-        <v>3.317962132381693</v>
+        <v>0.4883812894076493</v>
       </c>
       <c r="AL112" t="n">
         <v>-10.73148231703463</v>
@@ -14391,7 +14391,7 @@
         <v>2.787009009474609</v>
       </c>
       <c r="AN112" t="n">
-        <v>-4.626511175178333</v>
+        <v>-7.456092018152377</v>
       </c>
     </row>
     <row r="113">
@@ -14506,7 +14506,7 @@
         <v>0.167486286217453</v>
       </c>
       <c r="AK113" t="n">
-        <v>2.874146175404942</v>
+        <v>0.281105990775068</v>
       </c>
       <c r="AL113" t="n">
         <v>-7.757499951832068</v>
@@ -14515,7 +14515,7 @@
         <v>2.565584272393367</v>
       </c>
       <c r="AN113" t="n">
-        <v>-2.317769504033759</v>
+        <v>-4.910809688663632</v>
       </c>
     </row>
     <row r="114">
@@ -14630,7 +14630,7 @@
         <v>0.2613936998708855</v>
       </c>
       <c r="AK114" t="n">
-        <v>2.967239569591676</v>
+        <v>0.3394930911401175</v>
       </c>
       <c r="AL114" t="n">
         <v>-9.594981035984961</v>
@@ -14639,7 +14639,7 @@
         <v>2.544952139569415</v>
       </c>
       <c r="AN114" t="n">
-        <v>-4.082789326823871</v>
+        <v>-6.71053580527543</v>
       </c>
     </row>
     <row r="115">
@@ -14754,7 +14754,7 @@
         <v>0.2140602774625162</v>
       </c>
       <c r="AK115" t="n">
-        <v>1.857720178781422</v>
+        <v>0.1942724280208897</v>
       </c>
       <c r="AL115" t="n">
         <v>-9.037867117110411</v>
@@ -14763,7 +14763,7 @@
         <v>2.333054433821673</v>
       </c>
       <c r="AN115" t="n">
-        <v>-4.847092504507316</v>
+        <v>-6.510540255267848</v>
       </c>
     </row>
     <row r="116">
@@ -14878,7 +14878,7 @@
         <v>0.268449481599999</v>
       </c>
       <c r="AK116" t="n">
-        <v>2.48170262979697</v>
+        <v>0.2353803208557448</v>
       </c>
       <c r="AL116" t="n">
         <v>-8.155165950959882</v>
@@ -14887,7 +14887,7 @@
         <v>2.356280128531479</v>
       </c>
       <c r="AN116" t="n">
-        <v>-3.317183192631433</v>
+        <v>-5.563505501572658</v>
       </c>
     </row>
     <row r="117">
@@ -15002,7 +15002,7 @@
         <v>0.2292531602834578</v>
       </c>
       <c r="AK117" t="n">
-        <v>3.004277635577868</v>
+        <v>1.13424165436998</v>
       </c>
       <c r="AL117" t="n">
         <v>-11.85920525885087</v>
@@ -15011,7 +15011,7 @@
         <v>2.527111768589203</v>
       </c>
       <c r="AN117" t="n">
-        <v>-6.327815854683799</v>
+        <v>-8.197851835891688</v>
       </c>
     </row>
     <row r="118">
@@ -15126,7 +15126,7 @@
         <v>0.1685865747073277</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.2502049233764913</v>
+        <v>-0.009832760550498389</v>
       </c>
       <c r="AL118" t="n">
         <v>-10.23050545102693</v>
@@ -15135,7 +15135,7 @@
         <v>1.875837289633133</v>
       </c>
       <c r="AN118" t="n">
-        <v>-8.104463238017303</v>
+        <v>-8.364500921944293</v>
       </c>
     </row>
     <row r="119">
@@ -15250,7 +15250,7 @@
         <v>-0.0007541660549133119</v>
       </c>
       <c r="AK119" t="n">
-        <v>1.245802590476973</v>
+        <v>-0.1871114472163815</v>
       </c>
       <c r="AL119" t="n">
         <v>-9.633210722718722</v>
@@ -15259,7 +15259,7 @@
         <v>2.11713028419598</v>
       </c>
       <c r="AN119" t="n">
-        <v>-6.270277848045769</v>
+        <v>-7.703191885739123</v>
       </c>
     </row>
     <row r="120">
@@ -15374,7 +15374,7 @@
         <v>0.1456398247338927</v>
       </c>
       <c r="AK120" t="n">
-        <v>1.103854893974317</v>
+        <v>-0.2835412607601299</v>
       </c>
       <c r="AL120" t="n">
         <v>-5.863074600513191</v>
@@ -15383,7 +15383,7 @@
         <v>3.324600710302439</v>
       </c>
       <c r="AN120" t="n">
-        <v>-1.434618996236436</v>
+        <v>-2.822015150970882</v>
       </c>
     </row>
     <row r="121">
@@ -15498,7 +15498,7 @@
         <v>0.343579444965681</v>
       </c>
       <c r="AK121" t="n">
-        <v>3.156099228172377</v>
+        <v>0.3928658736647334</v>
       </c>
       <c r="AL121" t="n">
         <v>-10.20011001865757</v>
@@ -15507,7 +15507,7 @@
         <v>2.764997810206407</v>
       </c>
       <c r="AN121" t="n">
-        <v>-4.279012980278787</v>
+        <v>-7.042246334786429</v>
       </c>
     </row>
     <row r="122">
@@ -15622,7 +15622,7 @@
         <v>0.2265433791635344</v>
       </c>
       <c r="AK122" t="n">
-        <v>3.909705692757831</v>
+        <v>0.1749270384331091</v>
       </c>
       <c r="AL122" t="n">
         <v>-7.297366970903406</v>
@@ -15631,7 +15631,7 @@
         <v>2.686127021374395</v>
       </c>
       <c r="AN122" t="n">
-        <v>-0.7015342567711795</v>
+        <v>-4.436312911095902</v>
       </c>
     </row>
     <row r="123">
@@ -15746,7 +15746,7 @@
         <v>0.2221951046093984</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.520559658925053</v>
+        <v>-0.08130449423639786</v>
       </c>
       <c r="AL123" t="n">
         <v>-9.157683564752116</v>
@@ -15755,7 +15755,7 @@
         <v>2.858180191603926</v>
       </c>
       <c r="AN123" t="n">
-        <v>-4.778943714223136</v>
+        <v>-6.380807867384588</v>
       </c>
     </row>
     <row r="124">
@@ -15870,7 +15870,7 @@
         <v>0.1316139940554002</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.546424717686604</v>
+        <v>0.006060432823068534</v>
       </c>
       <c r="AL124" t="n">
         <v>-10.68605617810361</v>
@@ -15879,7 +15879,7 @@
         <v>1.783835437068143</v>
       </c>
       <c r="AN124" t="n">
-        <v>-7.355796023348861</v>
+        <v>-8.896160308212396</v>
       </c>
     </row>
     <row r="125">
@@ -15994,7 +15994,7 @@
         <v>0.1787688962397133</v>
       </c>
       <c r="AK125" t="n">
-        <v>-0.1152332912799716</v>
+        <v>-1.73137054663411</v>
       </c>
       <c r="AL125" t="n">
         <v>-9.582999567801535</v>
@@ -16003,7 +16003,7 @@
         <v>2.571078859702942</v>
       </c>
       <c r="AN125" t="n">
-        <v>-7.127153999378564</v>
+        <v>-8.743291254732704</v>
       </c>
     </row>
     <row r="126">
@@ -16118,7 +16118,7 @@
         <v>0.1818835138933887</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.733182447742914</v>
+        <v>-0.04048826020188542</v>
       </c>
       <c r="AL126" t="n">
         <v>-10.6921763663886</v>
@@ -16127,7 +16127,7 @@
         <v>2.55317520204669</v>
       </c>
       <c r="AN126" t="n">
-        <v>-6.405818716598999</v>
+        <v>-8.179489424543796</v>
       </c>
     </row>
     <row r="127">
@@ -16242,7 +16242,7 @@
         <v>0.2778761717435449</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.976002389674409</v>
+        <v>-0.2783598261486874</v>
       </c>
       <c r="AL127" t="n">
         <v>-13.24470743249028</v>
@@ -16251,7 +16251,7 @@
         <v>2.005065107355989</v>
       </c>
       <c r="AN127" t="n">
-        <v>-9.263639935459883</v>
+        <v>-11.51800215128298</v>
       </c>
     </row>
     <row r="128">
@@ -16366,7 +16366,7 @@
         <v>0.09152132699802742</v>
       </c>
       <c r="AK128" t="n">
-        <v>4.337918560926703</v>
+        <v>0.2593164087556092</v>
       </c>
       <c r="AL128" t="n">
         <v>-10.67213352193915</v>
@@ -16375,7 +16375,7 @@
         <v>2.520101184757229</v>
       </c>
       <c r="AN128" t="n">
-        <v>-3.814113776255218</v>
+        <v>-7.892715928426313</v>
       </c>
     </row>
     <row r="129">
@@ -16490,7 +16490,7 @@
         <v>0.2904816890669009</v>
       </c>
       <c r="AK129" t="n">
-        <v>1.888583892658094</v>
+        <v>0.2404941047732678</v>
       </c>
       <c r="AL129" t="n">
         <v>-9.105056727821022</v>
@@ -16499,7 +16499,7 @@
         <v>1.936344855977472</v>
       </c>
       <c r="AN129" t="n">
-        <v>-5.280127979185456</v>
+        <v>-6.928217767070283</v>
       </c>
     </row>
     <row r="130">
@@ -16614,7 +16614,7 @@
         <v>0.01253370692536285</v>
       </c>
       <c r="AK130" t="n">
-        <v>-0.4441932887104186</v>
+        <v>0.3186734884473857</v>
       </c>
       <c r="AL130" t="n">
         <v>-9.326523330763616</v>
@@ -16623,7 +16623,7 @@
         <v>2.279347413266724</v>
       </c>
       <c r="AN130" t="n">
-        <v>-7.491369206207311</v>
+        <v>-6.728502429049506</v>
       </c>
     </row>
     <row r="131">
@@ -16738,7 +16738,7 @@
         <v>0.2893717281207434</v>
       </c>
       <c r="AK131" t="n">
-        <v>2.866152069181428</v>
+        <v>0.7267632602315632</v>
       </c>
       <c r="AL131" t="n">
         <v>-8.523899565585751</v>
@@ -16747,7 +16747,7 @@
         <v>2.662727926290813</v>
       </c>
       <c r="AN131" t="n">
-        <v>-2.99501957011351</v>
+        <v>-5.134408379063375</v>
       </c>
     </row>
     <row r="132">
@@ -16862,7 +16862,7 @@
         <v>0.2243305446669307</v>
       </c>
       <c r="AK132" t="n">
-        <v>2.508871442651131</v>
+        <v>-0.02505799165947571</v>
       </c>
       <c r="AL132" t="n">
         <v>-7.439336016482929</v>
@@ -16871,7 +16871,7 @@
         <v>2.470811852509721</v>
       </c>
       <c r="AN132" t="n">
-        <v>-2.459652721322076</v>
+        <v>-4.993582155632684</v>
       </c>
     </row>
     <row r="133">
@@ -16986,7 +16986,7 @@
         <v>0.1975600018718598</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.986603000855256</v>
+        <v>0.9129389582584775</v>
       </c>
       <c r="AL133" t="n">
         <v>-9.088635286416935</v>
@@ -16995,7 +16995,7 @@
         <v>2.499153294344754</v>
       </c>
       <c r="AN133" t="n">
-        <v>-4.602878991216924</v>
+        <v>-5.676543033813703</v>
       </c>
     </row>
     <row r="134">
@@ -17110,7 +17110,7 @@
         <v>0.2811669469844215</v>
       </c>
       <c r="AK134" t="n">
-        <v>2.510418001214181</v>
+        <v>0.4012676713478367</v>
       </c>
       <c r="AL134" t="n">
         <v>-7.833305169472409</v>
@@ -17119,7 +17119,7 @@
         <v>2.507281140857341</v>
       </c>
       <c r="AN134" t="n">
-        <v>-2.815606027400886</v>
+        <v>-4.924756357267231</v>
       </c>
     </row>
     <row r="135">
@@ -17234,7 +17234,7 @@
         <v>-0.1395954448533699</v>
       </c>
       <c r="AK135" t="n">
-        <v>-0.6804534851359465</v>
+        <v>-0.3047356922980264</v>
       </c>
       <c r="AL135" t="n">
         <v>-10.88021305327009</v>
@@ -17243,7 +17243,7 @@
         <v>1.915999119042789</v>
       </c>
       <c r="AN135" t="n">
-        <v>-9.644667419363246</v>
+        <v>-9.268949626525327</v>
       </c>
     </row>
     <row r="136">
@@ -17358,7 +17358,7 @@
         <v>0.2569563219372574</v>
       </c>
       <c r="AK136" t="n">
-        <v>2.324731615461948</v>
+        <v>0.5511558515313105</v>
       </c>
       <c r="AL136" t="n">
         <v>-10.359640707828</v>
@@ -17367,7 +17367,7 @@
         <v>2.15319183362059</v>
       </c>
       <c r="AN136" t="n">
-        <v>-5.881717258745466</v>
+        <v>-7.655293022676104</v>
       </c>
     </row>
     <row r="137">
@@ -17482,7 +17482,7 @@
         <v>0.004627323146514133</v>
       </c>
       <c r="AK137" t="n">
-        <v>-2.274896456193117</v>
+        <v>-0.6247885251630528</v>
       </c>
       <c r="AL137" t="n">
         <v>-10.28094554376941</v>
@@ -17491,7 +17491,7 @@
         <v>1.980404689698555</v>
       </c>
       <c r="AN137" t="n">
-        <v>-10.57543731026397</v>
+        <v>-8.925329379233906</v>
       </c>
     </row>
     <row r="138">
@@ -17606,7 +17606,7 @@
         <v>-0.02887904404389346</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.1028049478948569</v>
+        <v>-1.562321564176096</v>
       </c>
       <c r="AL138" t="n">
         <v>-10.98654883881618</v>
@@ -17615,7 +17615,7 @@
         <v>2.443723583836626</v>
       </c>
       <c r="AN138" t="n">
-        <v>-8.440020307084698</v>
+        <v>-10.10514681915565</v>
       </c>
     </row>
     <row r="139">
@@ -17730,7 +17730,7 @@
         <v>-0.1336391688720518</v>
       </c>
       <c r="AK139" t="n">
-        <v>-2.107242530958183</v>
+        <v>-1.007965657229926</v>
       </c>
       <c r="AL139" t="n">
         <v>-9.959909934547431</v>
@@ -17739,7 +17739,7 @@
         <v>1.704447158779988</v>
       </c>
       <c r="AN139" t="n">
-        <v>-10.36270530672563</v>
+        <v>-9.263428432997369</v>
       </c>
     </row>
     <row r="140">
@@ -17854,7 +17854,7 @@
         <v>0.004016343413390189</v>
       </c>
       <c r="AK140" t="n">
-        <v>3.715424392026764</v>
+        <v>0.6510389265861257</v>
       </c>
       <c r="AL140" t="n">
         <v>-10.49649654345403</v>
@@ -17863,7 +17863,7 @@
         <v>2.21712440455058</v>
       </c>
       <c r="AN140" t="n">
-        <v>-4.563947746876691</v>
+        <v>-7.62833321231733</v>
       </c>
     </row>
     <row r="141">
@@ -17978,7 +17978,7 @@
         <v>0.2457304037119557</v>
       </c>
       <c r="AK141" t="n">
-        <v>1.318040036585628</v>
+        <v>0.1334385701060605</v>
       </c>
       <c r="AL141" t="n">
         <v>-9.146367046733465</v>
@@ -17987,7 +17987,7 @@
         <v>2.284655904174108</v>
       </c>
       <c r="AN141" t="n">
-        <v>-5.543671105973729</v>
+        <v>-6.728272572453297</v>
       </c>
     </row>
     <row r="142">
@@ -18102,7 +18102,7 @@
         <v>-0.07024608750793672</v>
       </c>
       <c r="AK142" t="n">
-        <v>-0.1308802705651144</v>
+        <v>-0.2705649505105956</v>
       </c>
       <c r="AL142" t="n">
         <v>-10.84148915726051</v>
@@ -18111,7 +18111,7 @@
         <v>2.285423820196082</v>
       </c>
       <c r="AN142" t="n">
-        <v>-8.686945607629548</v>
+        <v>-8.826630287575028</v>
       </c>
     </row>
     <row r="143">
@@ -18226,7 +18226,7 @@
         <v>0.04795996658599886</v>
       </c>
       <c r="AK143" t="n">
-        <v>-2.036864579416309</v>
+        <v>-0.7635998032824592</v>
       </c>
       <c r="AL143" t="n">
         <v>-9.144541282086077</v>
@@ -18235,7 +18235,7 @@
         <v>1.80224759421804</v>
       </c>
       <c r="AN143" t="n">
-        <v>-9.379158267284346</v>
+        <v>-8.105893491150496</v>
       </c>
     </row>
     <row r="144">
@@ -18350,7 +18350,7 @@
         <v>0.2811015411984937</v>
       </c>
       <c r="AK144" t="n">
-        <v>1.249031820612527</v>
+        <v>-0.1561940762622675</v>
       </c>
       <c r="AL144" t="n">
         <v>-12.87431675816669</v>
@@ -18359,7 +18359,7 @@
         <v>2.346325491531209</v>
       </c>
       <c r="AN144" t="n">
-        <v>-9.278959446022951</v>
+        <v>-10.68418534289775</v>
       </c>
     </row>
     <row r="145">
@@ -18474,7 +18474,7 @@
         <v>0.1794319315472532</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.05576657179198817</v>
+        <v>0.02150172640312274</v>
       </c>
       <c r="AL145" t="n">
         <v>-9.810732322379135</v>
@@ -18483,7 +18483,7 @@
         <v>2.835680215540036</v>
       </c>
       <c r="AN145" t="n">
-        <v>-6.919285535047111</v>
+        <v>-6.953550380435976</v>
       </c>
     </row>
     <row r="146">
@@ -18598,7 +18598,7 @@
         <v>0.1467939995270025</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.6184253578741875</v>
+        <v>0.08422365555758374</v>
       </c>
       <c r="AL146" t="n">
         <v>-9.929866801649126</v>
@@ -18607,7 +18607,7 @@
         <v>1.884881904107643</v>
       </c>
       <c r="AN146" t="n">
-        <v>-7.426559539667296</v>
+        <v>-7.9607612419839</v>
       </c>
     </row>
     <row r="147">
@@ -18722,7 +18722,7 @@
         <v>0.05627153209299154</v>
       </c>
       <c r="AK147" t="n">
-        <v>2.500263706852443</v>
+        <v>0.01240666323571764</v>
       </c>
       <c r="AL147" t="n">
         <v>-10.83928864216463</v>
@@ -18731,7 +18731,7 @@
         <v>1.567782485579664</v>
       </c>
       <c r="AN147" t="n">
-        <v>-6.771242449732523</v>
+        <v>-9.259099493349249</v>
       </c>
     </row>
     <row r="148">
@@ -18846,7 +18846,7 @@
         <v>0.02553700368941194</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.114148826173713</v>
+        <v>0.7058878784813477</v>
       </c>
       <c r="AL148" t="n">
         <v>-8.743028378214424</v>
@@ -18855,7 +18855,7 @@
         <v>1.956643845860841</v>
       </c>
       <c r="AN148" t="n">
-        <v>-5.67223570617987</v>
+        <v>-6.080496653872236</v>
       </c>
     </row>
     <row r="149">
@@ -18970,7 +18970,7 @@
         <v>0.2177384989295042</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.640827076243115</v>
+        <v>-0.290888417927715</v>
       </c>
       <c r="AL149" t="n">
         <v>-9.233501954532898</v>
@@ -18979,7 +18979,7 @@
         <v>3.02067387909264</v>
       </c>
       <c r="AN149" t="n">
-        <v>-3.572000999197142</v>
+        <v>-6.503716493367972</v>
       </c>
     </row>
     <row r="150">
@@ -19094,7 +19094,7 @@
         <v>-0.02818456282930008</v>
       </c>
       <c r="AK150" t="n">
-        <v>2.398256396505202</v>
+        <v>0.04260854451087155</v>
       </c>
       <c r="AL150" t="n">
         <v>-14.1040491978401</v>
@@ -19103,7 +19103,7 @@
         <v>2.541339927396203</v>
       </c>
       <c r="AN150" t="n">
-        <v>-9.164452873938693</v>
+        <v>-11.52010072593302</v>
       </c>
     </row>
     <row r="151">
@@ -19218,7 +19218,7 @@
         <v>-0.0420318953441734</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.8431908825314969</v>
+        <v>0.06921747851929752</v>
       </c>
       <c r="AL151" t="n">
         <v>-11.55488254016868</v>
@@ -19227,7 +19227,7 @@
         <v>1.908386122460399</v>
       </c>
       <c r="AN151" t="n">
-        <v>-8.803305535176788</v>
+        <v>-9.577278939188988</v>
       </c>
     </row>
     <row r="152">
@@ -19342,7 +19342,7 @@
         <v>0.2257968305255448</v>
       </c>
       <c r="AK152" t="n">
-        <v>2.102887221391066</v>
+        <v>0.7202096544532839</v>
       </c>
       <c r="AL152" t="n">
         <v>-10.50896334152284</v>
@@ -19351,7 +19351,7 @@
         <v>2.023996130840089</v>
       </c>
       <c r="AN152" t="n">
-        <v>-6.382079989291686</v>
+        <v>-7.764757556229469</v>
       </c>
     </row>
     <row r="153">
@@ -19466,7 +19466,7 @@
         <v>0.1238008829510981</v>
       </c>
       <c r="AK153" t="n">
-        <v>1.091303642381172</v>
+        <v>-0.1500102920644746</v>
       </c>
       <c r="AL153" t="n">
         <v>-8.995593587954794</v>
@@ -19475,7 +19475,7 @@
         <v>1.919667287367621</v>
       </c>
       <c r="AN153" t="n">
-        <v>-5.984622658206</v>
+        <v>-7.225936592651647</v>
       </c>
     </row>
     <row r="154">
@@ -19590,7 +19590,7 @@
         <v>0.2039021389741898</v>
       </c>
       <c r="AK154" t="n">
-        <v>4.278608153754917</v>
+        <v>0.9204879702606719</v>
       </c>
       <c r="AL154" t="n">
         <v>-8.943398068057125</v>
@@ -19599,7 +19599,7 @@
         <v>3.18031209218228</v>
       </c>
       <c r="AN154" t="n">
-        <v>-1.484477822119928</v>
+        <v>-4.842598005614173</v>
       </c>
     </row>
     <row r="155">
@@ -19714,7 +19714,7 @@
         <v>0.2160151335558353</v>
       </c>
       <c r="AK155" t="n">
-        <v>2.966854228395276</v>
+        <v>0.2440240545553732</v>
       </c>
       <c r="AL155" t="n">
         <v>-9.191514744549854</v>
@@ -19723,7 +19723,7 @@
         <v>2.772752858746185</v>
       </c>
       <c r="AN155" t="n">
-        <v>-3.451907657408393</v>
+        <v>-6.174737831248296</v>
       </c>
     </row>
     <row r="156">
@@ -19838,7 +19838,7 @@
         <v>0.1262830990458565</v>
       </c>
       <c r="AK156" t="n">
-        <v>3.561816466067236</v>
+        <v>0.7319640260198582</v>
       </c>
       <c r="AL156" t="n">
         <v>-8.61668277647947</v>
@@ -19847,7 +19847,7 @@
         <v>2.761517985034063</v>
       </c>
       <c r="AN156" t="n">
-        <v>-2.293348325378171</v>
+        <v>-5.123200765425549</v>
       </c>
     </row>
     <row r="157">
@@ -19962,7 +19962,7 @@
         <v>-0.05252915257097401</v>
       </c>
       <c r="AK157" t="n">
-        <v>-1.170622607859896</v>
+        <v>-1.219175382124809</v>
       </c>
       <c r="AL157" t="n">
         <v>-10.43427905361962</v>
@@ -19971,7 +19971,7 @@
         <v>1.449690068219654</v>
       </c>
       <c r="AN157" t="n">
-        <v>-10.15521159325987</v>
+        <v>-10.20376436752478</v>
       </c>
     </row>
     <row r="158">
@@ -20086,7 +20086,7 @@
         <v>0.2837989100423026</v>
       </c>
       <c r="AK158" t="n">
-        <v>2.420094230329954</v>
+        <v>0.2582321570748312</v>
       </c>
       <c r="AL158" t="n">
         <v>-8.566300087221352</v>
@@ -20095,7 +20095,7 @@
         <v>2.801788565973822</v>
       </c>
       <c r="AN158" t="n">
-        <v>-3.344417290917576</v>
+        <v>-5.506279364172698</v>
       </c>
     </row>
     <row r="159">
@@ -20210,7 +20210,7 @@
         <v>0.3209978483486542</v>
       </c>
       <c r="AK159" t="n">
-        <v>3.13207039897049</v>
+        <v>0.5561138357732739</v>
       </c>
       <c r="AL159" t="n">
         <v>-5.8963406328643</v>
@@ -20219,7 +20219,7 @@
         <v>2.566791396</v>
       </c>
       <c r="AN159" t="n">
-        <v>-0.1974788378938097</v>
+        <v>-2.773435401091026</v>
       </c>
     </row>
     <row r="160">
@@ -20334,7 +20334,7 @@
         <v>0.07839512731399524</v>
       </c>
       <c r="AK160" t="n">
-        <v>1.007240462430783</v>
+        <v>1.103015476746948</v>
       </c>
       <c r="AL160" t="n">
         <v>-7.470476787769698</v>
@@ -20343,7 +20343,7 @@
         <v>1.943376229480157</v>
       </c>
       <c r="AN160" t="n">
-        <v>-4.519860095858758</v>
+        <v>-4.424085081542592</v>
       </c>
     </row>
     <row r="161">
@@ -20458,7 +20458,7 @@
         <v>-0.1228790364151159</v>
       </c>
       <c r="AK161" t="n">
-        <v>0.3970329053093463</v>
+        <v>-0.5328054344115302</v>
       </c>
       <c r="AL161" t="n">
         <v>-11.4502213929782</v>
@@ -20467,7 +20467,7 @@
         <v>2.572732680729677</v>
       </c>
       <c r="AN161" t="n">
-        <v>-8.480455806939174</v>
+        <v>-9.410294146660052</v>
       </c>
     </row>
     <row r="162">
@@ -20582,7 +20582,7 @@
         <v>0.2797693085251196</v>
       </c>
       <c r="AK162" t="n">
-        <v>3.739253199721841</v>
+        <v>1.000549232829169</v>
       </c>
       <c r="AL162" t="n">
         <v>-8.045473164963306</v>
@@ -20591,7 +20591,7 @@
         <v>2.839958685856766</v>
       </c>
       <c r="AN162" t="n">
-        <v>-1.4662612793847</v>
+        <v>-4.204965246277371</v>
       </c>
     </row>
     <row r="163">
@@ -20706,7 +20706,7 @@
         <v>0.1422986865441846</v>
       </c>
       <c r="AK163" t="n">
-        <v>3.621230803740165</v>
+        <v>0.6888877371568199</v>
       </c>
       <c r="AL163" t="n">
         <v>-10.02898039831704</v>
@@ -20715,7 +20715,7 @@
         <v>1.958763450397016</v>
       </c>
       <c r="AN163" t="n">
-        <v>-4.448986144179858</v>
+        <v>-7.381329210763202</v>
       </c>
     </row>
     <row r="164">
@@ -20830,7 +20830,7 @@
         <v>0.1702032922743236</v>
       </c>
       <c r="AK164" t="n">
-        <v>2.680249725593471</v>
+        <v>0.6154692501203364</v>
       </c>
       <c r="AL164" t="n">
         <v>-7.155735836346218</v>
@@ -20839,7 +20839,7 @@
         <v>2.7530387857707</v>
       </c>
       <c r="AN164" t="n">
-        <v>-1.722447324982047</v>
+        <v>-3.787227800455182</v>
       </c>
     </row>
     <row r="165">
@@ -20954,7 +20954,7 @@
         <v>0.2534432936141042</v>
       </c>
       <c r="AK165" t="n">
-        <v>1.273312450385352</v>
+        <v>0.05916469469561396</v>
       </c>
       <c r="AL165" t="n">
         <v>-8.912998047912499</v>
@@ -20963,7 +20963,7 @@
         <v>2.516395805058615</v>
       </c>
       <c r="AN165" t="n">
-        <v>-5.123289792468531</v>
+        <v>-6.33743754815827</v>
       </c>
     </row>
     <row r="166">
@@ -21078,7 +21078,7 @@
         <v>0.2591291549157473</v>
       </c>
       <c r="AK166" t="n">
-        <v>2.84695952429253</v>
+        <v>0.8257176747840279</v>
       </c>
       <c r="AL166" t="n">
         <v>-9.642205030561344</v>
@@ -21087,7 +21087,7 @@
         <v>2.152744362981671</v>
       </c>
       <c r="AN166" t="n">
-        <v>-4.642501143287143</v>
+        <v>-6.663742992795644</v>
       </c>
     </row>
     <row r="167">
@@ -21202,7 +21202,7 @@
         <v>0.05074028835899175</v>
       </c>
       <c r="AK167" t="n">
-        <v>0.4381277009341723</v>
+        <v>1.047362772830096</v>
       </c>
       <c r="AL167" t="n">
         <v>-8.295054975684208</v>
@@ -21211,7 +21211,7 @@
         <v>3.089930255666845</v>
       </c>
       <c r="AN167" t="n">
-        <v>-4.76699701908319</v>
+        <v>-4.157761947187267</v>
       </c>
     </row>
     <row r="168">
@@ -21326,7 +21326,7 @@
         <v>-0.1468047655011192</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.5274899234474874</v>
+        <v>-1.130185392555256</v>
       </c>
       <c r="AL168" t="n">
         <v>-10.76958255958851</v>
@@ -21335,7 +21335,7 @@
         <v>2.226921032659365</v>
       </c>
       <c r="AN168" t="n">
-        <v>-8.015171603481662</v>
+        <v>-9.672846919484403</v>
       </c>
     </row>
     <row r="169">
@@ -21450,7 +21450,7 @@
         <v>0.03559215304512069</v>
       </c>
       <c r="AK169" t="n">
-        <v>-0.4969425088832314</v>
+        <v>-0.4963881376899587</v>
       </c>
       <c r="AL169" t="n">
         <v>-9.609318240946729</v>
@@ -21459,7 +21459,7 @@
         <v>2.056037247723291</v>
       </c>
       <c r="AN169" t="n">
-        <v>-8.05022350210667</v>
+        <v>-8.049669130913397</v>
       </c>
     </row>
     <row r="170">
@@ -21574,7 +21574,7 @@
         <v>-0.04612204868726691</v>
       </c>
       <c r="AK170" t="n">
-        <v>2.30520365266443</v>
+        <v>0.2115090591671312</v>
       </c>
       <c r="AL170" t="n">
         <v>-12.35643114738403</v>
@@ -21583,7 +21583,7 @@
         <v>2.13421726539233</v>
       </c>
       <c r="AN170" t="n">
-        <v>-7.917010229327269</v>
+        <v>-10.01070482282457</v>
       </c>
     </row>
     <row r="171">
@@ -21698,7 +21698,7 @@
         <v>0.1530485017959816</v>
       </c>
       <c r="AK171" t="n">
-        <v>1.507211497523845</v>
+        <v>0.3197026446752521</v>
       </c>
       <c r="AL171" t="n">
         <v>-11.48594968308679</v>
@@ -21707,7 +21707,7 @@
         <v>2.35348857347212</v>
       </c>
       <c r="AN171" t="n">
-        <v>-7.625249612090828</v>
+        <v>-8.812758464939423</v>
       </c>
     </row>
   </sheetData>
